--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>Site</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>MilfordST</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>2017-08-25</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-09-07</t>
   </si>
 </sst>
 </file>
@@ -411,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,12 +440,12 @@
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,23 +467,26 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -476,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -487,11 +508,14 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -502,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -513,11 +537,14 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -528,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -539,11 +566,14 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -554,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -565,11 +595,14 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -580,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -591,11 +624,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -606,7 +639,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -617,11 +650,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -632,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -643,8 +676,205 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>Site</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>2017-09-07</t>
+  </si>
+  <si>
+    <t>2017-08-26</t>
+  </si>
+  <si>
+    <t>2017-09-08</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,6 +883,145 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="33">
   <si>
     <t>Site</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>2017-09-08</t>
+  </si>
+  <si>
+    <t>2017-08-27</t>
+  </si>
+  <si>
+    <t>2017-09-09</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,6 +969,9 @@
       <c r="G18">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1020,6 +1029,149 @@
       </c>
       <c r="I20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="35">
   <si>
     <t>Site</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>2017-09-09</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-09-10</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,6 +1180,157 @@
         <v>3</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f>SUM(I2:I30)</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f>0.6*I32</f>
+        <v>489.59999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1560" windowWidth="27000" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="51520" yWindow="1040" windowWidth="27000" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Purge" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$41</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="53">
   <si>
     <t>Site</t>
   </si>
@@ -132,16 +136,76 @@
   </si>
   <si>
     <t>2017-09-10</t>
+  </si>
+  <si>
+    <t>2017-08-29</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>finish_time</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Collect_day</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2017-08-30</t>
+  </si>
+  <si>
+    <t>2017-09-12</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,23 +511,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,34 +544,37 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -518,22 +588,25 @@
         <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -547,22 +620,25 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -576,22 +652,25 @@
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -605,22 +684,25 @@
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -634,19 +716,22 @@
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -660,19 +745,22 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -686,19 +774,22 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -712,22 +803,25 @@
         <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -741,22 +835,25 @@
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -770,22 +867,25 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -799,22 +899,25 @@
         <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -828,19 +931,22 @@
         <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -854,19 +960,22 @@
         <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -880,22 +989,25 @@
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -909,22 +1021,25 @@
         <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -938,22 +1053,25 @@
         <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -967,19 +1085,22 @@
         <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -993,22 +1114,25 @@
         <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1022,22 +1146,25 @@
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1051,22 +1178,25 @@
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1080,22 +1210,25 @@
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1109,20 +1242,23 @@
         <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1136,22 +1272,25 @@
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1165,22 +1304,25 @@
         <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,22 +1336,25 @@
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1223,22 +1368,25 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1252,19 +1400,22 @@
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1278,19 +1429,22 @@
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1304,31 +1458,385 @@
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I32">
-        <f>SUM(I2:I30)</f>
-        <v>816</v>
-      </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J33">
-        <f>0.6*I32</f>
-        <v>489.59999999999997</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41">
+        <f>SUM(J2:J40)</f>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f>SUM(J2:J40)</f>
+        <v>1249</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21700" yWindow="1840" windowWidth="27000" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4200" yWindow="1440" windowWidth="29360" windowHeight="24640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="61">
   <si>
     <t>Site</t>
   </si>
@@ -212,13 +212,16 @@
   </si>
   <si>
     <t>2017-09-16</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +231,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,8 +281,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -273,7 +294,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>57</v>
@@ -2288,7 +2311,7 @@
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>57</v>
@@ -2320,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>57</v>
@@ -2352,7 +2375,7 @@
         <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>57</v>
@@ -2384,7 +2407,7 @@
         <v>22</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>57</v>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewnguyen/Circadian_rhythm_runs_seasonal_timing/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1440" windowWidth="29360" windowHeight="24640" tabRatio="500"/>
+    <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -19,20 +14,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Maggot_collections!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="68">
   <si>
     <t>Site</t>
   </si>
@@ -215,6 +210,27 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
+  </si>
+  <si>
+    <t>2017-09-02</t>
+  </si>
+  <si>
+    <t>2017-09-17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2017-09-18</t>
   </si>
 </sst>
 </file>
@@ -227,6 +243,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,22 +298,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -352,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -387,7 +450,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -564,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,17 +638,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
@@ -597,7 +662,7 @@
     <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -616,13 +681,13 @@
       <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -653,7 +718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -672,13 +737,13 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>26</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -697,7 +762,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,13 +781,13 @@
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>46</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -740,7 +805,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -759,13 +824,13 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>26</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -783,7 +848,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -802,13 +867,13 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>80</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -826,7 +891,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -845,10 +910,11 @@
       <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -866,7 +932,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -885,10 +951,11 @@
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -906,7 +973,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -925,10 +992,11 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -946,7 +1014,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -965,13 +1033,13 @@
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -987,7 +1055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1006,13 +1074,13 @@
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1028,7 +1096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1047,13 +1115,13 @@
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1069,7 +1137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1088,13 +1156,13 @@
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>2</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1110,7 +1178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1129,10 +1197,10 @@
       <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1148,7 +1216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1167,10 +1235,10 @@
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1186,7 +1254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1205,13 +1273,13 @@
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1227,7 +1295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1246,13 +1314,13 @@
       <c r="F16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="7">
         <v>49</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -1270,7 +1338,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1289,13 +1357,13 @@
       <c r="F17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="7">
         <v>88</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -1313,7 +1381,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1332,10 +1400,11 @@
       <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -1353,7 +1422,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1372,13 +1441,13 @@
       <c r="F19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="7">
         <v>3</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -1396,7 +1465,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1415,13 +1484,13 @@
       <c r="F20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="7">
         <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -1439,7 +1508,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1458,13 +1527,13 @@
       <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>81</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1480,7 +1549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1499,13 +1568,13 @@
       <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>96</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1521,7 +1590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1540,11 +1609,11 @@
       <c r="F23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23">
+      <c r="H23" s="11"/>
+      <c r="I23" s="8">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1560,7 +1629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1579,13 +1648,13 @@
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>1</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1601,7 +1670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1620,13 +1689,13 @@
       <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1642,7 +1711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1661,13 +1730,13 @@
       <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="7">
         <v>1</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="7">
         <v>102</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -1685,7 +1754,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1704,13 +1773,13 @@
       <c r="F27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="7">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="7">
         <v>94</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -1728,7 +1797,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1747,10 +1816,11 @@
       <c r="F28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="2">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
         <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -1768,7 +1838,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1787,10 +1857,11 @@
       <c r="F29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
         <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -1808,7 +1879,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1827,13 +1898,13 @@
       <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="7">
         <v>1</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="7">
         <v>11</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -1851,7 +1922,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1870,13 +1941,13 @@
       <c r="F31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="8">
         <v>1</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="8">
         <v>88</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1892,7 +1963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1911,13 +1982,13 @@
       <c r="F32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>111</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1933,7 +2004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1952,13 +2023,13 @@
       <c r="F33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="8">
         <v>1</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="8">
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1974,7 +2045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1993,10 +2064,10 @@
       <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="8">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -2012,7 +2083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2031,13 +2102,13 @@
       <c r="F35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="8">
         <v>1</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="8">
         <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -2053,7 +2124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2072,13 +2143,13 @@
       <c r="F36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="7">
         <v>1</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="7">
         <v>87</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -2096,7 +2167,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2115,13 +2186,13 @@
       <c r="F37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="7">
         <v>122</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -2139,7 +2210,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2158,10 +2229,11 @@
       <c r="F38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="7">
         <v>0</v>
       </c>
-      <c r="I38" s="2">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
         <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -2179,7 +2251,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2198,13 +2270,13 @@
       <c r="F39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="7">
         <v>2</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -2222,7 +2294,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2241,13 +2313,13 @@
       <c r="F40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="7">
         <v>13</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -2265,7 +2337,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2361,7 +2433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2425,25 +2497,541 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J46" s="1" t="s">
+    <row r="46" spans="1:18" s="2" customFormat="1">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H54" t="s">
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" s="2" customFormat="1">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" s="2" customFormat="1">
+      <c r="A48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" s="2" customFormat="1">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" s="2" customFormat="1">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="2" customFormat="1">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" s="2" customFormat="1">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" s="2" customFormat="1">
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" s="2" customFormat="1">
+      <c r="A59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" s="2" customFormat="1">
+      <c r="A60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="66" spans="8:9">
+      <c r="H66" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I54">
+      <c r="I66" s="8">
         <f>SUM(I2:I40)</f>
         <v>1249</v>
       </c>
@@ -2451,7 +3039,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2463,9 +3056,14 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2475,8 +3073,13 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500"/>
+    <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
-    <sheet name="Purge_times" sheetId="2" r:id="rId2"/>
-    <sheet name="Data_collect" sheetId="4" r:id="rId3"/>
+    <sheet name="Data_collect" sheetId="4" r:id="rId2"/>
+    <sheet name="Purge_times" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Maggot_collections!$A$1:$I$41</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="81">
   <si>
     <t>Site</t>
   </si>
@@ -231,6 +231,45 @@
   </si>
   <si>
     <t>2017-09-18</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Ind_ID</t>
+  </si>
+  <si>
+    <t>tape</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>purge_time</t>
+  </si>
+  <si>
+    <t>day10</t>
+  </si>
+  <si>
+    <t>cohort_date</t>
+  </si>
+  <si>
+    <t>cohort_day</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Li-cor</t>
+  </si>
+  <si>
+    <t>Milford</t>
+  </si>
+  <si>
+    <t>Blank</t>
   </si>
 </sst>
 </file>
@@ -298,7 +337,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,8 +355,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -342,8 +405,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -352,6 +416,18 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -360,6 +436,18 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,10 +726,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2356,6 +2444,15 @@
       <c r="F41" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="8">
+        <v>110</v>
+      </c>
       <c r="J41" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,6 +2485,15 @@
       <c r="F42" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="8">
+        <v>118</v>
+      </c>
       <c r="J42" s="1" t="s">
         <v>29</v>
       </c>
@@ -2420,6 +2526,12 @@
       <c r="F43" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
       <c r="J43" s="1" t="s">
         <v>29</v>
       </c>
@@ -2452,6 +2564,15 @@
       <c r="F44" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
       <c r="J44" s="1" t="s">
         <v>29</v>
       </c>
@@ -2484,6 +2605,15 @@
       <c r="F45" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="8">
+        <v>18</v>
+      </c>
       <c r="J45" s="1" t="s">
         <v>29</v>
       </c>
@@ -2516,9 +2646,15 @@
       <c r="F46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="7">
+        <v>65</v>
+      </c>
       <c r="J46" s="3" t="s">
         <v>31</v>
       </c>
@@ -2553,9 +2689,15 @@
       <c r="F47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="7">
+        <v>110</v>
+      </c>
       <c r="J47" s="3" t="s">
         <v>31</v>
       </c>
@@ -2590,9 +2732,15 @@
       <c r="F48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="7">
+        <v>4</v>
+      </c>
       <c r="J48" s="3" t="s">
         <v>31</v>
       </c>
@@ -2627,9 +2775,15 @@
       <c r="F49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
       <c r="J49" s="3" t="s">
         <v>31</v>
       </c>
@@ -2664,9 +2818,15 @@
       <c r="F50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="7">
+        <v>28</v>
+      </c>
       <c r="J50" s="3" t="s">
         <v>31</v>
       </c>
@@ -2701,6 +2861,15 @@
       <c r="F51" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="8">
+        <v>92</v>
+      </c>
       <c r="J51" s="1" t="s">
         <v>41</v>
       </c>
@@ -2733,6 +2902,15 @@
       <c r="F52" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="8">
+        <v>130</v>
+      </c>
       <c r="J52" s="1" t="s">
         <v>41</v>
       </c>
@@ -2765,6 +2943,15 @@
       <c r="F53" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="8">
+        <v>1</v>
+      </c>
       <c r="J53" s="1" t="s">
         <v>41</v>
       </c>
@@ -2797,6 +2984,12 @@
       <c r="F54" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
       <c r="J54" s="1" t="s">
         <v>41</v>
       </c>
@@ -2829,6 +3022,15 @@
       <c r="F55" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="8">
+        <v>22</v>
+      </c>
       <c r="J55" s="1" t="s">
         <v>41</v>
       </c>
@@ -2861,9 +3063,15 @@
       <c r="F56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="7">
+        <v>54</v>
+      </c>
       <c r="J56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2898,9 +3106,15 @@
       <c r="F57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="7">
+        <v>117</v>
+      </c>
       <c r="J57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2935,9 +3149,15 @@
       <c r="F58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="7">
+        <v>3</v>
+      </c>
       <c r="J58" s="3" t="s">
         <v>55</v>
       </c>
@@ -2972,9 +3192,13 @@
       <c r="F59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
       <c r="J59" s="3" t="s">
         <v>55</v>
       </c>
@@ -3009,9 +3233,15 @@
       <c r="F60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="7">
+        <v>18</v>
+      </c>
       <c r="J60" s="3" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3262,14 @@
         <v>42</v>
       </c>
       <c r="I66" s="8">
-        <f>SUM(I2:I40)</f>
-        <v>1249</v>
+        <f>SUM(I2:I60)</f>
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9">
+      <c r="I68" s="8">
+        <f>SUM(I9:I15)</f>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3049,6 +3285,2878 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="8" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>11.175000000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6.7190000000000003</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>10.718999999999999</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>7.5759999999999996</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>6.4130000000000003</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>9.3650000000000002</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>7.9779999999999998</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>9.5050000000000008</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>6.2439999999999998</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>7.3650000000000002</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>7.056</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>6.4989999999999997</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>6.1970000000000001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.5756944444444444</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>5.8760000000000003</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>11.818</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>9.2769999999999992</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>8.9060000000000006</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>9.0730000000000004</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>9.7330000000000005</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>7.4480000000000004</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6.1150000000000002</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6.5129999999999999</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>8.1029999999999998</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>10.292999999999999</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>9.6539999999999999</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>7.7530000000000001</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>10.935</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>9.7409999999999997</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>8.2650000000000006</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>7.5250000000000004</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>11.206</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>9.6329999999999991</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>5.2210000000000001</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>7.6680000000000001</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>9.9450000000000003</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>6.5880000000000001</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>9.3539999999999992</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>14.863</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>5.899</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>6.6109999999999998</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>10.782999999999999</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>8.69</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>6.2649999999999997</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>9.2639999999999993</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>10.023999999999999</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>9.1359999999999992</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>4.34</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>7.72</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>8.6150000000000002</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>6.9539999999999997</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>9.7590000000000003</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77">
+        <v>12.097</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>7.7469999999999999</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>8.1720000000000006</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>12.058</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>9.8759999999999994</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>7.8869999999999996</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>10.409000000000001</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>10.176</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>37</v>
+      </c>
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>7.9450000000000003</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>38</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>6.7549999999999999</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>7.6020000000000003</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>10.521000000000001</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>42</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>46</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>8.3759999999999994</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>48</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>7.7797000000000001</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>49</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>50</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3065,21 +6173,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewnguyen/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -14,20 +19,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Maggot_collections!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="82">
   <si>
     <t>Site</t>
   </si>
@@ -242,9 +247,6 @@
     <t>tape</t>
   </si>
   <si>
-    <t>mass</t>
-  </si>
-  <si>
     <t>purge_time</t>
   </si>
   <si>
@@ -270,6 +272,12 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>mass_day10</t>
+  </si>
+  <si>
+    <t>resp_day11</t>
   </si>
 </sst>
 </file>
@@ -282,7 +290,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,8 +344,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,7 +416,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -428,6 +437,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -448,6 +458,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,7 +743,7 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -750,7 +761,7 @@
     <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -806,7 +817,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -850,7 +861,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -893,7 +904,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -936,7 +947,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -979,7 +990,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1031,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1072,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1113,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1437,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1">
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1480,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1">
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1521,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1">
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1564,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1">
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1607,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1799,7 +1810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1">
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +1853,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1885,7 +1896,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1">
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1926,7 +1937,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1">
+    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1967,7 +1978,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1">
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -2010,7 +2021,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2171,7 +2182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1">
+    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2266,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1">
+    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2298,7 +2309,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1">
+    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2339,7 +2350,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1">
+    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2382,7 +2393,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1">
+    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2436,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2545,7 +2556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2586,7 +2597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="2" customFormat="1">
+    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -2670,7 +2681,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1">
+    <row r="47" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2713,7 +2724,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1">
+    <row r="48" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2756,7 +2767,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1">
+    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2799,7 +2810,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1">
+    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2842,7 +2853,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2883,7 +2894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2924,7 +2935,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +2976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3003,7 +3014,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3044,7 +3055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="2" customFormat="1">
+    <row r="56" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -3087,7 +3098,7 @@
       </c>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" s="2" customFormat="1">
+    <row r="57" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3130,7 +3141,7 @@
       </c>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1">
+    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -3173,7 +3184,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1">
+    <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -3214,7 +3225,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" s="2" customFormat="1">
+    <row r="60" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -3257,7 +3268,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="66" spans="8:9">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H66" s="8" t="s">
         <v>42</v>
       </c>
@@ -3266,7 +3277,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="68" spans="8:9">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
       <c r="I68" s="8">
         <f>SUM(I9:I15)</f>
         <v>107</v>
@@ -3276,28 +3287,23 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3308,33 +3314,36 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -3357,13 +3366,16 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3386,13 +3398,16 @@
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3415,13 +3430,16 @@
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3444,13 +3462,16 @@
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -3473,13 +3494,16 @@
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -3502,13 +3526,16 @@
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -3531,13 +3558,16 @@
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -3560,13 +3590,16 @@
       <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3589,13 +3622,16 @@
       <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -3618,13 +3654,16 @@
       <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3647,13 +3686,16 @@
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -3676,13 +3718,16 @@
       <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3705,13 +3750,16 @@
       <c r="I14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -3734,13 +3782,16 @@
       <c r="I15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -3763,13 +3814,16 @@
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3792,13 +3846,16 @@
       <c r="I17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -3821,13 +3878,16 @@
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -3850,13 +3910,16 @@
       <c r="I19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3879,13 +3942,16 @@
       <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -3908,13 +3974,16 @@
       <c r="I21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3937,13 +4006,25 @@
       <c r="I22" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.56666666666666665</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>49</v>
@@ -3957,22 +4038,25 @@
       <c r="I23" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24">
-        <v>6.4820000000000002</v>
+        <v>9.2769999999999992</v>
       </c>
       <c r="E24" s="12">
-        <v>0.56666666666666665</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>49</v>
@@ -3986,22 +4070,25 @@
       <c r="I24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>9.2769999999999992</v>
+        <v>8.9060000000000006</v>
       </c>
       <c r="E25" s="12">
-        <v>0.56736111111111109</v>
+        <v>0.57708333333333328</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>49</v>
@@ -4015,81 +4102,90 @@
       <c r="I25" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>9.0730000000000004</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>8.9060000000000006</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D28">
+        <v>9.7330000000000005</v>
+      </c>
+      <c r="E28" s="12">
         <v>0.57708333333333328</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>6.1210000000000004</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.57430555555555551</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>9.0730000000000004</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0.57361111111111118</v>
-      </c>
       <c r="F28" s="1" t="s">
         <v>49</v>
       </c>
@@ -4102,51 +4198,57 @@
       <c r="I28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>7.4480000000000004</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D29">
-        <v>9.7330000000000005</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0.57708333333333328</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
       <c r="D30">
-        <v>7.4480000000000004</v>
+        <v>6.1150000000000002</v>
       </c>
       <c r="E30" s="12">
-        <v>0.5625</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>49</v>
@@ -4160,109 +4262,121 @@
       <c r="I30" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>6.1150000000000002</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
       <c r="D32">
-        <v>8.2729999999999997</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="E32" s="12">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>8.1029999999999998</v>
+      </c>
+      <c r="E33" s="12">
         <v>0.57916666666666672</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>6.5129999999999999</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0.57777777777777783</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
       <c r="D34">
-        <v>8.1029999999999998</v>
+        <v>10.292999999999999</v>
       </c>
       <c r="E34" s="12">
-        <v>0.57916666666666672</v>
+        <v>0.57847222222222217</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>49</v>
@@ -4276,22 +4390,25 @@
       <c r="I34" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35">
-        <v>10.292999999999999</v>
+        <v>9.6539999999999999</v>
       </c>
       <c r="E35" s="12">
-        <v>0.57847222222222217</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>49</v>
@@ -4305,80 +4422,89 @@
       <c r="I35" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>7.7530000000000001</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>9.6539999999999999</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>4.7469999999999999</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0.5625</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
       <c r="D38">
-        <v>7.7530000000000001</v>
+        <v>10.935</v>
       </c>
       <c r="E38" s="12">
-        <v>0.56319444444444444</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>49</v>
@@ -4392,19 +4518,22 @@
       <c r="I38" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>10.935</v>
+        <v>9.7409999999999997</v>
       </c>
       <c r="E39" s="12">
         <v>0.5805555555555556</v>
@@ -4421,22 +4550,25 @@
       <c r="I39" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>9.7409999999999997</v>
+        <v>8.2650000000000006</v>
       </c>
       <c r="E40" s="12">
-        <v>0.5805555555555556</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>49</v>
@@ -4450,164 +4582,182 @@
       <c r="I40" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>7.5250000000000004</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
         <v>5</v>
       </c>
-      <c r="D41">
-        <v>8.2650000000000006</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0.56388888888888888</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <v>4.7910000000000004</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0.56180555555555556</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43">
-        <v>6.4619999999999997</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>6.8170000000000002</v>
-      </c>
-      <c r="E44" s="12">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>7.5250000000000004</v>
-      </c>
-      <c r="E45" s="12">
-        <v>0.56041666666666667</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
+      <c r="D46">
+        <v>11.206</v>
       </c>
       <c r="E46" s="12">
-        <v>0.54513888888888895</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>49</v>
@@ -4621,22 +4771,25 @@
       <c r="I46" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47">
-        <v>11.206</v>
+        <v>9.6329999999999991</v>
       </c>
       <c r="E47" s="12">
-        <v>0.58124999999999993</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
@@ -4650,22 +4803,25 @@
       <c r="I47" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>9.6329999999999991</v>
+        <v>5.2210000000000001</v>
       </c>
       <c r="E48" s="12">
-        <v>0.57638888888888895</v>
+        <v>0.56041666666666667</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>49</v>
@@ -4679,22 +4835,25 @@
       <c r="I48" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49">
-        <v>5.2210000000000001</v>
+        <v>7.6680000000000001</v>
       </c>
       <c r="E49" s="12">
-        <v>0.56041666666666667</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>49</v>
@@ -4708,22 +4867,22 @@
       <c r="I49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>7.6680000000000001</v>
+        <v>79</v>
       </c>
       <c r="E50" s="12">
-        <v>0.55972222222222223</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>49</v>
@@ -4737,19 +4896,25 @@
       <c r="I50" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>9.9450000000000003</v>
       </c>
       <c r="E51" s="12">
-        <v>0.54513888888888895</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>49</v>
@@ -4763,19 +4928,22 @@
       <c r="I51" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>9.9450000000000003</v>
+        <v>6.5880000000000001</v>
       </c>
       <c r="E52" s="12">
         <v>0.54861111111111105</v>
@@ -4792,22 +4960,25 @@
       <c r="I52" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>6.5880000000000001</v>
+        <v>9.3539999999999992</v>
       </c>
       <c r="E53" s="12">
-        <v>0.54861111111111105</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>49</v>
@@ -4821,52 +4992,58 @@
       <c r="I53" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>14.863</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>9.3539999999999992</v>
-      </c>
-      <c r="E54" s="12">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="E55" s="12">
         <v>0.5493055555555556</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55">
-        <v>14.863</v>
-      </c>
-      <c r="E55" s="12">
-        <v>0.54583333333333328</v>
-      </c>
       <c r="F55" s="1" t="s">
         <v>49</v>
       </c>
@@ -4879,80 +5056,89 @@
       <c r="I55" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>5.899</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>6.7679999999999998</v>
-      </c>
-      <c r="E56" s="12">
-        <v>0.5493055555555556</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>5.899</v>
-      </c>
-      <c r="E57" s="12">
-        <v>0.54722222222222217</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
       <c r="D58">
-        <v>5.3380000000000001</v>
+        <v>7.2279999999999998</v>
       </c>
       <c r="E58" s="12">
-        <v>0.54791666666666672</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>49</v>
@@ -4966,22 +5152,25 @@
       <c r="I58" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59">
-        <v>7.2279999999999998</v>
+        <v>6.6109999999999998</v>
       </c>
       <c r="E59" s="12">
-        <v>0.54999999999999993</v>
+        <v>0.55069444444444449</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>49</v>
@@ -4995,19 +5184,22 @@
       <c r="I59" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D60">
-        <v>6.6109999999999998</v>
+        <v>7.4160000000000004</v>
       </c>
       <c r="E60" s="12">
         <v>0.55069444444444449</v>
@@ -5024,19 +5216,22 @@
       <c r="I60" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>7.4160000000000004</v>
+        <v>10.782999999999999</v>
       </c>
       <c r="E61" s="12">
         <v>0.55069444444444449</v>
@@ -5053,51 +5248,57 @@
       <c r="I61" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>8.69</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D62">
-        <v>10.782999999999999</v>
-      </c>
-      <c r="E62" s="12">
-        <v>0.55069444444444449</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
       <c r="D63">
-        <v>8.69</v>
+        <v>6.2649999999999997</v>
       </c>
       <c r="E63" s="12">
-        <v>0.54652777777777783</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>49</v>
@@ -5111,22 +5312,25 @@
       <c r="I63" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64">
-        <v>6.2649999999999997</v>
+        <v>9.2639999999999993</v>
       </c>
       <c r="E64" s="12">
-        <v>0.55138888888888882</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>49</v>
@@ -5140,324 +5344,378 @@
       <c r="I64" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D65">
-        <v>9.2639999999999993</v>
-      </c>
-      <c r="E65" s="12">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
+      <c r="D66">
+        <v>10.023999999999999</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>9.1359999999999992</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>4.34</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>7.72</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>8.6150000000000002</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>6.9539999999999997</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>9.7590000000000003</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74">
+        <v>12.097</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66">
-        <v>6.7670000000000003</v>
-      </c>
-      <c r="E66" s="12">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
-        <v>16</v>
-      </c>
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="J74">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D67">
-        <v>10.023999999999999</v>
-      </c>
-      <c r="E67" s="12">
-        <v>0.54722222222222217</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
-        <v>17</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>9.1359999999999992</v>
-      </c>
-      <c r="E68" s="12">
-        <v>0.54652777777777783</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
-        <v>18</v>
-      </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69">
-        <v>4.34</v>
-      </c>
-      <c r="E69" s="12">
-        <v>0.56736111111111109</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>19</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70">
-        <v>7.72</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0.55277777777777781</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71">
-        <v>20</v>
-      </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72">
-        <v>21</v>
-      </c>
-      <c r="B72" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73">
-        <v>22</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>8.6150000000000002</v>
-      </c>
-      <c r="E73" s="12">
+      <c r="D76">
+        <v>7.7469999999999999</v>
+      </c>
+      <c r="E76" s="12">
         <v>0.5541666666666667</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74">
-        <v>23</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74">
-        <v>6.9539999999999997</v>
-      </c>
-      <c r="E74" s="12">
-        <v>0.54027777777777775</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75">
-        <v>24</v>
-      </c>
-      <c r="B75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <v>8.1669999999999998</v>
-      </c>
-      <c r="E75" s="12">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76">
-        <v>25</v>
-      </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76">
-        <v>9.7590000000000003</v>
-      </c>
-      <c r="E76" s="12">
-        <v>0.55625000000000002</v>
-      </c>
       <c r="F76" s="1" t="s">
         <v>49</v>
       </c>
@@ -5470,22 +5728,25 @@
       <c r="I76" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>12.097</v>
+        <v>8.1720000000000006</v>
       </c>
       <c r="E77" s="12">
-        <v>0.55347222222222225</v>
+        <v>0.53888888888888886</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>49</v>
@@ -5497,24 +5758,27 @@
         <v>34</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J77">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78">
-        <v>7.8490000000000002</v>
+        <v>5.0430000000000001</v>
       </c>
       <c r="E78" s="12">
-        <v>0.58194444444444449</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>49</v>
@@ -5528,22 +5792,25 @@
       <c r="I78" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
       <c r="D79">
-        <v>7.7469999999999999</v>
+        <v>12.058</v>
       </c>
       <c r="E79" s="12">
-        <v>0.5541666666666667</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>49</v>
@@ -5557,22 +5824,25 @@
       <c r="I79" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80">
-        <v>8.1720000000000006</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="E80" s="12">
-        <v>0.53888888888888886</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>49</v>
@@ -5586,22 +5856,25 @@
       <c r="I80" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>5.0430000000000001</v>
+        <v>9.8759999999999994</v>
       </c>
       <c r="E81" s="12">
-        <v>0.5444444444444444</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>49</v>
@@ -5615,51 +5888,57 @@
       <c r="I81" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>7.8869999999999996</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>35</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D82">
-        <v>12.058</v>
-      </c>
-      <c r="E82" s="12">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83">
-        <v>32</v>
-      </c>
-      <c r="B83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
       <c r="D83">
-        <v>8.9700000000000006</v>
+        <v>10.409000000000001</v>
       </c>
       <c r="E83" s="12">
-        <v>0.55555555555555558</v>
+        <v>0.55763888888888891</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>49</v>
@@ -5673,22 +5952,25 @@
       <c r="I83" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84">
-        <v>9.8759999999999994</v>
+        <v>10.176</v>
       </c>
       <c r="E84" s="12">
-        <v>0.55486111111111114</v>
+        <v>0.55763888888888891</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>49</v>
@@ -5702,22 +5984,25 @@
       <c r="I84" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85">
-        <v>7.8869999999999996</v>
+        <v>7.9450000000000003</v>
       </c>
       <c r="E85" s="12">
-        <v>0.54583333333333328</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>49</v>
@@ -5731,22 +6016,25 @@
       <c r="I85" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>10.409000000000001</v>
+        <v>8.0050000000000008</v>
       </c>
       <c r="E86" s="12">
-        <v>0.55763888888888891</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>49</v>
@@ -5760,22 +6048,25 @@
       <c r="I86" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87">
-        <v>10.176</v>
+        <v>6.7549999999999999</v>
       </c>
       <c r="E87" s="12">
-        <v>0.55763888888888891</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>49</v>
@@ -5789,22 +6080,25 @@
       <c r="I87" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88">
-        <v>7.9450000000000003</v>
+        <v>7.6020000000000003</v>
       </c>
       <c r="E88" s="12">
-        <v>0.53819444444444442</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>49</v>
@@ -5818,22 +6112,25 @@
       <c r="I88" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>8.0050000000000008</v>
+        <v>10.521000000000001</v>
       </c>
       <c r="E89" s="12">
-        <v>0.54027777777777775</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>49</v>
@@ -5847,22 +6144,22 @@
       <c r="I89" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90">
-        <v>6.7549999999999999</v>
+        <v>79</v>
       </c>
       <c r="E90" s="12">
-        <v>0.55833333333333335</v>
+        <v>0.54375000000000007</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>49</v>
@@ -5876,22 +6173,25 @@
       <c r="I90" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91">
-        <v>7.6020000000000003</v>
+        <v>8.3759999999999994</v>
       </c>
       <c r="E91" s="12">
-        <v>0.54027777777777775</v>
+        <v>0.53888888888888886</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>49</v>
@@ -5905,22 +6205,25 @@
       <c r="I91" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
       <c r="D92">
-        <v>10.521000000000001</v>
+        <v>7.7797000000000001</v>
       </c>
       <c r="E92" s="12">
-        <v>0.55833333333333335</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>49</v>
@@ -5934,13 +6237,22 @@
       <c r="I92" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0.54375000000000007</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>49</v>
@@ -5954,205 +6266,13 @@
       <c r="I93" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94">
-        <v>43</v>
-      </c>
-      <c r="B94" t="s">
-        <v>77</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95">
-        <v>44</v>
-      </c>
-      <c r="B95" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96">
-        <v>45</v>
-      </c>
-      <c r="B96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" s="12">
-        <v>0.54375000000000007</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97">
-        <v>46</v>
-      </c>
-      <c r="B97" t="s">
-        <v>77</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98">
-        <v>47</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98">
-        <v>8.3759999999999994</v>
-      </c>
-      <c r="E98" s="12">
-        <v>0.53888888888888886</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99">
-        <v>48</v>
-      </c>
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>7.7797000000000001</v>
-      </c>
-      <c r="E99" s="12">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100">
-        <v>49</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
-        <v>50</v>
-      </c>
-      <c r="B101" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" t="s">
-        <v>80</v>
-      </c>
-      <c r="E101" s="12">
-        <v>0.54375000000000007</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>6</v>
+      <c r="J93">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6164,13 +6284,8 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewnguyen/Circadian_rhythm_runs_seasonal_timing/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12880" yWindow="2340" windowWidth="32020" windowHeight="24600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
     <sheet name="Data_collect" sheetId="4" r:id="rId2"/>
     <sheet name="Purge_times" sheetId="2" r:id="rId3"/>
+    <sheet name="2017_08_25_day2_map" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Maggot_collections!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="95">
   <si>
     <t>Site</t>
   </si>
@@ -277,19 +273,59 @@
     <t>mass_day10</t>
   </si>
   <si>
-    <t>resp_day11</t>
+    <t>starttime_VCO2_6262_1</t>
+  </si>
+  <si>
+    <t>area_VCO2_6262_1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Cohort day</t>
+  </si>
+  <si>
+    <t>genotype map</t>
+  </si>
+  <si>
+    <t>RT map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,6 +350,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -335,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -343,8 +386,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,8 +511,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -415,8 +544,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -438,6 +605,9 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -459,6 +629,9 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -740,10 +913,10 @@
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A2" sqref="A2:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -761,7 +934,7 @@
     <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -817,7 +990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -861,7 +1034,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -904,7 +1077,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -947,7 +1120,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -990,7 +1163,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1204,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1245,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1286,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1610,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1653,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1694,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1564,7 +1737,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1780,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1728,7 +1901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +1942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +2026,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +2069,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1937,7 +2110,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +2151,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -2021,7 +2194,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2182,7 +2355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2223,7 +2396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2439,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2482,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2523,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2566,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2609,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2518,7 +2691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2597,7 +2770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2638,7 +2811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2854,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +2897,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +2940,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2810,7 +2983,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2853,7 +3026,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2894,7 +3067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +3108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2976,7 +3149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3014,7 +3187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3055,7 +3228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -3098,7 +3271,7 @@
       </c>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3314,7 @@
       </c>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -3184,7 +3357,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -3225,7 +3398,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -3268,7 +3441,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:9">
       <c r="H66" s="8" t="s">
         <v>42</v>
       </c>
@@ -3277,7 +3450,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:9">
       <c r="I68" s="8">
         <f>SUM(I9:I15)</f>
         <v>107</v>
@@ -3287,23 +3460,28 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showRuler="0" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51:L99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3334,11 +3512,14 @@
       <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3370,7 +3551,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3401,8 +3582,14 @@
       <c r="J3">
         <v>6262</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="13">
+        <v>0.42586805555555557</v>
+      </c>
+      <c r="L3">
+        <v>0.1084468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3433,8 +3620,14 @@
       <c r="J4">
         <v>6262</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="13">
+        <v>0.42693287037037037</v>
+      </c>
+      <c r="L4">
+        <v>1.1280079999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3465,8 +3658,14 @@
       <c r="J5">
         <v>6262</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="13">
+        <v>0.42827546296296298</v>
+      </c>
+      <c r="L5">
+        <v>0.77749389999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3497,8 +3696,14 @@
       <c r="J6">
         <v>6262</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="13">
+        <v>0.42964120370370368</v>
+      </c>
+      <c r="L6">
+        <v>0.1644776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3529,8 +3734,14 @@
       <c r="J7">
         <v>6262</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="13">
+        <v>0.43077546296296299</v>
+      </c>
+      <c r="L7">
+        <v>0.117531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3561,8 +3772,14 @@
       <c r="J8">
         <v>6262</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="13">
+        <v>0.43202546296296296</v>
+      </c>
+      <c r="L8" s="14">
+        <v>9.5115679999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3593,8 +3810,14 @@
       <c r="J9">
         <v>6262</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="13">
+        <v>0.43312499999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.13534779999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3625,8 +3848,14 @@
       <c r="J10">
         <v>6262</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="13">
+        <v>0.43447916666666669</v>
+      </c>
+      <c r="L10" s="14">
+        <v>6.9338490000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3657,8 +3886,14 @@
       <c r="J11">
         <v>6262</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="13">
+        <v>0.43557870370370372</v>
+      </c>
+      <c r="L11">
+        <v>1.2276009999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3689,8 +3924,14 @@
       <c r="J12">
         <v>6262</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="13">
+        <v>0.43663194444444442</v>
+      </c>
+      <c r="L12">
+        <v>0.1395353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3721,8 +3962,14 @@
       <c r="J13">
         <v>6262</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="13">
+        <v>0.43784722222222222</v>
+      </c>
+      <c r="L13">
+        <v>0.69570829999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3753,8 +4000,14 @@
       <c r="J14">
         <v>6262</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="13">
+        <v>0.43900462962962966</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2.850107E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3785,8 +4038,14 @@
       <c r="J15">
         <v>6262</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="13">
+        <v>0.44004629629629632</v>
+      </c>
+      <c r="L15">
+        <v>0.75730330000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3817,8 +4076,14 @@
       <c r="J16">
         <v>6262</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="13">
+        <v>0.44122685185185184</v>
+      </c>
+      <c r="L16">
+        <v>0.13516610000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3849,8 +4114,14 @@
       <c r="J17">
         <v>6262</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="13">
+        <v>0.4425115740740741</v>
+      </c>
+      <c r="L17">
+        <v>0.62068699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3881,8 +4152,14 @@
       <c r="J18">
         <v>6262</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="13">
+        <v>0.44381944444444449</v>
+      </c>
+      <c r="L18" s="14">
+        <v>6.6794829999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3913,8 +4190,14 @@
       <c r="J19">
         <v>6262</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="13">
+        <v>0.44496527777777778</v>
+      </c>
+      <c r="L19" s="14">
+        <v>5.7529049999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3945,8 +4228,14 @@
       <c r="J20">
         <v>6262</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="13">
+        <v>0.44613425925925926</v>
+      </c>
+      <c r="L20">
+        <v>0.1183399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3977,8 +4266,14 @@
       <c r="J21">
         <v>6262</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="13">
+        <v>0.44719907407407411</v>
+      </c>
+      <c r="L21">
+        <v>9.5759399999999995E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4009,8 +4304,14 @@
       <c r="J22">
         <v>6262</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="13">
+        <v>0.4484143518518518</v>
+      </c>
+      <c r="L22">
+        <v>0.12840570000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4041,8 +4342,14 @@
       <c r="J23">
         <v>6262</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="13">
+        <v>0.4495601851851852</v>
+      </c>
+      <c r="L23">
+        <v>0.11304359999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4073,8 +4380,14 @@
       <c r="J24">
         <v>6262</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="13">
+        <v>0.45057870370370368</v>
+      </c>
+      <c r="L24">
+        <v>0.16243869999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4105,8 +4418,14 @@
       <c r="J25">
         <v>6262</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="13">
+        <v>0.45168981481481479</v>
+      </c>
+      <c r="L25">
+        <v>0.14896899999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4137,8 +4456,14 @@
       <c r="J26">
         <v>6262</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="13">
+        <v>0.45288194444444446</v>
+      </c>
+      <c r="L26">
+        <v>8.3577299999999993E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4169,8 +4494,14 @@
       <c r="J27">
         <v>6262</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="13">
+        <v>0.45396990740740745</v>
+      </c>
+      <c r="L27" s="14">
+        <v>8.0676520000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4201,8 +4532,14 @@
       <c r="J28">
         <v>6262</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="13">
+        <v>0.45491898148148152</v>
+      </c>
+      <c r="L28">
+        <v>0.13029260000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4233,8 +4570,14 @@
       <c r="J29">
         <v>6262</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="13">
+        <v>0.45594907407407409</v>
+      </c>
+      <c r="L29">
+        <v>0.42313030000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4265,8 +4608,14 @@
       <c r="J30">
         <v>6262</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="13">
+        <v>0.45700231481481479</v>
+      </c>
+      <c r="L30">
+        <v>0.75248380000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4297,8 +4646,14 @@
       <c r="J31">
         <v>6262</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="13">
+        <v>0.45811342592592591</v>
+      </c>
+      <c r="L31">
+        <v>0.82448339999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4329,8 +4684,14 @@
       <c r="J32">
         <v>6262</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="13">
+        <v>0.45922453703703708</v>
+      </c>
+      <c r="L32">
+        <v>0.76906790000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4361,8 +4722,14 @@
       <c r="J33">
         <v>6262</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="13">
+        <v>0.46021990740740742</v>
+      </c>
+      <c r="L33">
+        <v>0.12253749999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4393,8 +4760,14 @@
       <c r="J34">
         <v>6262</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="13">
+        <v>0.46112268518518523</v>
+      </c>
+      <c r="L34">
+        <v>0.185331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4425,8 +4798,14 @@
       <c r="J35">
         <v>6262</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="13">
+        <v>0.46200231481481485</v>
+      </c>
+      <c r="L35">
+        <v>0.121804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4457,8 +4836,14 @@
       <c r="J36">
         <v>6262</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="13">
+        <v>0.46300925925925923</v>
+      </c>
+      <c r="L36">
+        <v>0.20599229999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4489,8 +4874,14 @@
       <c r="J37">
         <v>6262</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="13">
+        <v>0.46395833333333331</v>
+      </c>
+      <c r="L37">
+        <v>0.85120569999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4521,8 +4912,14 @@
       <c r="J38">
         <v>6262</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="13">
+        <v>0.46489583333333334</v>
+      </c>
+      <c r="L38">
+        <v>0.12431399999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4553,8 +4950,14 @@
       <c r="J39">
         <v>6262</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="13">
+        <v>0.46607638888888886</v>
+      </c>
+      <c r="L39">
+        <v>0.1557878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4585,8 +4988,14 @@
       <c r="J40">
         <v>6262</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="13">
+        <v>0.46699074074074076</v>
+      </c>
+      <c r="L40">
+        <v>0.167069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4617,8 +5026,14 @@
       <c r="J41">
         <v>6262</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="13">
+        <v>0.46793981481481484</v>
+      </c>
+      <c r="L41" s="14">
+        <v>1.2562540000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4649,8 +5064,14 @@
       <c r="J42">
         <v>6262</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="13">
+        <v>0.46910879629629632</v>
+      </c>
+      <c r="L42">
+        <v>0.22960430000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4681,8 +5102,14 @@
       <c r="J43">
         <v>6262</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="13">
+        <v>0.47023148148148147</v>
+      </c>
+      <c r="L43" s="14">
+        <v>7.3888960000000004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4713,8 +5140,14 @@
       <c r="J44">
         <v>6262</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="13">
+        <v>0.47138888888888886</v>
+      </c>
+      <c r="L44" s="14">
+        <v>1.062197E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4742,8 +5175,14 @@
       <c r="J45">
         <v>6262</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="13">
+        <v>0.47233796296296293</v>
+      </c>
+      <c r="L45" s="14">
+        <v>1.7675869999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4774,8 +5213,14 @@
       <c r="J46">
         <v>6262</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="13">
+        <v>0.47303240740740743</v>
+      </c>
+      <c r="L46" s="14">
+        <v>2.3897940000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4806,8 +5251,14 @@
       <c r="J47">
         <v>6262</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="13">
+        <v>0.47399305555555554</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1.937139E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4838,8 +5289,14 @@
       <c r="J48">
         <v>6262</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="13">
+        <v>0.4750462962962963</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2.339154E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4870,8 +5327,14 @@
       <c r="J49">
         <v>6262</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="13">
+        <v>0.47621527777777778</v>
+      </c>
+      <c r="L49" s="14">
+        <v>3.7640360000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4900,7 +5363,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4931,8 +5394,14 @@
       <c r="J51">
         <v>7000</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="13">
+        <v>0.47737268518518516</v>
+      </c>
+      <c r="L51" s="14">
+        <v>1.64017E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4963,8 +5432,14 @@
       <c r="J52">
         <v>7000</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="13">
+        <v>0.42586805555555557</v>
+      </c>
+      <c r="L52">
+        <v>0.29410999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4995,8 +5470,14 @@
       <c r="J53">
         <v>7000</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="13">
+        <v>0.42693287037037037</v>
+      </c>
+      <c r="L53">
+        <v>0.1052925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5027,8 +5508,14 @@
       <c r="J54">
         <v>7000</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="13">
+        <v>0.42827546296296298</v>
+      </c>
+      <c r="L54">
+        <v>1.344538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>5</v>
       </c>
@@ -5059,8 +5546,14 @@
       <c r="J55">
         <v>7000</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55" s="13">
+        <v>0.42964120370370368</v>
+      </c>
+      <c r="L55">
+        <v>0.14922669999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>6</v>
       </c>
@@ -5091,8 +5584,14 @@
       <c r="J56">
         <v>7000</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56" s="13">
+        <v>0.43077546296296299</v>
+      </c>
+      <c r="L56">
+        <v>1.4202159999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>7</v>
       </c>
@@ -5123,8 +5622,14 @@
       <c r="J57">
         <v>7000</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57" s="13">
+        <v>0.43202546296296296</v>
+      </c>
+      <c r="L57">
+        <v>0.13655610000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>8</v>
       </c>
@@ -5155,8 +5660,14 @@
       <c r="J58">
         <v>7000</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58" s="13">
+        <v>0.43312499999999998</v>
+      </c>
+      <c r="L58">
+        <v>1.3082910000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>9</v>
       </c>
@@ -5187,8 +5698,14 @@
       <c r="J59">
         <v>7000</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" s="13">
+        <v>0.43447916666666669</v>
+      </c>
+      <c r="L59">
+        <v>0.15913730000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>10</v>
       </c>
@@ -5219,8 +5736,14 @@
       <c r="J60">
         <v>7000</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60" s="13">
+        <v>0.43557870370370372</v>
+      </c>
+      <c r="L60">
+        <v>0.1027624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>11</v>
       </c>
@@ -5251,8 +5774,14 @@
       <c r="J61">
         <v>7000</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61" s="13">
+        <v>0.43663194444444442</v>
+      </c>
+      <c r="L61">
+        <v>1.2017199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>12</v>
       </c>
@@ -5283,8 +5812,14 @@
       <c r="J62">
         <v>7000</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="13">
+        <v>0.43784722222222222</v>
+      </c>
+      <c r="L62">
+        <v>0.75794399999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>13</v>
       </c>
@@ -5315,8 +5850,14 @@
       <c r="J63">
         <v>7000</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" s="13">
+        <v>0.43900462962962966</v>
+      </c>
+      <c r="L63">
+        <v>0.1368973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>14</v>
       </c>
@@ -5347,8 +5888,14 @@
       <c r="J64">
         <v>7000</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" s="13">
+        <v>0.44004629629629632</v>
+      </c>
+      <c r="L64">
+        <v>0.18806690000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>15</v>
       </c>
@@ -5379,8 +5926,14 @@
       <c r="J65">
         <v>7000</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65" s="13">
+        <v>0.44122685185185184</v>
+      </c>
+      <c r="L65">
+        <v>1.5026170000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>16</v>
       </c>
@@ -5411,8 +5964,14 @@
       <c r="J66">
         <v>7000</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" s="13">
+        <v>0.4425115740740741</v>
+      </c>
+      <c r="L66">
+        <v>0.2178388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>17</v>
       </c>
@@ -5443,8 +6002,14 @@
       <c r="J67">
         <v>7000</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" s="13">
+        <v>0.44381944444444449</v>
+      </c>
+      <c r="L67">
+        <v>0.12481780000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>18</v>
       </c>
@@ -5475,8 +6040,14 @@
       <c r="J68">
         <v>7000</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68" s="13">
+        <v>0.44496527777777778</v>
+      </c>
+      <c r="L68">
+        <v>0.42687849999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>19</v>
       </c>
@@ -5507,8 +6078,14 @@
       <c r="J69">
         <v>7000</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="13">
+        <v>0.44613425925925926</v>
+      </c>
+      <c r="L69">
+        <v>0.14874009999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>22</v>
       </c>
@@ -5539,8 +6116,14 @@
       <c r="J70">
         <v>7000</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" s="13">
+        <v>0.44719907407407411</v>
+      </c>
+      <c r="L70">
+        <v>1.159581</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>23</v>
       </c>
@@ -5571,8 +6154,14 @@
       <c r="J71">
         <v>7000</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71" s="13">
+        <v>0.4484143518518518</v>
+      </c>
+      <c r="L71">
+        <v>0.32587329999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>24</v>
       </c>
@@ -5603,8 +6192,14 @@
       <c r="J72">
         <v>7000</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" s="13">
+        <v>0.4495601851851852</v>
+      </c>
+      <c r="L72">
+        <v>0.21041309999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>25</v>
       </c>
@@ -5635,8 +6230,14 @@
       <c r="J73">
         <v>7000</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" s="13">
+        <v>0.45057870370370368</v>
+      </c>
+      <c r="L73">
+        <v>1.6359859999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>26</v>
       </c>
@@ -5667,8 +6268,14 @@
       <c r="J74">
         <v>7000</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" s="13">
+        <v>0.45168981481481479</v>
+      </c>
+      <c r="L74">
+        <v>0.35942819999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>27</v>
       </c>
@@ -5699,8 +6306,14 @@
       <c r="J75">
         <v>7000</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75" s="13">
+        <v>0.45288194444444446</v>
+      </c>
+      <c r="L75">
+        <v>0.20261119999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>28</v>
       </c>
@@ -5731,8 +6344,14 @@
       <c r="J76">
         <v>7000</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76" s="13">
+        <v>0.45396990740740745</v>
+      </c>
+      <c r="L76">
+        <v>0.16269929999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>29</v>
       </c>
@@ -5763,8 +6382,14 @@
       <c r="J77">
         <v>7000</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77" s="13">
+        <v>0.45491898148148152</v>
+      </c>
+      <c r="L77">
+        <v>0.22836699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>30</v>
       </c>
@@ -5795,8 +6420,14 @@
       <c r="J78">
         <v>7000</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78" s="13">
+        <v>0.45594907407407409</v>
+      </c>
+      <c r="L78">
+        <v>0.13978189999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>31</v>
       </c>
@@ -5827,8 +6458,14 @@
       <c r="J79">
         <v>7000</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79" s="13">
+        <v>0.45700231481481479</v>
+      </c>
+      <c r="L79">
+        <v>0.17731559999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>32</v>
       </c>
@@ -5859,8 +6496,14 @@
       <c r="J80">
         <v>7000</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80" s="13">
+        <v>0.45811342592592591</v>
+      </c>
+      <c r="L80">
+        <v>0.1525609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>33</v>
       </c>
@@ -5891,8 +6534,14 @@
       <c r="J81">
         <v>7000</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" s="13">
+        <v>0.45922453703703708</v>
+      </c>
+      <c r="L81">
+        <v>0.55666939999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>34</v>
       </c>
@@ -5923,8 +6572,14 @@
       <c r="J82">
         <v>7000</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82" s="13">
+        <v>0.46021990740740742</v>
+      </c>
+      <c r="L82">
+        <v>0.2076913</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>35</v>
       </c>
@@ -5955,8 +6610,14 @@
       <c r="J83">
         <v>7000</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83" s="13">
+        <v>0.46112268518518523</v>
+      </c>
+      <c r="L83">
+        <v>0.18742049999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>36</v>
       </c>
@@ -5987,8 +6648,14 @@
       <c r="J84">
         <v>7000</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84" s="13">
+        <v>0.46200231481481485</v>
+      </c>
+      <c r="L84">
+        <v>0.18603500000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>37</v>
       </c>
@@ -6019,8 +6686,14 @@
       <c r="J85">
         <v>7000</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85" s="13">
+        <v>0.46300925925925923</v>
+      </c>
+      <c r="L85">
+        <v>0.18346589999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>38</v>
       </c>
@@ -6051,8 +6724,14 @@
       <c r="J86">
         <v>7000</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86" s="13">
+        <v>0.46395833333333331</v>
+      </c>
+      <c r="L86">
+        <v>0.16185720000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>39</v>
       </c>
@@ -6083,8 +6762,14 @@
       <c r="J87">
         <v>7000</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87" s="13">
+        <v>0.46489583333333334</v>
+      </c>
+      <c r="L87">
+        <v>1.8546389999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>40</v>
       </c>
@@ -6115,8 +6800,14 @@
       <c r="J88">
         <v>7000</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88" s="13">
+        <v>0.46607638888888886</v>
+      </c>
+      <c r="L88">
+        <v>0.16846140000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>41</v>
       </c>
@@ -6147,8 +6838,14 @@
       <c r="J89">
         <v>7000</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89" s="13">
+        <v>0.46699074074074076</v>
+      </c>
+      <c r="L89">
+        <v>0.1465091</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>45</v>
       </c>
@@ -6176,8 +6873,14 @@
       <c r="J90">
         <v>7000</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90" s="13">
+        <v>0.46793981481481484</v>
+      </c>
+      <c r="L90">
+        <v>1.0633760000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>47</v>
       </c>
@@ -6208,8 +6911,14 @@
       <c r="J91">
         <v>7000</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91" s="13">
+        <v>0.46910879629629632</v>
+      </c>
+      <c r="L91">
+        <v>1.409138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>48</v>
       </c>
@@ -6240,8 +6949,14 @@
       <c r="J92">
         <v>7000</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92" s="13">
+        <v>0.47023148148148147</v>
+      </c>
+      <c r="L92">
+        <v>0.19309509999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>50</v>
       </c>
@@ -6268,11 +6983,70 @@
       </c>
       <c r="J93">
         <v>7000</v>
+      </c>
+      <c r="K93" s="13">
+        <v>0.47138888888888886</v>
+      </c>
+      <c r="L93">
+        <v>0.20525750000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="K94" s="13">
+        <v>0.47233796296296293</v>
+      </c>
+      <c r="L94" s="14">
+        <v>2.0416819999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="K95" s="13">
+        <v>0.47303240740740743</v>
+      </c>
+      <c r="L95">
+        <v>0.16002730000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="K96" s="13">
+        <v>0.47399305555555554</v>
+      </c>
+      <c r="L96">
+        <v>0.29479119999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="11:12">
+      <c r="K97" s="13">
+        <v>0.4750462962962963</v>
+      </c>
+      <c r="L97">
+        <v>0.86591019999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="11:12">
+      <c r="K98" s="13">
+        <v>0.47621527777777778</v>
+      </c>
+      <c r="L98">
+        <v>1.8206979999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="11:12">
+      <c r="K99" s="13">
+        <v>0.47737268518518516</v>
+      </c>
+      <c r="L99" s="14">
+        <v>1.7954680000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6284,8 +7058,405 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="15.5" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="46" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="46" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="46" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" ht="46" customHeight="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19">
+        <v>4</v>
+      </c>
+      <c r="G4" s="19">
+        <v>5</v>
+      </c>
+      <c r="H4" s="19">
+        <v>6</v>
+      </c>
+      <c r="I4" s="19">
+        <v>7</v>
+      </c>
+      <c r="J4" s="19">
+        <v>8</v>
+      </c>
+      <c r="K4" s="19">
+        <v>9</v>
+      </c>
+      <c r="L4" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="46" customHeight="1">
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="46" customHeight="1">
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" ht="46" customHeight="1">
+      <c r="B7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="46" customHeight="1">
+      <c r="B8" s="21">
+        <v>4</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" ht="46" customHeight="1">
+      <c r="B9" s="21">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" ht="46" customHeight="1">
+      <c r="B10" s="21">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" ht="46" customHeight="1">
+      <c r="B11" s="21">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" ht="46" customHeight="1">
+      <c r="B12" s="21">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" ht="46" customHeight="1">
+      <c r="B13" s="21">
+        <v>9</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" ht="46" customHeight="1">
+      <c r="B14" s="24">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="16" spans="1:14" ht="46" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="16">
+        <v>6</v>
+      </c>
+      <c r="I16" s="16">
+        <v>7</v>
+      </c>
+      <c r="J16" s="16">
+        <v>8</v>
+      </c>
+      <c r="K16" s="16">
+        <v>9</v>
+      </c>
+      <c r="L16" s="16">
+        <v>10</v>
+      </c>
+      <c r="M16" s="16">
+        <v>11</v>
+      </c>
+      <c r="N16" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="46" customHeight="1">
+      <c r="B17" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="46" customHeight="1">
+      <c r="B18" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="46" customHeight="1">
+      <c r="B19" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="46" customHeight="1">
+      <c r="B20" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="46" customHeight="1">
+      <c r="B21" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="46" customHeight="1">
+      <c r="B22" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="46" customHeight="1">
+      <c r="B23" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="46" customHeight="1">
+      <c r="B24" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="46" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>3</v>
+      </c>
+      <c r="F26" s="16">
+        <v>4</v>
+      </c>
+      <c r="G26" s="16">
+        <v>5</v>
+      </c>
+      <c r="H26" s="16">
+        <v>6</v>
+      </c>
+      <c r="I26" s="16">
+        <v>7</v>
+      </c>
+      <c r="J26" s="16">
+        <v>8</v>
+      </c>
+      <c r="K26" s="16">
+        <v>9</v>
+      </c>
+      <c r="L26" s="16">
+        <v>10</v>
+      </c>
+      <c r="M26" s="16">
+        <v>11</v>
+      </c>
+      <c r="N26" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="46" customHeight="1">
+      <c r="B27" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="46" customHeight="1">
+      <c r="B28" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="46" customHeight="1">
+      <c r="B29" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="46" customHeight="1">
+      <c r="B30" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="46" customHeight="1">
+      <c r="B31" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="46" customHeight="1">
+      <c r="B32" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="46" customHeight="1">
+      <c r="B33" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="46" customHeight="1">
+      <c r="B34" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3294,7 +3294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewnguyen/Circadian_rhythm_runs_seasonal_timing/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="680" windowWidth="32020" windowHeight="24600" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="160" windowWidth="22120" windowHeight="26780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
     <sheet name="Data_collect" sheetId="4" r:id="rId2"/>
-    <sheet name="Purge_times" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Maggot_collections!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="86">
   <si>
     <t>Site</t>
   </si>
@@ -279,17 +273,30 @@
   <si>
     <t>resp_day11</t>
   </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>Coll Hall</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,6 +319,14 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -344,7 +359,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,8 +403,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -415,8 +446,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -438,6 +470,14 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -459,6 +499,14 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,7 +774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -739,11 +787,11 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -761,7 +809,7 @@
     <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -817,7 +865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -861,7 +909,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -904,7 +952,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -947,7 +995,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -990,7 +1038,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1079,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1120,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1161,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1315,7 +1363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1485,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1528,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1521,7 +1569,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1564,7 +1612,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1655,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1728,7 +1776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1901,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1896,7 +1944,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -1937,7 +1985,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +2026,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -2021,7 +2069,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2182,7 +2230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2223,7 +2271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2266,7 +2314,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2357,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2398,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2441,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2484,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2518,7 +2566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2597,7 +2645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2638,7 +2686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -2681,7 +2729,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +2772,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +2815,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2810,7 +2858,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2853,7 +2901,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2894,7 +2942,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2976,7 +3024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3014,7 +3062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3055,7 +3103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -3098,7 +3146,7 @@
       </c>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3141,7 +3189,7 @@
       </c>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -3184,7 +3232,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -3225,7 +3273,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -3268,7 +3316,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:9">
       <c r="H66" s="8" t="s">
         <v>42</v>
       </c>
@@ -3277,7 +3325,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:9">
       <c r="I68" s="8">
         <f>SUM(I9:I15)</f>
         <v>107</v>
@@ -3287,23 +3335,29 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3338,7 +3392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3370,7 +3424,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3402,7 +3456,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3434,7 +3488,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3466,7 +3520,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3498,7 +3552,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3530,7 +3584,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3562,7 +3616,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3594,7 +3648,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3626,7 +3680,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3658,7 +3712,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3690,7 +3744,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3722,7 +3776,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3754,7 +3808,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3786,7 +3840,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3818,7 +3872,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3850,7 +3904,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3882,7 +3936,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3914,7 +3968,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3946,7 +4000,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3978,7 +4032,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4010,7 +4064,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4042,7 +4096,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4074,7 +4128,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4106,7 +4160,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4138,7 +4192,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4170,7 +4224,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4202,7 +4256,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4234,7 +4288,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4266,7 +4320,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4298,7 +4352,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4330,7 +4384,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4362,7 +4416,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4394,7 +4448,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4426,7 +4480,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4458,7 +4512,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4490,7 +4544,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4522,7 +4576,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4554,7 +4608,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4586,7 +4640,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4618,7 +4672,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4650,7 +4704,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4682,7 +4736,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4714,7 +4768,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4743,7 +4797,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4775,7 +4829,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4807,7 +4861,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4839,7 +4893,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4871,7 +4925,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4900,7 +4954,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4932,7 +4986,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4964,7 +5018,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4996,7 +5050,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5028,7 +5082,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>5</v>
       </c>
@@ -5060,7 +5114,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>6</v>
       </c>
@@ -5092,7 +5146,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>7</v>
       </c>
@@ -5124,7 +5178,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>8</v>
       </c>
@@ -5156,7 +5210,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>9</v>
       </c>
@@ -5188,7 +5242,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>10</v>
       </c>
@@ -5220,7 +5274,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>11</v>
       </c>
@@ -5252,7 +5306,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>12</v>
       </c>
@@ -5284,7 +5338,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>13</v>
       </c>
@@ -5316,7 +5370,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>14</v>
       </c>
@@ -5348,7 +5402,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>15</v>
       </c>
@@ -5380,7 +5434,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>16</v>
       </c>
@@ -5412,7 +5466,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>17</v>
       </c>
@@ -5444,7 +5498,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>18</v>
       </c>
@@ -5476,7 +5530,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>19</v>
       </c>
@@ -5508,7 +5562,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>22</v>
       </c>
@@ -5540,7 +5594,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>23</v>
       </c>
@@ -5572,7 +5626,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>24</v>
       </c>
@@ -5604,7 +5658,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>25</v>
       </c>
@@ -5636,7 +5690,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>26</v>
       </c>
@@ -5668,7 +5722,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>27</v>
       </c>
@@ -5700,7 +5754,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>28</v>
       </c>
@@ -5732,7 +5786,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>29</v>
       </c>
@@ -5764,7 +5818,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>30</v>
       </c>
@@ -5796,7 +5850,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>31</v>
       </c>
@@ -5828,7 +5882,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>32</v>
       </c>
@@ -5860,7 +5914,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>33</v>
       </c>
@@ -5892,7 +5946,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>34</v>
       </c>
@@ -5924,7 +5978,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>35</v>
       </c>
@@ -5956,7 +6010,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>36</v>
       </c>
@@ -5988,7 +6042,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>37</v>
       </c>
@@ -6020,7 +6074,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>38</v>
       </c>
@@ -6052,7 +6106,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>39</v>
       </c>
@@ -6084,7 +6138,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>40</v>
       </c>
@@ -6116,7 +6170,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>41</v>
       </c>
@@ -6148,7 +6202,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>45</v>
       </c>
@@ -6177,7 +6231,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>47</v>
       </c>
@@ -6209,7 +6263,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>48</v>
       </c>
@@ -6241,7 +6295,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>50</v>
       </c>
@@ -6268,24 +6322,3454 @@
       </c>
       <c r="J93">
         <v>7000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94">
+        <v>8.2330000000000005</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95">
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0.73402777777777783</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96">
+        <v>8.2550000000000008</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>8.1920000000000002</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>10.106</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>7.125</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>10.414</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>7.27</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>9.0050000000000008</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0.7319444444444444</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>7.24</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>7.3529999999999998</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>7.3369999999999997</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>7.1230000000000002</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>9.7479999999999993</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>7.3390000000000004</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>6.9210000000000003</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>6.6390000000000002</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>22</v>
+      </c>
+      <c r="B115" t="s">
+        <v>82</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>8.8010000000000002</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>7.1289999999999996</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>9.2240000000000002</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>82</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>6.5090000000000003</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>7.1870000000000003</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>8.3170000000000002</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>6.2229999999999999</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>29</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>8.3109999999999999</v>
+      </c>
+      <c r="E122" s="12">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>7.4960000000000004</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>9.1419999999999995</v>
+      </c>
+      <c r="E124" s="12">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>32</v>
+      </c>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>7.2729999999999997</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>33</v>
+      </c>
+      <c r="B126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>11.64</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>34</v>
+      </c>
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>8.93</v>
+      </c>
+      <c r="E127" s="12">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>35</v>
+      </c>
+      <c r="B128" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>36</v>
+      </c>
+      <c r="B129" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>9.3339999999999996</v>
+      </c>
+      <c r="E129" s="12">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>6.4870000000000001</v>
+      </c>
+      <c r="E130" s="12">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>38</v>
+      </c>
+      <c r="B131" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>7.319</v>
+      </c>
+      <c r="E131" s="12">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>39</v>
+      </c>
+      <c r="B132" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>7.8289999999999997</v>
+      </c>
+      <c r="E132" s="12">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>40</v>
+      </c>
+      <c r="B133" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>7.3760000000000003</v>
+      </c>
+      <c r="E133" s="12">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>41</v>
+      </c>
+      <c r="B134" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>8.7230000000000008</v>
+      </c>
+      <c r="E134" s="12">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>42</v>
+      </c>
+      <c r="B135" t="s">
+        <v>82</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>6.1440000000000001</v>
+      </c>
+      <c r="E135" s="12">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>43</v>
+      </c>
+      <c r="B136" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="E136" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>44</v>
+      </c>
+      <c r="B137" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>11.208</v>
+      </c>
+      <c r="E137" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>45</v>
+      </c>
+      <c r="B138" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>6.4340000000000002</v>
+      </c>
+      <c r="E138" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>10.91</v>
+      </c>
+      <c r="E139" s="12">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>47</v>
+      </c>
+      <c r="B140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>7.1449999999999996</v>
+      </c>
+      <c r="E140" s="12">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>48</v>
+      </c>
+      <c r="B141" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>6.7309999999999999</v>
+      </c>
+      <c r="E141" s="12">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>49</v>
+      </c>
+      <c r="B142" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>7.3250000000000002</v>
+      </c>
+      <c r="E142" s="12">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>50</v>
+      </c>
+      <c r="B143" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="E143" s="12">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>51</v>
+      </c>
+      <c r="B144" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>7.625</v>
+      </c>
+      <c r="E144" s="12">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>52</v>
+      </c>
+      <c r="B145" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>10.052</v>
+      </c>
+      <c r="E145" s="12">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>53</v>
+      </c>
+      <c r="B146" t="s">
+        <v>82</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>7.8810000000000002</v>
+      </c>
+      <c r="E146" s="12">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>54</v>
+      </c>
+      <c r="B147" t="s">
+        <v>82</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>7.2359999999999998</v>
+      </c>
+      <c r="E147" s="12">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>55</v>
+      </c>
+      <c r="B148" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>8.5609999999999999</v>
+      </c>
+      <c r="E148" s="12">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>56</v>
+      </c>
+      <c r="B149" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>10.727</v>
+      </c>
+      <c r="E149" s="12">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>57</v>
+      </c>
+      <c r="B150" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>7.468</v>
+      </c>
+      <c r="E150" s="12">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>58</v>
+      </c>
+      <c r="B151" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="E151" s="12">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>59</v>
+      </c>
+      <c r="B152" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" t="s">
+        <v>84</v>
+      </c>
+      <c r="E152" s="12">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>60</v>
+      </c>
+      <c r="B153" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" t="s">
+        <v>84</v>
+      </c>
+      <c r="E153" s="12">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" t="s">
+        <v>78</v>
+      </c>
+      <c r="D154">
+        <v>12.129</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" t="s">
+        <v>83</v>
+      </c>
+      <c r="D155">
+        <v>7.8689999999999998</v>
+      </c>
+      <c r="E155" s="12">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" t="s">
+        <v>83</v>
+      </c>
+      <c r="D156">
+        <v>6.92</v>
+      </c>
+      <c r="E156" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>6.4960000000000004</v>
+      </c>
+      <c r="E157" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>4.9080000000000004</v>
+      </c>
+      <c r="E158" s="12">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>9.7040000000000006</v>
+      </c>
+      <c r="E159" s="12">
+        <v>0.71875</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>8.0169999999999995</v>
+      </c>
+      <c r="E160" s="12">
+        <v>0.71875</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>5.657</v>
+      </c>
+      <c r="E161" s="12">
+        <v>0.71875</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>7.2779999999999996</v>
+      </c>
+      <c r="E162" s="12">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>5.125</v>
+      </c>
+      <c r="E163" s="12">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>5.0590000000000002</v>
+      </c>
+      <c r="E164" s="12">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>10.180999999999999</v>
+      </c>
+      <c r="E165" s="12">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>6.6219999999999999</v>
+      </c>
+      <c r="E166" s="12">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
+        <v>85</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>9.016</v>
+      </c>
+      <c r="E167" s="12">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>15</v>
+      </c>
+      <c r="B168" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>10.368</v>
+      </c>
+      <c r="E168" s="12">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>16</v>
+      </c>
+      <c r="B169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>4.76</v>
+      </c>
+      <c r="E169" s="12">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>8.2390000000000008</v>
+      </c>
+      <c r="E170" s="12">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>85</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171">
+        <v>6.4160000000000004</v>
+      </c>
+      <c r="E171" s="12">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="E172" s="12">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>8.8350000000000009</v>
+      </c>
+      <c r="E173" s="12">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>85</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="E174" s="12">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>22</v>
+      </c>
+      <c r="B175" t="s">
+        <v>85</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>9.8510000000000009</v>
+      </c>
+      <c r="E175" s="12">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>85</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>9.798</v>
+      </c>
+      <c r="E176" s="12">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>24</v>
+      </c>
+      <c r="B177" t="s">
+        <v>85</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>6.8129999999999997</v>
+      </c>
+      <c r="E177" s="12">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s">
+        <v>85</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="E178" s="12">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>26</v>
+      </c>
+      <c r="B179" t="s">
+        <v>85</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>6.16</v>
+      </c>
+      <c r="E179" s="12">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>27</v>
+      </c>
+      <c r="B180" t="s">
+        <v>85</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="E180" s="12">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>28</v>
+      </c>
+      <c r="B181" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>5.5149999999999997</v>
+      </c>
+      <c r="E181" s="12">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>29</v>
+      </c>
+      <c r="B182" t="s">
+        <v>85</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>10.138999999999999</v>
+      </c>
+      <c r="E182" s="12">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>30</v>
+      </c>
+      <c r="B183" t="s">
+        <v>85</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>6.91</v>
+      </c>
+      <c r="E183" s="12">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>31</v>
+      </c>
+      <c r="B184" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>8.5359999999999996</v>
+      </c>
+      <c r="E184" s="12">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>32</v>
+      </c>
+      <c r="B185" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>5.8650000000000002</v>
+      </c>
+      <c r="E185" s="12">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>33</v>
+      </c>
+      <c r="B186" t="s">
+        <v>85</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186">
+        <v>10.010999999999999</v>
+      </c>
+      <c r="E186" s="12">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>34</v>
+      </c>
+      <c r="B187" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>7.234</v>
+      </c>
+      <c r="E187" s="12">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>35</v>
+      </c>
+      <c r="B188" t="s">
+        <v>85</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>6.5389999999999997</v>
+      </c>
+      <c r="E188" s="12">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>36</v>
+      </c>
+      <c r="B189" t="s">
+        <v>85</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>8.4019999999999992</v>
+      </c>
+      <c r="E189" s="12">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>37</v>
+      </c>
+      <c r="B190" t="s">
+        <v>85</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>5.7</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>38</v>
+      </c>
+      <c r="B191" t="s">
+        <v>85</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>8.5289999999999999</v>
+      </c>
+      <c r="E191" s="12">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>39</v>
+      </c>
+      <c r="B192" t="s">
+        <v>85</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="E192" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>40</v>
+      </c>
+      <c r="B193" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="E193" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194">
+        <v>41</v>
+      </c>
+      <c r="B194" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194">
+        <v>7.8630000000000004</v>
+      </c>
+      <c r="E194" s="12">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195">
+        <v>42</v>
+      </c>
+      <c r="B195" t="s">
+        <v>85</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="E195" s="12">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196">
+        <v>43</v>
+      </c>
+      <c r="B196" t="s">
+        <v>85</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>10.262</v>
+      </c>
+      <c r="E196" s="12">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197">
+        <v>44</v>
+      </c>
+      <c r="B197" t="s">
+        <v>85</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="E197" s="12">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198">
+        <v>45</v>
+      </c>
+      <c r="B198" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>6.0179999999999998</v>
+      </c>
+      <c r="E198" s="12">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199">
+        <v>46</v>
+      </c>
+      <c r="B199" t="s">
+        <v>85</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>6.8150000000000004</v>
+      </c>
+      <c r="E199" s="12">
+        <v>0.70624999999999993</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200">
+        <v>47</v>
+      </c>
+      <c r="B200" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200">
+        <v>10.984999999999999</v>
+      </c>
+      <c r="E200" s="12">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201">
+        <v>48</v>
+      </c>
+      <c r="B201" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>8.4369999999999994</v>
+      </c>
+      <c r="E201" s="12">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202">
+        <v>49</v>
+      </c>
+      <c r="B202" t="s">
+        <v>85</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>6.8029999999999999</v>
+      </c>
+      <c r="E202" s="12">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203">
+        <v>50</v>
+      </c>
+      <c r="B203" t="s">
+        <v>85</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>8.0090000000000003</v>
+      </c>
+      <c r="E203" s="12">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204">
+        <v>51</v>
+      </c>
+      <c r="B204" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="E204" s="12">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205">
+        <v>52</v>
+      </c>
+      <c r="B205" t="s">
+        <v>85</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>7.8</v>
+      </c>
+      <c r="E205" s="12">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206">
+        <v>53</v>
+      </c>
+      <c r="B206" t="s">
+        <v>85</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>10.016999999999999</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207">
+        <v>54</v>
+      </c>
+      <c r="B207" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207">
+        <v>8.8859999999999992</v>
+      </c>
+      <c r="E207" s="12">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208">
+        <v>55</v>
+      </c>
+      <c r="B208" t="s">
+        <v>85</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>8.4030000000000005</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209">
+        <v>56</v>
+      </c>
+      <c r="B209" t="s">
+        <v>85</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209">
+        <v>6.3460000000000001</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0.69930555555555562</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210">
+        <v>57</v>
+      </c>
+      <c r="B210" t="s">
+        <v>85</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210">
+        <v>9.7110000000000003</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211">
+        <v>58</v>
+      </c>
+      <c r="B211" t="s">
+        <v>85</v>
+      </c>
+      <c r="C211" t="s">
+        <v>84</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212">
+        <v>59</v>
+      </c>
+      <c r="B212" t="s">
+        <v>85</v>
+      </c>
+      <c r="C212" t="s">
+        <v>84</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="160" windowWidth="22120" windowHeight="26780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="160" windowWidth="28860" windowHeight="26620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="87">
   <si>
     <t>Site</t>
   </si>
@@ -285,6 +285,9 @@
   <si>
     <t>white</t>
   </si>
+  <si>
+    <t>Feris</t>
+  </si>
 </sst>
 </file>
 
@@ -359,8 +362,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,7 +457,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -478,6 +487,9 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -507,6 +519,9 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -774,7 +789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3345,11 +3360,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E213" sqref="E213"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9763,6 +9778,4056 @@
         <v>6</v>
       </c>
     </row>
+    <row r="213" spans="1:9">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
+        <v>82</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>8.0760000000000005</v>
+      </c>
+      <c r="E213" s="12">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
+        <v>82</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214">
+        <v>6.9009999999999998</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215">
+        <v>3</v>
+      </c>
+      <c r="B215" t="s">
+        <v>82</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215">
+        <v>9.2390000000000008</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>82</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>8.7720000000000002</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218">
+        <v>6.5309999999999997</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>82</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219">
+        <v>11.077</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>82</v>
+      </c>
+      <c r="C220" t="s">
+        <v>83</v>
+      </c>
+      <c r="D220">
+        <v>7.3689999999999998</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>9.2940000000000005</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>82</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>9.1989999999999998</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224">
+        <v>12</v>
+      </c>
+      <c r="B224" t="s">
+        <v>82</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>5.9329999999999998</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225">
+        <v>13</v>
+      </c>
+      <c r="B225" t="s">
+        <v>82</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>82</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <v>7.2830000000000004</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227">
+        <v>15</v>
+      </c>
+      <c r="B227" t="s">
+        <v>82</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>6.4180000000000001</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
+        <v>82</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>11.73</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229">
+        <v>17</v>
+      </c>
+      <c r="B229" t="s">
+        <v>82</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>6.5389999999999997</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230">
+        <v>18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" t="s">
+        <v>86</v>
+      </c>
+      <c r="D230">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231">
+        <v>19</v>
+      </c>
+      <c r="B231" t="s">
+        <v>82</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>8.6029999999999998</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>82</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233">
+        <v>21</v>
+      </c>
+      <c r="B233" t="s">
+        <v>82</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>11.336</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234">
+        <v>22</v>
+      </c>
+      <c r="B234" t="s">
+        <v>82</v>
+      </c>
+      <c r="C234" t="s">
+        <v>78</v>
+      </c>
+      <c r="D234">
+        <v>8.0090000000000003</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235">
+        <v>23</v>
+      </c>
+      <c r="B235" t="s">
+        <v>82</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235">
+        <v>6.2640000000000002</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236">
+        <v>24</v>
+      </c>
+      <c r="B236" t="s">
+        <v>82</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236">
+        <v>7.7050000000000001</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237">
+        <v>25</v>
+      </c>
+      <c r="B237" t="s">
+        <v>82</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238">
+        <v>26</v>
+      </c>
+      <c r="B238" t="s">
+        <v>82</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238">
+        <v>9.8190000000000008</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239">
+        <v>27</v>
+      </c>
+      <c r="B239" t="s">
+        <v>82</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239">
+        <v>9.1920000000000002</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240">
+        <v>28</v>
+      </c>
+      <c r="B240" t="s">
+        <v>82</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240">
+        <v>6.21</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241">
+        <v>29</v>
+      </c>
+      <c r="B241" t="s">
+        <v>82</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241">
+        <v>9.5259999999999998</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242">
+        <v>30</v>
+      </c>
+      <c r="B242" t="s">
+        <v>82</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242">
+        <v>7.3929999999999998</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243">
+        <v>31</v>
+      </c>
+      <c r="B243" t="s">
+        <v>82</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244">
+        <v>32</v>
+      </c>
+      <c r="B244" t="s">
+        <v>82</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244">
+        <v>7.5449999999999999</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245">
+        <v>33</v>
+      </c>
+      <c r="B245" t="s">
+        <v>82</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245">
+        <v>8.0809999999999995</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246">
+        <v>34</v>
+      </c>
+      <c r="B246" t="s">
+        <v>82</v>
+      </c>
+      <c r="C246" t="s">
+        <v>83</v>
+      </c>
+      <c r="D246">
+        <v>4.9539999999999997</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247">
+        <v>35</v>
+      </c>
+      <c r="B247" t="s">
+        <v>82</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247">
+        <v>9.0609999999999999</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248">
+        <v>36</v>
+      </c>
+      <c r="B248" t="s">
+        <v>82</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249">
+        <v>37</v>
+      </c>
+      <c r="B249" t="s">
+        <v>82</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250">
+        <v>38</v>
+      </c>
+      <c r="B250" t="s">
+        <v>82</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250">
+        <v>11.106999999999999</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251">
+        <v>39</v>
+      </c>
+      <c r="B251" t="s">
+        <v>82</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251">
+        <v>10.968</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252">
+        <v>40</v>
+      </c>
+      <c r="B252" t="s">
+        <v>82</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252">
+        <v>8.0549999999999997</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253">
+        <v>41</v>
+      </c>
+      <c r="B253" t="s">
+        <v>82</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253">
+        <v>8.1590000000000007</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254">
+        <v>42</v>
+      </c>
+      <c r="B254" t="s">
+        <v>82</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <v>6.89</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255">
+        <v>43</v>
+      </c>
+      <c r="B255" t="s">
+        <v>82</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255">
+        <v>7.157</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256">
+        <v>44</v>
+      </c>
+      <c r="B256" t="s">
+        <v>82</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>8.3279999999999994</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257">
+        <v>45</v>
+      </c>
+      <c r="B257" t="s">
+        <v>82</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>5.8490000000000002</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258">
+        <v>46</v>
+      </c>
+      <c r="B258" t="s">
+        <v>82</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>6.8390000000000004</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259">
+        <v>47</v>
+      </c>
+      <c r="B259" t="s">
+        <v>82</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259">
+        <v>10.324</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260">
+        <v>48</v>
+      </c>
+      <c r="B260" t="s">
+        <v>82</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260">
+        <v>5.8330000000000002</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261">
+        <v>49</v>
+      </c>
+      <c r="B261" t="s">
+        <v>82</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261">
+        <v>7.085</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262">
+        <v>50</v>
+      </c>
+      <c r="B262" t="s">
+        <v>82</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>8.5879999999999992</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263">
+        <v>51</v>
+      </c>
+      <c r="B263" t="s">
+        <v>82</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>6.21</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264">
+        <v>52</v>
+      </c>
+      <c r="B264" t="s">
+        <v>82</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>9.7710000000000008</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265">
+        <v>53</v>
+      </c>
+      <c r="B265" t="s">
+        <v>82</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265">
+        <v>12.332000000000001</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266">
+        <v>54</v>
+      </c>
+      <c r="B266" t="s">
+        <v>82</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>4.3550000000000004</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267">
+        <v>55</v>
+      </c>
+      <c r="B267" t="s">
+        <v>82</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267">
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268">
+        <v>56</v>
+      </c>
+      <c r="B268" t="s">
+        <v>82</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268">
+        <v>8.9830000000000005</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269">
+        <v>57</v>
+      </c>
+      <c r="B269" t="s">
+        <v>82</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>10.964</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270">
+        <v>58</v>
+      </c>
+      <c r="B270" t="s">
+        <v>82</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270">
+        <v>8.766</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271">
+        <v>59</v>
+      </c>
+      <c r="B271" t="s">
+        <v>82</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271">
+        <v>9.8770000000000007</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272">
+        <v>60</v>
+      </c>
+      <c r="B272" t="s">
+        <v>82</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272">
+        <v>7.1020000000000003</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273">
+        <v>61</v>
+      </c>
+      <c r="B273" t="s">
+        <v>82</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+      <c r="D273">
+        <v>6.7969999999999997</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274">
+        <v>62</v>
+      </c>
+      <c r="B274" t="s">
+        <v>82</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274">
+        <v>6.4729999999999999</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275">
+        <v>63</v>
+      </c>
+      <c r="B275" t="s">
+        <v>82</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276">
+        <v>64</v>
+      </c>
+      <c r="B276" t="s">
+        <v>82</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276">
+        <v>5.0190000000000001</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277">
+        <v>65</v>
+      </c>
+      <c r="B277" t="s">
+        <v>82</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277">
+        <v>9.5640000000000001</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278">
+        <v>66</v>
+      </c>
+      <c r="B278" t="s">
+        <v>82</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278">
+        <v>11.72</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279">
+        <v>67</v>
+      </c>
+      <c r="B279" t="s">
+        <v>82</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279">
+        <v>5.4420000000000002</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280">
+        <v>68</v>
+      </c>
+      <c r="B280" t="s">
+        <v>82</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280">
+        <v>9.3279999999999994</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281">
+        <v>69</v>
+      </c>
+      <c r="B281" t="s">
+        <v>82</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281">
+        <v>4.12</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282">
+        <v>70</v>
+      </c>
+      <c r="B282" t="s">
+        <v>82</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282">
+        <v>5.6509999999999998</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283">
+        <v>71</v>
+      </c>
+      <c r="B283" t="s">
+        <v>82</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+      <c r="D283">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284">
+        <v>72</v>
+      </c>
+      <c r="B284" t="s">
+        <v>82</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284">
+        <v>6.383</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285">
+        <v>73</v>
+      </c>
+      <c r="B285" t="s">
+        <v>82</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285">
+        <v>7.45</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286">
+        <v>74</v>
+      </c>
+      <c r="B286" t="s">
+        <v>82</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286">
+        <v>7.601</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287">
+        <v>75</v>
+      </c>
+      <c r="B287" t="s">
+        <v>82</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287">
+        <v>9.1739999999999995</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288">
+        <v>76</v>
+      </c>
+      <c r="B288" t="s">
+        <v>82</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288">
+        <v>11.574</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289">
+        <v>77</v>
+      </c>
+      <c r="B289" t="s">
+        <v>82</v>
+      </c>
+      <c r="C289" t="s">
+        <v>84</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290">
+        <v>78</v>
+      </c>
+      <c r="B290" t="s">
+        <v>82</v>
+      </c>
+      <c r="C290" t="s">
+        <v>84</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>85</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291">
+        <v>5.593</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>85</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292">
+        <v>6.1180000000000003</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>85</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293">
+        <v>9.3179999999999996</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>85</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+      <c r="D294">
+        <v>8.0109999999999992</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295">
+        <v>5</v>
+      </c>
+      <c r="B295" t="s">
+        <v>85</v>
+      </c>
+      <c r="C295" t="s">
+        <v>5</v>
+      </c>
+      <c r="D295">
+        <v>8.8840000000000003</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="B296" t="s">
+        <v>85</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+      <c r="D296">
+        <v>5.6029999999999998</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297">
+        <v>7</v>
+      </c>
+      <c r="B297" t="s">
+        <v>85</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297">
+        <v>8.0630000000000006</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298">
+        <v>8</v>
+      </c>
+      <c r="B298" t="s">
+        <v>85</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+      <c r="D298">
+        <v>5.8019999999999996</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299">
+        <v>9</v>
+      </c>
+      <c r="B299" t="s">
+        <v>85</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>9.1430000000000007</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300">
+        <v>10</v>
+      </c>
+      <c r="B300" t="s">
+        <v>85</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300">
+        <v>11.635999999999999</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301">
+        <v>11</v>
+      </c>
+      <c r="B301" t="s">
+        <v>85</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+      <c r="D301">
+        <v>6.391</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302">
+        <v>12</v>
+      </c>
+      <c r="B302" t="s">
+        <v>85</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>8.4589999999999996</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303">
+        <v>13</v>
+      </c>
+      <c r="B303" t="s">
+        <v>85</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+      <c r="D303">
+        <v>6.9260000000000002</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>85</v>
+      </c>
+      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>9.6069999999999993</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305">
+        <v>15</v>
+      </c>
+      <c r="B305" t="s">
+        <v>85</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305">
+        <v>9.4570000000000007</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306">
+        <v>16</v>
+      </c>
+      <c r="B306" t="s">
+        <v>85</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306">
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307">
+        <v>17</v>
+      </c>
+      <c r="B307" t="s">
+        <v>85</v>
+      </c>
+      <c r="C307" t="s">
+        <v>4</v>
+      </c>
+      <c r="D307">
+        <v>4.5179999999999998</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308">
+        <v>18</v>
+      </c>
+      <c r="B308" t="s">
+        <v>85</v>
+      </c>
+      <c r="C308" t="s">
+        <v>4</v>
+      </c>
+      <c r="D308">
+        <v>9.3719999999999999</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309">
+        <v>19</v>
+      </c>
+      <c r="B309" t="s">
+        <v>85</v>
+      </c>
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309">
+        <v>8.1329999999999991</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310">
+        <v>20</v>
+      </c>
+      <c r="B310" t="s">
+        <v>85</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310">
+        <v>7.3250000000000002</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311">
+        <v>21</v>
+      </c>
+      <c r="B311" t="s">
+        <v>85</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5</v>
+      </c>
+      <c r="D311">
+        <v>9.4290000000000003</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312">
+        <v>22</v>
+      </c>
+      <c r="B312" t="s">
+        <v>85</v>
+      </c>
+      <c r="C312" t="s">
+        <v>4</v>
+      </c>
+      <c r="D312">
+        <v>6.1820000000000004</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313">
+        <v>23</v>
+      </c>
+      <c r="B313" t="s">
+        <v>85</v>
+      </c>
+      <c r="C313" t="s">
+        <v>5</v>
+      </c>
+      <c r="D313">
+        <v>6.282</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314">
+        <v>24</v>
+      </c>
+      <c r="B314" t="s">
+        <v>85</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>7.1340000000000003</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315">
+        <v>25</v>
+      </c>
+      <c r="B315" t="s">
+        <v>85</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315">
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316">
+        <v>26</v>
+      </c>
+      <c r="B316" t="s">
+        <v>85</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316">
+        <v>8.1050000000000004</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317">
+        <v>27</v>
+      </c>
+      <c r="B317" t="s">
+        <v>85</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+      <c r="D317">
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318">
+        <v>28</v>
+      </c>
+      <c r="B318" t="s">
+        <v>85</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318">
+        <v>9.9589999999999996</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319">
+        <v>29</v>
+      </c>
+      <c r="B319" t="s">
+        <v>85</v>
+      </c>
+      <c r="C319" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319">
+        <v>5.1580000000000004</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320">
+        <v>30</v>
+      </c>
+      <c r="B320" t="s">
+        <v>85</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320">
+        <v>6.6020000000000003</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321">
+        <v>31</v>
+      </c>
+      <c r="B321" t="s">
+        <v>85</v>
+      </c>
+      <c r="C321" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321">
+        <v>5.5129999999999999</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322">
+        <v>32</v>
+      </c>
+      <c r="B322" t="s">
+        <v>85</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322">
+        <v>9.4849999999999994</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323">
+        <v>33</v>
+      </c>
+      <c r="B323" t="s">
+        <v>85</v>
+      </c>
+      <c r="C323" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323">
+        <v>4.8810000000000002</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324">
+        <v>34</v>
+      </c>
+      <c r="B324" t="s">
+        <v>85</v>
+      </c>
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324">
+        <v>5.4939999999999998</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325">
+        <v>35</v>
+      </c>
+      <c r="B325" t="s">
+        <v>85</v>
+      </c>
+      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325">
+        <v>11.968999999999999</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326">
+        <v>36</v>
+      </c>
+      <c r="B326" t="s">
+        <v>85</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326">
+        <v>7.5529999999999999</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327">
+        <v>37</v>
+      </c>
+      <c r="B327" t="s">
+        <v>85</v>
+      </c>
+      <c r="C327" t="s">
+        <v>4</v>
+      </c>
+      <c r="D327">
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328">
+        <v>38</v>
+      </c>
+      <c r="B328" t="s">
+        <v>85</v>
+      </c>
+      <c r="C328" t="s">
+        <v>78</v>
+      </c>
+      <c r="D328">
+        <v>11.624000000000001</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329">
+        <v>39</v>
+      </c>
+      <c r="B329" t="s">
+        <v>85</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329">
+        <v>8.2460000000000004</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330">
+        <v>40</v>
+      </c>
+      <c r="B330" t="s">
+        <v>85</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330">
+        <v>9.7710000000000008</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331">
+        <v>41</v>
+      </c>
+      <c r="B331" t="s">
+        <v>85</v>
+      </c>
+      <c r="C331" t="s">
+        <v>5</v>
+      </c>
+      <c r="D331">
+        <v>9.1370000000000005</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332">
+        <v>42</v>
+      </c>
+      <c r="B332" t="s">
+        <v>85</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333">
+        <v>43</v>
+      </c>
+      <c r="B333" t="s">
+        <v>85</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+      <c r="D333">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334">
+        <v>44</v>
+      </c>
+      <c r="B334" t="s">
+        <v>85</v>
+      </c>
+      <c r="C334" t="s">
+        <v>4</v>
+      </c>
+      <c r="D334">
+        <v>8.8369999999999997</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335">
+        <v>45</v>
+      </c>
+      <c r="B335" t="s">
+        <v>85</v>
+      </c>
+      <c r="C335" t="s">
+        <v>4</v>
+      </c>
+      <c r="D335">
+        <v>9.4529999999999994</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336">
+        <v>46</v>
+      </c>
+      <c r="B336" t="s">
+        <v>85</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336">
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337">
+        <v>47</v>
+      </c>
+      <c r="B337" t="s">
+        <v>85</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+      <c r="D337">
+        <v>8.9309999999999992</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338">
+        <v>48</v>
+      </c>
+      <c r="B338" t="s">
+        <v>85</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
+      <c r="D338">
+        <v>8.2669999999999995</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339">
+        <v>49</v>
+      </c>
+      <c r="B339" t="s">
+        <v>85</v>
+      </c>
+      <c r="C339" t="s">
+        <v>4</v>
+      </c>
+      <c r="D339">
+        <v>7.8860000000000001</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340">
+        <v>50</v>
+      </c>
+      <c r="B340" t="s">
+        <v>85</v>
+      </c>
+      <c r="C340" t="s">
+        <v>78</v>
+      </c>
+      <c r="D340">
+        <v>11.759</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341">
+        <v>51</v>
+      </c>
+      <c r="B341" t="s">
+        <v>85</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
+      <c r="D341">
+        <v>11.131</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342">
+        <v>52</v>
+      </c>
+      <c r="B342" t="s">
+        <v>85</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342">
+        <v>6.3259999999999996</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343">
+        <v>53</v>
+      </c>
+      <c r="B343" t="s">
+        <v>85</v>
+      </c>
+      <c r="C343" t="s">
+        <v>4</v>
+      </c>
+      <c r="D343">
+        <v>4.484</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344">
+        <v>54</v>
+      </c>
+      <c r="B344" t="s">
+        <v>85</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+      <c r="D344">
+        <v>5.327</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345">
+        <v>55</v>
+      </c>
+      <c r="B345" t="s">
+        <v>85</v>
+      </c>
+      <c r="C345" t="s">
+        <v>4</v>
+      </c>
+      <c r="D345">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346">
+        <v>56</v>
+      </c>
+      <c r="B346" t="s">
+        <v>85</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+      <c r="D346">
+        <v>7.3070000000000004</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347">
+        <v>57</v>
+      </c>
+      <c r="B347" t="s">
+        <v>85</v>
+      </c>
+      <c r="C347" t="s">
+        <v>4</v>
+      </c>
+      <c r="D347">
+        <v>6.9169999999999998</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348">
+        <v>58</v>
+      </c>
+      <c r="B348" t="s">
+        <v>85</v>
+      </c>
+      <c r="C348" t="s">
+        <v>4</v>
+      </c>
+      <c r="D348">
+        <v>4.992</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349">
+        <v>59</v>
+      </c>
+      <c r="B349" t="s">
+        <v>85</v>
+      </c>
+      <c r="C349" t="s">
+        <v>4</v>
+      </c>
+      <c r="D349">
+        <v>4.7270000000000003</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350">
+        <v>60</v>
+      </c>
+      <c r="B350" t="s">
+        <v>85</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350">
+        <v>7.82</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351">
+        <v>61</v>
+      </c>
+      <c r="B351" t="s">
+        <v>85</v>
+      </c>
+      <c r="C351" t="s">
+        <v>4</v>
+      </c>
+      <c r="D351">
+        <v>6.867</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352">
+        <v>62</v>
+      </c>
+      <c r="B352" t="s">
+        <v>85</v>
+      </c>
+      <c r="C352" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352">
+        <v>8.8960000000000008</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353">
+        <v>63</v>
+      </c>
+      <c r="B353" t="s">
+        <v>85</v>
+      </c>
+      <c r="C353" t="s">
+        <v>4</v>
+      </c>
+      <c r="D353">
+        <v>5.9740000000000002</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354">
+        <v>64</v>
+      </c>
+      <c r="B354" t="s">
+        <v>85</v>
+      </c>
+      <c r="C354" t="s">
+        <v>4</v>
+      </c>
+      <c r="D354">
+        <v>6.55</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355">
+        <v>65</v>
+      </c>
+      <c r="B355" t="s">
+        <v>85</v>
+      </c>
+      <c r="C355" t="s">
+        <v>4</v>
+      </c>
+      <c r="D355">
+        <v>10.582000000000001</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356">
+        <v>66</v>
+      </c>
+      <c r="B356" t="s">
+        <v>85</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+      <c r="D356">
+        <v>7.29</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357">
+        <v>67</v>
+      </c>
+      <c r="B357" t="s">
+        <v>85</v>
+      </c>
+      <c r="C357" t="s">
+        <v>4</v>
+      </c>
+      <c r="D357">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358">
+        <v>68</v>
+      </c>
+      <c r="B358" t="s">
+        <v>85</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358">
+        <v>6.56</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359">
+        <v>69</v>
+      </c>
+      <c r="B359" t="s">
+        <v>85</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360">
+        <v>70</v>
+      </c>
+      <c r="B360" t="s">
+        <v>85</v>
+      </c>
+      <c r="C360" t="s">
+        <v>5</v>
+      </c>
+      <c r="D360">
+        <v>10.624000000000001</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361">
+        <v>71</v>
+      </c>
+      <c r="B361" t="s">
+        <v>85</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+      <c r="D361">
+        <v>8.1709999999999994</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362">
+        <v>72</v>
+      </c>
+      <c r="B362" t="s">
+        <v>85</v>
+      </c>
+      <c r="C362" t="s">
+        <v>4</v>
+      </c>
+      <c r="D362">
+        <v>6.3659999999999997</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363">
+        <v>73</v>
+      </c>
+      <c r="B363" t="s">
+        <v>85</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363">
+        <v>11.6</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364">
+        <v>74</v>
+      </c>
+      <c r="B364" t="s">
+        <v>85</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364">
+        <v>7.6820000000000004</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365">
+        <v>75</v>
+      </c>
+      <c r="B365" t="s">
+        <v>85</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365">
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366">
+        <v>76</v>
+      </c>
+      <c r="B366" t="s">
+        <v>85</v>
+      </c>
+      <c r="C366" t="s">
+        <v>4</v>
+      </c>
+      <c r="D366">
+        <v>6.5449999999999999</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367">
+        <v>77</v>
+      </c>
+      <c r="B367" t="s">
+        <v>85</v>
+      </c>
+      <c r="C367" t="s">
+        <v>84</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368">
+        <v>78</v>
+      </c>
+      <c r="B368" t="s">
+        <v>85</v>
+      </c>
+      <c r="C368" t="s">
+        <v>84</v>
+      </c>
+      <c r="E368" s="12">
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewnguyen/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="520" yWindow="160" windowWidth="28860" windowHeight="26620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18320" yWindow="640" windowWidth="28860" windowHeight="26620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,13 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Maggot_collections!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -299,7 +304,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,7 +810,7 @@
       <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -824,7 +828,7 @@
     <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,7 +884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -924,7 +928,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -967,7 +971,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1014,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1057,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1139,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1180,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1500,7 +1504,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1">
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1547,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1">
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1588,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1">
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1631,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1">
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1670,7 +1674,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1">
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1920,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1959,7 +1963,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1">
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2004,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1">
+    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2045,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1">
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -2084,7 +2088,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2166,7 +2170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1">
+    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2333,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1">
+    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2372,7 +2376,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1">
+    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2413,7 +2417,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1">
+    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2460,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1">
+    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2499,7 +2503,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="2" customFormat="1">
+    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -2744,7 +2748,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1">
+    <row r="47" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +2791,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1">
+    <row r="48" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2830,7 +2834,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1">
+    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2873,7 +2877,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1">
+    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2916,7 +2920,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="2" customFormat="1">
+    <row r="56" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3165,7 @@
       </c>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" s="2" customFormat="1">
+    <row r="57" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3204,7 +3208,7 @@
       </c>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1">
+    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -3247,7 +3251,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1">
+    <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -3288,7 +3292,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" s="2" customFormat="1">
+    <row r="60" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3335,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="66" spans="8:9">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H66" s="8" t="s">
         <v>42</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="68" spans="8:9">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
       <c r="I68" s="8">
         <f>SUM(I9:I15)</f>
         <v>107</v>
@@ -3350,11 +3354,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3363,16 +3362,16 @@
   <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D367" sqref="D367"/>
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F380" sqref="F380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3983,7 +3982,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4047,7 +4046,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4207,7 +4206,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4335,7 +4334,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4559,7 +4558,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4591,7 +4590,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -5065,7 +5064,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>11</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>12</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>13</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>14</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>16</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>17</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>18</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>19</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>22</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>23</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>24</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>25</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>26</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>27</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>28</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>29</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>30</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>31</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>32</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>33</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>34</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>35</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>36</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>37</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>38</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>39</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>40</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>41</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>45</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>47</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>48</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>50</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -6367,8 +6366,11 @@
       <c r="I94" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="J94">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2</v>
       </c>
@@ -6396,8 +6398,11 @@
       <c r="I95" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="J95">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3</v>
       </c>
@@ -6425,8 +6430,11 @@
       <c r="I96" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -6454,8 +6462,11 @@
       <c r="I97" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5</v>
       </c>
@@ -6483,8 +6494,11 @@
       <c r="I98" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6</v>
       </c>
@@ -6512,8 +6526,11 @@
       <c r="I99" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>7</v>
       </c>
@@ -6541,8 +6558,11 @@
       <c r="I100" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -6570,8 +6590,11 @@
       <c r="I101" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9</v>
       </c>
@@ -6599,8 +6622,11 @@
       <c r="I102" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10</v>
       </c>
@@ -6628,8 +6654,11 @@
       <c r="I103" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>11</v>
       </c>
@@ -6657,8 +6686,11 @@
       <c r="I104" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12</v>
       </c>
@@ -6686,8 +6718,11 @@
       <c r="I105" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>13</v>
       </c>
@@ -6715,8 +6750,11 @@
       <c r="I106" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>14</v>
       </c>
@@ -6744,8 +6782,11 @@
       <c r="I107" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>15</v>
       </c>
@@ -6773,8 +6814,11 @@
       <c r="I108" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>16</v>
       </c>
@@ -6802,8 +6846,11 @@
       <c r="I109" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>17</v>
       </c>
@@ -6831,8 +6878,11 @@
       <c r="I110" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>18</v>
       </c>
@@ -6860,8 +6910,11 @@
       <c r="I111" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>19</v>
       </c>
@@ -6889,8 +6942,11 @@
       <c r="I112" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>20</v>
       </c>
@@ -6918,8 +6974,11 @@
       <c r="I113" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>21</v>
       </c>
@@ -6947,8 +7006,11 @@
       <c r="I114" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>22</v>
       </c>
@@ -6976,8 +7038,11 @@
       <c r="I115" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>23</v>
       </c>
@@ -7005,8 +7070,11 @@
       <c r="I116" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>24</v>
       </c>
@@ -7034,8 +7102,11 @@
       <c r="I117" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>25</v>
       </c>
@@ -7063,8 +7134,11 @@
       <c r="I118" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>26</v>
       </c>
@@ -7092,8 +7166,11 @@
       <c r="I119" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>27</v>
       </c>
@@ -7121,8 +7198,11 @@
       <c r="I120" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>28</v>
       </c>
@@ -7150,8 +7230,11 @@
       <c r="I121" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>29</v>
       </c>
@@ -7179,8 +7262,11 @@
       <c r="I122" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>30</v>
       </c>
@@ -7208,8 +7294,11 @@
       <c r="I123" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>31</v>
       </c>
@@ -7237,8 +7326,11 @@
       <c r="I124" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>32</v>
       </c>
@@ -7266,8 +7358,11 @@
       <c r="I125" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>33</v>
       </c>
@@ -7295,8 +7390,11 @@
       <c r="I126" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>34</v>
       </c>
@@ -7324,8 +7422,11 @@
       <c r="I127" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>35</v>
       </c>
@@ -7353,8 +7454,11 @@
       <c r="I128" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>36</v>
       </c>
@@ -7382,8 +7486,11 @@
       <c r="I129" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>37</v>
       </c>
@@ -7411,8 +7518,11 @@
       <c r="I130" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>38</v>
       </c>
@@ -7440,8 +7550,11 @@
       <c r="I131" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>39</v>
       </c>
@@ -7469,8 +7582,11 @@
       <c r="I132" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>40</v>
       </c>
@@ -7498,8 +7614,11 @@
       <c r="I133" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>41</v>
       </c>
@@ -7527,8 +7646,11 @@
       <c r="I134" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>42</v>
       </c>
@@ -7556,8 +7678,11 @@
       <c r="I135" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>43</v>
       </c>
@@ -7585,8 +7710,11 @@
       <c r="I136" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>44</v>
       </c>
@@ -7614,8 +7742,11 @@
       <c r="I137" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>45</v>
       </c>
@@ -7643,8 +7774,11 @@
       <c r="I138" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>46</v>
       </c>
@@ -7672,8 +7806,11 @@
       <c r="I139" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>47</v>
       </c>
@@ -7701,8 +7838,11 @@
       <c r="I140" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>48</v>
       </c>
@@ -7730,8 +7870,11 @@
       <c r="I141" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>49</v>
       </c>
@@ -7759,8 +7902,11 @@
       <c r="I142" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>50</v>
       </c>
@@ -7788,8 +7934,11 @@
       <c r="I143" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>51</v>
       </c>
@@ -7817,8 +7966,11 @@
       <c r="I144" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>52</v>
       </c>
@@ -7846,8 +7998,11 @@
       <c r="I145" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>53</v>
       </c>
@@ -7875,8 +8030,11 @@
       <c r="I146" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>54</v>
       </c>
@@ -7904,8 +8062,11 @@
       <c r="I147" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>55</v>
       </c>
@@ -7933,8 +8094,11 @@
       <c r="I148" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>56</v>
       </c>
@@ -7962,8 +8126,11 @@
       <c r="I149" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>57</v>
       </c>
@@ -7991,8 +8158,11 @@
       <c r="I150" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>58</v>
       </c>
@@ -8020,8 +8190,11 @@
       <c r="I151" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>59</v>
       </c>
@@ -8046,8 +8219,11 @@
       <c r="I152" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>60</v>
       </c>
@@ -8072,8 +8248,11 @@
       <c r="I153" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -8101,8 +8280,11 @@
       <c r="I154" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2</v>
       </c>
@@ -8130,8 +8312,11 @@
       <c r="I155" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3</v>
       </c>
@@ -8159,8 +8344,11 @@
       <c r="I156" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4</v>
       </c>
@@ -8188,8 +8376,11 @@
       <c r="I157" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>5</v>
       </c>
@@ -8217,8 +8408,11 @@
       <c r="I158" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>6</v>
       </c>
@@ -8246,8 +8440,11 @@
       <c r="I159" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -8275,8 +8472,11 @@
       <c r="I160" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8</v>
       </c>
@@ -8304,8 +8504,11 @@
       <c r="I161" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9</v>
       </c>
@@ -8333,8 +8536,11 @@
       <c r="I162" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10</v>
       </c>
@@ -8362,8 +8568,11 @@
       <c r="I163" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>11</v>
       </c>
@@ -8391,8 +8600,11 @@
       <c r="I164" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>12</v>
       </c>
@@ -8420,8 +8632,11 @@
       <c r="I165" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>13</v>
       </c>
@@ -8449,8 +8664,11 @@
       <c r="I166" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>14</v>
       </c>
@@ -8478,8 +8696,11 @@
       <c r="I167" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>15</v>
       </c>
@@ -8507,8 +8728,11 @@
       <c r="I168" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>16</v>
       </c>
@@ -8536,8 +8760,11 @@
       <c r="I169" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>17</v>
       </c>
@@ -8565,8 +8792,11 @@
       <c r="I170" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>18</v>
       </c>
@@ -8594,8 +8824,11 @@
       <c r="I171" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>19</v>
       </c>
@@ -8623,8 +8856,11 @@
       <c r="I172" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>20</v>
       </c>
@@ -8652,8 +8888,11 @@
       <c r="I173" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>21</v>
       </c>
@@ -8681,8 +8920,11 @@
       <c r="I174" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>22</v>
       </c>
@@ -8710,8 +8952,11 @@
       <c r="I175" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>23</v>
       </c>
@@ -8739,8 +8984,11 @@
       <c r="I176" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>24</v>
       </c>
@@ -8768,8 +9016,11 @@
       <c r="I177" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>25</v>
       </c>
@@ -8797,8 +9048,11 @@
       <c r="I178" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>26</v>
       </c>
@@ -8826,8 +9080,11 @@
       <c r="I179" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>27</v>
       </c>
@@ -8855,8 +9112,11 @@
       <c r="I180" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>28</v>
       </c>
@@ -8884,8 +9144,11 @@
       <c r="I181" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>29</v>
       </c>
@@ -8913,8 +9176,11 @@
       <c r="I182" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>30</v>
       </c>
@@ -8942,8 +9208,11 @@
       <c r="I183" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>31</v>
       </c>
@@ -8971,8 +9240,11 @@
       <c r="I184" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>32</v>
       </c>
@@ -9000,8 +9272,11 @@
       <c r="I185" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>33</v>
       </c>
@@ -9029,8 +9304,11 @@
       <c r="I186" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>34</v>
       </c>
@@ -9058,8 +9336,11 @@
       <c r="I187" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>35</v>
       </c>
@@ -9087,8 +9368,11 @@
       <c r="I188" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>36</v>
       </c>
@@ -9116,8 +9400,11 @@
       <c r="I189" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>37</v>
       </c>
@@ -9145,8 +9432,11 @@
       <c r="I190" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>38</v>
       </c>
@@ -9174,8 +9464,11 @@
       <c r="I191" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>39</v>
       </c>
@@ -9203,8 +9496,11 @@
       <c r="I192" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>40</v>
       </c>
@@ -9232,8 +9528,11 @@
       <c r="I193" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>41</v>
       </c>
@@ -9261,8 +9560,11 @@
       <c r="I194" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>42</v>
       </c>
@@ -9290,8 +9592,11 @@
       <c r="I195" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>43</v>
       </c>
@@ -9319,8 +9624,11 @@
       <c r="I196" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>44</v>
       </c>
@@ -9348,8 +9656,11 @@
       <c r="I197" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>45</v>
       </c>
@@ -9377,8 +9688,11 @@
       <c r="I198" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>46</v>
       </c>
@@ -9406,8 +9720,11 @@
       <c r="I199" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>47</v>
       </c>
@@ -9435,8 +9752,11 @@
       <c r="I200" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>48</v>
       </c>
@@ -9464,8 +9784,11 @@
       <c r="I201" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>49</v>
       </c>
@@ -9493,8 +9816,11 @@
       <c r="I202" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>50</v>
       </c>
@@ -9522,8 +9848,11 @@
       <c r="I203" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>51</v>
       </c>
@@ -9551,8 +9880,11 @@
       <c r="I204" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>52</v>
       </c>
@@ -9580,8 +9912,11 @@
       <c r="I205" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>53</v>
       </c>
@@ -9609,8 +9944,11 @@
       <c r="I206" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>54</v>
       </c>
@@ -9638,8 +9976,11 @@
       <c r="I207" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>55</v>
       </c>
@@ -9667,8 +10008,11 @@
       <c r="I208" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>56</v>
       </c>
@@ -9696,8 +10040,11 @@
       <c r="I209" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>57</v>
       </c>
@@ -9725,8 +10072,11 @@
       <c r="I210" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>58</v>
       </c>
@@ -9751,8 +10101,11 @@
       <c r="I211" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>59</v>
       </c>
@@ -9777,8 +10130,11 @@
       <c r="I212" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -9806,8 +10162,11 @@
       <c r="I213" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="J213">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2</v>
       </c>
@@ -9832,8 +10191,11 @@
       <c r="I214" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3</v>
       </c>
@@ -9858,8 +10220,11 @@
       <c r="I215" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="J215">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4</v>
       </c>
@@ -9884,8 +10249,11 @@
       <c r="I216" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>5</v>
       </c>
@@ -9910,8 +10278,11 @@
       <c r="I217" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="J217">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>6</v>
       </c>
@@ -9936,8 +10307,11 @@
       <c r="I218" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="J218">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>7</v>
       </c>
@@ -9962,8 +10336,11 @@
       <c r="I219" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="J219">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>8</v>
       </c>
@@ -9988,8 +10365,11 @@
       <c r="I220" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>9</v>
       </c>
@@ -10014,8 +10394,11 @@
       <c r="I221" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="J221">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>10</v>
       </c>
@@ -10040,8 +10423,11 @@
       <c r="I222" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="J222">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>11</v>
       </c>
@@ -10066,8 +10452,11 @@
       <c r="I223" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="J223">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>12</v>
       </c>
@@ -10092,8 +10481,11 @@
       <c r="I224" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>13</v>
       </c>
@@ -10118,8 +10510,11 @@
       <c r="I225" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="J225">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>14</v>
       </c>
@@ -10144,8 +10539,11 @@
       <c r="I226" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="J226">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>15</v>
       </c>
@@ -10170,8 +10568,11 @@
       <c r="I227" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="J227">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>16</v>
       </c>
@@ -10196,8 +10597,11 @@
       <c r="I228" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="J228">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>17</v>
       </c>
@@ -10222,8 +10626,11 @@
       <c r="I229" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="J229">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>18</v>
       </c>
@@ -10248,8 +10655,11 @@
       <c r="I230" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>19</v>
       </c>
@@ -10274,8 +10684,11 @@
       <c r="I231" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="J231">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>20</v>
       </c>
@@ -10300,8 +10713,11 @@
       <c r="I232" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="J232">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>21</v>
       </c>
@@ -10326,8 +10742,11 @@
       <c r="I233" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="J233">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>22</v>
       </c>
@@ -10352,8 +10771,11 @@
       <c r="I234" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="J234">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>23</v>
       </c>
@@ -10378,8 +10800,11 @@
       <c r="I235" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="J235">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>24</v>
       </c>
@@ -10404,8 +10829,11 @@
       <c r="I236" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="J236">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>25</v>
       </c>
@@ -10430,8 +10858,11 @@
       <c r="I237" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="J237">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>26</v>
       </c>
@@ -10456,8 +10887,11 @@
       <c r="I238" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="J238">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>27</v>
       </c>
@@ -10482,8 +10916,11 @@
       <c r="I239" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="J239">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>28</v>
       </c>
@@ -10508,8 +10945,11 @@
       <c r="I240" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="J240">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>29</v>
       </c>
@@ -10534,8 +10974,11 @@
       <c r="I241" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="J241">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>30</v>
       </c>
@@ -10560,8 +11003,11 @@
       <c r="I242" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="J242">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>31</v>
       </c>
@@ -10586,8 +11032,11 @@
       <c r="I243" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="J243">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>32</v>
       </c>
@@ -10612,8 +11061,11 @@
       <c r="I244" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="J244">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>33</v>
       </c>
@@ -10638,8 +11090,11 @@
       <c r="I245" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="J245">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>34</v>
       </c>
@@ -10664,8 +11119,11 @@
       <c r="I246" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="J246">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>35</v>
       </c>
@@ -10690,8 +11148,11 @@
       <c r="I247" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="J247">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>36</v>
       </c>
@@ -10716,8 +11177,11 @@
       <c r="I248" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="J248">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>37</v>
       </c>
@@ -10742,8 +11206,11 @@
       <c r="I249" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="J249">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>38</v>
       </c>
@@ -10768,8 +11235,11 @@
       <c r="I250" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="J250">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>39</v>
       </c>
@@ -10794,8 +11264,11 @@
       <c r="I251" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="J251">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>40</v>
       </c>
@@ -10820,8 +11293,11 @@
       <c r="I252" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="J252">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>41</v>
       </c>
@@ -10846,8 +11322,11 @@
       <c r="I253" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="J253">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>42</v>
       </c>
@@ -10872,8 +11351,11 @@
       <c r="I254" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="J254">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>43</v>
       </c>
@@ -10898,8 +11380,11 @@
       <c r="I255" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="J255">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>44</v>
       </c>
@@ -10924,8 +11409,11 @@
       <c r="I256" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="J256">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>45</v>
       </c>
@@ -10950,8 +11438,11 @@
       <c r="I257" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="J257">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>46</v>
       </c>
@@ -10976,8 +11467,11 @@
       <c r="I258" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="J258">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>47</v>
       </c>
@@ -11002,8 +11496,11 @@
       <c r="I259" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="J259">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>48</v>
       </c>
@@ -11028,8 +11525,11 @@
       <c r="I260" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="J260">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>49</v>
       </c>
@@ -11054,8 +11554,11 @@
       <c r="I261" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="J261">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>50</v>
       </c>
@@ -11080,8 +11583,11 @@
       <c r="I262" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="J262">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>51</v>
       </c>
@@ -11106,8 +11612,11 @@
       <c r="I263" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="J263">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>52</v>
       </c>
@@ -11132,8 +11641,11 @@
       <c r="I264" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="J264">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>53</v>
       </c>
@@ -11158,8 +11670,11 @@
       <c r="I265" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="J265">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>54</v>
       </c>
@@ -11184,8 +11699,11 @@
       <c r="I266" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="J266">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>55</v>
       </c>
@@ -11210,8 +11728,11 @@
       <c r="I267" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="J267">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>56</v>
       </c>
@@ -11236,8 +11757,11 @@
       <c r="I268" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="J268">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>57</v>
       </c>
@@ -11262,8 +11786,11 @@
       <c r="I269" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="J269">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>58</v>
       </c>
@@ -11288,8 +11815,11 @@
       <c r="I270" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="J270">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>59</v>
       </c>
@@ -11314,8 +11844,11 @@
       <c r="I271" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="J271">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>60</v>
       </c>
@@ -11340,8 +11873,11 @@
       <c r="I272" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="J272">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>61</v>
       </c>
@@ -11366,8 +11902,11 @@
       <c r="I273" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="J273">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>62</v>
       </c>
@@ -11392,8 +11931,11 @@
       <c r="I274" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="J274">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>63</v>
       </c>
@@ -11418,8 +11960,11 @@
       <c r="I275" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="J275">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>64</v>
       </c>
@@ -11444,8 +11989,11 @@
       <c r="I276" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="J276">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>65</v>
       </c>
@@ -11470,8 +12018,11 @@
       <c r="I277" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="J277">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>66</v>
       </c>
@@ -11496,8 +12047,11 @@
       <c r="I278" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="J278">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>67</v>
       </c>
@@ -11522,8 +12076,11 @@
       <c r="I279" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="J279">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>68</v>
       </c>
@@ -11548,8 +12105,11 @@
       <c r="I280" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="J280">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>69</v>
       </c>
@@ -11574,8 +12134,11 @@
       <c r="I281" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="J281">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>70</v>
       </c>
@@ -11600,8 +12163,11 @@
       <c r="I282" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="J282">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>71</v>
       </c>
@@ -11626,8 +12192,11 @@
       <c r="I283" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="J283">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>72</v>
       </c>
@@ -11652,8 +12221,11 @@
       <c r="I284" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="J284">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>73</v>
       </c>
@@ -11678,8 +12250,11 @@
       <c r="I285" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="J285">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>74</v>
       </c>
@@ -11704,8 +12279,11 @@
       <c r="I286" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="J286">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>75</v>
       </c>
@@ -11730,8 +12308,11 @@
       <c r="I287" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="J287">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>76</v>
       </c>
@@ -11756,8 +12337,11 @@
       <c r="I288" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="J288">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>77</v>
       </c>
@@ -11779,8 +12363,11 @@
       <c r="I289" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="J289">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>78</v>
       </c>
@@ -11802,8 +12389,11 @@
       <c r="I290" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="J290">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1</v>
       </c>
@@ -11828,8 +12418,11 @@
       <c r="I291" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="J291">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2</v>
       </c>
@@ -11854,8 +12447,11 @@
       <c r="I292" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="J292">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3</v>
       </c>
@@ -11880,8 +12476,11 @@
       <c r="I293" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="J293">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>4</v>
       </c>
@@ -11906,8 +12505,11 @@
       <c r="I294" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="J294">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>5</v>
       </c>
@@ -11932,8 +12534,11 @@
       <c r="I295" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="J295">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>6</v>
       </c>
@@ -11958,8 +12563,11 @@
       <c r="I296" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="J296">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>7</v>
       </c>
@@ -11984,8 +12592,11 @@
       <c r="I297" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="J297">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>8</v>
       </c>
@@ -12010,8 +12621,11 @@
       <c r="I298" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="J298">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>9</v>
       </c>
@@ -12036,8 +12650,11 @@
       <c r="I299" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="J299">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10</v>
       </c>
@@ -12062,8 +12679,11 @@
       <c r="I300" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="J300">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>11</v>
       </c>
@@ -12088,8 +12708,11 @@
       <c r="I301" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="J301">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>12</v>
       </c>
@@ -12114,8 +12737,11 @@
       <c r="I302" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="303" spans="1:9">
+      <c r="J302">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>13</v>
       </c>
@@ -12140,8 +12766,11 @@
       <c r="I303" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="304" spans="1:9">
+      <c r="J303">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>14</v>
       </c>
@@ -12166,8 +12795,11 @@
       <c r="I304" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="305" spans="1:9">
+      <c r="J304">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>15</v>
       </c>
@@ -12192,8 +12824,11 @@
       <c r="I305" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="306" spans="1:9">
+      <c r="J305">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>16</v>
       </c>
@@ -12218,8 +12853,11 @@
       <c r="I306" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="307" spans="1:9">
+      <c r="J306">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>17</v>
       </c>
@@ -12244,8 +12882,11 @@
       <c r="I307" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="308" spans="1:9">
+      <c r="J307">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>18</v>
       </c>
@@ -12270,8 +12911,11 @@
       <c r="I308" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="309" spans="1:9">
+      <c r="J308">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>19</v>
       </c>
@@ -12296,8 +12940,11 @@
       <c r="I309" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="310" spans="1:9">
+      <c r="J309">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>20</v>
       </c>
@@ -12322,8 +12969,11 @@
       <c r="I310" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="311" spans="1:9">
+      <c r="J310">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>21</v>
       </c>
@@ -12348,8 +12998,11 @@
       <c r="I311" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="312" spans="1:9">
+      <c r="J311">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>22</v>
       </c>
@@ -12374,8 +13027,11 @@
       <c r="I312" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="313" spans="1:9">
+      <c r="J312">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>23</v>
       </c>
@@ -12400,8 +13056,11 @@
       <c r="I313" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="314" spans="1:9">
+      <c r="J313">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>24</v>
       </c>
@@ -12426,8 +13085,11 @@
       <c r="I314" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="315" spans="1:9">
+      <c r="J314">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>25</v>
       </c>
@@ -12452,8 +13114,11 @@
       <c r="I315" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="316" spans="1:9">
+      <c r="J315">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>26</v>
       </c>
@@ -12478,8 +13143,11 @@
       <c r="I316" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="317" spans="1:9">
+      <c r="J316">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>27</v>
       </c>
@@ -12504,8 +13172,11 @@
       <c r="I317" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="318" spans="1:9">
+      <c r="J317">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>28</v>
       </c>
@@ -12530,8 +13201,11 @@
       <c r="I318" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="319" spans="1:9">
+      <c r="J318">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>29</v>
       </c>
@@ -12556,8 +13230,11 @@
       <c r="I319" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="320" spans="1:9">
+      <c r="J319">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>30</v>
       </c>
@@ -12582,8 +13259,11 @@
       <c r="I320" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="321" spans="1:9">
+      <c r="J320">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>31</v>
       </c>
@@ -12608,8 +13288,11 @@
       <c r="I321" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="322" spans="1:9">
+      <c r="J321">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>32</v>
       </c>
@@ -12634,8 +13317,11 @@
       <c r="I322" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="1:9">
+      <c r="J322">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>33</v>
       </c>
@@ -12660,8 +13346,11 @@
       <c r="I323" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="1:9">
+      <c r="J323">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>34</v>
       </c>
@@ -12686,8 +13375,11 @@
       <c r="I324" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="325" spans="1:9">
+      <c r="J324">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>35</v>
       </c>
@@ -12712,8 +13404,11 @@
       <c r="I325" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="326" spans="1:9">
+      <c r="J325">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>36</v>
       </c>
@@ -12738,8 +13433,11 @@
       <c r="I326" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="327" spans="1:9">
+      <c r="J326">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>37</v>
       </c>
@@ -12764,8 +13462,11 @@
       <c r="I327" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="328" spans="1:9">
+      <c r="J327">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>38</v>
       </c>
@@ -12790,8 +13491,11 @@
       <c r="I328" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="329" spans="1:9">
+      <c r="J328">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>39</v>
       </c>
@@ -12816,8 +13520,11 @@
       <c r="I329" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="330" spans="1:9">
+      <c r="J329">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>40</v>
       </c>
@@ -12842,8 +13549,11 @@
       <c r="I330" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="331" spans="1:9">
+      <c r="J330">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>41</v>
       </c>
@@ -12868,8 +13578,11 @@
       <c r="I331" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="332" spans="1:9">
+      <c r="J331">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>42</v>
       </c>
@@ -12894,8 +13607,11 @@
       <c r="I332" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="333" spans="1:9">
+      <c r="J332">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>43</v>
       </c>
@@ -12920,8 +13636,11 @@
       <c r="I333" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="334" spans="1:9">
+      <c r="J333">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>44</v>
       </c>
@@ -12946,8 +13665,11 @@
       <c r="I334" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="335" spans="1:9">
+      <c r="J334">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>45</v>
       </c>
@@ -12972,8 +13694,11 @@
       <c r="I335" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="336" spans="1:9">
+      <c r="J335">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>46</v>
       </c>
@@ -12998,8 +13723,11 @@
       <c r="I336" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="337" spans="1:9">
+      <c r="J336">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>47</v>
       </c>
@@ -13024,8 +13752,11 @@
       <c r="I337" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="338" spans="1:9">
+      <c r="J337">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>48</v>
       </c>
@@ -13050,8 +13781,11 @@
       <c r="I338" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="339" spans="1:9">
+      <c r="J338">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>49</v>
       </c>
@@ -13076,8 +13810,11 @@
       <c r="I339" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="340" spans="1:9">
+      <c r="J339">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>50</v>
       </c>
@@ -13102,8 +13839,11 @@
       <c r="I340" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="341" spans="1:9">
+      <c r="J340">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>51</v>
       </c>
@@ -13128,8 +13868,11 @@
       <c r="I341" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="342" spans="1:9">
+      <c r="J341">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>52</v>
       </c>
@@ -13154,8 +13897,11 @@
       <c r="I342" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="1:9">
+      <c r="J342">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>53</v>
       </c>
@@ -13180,8 +13926,11 @@
       <c r="I343" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="344" spans="1:9">
+      <c r="J343">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>54</v>
       </c>
@@ -13206,8 +13955,11 @@
       <c r="I344" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="345" spans="1:9">
+      <c r="J344">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>55</v>
       </c>
@@ -13232,8 +13984,11 @@
       <c r="I345" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="346" spans="1:9">
+      <c r="J345">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>56</v>
       </c>
@@ -13258,8 +14013,11 @@
       <c r="I346" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="347" spans="1:9">
+      <c r="J346">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>57</v>
       </c>
@@ -13284,8 +14042,11 @@
       <c r="I347" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="348" spans="1:9">
+      <c r="J347">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>58</v>
       </c>
@@ -13310,8 +14071,11 @@
       <c r="I348" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="349" spans="1:9">
+      <c r="J348">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>59</v>
       </c>
@@ -13336,8 +14100,11 @@
       <c r="I349" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="350" spans="1:9">
+      <c r="J349">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>60</v>
       </c>
@@ -13362,8 +14129,11 @@
       <c r="I350" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="351" spans="1:9">
+      <c r="J350">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>61</v>
       </c>
@@ -13388,8 +14158,11 @@
       <c r="I351" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="352" spans="1:9">
+      <c r="J351">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>62</v>
       </c>
@@ -13414,8 +14187,11 @@
       <c r="I352" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="353" spans="1:9">
+      <c r="J352">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>63</v>
       </c>
@@ -13440,8 +14216,11 @@
       <c r="I353" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="354" spans="1:9">
+      <c r="J353">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>64</v>
       </c>
@@ -13466,8 +14245,11 @@
       <c r="I354" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="355" spans="1:9">
+      <c r="J354">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>65</v>
       </c>
@@ -13492,8 +14274,11 @@
       <c r="I355" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="356" spans="1:9">
+      <c r="J355">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>66</v>
       </c>
@@ -13518,8 +14303,11 @@
       <c r="I356" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="357" spans="1:9">
+      <c r="J356">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>67</v>
       </c>
@@ -13544,8 +14332,11 @@
       <c r="I357" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="358" spans="1:9">
+      <c r="J357">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>68</v>
       </c>
@@ -13570,8 +14361,11 @@
       <c r="I358" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="359" spans="1:9">
+      <c r="J358">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>69</v>
       </c>
@@ -13596,8 +14390,11 @@
       <c r="I359" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="360" spans="1:9">
+      <c r="J359">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>70</v>
       </c>
@@ -13622,8 +14419,11 @@
       <c r="I360" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="361" spans="1:9">
+      <c r="J360">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>71</v>
       </c>
@@ -13648,8 +14448,11 @@
       <c r="I361" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="362" spans="1:9">
+      <c r="J361">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>72</v>
       </c>
@@ -13674,8 +14477,11 @@
       <c r="I362" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="363" spans="1:9">
+      <c r="J362">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>73</v>
       </c>
@@ -13700,8 +14506,11 @@
       <c r="I363" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="364" spans="1:9">
+      <c r="J363">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>74</v>
       </c>
@@ -13726,8 +14535,11 @@
       <c r="I364" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="365" spans="1:9">
+      <c r="J364">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>75</v>
       </c>
@@ -13752,8 +14564,11 @@
       <c r="I365" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="366" spans="1:9">
+      <c r="J365">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>76</v>
       </c>
@@ -13778,8 +14593,11 @@
       <c r="I366" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="367" spans="1:9">
+      <c r="J366">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>77</v>
       </c>
@@ -13801,8 +14619,11 @@
       <c r="I367" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="368" spans="1:9">
+      <c r="J367">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>78</v>
       </c>
@@ -13826,15 +14647,13 @@
       </c>
       <c r="I368" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="J368">
+        <v>6262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewnguyen/Circadian_rhythm_runs_seasonal_timing/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="640" windowWidth="28860" windowHeight="26620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18380" yWindow="640" windowWidth="28860" windowHeight="26620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -18,20 +13,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Maggot_collections!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="88">
   <si>
     <t>Site</t>
   </si>
@@ -293,6 +288,9 @@
   <si>
     <t>Feris</t>
   </si>
+  <si>
+    <t>2017-08-07</t>
+  </si>
 </sst>
 </file>
 
@@ -304,6 +302,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,8 +365,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -461,7 +466,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -494,6 +499,9 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -526,6 +534,9 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,7 +804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,11 +817,11 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -828,7 +839,7 @@
     <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -884,7 +895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -928,7 +939,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -971,7 +982,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1025,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1068,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1098,7 +1109,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1139,7 +1150,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1191,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1515,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1558,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1599,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1631,7 +1642,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1674,7 +1685,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1795,7 +1806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1836,7 +1847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1931,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1963,7 +1974,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -2004,7 +2015,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -2045,7 +2056,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -2088,7 +2099,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2290,7 +2301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2344,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2376,7 +2387,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2417,7 +2428,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2460,7 +2471,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2514,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2585,7 +2596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2623,7 +2634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2759,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +2802,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2834,7 +2845,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2877,7 +2888,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2920,7 +2931,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3002,7 +3013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3122,7 +3133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -3165,7 +3176,7 @@
       </c>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3208,7 +3219,7 @@
       </c>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
@@ -3251,7 +3262,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -3292,7 +3303,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -3335,7 +3346,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:9">
       <c r="H66" s="8" t="s">
         <v>42</v>
       </c>
@@ -3344,7 +3355,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:9">
       <c r="I68" s="8">
         <f>SUM(I9:I15)</f>
         <v>107</v>
@@ -3354,24 +3365,29 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K368"/>
+  <dimension ref="A1:K520"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F380" sqref="F380"/>
+      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I411" sqref="I411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3406,7 +3422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3438,7 +3454,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3470,7 +3486,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3502,7 +3518,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3534,7 +3550,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3566,7 +3582,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3598,7 +3614,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3630,7 +3646,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3662,7 +3678,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3694,7 +3710,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3726,7 +3742,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3758,7 +3774,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3790,7 +3806,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3822,7 +3838,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3854,7 +3870,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3886,7 +3902,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3918,7 +3934,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3950,7 +3966,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3982,7 +3998,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4014,7 +4030,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4046,7 +4062,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4078,7 +4094,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4110,7 +4126,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4142,7 +4158,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4174,7 +4190,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4206,7 +4222,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4238,7 +4254,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4270,7 +4286,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4302,7 +4318,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4334,7 +4350,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4366,7 +4382,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4398,7 +4414,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4430,7 +4446,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4462,7 +4478,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4494,7 +4510,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4526,7 +4542,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4558,7 +4574,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4590,7 +4606,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4622,7 +4638,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4654,7 +4670,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4686,7 +4702,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4718,7 +4734,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4750,7 +4766,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4782,7 +4798,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4811,7 +4827,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4843,7 +4859,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4875,7 +4891,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4907,7 +4923,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4939,7 +4955,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4968,7 +4984,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5000,7 +5016,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5032,7 +5048,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>3</v>
       </c>
@@ -5064,7 +5080,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5096,7 +5112,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>5</v>
       </c>
@@ -5128,7 +5144,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>6</v>
       </c>
@@ -5160,7 +5176,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>7</v>
       </c>
@@ -5192,7 +5208,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>8</v>
       </c>
@@ -5224,7 +5240,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>9</v>
       </c>
@@ -5256,7 +5272,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>10</v>
       </c>
@@ -5288,7 +5304,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>11</v>
       </c>
@@ -5320,7 +5336,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>12</v>
       </c>
@@ -5352,7 +5368,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>13</v>
       </c>
@@ -5384,7 +5400,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>14</v>
       </c>
@@ -5416,7 +5432,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>15</v>
       </c>
@@ -5448,7 +5464,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>16</v>
       </c>
@@ -5480,7 +5496,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>17</v>
       </c>
@@ -5512,7 +5528,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>18</v>
       </c>
@@ -5544,7 +5560,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>19</v>
       </c>
@@ -5576,7 +5592,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>22</v>
       </c>
@@ -5608,7 +5624,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>23</v>
       </c>
@@ -5640,7 +5656,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>24</v>
       </c>
@@ -5672,7 +5688,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>25</v>
       </c>
@@ -5704,7 +5720,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>26</v>
       </c>
@@ -5736,7 +5752,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>27</v>
       </c>
@@ -5768,7 +5784,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>28</v>
       </c>
@@ -5800,7 +5816,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>29</v>
       </c>
@@ -5832,7 +5848,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>30</v>
       </c>
@@ -5864,7 +5880,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>31</v>
       </c>
@@ -5896,7 +5912,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>32</v>
       </c>
@@ -5928,7 +5944,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>33</v>
       </c>
@@ -5960,7 +5976,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>34</v>
       </c>
@@ -5992,7 +6008,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>35</v>
       </c>
@@ -6024,7 +6040,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>36</v>
       </c>
@@ -6056,7 +6072,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>37</v>
       </c>
@@ -6088,7 +6104,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>38</v>
       </c>
@@ -6120,7 +6136,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>39</v>
       </c>
@@ -6152,7 +6168,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>40</v>
       </c>
@@ -6184,7 +6200,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>41</v>
       </c>
@@ -6216,7 +6232,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>45</v>
       </c>
@@ -6245,7 +6261,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>47</v>
       </c>
@@ -6277,7 +6293,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>48</v>
       </c>
@@ -6309,7 +6325,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>50</v>
       </c>
@@ -6338,7 +6354,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>1</v>
       </c>
@@ -6370,7 +6386,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>2</v>
       </c>
@@ -6402,7 +6418,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>3</v>
       </c>
@@ -6434,7 +6450,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>4</v>
       </c>
@@ -6466,7 +6482,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>5</v>
       </c>
@@ -6498,7 +6514,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>6</v>
       </c>
@@ -6530,7 +6546,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>7</v>
       </c>
@@ -6562,7 +6578,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>8</v>
       </c>
@@ -6594,7 +6610,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>9</v>
       </c>
@@ -6626,7 +6642,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>10</v>
       </c>
@@ -6658,7 +6674,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>11</v>
       </c>
@@ -6690,7 +6706,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>12</v>
       </c>
@@ -6722,7 +6738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>13</v>
       </c>
@@ -6754,7 +6770,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>14</v>
       </c>
@@ -6786,7 +6802,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>15</v>
       </c>
@@ -6818,7 +6834,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>16</v>
       </c>
@@ -6850,7 +6866,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>17</v>
       </c>
@@ -6882,7 +6898,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>18</v>
       </c>
@@ -6914,7 +6930,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>19</v>
       </c>
@@ -6946,7 +6962,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>20</v>
       </c>
@@ -6978,7 +6994,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>21</v>
       </c>
@@ -7010,7 +7026,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>22</v>
       </c>
@@ -7042,7 +7058,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>23</v>
       </c>
@@ -7074,7 +7090,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>24</v>
       </c>
@@ -7106,7 +7122,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>25</v>
       </c>
@@ -7138,7 +7154,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>26</v>
       </c>
@@ -7170,7 +7186,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>27</v>
       </c>
@@ -7202,7 +7218,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>28</v>
       </c>
@@ -7234,7 +7250,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>29</v>
       </c>
@@ -7266,7 +7282,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>30</v>
       </c>
@@ -7298,7 +7314,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>31</v>
       </c>
@@ -7330,7 +7346,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>32</v>
       </c>
@@ -7362,7 +7378,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>33</v>
       </c>
@@ -7394,7 +7410,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>34</v>
       </c>
@@ -7426,7 +7442,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>35</v>
       </c>
@@ -7458,7 +7474,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>36</v>
       </c>
@@ -7490,7 +7506,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>37</v>
       </c>
@@ -7522,7 +7538,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>38</v>
       </c>
@@ -7554,7 +7570,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>39</v>
       </c>
@@ -7586,7 +7602,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>40</v>
       </c>
@@ -7618,7 +7634,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>41</v>
       </c>
@@ -7650,7 +7666,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>42</v>
       </c>
@@ -7682,7 +7698,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>43</v>
       </c>
@@ -7714,7 +7730,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>44</v>
       </c>
@@ -7746,7 +7762,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>45</v>
       </c>
@@ -7778,7 +7794,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>46</v>
       </c>
@@ -7810,7 +7826,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>47</v>
       </c>
@@ -7842,7 +7858,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>48</v>
       </c>
@@ -7874,7 +7890,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>49</v>
       </c>
@@ -7906,7 +7922,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>50</v>
       </c>
@@ -7938,7 +7954,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>51</v>
       </c>
@@ -7970,7 +7986,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>52</v>
       </c>
@@ -8002,7 +8018,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>53</v>
       </c>
@@ -8034,7 +8050,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>54</v>
       </c>
@@ -8066,7 +8082,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>55</v>
       </c>
@@ -8098,7 +8114,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>56</v>
       </c>
@@ -8130,7 +8146,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>57</v>
       </c>
@@ -8162,7 +8178,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>58</v>
       </c>
@@ -8194,7 +8210,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>59</v>
       </c>
@@ -8223,7 +8239,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>60</v>
       </c>
@@ -8252,7 +8268,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>1</v>
       </c>
@@ -8284,7 +8300,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>2</v>
       </c>
@@ -8316,7 +8332,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>3</v>
       </c>
@@ -8348,7 +8364,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>4</v>
       </c>
@@ -8380,7 +8396,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>5</v>
       </c>
@@ -8412,7 +8428,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>6</v>
       </c>
@@ -8444,7 +8460,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>7</v>
       </c>
@@ -8476,7 +8492,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>8</v>
       </c>
@@ -8508,7 +8524,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>9</v>
       </c>
@@ -8540,7 +8556,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>10</v>
       </c>
@@ -8572,7 +8588,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>11</v>
       </c>
@@ -8604,7 +8620,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>12</v>
       </c>
@@ -8636,7 +8652,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>13</v>
       </c>
@@ -8668,7 +8684,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>14</v>
       </c>
@@ -8700,7 +8716,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>15</v>
       </c>
@@ -8732,7 +8748,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>16</v>
       </c>
@@ -8764,7 +8780,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>17</v>
       </c>
@@ -8796,7 +8812,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>18</v>
       </c>
@@ -8828,7 +8844,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>19</v>
       </c>
@@ -8860,7 +8876,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>20</v>
       </c>
@@ -8892,7 +8908,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>21</v>
       </c>
@@ -8924,7 +8940,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>22</v>
       </c>
@@ -8956,7 +8972,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>23</v>
       </c>
@@ -8988,7 +9004,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>24</v>
       </c>
@@ -9020,7 +9036,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>25</v>
       </c>
@@ -9052,7 +9068,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>26</v>
       </c>
@@ -9084,7 +9100,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>27</v>
       </c>
@@ -9116,7 +9132,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>28</v>
       </c>
@@ -9148,7 +9164,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>29</v>
       </c>
@@ -9180,7 +9196,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>30</v>
       </c>
@@ -9212,7 +9228,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>31</v>
       </c>
@@ -9244,7 +9260,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>32</v>
       </c>
@@ -9276,7 +9292,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>33</v>
       </c>
@@ -9308,7 +9324,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>34</v>
       </c>
@@ -9340,7 +9356,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>35</v>
       </c>
@@ -9372,7 +9388,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>36</v>
       </c>
@@ -9404,7 +9420,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>37</v>
       </c>
@@ -9436,7 +9452,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>38</v>
       </c>
@@ -9468,7 +9484,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>39</v>
       </c>
@@ -9500,7 +9516,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193">
         <v>40</v>
       </c>
@@ -9532,7 +9548,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10">
       <c r="A194">
         <v>41</v>
       </c>
@@ -9564,7 +9580,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10">
       <c r="A195">
         <v>42</v>
       </c>
@@ -9596,7 +9612,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10">
       <c r="A196">
         <v>43</v>
       </c>
@@ -9628,7 +9644,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10">
       <c r="A197">
         <v>44</v>
       </c>
@@ -9660,7 +9676,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10">
       <c r="A198">
         <v>45</v>
       </c>
@@ -9692,7 +9708,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10">
       <c r="A199">
         <v>46</v>
       </c>
@@ -9724,7 +9740,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10">
       <c r="A200">
         <v>47</v>
       </c>
@@ -9756,7 +9772,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>48</v>
       </c>
@@ -9788,7 +9804,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10">
       <c r="A202">
         <v>49</v>
       </c>
@@ -9820,7 +9836,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203">
         <v>50</v>
       </c>
@@ -9852,7 +9868,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10">
       <c r="A204">
         <v>51</v>
       </c>
@@ -9884,7 +9900,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10">
       <c r="A205">
         <v>52</v>
       </c>
@@ -9916,7 +9932,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10">
       <c r="A206">
         <v>53</v>
       </c>
@@ -9948,7 +9964,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10">
       <c r="A207">
         <v>54</v>
       </c>
@@ -9980,7 +9996,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10">
       <c r="A208">
         <v>55</v>
       </c>
@@ -10012,7 +10028,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10">
       <c r="A209">
         <v>56</v>
       </c>
@@ -10044,7 +10060,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10">
       <c r="A210">
         <v>57</v>
       </c>
@@ -10076,7 +10092,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10">
       <c r="A211">
         <v>58</v>
       </c>
@@ -10105,7 +10121,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10">
       <c r="A212">
         <v>59</v>
       </c>
@@ -10134,7 +10150,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10">
       <c r="A213">
         <v>1</v>
       </c>
@@ -10166,7 +10182,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10">
       <c r="A214">
         <v>2</v>
       </c>
@@ -10195,7 +10211,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10">
       <c r="A215">
         <v>3</v>
       </c>
@@ -10224,7 +10240,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10">
       <c r="A216">
         <v>4</v>
       </c>
@@ -10253,7 +10269,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10">
       <c r="A217">
         <v>5</v>
       </c>
@@ -10282,7 +10298,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10">
       <c r="A218">
         <v>6</v>
       </c>
@@ -10311,7 +10327,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10">
       <c r="A219">
         <v>7</v>
       </c>
@@ -10340,7 +10356,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10">
       <c r="A220">
         <v>8</v>
       </c>
@@ -10369,7 +10385,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10">
       <c r="A221">
         <v>9</v>
       </c>
@@ -10398,7 +10414,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10">
       <c r="A222">
         <v>10</v>
       </c>
@@ -10427,7 +10443,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10">
       <c r="A223">
         <v>11</v>
       </c>
@@ -10456,7 +10472,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10">
       <c r="A224">
         <v>12</v>
       </c>
@@ -10485,7 +10501,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10">
       <c r="A225">
         <v>13</v>
       </c>
@@ -10514,7 +10530,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10">
       <c r="A226">
         <v>14</v>
       </c>
@@ -10543,7 +10559,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10">
       <c r="A227">
         <v>15</v>
       </c>
@@ -10572,7 +10588,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10">
       <c r="A228">
         <v>16</v>
       </c>
@@ -10601,7 +10617,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10">
       <c r="A229">
         <v>17</v>
       </c>
@@ -10630,7 +10646,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>18</v>
       </c>
@@ -10659,7 +10675,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10">
       <c r="A231">
         <v>19</v>
       </c>
@@ -10688,7 +10704,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10">
       <c r="A232">
         <v>20</v>
       </c>
@@ -10717,7 +10733,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10">
       <c r="A233">
         <v>21</v>
       </c>
@@ -10746,7 +10762,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>22</v>
       </c>
@@ -10775,7 +10791,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>23</v>
       </c>
@@ -10804,7 +10820,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10">
       <c r="A236">
         <v>24</v>
       </c>
@@ -10833,7 +10849,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10">
       <c r="A237">
         <v>25</v>
       </c>
@@ -10862,7 +10878,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10">
       <c r="A238">
         <v>26</v>
       </c>
@@ -10891,7 +10907,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10">
       <c r="A239">
         <v>27</v>
       </c>
@@ -10920,7 +10936,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10">
       <c r="A240">
         <v>28</v>
       </c>
@@ -10949,7 +10965,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10">
       <c r="A241">
         <v>29</v>
       </c>
@@ -10978,7 +10994,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10">
       <c r="A242">
         <v>30</v>
       </c>
@@ -11007,7 +11023,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10">
       <c r="A243">
         <v>31</v>
       </c>
@@ -11036,7 +11052,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10">
       <c r="A244">
         <v>32</v>
       </c>
@@ -11065,7 +11081,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10">
       <c r="A245">
         <v>33</v>
       </c>
@@ -11094,7 +11110,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10">
       <c r="A246">
         <v>34</v>
       </c>
@@ -11123,7 +11139,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10">
       <c r="A247">
         <v>35</v>
       </c>
@@ -11152,7 +11168,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10">
       <c r="A248">
         <v>36</v>
       </c>
@@ -11181,7 +11197,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10">
       <c r="A249">
         <v>37</v>
       </c>
@@ -11210,7 +11226,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10">
       <c r="A250">
         <v>38</v>
       </c>
@@ -11239,7 +11255,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10">
       <c r="A251">
         <v>39</v>
       </c>
@@ -11268,7 +11284,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10">
       <c r="A252">
         <v>40</v>
       </c>
@@ -11297,7 +11313,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10">
       <c r="A253">
         <v>41</v>
       </c>
@@ -11326,7 +11342,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10">
       <c r="A254">
         <v>42</v>
       </c>
@@ -11355,7 +11371,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10">
       <c r="A255">
         <v>43</v>
       </c>
@@ -11384,7 +11400,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10">
       <c r="A256">
         <v>44</v>
       </c>
@@ -11413,7 +11429,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10">
       <c r="A257">
         <v>45</v>
       </c>
@@ -11442,7 +11458,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10">
       <c r="A258">
         <v>46</v>
       </c>
@@ -11471,7 +11487,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10">
       <c r="A259">
         <v>47</v>
       </c>
@@ -11500,7 +11516,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10">
       <c r="A260">
         <v>48</v>
       </c>
@@ -11529,7 +11545,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10">
       <c r="A261">
         <v>49</v>
       </c>
@@ -11558,7 +11574,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10">
       <c r="A262">
         <v>50</v>
       </c>
@@ -11587,7 +11603,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10">
       <c r="A263">
         <v>51</v>
       </c>
@@ -11616,7 +11632,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10">
       <c r="A264">
         <v>52</v>
       </c>
@@ -11645,7 +11661,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10">
       <c r="A265">
         <v>53</v>
       </c>
@@ -11674,7 +11690,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10">
       <c r="A266">
         <v>54</v>
       </c>
@@ -11703,7 +11719,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10">
       <c r="A267">
         <v>55</v>
       </c>
@@ -11732,7 +11748,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10">
       <c r="A268">
         <v>56</v>
       </c>
@@ -11761,7 +11777,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10">
       <c r="A269">
         <v>57</v>
       </c>
@@ -11790,7 +11806,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10">
       <c r="A270">
         <v>58</v>
       </c>
@@ -11819,7 +11835,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10">
       <c r="A271">
         <v>59</v>
       </c>
@@ -11848,7 +11864,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10">
       <c r="A272">
         <v>60</v>
       </c>
@@ -11877,7 +11893,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10">
       <c r="A273">
         <v>61</v>
       </c>
@@ -11906,7 +11922,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10">
       <c r="A274">
         <v>62</v>
       </c>
@@ -11935,7 +11951,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10">
       <c r="A275">
         <v>63</v>
       </c>
@@ -11964,7 +11980,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10">
       <c r="A276">
         <v>64</v>
       </c>
@@ -11993,7 +12009,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10">
       <c r="A277">
         <v>65</v>
       </c>
@@ -12022,7 +12038,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10">
       <c r="A278">
         <v>66</v>
       </c>
@@ -12051,7 +12067,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10">
       <c r="A279">
         <v>67</v>
       </c>
@@ -12080,7 +12096,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10">
       <c r="A280">
         <v>68</v>
       </c>
@@ -12109,7 +12125,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10">
       <c r="A281">
         <v>69</v>
       </c>
@@ -12138,7 +12154,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10">
       <c r="A282">
         <v>70</v>
       </c>
@@ -12167,7 +12183,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10">
       <c r="A283">
         <v>71</v>
       </c>
@@ -12196,7 +12212,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10">
       <c r="A284">
         <v>72</v>
       </c>
@@ -12225,7 +12241,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10">
       <c r="A285">
         <v>73</v>
       </c>
@@ -12254,7 +12270,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10">
       <c r="A286">
         <v>74</v>
       </c>
@@ -12283,7 +12299,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10">
       <c r="A287">
         <v>75</v>
       </c>
@@ -12312,7 +12328,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10">
       <c r="A288">
         <v>76</v>
       </c>
@@ -12341,7 +12357,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10">
       <c r="A289">
         <v>77</v>
       </c>
@@ -12367,7 +12383,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10">
       <c r="A290">
         <v>78</v>
       </c>
@@ -12393,7 +12409,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10">
       <c r="A291">
         <v>1</v>
       </c>
@@ -12422,7 +12438,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10">
       <c r="A292">
         <v>2</v>
       </c>
@@ -12451,7 +12467,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10">
       <c r="A293">
         <v>3</v>
       </c>
@@ -12480,7 +12496,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10">
       <c r="A294">
         <v>4</v>
       </c>
@@ -12509,7 +12525,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10">
       <c r="A295">
         <v>5</v>
       </c>
@@ -12538,7 +12554,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10">
       <c r="A296">
         <v>6</v>
       </c>
@@ -12567,7 +12583,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10">
       <c r="A297">
         <v>7</v>
       </c>
@@ -12596,7 +12612,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10">
       <c r="A298">
         <v>8</v>
       </c>
@@ -12625,7 +12641,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10">
       <c r="A299">
         <v>9</v>
       </c>
@@ -12654,7 +12670,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10">
       <c r="A300">
         <v>10</v>
       </c>
@@ -12683,7 +12699,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10">
       <c r="A301">
         <v>11</v>
       </c>
@@ -12712,7 +12728,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10">
       <c r="A302">
         <v>12</v>
       </c>
@@ -12741,7 +12757,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10">
       <c r="A303">
         <v>13</v>
       </c>
@@ -12770,7 +12786,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10">
       <c r="A304">
         <v>14</v>
       </c>
@@ -12799,7 +12815,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10">
       <c r="A305">
         <v>15</v>
       </c>
@@ -12828,7 +12844,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10">
       <c r="A306">
         <v>16</v>
       </c>
@@ -12857,7 +12873,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10">
       <c r="A307">
         <v>17</v>
       </c>
@@ -12886,7 +12902,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10">
       <c r="A308">
         <v>18</v>
       </c>
@@ -12915,7 +12931,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10">
       <c r="A309">
         <v>19</v>
       </c>
@@ -12944,7 +12960,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10">
       <c r="A310">
         <v>20</v>
       </c>
@@ -12973,7 +12989,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10">
       <c r="A311">
         <v>21</v>
       </c>
@@ -13002,7 +13018,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10">
       <c r="A312">
         <v>22</v>
       </c>
@@ -13031,7 +13047,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10">
       <c r="A313">
         <v>23</v>
       </c>
@@ -13060,7 +13076,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10">
       <c r="A314">
         <v>24</v>
       </c>
@@ -13089,7 +13105,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10">
       <c r="A315">
         <v>25</v>
       </c>
@@ -13118,7 +13134,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10">
       <c r="A316">
         <v>26</v>
       </c>
@@ -13147,7 +13163,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10">
       <c r="A317">
         <v>27</v>
       </c>
@@ -13176,7 +13192,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10">
       <c r="A318">
         <v>28</v>
       </c>
@@ -13205,7 +13221,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10">
       <c r="A319">
         <v>29</v>
       </c>
@@ -13234,7 +13250,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10">
       <c r="A320">
         <v>30</v>
       </c>
@@ -13263,7 +13279,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10">
       <c r="A321">
         <v>31</v>
       </c>
@@ -13292,7 +13308,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10">
       <c r="A322">
         <v>32</v>
       </c>
@@ -13321,7 +13337,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10">
       <c r="A323">
         <v>33</v>
       </c>
@@ -13350,7 +13366,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10">
       <c r="A324">
         <v>34</v>
       </c>
@@ -13379,7 +13395,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10">
       <c r="A325">
         <v>35</v>
       </c>
@@ -13408,7 +13424,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10">
       <c r="A326">
         <v>36</v>
       </c>
@@ -13437,7 +13453,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10">
       <c r="A327">
         <v>37</v>
       </c>
@@ -13466,7 +13482,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10">
       <c r="A328">
         <v>38</v>
       </c>
@@ -13495,7 +13511,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10">
       <c r="A329">
         <v>39</v>
       </c>
@@ -13524,7 +13540,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10">
       <c r="A330">
         <v>40</v>
       </c>
@@ -13553,7 +13569,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10">
       <c r="A331">
         <v>41</v>
       </c>
@@ -13582,7 +13598,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10">
       <c r="A332">
         <v>42</v>
       </c>
@@ -13611,7 +13627,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10">
       <c r="A333">
         <v>43</v>
       </c>
@@ -13640,7 +13656,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10">
       <c r="A334">
         <v>44</v>
       </c>
@@ -13669,7 +13685,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10">
       <c r="A335">
         <v>45</v>
       </c>
@@ -13698,7 +13714,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10">
       <c r="A336">
         <v>46</v>
       </c>
@@ -13727,7 +13743,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10">
       <c r="A337">
         <v>47</v>
       </c>
@@ -13756,7 +13772,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10">
       <c r="A338">
         <v>48</v>
       </c>
@@ -13785,7 +13801,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10">
       <c r="A339">
         <v>49</v>
       </c>
@@ -13814,7 +13830,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10">
       <c r="A340">
         <v>50</v>
       </c>
@@ -13843,7 +13859,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10">
       <c r="A341">
         <v>51</v>
       </c>
@@ -13872,7 +13888,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10">
       <c r="A342">
         <v>52</v>
       </c>
@@ -13901,7 +13917,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10">
       <c r="A343">
         <v>53</v>
       </c>
@@ -13930,7 +13946,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10">
       <c r="A344">
         <v>54</v>
       </c>
@@ -13959,7 +13975,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10">
       <c r="A345">
         <v>55</v>
       </c>
@@ -13988,7 +14004,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10">
       <c r="A346">
         <v>56</v>
       </c>
@@ -14017,7 +14033,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10">
       <c r="A347">
         <v>57</v>
       </c>
@@ -14046,7 +14062,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10">
       <c r="A348">
         <v>58</v>
       </c>
@@ -14075,7 +14091,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10">
       <c r="A349">
         <v>59</v>
       </c>
@@ -14104,7 +14120,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10">
       <c r="A350">
         <v>60</v>
       </c>
@@ -14133,7 +14149,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10">
       <c r="A351">
         <v>61</v>
       </c>
@@ -14162,7 +14178,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10">
       <c r="A352">
         <v>62</v>
       </c>
@@ -14191,7 +14207,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10">
       <c r="A353">
         <v>63</v>
       </c>
@@ -14220,7 +14236,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10">
       <c r="A354">
         <v>64</v>
       </c>
@@ -14249,7 +14265,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10">
       <c r="A355">
         <v>65</v>
       </c>
@@ -14278,7 +14294,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10">
       <c r="A356">
         <v>66</v>
       </c>
@@ -14307,7 +14323,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10">
       <c r="A357">
         <v>67</v>
       </c>
@@ -14336,7 +14352,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10">
       <c r="A358">
         <v>68</v>
       </c>
@@ -14365,7 +14381,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10">
       <c r="A359">
         <v>69</v>
       </c>
@@ -14394,7 +14410,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10">
       <c r="A360">
         <v>70</v>
       </c>
@@ -14423,7 +14439,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10">
       <c r="A361">
         <v>71</v>
       </c>
@@ -14452,7 +14468,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10">
       <c r="A362">
         <v>72</v>
       </c>
@@ -14481,7 +14497,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10">
       <c r="A363">
         <v>73</v>
       </c>
@@ -14510,7 +14526,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10">
       <c r="A364">
         <v>74</v>
       </c>
@@ -14539,7 +14555,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10">
       <c r="A365">
         <v>75</v>
       </c>
@@ -14568,7 +14584,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10">
       <c r="A366">
         <v>76</v>
       </c>
@@ -14597,7 +14613,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10">
       <c r="A367">
         <v>77</v>
       </c>
@@ -14623,7 +14639,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10">
       <c r="A368">
         <v>78</v>
       </c>
@@ -14650,10 +14666,3931 @@
       </c>
       <c r="J368">
         <v>6262</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369" t="s">
+        <v>85</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+      <c r="D369">
+        <v>6.8639999999999999</v>
+      </c>
+      <c r="E369" s="12">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370">
+        <v>2</v>
+      </c>
+      <c r="B370" t="s">
+        <v>85</v>
+      </c>
+      <c r="C370" t="s">
+        <v>4</v>
+      </c>
+      <c r="D370">
+        <v>9.1180000000000003</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371">
+        <v>3</v>
+      </c>
+      <c r="B371" t="s">
+        <v>85</v>
+      </c>
+      <c r="C371" t="s">
+        <v>4</v>
+      </c>
+      <c r="D371">
+        <v>6.2510000000000003</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372">
+        <v>4</v>
+      </c>
+      <c r="B372" t="s">
+        <v>85</v>
+      </c>
+      <c r="C372" t="s">
+        <v>4</v>
+      </c>
+      <c r="D372">
+        <v>10.782</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373">
+        <v>5</v>
+      </c>
+      <c r="B373" t="s">
+        <v>85</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373">
+        <v>7.9050000000000002</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374">
+        <v>6</v>
+      </c>
+      <c r="B374" t="s">
+        <v>85</v>
+      </c>
+      <c r="C374" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374">
+        <v>8.7119999999999997</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375">
+        <v>7</v>
+      </c>
+      <c r="B375" t="s">
+        <v>85</v>
+      </c>
+      <c r="C375" t="s">
+        <v>4</v>
+      </c>
+      <c r="D375">
+        <v>6.3170000000000002</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376">
+        <v>8</v>
+      </c>
+      <c r="B376" t="s">
+        <v>85</v>
+      </c>
+      <c r="C376" t="s">
+        <v>5</v>
+      </c>
+      <c r="D376">
+        <v>10.755000000000001</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>85</v>
+      </c>
+      <c r="C377" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377">
+        <v>6.5970000000000004</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378">
+        <v>10</v>
+      </c>
+      <c r="B378" t="s">
+        <v>85</v>
+      </c>
+      <c r="C378" t="s">
+        <v>4</v>
+      </c>
+      <c r="D378">
+        <v>8.2850000000000001</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379">
+        <v>11</v>
+      </c>
+      <c r="B379" t="s">
+        <v>85</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+      <c r="D379">
+        <v>10.045</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380">
+        <v>12</v>
+      </c>
+      <c r="B380" t="s">
+        <v>85</v>
+      </c>
+      <c r="C380" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380">
+        <v>6.8780000000000001</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381">
+        <v>13</v>
+      </c>
+      <c r="B381" t="s">
+        <v>85</v>
+      </c>
+      <c r="C381" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381">
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382">
+        <v>14</v>
+      </c>
+      <c r="B382" t="s">
+        <v>85</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382">
+        <v>6.3230000000000004</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383">
+        <v>15</v>
+      </c>
+      <c r="B383" t="s">
+        <v>85</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+      <c r="D383">
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384">
+        <v>16</v>
+      </c>
+      <c r="B384" t="s">
+        <v>85</v>
+      </c>
+      <c r="C384" t="s">
+        <v>4</v>
+      </c>
+      <c r="D384">
+        <v>8.8529999999999998</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385">
+        <v>17</v>
+      </c>
+      <c r="B385" t="s">
+        <v>85</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+      <c r="D385">
+        <v>10.01</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386">
+        <v>18</v>
+      </c>
+      <c r="B386" t="s">
+        <v>85</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386">
+        <v>8.3829999999999991</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387">
+        <v>19</v>
+      </c>
+      <c r="B387" t="s">
+        <v>85</v>
+      </c>
+      <c r="C387" t="s">
+        <v>4</v>
+      </c>
+      <c r="D387">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388">
+        <v>20</v>
+      </c>
+      <c r="B388" t="s">
+        <v>85</v>
+      </c>
+      <c r="C388" t="s">
+        <v>5</v>
+      </c>
+      <c r="D388">
+        <v>6.5880000000000001</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389">
+        <v>21</v>
+      </c>
+      <c r="B389" t="s">
+        <v>85</v>
+      </c>
+      <c r="C389" t="s">
+        <v>86</v>
+      </c>
+      <c r="D389">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390">
+        <v>22</v>
+      </c>
+      <c r="B390" t="s">
+        <v>85</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390">
+        <v>9.6859999999999999</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391">
+        <v>23</v>
+      </c>
+      <c r="B391" t="s">
+        <v>85</v>
+      </c>
+      <c r="C391" t="s">
+        <v>4</v>
+      </c>
+      <c r="D391">
+        <v>8.641</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392">
+        <v>24</v>
+      </c>
+      <c r="B392" t="s">
+        <v>85</v>
+      </c>
+      <c r="C392" t="s">
+        <v>5</v>
+      </c>
+      <c r="D392">
+        <v>9.1890000000000001</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393">
+        <v>25</v>
+      </c>
+      <c r="B393" t="s">
+        <v>85</v>
+      </c>
+      <c r="C393" t="s">
+        <v>4</v>
+      </c>
+      <c r="D393">
+        <v>6.0179999999999998</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394">
+        <v>26</v>
+      </c>
+      <c r="B394" t="s">
+        <v>85</v>
+      </c>
+      <c r="C394" t="s">
+        <v>5</v>
+      </c>
+      <c r="D394">
+        <v>7.8810000000000002</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395">
+        <v>27</v>
+      </c>
+      <c r="B395" t="s">
+        <v>85</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+      <c r="D395">
+        <v>8.5090000000000003</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396">
+        <v>28</v>
+      </c>
+      <c r="B396" t="s">
+        <v>85</v>
+      </c>
+      <c r="C396" t="s">
+        <v>5</v>
+      </c>
+      <c r="D396">
+        <v>6.6630000000000003</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397">
+        <v>29</v>
+      </c>
+      <c r="B397" t="s">
+        <v>85</v>
+      </c>
+      <c r="C397" t="s">
+        <v>4</v>
+      </c>
+      <c r="D397">
+        <v>5.9619999999999997</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398">
+        <v>30</v>
+      </c>
+      <c r="B398" t="s">
+        <v>85</v>
+      </c>
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+      <c r="D398">
+        <v>6.944</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399">
+        <v>31</v>
+      </c>
+      <c r="B399" t="s">
+        <v>85</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>8.8309999999999995</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400">
+        <v>32</v>
+      </c>
+      <c r="B400" t="s">
+        <v>85</v>
+      </c>
+      <c r="C400" t="s">
+        <v>4</v>
+      </c>
+      <c r="D400">
+        <v>5.9710000000000001</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401">
+        <v>33</v>
+      </c>
+      <c r="B401" t="s">
+        <v>85</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+      <c r="D401">
+        <v>10.855</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402">
+        <v>34</v>
+      </c>
+      <c r="B402" t="s">
+        <v>85</v>
+      </c>
+      <c r="C402" t="s">
+        <v>4</v>
+      </c>
+      <c r="D402">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403">
+        <v>35</v>
+      </c>
+      <c r="B403" t="s">
+        <v>85</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+      <c r="D403">
+        <v>6.5830000000000002</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404">
+        <v>36</v>
+      </c>
+      <c r="B404" t="s">
+        <v>85</v>
+      </c>
+      <c r="C404" t="s">
+        <v>4</v>
+      </c>
+      <c r="D404">
+        <v>7.6020000000000003</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405">
+        <v>37</v>
+      </c>
+      <c r="B405" t="s">
+        <v>85</v>
+      </c>
+      <c r="C405" t="s">
+        <v>5</v>
+      </c>
+      <c r="D405">
+        <v>8.6809999999999992</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406">
+        <v>38</v>
+      </c>
+      <c r="B406" t="s">
+        <v>85</v>
+      </c>
+      <c r="C406" t="s">
+        <v>4</v>
+      </c>
+      <c r="D406">
+        <v>7.9870000000000001</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407">
+        <v>39</v>
+      </c>
+      <c r="B407" t="s">
+        <v>85</v>
+      </c>
+      <c r="C407" t="s">
+        <v>4</v>
+      </c>
+      <c r="D407">
+        <v>8.3979999999999997</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408">
+        <v>40</v>
+      </c>
+      <c r="B408" t="s">
+        <v>85</v>
+      </c>
+      <c r="C408" t="s">
+        <v>5</v>
+      </c>
+      <c r="D408">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409">
+        <v>41</v>
+      </c>
+      <c r="B409" t="s">
+        <v>85</v>
+      </c>
+      <c r="C409" t="s">
+        <v>4</v>
+      </c>
+      <c r="D409">
+        <v>8.2650000000000006</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410">
+        <v>42</v>
+      </c>
+      <c r="B410" t="s">
+        <v>85</v>
+      </c>
+      <c r="C410" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410">
+        <v>6.7549999999999999</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411">
+        <v>43</v>
+      </c>
+      <c r="B411" t="s">
+        <v>85</v>
+      </c>
+      <c r="C411" t="s">
+        <v>78</v>
+      </c>
+      <c r="D411">
+        <v>8.5660000000000007</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412">
+        <v>44</v>
+      </c>
+      <c r="B412" t="s">
+        <v>85</v>
+      </c>
+      <c r="C412" t="s">
+        <v>5</v>
+      </c>
+      <c r="D412">
+        <v>7.0629999999999997</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413">
+        <v>45</v>
+      </c>
+      <c r="B413" t="s">
+        <v>85</v>
+      </c>
+      <c r="C413" t="s">
+        <v>78</v>
+      </c>
+      <c r="D413">
+        <v>9.8889999999999993</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414">
+        <v>46</v>
+      </c>
+      <c r="B414" t="s">
+        <v>85</v>
+      </c>
+      <c r="C414" t="s">
+        <v>78</v>
+      </c>
+      <c r="D414">
+        <v>8.5850000000000009</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415">
+        <v>47</v>
+      </c>
+      <c r="B415" t="s">
+        <v>85</v>
+      </c>
+      <c r="C415" t="s">
+        <v>5</v>
+      </c>
+      <c r="D415">
+        <v>11.093</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416">
+        <v>48</v>
+      </c>
+      <c r="B416" t="s">
+        <v>85</v>
+      </c>
+      <c r="C416" t="s">
+        <v>5</v>
+      </c>
+      <c r="D416">
+        <v>6.87</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417">
+        <v>49</v>
+      </c>
+      <c r="B417" t="s">
+        <v>85</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417">
+        <v>8.3529999999999998</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418">
+        <v>50</v>
+      </c>
+      <c r="B418" t="s">
+        <v>85</v>
+      </c>
+      <c r="C418" t="s">
+        <v>78</v>
+      </c>
+      <c r="D418">
+        <v>11.507</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419">
+        <v>51</v>
+      </c>
+      <c r="B419" t="s">
+        <v>85</v>
+      </c>
+      <c r="C419" t="s">
+        <v>5</v>
+      </c>
+      <c r="D419">
+        <v>9.3149999999999995</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420">
+        <v>52</v>
+      </c>
+      <c r="B420" t="s">
+        <v>85</v>
+      </c>
+      <c r="C420" t="s">
+        <v>4</v>
+      </c>
+      <c r="D420">
+        <v>9.3420000000000005</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421">
+        <v>53</v>
+      </c>
+      <c r="B421" t="s">
+        <v>85</v>
+      </c>
+      <c r="C421" t="s">
+        <v>5</v>
+      </c>
+      <c r="D421">
+        <v>7.8479999999999999</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422">
+        <v>54</v>
+      </c>
+      <c r="B422" t="s">
+        <v>85</v>
+      </c>
+      <c r="C422" t="s">
+        <v>78</v>
+      </c>
+      <c r="D422">
+        <v>12.83</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423">
+        <v>55</v>
+      </c>
+      <c r="B423" t="s">
+        <v>85</v>
+      </c>
+      <c r="C423" t="s">
+        <v>5</v>
+      </c>
+      <c r="D423">
+        <v>6.8869999999999996</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424">
+        <v>56</v>
+      </c>
+      <c r="B424" t="s">
+        <v>85</v>
+      </c>
+      <c r="C424" t="s">
+        <v>4</v>
+      </c>
+      <c r="D424">
+        <v>6.6390000000000002</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425">
+        <v>57</v>
+      </c>
+      <c r="B425" t="s">
+        <v>85</v>
+      </c>
+      <c r="C425" t="s">
+        <v>5</v>
+      </c>
+      <c r="D425">
+        <v>10.11</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426">
+        <v>58</v>
+      </c>
+      <c r="B426" t="s">
+        <v>85</v>
+      </c>
+      <c r="C426" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427">
+        <v>59</v>
+      </c>
+      <c r="B427" t="s">
+        <v>85</v>
+      </c>
+      <c r="C427" t="s">
+        <v>78</v>
+      </c>
+      <c r="D427">
+        <v>7.8369999999999997</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428">
+        <v>60</v>
+      </c>
+      <c r="B428" t="s">
+        <v>85</v>
+      </c>
+      <c r="C428" t="s">
+        <v>5</v>
+      </c>
+      <c r="D428">
+        <v>10.736000000000001</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429">
+        <v>61</v>
+      </c>
+      <c r="B429" t="s">
+        <v>85</v>
+      </c>
+      <c r="C429" t="s">
+        <v>4</v>
+      </c>
+      <c r="D429">
+        <v>6.3310000000000004</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430">
+        <v>62</v>
+      </c>
+      <c r="B430" t="s">
+        <v>85</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431">
+        <v>63</v>
+      </c>
+      <c r="B431" t="s">
+        <v>85</v>
+      </c>
+      <c r="C431" t="s">
+        <v>5</v>
+      </c>
+      <c r="D431">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432">
+        <v>64</v>
+      </c>
+      <c r="B432" t="s">
+        <v>85</v>
+      </c>
+      <c r="C432" t="s">
+        <v>5</v>
+      </c>
+      <c r="D432">
+        <v>6.7270000000000003</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433">
+        <v>65</v>
+      </c>
+      <c r="B433" t="s">
+        <v>85</v>
+      </c>
+      <c r="C433" t="s">
+        <v>4</v>
+      </c>
+      <c r="D433">
+        <v>9.5259999999999998</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434">
+        <v>66</v>
+      </c>
+      <c r="B434" t="s">
+        <v>85</v>
+      </c>
+      <c r="C434" t="s">
+        <v>5</v>
+      </c>
+      <c r="D434">
+        <v>10.449</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435">
+        <v>67</v>
+      </c>
+      <c r="B435" t="s">
+        <v>85</v>
+      </c>
+      <c r="C435" t="s">
+        <v>5</v>
+      </c>
+      <c r="D435">
+        <v>9.4049999999999994</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436">
+        <v>68</v>
+      </c>
+      <c r="B436" t="s">
+        <v>85</v>
+      </c>
+      <c r="C436" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436">
+        <v>7.468</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437">
+        <v>69</v>
+      </c>
+      <c r="B437" t="s">
+        <v>85</v>
+      </c>
+      <c r="C437" t="s">
+        <v>5</v>
+      </c>
+      <c r="D437">
+        <v>7.4859999999999998</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438">
+        <v>70</v>
+      </c>
+      <c r="B438" t="s">
+        <v>85</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439">
+        <v>71</v>
+      </c>
+      <c r="B439" t="s">
+        <v>85</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439">
+        <v>8.5180000000000007</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440">
+        <v>72</v>
+      </c>
+      <c r="B440" t="s">
+        <v>85</v>
+      </c>
+      <c r="C440" t="s">
+        <v>4</v>
+      </c>
+      <c r="D440">
+        <v>7.2569999999999997</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441">
+        <v>73</v>
+      </c>
+      <c r="B441" t="s">
+        <v>85</v>
+      </c>
+      <c r="C441" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441">
+        <v>9.7859999999999996</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="A442">
+        <v>74</v>
+      </c>
+      <c r="B442" t="s">
+        <v>85</v>
+      </c>
+      <c r="C442" t="s">
+        <v>5</v>
+      </c>
+      <c r="D442">
+        <v>6.4409999999999998</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443">
+        <v>75</v>
+      </c>
+      <c r="B443" t="s">
+        <v>85</v>
+      </c>
+      <c r="C443" t="s">
+        <v>4</v>
+      </c>
+      <c r="D443">
+        <v>10.202</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444">
+        <v>1</v>
+      </c>
+      <c r="B444" t="s">
+        <v>75</v>
+      </c>
+      <c r="C444" t="s">
+        <v>5</v>
+      </c>
+      <c r="D444">
+        <v>8.15</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445">
+        <v>2</v>
+      </c>
+      <c r="B445" t="s">
+        <v>75</v>
+      </c>
+      <c r="C445" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446">
+        <v>3</v>
+      </c>
+      <c r="B446" t="s">
+        <v>75</v>
+      </c>
+      <c r="C446" t="s">
+        <v>5</v>
+      </c>
+      <c r="D446">
+        <v>8.5139999999999993</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447">
+        <v>4</v>
+      </c>
+      <c r="B447" t="s">
+        <v>75</v>
+      </c>
+      <c r="C447" t="s">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448">
+        <v>5</v>
+      </c>
+      <c r="B448" t="s">
+        <v>75</v>
+      </c>
+      <c r="C448" t="s">
+        <v>5</v>
+      </c>
+      <c r="D448">
+        <v>8.8859999999999992</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449">
+        <v>6</v>
+      </c>
+      <c r="B449" t="s">
+        <v>75</v>
+      </c>
+      <c r="C449" t="s">
+        <v>4</v>
+      </c>
+      <c r="D449">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450">
+        <v>7</v>
+      </c>
+      <c r="B450" t="s">
+        <v>75</v>
+      </c>
+      <c r="C450" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450">
+        <v>10.885999999999999</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451">
+        <v>8</v>
+      </c>
+      <c r="B451" t="s">
+        <v>75</v>
+      </c>
+      <c r="C451" t="s">
+        <v>4</v>
+      </c>
+      <c r="D451">
+        <v>6.827</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452">
+        <v>9</v>
+      </c>
+      <c r="B452" t="s">
+        <v>75</v>
+      </c>
+      <c r="C452" t="s">
+        <v>5</v>
+      </c>
+      <c r="D452">
+        <v>9.5820000000000007</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453">
+        <v>10</v>
+      </c>
+      <c r="B453" t="s">
+        <v>75</v>
+      </c>
+      <c r="C453" t="s">
+        <v>5</v>
+      </c>
+      <c r="D453">
+        <v>7.7119999999999997</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454">
+        <v>11</v>
+      </c>
+      <c r="B454" t="s">
+        <v>75</v>
+      </c>
+      <c r="C454" t="s">
+        <v>4</v>
+      </c>
+      <c r="D454">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455">
+        <v>12</v>
+      </c>
+      <c r="B455" t="s">
+        <v>75</v>
+      </c>
+      <c r="C455" t="s">
+        <v>5</v>
+      </c>
+      <c r="D455">
+        <v>6.91</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456">
+        <v>13</v>
+      </c>
+      <c r="B456" t="s">
+        <v>75</v>
+      </c>
+      <c r="C456" t="s">
+        <v>4</v>
+      </c>
+      <c r="D456">
+        <v>6.7130000000000001</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457">
+        <v>14</v>
+      </c>
+      <c r="B457" t="s">
+        <v>75</v>
+      </c>
+      <c r="C457" t="s">
+        <v>5</v>
+      </c>
+      <c r="D457">
+        <v>6.883</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458">
+        <v>15</v>
+      </c>
+      <c r="B458" t="s">
+        <v>75</v>
+      </c>
+      <c r="C458" t="s">
+        <v>4</v>
+      </c>
+      <c r="D458">
+        <v>7.7910000000000004</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459">
+        <v>16</v>
+      </c>
+      <c r="B459" t="s">
+        <v>75</v>
+      </c>
+      <c r="C459" t="s">
+        <v>5</v>
+      </c>
+      <c r="D459">
+        <v>9.2720000000000002</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460">
+        <v>17</v>
+      </c>
+      <c r="B460" t="s">
+        <v>75</v>
+      </c>
+      <c r="C460" t="s">
+        <v>4</v>
+      </c>
+      <c r="D460">
+        <v>6.319</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461">
+        <v>18</v>
+      </c>
+      <c r="B461" t="s">
+        <v>75</v>
+      </c>
+      <c r="C461" t="s">
+        <v>5</v>
+      </c>
+      <c r="D461">
+        <v>4.4429999999999996</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462">
+        <v>19</v>
+      </c>
+      <c r="B462" t="s">
+        <v>75</v>
+      </c>
+      <c r="C462" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462">
+        <v>7.8220000000000001</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463">
+        <v>20</v>
+      </c>
+      <c r="B463" t="s">
+        <v>75</v>
+      </c>
+      <c r="C463" t="s">
+        <v>5</v>
+      </c>
+      <c r="D463">
+        <v>8.5250000000000004</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464">
+        <v>21</v>
+      </c>
+      <c r="B464" t="s">
+        <v>75</v>
+      </c>
+      <c r="C464" t="s">
+        <v>4</v>
+      </c>
+      <c r="D464">
+        <v>8.7949999999999999</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465">
+        <v>22</v>
+      </c>
+      <c r="B465" t="s">
+        <v>75</v>
+      </c>
+      <c r="C465" t="s">
+        <v>5</v>
+      </c>
+      <c r="D465">
+        <v>13.176</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466">
+        <v>23</v>
+      </c>
+      <c r="B466" t="s">
+        <v>75</v>
+      </c>
+      <c r="C466" t="s">
+        <v>4</v>
+      </c>
+      <c r="D466">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467">
+        <v>24</v>
+      </c>
+      <c r="B467" t="s">
+        <v>75</v>
+      </c>
+      <c r="C467" t="s">
+        <v>5</v>
+      </c>
+      <c r="D467">
+        <v>9.4890000000000008</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468">
+        <v>25</v>
+      </c>
+      <c r="B468" t="s">
+        <v>75</v>
+      </c>
+      <c r="C468" t="s">
+        <v>5</v>
+      </c>
+      <c r="D468">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469">
+        <v>26</v>
+      </c>
+      <c r="B469" t="s">
+        <v>75</v>
+      </c>
+      <c r="C469" t="s">
+        <v>4</v>
+      </c>
+      <c r="D469">
+        <v>9.98</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470">
+        <v>27</v>
+      </c>
+      <c r="B470" t="s">
+        <v>75</v>
+      </c>
+      <c r="C470" t="s">
+        <v>5</v>
+      </c>
+      <c r="D470">
+        <v>8.6120000000000001</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471">
+        <v>28</v>
+      </c>
+      <c r="B471" t="s">
+        <v>75</v>
+      </c>
+      <c r="C471" t="s">
+        <v>5</v>
+      </c>
+      <c r="D471">
+        <v>9.1039999999999992</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472">
+        <v>29</v>
+      </c>
+      <c r="B472" t="s">
+        <v>75</v>
+      </c>
+      <c r="C472" t="s">
+        <v>4</v>
+      </c>
+      <c r="D472">
+        <v>6.96</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473">
+        <v>30</v>
+      </c>
+      <c r="B473" t="s">
+        <v>75</v>
+      </c>
+      <c r="C473" t="s">
+        <v>5</v>
+      </c>
+      <c r="D473">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474">
+        <v>31</v>
+      </c>
+      <c r="B474" t="s">
+        <v>75</v>
+      </c>
+      <c r="C474" t="s">
+        <v>5</v>
+      </c>
+      <c r="D474">
+        <v>6.26</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475">
+        <v>32</v>
+      </c>
+      <c r="B475" t="s">
+        <v>75</v>
+      </c>
+      <c r="C475" t="s">
+        <v>4</v>
+      </c>
+      <c r="D475">
+        <v>5.8890000000000002</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476">
+        <v>33</v>
+      </c>
+      <c r="B476" t="s">
+        <v>75</v>
+      </c>
+      <c r="C476" t="s">
+        <v>5</v>
+      </c>
+      <c r="D476">
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477">
+        <v>34</v>
+      </c>
+      <c r="B477" t="s">
+        <v>75</v>
+      </c>
+      <c r="C477" t="s">
+        <v>4</v>
+      </c>
+      <c r="D477">
+        <v>6.3979999999999997</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478">
+        <v>35</v>
+      </c>
+      <c r="B478" t="s">
+        <v>75</v>
+      </c>
+      <c r="C478" t="s">
+        <v>5</v>
+      </c>
+      <c r="D478">
+        <v>9.7119999999999997</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479">
+        <v>36</v>
+      </c>
+      <c r="B479" t="s">
+        <v>75</v>
+      </c>
+      <c r="C479" t="s">
+        <v>4</v>
+      </c>
+      <c r="D479">
+        <v>6.8390000000000004</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480">
+        <v>37</v>
+      </c>
+      <c r="B480" t="s">
+        <v>75</v>
+      </c>
+      <c r="C480" t="s">
+        <v>5</v>
+      </c>
+      <c r="D480">
+        <v>7.819</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481">
+        <v>38</v>
+      </c>
+      <c r="B481" t="s">
+        <v>75</v>
+      </c>
+      <c r="C481" t="s">
+        <v>5</v>
+      </c>
+      <c r="D481">
+        <v>10.496</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482">
+        <v>39</v>
+      </c>
+      <c r="B482" t="s">
+        <v>75</v>
+      </c>
+      <c r="C482" t="s">
+        <v>4</v>
+      </c>
+      <c r="D482">
+        <v>8.7010000000000005</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483">
+        <v>40</v>
+      </c>
+      <c r="B483" t="s">
+        <v>75</v>
+      </c>
+      <c r="C483" t="s">
+        <v>5</v>
+      </c>
+      <c r="D483">
+        <v>9.0939999999999994</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484">
+        <v>41</v>
+      </c>
+      <c r="B484" t="s">
+        <v>75</v>
+      </c>
+      <c r="C484" t="s">
+        <v>4</v>
+      </c>
+      <c r="D484">
+        <v>8.9209999999999994</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485">
+        <v>42</v>
+      </c>
+      <c r="B485" t="s">
+        <v>75</v>
+      </c>
+      <c r="C485" t="s">
+        <v>5</v>
+      </c>
+      <c r="D485">
+        <v>9.9309999999999992</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486">
+        <v>43</v>
+      </c>
+      <c r="B486" t="s">
+        <v>75</v>
+      </c>
+      <c r="C486" t="s">
+        <v>5</v>
+      </c>
+      <c r="D486">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487">
+        <v>44</v>
+      </c>
+      <c r="B487" t="s">
+        <v>75</v>
+      </c>
+      <c r="C487" t="s">
+        <v>4</v>
+      </c>
+      <c r="D487">
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488">
+        <v>45</v>
+      </c>
+      <c r="B488" t="s">
+        <v>75</v>
+      </c>
+      <c r="C488" t="s">
+        <v>5</v>
+      </c>
+      <c r="D488">
+        <v>10.669</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489">
+        <v>46</v>
+      </c>
+      <c r="B489" t="s">
+        <v>75</v>
+      </c>
+      <c r="C489" t="s">
+        <v>4</v>
+      </c>
+      <c r="D489">
+        <v>6.0369999999999999</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490">
+        <v>47</v>
+      </c>
+      <c r="B490" t="s">
+        <v>75</v>
+      </c>
+      <c r="C490" t="s">
+        <v>5</v>
+      </c>
+      <c r="D490">
+        <v>10.565</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491">
+        <v>48</v>
+      </c>
+      <c r="B491" t="s">
+        <v>75</v>
+      </c>
+      <c r="C491" t="s">
+        <v>5</v>
+      </c>
+      <c r="D491">
+        <v>5.843</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492">
+        <v>49</v>
+      </c>
+      <c r="B492" t="s">
+        <v>75</v>
+      </c>
+      <c r="C492" t="s">
+        <v>4</v>
+      </c>
+      <c r="D492">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493">
+        <v>50</v>
+      </c>
+      <c r="B493" t="s">
+        <v>75</v>
+      </c>
+      <c r="C493" t="s">
+        <v>5</v>
+      </c>
+      <c r="D493">
+        <v>13.039</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494">
+        <v>51</v>
+      </c>
+      <c r="B494" t="s">
+        <v>75</v>
+      </c>
+      <c r="C494" t="s">
+        <v>5</v>
+      </c>
+      <c r="D494">
+        <v>7.1539999999999999</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495">
+        <v>52</v>
+      </c>
+      <c r="B495" t="s">
+        <v>75</v>
+      </c>
+      <c r="C495" t="s">
+        <v>4</v>
+      </c>
+      <c r="D495">
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496">
+        <v>53</v>
+      </c>
+      <c r="B496" t="s">
+        <v>75</v>
+      </c>
+      <c r="C496" t="s">
+        <v>78</v>
+      </c>
+      <c r="D496">
+        <v>7.891</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497">
+        <v>54</v>
+      </c>
+      <c r="B497" t="s">
+        <v>75</v>
+      </c>
+      <c r="C497" t="s">
+        <v>5</v>
+      </c>
+      <c r="D497">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498">
+        <v>55</v>
+      </c>
+      <c r="B498" t="s">
+        <v>75</v>
+      </c>
+      <c r="C498" t="s">
+        <v>78</v>
+      </c>
+      <c r="D498">
+        <v>10.513</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499">
+        <v>56</v>
+      </c>
+      <c r="B499" t="s">
+        <v>75</v>
+      </c>
+      <c r="C499" t="s">
+        <v>5</v>
+      </c>
+      <c r="D499">
+        <v>4.5659999999999998</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500">
+        <v>57</v>
+      </c>
+      <c r="B500" t="s">
+        <v>75</v>
+      </c>
+      <c r="C500" t="s">
+        <v>4</v>
+      </c>
+      <c r="D500">
+        <v>6.3049999999999997</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501">
+        <v>58</v>
+      </c>
+      <c r="B501" t="s">
+        <v>75</v>
+      </c>
+      <c r="C501" t="s">
+        <v>5</v>
+      </c>
+      <c r="D501">
+        <v>9.6549999999999994</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502">
+        <v>59</v>
+      </c>
+      <c r="B502" t="s">
+        <v>75</v>
+      </c>
+      <c r="C502" t="s">
+        <v>4</v>
+      </c>
+      <c r="D502">
+        <v>5.7009999999999996</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503">
+        <v>60</v>
+      </c>
+      <c r="B503" t="s">
+        <v>75</v>
+      </c>
+      <c r="C503" t="s">
+        <v>5</v>
+      </c>
+      <c r="D503">
+        <v>6.8559999999999999</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504">
+        <v>61</v>
+      </c>
+      <c r="B504" t="s">
+        <v>75</v>
+      </c>
+      <c r="C504" t="s">
+        <v>5</v>
+      </c>
+      <c r="D504">
+        <v>6.4569999999999999</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505">
+        <v>62</v>
+      </c>
+      <c r="B505" t="s">
+        <v>75</v>
+      </c>
+      <c r="C505" t="s">
+        <v>5</v>
+      </c>
+      <c r="D505">
+        <v>9.6760000000000002</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506">
+        <v>63</v>
+      </c>
+      <c r="B506" t="s">
+        <v>75</v>
+      </c>
+      <c r="C506" t="s">
+        <v>4</v>
+      </c>
+      <c r="D506">
+        <v>5.7460000000000004</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507">
+        <v>64</v>
+      </c>
+      <c r="B507" t="s">
+        <v>75</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5</v>
+      </c>
+      <c r="D507">
+        <v>6.8179999999999996</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508">
+        <v>65</v>
+      </c>
+      <c r="B508" t="s">
+        <v>75</v>
+      </c>
+      <c r="C508" t="s">
+        <v>78</v>
+      </c>
+      <c r="D508">
+        <v>12.887</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509">
+        <v>66</v>
+      </c>
+      <c r="B509" t="s">
+        <v>75</v>
+      </c>
+      <c r="C509" t="s">
+        <v>4</v>
+      </c>
+      <c r="D509">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510">
+        <v>67</v>
+      </c>
+      <c r="B510" t="s">
+        <v>75</v>
+      </c>
+      <c r="C510" t="s">
+        <v>5</v>
+      </c>
+      <c r="D510">
+        <v>11.138</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511">
+        <v>68</v>
+      </c>
+      <c r="B511" t="s">
+        <v>75</v>
+      </c>
+      <c r="C511" t="s">
+        <v>4</v>
+      </c>
+      <c r="D511">
+        <v>9.8539999999999992</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512">
+        <v>69</v>
+      </c>
+      <c r="B512" t="s">
+        <v>75</v>
+      </c>
+      <c r="C512" t="s">
+        <v>78</v>
+      </c>
+      <c r="D512">
+        <v>8.468</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513">
+        <v>70</v>
+      </c>
+      <c r="B513" t="s">
+        <v>75</v>
+      </c>
+      <c r="C513" t="s">
+        <v>5</v>
+      </c>
+      <c r="D513">
+        <v>6.7709999999999999</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514">
+        <v>71</v>
+      </c>
+      <c r="B514" t="s">
+        <v>75</v>
+      </c>
+      <c r="C514" t="s">
+        <v>4</v>
+      </c>
+      <c r="D514">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515">
+        <v>72</v>
+      </c>
+      <c r="B515" t="s">
+        <v>75</v>
+      </c>
+      <c r="C515" t="s">
+        <v>5</v>
+      </c>
+      <c r="D515">
+        <v>6.2779999999999996</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516">
+        <v>73</v>
+      </c>
+      <c r="B516" t="s">
+        <v>75</v>
+      </c>
+      <c r="C516" t="s">
+        <v>4</v>
+      </c>
+      <c r="D516">
+        <v>7.02</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517">
+        <v>74</v>
+      </c>
+      <c r="B517" t="s">
+        <v>75</v>
+      </c>
+      <c r="C517" t="s">
+        <v>4</v>
+      </c>
+      <c r="D517">
+        <v>3.8929999999999998</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518">
+        <v>75</v>
+      </c>
+      <c r="B518" t="s">
+        <v>75</v>
+      </c>
+      <c r="C518" t="s">
+        <v>5</v>
+      </c>
+      <c r="D518">
+        <v>6.5579999999999998</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519">
+        <v>76</v>
+      </c>
+      <c r="B519" t="s">
+        <v>75</v>
+      </c>
+      <c r="C519" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520">
+        <v>77</v>
+      </c>
+      <c r="B520" t="s">
+        <v>75</v>
+      </c>
+      <c r="C520" t="s">
+        <v>84</v>
+      </c>
+      <c r="E520" s="12">
+        <v>0.74583333333333324</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="0" windowWidth="28860" windowHeight="26620" tabRatio="500"/>
+    <workbookView xWindow="4700" yWindow="200" windowWidth="29880" windowHeight="27680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5126" uniqueCount="104">
   <si>
     <t>Site</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Feris</t>
   </si>
   <si>
-    <t>2017-08-07</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -317,6 +314,30 @@
   </si>
   <si>
     <t>2017-09-23</t>
+  </si>
+  <si>
+    <t>mass_day14</t>
+  </si>
+  <si>
+    <t>resp_day15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>purge_time_15</t>
   </si>
 </sst>
 </file>
@@ -392,8 +413,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -557,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -618,6 +675,24 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -678,6 +753,24 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -945,7 +1038,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,10 +1049,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P36" sqref="A36:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3504,7 +3597,7 @@
         <v>22</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>48</v>
@@ -3528,7 +3621,7 @@
         <v>66</v>
       </c>
       <c r="Q61" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3545,7 +3638,7 @@
         <v>22</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>48</v>
@@ -3569,7 +3662,7 @@
         <v>66</v>
       </c>
       <c r="Q62" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3586,7 +3679,7 @@
         <v>22</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>48</v>
@@ -3610,7 +3703,7 @@
         <v>66</v>
       </c>
       <c r="Q63" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3627,7 +3720,7 @@
         <v>22</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>48</v>
@@ -3648,7 +3741,7 @@
         <v>66</v>
       </c>
       <c r="Q64" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3665,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>48</v>
@@ -3689,7 +3782,7 @@
         <v>66</v>
       </c>
       <c r="Q65" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="12" customFormat="1">
@@ -3706,7 +3799,7 @@
         <v>22</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>53</v>
@@ -3727,11 +3820,11 @@
         <v>58</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R66" s="13"/>
     </row>
@@ -3749,7 +3842,7 @@
         <v>22</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>53</v>
@@ -3770,11 +3863,11 @@
         <v>58</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P67" s="13"/>
       <c r="Q67" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R67" s="13"/>
     </row>
@@ -3792,7 +3885,7 @@
         <v>22</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>53</v>
@@ -3813,11 +3906,11 @@
         <v>58</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R68" s="13"/>
     </row>
@@ -3835,7 +3928,7 @@
         <v>22</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>53</v>
@@ -3854,11 +3947,11 @@
         <v>58</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P69" s="13"/>
       <c r="Q69" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R69" s="13"/>
     </row>
@@ -3876,7 +3969,7 @@
         <v>22</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>53</v>
@@ -3897,11 +3990,11 @@
         <v>58</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P70" s="13"/>
       <c r="Q70" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R70" s="13"/>
     </row>
@@ -3919,7 +4012,7 @@
         <v>22</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>9</v>
@@ -3940,10 +4033,10 @@
         <v>63</v>
       </c>
       <c r="O71" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q71" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="Q71" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -3960,7 +4053,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>9</v>
@@ -3981,10 +4074,10 @@
         <v>63</v>
       </c>
       <c r="O72" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q72" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="Q72" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4001,7 +4094,7 @@
         <v>22</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>9</v>
@@ -4019,10 +4112,10 @@
         <v>63</v>
       </c>
       <c r="O73" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q73" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="Q73" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4039,7 +4132,7 @@
         <v>22</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>9</v>
@@ -4057,10 +4150,10 @@
         <v>63</v>
       </c>
       <c r="O74" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q74" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="Q74" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4077,7 +4170,7 @@
         <v>22</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>9</v>
@@ -4098,10 +4191,10 @@
         <v>63</v>
       </c>
       <c r="O75" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q75" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="Q75" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="12" customFormat="1">
@@ -4118,7 +4211,7 @@
         <v>22</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>23</v>
@@ -4139,11 +4232,11 @@
         <v>66</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P76" s="13"/>
       <c r="Q76" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R76" s="13"/>
     </row>
@@ -4161,7 +4254,7 @@
         <v>22</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>23</v>
@@ -4182,11 +4275,11 @@
         <v>66</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P77" s="13"/>
       <c r="Q77" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R77" s="13"/>
     </row>
@@ -4204,7 +4297,7 @@
         <v>22</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>23</v>
@@ -4223,11 +4316,11 @@
         <v>66</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P78" s="13"/>
       <c r="Q78" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R78" s="13"/>
     </row>
@@ -4245,7 +4338,7 @@
         <v>22</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>23</v>
@@ -4264,11 +4357,11 @@
         <v>66</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P79" s="13"/>
       <c r="Q79" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R79" s="13"/>
     </row>
@@ -4286,7 +4379,7 @@
         <v>22</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>23</v>
@@ -4307,11 +4400,11 @@
         <v>66</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P80" s="13"/>
       <c r="Q80" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R80" s="13"/>
     </row>
@@ -4329,7 +4422,7 @@
         <v>22</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>25</v>
@@ -4347,13 +4440,13 @@
         <v>66</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O81" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q81" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Q81" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -4370,7 +4463,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>25</v>
@@ -4388,13 +4481,13 @@
         <v>66</v>
       </c>
       <c r="M82" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q82" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Q82" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -4411,7 +4504,7 @@
         <v>22</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>25</v>
@@ -4426,13 +4519,13 @@
         <v>66</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q83" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Q83" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -4449,7 +4542,7 @@
         <v>22</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>25</v>
@@ -4467,13 +4560,13 @@
         <v>66</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q84" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="Q84" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -4490,7 +4583,7 @@
         <v>22</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>25</v>
@@ -4508,19 +4601,593 @@
         <v>66</v>
       </c>
       <c r="M85" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O85" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M86" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O85" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q85" s="15" t="s">
-        <v>96</v>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="4">
+        <v>100</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:17">
+      <c r="A88" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
       <c r="I88" s="4">
-        <f>SUM(I2:I85)</f>
-        <v>2915</v>
+        <v>0</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M89" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="4">
+        <f>SUM(I2:I105)</f>
+        <v>3209</v>
       </c>
     </row>
   </sheetData>
@@ -4537,19 +5204,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K520"/>
+  <dimension ref="A1:N677"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I411" sqref="I411"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -4583,8 +5251,17 @@
       <c r="K1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4616,7 +5293,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4648,7 +5325,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4680,7 +5357,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4712,7 +5389,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4744,7 +5421,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4776,7 +5453,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4808,7 +5485,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4840,7 +5517,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4872,7 +5549,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4904,7 +5581,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4936,7 +5613,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4968,7 +5645,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5000,7 +5677,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5032,7 +5709,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15847,7 +16524,7 @@
         <v>0.69305555555555554</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>28</v>
@@ -15873,7 +16550,7 @@
         <v>9.1180000000000003</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>28</v>
@@ -15899,7 +16576,7 @@
         <v>6.2510000000000003</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G371" s="1" t="s">
         <v>28</v>
@@ -15925,7 +16602,7 @@
         <v>10.782</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G372" s="1" t="s">
         <v>28</v>
@@ -15951,7 +16628,7 @@
         <v>7.9050000000000002</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>28</v>
@@ -15977,7 +16654,7 @@
         <v>8.7119999999999997</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G374" s="1" t="s">
         <v>28</v>
@@ -16003,7 +16680,7 @@
         <v>6.3170000000000002</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G375" s="1" t="s">
         <v>28</v>
@@ -16029,7 +16706,7 @@
         <v>10.755000000000001</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G376" s="1" t="s">
         <v>28</v>
@@ -16055,7 +16732,7 @@
         <v>6.5970000000000004</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>28</v>
@@ -16081,7 +16758,7 @@
         <v>8.2850000000000001</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>28</v>
@@ -16107,7 +16784,7 @@
         <v>10.045</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G379" s="1" t="s">
         <v>28</v>
@@ -16133,7 +16810,7 @@
         <v>6.8780000000000001</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G380" s="1" t="s">
         <v>28</v>
@@ -16159,7 +16836,7 @@
         <v>6.0750000000000002</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G381" s="1" t="s">
         <v>28</v>
@@ -16185,7 +16862,7 @@
         <v>6.3230000000000004</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G382" s="1" t="s">
         <v>28</v>
@@ -16211,7 +16888,7 @@
         <v>6.9109999999999996</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>28</v>
@@ -16237,7 +16914,7 @@
         <v>8.8529999999999998</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>28</v>
@@ -16263,7 +16940,7 @@
         <v>10.01</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G385" s="1" t="s">
         <v>28</v>
@@ -16289,7 +16966,7 @@
         <v>8.3829999999999991</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G386" s="1" t="s">
         <v>28</v>
@@ -16315,7 +16992,7 @@
         <v>5.5750000000000002</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G387" s="1" t="s">
         <v>28</v>
@@ -16341,7 +17018,7 @@
         <v>6.5880000000000001</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G388" s="1" t="s">
         <v>28</v>
@@ -16367,7 +17044,7 @@
         <v>7.0490000000000004</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G389" s="1" t="s">
         <v>28</v>
@@ -16393,7 +17070,7 @@
         <v>9.6859999999999999</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G390" s="1" t="s">
         <v>28</v>
@@ -16419,7 +17096,7 @@
         <v>8.641</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G391" s="1" t="s">
         <v>28</v>
@@ -16445,7 +17122,7 @@
         <v>9.1890000000000001</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G392" s="1" t="s">
         <v>28</v>
@@ -16471,7 +17148,7 @@
         <v>6.0179999999999998</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>28</v>
@@ -16497,7 +17174,7 @@
         <v>7.8810000000000002</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>28</v>
@@ -16523,7 +17200,7 @@
         <v>8.5090000000000003</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G395" s="1" t="s">
         <v>28</v>
@@ -16549,7 +17226,7 @@
         <v>6.6630000000000003</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>28</v>
@@ -16575,7 +17252,7 @@
         <v>5.9619999999999997</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G397" s="1" t="s">
         <v>28</v>
@@ -16601,7 +17278,7 @@
         <v>6.944</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G398" s="1" t="s">
         <v>28</v>
@@ -16627,7 +17304,7 @@
         <v>8.8309999999999995</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G399" s="1" t="s">
         <v>28</v>
@@ -16653,7 +17330,7 @@
         <v>5.9710000000000001</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G400" s="1" t="s">
         <v>28</v>
@@ -16679,7 +17356,7 @@
         <v>10.855</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G401" s="1" t="s">
         <v>28</v>
@@ -16705,7 +17382,7 @@
         <v>7.1550000000000002</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G402" s="1" t="s">
         <v>28</v>
@@ -16731,7 +17408,7 @@
         <v>6.5830000000000002</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G403" s="1" t="s">
         <v>28</v>
@@ -16757,7 +17434,7 @@
         <v>7.6020000000000003</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G404" s="1" t="s">
         <v>28</v>
@@ -16783,7 +17460,7 @@
         <v>8.6809999999999992</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>28</v>
@@ -16809,7 +17486,7 @@
         <v>7.9870000000000001</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>28</v>
@@ -16835,7 +17512,7 @@
         <v>8.3979999999999997</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G407" s="1" t="s">
         <v>28</v>
@@ -16861,7 +17538,7 @@
         <v>8.4860000000000007</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G408" s="1" t="s">
         <v>28</v>
@@ -16887,7 +17564,7 @@
         <v>8.2650000000000006</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>28</v>
@@ -16913,7 +17590,7 @@
         <v>6.7549999999999999</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G410" s="1" t="s">
         <v>28</v>
@@ -16939,7 +17616,7 @@
         <v>8.5660000000000007</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G411" s="1" t="s">
         <v>28</v>
@@ -16965,7 +17642,7 @@
         <v>7.0629999999999997</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G412" s="1" t="s">
         <v>28</v>
@@ -16991,7 +17668,7 @@
         <v>9.8889999999999993</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G413" s="1" t="s">
         <v>28</v>
@@ -17017,7 +17694,7 @@
         <v>8.5850000000000009</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>28</v>
@@ -17043,7 +17720,7 @@
         <v>11.093</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G415" s="1" t="s">
         <v>28</v>
@@ -17069,7 +17746,7 @@
         <v>6.87</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G416" s="1" t="s">
         <v>28</v>
@@ -17095,7 +17772,7 @@
         <v>8.3529999999999998</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G417" s="1" t="s">
         <v>28</v>
@@ -17121,7 +17798,7 @@
         <v>11.507</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G418" s="1" t="s">
         <v>28</v>
@@ -17147,7 +17824,7 @@
         <v>9.3149999999999995</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G419" s="1" t="s">
         <v>28</v>
@@ -17173,7 +17850,7 @@
         <v>9.3420000000000005</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>28</v>
@@ -17199,7 +17876,7 @@
         <v>7.8479999999999999</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G421" s="1" t="s">
         <v>28</v>
@@ -17225,7 +17902,7 @@
         <v>12.83</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G422" s="1" t="s">
         <v>28</v>
@@ -17251,7 +17928,7 @@
         <v>6.8869999999999996</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G423" s="1" t="s">
         <v>28</v>
@@ -17277,7 +17954,7 @@
         <v>6.6390000000000002</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G424" s="1" t="s">
         <v>28</v>
@@ -17303,7 +17980,7 @@
         <v>10.11</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G425" s="1" t="s">
         <v>28</v>
@@ -17329,7 +18006,7 @@
         <v>5.7249999999999996</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G426" s="1" t="s">
         <v>28</v>
@@ -17355,7 +18032,7 @@
         <v>7.8369999999999997</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G427" s="1" t="s">
         <v>28</v>
@@ -17381,7 +18058,7 @@
         <v>10.736000000000001</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G428" s="1" t="s">
         <v>28</v>
@@ -17407,7 +18084,7 @@
         <v>6.3310000000000004</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G429" s="1" t="s">
         <v>28</v>
@@ -17427,7 +18104,7 @@
         <v>84</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G430" s="1" t="s">
         <v>28</v>
@@ -17453,7 +18130,7 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G431" s="1" t="s">
         <v>28</v>
@@ -17479,7 +18156,7 @@
         <v>6.7270000000000003</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G432" s="1" t="s">
         <v>28</v>
@@ -17505,7 +18182,7 @@
         <v>9.5259999999999998</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G433" s="1" t="s">
         <v>28</v>
@@ -17531,7 +18208,7 @@
         <v>10.449</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G434" s="1" t="s">
         <v>28</v>
@@ -17557,7 +18234,7 @@
         <v>9.4049999999999994</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G435" s="1" t="s">
         <v>28</v>
@@ -17583,7 +18260,7 @@
         <v>7.468</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G436" s="1" t="s">
         <v>28</v>
@@ -17609,7 +18286,7 @@
         <v>7.4859999999999998</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G437" s="1" t="s">
         <v>28</v>
@@ -17629,7 +18306,7 @@
         <v>84</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G438" s="1" t="s">
         <v>28</v>
@@ -17655,7 +18332,7 @@
         <v>8.5180000000000007</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G439" s="1" t="s">
         <v>28</v>
@@ -17681,7 +18358,7 @@
         <v>7.2569999999999997</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G440" s="1" t="s">
         <v>28</v>
@@ -17707,7 +18384,7 @@
         <v>9.7859999999999996</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G441" s="1" t="s">
         <v>28</v>
@@ -17733,7 +18410,7 @@
         <v>6.4409999999999998</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G442" s="1" t="s">
         <v>28</v>
@@ -17759,7 +18436,7 @@
         <v>10.202</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G443" s="1" t="s">
         <v>28</v>
@@ -17785,7 +18462,7 @@
         <v>8.15</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G444" s="1" t="s">
         <v>28</v>
@@ -17811,7 +18488,7 @@
         <v>5.9770000000000003</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G445" s="1" t="s">
         <v>28</v>
@@ -17837,7 +18514,7 @@
         <v>8.5139999999999993</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G446" s="1" t="s">
         <v>28</v>
@@ -17863,7 +18540,7 @@
         <v>8.0139999999999993</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G447" s="1" t="s">
         <v>28</v>
@@ -17889,7 +18566,7 @@
         <v>8.8859999999999992</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G448" s="1" t="s">
         <v>28</v>
@@ -17915,7 +18592,7 @@
         <v>5.6920000000000002</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G449" s="1" t="s">
         <v>28</v>
@@ -17941,7 +18618,7 @@
         <v>10.885999999999999</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G450" s="1" t="s">
         <v>28</v>
@@ -17967,7 +18644,7 @@
         <v>6.827</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G451" s="1" t="s">
         <v>28</v>
@@ -17993,7 +18670,7 @@
         <v>9.5820000000000007</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G452" s="1" t="s">
         <v>28</v>
@@ -18019,7 +18696,7 @@
         <v>7.7119999999999997</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G453" s="1" t="s">
         <v>28</v>
@@ -18045,7 +18722,7 @@
         <v>6.0279999999999996</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G454" s="1" t="s">
         <v>28</v>
@@ -18071,7 +18748,7 @@
         <v>6.91</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G455" s="1" t="s">
         <v>28</v>
@@ -18097,7 +18774,7 @@
         <v>6.7130000000000001</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G456" s="1" t="s">
         <v>28</v>
@@ -18123,7 +18800,7 @@
         <v>6.883</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G457" s="1" t="s">
         <v>28</v>
@@ -18149,7 +18826,7 @@
         <v>7.7910000000000004</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G458" s="1" t="s">
         <v>28</v>
@@ -18175,7 +18852,7 @@
         <v>9.2720000000000002</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G459" s="1" t="s">
         <v>28</v>
@@ -18201,7 +18878,7 @@
         <v>6.319</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G460" s="1" t="s">
         <v>28</v>
@@ -18227,7 +18904,7 @@
         <v>4.4429999999999996</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G461" s="1" t="s">
         <v>28</v>
@@ -18253,7 +18930,7 @@
         <v>7.8220000000000001</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G462" s="1" t="s">
         <v>28</v>
@@ -18279,7 +18956,7 @@
         <v>8.5250000000000004</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G463" s="1" t="s">
         <v>28</v>
@@ -18305,7 +18982,7 @@
         <v>8.7949999999999999</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G464" s="1" t="s">
         <v>28</v>
@@ -18331,7 +19008,7 @@
         <v>13.176</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G465" s="1" t="s">
         <v>28</v>
@@ -18357,7 +19034,7 @@
         <v>7.6429999999999998</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G466" s="1" t="s">
         <v>28</v>
@@ -18383,7 +19060,7 @@
         <v>9.4890000000000008</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G467" s="1" t="s">
         <v>28</v>
@@ -18409,7 +19086,7 @@
         <v>6.8470000000000004</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G468" s="1" t="s">
         <v>28</v>
@@ -18435,7 +19112,7 @@
         <v>9.98</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G469" s="1" t="s">
         <v>28</v>
@@ -18461,7 +19138,7 @@
         <v>8.6120000000000001</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G470" s="1" t="s">
         <v>28</v>
@@ -18487,7 +19164,7 @@
         <v>9.1039999999999992</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G471" s="1" t="s">
         <v>28</v>
@@ -18513,7 +19190,7 @@
         <v>6.96</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G472" s="1" t="s">
         <v>28</v>
@@ -18539,7 +19216,7 @@
         <v>9.8629999999999995</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G473" s="1" t="s">
         <v>28</v>
@@ -18565,7 +19242,7 @@
         <v>6.26</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G474" s="1" t="s">
         <v>28</v>
@@ -18591,7 +19268,7 @@
         <v>5.8890000000000002</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G475" s="1" t="s">
         <v>28</v>
@@ -18617,7 +19294,7 @@
         <v>9.8249999999999993</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G476" s="1" t="s">
         <v>28</v>
@@ -18643,7 +19320,7 @@
         <v>6.3979999999999997</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G477" s="1" t="s">
         <v>28</v>
@@ -18669,7 +19346,7 @@
         <v>9.7119999999999997</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G478" s="1" t="s">
         <v>28</v>
@@ -18695,7 +19372,7 @@
         <v>6.8390000000000004</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G479" s="1" t="s">
         <v>28</v>
@@ -18721,7 +19398,7 @@
         <v>7.819</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G480" s="1" t="s">
         <v>28</v>
@@ -18747,7 +19424,7 @@
         <v>10.496</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G481" s="1" t="s">
         <v>28</v>
@@ -18773,7 +19450,7 @@
         <v>8.7010000000000005</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G482" s="1" t="s">
         <v>28</v>
@@ -18799,7 +19476,7 @@
         <v>9.0939999999999994</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G483" s="1" t="s">
         <v>28</v>
@@ -18825,7 +19502,7 @@
         <v>8.9209999999999994</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G484" s="1" t="s">
         <v>28</v>
@@ -18851,7 +19528,7 @@
         <v>9.9309999999999992</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G485" s="1" t="s">
         <v>28</v>
@@ -18877,7 +19554,7 @@
         <v>8.6479999999999997</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G486" s="1" t="s">
         <v>28</v>
@@ -18903,7 +19580,7 @@
         <v>5.8310000000000004</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G487" s="1" t="s">
         <v>28</v>
@@ -18929,7 +19606,7 @@
         <v>10.669</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G488" s="1" t="s">
         <v>28</v>
@@ -18955,7 +19632,7 @@
         <v>6.0369999999999999</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G489" s="1" t="s">
         <v>28</v>
@@ -18981,7 +19658,7 @@
         <v>10.565</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>28</v>
@@ -19007,7 +19684,7 @@
         <v>5.843</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G491" s="1" t="s">
         <v>28</v>
@@ -19033,7 +19710,7 @@
         <v>8.3460000000000001</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G492" s="1" t="s">
         <v>28</v>
@@ -19059,7 +19736,7 @@
         <v>13.039</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G493" s="1" t="s">
         <v>28</v>
@@ -19085,7 +19762,7 @@
         <v>7.1539999999999999</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G494" s="1" t="s">
         <v>28</v>
@@ -19111,7 +19788,7 @@
         <v>9.9740000000000002</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G495" s="1" t="s">
         <v>28</v>
@@ -19137,7 +19814,7 @@
         <v>7.891</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G496" s="1" t="s">
         <v>28</v>
@@ -19163,7 +19840,7 @@
         <v>10.037000000000001</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G497" s="1" t="s">
         <v>28</v>
@@ -19189,7 +19866,7 @@
         <v>10.513</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G498" s="1" t="s">
         <v>28</v>
@@ -19215,7 +19892,7 @@
         <v>4.5659999999999998</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G499" s="1" t="s">
         <v>28</v>
@@ -19241,7 +19918,7 @@
         <v>6.3049999999999997</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G500" s="1" t="s">
         <v>28</v>
@@ -19267,7 +19944,7 @@
         <v>9.6549999999999994</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G501" s="1" t="s">
         <v>28</v>
@@ -19293,7 +19970,7 @@
         <v>5.7009999999999996</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G502" s="1" t="s">
         <v>28</v>
@@ -19319,7 +19996,7 @@
         <v>6.8559999999999999</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G503" s="1" t="s">
         <v>28</v>
@@ -19345,7 +20022,7 @@
         <v>6.4569999999999999</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G504" s="1" t="s">
         <v>28</v>
@@ -19371,7 +20048,7 @@
         <v>9.6760000000000002</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G505" s="1" t="s">
         <v>28</v>
@@ -19397,7 +20074,7 @@
         <v>5.7460000000000004</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G506" s="1" t="s">
         <v>28</v>
@@ -19423,7 +20100,7 @@
         <v>6.8179999999999996</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G507" s="1" t="s">
         <v>28</v>
@@ -19449,7 +20126,7 @@
         <v>12.887</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G508" s="1" t="s">
         <v>28</v>
@@ -19475,7 +20152,7 @@
         <v>5.0620000000000003</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G509" s="1" t="s">
         <v>28</v>
@@ -19501,7 +20178,7 @@
         <v>11.138</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G510" s="1" t="s">
         <v>28</v>
@@ -19527,7 +20204,7 @@
         <v>9.8539999999999992</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G511" s="1" t="s">
         <v>28</v>
@@ -19553,7 +20230,7 @@
         <v>8.468</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G512" s="1" t="s">
         <v>28</v>
@@ -19565,7 +20242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:10">
       <c r="A513">
         <v>70</v>
       </c>
@@ -19579,7 +20256,7 @@
         <v>6.7709999999999999</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G513" s="1" t="s">
         <v>28</v>
@@ -19591,7 +20268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:10">
       <c r="A514">
         <v>71</v>
       </c>
@@ -19605,7 +20282,7 @@
         <v>6.0579999999999998</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G514" s="1" t="s">
         <v>28</v>
@@ -19617,7 +20294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:10">
       <c r="A515">
         <v>72</v>
       </c>
@@ -19631,7 +20308,7 @@
         <v>6.2779999999999996</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G515" s="1" t="s">
         <v>28</v>
@@ -19643,7 +20320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:10">
       <c r="A516">
         <v>73</v>
       </c>
@@ -19657,7 +20334,7 @@
         <v>7.02</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G516" s="1" t="s">
         <v>28</v>
@@ -19669,7 +20346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:10">
       <c r="A517">
         <v>74</v>
       </c>
@@ -19683,7 +20360,7 @@
         <v>3.8929999999999998</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G517" s="1" t="s">
         <v>28</v>
@@ -19695,7 +20372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:10">
       <c r="A518">
         <v>75</v>
       </c>
@@ -19709,7 +20386,7 @@
         <v>6.5579999999999998</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G518" s="1" t="s">
         <v>28</v>
@@ -19721,7 +20398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:9">
+    <row r="519" spans="1:10">
       <c r="A519">
         <v>76</v>
       </c>
@@ -19731,8 +20408,17 @@
       <c r="C519" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="520" spans="1:9">
+      <c r="F519" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10">
       <c r="A520">
         <v>77</v>
       </c>
@@ -19744,6 +20430,4571 @@
       </c>
       <c r="E520" s="8">
         <v>0.74583333333333324</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10">
+      <c r="A521">
+        <v>1</v>
+      </c>
+      <c r="B521" t="s">
+        <v>84</v>
+      </c>
+      <c r="C521" t="s">
+        <v>5</v>
+      </c>
+      <c r="D521">
+        <v>5.8250000000000002</v>
+      </c>
+      <c r="E521" s="8">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J521">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10">
+      <c r="A522">
+        <v>2</v>
+      </c>
+      <c r="B522" t="s">
+        <v>84</v>
+      </c>
+      <c r="C522" t="s">
+        <v>77</v>
+      </c>
+      <c r="D522">
+        <v>8.8239999999999998</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J522">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10">
+      <c r="A523">
+        <v>3</v>
+      </c>
+      <c r="B523" t="s">
+        <v>84</v>
+      </c>
+      <c r="C523" t="s">
+        <v>4</v>
+      </c>
+      <c r="D523">
+        <v>50974</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J523">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10">
+      <c r="A524">
+        <v>4</v>
+      </c>
+      <c r="B524" t="s">
+        <v>84</v>
+      </c>
+      <c r="C524" t="s">
+        <v>5</v>
+      </c>
+      <c r="D524">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J524">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10">
+      <c r="A525">
+        <v>5</v>
+      </c>
+      <c r="B525" t="s">
+        <v>84</v>
+      </c>
+      <c r="C525" t="s">
+        <v>5</v>
+      </c>
+      <c r="D525">
+        <v>10.217000000000001</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J525">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10">
+      <c r="A526">
+        <v>6</v>
+      </c>
+      <c r="B526" t="s">
+        <v>84</v>
+      </c>
+      <c r="C526" t="s">
+        <v>4</v>
+      </c>
+      <c r="D526">
+        <v>9.2710000000000008</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J526">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10">
+      <c r="A527">
+        <v>7</v>
+      </c>
+      <c r="B527" t="s">
+        <v>84</v>
+      </c>
+      <c r="C527" t="s">
+        <v>5</v>
+      </c>
+      <c r="D527">
+        <v>11.08</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J527">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10">
+      <c r="A528">
+        <v>8</v>
+      </c>
+      <c r="B528" t="s">
+        <v>84</v>
+      </c>
+      <c r="C528" t="s">
+        <v>4</v>
+      </c>
+      <c r="D528">
+        <v>8.3049999999999997</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J528">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10">
+      <c r="A529">
+        <v>9</v>
+      </c>
+      <c r="B529" t="s">
+        <v>84</v>
+      </c>
+      <c r="C529" t="s">
+        <v>4</v>
+      </c>
+      <c r="D529">
+        <v>6.6719999999999997</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J529">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10">
+      <c r="A530">
+        <v>10</v>
+      </c>
+      <c r="B530" t="s">
+        <v>84</v>
+      </c>
+      <c r="C530" t="s">
+        <v>5</v>
+      </c>
+      <c r="D530">
+        <v>5.7290000000000001</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J530">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10">
+      <c r="A531">
+        <v>11</v>
+      </c>
+      <c r="B531" t="s">
+        <v>84</v>
+      </c>
+      <c r="C531" t="s">
+        <v>4</v>
+      </c>
+      <c r="D531">
+        <v>7.3979999999999997</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J531">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10">
+      <c r="A532">
+        <v>12</v>
+      </c>
+      <c r="B532" t="s">
+        <v>84</v>
+      </c>
+      <c r="C532" t="s">
+        <v>5</v>
+      </c>
+      <c r="D532">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J532">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10">
+      <c r="A533">
+        <v>13</v>
+      </c>
+      <c r="B533" t="s">
+        <v>84</v>
+      </c>
+      <c r="C533" t="s">
+        <v>5</v>
+      </c>
+      <c r="D533">
+        <v>7.7569999999999997</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J533">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10">
+      <c r="A534">
+        <v>14</v>
+      </c>
+      <c r="B534" t="s">
+        <v>84</v>
+      </c>
+      <c r="C534" t="s">
+        <v>5</v>
+      </c>
+      <c r="D534">
+        <v>6.4909999999999997</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J534">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10">
+      <c r="A535">
+        <v>15</v>
+      </c>
+      <c r="B535" t="s">
+        <v>84</v>
+      </c>
+      <c r="C535" t="s">
+        <v>5</v>
+      </c>
+      <c r="D535">
+        <v>8.0459999999999994</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J535">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10">
+      <c r="A536">
+        <v>16</v>
+      </c>
+      <c r="B536" t="s">
+        <v>84</v>
+      </c>
+      <c r="C536" t="s">
+        <v>4</v>
+      </c>
+      <c r="D536">
+        <v>9.5380000000000003</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J536">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10">
+      <c r="A537">
+        <v>17</v>
+      </c>
+      <c r="B537" t="s">
+        <v>84</v>
+      </c>
+      <c r="C537" t="s">
+        <v>77</v>
+      </c>
+      <c r="D537">
+        <v>11.048999999999999</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J537">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10">
+      <c r="A538">
+        <v>18</v>
+      </c>
+      <c r="B538" t="s">
+        <v>84</v>
+      </c>
+      <c r="C538" t="s">
+        <v>4</v>
+      </c>
+      <c r="D538">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J538">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10">
+      <c r="A539">
+        <v>19</v>
+      </c>
+      <c r="B539" t="s">
+        <v>84</v>
+      </c>
+      <c r="C539" t="s">
+        <v>4</v>
+      </c>
+      <c r="D539">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J539">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10">
+      <c r="A540">
+        <v>20</v>
+      </c>
+      <c r="B540" t="s">
+        <v>84</v>
+      </c>
+      <c r="C540" t="s">
+        <v>5</v>
+      </c>
+      <c r="D540">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J540">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10">
+      <c r="A541">
+        <v>21</v>
+      </c>
+      <c r="B541" t="s">
+        <v>84</v>
+      </c>
+      <c r="C541" t="s">
+        <v>4</v>
+      </c>
+      <c r="D541">
+        <v>10.787000000000001</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J541">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10">
+      <c r="A542">
+        <v>22</v>
+      </c>
+      <c r="B542" t="s">
+        <v>84</v>
+      </c>
+      <c r="C542" t="s">
+        <v>4</v>
+      </c>
+      <c r="D542">
+        <v>6.7290000000000001</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J542">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10">
+      <c r="A543">
+        <v>23</v>
+      </c>
+      <c r="B543" t="s">
+        <v>84</v>
+      </c>
+      <c r="C543" t="s">
+        <v>4</v>
+      </c>
+      <c r="D543">
+        <v>6.1890000000000001</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J543">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10">
+      <c r="A544">
+        <v>24</v>
+      </c>
+      <c r="B544" t="s">
+        <v>84</v>
+      </c>
+      <c r="C544" t="s">
+        <v>4</v>
+      </c>
+      <c r="D544">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J544">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10">
+      <c r="A545">
+        <v>25</v>
+      </c>
+      <c r="B545" t="s">
+        <v>84</v>
+      </c>
+      <c r="C545" t="s">
+        <v>4</v>
+      </c>
+      <c r="D545">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J545">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10">
+      <c r="A546">
+        <v>26</v>
+      </c>
+      <c r="B546" t="s">
+        <v>84</v>
+      </c>
+      <c r="C546" t="s">
+        <v>5</v>
+      </c>
+      <c r="D546">
+        <v>4.8070000000000004</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J546">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10">
+      <c r="A547">
+        <v>27</v>
+      </c>
+      <c r="B547" t="s">
+        <v>84</v>
+      </c>
+      <c r="C547" t="s">
+        <v>4</v>
+      </c>
+      <c r="D547">
+        <v>7.202</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J547">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10">
+      <c r="A548">
+        <v>28</v>
+      </c>
+      <c r="B548" t="s">
+        <v>84</v>
+      </c>
+      <c r="C548" t="s">
+        <v>5</v>
+      </c>
+      <c r="D548">
+        <v>5.5339999999999998</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J548">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10">
+      <c r="A549">
+        <v>29</v>
+      </c>
+      <c r="B549" t="s">
+        <v>84</v>
+      </c>
+      <c r="C549" t="s">
+        <v>4</v>
+      </c>
+      <c r="D549">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J549">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10">
+      <c r="A550">
+        <v>30</v>
+      </c>
+      <c r="B550" t="s">
+        <v>84</v>
+      </c>
+      <c r="C550" t="s">
+        <v>77</v>
+      </c>
+      <c r="D550">
+        <v>12.612</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J550">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10">
+      <c r="A551">
+        <v>31</v>
+      </c>
+      <c r="B551" t="s">
+        <v>84</v>
+      </c>
+      <c r="C551" t="s">
+        <v>5</v>
+      </c>
+      <c r="D551">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J551">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10">
+      <c r="A552">
+        <v>32</v>
+      </c>
+      <c r="B552" t="s">
+        <v>84</v>
+      </c>
+      <c r="C552" t="s">
+        <v>77</v>
+      </c>
+      <c r="D552">
+        <v>11.545999999999999</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J552">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10">
+      <c r="A553">
+        <v>33</v>
+      </c>
+      <c r="B553" t="s">
+        <v>84</v>
+      </c>
+      <c r="C553" t="s">
+        <v>4</v>
+      </c>
+      <c r="D553">
+        <v>9.52</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J553">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10">
+      <c r="A554">
+        <v>34</v>
+      </c>
+      <c r="B554" t="s">
+        <v>84</v>
+      </c>
+      <c r="C554" t="s">
+        <v>5</v>
+      </c>
+      <c r="D554">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J554">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10">
+      <c r="A555">
+        <v>35</v>
+      </c>
+      <c r="B555" t="s">
+        <v>84</v>
+      </c>
+      <c r="C555" t="s">
+        <v>4</v>
+      </c>
+      <c r="D555">
+        <v>4.798</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J555">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10">
+      <c r="A556">
+        <v>36</v>
+      </c>
+      <c r="B556" t="s">
+        <v>84</v>
+      </c>
+      <c r="C556" t="s">
+        <v>4</v>
+      </c>
+      <c r="D556">
+        <v>3.4209999999999998</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J556">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10">
+      <c r="A557">
+        <v>37</v>
+      </c>
+      <c r="B557" t="s">
+        <v>84</v>
+      </c>
+      <c r="C557" t="s">
+        <v>77</v>
+      </c>
+      <c r="D557">
+        <v>8.5640000000000001</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J557">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10">
+      <c r="A558">
+        <v>38</v>
+      </c>
+      <c r="B558" t="s">
+        <v>84</v>
+      </c>
+      <c r="C558" t="s">
+        <v>4</v>
+      </c>
+      <c r="D558">
+        <v>9.8409999999999993</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J558">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10">
+      <c r="A559">
+        <v>39</v>
+      </c>
+      <c r="B559" t="s">
+        <v>84</v>
+      </c>
+      <c r="C559" t="s">
+        <v>77</v>
+      </c>
+      <c r="D559">
+        <v>8.2409999999999997</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J559">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10">
+      <c r="A560">
+        <v>40</v>
+      </c>
+      <c r="B560" t="s">
+        <v>84</v>
+      </c>
+      <c r="C560" t="s">
+        <v>5</v>
+      </c>
+      <c r="D560">
+        <v>7.0350000000000001</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J560">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10">
+      <c r="A561">
+        <v>41</v>
+      </c>
+      <c r="B561" t="s">
+        <v>84</v>
+      </c>
+      <c r="C561" t="s">
+        <v>5</v>
+      </c>
+      <c r="D561">
+        <v>6.44</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J561">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10">
+      <c r="A562">
+        <v>42</v>
+      </c>
+      <c r="B562" t="s">
+        <v>84</v>
+      </c>
+      <c r="C562" t="s">
+        <v>5</v>
+      </c>
+      <c r="D562">
+        <v>8.1379999999999999</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J562">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10">
+      <c r="A563">
+        <v>43</v>
+      </c>
+      <c r="B563" t="s">
+        <v>84</v>
+      </c>
+      <c r="C563" t="s">
+        <v>5</v>
+      </c>
+      <c r="D563">
+        <v>9.1329999999999991</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J563">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10">
+      <c r="A564">
+        <v>44</v>
+      </c>
+      <c r="B564" t="s">
+        <v>84</v>
+      </c>
+      <c r="C564" t="s">
+        <v>5</v>
+      </c>
+      <c r="D564">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J564">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10">
+      <c r="A565">
+        <v>45</v>
+      </c>
+      <c r="B565" t="s">
+        <v>84</v>
+      </c>
+      <c r="C565" t="s">
+        <v>4</v>
+      </c>
+      <c r="D565">
+        <v>5.46</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J565">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10">
+      <c r="A566">
+        <v>46</v>
+      </c>
+      <c r="B566" t="s">
+        <v>84</v>
+      </c>
+      <c r="C566" t="s">
+        <v>77</v>
+      </c>
+      <c r="D566">
+        <v>11.512</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J566">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10">
+      <c r="A567">
+        <v>47</v>
+      </c>
+      <c r="B567" t="s">
+        <v>84</v>
+      </c>
+      <c r="C567" t="s">
+        <v>5</v>
+      </c>
+      <c r="D567">
+        <v>7.2770000000000001</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J567">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10">
+      <c r="A568">
+        <v>48</v>
+      </c>
+      <c r="B568" t="s">
+        <v>84</v>
+      </c>
+      <c r="C568" t="s">
+        <v>4</v>
+      </c>
+      <c r="D568">
+        <v>6.8040000000000003</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J568">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10">
+      <c r="A569">
+        <v>49</v>
+      </c>
+      <c r="B569" t="s">
+        <v>84</v>
+      </c>
+      <c r="C569" t="s">
+        <v>4</v>
+      </c>
+      <c r="D569">
+        <v>6.6239999999999997</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J569">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10">
+      <c r="A570">
+        <v>50</v>
+      </c>
+      <c r="B570" t="s">
+        <v>84</v>
+      </c>
+      <c r="C570" t="s">
+        <v>5</v>
+      </c>
+      <c r="D570">
+        <v>9.4930000000000003</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J570">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10">
+      <c r="A571">
+        <v>51</v>
+      </c>
+      <c r="B571" t="s">
+        <v>84</v>
+      </c>
+      <c r="C571" t="s">
+        <v>5</v>
+      </c>
+      <c r="D571">
+        <v>10.269</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J571">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10">
+      <c r="A572">
+        <v>52</v>
+      </c>
+      <c r="B572" t="s">
+        <v>84</v>
+      </c>
+      <c r="C572" t="s">
+        <v>4</v>
+      </c>
+      <c r="D572">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J572">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10">
+      <c r="A573">
+        <v>53</v>
+      </c>
+      <c r="B573" t="s">
+        <v>84</v>
+      </c>
+      <c r="C573" t="s">
+        <v>4</v>
+      </c>
+      <c r="D573">
+        <v>7.3810000000000002</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J573">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10">
+      <c r="A574">
+        <v>54</v>
+      </c>
+      <c r="B574" t="s">
+        <v>84</v>
+      </c>
+      <c r="C574" t="s">
+        <v>5</v>
+      </c>
+      <c r="D574">
+        <v>5.9729999999999999</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J574">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10">
+      <c r="A575">
+        <v>55</v>
+      </c>
+      <c r="B575" t="s">
+        <v>84</v>
+      </c>
+      <c r="C575" t="s">
+        <v>5</v>
+      </c>
+      <c r="D575">
+        <v>8.125</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J575">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10">
+      <c r="A576">
+        <v>56</v>
+      </c>
+      <c r="B576" t="s">
+        <v>84</v>
+      </c>
+      <c r="C576" t="s">
+        <v>5</v>
+      </c>
+      <c r="D576">
+        <v>8.2260000000000009</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J576">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10">
+      <c r="A577">
+        <v>57</v>
+      </c>
+      <c r="B577" t="s">
+        <v>84</v>
+      </c>
+      <c r="C577" t="s">
+        <v>5</v>
+      </c>
+      <c r="D577">
+        <v>6.3079999999999998</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J577">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10">
+      <c r="A578">
+        <v>58</v>
+      </c>
+      <c r="B578" t="s">
+        <v>84</v>
+      </c>
+      <c r="C578" t="s">
+        <v>77</v>
+      </c>
+      <c r="D578">
+        <v>12.805999999999999</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J578">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10">
+      <c r="A579">
+        <v>59</v>
+      </c>
+      <c r="B579" t="s">
+        <v>84</v>
+      </c>
+      <c r="C579" t="s">
+        <v>5</v>
+      </c>
+      <c r="D579">
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J579">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10">
+      <c r="A580">
+        <v>60</v>
+      </c>
+      <c r="B580" t="s">
+        <v>84</v>
+      </c>
+      <c r="C580" t="s">
+        <v>77</v>
+      </c>
+      <c r="D580">
+        <v>8.4109999999999996</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J580">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10">
+      <c r="A581">
+        <v>61</v>
+      </c>
+      <c r="B581" t="s">
+        <v>84</v>
+      </c>
+      <c r="C581" t="s">
+        <v>5</v>
+      </c>
+      <c r="D581">
+        <v>4.4610000000000003</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J581">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10">
+      <c r="A582">
+        <v>62</v>
+      </c>
+      <c r="B582" t="s">
+        <v>84</v>
+      </c>
+      <c r="C582" t="s">
+        <v>5</v>
+      </c>
+      <c r="D582">
+        <v>6.98</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J582">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10">
+      <c r="A583">
+        <v>63</v>
+      </c>
+      <c r="B583" t="s">
+        <v>84</v>
+      </c>
+      <c r="C583" t="s">
+        <v>5</v>
+      </c>
+      <c r="D583">
+        <v>7.3760000000000003</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J583">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10">
+      <c r="A584">
+        <v>64</v>
+      </c>
+      <c r="B584" t="s">
+        <v>84</v>
+      </c>
+      <c r="C584" t="s">
+        <v>4</v>
+      </c>
+      <c r="D584">
+        <v>9.4469999999999992</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J584">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10">
+      <c r="A585">
+        <v>65</v>
+      </c>
+      <c r="B585" t="s">
+        <v>84</v>
+      </c>
+      <c r="C585" t="s">
+        <v>5</v>
+      </c>
+      <c r="D585">
+        <v>8.86</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J585">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10">
+      <c r="A586">
+        <v>66</v>
+      </c>
+      <c r="B586" t="s">
+        <v>84</v>
+      </c>
+      <c r="C586" t="s">
+        <v>4</v>
+      </c>
+      <c r="D586">
+        <v>4.3239999999999998</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J586">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10">
+      <c r="A587">
+        <v>67</v>
+      </c>
+      <c r="B587" t="s">
+        <v>84</v>
+      </c>
+      <c r="C587" t="s">
+        <v>4</v>
+      </c>
+      <c r="D587">
+        <v>9.3179999999999996</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J587">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10">
+      <c r="A588">
+        <v>68</v>
+      </c>
+      <c r="B588" t="s">
+        <v>84</v>
+      </c>
+      <c r="C588" t="s">
+        <v>77</v>
+      </c>
+      <c r="D588">
+        <v>7.9260000000000002</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J588">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10">
+      <c r="A589">
+        <v>69</v>
+      </c>
+      <c r="B589" t="s">
+        <v>84</v>
+      </c>
+      <c r="C589" t="s">
+        <v>4</v>
+      </c>
+      <c r="D589">
+        <v>5.1630000000000003</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J589">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10">
+      <c r="A590">
+        <v>70</v>
+      </c>
+      <c r="B590" t="s">
+        <v>84</v>
+      </c>
+      <c r="C590" t="s">
+        <v>5</v>
+      </c>
+      <c r="D590">
+        <v>11.414999999999999</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J590">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10">
+      <c r="A591">
+        <v>71</v>
+      </c>
+      <c r="B591" t="s">
+        <v>84</v>
+      </c>
+      <c r="C591" t="s">
+        <v>4</v>
+      </c>
+      <c r="D591">
+        <v>5.9790000000000001</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J591">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10">
+      <c r="A592">
+        <v>72</v>
+      </c>
+      <c r="B592" t="s">
+        <v>84</v>
+      </c>
+      <c r="C592" t="s">
+        <v>4</v>
+      </c>
+      <c r="D592">
+        <v>6.6660000000000004</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J592">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10">
+      <c r="A593">
+        <v>73</v>
+      </c>
+      <c r="B593" t="s">
+        <v>84</v>
+      </c>
+      <c r="C593" t="s">
+        <v>4</v>
+      </c>
+      <c r="D593">
+        <v>7.782</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J593">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10">
+      <c r="A594">
+        <v>74</v>
+      </c>
+      <c r="B594" t="s">
+        <v>84</v>
+      </c>
+      <c r="C594" t="s">
+        <v>77</v>
+      </c>
+      <c r="D594">
+        <v>11.997</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J594">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10">
+      <c r="A595">
+        <v>75</v>
+      </c>
+      <c r="B595" t="s">
+        <v>84</v>
+      </c>
+      <c r="C595" t="s">
+        <v>4</v>
+      </c>
+      <c r="D595">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J595">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10">
+      <c r="A596">
+        <v>76</v>
+      </c>
+      <c r="B596" t="s">
+        <v>84</v>
+      </c>
+      <c r="C596" t="s">
+        <v>4</v>
+      </c>
+      <c r="D596">
+        <v>7.1130000000000004</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J596">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10">
+      <c r="A597">
+        <v>77</v>
+      </c>
+      <c r="B597" t="s">
+        <v>84</v>
+      </c>
+      <c r="C597" t="s">
+        <v>83</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J597">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10">
+      <c r="A598">
+        <v>78</v>
+      </c>
+      <c r="B598" t="s">
+        <v>84</v>
+      </c>
+      <c r="C598" t="s">
+        <v>83</v>
+      </c>
+      <c r="E598" s="8">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J598">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10">
+      <c r="A599">
+        <v>1</v>
+      </c>
+      <c r="B599" t="s">
+        <v>81</v>
+      </c>
+      <c r="C599" t="s">
+        <v>5</v>
+      </c>
+      <c r="D599">
+        <v>7.1</v>
+      </c>
+      <c r="E599" s="8">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J599">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10">
+      <c r="A600">
+        <v>2</v>
+      </c>
+      <c r="B600" t="s">
+        <v>81</v>
+      </c>
+      <c r="C600" t="s">
+        <v>4</v>
+      </c>
+      <c r="D600">
+        <v>7.7080000000000002</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J600">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10">
+      <c r="A601">
+        <v>3</v>
+      </c>
+      <c r="B601" t="s">
+        <v>81</v>
+      </c>
+      <c r="C601" t="s">
+        <v>4</v>
+      </c>
+      <c r="D601">
+        <v>7.3209999999999997</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J601">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10">
+      <c r="A602">
+        <v>4</v>
+      </c>
+      <c r="B602" t="s">
+        <v>81</v>
+      </c>
+      <c r="C602" t="s">
+        <v>5</v>
+      </c>
+      <c r="D602">
+        <v>5.5949999999999998</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J602">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10">
+      <c r="A603">
+        <v>5</v>
+      </c>
+      <c r="B603" t="s">
+        <v>81</v>
+      </c>
+      <c r="C603" t="s">
+        <v>4</v>
+      </c>
+      <c r="D603">
+        <v>6.7670000000000003</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J603">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10">
+      <c r="A604">
+        <v>6</v>
+      </c>
+      <c r="B604" t="s">
+        <v>81</v>
+      </c>
+      <c r="C604" t="s">
+        <v>5</v>
+      </c>
+      <c r="D604">
+        <v>7.02</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J604">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10">
+      <c r="A605">
+        <v>7</v>
+      </c>
+      <c r="B605" t="s">
+        <v>81</v>
+      </c>
+      <c r="C605" t="s">
+        <v>77</v>
+      </c>
+      <c r="D605">
+        <v>10.81</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J605">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10">
+      <c r="A606">
+        <v>8</v>
+      </c>
+      <c r="B606" t="s">
+        <v>81</v>
+      </c>
+      <c r="C606" t="s">
+        <v>4</v>
+      </c>
+      <c r="D606">
+        <v>8.7449999999999992</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J606">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10">
+      <c r="A607">
+        <v>9</v>
+      </c>
+      <c r="B607" t="s">
+        <v>81</v>
+      </c>
+      <c r="C607" t="s">
+        <v>4</v>
+      </c>
+      <c r="D607">
+        <v>6.8</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J607">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10">
+      <c r="A608">
+        <v>10</v>
+      </c>
+      <c r="B608" t="s">
+        <v>81</v>
+      </c>
+      <c r="C608" t="s">
+        <v>77</v>
+      </c>
+      <c r="D608">
+        <v>7.4550000000000001</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J608">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10">
+      <c r="A609">
+        <v>11</v>
+      </c>
+      <c r="B609" t="s">
+        <v>81</v>
+      </c>
+      <c r="C609" t="s">
+        <v>77</v>
+      </c>
+      <c r="D609">
+        <v>7.6619999999999999</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J609">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10">
+      <c r="A610">
+        <v>12</v>
+      </c>
+      <c r="B610" t="s">
+        <v>81</v>
+      </c>
+      <c r="C610" t="s">
+        <v>4</v>
+      </c>
+      <c r="D610">
+        <v>4.6120000000000001</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J610">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10">
+      <c r="A611">
+        <v>13</v>
+      </c>
+      <c r="B611" t="s">
+        <v>81</v>
+      </c>
+      <c r="C611" t="s">
+        <v>4</v>
+      </c>
+      <c r="D611">
+        <v>7.1449999999999996</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J611">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10">
+      <c r="A612">
+        <v>14</v>
+      </c>
+      <c r="B612" t="s">
+        <v>81</v>
+      </c>
+      <c r="C612" t="s">
+        <v>5</v>
+      </c>
+      <c r="D612">
+        <v>5.1219999999999999</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J612">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10">
+      <c r="A613">
+        <v>15</v>
+      </c>
+      <c r="B613" t="s">
+        <v>81</v>
+      </c>
+      <c r="C613" t="s">
+        <v>5</v>
+      </c>
+      <c r="D613">
+        <v>9.2940000000000005</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J613">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10">
+      <c r="A614">
+        <v>16</v>
+      </c>
+      <c r="B614" t="s">
+        <v>81</v>
+      </c>
+      <c r="C614" t="s">
+        <v>5</v>
+      </c>
+      <c r="D614">
+        <v>10.083</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J614">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10">
+      <c r="A615">
+        <v>17</v>
+      </c>
+      <c r="B615" t="s">
+        <v>81</v>
+      </c>
+      <c r="C615" t="s">
+        <v>4</v>
+      </c>
+      <c r="D615">
+        <v>9.3539999999999992</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J615">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10">
+      <c r="A616">
+        <v>18</v>
+      </c>
+      <c r="B616" t="s">
+        <v>81</v>
+      </c>
+      <c r="C616" t="s">
+        <v>5</v>
+      </c>
+      <c r="D616">
+        <v>10.37</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J616">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10">
+      <c r="A617">
+        <v>19</v>
+      </c>
+      <c r="B617" t="s">
+        <v>81</v>
+      </c>
+      <c r="C617" t="s">
+        <v>4</v>
+      </c>
+      <c r="D617">
+        <v>7.3869999999999996</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J617">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10">
+      <c r="A618">
+        <v>20</v>
+      </c>
+      <c r="B618" t="s">
+        <v>81</v>
+      </c>
+      <c r="C618" t="s">
+        <v>5</v>
+      </c>
+      <c r="D618">
+        <v>8.4309999999999992</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J618">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10">
+      <c r="A619">
+        <v>21</v>
+      </c>
+      <c r="B619" t="s">
+        <v>81</v>
+      </c>
+      <c r="C619" t="s">
+        <v>4</v>
+      </c>
+      <c r="D619">
+        <v>11.074999999999999</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J619">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10">
+      <c r="A620">
+        <v>22</v>
+      </c>
+      <c r="B620" t="s">
+        <v>81</v>
+      </c>
+      <c r="C620" t="s">
+        <v>5</v>
+      </c>
+      <c r="D620">
+        <v>6.7279999999999998</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J620">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10">
+      <c r="A621">
+        <v>23</v>
+      </c>
+      <c r="B621" t="s">
+        <v>81</v>
+      </c>
+      <c r="C621" t="s">
+        <v>5</v>
+      </c>
+      <c r="D621">
+        <v>7.5670000000000002</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J621">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10">
+      <c r="A622">
+        <v>24</v>
+      </c>
+      <c r="B622" t="s">
+        <v>81</v>
+      </c>
+      <c r="C622" t="s">
+        <v>4</v>
+      </c>
+      <c r="D622">
+        <v>7.8040000000000003</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J622">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10">
+      <c r="A623">
+        <v>25</v>
+      </c>
+      <c r="B623" t="s">
+        <v>81</v>
+      </c>
+      <c r="C623" t="s">
+        <v>5</v>
+      </c>
+      <c r="D623">
+        <v>9.4979999999999993</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J623">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10">
+      <c r="A624">
+        <v>26</v>
+      </c>
+      <c r="B624" t="s">
+        <v>81</v>
+      </c>
+      <c r="C624" t="s">
+        <v>4</v>
+      </c>
+      <c r="D624">
+        <v>6.3479999999999999</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J624">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10">
+      <c r="A625">
+        <v>27</v>
+      </c>
+      <c r="B625" t="s">
+        <v>81</v>
+      </c>
+      <c r="C625" t="s">
+        <v>4</v>
+      </c>
+      <c r="D625">
+        <v>4.5490000000000004</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J625">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10">
+      <c r="A626">
+        <v>28</v>
+      </c>
+      <c r="B626" t="s">
+        <v>81</v>
+      </c>
+      <c r="C626" t="s">
+        <v>77</v>
+      </c>
+      <c r="D626">
+        <v>7.649</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J626">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10">
+      <c r="A627">
+        <v>29</v>
+      </c>
+      <c r="B627" t="s">
+        <v>81</v>
+      </c>
+      <c r="C627" t="s">
+        <v>4</v>
+      </c>
+      <c r="D627">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J627">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10">
+      <c r="A628">
+        <v>30</v>
+      </c>
+      <c r="B628" t="s">
+        <v>81</v>
+      </c>
+      <c r="C628" t="s">
+        <v>4</v>
+      </c>
+      <c r="D628">
+        <v>6.4530000000000003</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J628">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10">
+      <c r="A629">
+        <v>31</v>
+      </c>
+      <c r="B629" t="s">
+        <v>81</v>
+      </c>
+      <c r="C629" t="s">
+        <v>13</v>
+      </c>
+      <c r="D629">
+        <v>10.736000000000001</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J629">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10">
+      <c r="A630">
+        <v>32</v>
+      </c>
+      <c r="B630" t="s">
+        <v>81</v>
+      </c>
+      <c r="C630" t="s">
+        <v>5</v>
+      </c>
+      <c r="D630">
+        <v>11.718</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J630">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10">
+      <c r="A631">
+        <v>33</v>
+      </c>
+      <c r="B631" t="s">
+        <v>81</v>
+      </c>
+      <c r="C631" t="s">
+        <v>5</v>
+      </c>
+      <c r="D631">
+        <v>11.811</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J631">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10">
+      <c r="A632">
+        <v>34</v>
+      </c>
+      <c r="B632" t="s">
+        <v>81</v>
+      </c>
+      <c r="C632" t="s">
+        <v>4</v>
+      </c>
+      <c r="D632">
+        <v>6.5839999999999996</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J632">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10">
+      <c r="A633">
+        <v>35</v>
+      </c>
+      <c r="B633" t="s">
+        <v>81</v>
+      </c>
+      <c r="C633" t="s">
+        <v>5</v>
+      </c>
+      <c r="D633">
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J633">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10">
+      <c r="A634">
+        <v>36</v>
+      </c>
+      <c r="B634" t="s">
+        <v>81</v>
+      </c>
+      <c r="C634" t="s">
+        <v>77</v>
+      </c>
+      <c r="D634">
+        <v>8.0449999999999999</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J634">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10">
+      <c r="A635">
+        <v>37</v>
+      </c>
+      <c r="B635" t="s">
+        <v>81</v>
+      </c>
+      <c r="C635" t="s">
+        <v>5</v>
+      </c>
+      <c r="D635">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J635">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10">
+      <c r="A636">
+        <v>38</v>
+      </c>
+      <c r="B636" t="s">
+        <v>81</v>
+      </c>
+      <c r="C636" t="s">
+        <v>4</v>
+      </c>
+      <c r="D636">
+        <v>6.8570000000000002</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J636">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10">
+      <c r="A637">
+        <v>39</v>
+      </c>
+      <c r="B637" t="s">
+        <v>81</v>
+      </c>
+      <c r="C637" t="s">
+        <v>5</v>
+      </c>
+      <c r="D637">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J637">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10">
+      <c r="A638">
+        <v>40</v>
+      </c>
+      <c r="B638" t="s">
+        <v>81</v>
+      </c>
+      <c r="C638" t="s">
+        <v>77</v>
+      </c>
+      <c r="D638">
+        <v>8.343</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J638">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10">
+      <c r="A639">
+        <v>41</v>
+      </c>
+      <c r="B639" t="s">
+        <v>81</v>
+      </c>
+      <c r="C639" t="s">
+        <v>4</v>
+      </c>
+      <c r="D639">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J639">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10">
+      <c r="A640">
+        <v>42</v>
+      </c>
+      <c r="B640" t="s">
+        <v>81</v>
+      </c>
+      <c r="C640" t="s">
+        <v>5</v>
+      </c>
+      <c r="D640">
+        <v>6.734</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J640">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10">
+      <c r="A641">
+        <v>43</v>
+      </c>
+      <c r="B641" t="s">
+        <v>81</v>
+      </c>
+      <c r="C641" t="s">
+        <v>4</v>
+      </c>
+      <c r="D641">
+        <v>6.6680000000000001</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J641">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10">
+      <c r="A642">
+        <v>44</v>
+      </c>
+      <c r="B642" t="s">
+        <v>81</v>
+      </c>
+      <c r="C642" t="s">
+        <v>5</v>
+      </c>
+      <c r="D642">
+        <v>9.83</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J642">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10">
+      <c r="A643">
+        <v>45</v>
+      </c>
+      <c r="B643" t="s">
+        <v>81</v>
+      </c>
+      <c r="C643" t="s">
+        <v>5</v>
+      </c>
+      <c r="D643">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J643">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10">
+      <c r="A644">
+        <v>46</v>
+      </c>
+      <c r="B644" t="s">
+        <v>81</v>
+      </c>
+      <c r="C644" t="s">
+        <v>5</v>
+      </c>
+      <c r="D644">
+        <v>3.476</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J644">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10">
+      <c r="A645">
+        <v>47</v>
+      </c>
+      <c r="B645" t="s">
+        <v>81</v>
+      </c>
+      <c r="C645" t="s">
+        <v>5</v>
+      </c>
+      <c r="D645">
+        <v>6.3129999999999997</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J645">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10">
+      <c r="A646">
+        <v>48</v>
+      </c>
+      <c r="B646" t="s">
+        <v>81</v>
+      </c>
+      <c r="C646" t="s">
+        <v>4</v>
+      </c>
+      <c r="D646">
+        <v>5.27</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J646">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10">
+      <c r="A647">
+        <v>49</v>
+      </c>
+      <c r="B647" t="s">
+        <v>81</v>
+      </c>
+      <c r="C647" t="s">
+        <v>77</v>
+      </c>
+      <c r="D647">
+        <v>10.347</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J647">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10">
+      <c r="A648">
+        <v>50</v>
+      </c>
+      <c r="B648" t="s">
+        <v>81</v>
+      </c>
+      <c r="C648" t="s">
+        <v>5</v>
+      </c>
+      <c r="D648">
+        <v>10.6</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J648">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10">
+      <c r="A649">
+        <v>51</v>
+      </c>
+      <c r="B649" t="s">
+        <v>81</v>
+      </c>
+      <c r="C649" t="s">
+        <v>4</v>
+      </c>
+      <c r="D649">
+        <v>6.3879999999999999</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H649" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J649">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10">
+      <c r="A650">
+        <v>52</v>
+      </c>
+      <c r="B650" t="s">
+        <v>81</v>
+      </c>
+      <c r="C650" t="s">
+        <v>4</v>
+      </c>
+      <c r="D650">
+        <v>11.221</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J650">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10">
+      <c r="A651">
+        <v>53</v>
+      </c>
+      <c r="B651" t="s">
+        <v>81</v>
+      </c>
+      <c r="C651" t="s">
+        <v>5</v>
+      </c>
+      <c r="D651">
+        <v>6.9130000000000003</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J651">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10">
+      <c r="A652">
+        <v>54</v>
+      </c>
+      <c r="B652" t="s">
+        <v>81</v>
+      </c>
+      <c r="C652" t="s">
+        <v>4</v>
+      </c>
+      <c r="D652">
+        <v>8.4649999999999999</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J652">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10">
+      <c r="A653">
+        <v>55</v>
+      </c>
+      <c r="B653" t="s">
+        <v>81</v>
+      </c>
+      <c r="C653" t="s">
+        <v>4</v>
+      </c>
+      <c r="D653">
+        <v>5.61</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J653">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10">
+      <c r="A654">
+        <v>56</v>
+      </c>
+      <c r="B654" t="s">
+        <v>81</v>
+      </c>
+      <c r="C654" t="s">
+        <v>77</v>
+      </c>
+      <c r="D654">
+        <v>6.3049999999999997</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H654" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J654">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10">
+      <c r="A655">
+        <v>57</v>
+      </c>
+      <c r="B655" t="s">
+        <v>81</v>
+      </c>
+      <c r="C655" t="s">
+        <v>5</v>
+      </c>
+      <c r="D655">
+        <v>5.9450000000000003</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H655" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J655">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10">
+      <c r="A656">
+        <v>58</v>
+      </c>
+      <c r="B656" t="s">
+        <v>81</v>
+      </c>
+      <c r="C656" t="s">
+        <v>4</v>
+      </c>
+      <c r="D656">
+        <v>5.2460000000000004</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H656" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J656">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10">
+      <c r="A657">
+        <v>59</v>
+      </c>
+      <c r="B657" t="s">
+        <v>81</v>
+      </c>
+      <c r="C657" t="s">
+        <v>5</v>
+      </c>
+      <c r="D657">
+        <v>5.8680000000000003</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H657" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J657">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10">
+      <c r="A658">
+        <v>60</v>
+      </c>
+      <c r="B658" t="s">
+        <v>81</v>
+      </c>
+      <c r="C658" t="s">
+        <v>77</v>
+      </c>
+      <c r="D658">
+        <v>7.6319999999999997</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H658" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J658">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10">
+      <c r="A659">
+        <v>61</v>
+      </c>
+      <c r="B659" t="s">
+        <v>81</v>
+      </c>
+      <c r="C659" t="s">
+        <v>4</v>
+      </c>
+      <c r="D659">
+        <v>7.4320000000000004</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H659" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J659">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10">
+      <c r="A660">
+        <v>62</v>
+      </c>
+      <c r="B660" t="s">
+        <v>81</v>
+      </c>
+      <c r="C660" t="s">
+        <v>5</v>
+      </c>
+      <c r="D660">
+        <v>5.9050000000000002</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J660">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10">
+      <c r="A661">
+        <v>63</v>
+      </c>
+      <c r="B661" t="s">
+        <v>81</v>
+      </c>
+      <c r="C661" t="s">
+        <v>5</v>
+      </c>
+      <c r="D661">
+        <v>7.1040000000000001</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H661" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J661">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10">
+      <c r="A662">
+        <v>64</v>
+      </c>
+      <c r="B662" t="s">
+        <v>81</v>
+      </c>
+      <c r="C662" t="s">
+        <v>77</v>
+      </c>
+      <c r="D662">
+        <v>11.661</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J662">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10">
+      <c r="A663">
+        <v>65</v>
+      </c>
+      <c r="B663" t="s">
+        <v>81</v>
+      </c>
+      <c r="C663" t="s">
+        <v>5</v>
+      </c>
+      <c r="D663">
+        <v>6.984</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H663" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J663">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10">
+      <c r="A664">
+        <v>66</v>
+      </c>
+      <c r="B664" t="s">
+        <v>81</v>
+      </c>
+      <c r="C664" t="s">
+        <v>5</v>
+      </c>
+      <c r="D664">
+        <v>5.66</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H664" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J664">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10">
+      <c r="A665">
+        <v>67</v>
+      </c>
+      <c r="B665" t="s">
+        <v>81</v>
+      </c>
+      <c r="C665" t="s">
+        <v>4</v>
+      </c>
+      <c r="D665">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G665" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H665" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J665">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10">
+      <c r="A666">
+        <v>68</v>
+      </c>
+      <c r="B666" t="s">
+        <v>81</v>
+      </c>
+      <c r="C666" t="s">
+        <v>77</v>
+      </c>
+      <c r="D666">
+        <v>10.933</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G666" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H666" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J666">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10">
+      <c r="A667">
+        <v>69</v>
+      </c>
+      <c r="B667" t="s">
+        <v>81</v>
+      </c>
+      <c r="C667" t="s">
+        <v>5</v>
+      </c>
+      <c r="D667">
+        <v>5.5110000000000001</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G667" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H667" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J667">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10">
+      <c r="A668">
+        <v>70</v>
+      </c>
+      <c r="B668" t="s">
+        <v>81</v>
+      </c>
+      <c r="C668" t="s">
+        <v>4</v>
+      </c>
+      <c r="D668">
+        <v>8.5969999999999995</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G668" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H668" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J668">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10">
+      <c r="A669">
+        <v>71</v>
+      </c>
+      <c r="B669" t="s">
+        <v>81</v>
+      </c>
+      <c r="C669" t="s">
+        <v>5</v>
+      </c>
+      <c r="D669">
+        <v>7.1559999999999997</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G669" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H669" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J669">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10">
+      <c r="A670">
+        <v>72</v>
+      </c>
+      <c r="B670" t="s">
+        <v>81</v>
+      </c>
+      <c r="C670" t="s">
+        <v>4</v>
+      </c>
+      <c r="D670">
+        <v>6.3710000000000004</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G670" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H670" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J670">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10">
+      <c r="A671">
+        <v>73</v>
+      </c>
+      <c r="B671" t="s">
+        <v>81</v>
+      </c>
+      <c r="C671" t="s">
+        <v>4</v>
+      </c>
+      <c r="D671">
+        <v>5.4589999999999996</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H671" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J671">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10">
+      <c r="A672">
+        <v>74</v>
+      </c>
+      <c r="B672" t="s">
+        <v>81</v>
+      </c>
+      <c r="C672" t="s">
+        <v>4</v>
+      </c>
+      <c r="D672">
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H672" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J672">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10">
+      <c r="A673">
+        <v>75</v>
+      </c>
+      <c r="B673" t="s">
+        <v>81</v>
+      </c>
+      <c r="C673" t="s">
+        <v>5</v>
+      </c>
+      <c r="D673">
+        <v>9.26</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J673">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10">
+      <c r="A674">
+        <v>76</v>
+      </c>
+      <c r="B674" t="s">
+        <v>81</v>
+      </c>
+      <c r="C674" t="s">
+        <v>5</v>
+      </c>
+      <c r="D674">
+        <v>9.19</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J674">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10">
+      <c r="A675">
+        <v>77</v>
+      </c>
+      <c r="B675" t="s">
+        <v>81</v>
+      </c>
+      <c r="C675" t="s">
+        <v>4</v>
+      </c>
+      <c r="D675">
+        <v>5.3979999999999997</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H675" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J675">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10">
+      <c r="A676">
+        <v>78</v>
+      </c>
+      <c r="B676" t="s">
+        <v>81</v>
+      </c>
+      <c r="C676" t="s">
+        <v>78</v>
+      </c>
+      <c r="D676" t="s">
+        <v>102</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H676" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J676">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10">
+      <c r="A677">
+        <v>79</v>
+      </c>
+      <c r="B677" t="s">
+        <v>81</v>
+      </c>
+      <c r="C677" t="s">
+        <v>78</v>
+      </c>
+      <c r="E677" s="8">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J677">
+        <v>6262</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15880" yWindow="160" windowWidth="29880" windowHeight="27680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16980" yWindow="0" windowWidth="29880" windowHeight="27680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6113" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7052" uniqueCount="124">
   <si>
     <t>Site</t>
   </si>
@@ -389,6 +389,18 @@
   <si>
     <t>dark</t>
   </si>
+  <si>
+    <t>notes say to skip marker 28;  problems with injection</t>
+  </si>
+  <si>
+    <t>missing pupae</t>
+  </si>
+  <si>
+    <t>smashed;  removed</t>
+  </si>
+  <si>
+    <t>missing pupae; removed</t>
+  </si>
 </sst>
 </file>
 
@@ -454,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -462,8 +474,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -683,8 +704,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -727,8 +762,16 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -838,6 +881,13 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -947,6 +997,13 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1214,7 +1271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1227,8 +1284,8 @@
   </sheetPr>
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD105"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5590,11 +5647,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S827"/>
+  <dimension ref="A1:S981"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A213" sqref="A213:XFD213"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15399,7 +15456,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:18">
       <c r="A209">
         <v>56</v>
       </c>
@@ -15446,7 +15503,7 @@
         <v>0.11021930000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:18">
       <c r="A210">
         <v>57</v>
       </c>
@@ -15493,7 +15550,7 @@
         <v>0.12789130000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:18">
       <c r="A211">
         <v>58</v>
       </c>
@@ -15534,7 +15591,7 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:18">
       <c r="A212">
         <v>59</v>
       </c>
@@ -15572,41 +15629,57 @@
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
-      <c r="A213">
+    <row r="213" spans="1:18" s="18" customFormat="1">
+      <c r="A213" s="18">
         <v>1</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C213" t="s">
-        <v>4</v>
-      </c>
-      <c r="D213">
+      <c r="C213" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" s="18">
         <v>8.0760000000000005</v>
       </c>
-      <c r="E213" s="8">
+      <c r="E213" s="19">
         <v>0.55277777777777781</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="H213" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I213" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J213">
+      <c r="I213" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J213" s="18">
         <v>6262</v>
       </c>
-      <c r="K213" s="16"/>
-      <c r="L213" s="17"/>
-    </row>
-    <row r="214" spans="1:16">
+      <c r="K213" s="21">
+        <v>0.3835069444444445</v>
+      </c>
+      <c r="L213" s="18">
+        <v>0.1046098</v>
+      </c>
+      <c r="M213" s="18">
+        <v>7.524</v>
+      </c>
+      <c r="N213" s="19">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="O213" s="21">
+        <v>0.55975694444444446</v>
+      </c>
+      <c r="P213" s="22">
+        <v>6.9900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18">
       <c r="A214">
         <v>2</v>
       </c>
@@ -15634,8 +15707,23 @@
       <c r="J214">
         <v>6262</v>
       </c>
-    </row>
-    <row r="215" spans="1:16">
+      <c r="K214" s="16">
+        <v>0.38439814814814816</v>
+      </c>
+      <c r="L214">
+        <v>0.61007169999999999</v>
+      </c>
+      <c r="O214" s="16">
+        <v>0.56070601851851853</v>
+      </c>
+      <c r="P214">
+        <v>0.1043317</v>
+      </c>
+      <c r="R214" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215">
         <v>3</v>
       </c>
@@ -15663,8 +15751,23 @@
       <c r="J215">
         <v>6262</v>
       </c>
-    </row>
-    <row r="216" spans="1:16">
+      <c r="K215" s="16">
+        <v>0.38538194444444446</v>
+      </c>
+      <c r="L215">
+        <v>8.3168800000000001E-2</v>
+      </c>
+      <c r="M215">
+        <v>8.5380000000000003</v>
+      </c>
+      <c r="O215" s="16">
+        <v>0.56163194444444442</v>
+      </c>
+      <c r="P215">
+        <v>0.1235798</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18">
       <c r="A216">
         <v>4</v>
       </c>
@@ -15692,8 +15795,23 @@
       <c r="J216">
         <v>6262</v>
       </c>
-    </row>
-    <row r="217" spans="1:16">
+      <c r="K216" s="16">
+        <v>0.38623842592592594</v>
+      </c>
+      <c r="L216">
+        <v>0.18042830000000001</v>
+      </c>
+      <c r="M216">
+        <v>7.9870000000000001</v>
+      </c>
+      <c r="O216" s="16">
+        <v>0.56256944444444446</v>
+      </c>
+      <c r="P216">
+        <v>0.96288309999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217">
         <v>5</v>
       </c>
@@ -15721,8 +15839,23 @@
       <c r="J217">
         <v>6262</v>
       </c>
-    </row>
-    <row r="218" spans="1:16">
+      <c r="K217" s="16">
+        <v>0.38707175925925924</v>
+      </c>
+      <c r="L217">
+        <v>1.244764</v>
+      </c>
+      <c r="M217">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="O217" s="16">
+        <v>0.5634837962962963</v>
+      </c>
+      <c r="P217">
+        <v>0.3804671</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18">
       <c r="A218">
         <v>6</v>
       </c>
@@ -15750,8 +15883,23 @@
       <c r="J218">
         <v>6262</v>
       </c>
-    </row>
-    <row r="219" spans="1:16">
+      <c r="K218" s="16">
+        <v>0.38811342592592596</v>
+      </c>
+      <c r="L218">
+        <v>1.2906329999999999</v>
+      </c>
+      <c r="M218">
+        <v>5.2839999999999998</v>
+      </c>
+      <c r="O218" s="16">
+        <v>0.56444444444444442</v>
+      </c>
+      <c r="P218">
+        <v>1.2947090000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219">
         <v>7</v>
       </c>
@@ -15779,8 +15927,23 @@
       <c r="J219">
         <v>6262</v>
       </c>
-    </row>
-    <row r="220" spans="1:16">
+      <c r="K219" s="16">
+        <v>0.38921296296296298</v>
+      </c>
+      <c r="L219">
+        <v>1.7901879999999999</v>
+      </c>
+      <c r="M219">
+        <v>10.103999999999999</v>
+      </c>
+      <c r="O219" s="16">
+        <v>0.56528935185185192</v>
+      </c>
+      <c r="P219">
+        <v>0.96996369999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18">
       <c r="A220">
         <v>8</v>
       </c>
@@ -15808,8 +15971,23 @@
       <c r="J220">
         <v>6262</v>
       </c>
-    </row>
-    <row r="221" spans="1:16">
+      <c r="K220" s="16">
+        <v>0.39034722222222223</v>
+      </c>
+      <c r="L220">
+        <v>1.4202760000000001</v>
+      </c>
+      <c r="M220">
+        <v>5.7160000000000002</v>
+      </c>
+      <c r="O220" s="16">
+        <v>0.56614583333333335</v>
+      </c>
+      <c r="P220">
+        <v>1.0026969999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18">
       <c r="A221">
         <v>9</v>
       </c>
@@ -15837,8 +16015,23 @@
       <c r="J221">
         <v>6262</v>
       </c>
-    </row>
-    <row r="222" spans="1:16">
+      <c r="K221" s="16">
+        <v>0.39141203703703703</v>
+      </c>
+      <c r="L221">
+        <v>1.2173849999999999</v>
+      </c>
+      <c r="M221">
+        <v>8.2159999999999993</v>
+      </c>
+      <c r="O221" s="16">
+        <v>0.56696759259259266</v>
+      </c>
+      <c r="P221">
+        <v>0.10616589999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222">
         <v>10</v>
       </c>
@@ -15866,8 +16059,23 @@
       <c r="J222">
         <v>6262</v>
       </c>
-    </row>
-    <row r="223" spans="1:16">
+      <c r="K222" s="16">
+        <v>0.39241898148148152</v>
+      </c>
+      <c r="L222">
+        <v>0.50072709999999998</v>
+      </c>
+      <c r="M222">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="O222" s="16">
+        <v>0.56809027777777776</v>
+      </c>
+      <c r="P222" s="17">
+        <v>8.7099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223">
         <v>11</v>
       </c>
@@ -15895,8 +16103,23 @@
       <c r="J223">
         <v>6262</v>
       </c>
-    </row>
-    <row r="224" spans="1:16">
+      <c r="K223" s="16">
+        <v>0.3933680555555556</v>
+      </c>
+      <c r="L223">
+        <v>0.1676801</v>
+      </c>
+      <c r="M223">
+        <v>8.5909999999999993</v>
+      </c>
+      <c r="O223" s="16">
+        <v>0.56883101851851847</v>
+      </c>
+      <c r="P223">
+        <v>0.10784829999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18">
       <c r="A224">
         <v>12</v>
       </c>
@@ -15924,8 +16147,23 @@
       <c r="J224">
         <v>6262</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224" s="16">
+        <v>0.39417824074074076</v>
+      </c>
+      <c r="L224">
+        <v>0.13238659999999999</v>
+      </c>
+      <c r="M224">
+        <v>5.6</v>
+      </c>
+      <c r="O224" s="16">
+        <v>0.5696296296296296</v>
+      </c>
+      <c r="P224">
+        <v>1.000737</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225">
         <v>13</v>
       </c>
@@ -15953,8 +16191,23 @@
       <c r="J225">
         <v>6262</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225" s="16">
+        <v>0.39496527777777773</v>
+      </c>
+      <c r="L225">
+        <v>1.244359</v>
+      </c>
+      <c r="M225">
+        <v>6.6260000000000003</v>
+      </c>
+      <c r="O225" s="16">
+        <v>0.57048611111111114</v>
+      </c>
+      <c r="P225">
+        <v>4.4540299999999998E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226">
         <v>14</v>
       </c>
@@ -15982,8 +16235,23 @@
       <c r="J226">
         <v>6262</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226" s="16">
+        <v>0.39590277777777777</v>
+      </c>
+      <c r="L226">
+        <v>0.2335564</v>
+      </c>
+      <c r="M226">
+        <v>6.7569999999999997</v>
+      </c>
+      <c r="O226" s="16">
+        <v>0.57138888888888884</v>
+      </c>
+      <c r="P226" s="17">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227">
         <v>15</v>
       </c>
@@ -16011,8 +16279,23 @@
       <c r="J227">
         <v>6262</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227" s="16">
+        <v>0.39681712962962962</v>
+      </c>
+      <c r="L227">
+        <v>0.12456739999999999</v>
+      </c>
+      <c r="M227">
+        <v>5.9930000000000003</v>
+      </c>
+      <c r="O227" s="16">
+        <v>0.57212962962962965</v>
+      </c>
+      <c r="P227">
+        <v>1.3005530000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18">
       <c r="A228">
         <v>16</v>
       </c>
@@ -16040,8 +16323,23 @@
       <c r="J228">
         <v>6262</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228" s="16">
+        <v>0.39777777777777779</v>
+      </c>
+      <c r="L228">
+        <v>1.6244719999999999</v>
+      </c>
+      <c r="M228">
+        <v>10.51</v>
+      </c>
+      <c r="O228" s="16">
+        <v>0.57302083333333331</v>
+      </c>
+      <c r="P228">
+        <v>0.63869350000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229">
         <v>17</v>
       </c>
@@ -16069,8 +16367,23 @@
       <c r="J229">
         <v>6262</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229" s="16">
+        <v>0.39883101851851849</v>
+      </c>
+      <c r="L229">
+        <v>0.8524294</v>
+      </c>
+      <c r="M229">
+        <v>6.0570000000000004</v>
+      </c>
+      <c r="O229" s="16">
+        <v>0.57381944444444444</v>
+      </c>
+      <c r="P229">
+        <v>0.1043842</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18">
       <c r="A230">
         <v>18</v>
       </c>
@@ -16098,8 +16411,23 @@
       <c r="J230">
         <v>6262</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230" s="16">
+        <v>0.39981481481481485</v>
+      </c>
+      <c r="L230">
+        <v>0.17567920000000001</v>
+      </c>
+      <c r="M230">
+        <v>8.1539999999999999</v>
+      </c>
+      <c r="O230" s="16">
+        <v>0.57469907407407406</v>
+      </c>
+      <c r="P230">
+        <v>0.94555979999999995</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231">
         <v>19</v>
       </c>
@@ -16127,8 +16455,23 @@
       <c r="J231">
         <v>6262</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231" s="16">
+        <v>0.40072916666666664</v>
+      </c>
+      <c r="L231">
+        <v>1.2317819999999999</v>
+      </c>
+      <c r="M231">
+        <v>7.5919999999999996</v>
+      </c>
+      <c r="O231" s="16">
+        <v>0.57557870370370368</v>
+      </c>
+      <c r="P231" s="17">
+        <v>7.7100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232">
         <v>20</v>
       </c>
@@ -16156,8 +16499,23 @@
       <c r="J232">
         <v>6262</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232" s="16">
+        <v>0.40178240740740739</v>
+      </c>
+      <c r="L232">
+        <v>0.14858969999999999</v>
+      </c>
+      <c r="M232">
+        <v>6.931</v>
+      </c>
+      <c r="O232" s="16">
+        <v>0.57648148148148148</v>
+      </c>
+      <c r="P232">
+        <v>1.282438</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18">
       <c r="A233">
         <v>21</v>
       </c>
@@ -16185,8 +16543,23 @@
       <c r="J233">
         <v>6262</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233" s="16">
+        <v>0.40271990740740743</v>
+      </c>
+      <c r="L233">
+        <v>1.6845619999999999</v>
+      </c>
+      <c r="M233">
+        <v>10.385999999999999</v>
+      </c>
+      <c r="O233" s="16">
+        <v>0.57730324074074069</v>
+      </c>
+      <c r="P233" s="17">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18">
       <c r="A234">
         <v>22</v>
       </c>
@@ -16214,8 +16587,23 @@
       <c r="J234">
         <v>6262</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234" s="16">
+        <v>0.40390046296296295</v>
+      </c>
+      <c r="L234" s="17">
+        <v>3.699794E-2</v>
+      </c>
+      <c r="M234">
+        <v>7.3280000000000003</v>
+      </c>
+      <c r="O234" s="16">
+        <v>0.57822916666666668</v>
+      </c>
+      <c r="P234" s="17">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18">
       <c r="A235">
         <v>23</v>
       </c>
@@ -16243,8 +16631,23 @@
       <c r="J235">
         <v>6262</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235" s="16">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="L235">
+        <v>0.1211116</v>
+      </c>
+      <c r="M235">
+        <v>5.9690000000000003</v>
+      </c>
+      <c r="O235" s="16">
+        <v>0.57922453703703702</v>
+      </c>
+      <c r="P235" s="17">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236">
         <v>24</v>
       </c>
@@ -16272,8 +16675,23 @@
       <c r="J236">
         <v>6262</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236" s="16">
+        <v>0.40589120370370368</v>
+      </c>
+      <c r="L236">
+        <v>0.20462759999999999</v>
+      </c>
+      <c r="M236">
+        <v>7.1589999999999998</v>
+      </c>
+      <c r="O236" s="16">
+        <v>0.57995370370370369</v>
+      </c>
+      <c r="P236" s="17">
+        <v>7.5399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18">
       <c r="A237">
         <v>25</v>
       </c>
@@ -16301,8 +16719,23 @@
       <c r="J237">
         <v>6262</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237" s="16">
+        <v>0.40675925925925926</v>
+      </c>
+      <c r="L237">
+        <v>0.1784057</v>
+      </c>
+      <c r="M237">
+        <v>8.4890000000000008</v>
+      </c>
+      <c r="O237" s="16">
+        <v>0.58075231481481482</v>
+      </c>
+      <c r="P237">
+        <v>0.55755310000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18">
       <c r="A238">
         <v>26</v>
       </c>
@@ -16330,8 +16763,23 @@
       <c r="J238">
         <v>6262</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238" s="16">
+        <v>0.40760416666666671</v>
+      </c>
+      <c r="L238">
+        <v>1.89636</v>
+      </c>
+      <c r="M238">
+        <v>7.798</v>
+      </c>
+      <c r="O238" s="16">
+        <v>0.58156249999999998</v>
+      </c>
+      <c r="P238" s="17">
+        <v>4.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18">
       <c r="A239">
         <v>27</v>
       </c>
@@ -16359,8 +16807,23 @@
       <c r="J239">
         <v>6262</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239" s="16">
+        <v>0.40909722222222222</v>
+      </c>
+      <c r="L239">
+        <v>0.1370084</v>
+      </c>
+      <c r="M239">
+        <v>8.3780000000000001</v>
+      </c>
+      <c r="O239" s="16">
+        <v>0.5823842592592593</v>
+      </c>
+      <c r="P239" s="17">
+        <v>5.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18">
       <c r="A240">
         <v>28</v>
       </c>
@@ -16388,8 +16851,26 @@
       <c r="J240">
         <v>6262</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240" s="16">
+        <v>0.41005787037037034</v>
+      </c>
+      <c r="L240">
+        <v>0.1058031</v>
+      </c>
+      <c r="M240">
+        <v>5.6840000000000002</v>
+      </c>
+      <c r="O240" s="16">
+        <v>0.58313657407407404</v>
+      </c>
+      <c r="P240" s="17">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="R240" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18">
       <c r="A241">
         <v>29</v>
       </c>
@@ -16417,8 +16898,23 @@
       <c r="J241">
         <v>6262</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241" s="16">
+        <v>0.41100694444444441</v>
+      </c>
+      <c r="L241">
+        <v>0.16116800000000001</v>
+      </c>
+      <c r="M241">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="O241" s="16">
+        <v>0.58403935185185185</v>
+      </c>
+      <c r="P241">
+        <v>0.1219963</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242">
         <v>30</v>
       </c>
@@ -16446,8 +16942,18 @@
       <c r="J242">
         <v>6262</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242" s="16">
+        <v>0.4120138888888889</v>
+      </c>
+      <c r="L242">
+        <v>0.1625316</v>
+      </c>
+      <c r="O242" s="16"/>
+      <c r="R242" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243">
         <v>31</v>
       </c>
@@ -16475,8 +16981,23 @@
       <c r="J243">
         <v>6262</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243" s="16">
+        <v>0.4130671296296296</v>
+      </c>
+      <c r="L243" s="17">
+        <v>6.4154290000000003E-2</v>
+      </c>
+      <c r="M243">
+        <v>4.609</v>
+      </c>
+      <c r="O243" s="16">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="P243" s="17">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18">
       <c r="A244">
         <v>32</v>
       </c>
@@ -16504,8 +17025,23 @@
       <c r="J244">
         <v>6262</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244" s="16">
+        <v>0.4138310185185185</v>
+      </c>
+      <c r="L244">
+        <v>1.1656489999999999</v>
+      </c>
+      <c r="M244">
+        <v>6.992</v>
+      </c>
+      <c r="O244" s="16">
+        <v>0.58585648148148151</v>
+      </c>
+      <c r="P244">
+        <v>0.85101309999999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18">
       <c r="A245">
         <v>33</v>
       </c>
@@ -16533,8 +17069,23 @@
       <c r="J245">
         <v>6262</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245" s="16">
+        <v>0.41482638888888884</v>
+      </c>
+      <c r="L245">
+        <v>0.1882105</v>
+      </c>
+      <c r="M245">
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="O245" s="16">
+        <v>0.58664351851851848</v>
+      </c>
+      <c r="P245">
+        <v>0.1014818</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246">
         <v>34</v>
       </c>
@@ -16562,8 +17113,23 @@
       <c r="J246">
         <v>6262</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246" s="16">
+        <v>0.4157986111111111</v>
+      </c>
+      <c r="L246" s="17">
+        <v>5.7021330000000002E-2</v>
+      </c>
+      <c r="M246">
+        <v>4.6180000000000003</v>
+      </c>
+      <c r="O246" s="16">
+        <v>0.58743055555555557</v>
+      </c>
+      <c r="P246" s="17">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18">
       <c r="A247">
         <v>35</v>
       </c>
@@ -16591,8 +17157,23 @@
       <c r="J247">
         <v>6262</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247" s="16">
+        <v>0.41668981481481482</v>
+      </c>
+      <c r="L247">
+        <v>0.47389110000000001</v>
+      </c>
+      <c r="M247">
+        <v>7.5780000000000003</v>
+      </c>
+      <c r="O247" s="16">
+        <v>0.58815972222222224</v>
+      </c>
+      <c r="P247">
+        <v>0.2867093</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18">
       <c r="A248">
         <v>36</v>
       </c>
@@ -16620,8 +17201,23 @@
       <c r="J248">
         <v>6262</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248" s="16">
+        <v>0.41753472222222227</v>
+      </c>
+      <c r="L248">
+        <v>0.2101363</v>
+      </c>
+      <c r="M248">
+        <v>6.7720000000000002</v>
+      </c>
+      <c r="O248" s="16">
+        <v>0.58901620370370367</v>
+      </c>
+      <c r="P248">
+        <v>0.1070328</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18">
       <c r="A249">
         <v>37</v>
       </c>
@@ -16649,8 +17245,23 @@
       <c r="J249">
         <v>6262</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249" s="16">
+        <v>0.41840277777777773</v>
+      </c>
+      <c r="L249">
+        <v>0.11394219999999999</v>
+      </c>
+      <c r="M249">
+        <v>6.0679999999999996</v>
+      </c>
+      <c r="O249" s="16">
+        <v>0.58980324074074075</v>
+      </c>
+      <c r="P249" s="17">
+        <v>6.4699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250">
         <v>38</v>
       </c>
@@ -16678,8 +17289,22 @@
       <c r="J250">
         <v>6262</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250" s="16">
+        <v>0.41918981481481482</v>
+      </c>
+      <c r="L250">
+        <v>0.39535900000000002</v>
+      </c>
+      <c r="M250">
+        <v>3.895</v>
+      </c>
+      <c r="O250" s="16"/>
+      <c r="P250" s="17"/>
+      <c r="R250" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18">
       <c r="A251">
         <v>39</v>
       </c>
@@ -16707,8 +17332,23 @@
       <c r="J251">
         <v>6262</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251" s="16">
+        <v>0.42005787037037035</v>
+      </c>
+      <c r="L251">
+        <v>0.26357079999999999</v>
+      </c>
+      <c r="M251">
+        <v>10.385999999999999</v>
+      </c>
+      <c r="O251" s="16">
+        <v>0.59054398148148146</v>
+      </c>
+      <c r="P251">
+        <v>0.13494610000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
       <c r="A252">
         <v>40</v>
       </c>
@@ -16736,8 +17376,23 @@
       <c r="J252">
         <v>6262</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252" s="16">
+        <v>0.4208796296296296</v>
+      </c>
+      <c r="L252">
+        <v>2.0947290000000001</v>
+      </c>
+      <c r="M252">
+        <v>6.476</v>
+      </c>
+      <c r="O252" s="16">
+        <v>0.59128472222222228</v>
+      </c>
+      <c r="P252">
+        <v>1.1155379999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
       <c r="A253">
         <v>41</v>
       </c>
@@ -16765,8 +17420,23 @@
       <c r="J253">
         <v>6262</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253" s="16">
+        <v>0.42190972222222217</v>
+      </c>
+      <c r="L253">
+        <v>0.15368299999999999</v>
+      </c>
+      <c r="M253">
+        <v>7.5430000000000001</v>
+      </c>
+      <c r="O253" s="16">
+        <v>0.59211805555555552</v>
+      </c>
+      <c r="P253" s="17">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254">
         <v>42</v>
       </c>
@@ -16794,8 +17464,23 @@
       <c r="J254">
         <v>6262</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254" s="16">
+        <v>0.4227083333333333</v>
+      </c>
+      <c r="L254">
+        <v>0.17512520000000001</v>
+      </c>
+      <c r="M254">
+        <v>6.2889999999999997</v>
+      </c>
+      <c r="O254" s="16">
+        <v>0.59282407407407411</v>
+      </c>
+      <c r="P254">
+        <v>6.6948300000000002E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255">
         <v>43</v>
       </c>
@@ -16823,8 +17508,23 @@
       <c r="J255">
         <v>6262</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255" s="16">
+        <v>0.42355324074074074</v>
+      </c>
+      <c r="L255">
+        <v>0.10204050000000001</v>
+      </c>
+      <c r="M255">
+        <v>6.8040000000000003</v>
+      </c>
+      <c r="O255" s="16">
+        <v>0.59347222222222229</v>
+      </c>
+      <c r="P255">
+        <v>7.7170799999999998E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18">
       <c r="A256">
         <v>44</v>
       </c>
@@ -16852,8 +17552,23 @@
       <c r="J256">
         <v>6262</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256" s="16">
+        <v>0.42443287037037036</v>
+      </c>
+      <c r="L256" s="17">
+        <v>9.8404560000000002E-2</v>
+      </c>
+      <c r="M256">
+        <v>7.7789999999999999</v>
+      </c>
+      <c r="O256" s="16">
+        <v>0.594212962962963</v>
+      </c>
+      <c r="P256" s="17">
+        <v>9.6199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257">
         <v>45</v>
       </c>
@@ -16881,8 +17596,23 @@
       <c r="J257">
         <v>6262</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257" s="16">
+        <v>0.42528935185185185</v>
+      </c>
+      <c r="L257">
+        <v>0.1214549</v>
+      </c>
+      <c r="M257">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="O257" s="16">
+        <v>0.59495370370370371</v>
+      </c>
+      <c r="P257" s="17">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258">
         <v>46</v>
       </c>
@@ -16910,8 +17640,23 @@
       <c r="J258">
         <v>6262</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258" s="16">
+        <v>0.42606481481481479</v>
+      </c>
+      <c r="L258">
+        <v>0.1859383</v>
+      </c>
+      <c r="M258">
+        <v>6.3410000000000002</v>
+      </c>
+      <c r="O258" s="16">
+        <v>0.5957986111111111</v>
+      </c>
+      <c r="P258" s="17">
+        <v>9.6600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259">
         <v>47</v>
       </c>
@@ -16939,8 +17684,19 @@
       <c r="J259">
         <v>6262</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259" s="16">
+        <v>0.4268055555555556</v>
+      </c>
+      <c r="L259">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="O259" s="16"/>
+      <c r="P259" s="17"/>
+      <c r="R259" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260">
         <v>48</v>
       </c>
@@ -16968,8 +17724,23 @@
       <c r="J260">
         <v>6262</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260" s="16">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="L260">
+        <v>0.13905899999999999</v>
+      </c>
+      <c r="M260">
+        <v>5.4480000000000004</v>
+      </c>
+      <c r="O260" s="16">
+        <v>0.59664351851851849</v>
+      </c>
+      <c r="P260">
+        <v>0.12652169999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
       <c r="A261">
         <v>49</v>
       </c>
@@ -16997,8 +17768,23 @@
       <c r="J261">
         <v>6262</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261" s="16">
+        <v>0.42834490740740744</v>
+      </c>
+      <c r="L261">
+        <v>0.11154020000000001</v>
+      </c>
+      <c r="M261">
+        <v>6.5529999999999999</v>
+      </c>
+      <c r="O261" s="16">
+        <v>0.59756944444444449</v>
+      </c>
+      <c r="P261" s="17">
+        <v>6.9500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18">
       <c r="A262">
         <v>50</v>
       </c>
@@ -17026,8 +17812,23 @@
       <c r="J262">
         <v>6262</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262" s="16">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="L262">
+        <v>0.1187005</v>
+      </c>
+      <c r="M262">
+        <v>7.9870000000000001</v>
+      </c>
+      <c r="O262" s="16">
+        <v>0.59846064814814814</v>
+      </c>
+      <c r="P262">
+        <v>7.7310500000000004E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
       <c r="A263">
         <v>51</v>
       </c>
@@ -17055,8 +17856,23 @@
       <c r="J263">
         <v>7000</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="L263">
+        <v>1.2861769999999999</v>
+      </c>
+      <c r="M263">
+        <v>5.6710000000000003</v>
+      </c>
+      <c r="O263" s="16">
+        <v>0.59932870370370372</v>
+      </c>
+      <c r="P263">
+        <v>0.57230990000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264">
         <v>52</v>
       </c>
@@ -17084,8 +17900,23 @@
       <c r="J264">
         <v>7000</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264" s="16">
+        <v>0.43104166666666671</v>
+      </c>
+      <c r="L264">
+        <v>1.221004</v>
+      </c>
+      <c r="M264">
+        <v>9.1310000000000002</v>
+      </c>
+      <c r="O264" s="16">
+        <v>0.60011574074074081</v>
+      </c>
+      <c r="P264" s="17">
+        <v>8.6300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
       <c r="A265">
         <v>53</v>
       </c>
@@ -17113,8 +17944,23 @@
       <c r="J265">
         <v>7000</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265" s="16">
+        <v>0.43200231481481483</v>
+      </c>
+      <c r="L265">
+        <v>0.1051074</v>
+      </c>
+      <c r="M265">
+        <v>11.734999999999999</v>
+      </c>
+      <c r="O265" s="16">
+        <v>0.60092592592592597</v>
+      </c>
+      <c r="P265">
+        <v>1.0067029999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266">
         <v>54</v>
       </c>
@@ -17142,8 +17988,23 @@
       <c r="J266">
         <v>7000</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266" s="16">
+        <v>0.43296296296296299</v>
+      </c>
+      <c r="L266">
+        <v>0.95360069999999997</v>
+      </c>
+      <c r="M266">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="O266" s="16">
+        <v>0.60177083333333337</v>
+      </c>
+      <c r="P266">
+        <v>0.2008924</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
       <c r="A267">
         <v>55</v>
       </c>
@@ -17171,8 +18032,23 @@
       <c r="J267">
         <v>7000</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267" s="16">
+        <v>0.43399305555555556</v>
+      </c>
+      <c r="L267">
+        <v>0.15803120000000001</v>
+      </c>
+      <c r="M267">
+        <v>5.8810000000000002</v>
+      </c>
+      <c r="O267" s="16">
+        <v>0.60248842592592589</v>
+      </c>
+      <c r="P267" s="17">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
       <c r="A268">
         <v>56</v>
       </c>
@@ -17200,8 +18076,23 @@
       <c r="J268">
         <v>7000</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268" s="16">
+        <v>0.43489583333333331</v>
+      </c>
+      <c r="L268">
+        <v>0.1384309</v>
+      </c>
+      <c r="M268">
+        <v>8.3650000000000002</v>
+      </c>
+      <c r="O268" s="16">
+        <v>0.60322916666666659</v>
+      </c>
+      <c r="P268" s="17">
+        <v>8.3699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
       <c r="A269">
         <v>57</v>
       </c>
@@ -17229,8 +18120,23 @@
       <c r="J269">
         <v>7000</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269" s="16">
+        <v>0.43584490740740739</v>
+      </c>
+      <c r="L269">
+        <v>0.15296360000000001</v>
+      </c>
+      <c r="M269">
+        <v>10.327</v>
+      </c>
+      <c r="O269" s="16">
+        <v>0.60409722222222217</v>
+      </c>
+      <c r="P269">
+        <v>0.1177217</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18">
       <c r="A270">
         <v>58</v>
       </c>
@@ -17258,8 +18164,23 @@
       <c r="J270">
         <v>7000</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270" s="16">
+        <v>0.4366666666666667</v>
+      </c>
+      <c r="L270">
+        <v>1.3420099999999999</v>
+      </c>
+      <c r="M270">
+        <v>8.0169999999999995</v>
+      </c>
+      <c r="O270" s="16">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="P270">
+        <v>1.110716</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18">
       <c r="A271">
         <v>59</v>
       </c>
@@ -17287,8 +18208,23 @@
       <c r="J271">
         <v>7000</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271" s="16">
+        <v>0.43763888888888891</v>
+      </c>
+      <c r="L271">
+        <v>0.81355750000000004</v>
+      </c>
+      <c r="M271">
+        <v>9.2959999999999994</v>
+      </c>
+      <c r="O271" s="16">
+        <v>0.60581018518518526</v>
+      </c>
+      <c r="P271" s="17">
+        <v>8.7900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18">
       <c r="A272">
         <v>60</v>
       </c>
@@ -17316,8 +18252,23 @@
       <c r="J272">
         <v>7000</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272" s="16">
+        <v>0.43857638888888889</v>
+      </c>
+      <c r="L272">
+        <v>0.1440515</v>
+      </c>
+      <c r="M272">
+        <v>5.63</v>
+      </c>
+      <c r="O272" s="16">
+        <v>0.60666666666666669</v>
+      </c>
+      <c r="P272">
+        <v>1.0483279999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
       <c r="A273">
         <v>61</v>
       </c>
@@ -17345,8 +18296,23 @@
       <c r="J273">
         <v>7000</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273" s="16">
+        <v>0.43935185185185183</v>
+      </c>
+      <c r="L273">
+        <v>1.243895</v>
+      </c>
+      <c r="M273">
+        <v>6.4</v>
+      </c>
+      <c r="O273" s="16">
+        <v>0.60743055555555558</v>
+      </c>
+      <c r="P273" s="17">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
       <c r="A274">
         <v>62</v>
       </c>
@@ -17374,8 +18340,26 @@
       <c r="J274">
         <v>7000</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274" s="16">
+        <v>0.44034722222222222</v>
+      </c>
+      <c r="L274">
+        <v>0.75992440000000006</v>
+      </c>
+      <c r="M274">
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="O274" s="16">
+        <v>0.60812500000000003</v>
+      </c>
+      <c r="P274" s="17">
+        <v>9.9600000000000001E-3</v>
+      </c>
+      <c r="R274" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
       <c r="A275">
         <v>63</v>
       </c>
@@ -17403,8 +18387,23 @@
       <c r="J275">
         <v>7000</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275" s="16">
+        <v>0.44254629629629627</v>
+      </c>
+      <c r="L275">
+        <v>0.2076498</v>
+      </c>
+      <c r="M275">
+        <v>3.8330000000000002</v>
+      </c>
+      <c r="O275" s="16">
+        <v>0.60901620370370368</v>
+      </c>
+      <c r="P275">
+        <v>0.18296799999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
       <c r="A276">
         <v>64</v>
       </c>
@@ -17432,8 +18431,23 @@
       <c r="J276">
         <v>7000</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276" s="16">
+        <v>0.44564814814814818</v>
+      </c>
+      <c r="L276">
+        <v>0.1249017</v>
+      </c>
+      <c r="M276">
+        <v>4.133</v>
+      </c>
+      <c r="O276" s="16">
+        <v>0.60987268518518511</v>
+      </c>
+      <c r="P276">
+        <v>0.1205975</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
       <c r="A277">
         <v>65</v>
       </c>
@@ -17461,8 +18475,23 @@
       <c r="J277">
         <v>7000</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277" s="16">
+        <v>0.44646990740740744</v>
+      </c>
+      <c r="L277">
+        <v>0.15728839999999999</v>
+      </c>
+      <c r="M277">
+        <v>9.0069999999999997</v>
+      </c>
+      <c r="O277" s="16">
+        <v>0.61054398148148148</v>
+      </c>
+      <c r="P277" s="17">
+        <v>9.2799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
       <c r="A278">
         <v>66</v>
       </c>
@@ -17490,8 +18519,23 @@
       <c r="J278">
         <v>7000</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278" s="16">
+        <v>0.44755787037037037</v>
+      </c>
+      <c r="L278">
+        <v>0.96197410000000005</v>
+      </c>
+      <c r="M278">
+        <v>4.1849999999999996</v>
+      </c>
+      <c r="O278" s="16">
+        <v>0.61128472222222219</v>
+      </c>
+      <c r="P278" s="17">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279">
         <v>67</v>
       </c>
@@ -17519,8 +18563,23 @@
       <c r="J279">
         <v>7000</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279" s="16">
+        <v>0.44855324074074071</v>
+      </c>
+      <c r="L279">
+        <v>0.74604060000000005</v>
+      </c>
+      <c r="M279">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="O279" s="16">
+        <v>0.61195601851851855</v>
+      </c>
+      <c r="P279">
+        <v>0.75725279999999995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
       <c r="A280">
         <v>68</v>
       </c>
@@ -17548,8 +18607,23 @@
       <c r="J280">
         <v>7000</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280" s="16">
+        <v>0.44945601851851852</v>
+      </c>
+      <c r="L280">
+        <v>0.1721163</v>
+      </c>
+      <c r="M280">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="O280" s="16">
+        <v>0.61274305555555553</v>
+      </c>
+      <c r="P280">
+        <v>0.13703009999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
       <c r="A281">
         <v>69</v>
       </c>
@@ -17577,8 +18651,23 @@
       <c r="J281">
         <v>7000</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281" s="16">
+        <v>0.45021990740740742</v>
+      </c>
+      <c r="L281" s="17">
+        <v>7.1245509999999998E-2</v>
+      </c>
+      <c r="M281">
+        <v>3.9420000000000002</v>
+      </c>
+      <c r="O281" s="16">
+        <v>0.61348379629629635</v>
+      </c>
+      <c r="P281" s="17">
+        <v>9.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18">
       <c r="A282">
         <v>70</v>
       </c>
@@ -17606,8 +18695,23 @@
       <c r="J282">
         <v>7000</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282" s="16">
+        <v>0.45104166666666662</v>
+      </c>
+      <c r="L282" s="17">
+        <v>7.5620430000000002E-2</v>
+      </c>
+      <c r="M282">
+        <v>5.25</v>
+      </c>
+      <c r="O282" s="16">
+        <v>0.6141550925925926</v>
+      </c>
+      <c r="P282" s="17">
+        <v>8.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283">
         <v>71</v>
       </c>
@@ -17635,8 +18739,23 @@
       <c r="J283">
         <v>7000</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283" s="16">
+        <v>0.45187500000000003</v>
+      </c>
+      <c r="L283">
+        <v>0.9058465</v>
+      </c>
+      <c r="M283">
+        <v>8.202</v>
+      </c>
+      <c r="O283" s="16">
+        <v>0.61482638888888885</v>
+      </c>
+      <c r="P283">
+        <v>1.093547</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284">
         <v>72</v>
       </c>
@@ -17664,8 +18783,23 @@
       <c r="J284">
         <v>7000</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284" s="16">
+        <v>0.45283564814814814</v>
+      </c>
+      <c r="L284">
+        <v>0.44756829999999997</v>
+      </c>
+      <c r="M284">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="O284" s="16">
+        <v>0.61583333333333334</v>
+      </c>
+      <c r="P284">
+        <v>0.1590046</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285">
         <v>73</v>
       </c>
@@ -17693,8 +18827,23 @@
       <c r="J285">
         <v>7000</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285" s="16">
+        <v>0.45377314814814818</v>
+      </c>
+      <c r="L285">
+        <v>0.1075695</v>
+      </c>
+      <c r="M285">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="O285" s="16">
+        <v>0.61656250000000001</v>
+      </c>
+      <c r="P285">
+        <v>0.11300209999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286">
         <v>74</v>
       </c>
@@ -17722,8 +18871,23 @@
       <c r="J286">
         <v>7000</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286" s="16">
+        <v>0.4546412037037037</v>
+      </c>
+      <c r="L286" s="17">
+        <v>6.5829349999999995E-2</v>
+      </c>
+      <c r="M286">
+        <v>6.9889999999999999</v>
+      </c>
+      <c r="O286" s="16">
+        <v>0.6171875</v>
+      </c>
+      <c r="P286" s="17">
+        <v>9.3700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287">
         <v>75</v>
       </c>
@@ -17751,8 +18915,23 @@
       <c r="J287">
         <v>7000</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287" s="16">
+        <v>0.4554050925925926</v>
+      </c>
+      <c r="L287" s="17">
+        <v>8.2599560000000002E-2</v>
+      </c>
+      <c r="M287">
+        <v>8.5879999999999992</v>
+      </c>
+      <c r="O287" s="16">
+        <v>0.61781249999999999</v>
+      </c>
+      <c r="P287">
+        <v>0.1036049</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288">
         <v>76</v>
       </c>
@@ -17780,8 +18959,23 @@
       <c r="J288">
         <v>7000</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288" s="16">
+        <v>0.45614583333333331</v>
+      </c>
+      <c r="L288">
+        <v>0.76112789999999997</v>
+      </c>
+      <c r="M288">
+        <v>10.673</v>
+      </c>
+      <c r="O288" s="16">
+        <v>0.61844907407407412</v>
+      </c>
+      <c r="P288">
+        <v>0.97511130000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
       <c r="A289">
         <v>77</v>
       </c>
@@ -17806,8 +19000,20 @@
       <c r="J289">
         <v>7000</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289" s="16">
+        <v>0.45707175925925925</v>
+      </c>
+      <c r="L289" s="17">
+        <v>9.9092420000000004E-3</v>
+      </c>
+      <c r="O289" s="16">
+        <v>0.61924768518518525</v>
+      </c>
+      <c r="P289" s="17">
+        <v>9.4699999999999993E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290">
         <v>78</v>
       </c>
@@ -17832,8 +19038,23 @@
       <c r="J290">
         <v>7000</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290" s="16">
+        <v>0.45782407407407405</v>
+      </c>
+      <c r="L290" s="17">
+        <v>9.2109930000000007E-3</v>
+      </c>
+      <c r="N290" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="O290" s="16">
+        <v>0.61987268518518512</v>
+      </c>
+      <c r="P290" s="17">
+        <v>9.6600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291">
         <v>1</v>
       </c>
@@ -17861,8 +19082,26 @@
       <c r="J291">
         <v>7000</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291" s="16">
+        <v>0.3835069444444445</v>
+      </c>
+      <c r="L291">
+        <v>0.1091215</v>
+      </c>
+      <c r="M291">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="N291" s="8">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="O291" s="16">
+        <v>0.55975694444444446</v>
+      </c>
+      <c r="P291" s="17">
+        <v>6.2300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292">
         <v>2</v>
       </c>
@@ -17890,8 +19129,23 @@
       <c r="J292">
         <v>7000</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292" s="16">
+        <v>0.38439814814814816</v>
+      </c>
+      <c r="L292">
+        <v>0.4870371</v>
+      </c>
+      <c r="M292">
+        <v>5.5410000000000004</v>
+      </c>
+      <c r="O292" s="16">
+        <v>0.56070601851851853</v>
+      </c>
+      <c r="P292">
+        <v>1.1165119999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293">
         <v>3</v>
       </c>
@@ -17919,8 +19173,23 @@
       <c r="J293">
         <v>7000</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293" s="16">
+        <v>0.38538194444444446</v>
+      </c>
+      <c r="L293" s="17">
+        <v>7.5455910000000001E-2</v>
+      </c>
+      <c r="M293">
+        <v>8.4779999999999998</v>
+      </c>
+      <c r="O293" s="16">
+        <v>0.56163194444444442</v>
+      </c>
+      <c r="P293">
+        <v>0.17557710000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18">
       <c r="A294">
         <v>4</v>
       </c>
@@ -17948,8 +19217,23 @@
       <c r="J294">
         <v>7000</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294" s="16">
+        <v>0.38623842592592594</v>
+      </c>
+      <c r="L294" s="17">
+        <v>7.4939930000000002E-2</v>
+      </c>
+      <c r="M294">
+        <v>7.4820000000000002</v>
+      </c>
+      <c r="O294" s="16">
+        <v>0.56256944444444446</v>
+      </c>
+      <c r="P294">
+        <v>0.1124367</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18">
       <c r="A295">
         <v>5</v>
       </c>
@@ -17977,8 +19261,23 @@
       <c r="J295">
         <v>7000</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295" s="16">
+        <v>0.38707175925925924</v>
+      </c>
+      <c r="L295">
+        <v>0.74791090000000005</v>
+      </c>
+      <c r="M295">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="O295" s="16">
+        <v>0.5634837962962963</v>
+      </c>
+      <c r="P295">
+        <v>1.6494610000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18">
       <c r="A296">
         <v>6</v>
       </c>
@@ -18006,8 +19305,23 @@
       <c r="J296">
         <v>7000</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296" s="16">
+        <v>0.38811342592592596</v>
+      </c>
+      <c r="L296">
+        <v>0.54961349999999998</v>
+      </c>
+      <c r="M296">
+        <v>5.19</v>
+      </c>
+      <c r="O296" s="16">
+        <v>0.56444444444444442</v>
+      </c>
+      <c r="P296">
+        <v>1.0659419999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18">
       <c r="A297">
         <v>7</v>
       </c>
@@ -18035,8 +19349,23 @@
       <c r="J297">
         <v>7000</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297" s="16">
+        <v>0.38921296296296298</v>
+      </c>
+      <c r="L297">
+        <v>0.85568460000000002</v>
+      </c>
+      <c r="M297">
+        <v>7.5339999999999998</v>
+      </c>
+      <c r="O297" s="16">
+        <v>0.56528935185185192</v>
+      </c>
+      <c r="P297">
+        <v>1.6077129999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18">
       <c r="A298">
         <v>8</v>
       </c>
@@ -18064,8 +19393,23 @@
       <c r="J298">
         <v>7000</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298" s="16">
+        <v>0.39034722222222223</v>
+      </c>
+      <c r="L298" s="17">
+        <v>5.987278E-2</v>
+      </c>
+      <c r="M298">
+        <v>5.4470000000000001</v>
+      </c>
+      <c r="O298" s="16">
+        <v>0.56614583333333335</v>
+      </c>
+      <c r="P298">
+        <v>0.1411569</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18">
       <c r="A299">
         <v>9</v>
       </c>
@@ -18093,8 +19437,23 @@
       <c r="J299">
         <v>7000</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299" s="16">
+        <v>0.39141203703703703</v>
+      </c>
+      <c r="L299">
+        <v>0.1177236</v>
+      </c>
+      <c r="M299">
+        <v>8.4160000000000004</v>
+      </c>
+      <c r="O299" s="16">
+        <v>0.56696759259259266</v>
+      </c>
+      <c r="P299">
+        <v>0.17313980000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300">
         <v>10</v>
       </c>
@@ -18122,8 +19481,23 @@
       <c r="J300">
         <v>7000</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300" s="16">
+        <v>0.39241898148148152</v>
+      </c>
+      <c r="L300" s="17">
+        <v>8.613411E-2</v>
+      </c>
+      <c r="M300">
+        <v>10.387</v>
+      </c>
+      <c r="O300" s="16">
+        <v>0.56809027777777776</v>
+      </c>
+      <c r="P300">
+        <v>0.22750090000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
       <c r="A301">
         <v>11</v>
       </c>
@@ -18151,8 +19525,23 @@
       <c r="J301">
         <v>7000</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301" s="16">
+        <v>0.3933680555555556</v>
+      </c>
+      <c r="L301" s="17">
+        <v>6.3553520000000002E-2</v>
+      </c>
+      <c r="M301">
+        <v>6.12</v>
+      </c>
+      <c r="O301" s="16">
+        <v>0.56883101851851847</v>
+      </c>
+      <c r="P301">
+        <v>0.14349719999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302">
         <v>12</v>
       </c>
@@ -18180,8 +19569,18 @@
       <c r="J302">
         <v>7000</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302" s="16">
+        <v>0.39417824074074076</v>
+      </c>
+      <c r="L302">
+        <v>0.35770540000000001</v>
+      </c>
+      <c r="O302" s="16"/>
+      <c r="R302" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
       <c r="A303">
         <v>13</v>
       </c>
@@ -18209,8 +19608,23 @@
       <c r="J303">
         <v>7000</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303" s="16">
+        <v>0.39496527777777773</v>
+      </c>
+      <c r="L303">
+        <v>0.1208041</v>
+      </c>
+      <c r="M303">
+        <v>6.32</v>
+      </c>
+      <c r="O303" s="16">
+        <v>0.5696296296296296</v>
+      </c>
+      <c r="P303">
+        <v>0.48600660000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
       <c r="A304">
         <v>14</v>
       </c>
@@ -18238,8 +19652,23 @@
       <c r="J304">
         <v>7000</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304" s="16">
+        <v>0.39590277777777777</v>
+      </c>
+      <c r="L304">
+        <v>0.13445009999999999</v>
+      </c>
+      <c r="M304">
+        <v>8.7629999999999999</v>
+      </c>
+      <c r="O304" s="16">
+        <v>0.57048611111111114</v>
+      </c>
+      <c r="P304">
+        <v>0.2373016</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
       <c r="A305">
         <v>15</v>
       </c>
@@ -18267,8 +19696,23 @@
       <c r="J305">
         <v>7000</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305" s="16">
+        <v>0.39681712962962962</v>
+      </c>
+      <c r="L305">
+        <v>0.38361590000000001</v>
+      </c>
+      <c r="O305" s="16">
+        <v>0.57138888888888884</v>
+      </c>
+      <c r="P305">
+        <v>0.1051797</v>
+      </c>
+      <c r="R305" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306">
         <v>16</v>
       </c>
@@ -18296,8 +19740,18 @@
       <c r="J306">
         <v>7000</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306" s="16">
+        <v>0.39777777777777779</v>
+      </c>
+      <c r="L306" s="17">
+        <v>7.4058589999999994E-2</v>
+      </c>
+      <c r="M306">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="O306" s="16"/>
+    </row>
+    <row r="307" spans="1:18">
       <c r="A307">
         <v>17</v>
       </c>
@@ -18325,8 +19779,23 @@
       <c r="J307">
         <v>7000</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307" s="16">
+        <v>0.39883101851851849</v>
+      </c>
+      <c r="L307">
+        <v>0.56309699999999996</v>
+      </c>
+      <c r="M307">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="O307" s="16">
+        <v>0.57212962962962965</v>
+      </c>
+      <c r="P307">
+        <v>0.95668359999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308">
         <v>18</v>
       </c>
@@ -18354,8 +19823,23 @@
       <c r="J308">
         <v>7000</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308" s="16">
+        <v>0.39981481481481485</v>
+      </c>
+      <c r="L308">
+        <v>1.2222569999999999</v>
+      </c>
+      <c r="O308" s="16">
+        <v>0.57302083333333331</v>
+      </c>
+      <c r="P308">
+        <v>0.19395789999999999</v>
+      </c>
+      <c r="R308" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18">
       <c r="A309">
         <v>19</v>
       </c>
@@ -18383,8 +19867,18 @@
       <c r="J309">
         <v>7000</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309" s="16">
+        <v>0.40072916666666664</v>
+      </c>
+      <c r="L309" s="17">
+        <v>7.5131489999999995E-2</v>
+      </c>
+      <c r="M309">
+        <v>7.7229999999999999</v>
+      </c>
+      <c r="O309" s="16"/>
+    </row>
+    <row r="310" spans="1:18">
       <c r="A310">
         <v>20</v>
       </c>
@@ -18412,8 +19906,23 @@
       <c r="J310">
         <v>7000</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310" s="16">
+        <v>0.40178240740740739</v>
+      </c>
+      <c r="L310">
+        <v>0.69776640000000001</v>
+      </c>
+      <c r="M310">
+        <v>6.7729999999999997</v>
+      </c>
+      <c r="O310" s="16">
+        <v>0.57381944444444444</v>
+      </c>
+      <c r="P310">
+        <v>1.4537260000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18">
       <c r="A311">
         <v>21</v>
       </c>
@@ -18441,8 +19950,23 @@
       <c r="J311">
         <v>7000</v>
       </c>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="K311" s="16">
+        <v>0.40271990740740743</v>
+      </c>
+      <c r="L311">
+        <v>0.80634499999999998</v>
+      </c>
+      <c r="M311">
+        <v>8.8510000000000009</v>
+      </c>
+      <c r="O311" s="16">
+        <v>0.57469907407407406</v>
+      </c>
+      <c r="P311">
+        <v>1.637548</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18">
       <c r="A312">
         <v>22</v>
       </c>
@@ -18470,8 +19994,23 @@
       <c r="J312">
         <v>7000</v>
       </c>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="K312" s="16">
+        <v>0.40390046296296295</v>
+      </c>
+      <c r="L312">
+        <v>0.93358249999999998</v>
+      </c>
+      <c r="M312">
+        <v>5.641</v>
+      </c>
+      <c r="O312" s="16">
+        <v>0.57557870370370368</v>
+      </c>
+      <c r="P312">
+        <v>1.9598530000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18">
       <c r="A313">
         <v>23</v>
       </c>
@@ -18499,8 +20038,23 @@
       <c r="J313">
         <v>7000</v>
       </c>
-    </row>
-    <row r="314" spans="1:10">
+      <c r="K313" s="16">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="L313">
+        <v>0.57170209999999999</v>
+      </c>
+      <c r="M313">
+        <v>5.8559999999999999</v>
+      </c>
+      <c r="O313" s="16">
+        <v>0.57648148148148148</v>
+      </c>
+      <c r="P313">
+        <v>1.0454490000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18">
       <c r="A314">
         <v>24</v>
       </c>
@@ -18528,8 +20082,23 @@
       <c r="J314">
         <v>7000</v>
       </c>
-    </row>
-    <row r="315" spans="1:10">
+      <c r="K314" s="16">
+        <v>0.40589120370370368</v>
+      </c>
+      <c r="L314" s="17">
+        <v>6.4076620000000001E-2</v>
+      </c>
+      <c r="M314">
+        <v>6.5869999999999997</v>
+      </c>
+      <c r="O314" s="16">
+        <v>0.57730324074074069</v>
+      </c>
+      <c r="P314">
+        <v>0.12510499999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18">
       <c r="A315">
         <v>25</v>
       </c>
@@ -18557,8 +20126,23 @@
       <c r="J315">
         <v>7000</v>
       </c>
-    </row>
-    <row r="316" spans="1:10">
+      <c r="K315" s="16">
+        <v>0.40675925925925926</v>
+      </c>
+      <c r="L315">
+        <v>0.3306405</v>
+      </c>
+      <c r="M315">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="O315" s="16">
+        <v>0.57822916666666668</v>
+      </c>
+      <c r="P315">
+        <v>0.85461620000000005</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18">
       <c r="A316">
         <v>26</v>
       </c>
@@ -18586,8 +20170,23 @@
       <c r="J316">
         <v>7000</v>
       </c>
-    </row>
-    <row r="317" spans="1:10">
+      <c r="K316" s="16">
+        <v>0.40760416666666671</v>
+      </c>
+      <c r="L316" s="17">
+        <v>7.0485610000000004E-2</v>
+      </c>
+      <c r="M316">
+        <v>7.4459999999999997</v>
+      </c>
+      <c r="O316" s="16">
+        <v>0.57922453703703702</v>
+      </c>
+      <c r="P316">
+        <v>0.1158061</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18">
       <c r="A317">
         <v>27</v>
       </c>
@@ -18615,8 +20214,23 @@
       <c r="J317">
         <v>7000</v>
       </c>
-    </row>
-    <row r="318" spans="1:10">
+      <c r="K317" s="16">
+        <v>0.40909722222222222</v>
+      </c>
+      <c r="L317" s="17">
+        <v>5.0936159999999996E-3</v>
+      </c>
+      <c r="M317">
+        <v>5.0789999999999997</v>
+      </c>
+      <c r="O317" s="16">
+        <v>0.57995370370370369</v>
+      </c>
+      <c r="P317" s="17">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18">
       <c r="A318">
         <v>28</v>
       </c>
@@ -18644,8 +20258,26 @@
       <c r="J318">
         <v>7000</v>
       </c>
-    </row>
-    <row r="319" spans="1:10">
+      <c r="K318" s="16">
+        <v>0.41005787037037034</v>
+      </c>
+      <c r="L318">
+        <v>0.13739509999999999</v>
+      </c>
+      <c r="M318">
+        <v>9.25</v>
+      </c>
+      <c r="O318" s="16">
+        <v>0.58075231481481482</v>
+      </c>
+      <c r="P318">
+        <v>0.2236417</v>
+      </c>
+      <c r="R318" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18">
       <c r="A319">
         <v>29</v>
       </c>
@@ -18673,8 +20305,26 @@
       <c r="J319">
         <v>7000</v>
       </c>
-    </row>
-    <row r="320" spans="1:10">
+      <c r="K319" s="16">
+        <v>0.41100694444444441</v>
+      </c>
+      <c r="L319">
+        <v>0.71612339999999997</v>
+      </c>
+      <c r="M319">
+        <v>1.948</v>
+      </c>
+      <c r="O319" s="16">
+        <v>0.58156249999999998</v>
+      </c>
+      <c r="P319">
+        <v>6.6922899999999994E-2</v>
+      </c>
+      <c r="R319" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18">
       <c r="A320">
         <v>30</v>
       </c>
@@ -18702,8 +20352,23 @@
       <c r="J320">
         <v>7000</v>
       </c>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320" s="16">
+        <v>0.4120138888888889</v>
+      </c>
+      <c r="L320" s="17">
+        <v>7.3233619999999999E-2</v>
+      </c>
+      <c r="M320">
+        <v>6.0650000000000004</v>
+      </c>
+      <c r="O320" s="16">
+        <v>0.5823842592592593</v>
+      </c>
+      <c r="P320" s="17">
+        <v>9.5299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18">
       <c r="A321">
         <v>31</v>
       </c>
@@ -18731,8 +20396,23 @@
       <c r="J321">
         <v>7000</v>
       </c>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321" s="16">
+        <v>0.4130671296296296</v>
+      </c>
+      <c r="L321" s="17">
+        <v>6.067123E-2</v>
+      </c>
+      <c r="M321">
+        <v>5.0869999999999997</v>
+      </c>
+      <c r="O321" s="16">
+        <v>0.58313657407407404</v>
+      </c>
+      <c r="P321" s="17">
+        <v>8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18">
       <c r="A322">
         <v>32</v>
       </c>
@@ -18760,8 +20440,23 @@
       <c r="J322">
         <v>7000</v>
       </c>
-    </row>
-    <row r="323" spans="1:10">
+      <c r="K322" s="16">
+        <v>0.4138310185185185</v>
+      </c>
+      <c r="L322">
+        <v>0.1341878</v>
+      </c>
+      <c r="M322">
+        <v>8.8059999999999992</v>
+      </c>
+      <c r="O322" s="16">
+        <v>0.58403935185185185</v>
+      </c>
+      <c r="P322">
+        <v>0.1878995</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18">
       <c r="A323">
         <v>33</v>
       </c>
@@ -18789,8 +20484,23 @@
       <c r="J323">
         <v>7000</v>
       </c>
-    </row>
-    <row r="324" spans="1:10">
+      <c r="K323" s="16">
+        <v>0.41482638888888884</v>
+      </c>
+      <c r="L323">
+        <v>0.75585029999999997</v>
+      </c>
+      <c r="M323">
+        <v>3.633</v>
+      </c>
+      <c r="O323" s="16">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="P323">
+        <v>1.2345120000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18">
       <c r="A324">
         <v>34</v>
       </c>
@@ -18818,8 +20528,18 @@
       <c r="J324">
         <v>7000</v>
       </c>
-    </row>
-    <row r="325" spans="1:10">
+      <c r="K324" s="16">
+        <v>0.4157986111111111</v>
+      </c>
+      <c r="L324">
+        <v>0.60480049999999996</v>
+      </c>
+      <c r="O324" s="16"/>
+      <c r="R324" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18">
       <c r="A325">
         <v>35</v>
       </c>
@@ -18847,8 +20567,18 @@
       <c r="J325">
         <v>7000</v>
       </c>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325" s="16">
+        <v>0.41668981481481482</v>
+      </c>
+      <c r="L325">
+        <v>0.52758020000000005</v>
+      </c>
+      <c r="O325" s="16"/>
+      <c r="R325" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18">
       <c r="A326">
         <v>36</v>
       </c>
@@ -18876,8 +20606,23 @@
       <c r="J326">
         <v>7000</v>
       </c>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326" s="16">
+        <v>0.41753472222222227</v>
+      </c>
+      <c r="L326" s="17">
+        <v>6.4863379999999998E-2</v>
+      </c>
+      <c r="M326">
+        <v>6.9009999999999998</v>
+      </c>
+      <c r="O326" s="16">
+        <v>0.58585648148148151</v>
+      </c>
+      <c r="P326">
+        <v>0.10294490000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18">
       <c r="A327">
         <v>37</v>
       </c>
@@ -18905,8 +20650,23 @@
       <c r="J327">
         <v>7000</v>
       </c>
-    </row>
-    <row r="328" spans="1:10">
+      <c r="K327" s="16">
+        <v>0.41840277777777773</v>
+      </c>
+      <c r="L327" s="17">
+        <v>9.695964E-2</v>
+      </c>
+      <c r="M327">
+        <v>5.95</v>
+      </c>
+      <c r="O327" s="16">
+        <v>0.58664351851851848</v>
+      </c>
+      <c r="P327">
+        <v>0.1583562</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18">
       <c r="A328">
         <v>38</v>
       </c>
@@ -18934,8 +20694,23 @@
       <c r="J328">
         <v>7000</v>
       </c>
-    </row>
-    <row r="329" spans="1:10">
+      <c r="K328" s="16">
+        <v>0.41918981481481482</v>
+      </c>
+      <c r="L328">
+        <v>0.27915060000000003</v>
+      </c>
+      <c r="M328">
+        <v>10.782</v>
+      </c>
+      <c r="O328" s="16">
+        <v>0.58743055555555557</v>
+      </c>
+      <c r="P328">
+        <v>0.24782309999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18">
       <c r="A329">
         <v>39</v>
       </c>
@@ -18963,8 +20738,23 @@
       <c r="J329">
         <v>7000</v>
       </c>
-    </row>
-    <row r="330" spans="1:10">
+      <c r="K329" s="16">
+        <v>0.42005787037037035</v>
+      </c>
+      <c r="L329" s="17">
+        <v>9.8995920000000001E-2</v>
+      </c>
+      <c r="M329">
+        <v>7.4980000000000002</v>
+      </c>
+      <c r="O329" s="16">
+        <v>0.58815972222222224</v>
+      </c>
+      <c r="P329">
+        <v>0.2310615</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18">
       <c r="A330">
         <v>40</v>
       </c>
@@ -18992,8 +20782,23 @@
       <c r="J330">
         <v>7000</v>
       </c>
-    </row>
-    <row r="331" spans="1:10">
+      <c r="K330" s="16">
+        <v>0.4208796296296296</v>
+      </c>
+      <c r="L330">
+        <v>0.1024346</v>
+      </c>
+      <c r="M330">
+        <v>9.0820000000000007</v>
+      </c>
+      <c r="O330" s="16">
+        <v>0.58901620370370367</v>
+      </c>
+      <c r="P330">
+        <v>0.1649091</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18">
       <c r="A331">
         <v>41</v>
       </c>
@@ -19021,8 +20826,23 @@
       <c r="J331">
         <v>7000</v>
       </c>
-    </row>
-    <row r="332" spans="1:10">
+      <c r="K331" s="16">
+        <v>0.42190972222222217</v>
+      </c>
+      <c r="L331">
+        <v>0.1115131</v>
+      </c>
+      <c r="M331">
+        <v>8.39</v>
+      </c>
+      <c r="O331" s="16">
+        <v>0.58980324074074075</v>
+      </c>
+      <c r="P331">
+        <v>0.2023596</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18">
       <c r="A332">
         <v>42</v>
       </c>
@@ -19050,8 +20870,23 @@
       <c r="J332">
         <v>7000</v>
       </c>
-    </row>
-    <row r="333" spans="1:10">
+      <c r="K332" s="16">
+        <v>0.4227083333333333</v>
+      </c>
+      <c r="L332">
+        <v>0.24238609999999999</v>
+      </c>
+      <c r="M332">
+        <v>2.89</v>
+      </c>
+      <c r="O332" s="16">
+        <v>0.59054398148148146</v>
+      </c>
+      <c r="P332">
+        <v>0.16119520000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18">
       <c r="A333">
         <v>43</v>
       </c>
@@ -19079,8 +20914,23 @@
       <c r="J333">
         <v>7000</v>
       </c>
-    </row>
-    <row r="334" spans="1:10">
+      <c r="K333" s="16">
+        <v>0.42355324074074074</v>
+      </c>
+      <c r="L333">
+        <v>0.70222329999999999</v>
+      </c>
+      <c r="M333">
+        <v>6.4039999999999999</v>
+      </c>
+      <c r="O333" s="16">
+        <v>0.59128472222222228</v>
+      </c>
+      <c r="P333">
+        <v>1.269099</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18">
       <c r="A334">
         <v>44</v>
       </c>
@@ -19108,8 +20958,23 @@
       <c r="J334">
         <v>7000</v>
       </c>
-    </row>
-    <row r="335" spans="1:10">
+      <c r="K334" s="16">
+        <v>0.42443287037037036</v>
+      </c>
+      <c r="L334">
+        <v>0.1132721</v>
+      </c>
+      <c r="M334">
+        <v>8.141</v>
+      </c>
+      <c r="O334" s="16">
+        <v>0.59211805555555552</v>
+      </c>
+      <c r="P334">
+        <v>0.27191870000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18">
       <c r="A335">
         <v>45</v>
       </c>
@@ -19137,8 +21002,23 @@
       <c r="J335">
         <v>7000</v>
       </c>
-    </row>
-    <row r="336" spans="1:10">
+      <c r="K335" s="16">
+        <v>0.42528935185185185</v>
+      </c>
+      <c r="L335">
+        <v>0.1117972</v>
+      </c>
+      <c r="M335">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="O335" s="16">
+        <v>0.59282407407407411</v>
+      </c>
+      <c r="P335">
+        <v>0.15559319999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18">
       <c r="A336">
         <v>46</v>
       </c>
@@ -19166,8 +21046,23 @@
       <c r="J336">
         <v>7000</v>
       </c>
-    </row>
-    <row r="337" spans="1:10">
+      <c r="K336" s="16">
+        <v>0.42606481481481479</v>
+      </c>
+      <c r="L336" s="17">
+        <v>9.1583449999999997E-2</v>
+      </c>
+      <c r="M336">
+        <v>5.9820000000000002</v>
+      </c>
+      <c r="O336" s="16">
+        <v>0.59347222222222229</v>
+      </c>
+      <c r="P336">
+        <v>0.26428289999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18">
       <c r="A337">
         <v>47</v>
       </c>
@@ -19195,8 +21090,23 @@
       <c r="J337">
         <v>7000</v>
       </c>
-    </row>
-    <row r="338" spans="1:10">
+      <c r="K337" s="16">
+        <v>0.4268055555555556</v>
+      </c>
+      <c r="L337" s="17">
+        <v>7.7474619999999994E-2</v>
+      </c>
+      <c r="M337">
+        <v>8.2739999999999991</v>
+      </c>
+      <c r="O337" s="16">
+        <v>0.594212962962963</v>
+      </c>
+      <c r="P337">
+        <v>0.14150409999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18">
       <c r="A338">
         <v>48</v>
       </c>
@@ -19224,8 +21134,23 @@
       <c r="J338">
         <v>7000</v>
       </c>
-    </row>
-    <row r="339" spans="1:10">
+      <c r="K338" s="16">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="L338">
+        <v>0.61275599999999997</v>
+      </c>
+      <c r="M338">
+        <v>7.6859999999999999</v>
+      </c>
+      <c r="O338" s="16">
+        <v>0.59495370370370371</v>
+      </c>
+      <c r="P338">
+        <v>1.1549720000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18">
       <c r="A339">
         <v>49</v>
       </c>
@@ -19253,8 +21178,23 @@
       <c r="J339">
         <v>7000</v>
       </c>
-    </row>
-    <row r="340" spans="1:10">
+      <c r="K339" s="16">
+        <v>0.42834490740740744</v>
+      </c>
+      <c r="L339">
+        <v>0.69556680000000004</v>
+      </c>
+      <c r="M339">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="O339" s="16">
+        <v>0.5957986111111111</v>
+      </c>
+      <c r="P339">
+        <v>1.2258450000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18">
       <c r="A340">
         <v>50</v>
       </c>
@@ -19282,8 +21222,23 @@
       <c r="J340">
         <v>7000</v>
       </c>
-    </row>
-    <row r="341" spans="1:10">
+      <c r="K340" s="16">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="L340">
+        <v>0.1052543</v>
+      </c>
+      <c r="M340">
+        <v>10.856999999999999</v>
+      </c>
+      <c r="O340" s="16">
+        <v>0.59664351851851849</v>
+      </c>
+      <c r="P340">
+        <v>0.2032043</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18">
       <c r="A341">
         <v>51</v>
       </c>
@@ -19311,8 +21266,23 @@
       <c r="J341">
         <v>6262</v>
       </c>
-    </row>
-    <row r="342" spans="1:10">
+      <c r="K341" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="L341">
+        <v>0.45434170000000001</v>
+      </c>
+      <c r="M341">
+        <v>9.8119999999999994</v>
+      </c>
+      <c r="O341" s="16">
+        <v>0.59756944444444449</v>
+      </c>
+      <c r="P341">
+        <v>1.5705720000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18">
       <c r="A342">
         <v>52</v>
       </c>
@@ -19340,8 +21310,23 @@
       <c r="J342">
         <v>6262</v>
       </c>
-    </row>
-    <row r="343" spans="1:10">
+      <c r="K342" s="16">
+        <v>0.43104166666666671</v>
+      </c>
+      <c r="L342">
+        <v>0.13968849999999999</v>
+      </c>
+      <c r="M342">
+        <v>5.875</v>
+      </c>
+      <c r="O342" s="16">
+        <v>0.59846064814814814</v>
+      </c>
+      <c r="P342">
+        <v>1.3193079999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18">
       <c r="A343">
         <v>53</v>
       </c>
@@ -19369,8 +21354,23 @@
       <c r="J343">
         <v>6262</v>
       </c>
-    </row>
-    <row r="344" spans="1:10">
+      <c r="K343" s="16">
+        <v>0.43200231481481483</v>
+      </c>
+      <c r="L343">
+        <v>0.69079769999999996</v>
+      </c>
+      <c r="M343">
+        <v>4.1289999999999996</v>
+      </c>
+      <c r="O343" s="16">
+        <v>0.59932870370370372</v>
+      </c>
+      <c r="P343" s="17">
+        <v>9.0499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18">
       <c r="A344">
         <v>54</v>
       </c>
@@ -19398,8 +21398,23 @@
       <c r="J344">
         <v>6262</v>
       </c>
-    </row>
-    <row r="345" spans="1:10">
+      <c r="K344" s="16">
+        <v>0.43296296296296299</v>
+      </c>
+      <c r="L344">
+        <v>0.208345</v>
+      </c>
+      <c r="M344">
+        <v>4.9379999999999997</v>
+      </c>
+      <c r="O344" s="16">
+        <v>0.60011574074074081</v>
+      </c>
+      <c r="P344">
+        <v>1.1585179999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18">
       <c r="A345">
         <v>55</v>
       </c>
@@ -19427,8 +21442,23 @@
       <c r="J345">
         <v>6262</v>
       </c>
-    </row>
-    <row r="346" spans="1:10">
+      <c r="K345" s="16">
+        <v>0.43399305555555556</v>
+      </c>
+      <c r="L345" s="17">
+        <v>7.1639789999999995E-2</v>
+      </c>
+      <c r="M345">
+        <v>9.8859999999999992</v>
+      </c>
+      <c r="O345" s="16">
+        <v>0.60092592592592597</v>
+      </c>
+      <c r="P345">
+        <v>0.24818390000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18">
       <c r="A346">
         <v>56</v>
       </c>
@@ -19456,8 +21486,23 @@
       <c r="J346">
         <v>6262</v>
       </c>
-    </row>
-    <row r="347" spans="1:10">
+      <c r="K346" s="16">
+        <v>0.43489583333333331</v>
+      </c>
+      <c r="L346">
+        <v>6.2230899999999999E-2</v>
+      </c>
+      <c r="M346">
+        <v>6.8440000000000003</v>
+      </c>
+      <c r="O346" s="16">
+        <v>0.60177083333333337</v>
+      </c>
+      <c r="P346">
+        <v>0.219445</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18">
       <c r="A347">
         <v>57</v>
       </c>
@@ -19485,8 +21530,23 @@
       <c r="J347">
         <v>6262</v>
       </c>
-    </row>
-    <row r="348" spans="1:10">
+      <c r="K347" s="16">
+        <v>0.43584490740740739</v>
+      </c>
+      <c r="L347">
+        <v>0.10431989999999999</v>
+      </c>
+      <c r="M347">
+        <v>6.7210000000000001</v>
+      </c>
+      <c r="O347" s="16">
+        <v>0.60248842592592589</v>
+      </c>
+      <c r="P347">
+        <v>0.18240770000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18">
       <c r="A348">
         <v>58</v>
       </c>
@@ -19514,8 +21574,23 @@
       <c r="J348">
         <v>6262</v>
       </c>
-    </row>
-    <row r="349" spans="1:10">
+      <c r="K348" s="16">
+        <v>0.4366666666666667</v>
+      </c>
+      <c r="L348">
+        <v>0.83714060000000001</v>
+      </c>
+      <c r="M348">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="O348" s="16">
+        <v>0.60322916666666659</v>
+      </c>
+      <c r="P348">
+        <v>0.83870259999999996</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18">
       <c r="A349">
         <v>59</v>
       </c>
@@ -19543,8 +21618,23 @@
       <c r="J349">
         <v>6262</v>
       </c>
-    </row>
-    <row r="350" spans="1:10">
+      <c r="K349" s="16">
+        <v>0.43763888888888891</v>
+      </c>
+      <c r="L349" s="17">
+        <v>7.0507130000000001E-2</v>
+      </c>
+      <c r="M349">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="O349" s="16">
+        <v>0.60409722222222217</v>
+      </c>
+      <c r="P349">
+        <v>0.94990079999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18">
       <c r="A350">
         <v>60</v>
       </c>
@@ -19572,8 +21662,23 @@
       <c r="J350">
         <v>6262</v>
       </c>
-    </row>
-    <row r="351" spans="1:10">
+      <c r="K350" s="16">
+        <v>0.43857638888888889</v>
+      </c>
+      <c r="L350">
+        <v>0.98069300000000004</v>
+      </c>
+      <c r="M350">
+        <v>7.2990000000000004</v>
+      </c>
+      <c r="O350" s="16">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="P350">
+        <v>0.1221699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18">
       <c r="A351">
         <v>61</v>
       </c>
@@ -19601,8 +21706,23 @@
       <c r="J351">
         <v>6262</v>
       </c>
-    </row>
-    <row r="352" spans="1:10">
+      <c r="K351" s="16">
+        <v>0.43935185185185183</v>
+      </c>
+      <c r="L351" s="17">
+        <v>5.812925E-2</v>
+      </c>
+      <c r="M351">
+        <v>6.2430000000000003</v>
+      </c>
+      <c r="O351" s="16">
+        <v>0.60581018518518526</v>
+      </c>
+      <c r="P351">
+        <v>1.4406350000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18">
       <c r="A352">
         <v>62</v>
       </c>
@@ -19630,8 +21750,18 @@
       <c r="J352">
         <v>6262</v>
       </c>
-    </row>
-    <row r="353" spans="1:10">
+      <c r="K352" s="16">
+        <v>0.44034722222222222</v>
+      </c>
+      <c r="L352">
+        <v>0.30268659999999997</v>
+      </c>
+      <c r="O352" s="16"/>
+      <c r="R352" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18">
       <c r="A353">
         <v>63</v>
       </c>
@@ -19659,8 +21789,23 @@
       <c r="J353">
         <v>6262</v>
       </c>
-    </row>
-    <row r="354" spans="1:10">
+      <c r="K353" s="16">
+        <v>0.44254629629629627</v>
+      </c>
+      <c r="L353">
+        <v>0.51140569999999996</v>
+      </c>
+      <c r="M353">
+        <v>5.4669999999999996</v>
+      </c>
+      <c r="O353" s="16">
+        <v>0.60666666666666669</v>
+      </c>
+      <c r="P353">
+        <v>0.11236889999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18">
       <c r="A354">
         <v>64</v>
       </c>
@@ -19688,8 +21833,23 @@
       <c r="J354">
         <v>6262</v>
       </c>
-    </row>
-    <row r="355" spans="1:10">
+      <c r="K354" s="16">
+        <v>0.44564814814814818</v>
+      </c>
+      <c r="L354">
+        <v>0.121769</v>
+      </c>
+      <c r="M354">
+        <v>5.944</v>
+      </c>
+      <c r="O354" s="16">
+        <v>0.60743055555555558</v>
+      </c>
+      <c r="P354" s="17">
+        <v>8.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18">
       <c r="A355">
         <v>65</v>
       </c>
@@ -19717,8 +21877,19 @@
       <c r="J355">
         <v>6262</v>
       </c>
-    </row>
-    <row r="356" spans="1:10">
+      <c r="K355" s="16">
+        <v>0.44646990740740744</v>
+      </c>
+      <c r="L355">
+        <v>2.5686640000000001</v>
+      </c>
+      <c r="O355" s="16"/>
+      <c r="P355" s="17"/>
+      <c r="R355" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18">
       <c r="A356">
         <v>66</v>
       </c>
@@ -19746,8 +21917,23 @@
       <c r="J356">
         <v>6262</v>
       </c>
-    </row>
-    <row r="357" spans="1:10">
+      <c r="K356" s="16">
+        <v>0.44755787037037037</v>
+      </c>
+      <c r="L356">
+        <v>1.2026269999999999</v>
+      </c>
+      <c r="M356">
+        <v>6.6870000000000003</v>
+      </c>
+      <c r="O356" s="16">
+        <v>0.60812500000000003</v>
+      </c>
+      <c r="P356">
+        <v>1.3086629999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18">
       <c r="A357">
         <v>67</v>
       </c>
@@ -19775,8 +21961,23 @@
       <c r="J357">
         <v>6262</v>
       </c>
-    </row>
-    <row r="358" spans="1:10">
+      <c r="K357" s="16">
+        <v>0.44855324074074071</v>
+      </c>
+      <c r="L357">
+        <v>0.13413949999999999</v>
+      </c>
+      <c r="M357">
+        <v>5.274</v>
+      </c>
+      <c r="O357" s="16">
+        <v>0.60901620370370368</v>
+      </c>
+      <c r="P357">
+        <v>0.1607953</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18">
       <c r="A358">
         <v>68</v>
       </c>
@@ -19804,8 +22005,23 @@
       <c r="J358">
         <v>6262</v>
       </c>
-    </row>
-    <row r="359" spans="1:10">
+      <c r="K358" s="16">
+        <v>0.44945601851851852</v>
+      </c>
+      <c r="L358">
+        <v>0.1075178</v>
+      </c>
+      <c r="M358">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="O358" s="16">
+        <v>0.60987268518518511</v>
+      </c>
+      <c r="P358">
+        <v>0.18161179999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18">
       <c r="A359">
         <v>69</v>
       </c>
@@ -19833,8 +22049,23 @@
       <c r="J359">
         <v>6262</v>
       </c>
-    </row>
-    <row r="360" spans="1:10">
+      <c r="K359" s="16">
+        <v>0.45021990740740742</v>
+      </c>
+      <c r="L359">
+        <v>0.1195403</v>
+      </c>
+      <c r="M359">
+        <v>7.7990000000000004</v>
+      </c>
+      <c r="O359" s="16">
+        <v>0.61054398148148148</v>
+      </c>
+      <c r="P359">
+        <v>0.17935860000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18">
       <c r="A360">
         <v>70</v>
       </c>
@@ -19862,8 +22093,23 @@
       <c r="J360">
         <v>6262</v>
       </c>
-    </row>
-    <row r="361" spans="1:10">
+      <c r="K360" s="16">
+        <v>0.45104166666666662</v>
+      </c>
+      <c r="L360">
+        <v>0.17730029999999999</v>
+      </c>
+      <c r="M360">
+        <v>10.019</v>
+      </c>
+      <c r="O360" s="16">
+        <v>0.61128472222222219</v>
+      </c>
+      <c r="P360" s="17">
+        <v>9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18">
       <c r="A361">
         <v>71</v>
       </c>
@@ -19891,8 +22137,23 @@
       <c r="J361">
         <v>6262</v>
       </c>
-    </row>
-    <row r="362" spans="1:10">
+      <c r="K361" s="16">
+        <v>0.45187500000000003</v>
+      </c>
+      <c r="L361">
+        <v>0.20170299999999999</v>
+      </c>
+      <c r="M361">
+        <v>7.5940000000000003</v>
+      </c>
+      <c r="O361" s="16">
+        <v>0.61195601851851855</v>
+      </c>
+      <c r="P361">
+        <v>0.15958130000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18">
       <c r="A362">
         <v>72</v>
       </c>
@@ -19920,8 +22181,23 @@
       <c r="J362">
         <v>6262</v>
       </c>
-    </row>
-    <row r="363" spans="1:10">
+      <c r="K362" s="16">
+        <v>0.45283564814814814</v>
+      </c>
+      <c r="L362">
+        <v>0.15201600000000001</v>
+      </c>
+      <c r="M362">
+        <v>5.7649999999999997</v>
+      </c>
+      <c r="O362" s="16">
+        <v>0.61274305555555553</v>
+      </c>
+      <c r="P362">
+        <v>0.18606249999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18">
       <c r="A363">
         <v>73</v>
       </c>
@@ -19949,8 +22225,23 @@
       <c r="J363">
         <v>6262</v>
       </c>
-    </row>
-    <row r="364" spans="1:10">
+      <c r="K363" s="16">
+        <v>0.45377314814814818</v>
+      </c>
+      <c r="L363">
+        <v>0.15760070000000001</v>
+      </c>
+      <c r="M363">
+        <v>10.738</v>
+      </c>
+      <c r="O363" s="16">
+        <v>0.61348379629629635</v>
+      </c>
+      <c r="P363">
+        <v>0.1393056</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18">
       <c r="A364">
         <v>74</v>
       </c>
@@ -19978,8 +22269,23 @@
       <c r="J364">
         <v>6262</v>
       </c>
-    </row>
-    <row r="365" spans="1:10">
+      <c r="K364" s="16">
+        <v>0.4546412037037037</v>
+      </c>
+      <c r="L364">
+        <v>0.1118606</v>
+      </c>
+      <c r="M364">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="O364" s="16">
+        <v>0.6141550925925926</v>
+      </c>
+      <c r="P364">
+        <v>0.1298089</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18">
       <c r="A365">
         <v>75</v>
       </c>
@@ -20007,8 +22313,23 @@
       <c r="J365">
         <v>6262</v>
       </c>
-    </row>
-    <row r="366" spans="1:10">
+      <c r="K365" s="16">
+        <v>0.4554050925925926</v>
+      </c>
+      <c r="L365">
+        <v>0.1681222</v>
+      </c>
+      <c r="M365">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="O365" s="16">
+        <v>0.61482638888888885</v>
+      </c>
+      <c r="P365">
+        <v>0.1194427</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18">
       <c r="A366">
         <v>76</v>
       </c>
@@ -20036,8 +22357,23 @@
       <c r="J366">
         <v>6262</v>
       </c>
-    </row>
-    <row r="367" spans="1:10">
+      <c r="K366" s="16">
+        <v>0.45614583333333331</v>
+      </c>
+      <c r="L366">
+        <v>0.1179017</v>
+      </c>
+      <c r="M366">
+        <v>6.0350000000000001</v>
+      </c>
+      <c r="O366" s="16">
+        <v>0.61583333333333334</v>
+      </c>
+      <c r="P366" s="17">
+        <v>9.98E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18">
       <c r="A367">
         <v>77</v>
       </c>
@@ -20062,34 +22398,61 @@
       <c r="J367">
         <v>6262</v>
       </c>
-    </row>
-    <row r="368" spans="1:10">
-      <c r="A368">
+      <c r="K367" s="16">
+        <v>0.45707175925925925</v>
+      </c>
+      <c r="L367" s="17">
+        <v>1.5384190000000001E-2</v>
+      </c>
+      <c r="O367" s="16">
+        <v>0.61656250000000001</v>
+      </c>
+      <c r="P367" s="17">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" s="18" customFormat="1">
+      <c r="A368" s="18">
         <v>78</v>
       </c>
-      <c r="B368" t="s">
-        <v>82</v>
-      </c>
-      <c r="C368" t="s">
+      <c r="B368" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C368" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E368" s="8">
+      <c r="E368" s="19">
         <v>0.67499999999999993</v>
       </c>
-      <c r="F368" s="1" t="s">
+      <c r="F368" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G368" s="1" t="s">
+      <c r="G368" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H368" s="1" t="s">
+      <c r="H368" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I368" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J368">
+      <c r="I368" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J368" s="18">
         <v>6262</v>
+      </c>
+      <c r="K368" s="21">
+        <v>0.45782407407407405</v>
+      </c>
+      <c r="L368" s="18">
+        <v>1.4782099999999999E-2</v>
+      </c>
+      <c r="N368" s="19">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="O368" s="21">
+        <v>0.6171875</v>
+      </c>
+      <c r="P368" s="22">
+        <v>1.18E-2</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -32852,36 +35215,4040 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="827" spans="1:10">
-      <c r="A827">
+    <row r="827" spans="1:10" s="23" customFormat="1">
+      <c r="A827" s="23">
         <v>75</v>
       </c>
-      <c r="B827" t="s">
+      <c r="B827" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C827" t="s">
+      <c r="C827" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D827">
+      <c r="D827" s="23">
         <v>12.08</v>
       </c>
-      <c r="E827" s="8">
+      <c r="E827" s="24">
         <v>0.6020833333333333</v>
       </c>
-      <c r="F827" s="1" t="s">
+      <c r="F827" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G827" s="1" t="s">
+      <c r="G827" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H827" s="1" t="s">
+      <c r="H827" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I827" s="1" t="s">
+      <c r="I827" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J827">
+      <c r="J827" s="23">
         <v>6262</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10">
+      <c r="A828">
+        <v>1</v>
+      </c>
+      <c r="B828" t="s">
+        <v>82</v>
+      </c>
+      <c r="C828" t="s">
+        <v>5</v>
+      </c>
+      <c r="D828">
+        <v>8.7829999999999995</v>
+      </c>
+      <c r="E828" s="8">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G828" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H828" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I828" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10">
+      <c r="A829">
+        <v>2</v>
+      </c>
+      <c r="B829" t="s">
+        <v>82</v>
+      </c>
+      <c r="C829" t="s">
+        <v>4</v>
+      </c>
+      <c r="D829">
+        <v>8.6310000000000002</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G829" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H829" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I829" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10">
+      <c r="A830">
+        <v>3</v>
+      </c>
+      <c r="B830" t="s">
+        <v>82</v>
+      </c>
+      <c r="C830" t="s">
+        <v>4</v>
+      </c>
+      <c r="D830">
+        <v>4.26</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G830" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H830" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I830" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10">
+      <c r="A831">
+        <v>4</v>
+      </c>
+      <c r="B831" t="s">
+        <v>82</v>
+      </c>
+      <c r="C831" t="s">
+        <v>75</v>
+      </c>
+      <c r="D831">
+        <v>11.242000000000001</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G831" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H831" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I831" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10">
+      <c r="A832">
+        <v>5</v>
+      </c>
+      <c r="B832" t="s">
+        <v>82</v>
+      </c>
+      <c r="C832" t="s">
+        <v>4</v>
+      </c>
+      <c r="D832">
+        <v>7.141</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G832" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H832" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I832" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9">
+      <c r="A833">
+        <v>6</v>
+      </c>
+      <c r="B833" t="s">
+        <v>82</v>
+      </c>
+      <c r="C833" t="s">
+        <v>5</v>
+      </c>
+      <c r="D833">
+        <v>7.3150000000000004</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G833" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H833" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I833" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9">
+      <c r="A834">
+        <v>7</v>
+      </c>
+      <c r="B834" t="s">
+        <v>82</v>
+      </c>
+      <c r="C834" t="s">
+        <v>4</v>
+      </c>
+      <c r="D834">
+        <v>7.5880000000000001</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G834" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H834" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I834" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9">
+      <c r="A835">
+        <v>8</v>
+      </c>
+      <c r="B835" t="s">
+        <v>82</v>
+      </c>
+      <c r="C835" t="s">
+        <v>75</v>
+      </c>
+      <c r="D835">
+        <v>8.59</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G835" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H835" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I835" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9">
+      <c r="A836">
+        <v>9</v>
+      </c>
+      <c r="B836" t="s">
+        <v>82</v>
+      </c>
+      <c r="C836" t="s">
+        <v>4</v>
+      </c>
+      <c r="D836">
+        <v>5.9359999999999999</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G836" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H836" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I836" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9">
+      <c r="A837">
+        <v>10</v>
+      </c>
+      <c r="B837" t="s">
+        <v>82</v>
+      </c>
+      <c r="C837" t="s">
+        <v>4</v>
+      </c>
+      <c r="D837">
+        <v>9.3889999999999993</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G837" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H837" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I837" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9">
+      <c r="A838">
+        <v>11</v>
+      </c>
+      <c r="B838" t="s">
+        <v>82</v>
+      </c>
+      <c r="C838" t="s">
+        <v>5</v>
+      </c>
+      <c r="D838">
+        <v>5.8410000000000002</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G838" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H838" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I838" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9">
+      <c r="A839">
+        <v>12</v>
+      </c>
+      <c r="B839" t="s">
+        <v>82</v>
+      </c>
+      <c r="C839" t="s">
+        <v>4</v>
+      </c>
+      <c r="D839">
+        <v>8.69</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G839" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H839" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I839" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9">
+      <c r="A840">
+        <v>13</v>
+      </c>
+      <c r="B840" t="s">
+        <v>82</v>
+      </c>
+      <c r="C840" t="s">
+        <v>13</v>
+      </c>
+      <c r="D840">
+        <v>7.3680000000000003</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G840" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H840" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I840" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9">
+      <c r="A841">
+        <v>14</v>
+      </c>
+      <c r="B841" t="s">
+        <v>82</v>
+      </c>
+      <c r="C841" t="s">
+        <v>4</v>
+      </c>
+      <c r="D841">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G841" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H841" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I841" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9">
+      <c r="A842">
+        <v>15</v>
+      </c>
+      <c r="B842" t="s">
+        <v>82</v>
+      </c>
+      <c r="C842" t="s">
+        <v>5</v>
+      </c>
+      <c r="D842">
+        <v>10.224</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G842" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H842" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I842" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9">
+      <c r="A843">
+        <v>16</v>
+      </c>
+      <c r="B843" t="s">
+        <v>82</v>
+      </c>
+      <c r="C843" t="s">
+        <v>4</v>
+      </c>
+      <c r="D843">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G843" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H843" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I843" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9">
+      <c r="A844">
+        <v>17</v>
+      </c>
+      <c r="B844" t="s">
+        <v>82</v>
+      </c>
+      <c r="C844" t="s">
+        <v>5</v>
+      </c>
+      <c r="D844">
+        <v>9.6929999999999996</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G844" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H844" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I844" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9">
+      <c r="A845">
+        <v>18</v>
+      </c>
+      <c r="B845" t="s">
+        <v>82</v>
+      </c>
+      <c r="C845" t="s">
+        <v>4</v>
+      </c>
+      <c r="D845">
+        <v>5.6280000000000001</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G845" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H845" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I845" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9">
+      <c r="A846">
+        <v>19</v>
+      </c>
+      <c r="B846" t="s">
+        <v>82</v>
+      </c>
+      <c r="C846" t="s">
+        <v>4</v>
+      </c>
+      <c r="D846">
+        <v>4.992</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G846" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H846" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I846" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9">
+      <c r="A847">
+        <v>20</v>
+      </c>
+      <c r="B847" t="s">
+        <v>82</v>
+      </c>
+      <c r="C847" t="s">
+        <v>13</v>
+      </c>
+      <c r="D847">
+        <v>8.8109999999999999</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G847" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H847" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I847" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9">
+      <c r="A848">
+        <v>21</v>
+      </c>
+      <c r="B848" t="s">
+        <v>82</v>
+      </c>
+      <c r="C848" t="s">
+        <v>4</v>
+      </c>
+      <c r="D848">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G848" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H848" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I848" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9">
+      <c r="A849">
+        <v>22</v>
+      </c>
+      <c r="B849" t="s">
+        <v>82</v>
+      </c>
+      <c r="C849" t="s">
+        <v>4</v>
+      </c>
+      <c r="D849">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G849" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H849" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I849" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9">
+      <c r="A850">
+        <v>23</v>
+      </c>
+      <c r="B850" t="s">
+        <v>82</v>
+      </c>
+      <c r="C850" t="s">
+        <v>4</v>
+      </c>
+      <c r="D850">
+        <v>6.5049999999999999</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G850" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H850" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I850" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9">
+      <c r="A851">
+        <v>24</v>
+      </c>
+      <c r="B851" t="s">
+        <v>82</v>
+      </c>
+      <c r="C851" t="s">
+        <v>5</v>
+      </c>
+      <c r="D851">
+        <v>10.222</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G851" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H851" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I851" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9">
+      <c r="A852">
+        <v>25</v>
+      </c>
+      <c r="B852" t="s">
+        <v>82</v>
+      </c>
+      <c r="C852" t="s">
+        <v>4</v>
+      </c>
+      <c r="D852">
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G852" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H852" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I852" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9">
+      <c r="A853">
+        <v>26</v>
+      </c>
+      <c r="B853" t="s">
+        <v>82</v>
+      </c>
+      <c r="C853" t="s">
+        <v>4</v>
+      </c>
+      <c r="D853">
+        <v>9.6910000000000007</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G853" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H853" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I853" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9">
+      <c r="A854">
+        <v>27</v>
+      </c>
+      <c r="B854" t="s">
+        <v>82</v>
+      </c>
+      <c r="C854" t="s">
+        <v>5</v>
+      </c>
+      <c r="D854">
+        <v>11.557</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G854" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H854" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I854" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9">
+      <c r="A855">
+        <v>28</v>
+      </c>
+      <c r="B855" t="s">
+        <v>82</v>
+      </c>
+      <c r="C855" t="s">
+        <v>75</v>
+      </c>
+      <c r="D855">
+        <v>8.8659999999999997</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G855" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H855" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I855" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9">
+      <c r="A856">
+        <v>29</v>
+      </c>
+      <c r="B856" t="s">
+        <v>82</v>
+      </c>
+      <c r="C856" t="s">
+        <v>4</v>
+      </c>
+      <c r="D856">
+        <v>10.679</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G856" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H856" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I856" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9">
+      <c r="A857">
+        <v>30</v>
+      </c>
+      <c r="B857" t="s">
+        <v>82</v>
+      </c>
+      <c r="C857" t="s">
+        <v>5</v>
+      </c>
+      <c r="D857">
+        <v>10.161</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G857" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H857" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I857" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9">
+      <c r="A858">
+        <v>31</v>
+      </c>
+      <c r="B858" t="s">
+        <v>82</v>
+      </c>
+      <c r="C858" t="s">
+        <v>4</v>
+      </c>
+      <c r="D858">
+        <v>5.577</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G858" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H858" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I858" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9">
+      <c r="A859">
+        <v>32</v>
+      </c>
+      <c r="B859" t="s">
+        <v>82</v>
+      </c>
+      <c r="C859" t="s">
+        <v>5</v>
+      </c>
+      <c r="D859">
+        <v>5.3170000000000002</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G859" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H859" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I859" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9">
+      <c r="A860">
+        <v>33</v>
+      </c>
+      <c r="B860" t="s">
+        <v>82</v>
+      </c>
+      <c r="C860" t="s">
+        <v>4</v>
+      </c>
+      <c r="D860">
+        <v>4.4889999999999999</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G860" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H860" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I860" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9">
+      <c r="A861">
+        <v>34</v>
+      </c>
+      <c r="B861" t="s">
+        <v>82</v>
+      </c>
+      <c r="C861" t="s">
+        <v>4</v>
+      </c>
+      <c r="D861">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G861" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H861" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I861" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9">
+      <c r="A862">
+        <v>35</v>
+      </c>
+      <c r="B862" t="s">
+        <v>82</v>
+      </c>
+      <c r="C862" t="s">
+        <v>4</v>
+      </c>
+      <c r="D862">
+        <v>8.6929999999999996</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G862" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H862" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I862" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9">
+      <c r="A863">
+        <v>36</v>
+      </c>
+      <c r="B863" t="s">
+        <v>82</v>
+      </c>
+      <c r="C863" t="s">
+        <v>75</v>
+      </c>
+      <c r="D863">
+        <v>8.2249999999999996</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G863" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H863" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I863" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9">
+      <c r="A864">
+        <v>37</v>
+      </c>
+      <c r="B864" t="s">
+        <v>82</v>
+      </c>
+      <c r="C864" t="s">
+        <v>4</v>
+      </c>
+      <c r="D864">
+        <v>9.25</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G864" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H864" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I864" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9">
+      <c r="A865">
+        <v>38</v>
+      </c>
+      <c r="B865" t="s">
+        <v>82</v>
+      </c>
+      <c r="C865" t="s">
+        <v>4</v>
+      </c>
+      <c r="D865">
+        <v>5.7329999999999997</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G865" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H865" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I865" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9">
+      <c r="A866">
+        <v>39</v>
+      </c>
+      <c r="B866" t="s">
+        <v>82</v>
+      </c>
+      <c r="C866" t="s">
+        <v>4</v>
+      </c>
+      <c r="D866">
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G866" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H866" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I866" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9">
+      <c r="A867">
+        <v>40</v>
+      </c>
+      <c r="B867" t="s">
+        <v>82</v>
+      </c>
+      <c r="C867" t="s">
+        <v>5</v>
+      </c>
+      <c r="D867">
+        <v>7.29</v>
+      </c>
+      <c r="F867" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G867" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H867" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I867" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9">
+      <c r="A868">
+        <v>41</v>
+      </c>
+      <c r="B868" t="s">
+        <v>82</v>
+      </c>
+      <c r="C868" t="s">
+        <v>4</v>
+      </c>
+      <c r="D868">
+        <v>5.8840000000000003</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G868" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H868" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I868" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9">
+      <c r="A869">
+        <v>42</v>
+      </c>
+      <c r="B869" t="s">
+        <v>82</v>
+      </c>
+      <c r="C869" t="s">
+        <v>4</v>
+      </c>
+      <c r="D869">
+        <v>5.95</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G869" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H869" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I869" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9">
+      <c r="A870">
+        <v>43</v>
+      </c>
+      <c r="B870" t="s">
+        <v>82</v>
+      </c>
+      <c r="C870" t="s">
+        <v>4</v>
+      </c>
+      <c r="D870">
+        <v>9.32</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G870" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H870" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I870" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9">
+      <c r="A871">
+        <v>44</v>
+      </c>
+      <c r="B871" t="s">
+        <v>82</v>
+      </c>
+      <c r="C871" t="s">
+        <v>75</v>
+      </c>
+      <c r="D871">
+        <v>8.9469999999999992</v>
+      </c>
+      <c r="F871" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G871" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H871" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I871" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9">
+      <c r="A872">
+        <v>45</v>
+      </c>
+      <c r="B872" t="s">
+        <v>82</v>
+      </c>
+      <c r="C872" t="s">
+        <v>4</v>
+      </c>
+      <c r="D872">
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G872" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H872" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I872" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9">
+      <c r="A873">
+        <v>46</v>
+      </c>
+      <c r="B873" t="s">
+        <v>82</v>
+      </c>
+      <c r="C873" t="s">
+        <v>5</v>
+      </c>
+      <c r="D873">
+        <v>8.9260000000000002</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G873" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H873" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I873" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9">
+      <c r="A874">
+        <v>47</v>
+      </c>
+      <c r="B874" t="s">
+        <v>82</v>
+      </c>
+      <c r="C874" t="s">
+        <v>4</v>
+      </c>
+      <c r="D874">
+        <v>6.5570000000000004</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G874" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H874" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I874" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9">
+      <c r="A875">
+        <v>48</v>
+      </c>
+      <c r="B875" t="s">
+        <v>82</v>
+      </c>
+      <c r="C875" t="s">
+        <v>75</v>
+      </c>
+      <c r="D875">
+        <v>9.4459999999999997</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G875" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H875" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I875" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9">
+      <c r="A876">
+        <v>49</v>
+      </c>
+      <c r="B876" t="s">
+        <v>82</v>
+      </c>
+      <c r="C876" t="s">
+        <v>4</v>
+      </c>
+      <c r="D876">
+        <v>5.4020000000000001</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G876" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H876" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I876" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9">
+      <c r="A877">
+        <v>50</v>
+      </c>
+      <c r="B877" t="s">
+        <v>82</v>
+      </c>
+      <c r="C877" t="s">
+        <v>4</v>
+      </c>
+      <c r="D877">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G877" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H877" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I877" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9">
+      <c r="A878">
+        <v>51</v>
+      </c>
+      <c r="B878" t="s">
+        <v>82</v>
+      </c>
+      <c r="C878" t="s">
+        <v>4</v>
+      </c>
+      <c r="D878">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G878" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H878" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I878" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9">
+      <c r="A879">
+        <v>52</v>
+      </c>
+      <c r="B879" t="s">
+        <v>82</v>
+      </c>
+      <c r="C879" t="s">
+        <v>4</v>
+      </c>
+      <c r="D879">
+        <v>9.3409999999999993</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G879" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H879" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I879" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9">
+      <c r="A880">
+        <v>53</v>
+      </c>
+      <c r="B880" t="s">
+        <v>82</v>
+      </c>
+      <c r="C880" t="s">
+        <v>5</v>
+      </c>
+      <c r="D880">
+        <v>7.49</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G880" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H880" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I880" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9">
+      <c r="A881">
+        <v>54</v>
+      </c>
+      <c r="B881" t="s">
+        <v>82</v>
+      </c>
+      <c r="C881" t="s">
+        <v>4</v>
+      </c>
+      <c r="D881">
+        <v>5.657</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H881" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I881" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9">
+      <c r="A882">
+        <v>55</v>
+      </c>
+      <c r="B882" t="s">
+        <v>82</v>
+      </c>
+      <c r="C882" t="s">
+        <v>4</v>
+      </c>
+      <c r="D882">
+        <v>6.3570000000000002</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G882" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H882" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I882" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9">
+      <c r="A883">
+        <v>56</v>
+      </c>
+      <c r="B883" t="s">
+        <v>82</v>
+      </c>
+      <c r="C883" t="s">
+        <v>4</v>
+      </c>
+      <c r="D883">
+        <v>8.0570000000000004</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H883" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I883" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9">
+      <c r="A884">
+        <v>57</v>
+      </c>
+      <c r="B884" t="s">
+        <v>82</v>
+      </c>
+      <c r="C884" t="s">
+        <v>75</v>
+      </c>
+      <c r="D884">
+        <v>7.5140000000000002</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G884" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H884" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I884" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9">
+      <c r="A885">
+        <v>58</v>
+      </c>
+      <c r="B885" t="s">
+        <v>82</v>
+      </c>
+      <c r="C885" t="s">
+        <v>4</v>
+      </c>
+      <c r="D885">
+        <v>6.3390000000000004</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G885" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H885" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I885" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9">
+      <c r="A886">
+        <v>59</v>
+      </c>
+      <c r="B886" t="s">
+        <v>82</v>
+      </c>
+      <c r="C886" t="s">
+        <v>5</v>
+      </c>
+      <c r="D886">
+        <v>7.375</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G886" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H886" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I886" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9">
+      <c r="A887">
+        <v>60</v>
+      </c>
+      <c r="B887" t="s">
+        <v>82</v>
+      </c>
+      <c r="C887" t="s">
+        <v>4</v>
+      </c>
+      <c r="D887">
+        <v>7.9669999999999996</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G887" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H887" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I887" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9">
+      <c r="A888">
+        <v>61</v>
+      </c>
+      <c r="B888" t="s">
+        <v>82</v>
+      </c>
+      <c r="C888" t="s">
+        <v>5</v>
+      </c>
+      <c r="D888">
+        <v>6.43</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G888" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H888" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I888" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9">
+      <c r="A889">
+        <v>62</v>
+      </c>
+      <c r="B889" t="s">
+        <v>82</v>
+      </c>
+      <c r="C889" t="s">
+        <v>4</v>
+      </c>
+      <c r="D889">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G889" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H889" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I889" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9">
+      <c r="A890">
+        <v>63</v>
+      </c>
+      <c r="B890" t="s">
+        <v>82</v>
+      </c>
+      <c r="C890" t="s">
+        <v>4</v>
+      </c>
+      <c r="D890">
+        <v>10.278</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G890" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H890" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I890" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9">
+      <c r="A891">
+        <v>64</v>
+      </c>
+      <c r="B891" t="s">
+        <v>82</v>
+      </c>
+      <c r="C891" t="s">
+        <v>5</v>
+      </c>
+      <c r="D891">
+        <v>10.496</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G891" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H891" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I891" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9">
+      <c r="A892">
+        <v>65</v>
+      </c>
+      <c r="B892" t="s">
+        <v>82</v>
+      </c>
+      <c r="C892" t="s">
+        <v>4</v>
+      </c>
+      <c r="D892">
+        <v>4.5529999999999999</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G892" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H892" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I892" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9">
+      <c r="A893">
+        <v>66</v>
+      </c>
+      <c r="B893" t="s">
+        <v>82</v>
+      </c>
+      <c r="C893" t="s">
+        <v>4</v>
+      </c>
+      <c r="D893">
+        <v>5.9</v>
+      </c>
+      <c r="F893" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G893" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H893" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I893" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9">
+      <c r="A894">
+        <v>67</v>
+      </c>
+      <c r="B894" t="s">
+        <v>82</v>
+      </c>
+      <c r="C894" t="s">
+        <v>5</v>
+      </c>
+      <c r="D894">
+        <v>7.774</v>
+      </c>
+      <c r="F894" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G894" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H894" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I894" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9">
+      <c r="A895">
+        <v>68</v>
+      </c>
+      <c r="B895" t="s">
+        <v>82</v>
+      </c>
+      <c r="C895" t="s">
+        <v>4</v>
+      </c>
+      <c r="D895">
+        <v>6.8739999999999997</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G895" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H895" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I895" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9">
+      <c r="A896">
+        <v>69</v>
+      </c>
+      <c r="B896" t="s">
+        <v>82</v>
+      </c>
+      <c r="C896" t="s">
+        <v>4</v>
+      </c>
+      <c r="D896">
+        <v>8.4390000000000001</v>
+      </c>
+      <c r="F896" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G896" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H896" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I896" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9">
+      <c r="A897">
+        <v>70</v>
+      </c>
+      <c r="B897" t="s">
+        <v>82</v>
+      </c>
+      <c r="C897" t="s">
+        <v>5</v>
+      </c>
+      <c r="D897">
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="F897" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G897" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H897" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I897" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9">
+      <c r="A898">
+        <v>71</v>
+      </c>
+      <c r="B898" t="s">
+        <v>82</v>
+      </c>
+      <c r="C898" t="s">
+        <v>4</v>
+      </c>
+      <c r="D898">
+        <v>9.0739999999999998</v>
+      </c>
+      <c r="F898" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G898" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H898" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I898" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9">
+      <c r="A899">
+        <v>72</v>
+      </c>
+      <c r="B899" t="s">
+        <v>82</v>
+      </c>
+      <c r="C899" t="s">
+        <v>5</v>
+      </c>
+      <c r="D899">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="F899" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G899" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H899" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I899" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9">
+      <c r="A900">
+        <v>73</v>
+      </c>
+      <c r="B900" t="s">
+        <v>82</v>
+      </c>
+      <c r="C900" t="s">
+        <v>4</v>
+      </c>
+      <c r="D900">
+        <v>8.9649999999999999</v>
+      </c>
+      <c r="F900" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G900" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H900" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I900" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9">
+      <c r="A901">
+        <v>74</v>
+      </c>
+      <c r="B901" t="s">
+        <v>82</v>
+      </c>
+      <c r="C901" t="s">
+        <v>4</v>
+      </c>
+      <c r="D901">
+        <v>6.2089999999999996</v>
+      </c>
+      <c r="F901" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G901" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H901" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I901" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9">
+      <c r="A902">
+        <v>75</v>
+      </c>
+      <c r="B902" t="s">
+        <v>82</v>
+      </c>
+      <c r="C902" t="s">
+        <v>5</v>
+      </c>
+      <c r="D902">
+        <v>6.12</v>
+      </c>
+      <c r="F902" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G902" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H902" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I902" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9">
+      <c r="A903">
+        <v>76</v>
+      </c>
+      <c r="B903" t="s">
+        <v>82</v>
+      </c>
+      <c r="C903" t="s">
+        <v>76</v>
+      </c>
+      <c r="F903" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G903" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H903" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I903" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9">
+      <c r="A904">
+        <v>77</v>
+      </c>
+      <c r="B904" t="s">
+        <v>82</v>
+      </c>
+      <c r="C904" t="s">
+        <v>76</v>
+      </c>
+      <c r="E904" s="8">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="F904" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G904" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H904" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I904" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9">
+      <c r="A905">
+        <v>1</v>
+      </c>
+      <c r="B905" t="s">
+        <v>73</v>
+      </c>
+      <c r="C905" t="s">
+        <v>13</v>
+      </c>
+      <c r="D905">
+        <v>10.96</v>
+      </c>
+      <c r="E905" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="F905" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G905" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H905" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I905" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9">
+      <c r="A906">
+        <v>2</v>
+      </c>
+      <c r="B906" t="s">
+        <v>73</v>
+      </c>
+      <c r="C906" t="s">
+        <v>4</v>
+      </c>
+      <c r="D906">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F906" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G906" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H906" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I906" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9">
+      <c r="A907">
+        <v>3</v>
+      </c>
+      <c r="B907" t="s">
+        <v>73</v>
+      </c>
+      <c r="C907" t="s">
+        <v>5</v>
+      </c>
+      <c r="D907">
+        <v>5.8259999999999996</v>
+      </c>
+      <c r="F907" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G907" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H907" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I907" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9">
+      <c r="A908">
+        <v>4</v>
+      </c>
+      <c r="B908" t="s">
+        <v>73</v>
+      </c>
+      <c r="C908" t="s">
+        <v>4</v>
+      </c>
+      <c r="D908">
+        <v>9.0719999999999992</v>
+      </c>
+      <c r="F908" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G908" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H908" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I908" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9">
+      <c r="A909">
+        <v>5</v>
+      </c>
+      <c r="B909" t="s">
+        <v>73</v>
+      </c>
+      <c r="C909" t="s">
+        <v>75</v>
+      </c>
+      <c r="D909">
+        <v>10.207000000000001</v>
+      </c>
+      <c r="F909" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G909" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H909" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I909" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9">
+      <c r="A910">
+        <v>6</v>
+      </c>
+      <c r="B910" t="s">
+        <v>73</v>
+      </c>
+      <c r="C910" t="s">
+        <v>4</v>
+      </c>
+      <c r="D910">
+        <v>9.83</v>
+      </c>
+      <c r="F910" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G910" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H910" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I910" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9">
+      <c r="A911">
+        <v>7</v>
+      </c>
+      <c r="B911" t="s">
+        <v>73</v>
+      </c>
+      <c r="C911" t="s">
+        <v>4</v>
+      </c>
+      <c r="D911">
+        <v>8.0410000000000004</v>
+      </c>
+      <c r="F911" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G911" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H911" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I911" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9">
+      <c r="A912">
+        <v>8</v>
+      </c>
+      <c r="B912" t="s">
+        <v>73</v>
+      </c>
+      <c r="C912" t="s">
+        <v>5</v>
+      </c>
+      <c r="D912">
+        <v>6.2069999999999999</v>
+      </c>
+      <c r="F912" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G912" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H912" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I912" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9">
+      <c r="A913">
+        <v>9</v>
+      </c>
+      <c r="B913" t="s">
+        <v>73</v>
+      </c>
+      <c r="C913" t="s">
+        <v>4</v>
+      </c>
+      <c r="D913">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G913" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H913" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I913" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9">
+      <c r="A914">
+        <v>10</v>
+      </c>
+      <c r="B914" t="s">
+        <v>73</v>
+      </c>
+      <c r="C914" t="s">
+        <v>75</v>
+      </c>
+      <c r="D914">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="F914" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G914" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H914" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I914" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9">
+      <c r="A915">
+        <v>11</v>
+      </c>
+      <c r="B915" t="s">
+        <v>73</v>
+      </c>
+      <c r="C915" t="s">
+        <v>4</v>
+      </c>
+      <c r="D915">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="F915" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G915" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H915" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I915" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9">
+      <c r="A916">
+        <v>12</v>
+      </c>
+      <c r="B916" t="s">
+        <v>73</v>
+      </c>
+      <c r="C916" t="s">
+        <v>5</v>
+      </c>
+      <c r="D916">
+        <v>7.0359999999999996</v>
+      </c>
+      <c r="F916" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G916" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H916" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I916" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9">
+      <c r="A917">
+        <v>13</v>
+      </c>
+      <c r="B917" t="s">
+        <v>73</v>
+      </c>
+      <c r="C917" t="s">
+        <v>4</v>
+      </c>
+      <c r="D917">
+        <v>6.101</v>
+      </c>
+      <c r="F917" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G917" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H917" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I917" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9">
+      <c r="A918">
+        <v>14</v>
+      </c>
+      <c r="B918" t="s">
+        <v>73</v>
+      </c>
+      <c r="C918" t="s">
+        <v>4</v>
+      </c>
+      <c r="D918">
+        <v>5.2779999999999996</v>
+      </c>
+      <c r="F918" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G918" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H918" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I918" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9">
+      <c r="A919">
+        <v>15</v>
+      </c>
+      <c r="B919" t="s">
+        <v>73</v>
+      </c>
+      <c r="C919" t="s">
+        <v>5</v>
+      </c>
+      <c r="D919">
+        <v>8.1790000000000003</v>
+      </c>
+      <c r="F919" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G919" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H919" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I919" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9">
+      <c r="A920">
+        <v>16</v>
+      </c>
+      <c r="B920" t="s">
+        <v>73</v>
+      </c>
+      <c r="C920" t="s">
+        <v>4</v>
+      </c>
+      <c r="D920">
+        <v>6.7949999999999999</v>
+      </c>
+      <c r="F920" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G920" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H920" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I920" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9">
+      <c r="A921">
+        <v>17</v>
+      </c>
+      <c r="B921" t="s">
+        <v>73</v>
+      </c>
+      <c r="C921" t="s">
+        <v>4</v>
+      </c>
+      <c r="D921">
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="F921" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G921" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H921" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I921" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9">
+      <c r="A922">
+        <v>18</v>
+      </c>
+      <c r="B922" t="s">
+        <v>73</v>
+      </c>
+      <c r="C922" t="s">
+        <v>5</v>
+      </c>
+      <c r="D922">
+        <v>5.8780000000000001</v>
+      </c>
+      <c r="F922" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G922" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H922" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I922" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9">
+      <c r="A923">
+        <v>19</v>
+      </c>
+      <c r="B923" t="s">
+        <v>73</v>
+      </c>
+      <c r="C923" t="s">
+        <v>75</v>
+      </c>
+      <c r="D923">
+        <v>7.7839999999999998</v>
+      </c>
+      <c r="F923" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G923" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H923" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I923" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9">
+      <c r="A924">
+        <v>20</v>
+      </c>
+      <c r="B924" t="s">
+        <v>73</v>
+      </c>
+      <c r="C924" t="s">
+        <v>4</v>
+      </c>
+      <c r="D924">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="F924" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G924" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H924" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I924" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9">
+      <c r="A925">
+        <v>21</v>
+      </c>
+      <c r="B925" t="s">
+        <v>73</v>
+      </c>
+      <c r="C925" t="s">
+        <v>4</v>
+      </c>
+      <c r="D925">
+        <v>5.98</v>
+      </c>
+      <c r="F925" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G925" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H925" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I925" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9">
+      <c r="A926">
+        <v>22</v>
+      </c>
+      <c r="B926" t="s">
+        <v>73</v>
+      </c>
+      <c r="C926" t="s">
+        <v>5</v>
+      </c>
+      <c r="D926">
+        <v>6.6479999999999997</v>
+      </c>
+      <c r="F926" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G926" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H926" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I926" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9">
+      <c r="A927">
+        <v>23</v>
+      </c>
+      <c r="B927" t="s">
+        <v>73</v>
+      </c>
+      <c r="C927" t="s">
+        <v>4</v>
+      </c>
+      <c r="D927">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="F927" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G927" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H927" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I927" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9">
+      <c r="A928">
+        <v>24</v>
+      </c>
+      <c r="B928" t="s">
+        <v>73</v>
+      </c>
+      <c r="C928" t="s">
+        <v>4</v>
+      </c>
+      <c r="D928">
+        <v>7.6150000000000002</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G928" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H928" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I928" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9">
+      <c r="A929">
+        <v>25</v>
+      </c>
+      <c r="B929" t="s">
+        <v>73</v>
+      </c>
+      <c r="C929" t="s">
+        <v>4</v>
+      </c>
+      <c r="D929">
+        <v>6.3540000000000001</v>
+      </c>
+      <c r="F929" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G929" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H929" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I929" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9">
+      <c r="A930">
+        <v>26</v>
+      </c>
+      <c r="B930" t="s">
+        <v>73</v>
+      </c>
+      <c r="C930" t="s">
+        <v>13</v>
+      </c>
+      <c r="D930">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="F930" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G930" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H930" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I930" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9">
+      <c r="A931">
+        <v>27</v>
+      </c>
+      <c r="B931" t="s">
+        <v>73</v>
+      </c>
+      <c r="C931" t="s">
+        <v>4</v>
+      </c>
+      <c r="D931">
+        <v>11.178000000000001</v>
+      </c>
+      <c r="F931" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G931" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H931" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I931" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9">
+      <c r="A932">
+        <v>28</v>
+      </c>
+      <c r="B932" t="s">
+        <v>73</v>
+      </c>
+      <c r="C932" t="s">
+        <v>5</v>
+      </c>
+      <c r="D932">
+        <v>7.68</v>
+      </c>
+      <c r="F932" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G932" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H932" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I932" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9">
+      <c r="A933">
+        <v>29</v>
+      </c>
+      <c r="B933" t="s">
+        <v>73</v>
+      </c>
+      <c r="C933" t="s">
+        <v>4</v>
+      </c>
+      <c r="D933">
+        <v>6.319</v>
+      </c>
+      <c r="F933" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G933" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H933" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I933" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9">
+      <c r="A934">
+        <v>30</v>
+      </c>
+      <c r="B934" t="s">
+        <v>73</v>
+      </c>
+      <c r="C934" t="s">
+        <v>5</v>
+      </c>
+      <c r="D934">
+        <v>9.9130000000000003</v>
+      </c>
+      <c r="F934" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G934" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H934" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I934" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9">
+      <c r="A935">
+        <v>31</v>
+      </c>
+      <c r="B935" t="s">
+        <v>73</v>
+      </c>
+      <c r="C935" t="s">
+        <v>4</v>
+      </c>
+      <c r="D935">
+        <v>5.1980000000000004</v>
+      </c>
+      <c r="F935" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G935" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H935" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I935" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9">
+      <c r="A936">
+        <v>32</v>
+      </c>
+      <c r="B936" t="s">
+        <v>73</v>
+      </c>
+      <c r="C936" t="s">
+        <v>4</v>
+      </c>
+      <c r="D936">
+        <v>7.306</v>
+      </c>
+      <c r="F936" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G936" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H936" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I936" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9">
+      <c r="A937">
+        <v>33</v>
+      </c>
+      <c r="B937" t="s">
+        <v>73</v>
+      </c>
+      <c r="C937" t="s">
+        <v>75</v>
+      </c>
+      <c r="D937">
+        <v>11.694000000000001</v>
+      </c>
+      <c r="F937" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G937" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H937" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I937" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9">
+      <c r="A938">
+        <v>34</v>
+      </c>
+      <c r="B938" t="s">
+        <v>73</v>
+      </c>
+      <c r="C938" t="s">
+        <v>4</v>
+      </c>
+      <c r="D938">
+        <v>4.843</v>
+      </c>
+      <c r="F938" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G938" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H938" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I938" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939">
+        <v>35</v>
+      </c>
+      <c r="B939" t="s">
+        <v>73</v>
+      </c>
+      <c r="C939" t="s">
+        <v>4</v>
+      </c>
+      <c r="D939">
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="F939" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G939" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H939" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I939" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9">
+      <c r="A940">
+        <v>36</v>
+      </c>
+      <c r="B940" t="s">
+        <v>73</v>
+      </c>
+      <c r="C940" t="s">
+        <v>5</v>
+      </c>
+      <c r="D940">
+        <v>5.5069999999999997</v>
+      </c>
+      <c r="F940" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G940" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H940" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I940" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9">
+      <c r="A941">
+        <v>37</v>
+      </c>
+      <c r="B941" t="s">
+        <v>73</v>
+      </c>
+      <c r="C941" t="s">
+        <v>4</v>
+      </c>
+      <c r="D941">
+        <v>7.4660000000000002</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G941" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H941" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I941" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9">
+      <c r="A942">
+        <v>38</v>
+      </c>
+      <c r="B942" t="s">
+        <v>73</v>
+      </c>
+      <c r="C942" t="s">
+        <v>4</v>
+      </c>
+      <c r="D942">
+        <v>5.1429999999999998</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G942" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H942" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I942" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9">
+      <c r="A943">
+        <v>39</v>
+      </c>
+      <c r="B943" t="s">
+        <v>73</v>
+      </c>
+      <c r="C943" t="s">
+        <v>13</v>
+      </c>
+      <c r="D943">
+        <v>10.494</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G943" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H943" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I943" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9">
+      <c r="A944">
+        <v>40</v>
+      </c>
+      <c r="B944" t="s">
+        <v>73</v>
+      </c>
+      <c r="C944" t="s">
+        <v>4</v>
+      </c>
+      <c r="D944">
+        <v>5.4829999999999997</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G944" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H944" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I944" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9">
+      <c r="A945">
+        <v>41</v>
+      </c>
+      <c r="B945" t="s">
+        <v>73</v>
+      </c>
+      <c r="C945" t="s">
+        <v>4</v>
+      </c>
+      <c r="D945">
+        <v>13.129</v>
+      </c>
+      <c r="F945" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G945" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H945" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I945" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9">
+      <c r="A946">
+        <v>42</v>
+      </c>
+      <c r="B946" t="s">
+        <v>73</v>
+      </c>
+      <c r="C946" t="s">
+        <v>5</v>
+      </c>
+      <c r="D946">
+        <v>7.774</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G946" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H946" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I946" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9">
+      <c r="A947">
+        <v>43</v>
+      </c>
+      <c r="B947" t="s">
+        <v>73</v>
+      </c>
+      <c r="C947" t="s">
+        <v>4</v>
+      </c>
+      <c r="D947">
+        <v>6.99</v>
+      </c>
+      <c r="F947" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G947" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H947" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I947" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9">
+      <c r="A948">
+        <v>44</v>
+      </c>
+      <c r="B948" t="s">
+        <v>73</v>
+      </c>
+      <c r="C948" t="s">
+        <v>4</v>
+      </c>
+      <c r="D948">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="F948" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G948" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H948" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I948" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9">
+      <c r="A949">
+        <v>45</v>
+      </c>
+      <c r="B949" t="s">
+        <v>73</v>
+      </c>
+      <c r="C949" t="s">
+        <v>75</v>
+      </c>
+      <c r="D949">
+        <v>8.6129999999999995</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G949" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H949" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I949" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9">
+      <c r="A950">
+        <v>46</v>
+      </c>
+      <c r="B950" t="s">
+        <v>73</v>
+      </c>
+      <c r="C950" t="s">
+        <v>4</v>
+      </c>
+      <c r="D950">
+        <v>7.819</v>
+      </c>
+      <c r="F950" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G950" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H950" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I950" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9">
+      <c r="A951">
+        <v>47</v>
+      </c>
+      <c r="B951" t="s">
+        <v>73</v>
+      </c>
+      <c r="C951" t="s">
+        <v>4</v>
+      </c>
+      <c r="D951">
+        <v>9.2260000000000009</v>
+      </c>
+      <c r="F951" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G951" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H951" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I951" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9">
+      <c r="A952">
+        <v>48</v>
+      </c>
+      <c r="B952" t="s">
+        <v>73</v>
+      </c>
+      <c r="C952" t="s">
+        <v>5</v>
+      </c>
+      <c r="D952">
+        <v>7.4630000000000001</v>
+      </c>
+      <c r="F952" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G952" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H952" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I952" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9">
+      <c r="A953">
+        <v>49</v>
+      </c>
+      <c r="B953" t="s">
+        <v>73</v>
+      </c>
+      <c r="C953" t="s">
+        <v>4</v>
+      </c>
+      <c r="D953">
+        <v>6.7169999999999996</v>
+      </c>
+      <c r="F953" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G953" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H953" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I953" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9">
+      <c r="A954">
+        <v>50</v>
+      </c>
+      <c r="B954" t="s">
+        <v>73</v>
+      </c>
+      <c r="C954" t="s">
+        <v>4</v>
+      </c>
+      <c r="D954">
+        <v>8.6530000000000005</v>
+      </c>
+      <c r="F954" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G954" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H954" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I954" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9">
+      <c r="A955">
+        <v>51</v>
+      </c>
+      <c r="B955" t="s">
+        <v>73</v>
+      </c>
+      <c r="C955" t="s">
+        <v>5</v>
+      </c>
+      <c r="D955">
+        <v>9.3160000000000007</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G955" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H955" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I955" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9">
+      <c r="A956">
+        <v>52</v>
+      </c>
+      <c r="B956" t="s">
+        <v>73</v>
+      </c>
+      <c r="C956" t="s">
+        <v>4</v>
+      </c>
+      <c r="D956">
+        <v>8.8070000000000004</v>
+      </c>
+      <c r="F956" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G956" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H956" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I956" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9">
+      <c r="A957">
+        <v>53</v>
+      </c>
+      <c r="B957" t="s">
+        <v>73</v>
+      </c>
+      <c r="C957" t="s">
+        <v>5</v>
+      </c>
+      <c r="D957">
+        <v>10.302</v>
+      </c>
+      <c r="F957" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G957" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H957" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I957" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9">
+      <c r="A958">
+        <v>54</v>
+      </c>
+      <c r="B958" t="s">
+        <v>73</v>
+      </c>
+      <c r="C958" t="s">
+        <v>4</v>
+      </c>
+      <c r="D958">
+        <v>7.4489999999999998</v>
+      </c>
+      <c r="F958" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G958" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H958" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I958" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9">
+      <c r="A959">
+        <v>55</v>
+      </c>
+      <c r="B959" t="s">
+        <v>73</v>
+      </c>
+      <c r="C959" t="s">
+        <v>5</v>
+      </c>
+      <c r="D959">
+        <v>12.367000000000001</v>
+      </c>
+      <c r="F959" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G959" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H959" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I959" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9">
+      <c r="A960">
+        <v>56</v>
+      </c>
+      <c r="B960" t="s">
+        <v>73</v>
+      </c>
+      <c r="C960" t="s">
+        <v>4</v>
+      </c>
+      <c r="D960">
+        <v>7.0330000000000004</v>
+      </c>
+      <c r="F960" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G960" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H960" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I960" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9">
+      <c r="A961">
+        <v>57</v>
+      </c>
+      <c r="B961" t="s">
+        <v>73</v>
+      </c>
+      <c r="C961" t="s">
+        <v>5</v>
+      </c>
+      <c r="D961">
+        <v>5.569</v>
+      </c>
+      <c r="F961" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G961" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H961" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I961" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9">
+      <c r="A962">
+        <v>58</v>
+      </c>
+      <c r="B962" t="s">
+        <v>73</v>
+      </c>
+      <c r="C962" t="s">
+        <v>5</v>
+      </c>
+      <c r="D962">
+        <v>7.024</v>
+      </c>
+      <c r="F962" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G962" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H962" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I962" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9">
+      <c r="A963">
+        <v>59</v>
+      </c>
+      <c r="B963" t="s">
+        <v>73</v>
+      </c>
+      <c r="C963" t="s">
+        <v>4</v>
+      </c>
+      <c r="D963">
+        <v>11</v>
+      </c>
+      <c r="F963" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G963" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H963" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I963" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9">
+      <c r="A964">
+        <v>60</v>
+      </c>
+      <c r="B964" t="s">
+        <v>73</v>
+      </c>
+      <c r="C964" t="s">
+        <v>4</v>
+      </c>
+      <c r="D964">
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="F964" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G964" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H964" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I964" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9">
+      <c r="A965">
+        <v>61</v>
+      </c>
+      <c r="B965" t="s">
+        <v>73</v>
+      </c>
+      <c r="C965" t="s">
+        <v>75</v>
+      </c>
+      <c r="D965">
+        <v>9.2989999999999995</v>
+      </c>
+      <c r="F965" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G965" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H965" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I965" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9">
+      <c r="A966">
+        <v>62</v>
+      </c>
+      <c r="B966" t="s">
+        <v>73</v>
+      </c>
+      <c r="C966" t="s">
+        <v>4</v>
+      </c>
+      <c r="D966">
+        <v>7.601</v>
+      </c>
+      <c r="F966" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G966" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H966" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I966" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9">
+      <c r="A967">
+        <v>63</v>
+      </c>
+      <c r="B967" t="s">
+        <v>73</v>
+      </c>
+      <c r="C967" t="s">
+        <v>4</v>
+      </c>
+      <c r="D967">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="F967" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G967" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H967" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I967" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9">
+      <c r="A968">
+        <v>64</v>
+      </c>
+      <c r="B968" t="s">
+        <v>73</v>
+      </c>
+      <c r="C968" t="s">
+        <v>5</v>
+      </c>
+      <c r="D968">
+        <v>7.524</v>
+      </c>
+      <c r="F968" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G968" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H968" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I968" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9">
+      <c r="A969">
+        <v>65</v>
+      </c>
+      <c r="B969" t="s">
+        <v>73</v>
+      </c>
+      <c r="C969" t="s">
+        <v>4</v>
+      </c>
+      <c r="D969">
+        <v>6.8789999999999996</v>
+      </c>
+      <c r="F969" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G969" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H969" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I969" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9">
+      <c r="A970">
+        <v>66</v>
+      </c>
+      <c r="B970" t="s">
+        <v>73</v>
+      </c>
+      <c r="C970" t="s">
+        <v>4</v>
+      </c>
+      <c r="D970">
+        <v>7.2380000000000004</v>
+      </c>
+      <c r="F970" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G970" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H970" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I970" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9">
+      <c r="A971">
+        <v>67</v>
+      </c>
+      <c r="B971" t="s">
+        <v>73</v>
+      </c>
+      <c r="C971" t="s">
+        <v>75</v>
+      </c>
+      <c r="D971">
+        <v>11.852</v>
+      </c>
+      <c r="F971" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G971" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H971" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I971" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9">
+      <c r="A972">
+        <v>68</v>
+      </c>
+      <c r="B972" t="s">
+        <v>73</v>
+      </c>
+      <c r="C972" t="s">
+        <v>4</v>
+      </c>
+      <c r="D972">
+        <v>8.9350000000000005</v>
+      </c>
+      <c r="F972" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G972" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H972" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I972" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9">
+      <c r="A973">
+        <v>69</v>
+      </c>
+      <c r="B973" t="s">
+        <v>73</v>
+      </c>
+      <c r="C973" t="s">
+        <v>4</v>
+      </c>
+      <c r="D973">
+        <v>7.1630000000000003</v>
+      </c>
+      <c r="F973" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G973" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H973" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I973" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9">
+      <c r="A974">
+        <v>70</v>
+      </c>
+      <c r="B974" t="s">
+        <v>73</v>
+      </c>
+      <c r="C974" t="s">
+        <v>5</v>
+      </c>
+      <c r="D974">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="F974" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G974" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H974" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I974" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9">
+      <c r="A975">
+        <v>71</v>
+      </c>
+      <c r="B975" t="s">
+        <v>73</v>
+      </c>
+      <c r="C975" t="s">
+        <v>4</v>
+      </c>
+      <c r="D975">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="F975" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G975" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H975" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I975" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9">
+      <c r="A976">
+        <v>72</v>
+      </c>
+      <c r="B976" t="s">
+        <v>73</v>
+      </c>
+      <c r="C976" t="s">
+        <v>4</v>
+      </c>
+      <c r="D976">
+        <v>6.8289999999999997</v>
+      </c>
+      <c r="F976" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G976" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H976" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I976" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9">
+      <c r="A977">
+        <v>73</v>
+      </c>
+      <c r="B977" t="s">
+        <v>73</v>
+      </c>
+      <c r="C977" t="s">
+        <v>5</v>
+      </c>
+      <c r="D977">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="F977" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G977" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H977" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I977" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9">
+      <c r="A978">
+        <v>74</v>
+      </c>
+      <c r="B978" t="s">
+        <v>73</v>
+      </c>
+      <c r="C978" t="s">
+        <v>4</v>
+      </c>
+      <c r="D978">
+        <v>7.8150000000000004</v>
+      </c>
+      <c r="F978" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G978" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H978" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I978" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9">
+      <c r="A979">
+        <v>75</v>
+      </c>
+      <c r="B979" t="s">
+        <v>73</v>
+      </c>
+      <c r="C979" t="s">
+        <v>4</v>
+      </c>
+      <c r="D979">
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="F979" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G979" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H979" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I979" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9">
+      <c r="A980">
+        <v>76</v>
+      </c>
+      <c r="B980" t="s">
+        <v>73</v>
+      </c>
+      <c r="C980" t="s">
+        <v>76</v>
+      </c>
+      <c r="F980" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G980" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H980" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I980" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9">
+      <c r="A981">
+        <v>77</v>
+      </c>
+      <c r="B981" t="s">
+        <v>73</v>
+      </c>
+      <c r="C981" t="s">
+        <v>76</v>
+      </c>
+      <c r="E981" s="8">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="F981" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G981" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H981" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I981" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -32900,10 +39267,14 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -466,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -483,8 +483,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -718,8 +727,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -770,8 +791,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -888,6 +919,12 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1004,6 +1041,12 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1271,7 +1314,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5650,8 +5693,8 @@
   <dimension ref="A1:S981"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22411,47 +22454,47 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:18" s="18" customFormat="1">
-      <c r="A368" s="18">
+    <row r="368" spans="1:18" s="31" customFormat="1">
+      <c r="A368" s="31">
         <v>78</v>
       </c>
-      <c r="B368" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C368" s="18" t="s">
+      <c r="B368" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C368" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E368" s="19">
+      <c r="E368" s="32">
         <v>0.67499999999999993</v>
       </c>
-      <c r="F368" s="20" t="s">
+      <c r="F368" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G368" s="20" t="s">
+      <c r="G368" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H368" s="20" t="s">
+      <c r="H368" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I368" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J368" s="18">
+      <c r="I368" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J368" s="31">
         <v>6262</v>
       </c>
-      <c r="K368" s="21">
+      <c r="K368" s="34">
         <v>0.45782407407407405</v>
       </c>
-      <c r="L368" s="18">
+      <c r="L368" s="31">
         <v>1.4782099999999999E-2</v>
       </c>
-      <c r="N368" s="19">
+      <c r="N368" s="32">
         <v>0.42291666666666666</v>
       </c>
-      <c r="O368" s="21">
+      <c r="O368" s="34">
         <v>0.6171875</v>
       </c>
-      <c r="P368" s="22">
+      <c r="P368" s="35">
         <v>1.18E-2</v>
       </c>
     </row>
@@ -26190,7 +26233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:12">
       <c r="A513">
         <v>70</v>
       </c>
@@ -26216,7 +26259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" spans="1:12">
       <c r="A514">
         <v>71</v>
       </c>
@@ -26242,7 +26285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:12">
       <c r="A515">
         <v>72</v>
       </c>
@@ -26268,7 +26311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:12">
       <c r="A516">
         <v>73</v>
       </c>
@@ -26294,7 +26337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:12">
       <c r="A517">
         <v>74</v>
       </c>
@@ -26320,7 +26363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:12">
       <c r="A518">
         <v>75</v>
       </c>
@@ -26346,7 +26389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:12">
       <c r="A519">
         <v>76</v>
       </c>
@@ -26366,7 +26409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" spans="1:12">
       <c r="A520">
         <v>77</v>
       </c>
@@ -26389,39 +26432,45 @@
         <v>37</v>
       </c>
     </row>
-    <row r="521" spans="1:10">
-      <c r="A521">
+    <row r="521" spans="1:12" s="27" customFormat="1">
+      <c r="A521" s="27">
         <v>1</v>
       </c>
-      <c r="B521" t="s">
-        <v>82</v>
-      </c>
-      <c r="C521" t="s">
-        <v>5</v>
-      </c>
-      <c r="D521">
+      <c r="B521" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C521" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D521" s="27">
         <v>5.8250000000000002</v>
       </c>
-      <c r="E521" s="8">
+      <c r="E521" s="28">
         <v>0.7909722222222223</v>
       </c>
-      <c r="F521" s="1" t="s">
+      <c r="F521" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G521" s="1" t="s">
+      <c r="G521" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H521" s="1" t="s">
+      <c r="H521" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I521" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J521">
+      <c r="I521" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J521" s="27">
         <v>7000</v>
       </c>
-    </row>
-    <row r="522" spans="1:10">
+      <c r="K521" s="30">
+        <v>0.43260416666666668</v>
+      </c>
+      <c r="L521" s="27">
+        <v>0.449291</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12">
       <c r="A522">
         <v>2</v>
       </c>
@@ -26449,8 +26498,14 @@
       <c r="J522">
         <v>7000</v>
       </c>
-    </row>
-    <row r="523" spans="1:10">
+      <c r="K522" s="16">
+        <v>0.43350694444444443</v>
+      </c>
+      <c r="L522" s="17">
+        <v>8.1100279999999997E-2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12">
       <c r="A523">
         <v>3</v>
       </c>
@@ -26478,8 +26533,14 @@
       <c r="J523">
         <v>7000</v>
       </c>
-    </row>
-    <row r="524" spans="1:10">
+      <c r="K523" s="16">
+        <v>0.43442129629629633</v>
+      </c>
+      <c r="L523">
+        <v>0.5449427</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12">
       <c r="A524">
         <v>4</v>
       </c>
@@ -26507,8 +26568,14 @@
       <c r="J524">
         <v>7000</v>
       </c>
-    </row>
-    <row r="525" spans="1:10">
+      <c r="K524" s="16">
+        <v>0.43530092592592595</v>
+      </c>
+      <c r="L524" s="17">
+        <v>4.9438120000000002E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12">
       <c r="A525">
         <v>5</v>
       </c>
@@ -26536,8 +26603,14 @@
       <c r="J525">
         <v>7000</v>
       </c>
-    </row>
-    <row r="526" spans="1:10">
+      <c r="K525" s="16">
+        <v>0.43627314814814816</v>
+      </c>
+      <c r="L525" s="17">
+        <v>6.6656930000000003E-2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12">
       <c r="A526">
         <v>6</v>
       </c>
@@ -26565,8 +26638,14 @@
       <c r="J526">
         <v>7000</v>
       </c>
-    </row>
-    <row r="527" spans="1:10">
+      <c r="K526" s="16">
+        <v>0.43718750000000001</v>
+      </c>
+      <c r="L526" s="17">
+        <v>6.0701280000000003E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12">
       <c r="A527">
         <v>7</v>
       </c>
@@ -26594,8 +26673,14 @@
       <c r="J527">
         <v>7000</v>
       </c>
-    </row>
-    <row r="528" spans="1:10">
+      <c r="K527" s="16">
+        <v>0.43812500000000004</v>
+      </c>
+      <c r="L527">
+        <v>0.15224499999999999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12">
       <c r="A528">
         <v>8</v>
       </c>
@@ -26623,8 +26708,14 @@
       <c r="J528">
         <v>7000</v>
       </c>
-    </row>
-    <row r="529" spans="1:10">
+      <c r="K528" s="16">
+        <v>0.43899305555555551</v>
+      </c>
+      <c r="L528">
+        <v>0.1051791</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12">
       <c r="A529">
         <v>9</v>
       </c>
@@ -26652,8 +26743,14 @@
       <c r="J529">
         <v>7000</v>
       </c>
-    </row>
-    <row r="530" spans="1:10">
+      <c r="K529" s="16">
+        <v>0.43990740740740741</v>
+      </c>
+      <c r="L529" s="17">
+        <v>8.964859E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12">
       <c r="A530">
         <v>10</v>
       </c>
@@ -26681,8 +26778,14 @@
       <c r="J530">
         <v>7000</v>
       </c>
-    </row>
-    <row r="531" spans="1:10">
+      <c r="K530" s="16">
+        <v>0.44094907407407408</v>
+      </c>
+      <c r="L530" s="17">
+        <v>8.4461389999999997E-2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12">
       <c r="A531">
         <v>11</v>
       </c>
@@ -26710,8 +26813,14 @@
       <c r="J531">
         <v>7000</v>
       </c>
-    </row>
-    <row r="532" spans="1:10">
+      <c r="K531" s="16">
+        <v>0.4418287037037037</v>
+      </c>
+      <c r="L531" s="17">
+        <v>8.4627579999999994E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
       <c r="A532">
         <v>12</v>
       </c>
@@ -26739,8 +26848,14 @@
       <c r="J532">
         <v>7000</v>
       </c>
-    </row>
-    <row r="533" spans="1:10">
+      <c r="K532" s="16">
+        <v>0.44297453703703704</v>
+      </c>
+      <c r="L532" s="17">
+        <v>5.4523879999999997E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12">
       <c r="A533">
         <v>13</v>
       </c>
@@ -26768,8 +26883,14 @@
       <c r="J533">
         <v>7000</v>
       </c>
-    </row>
-    <row r="534" spans="1:10">
+      <c r="K533" s="16">
+        <v>0.44405092592592593</v>
+      </c>
+      <c r="L533">
+        <v>0.46054519999999999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
       <c r="A534">
         <v>14</v>
       </c>
@@ -26797,8 +26918,14 @@
       <c r="J534">
         <v>7000</v>
       </c>
-    </row>
-    <row r="535" spans="1:10">
+      <c r="K534" s="16">
+        <v>0.44502314814814814</v>
+      </c>
+      <c r="L534">
+        <v>1.1155550000000001</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
       <c r="A535">
         <v>15</v>
       </c>
@@ -26826,8 +26953,14 @@
       <c r="J535">
         <v>7000</v>
       </c>
-    </row>
-    <row r="536" spans="1:10">
+      <c r="K535" s="16">
+        <v>0.44605324074074071</v>
+      </c>
+      <c r="L535" s="17">
+        <v>6.6882430000000007E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
       <c r="A536">
         <v>16</v>
       </c>
@@ -26855,8 +26988,14 @@
       <c r="J536">
         <v>7000</v>
       </c>
-    </row>
-    <row r="537" spans="1:10">
+      <c r="K536" s="16">
+        <v>0.44709490740740737</v>
+      </c>
+      <c r="L536" s="17">
+        <v>9.2494519999999997E-2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
       <c r="A537">
         <v>17</v>
       </c>
@@ -26884,8 +27023,14 @@
       <c r="J537">
         <v>7000</v>
       </c>
-    </row>
-    <row r="538" spans="1:10">
+      <c r="K537" s="16">
+        <v>0.44807870370370373</v>
+      </c>
+      <c r="L537">
+        <v>0.1119564</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
       <c r="A538">
         <v>18</v>
       </c>
@@ -26913,8 +27058,14 @@
       <c r="J538">
         <v>7000</v>
       </c>
-    </row>
-    <row r="539" spans="1:10">
+      <c r="K538" s="16">
+        <v>0.44898148148148148</v>
+      </c>
+      <c r="L538" s="17">
+        <v>5.9822880000000002E-2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
       <c r="A539">
         <v>19</v>
       </c>
@@ -26942,8 +27093,14 @@
       <c r="J539">
         <v>7000</v>
       </c>
-    </row>
-    <row r="540" spans="1:10">
+      <c r="K539" s="16">
+        <v>0.45009259259259254</v>
+      </c>
+      <c r="L539" s="17">
+        <v>5.2841230000000003E-2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
       <c r="A540">
         <v>20</v>
       </c>
@@ -26971,8 +27128,14 @@
       <c r="J540">
         <v>7000</v>
       </c>
-    </row>
-    <row r="541" spans="1:10">
+      <c r="K540" s="16">
+        <v>0.45118055555555553</v>
+      </c>
+      <c r="L540">
+        <v>0.4064779</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
       <c r="A541">
         <v>21</v>
       </c>
@@ -27000,8 +27163,14 @@
       <c r="J541">
         <v>7000</v>
       </c>
-    </row>
-    <row r="542" spans="1:10">
+      <c r="K541" s="16">
+        <v>0.4522916666666667</v>
+      </c>
+      <c r="L541">
+        <v>0.63773729999999995</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
       <c r="A542">
         <v>22</v>
       </c>
@@ -27029,8 +27198,14 @@
       <c r="J542">
         <v>7000</v>
       </c>
-    </row>
-    <row r="543" spans="1:10">
+      <c r="K542" s="16">
+        <v>0.4533449074074074</v>
+      </c>
+      <c r="L542" s="17">
+        <v>2.4223959999999999E-2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
       <c r="A543">
         <v>23</v>
       </c>
@@ -27058,8 +27233,14 @@
       <c r="J543">
         <v>7000</v>
       </c>
-    </row>
-    <row r="544" spans="1:10">
+      <c r="K543" s="16">
+        <v>0.45424768518518516</v>
+      </c>
+      <c r="L543">
+        <v>8.0990400000000004E-2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
       <c r="A544">
         <v>24</v>
       </c>
@@ -27087,8 +27268,14 @@
       <c r="J544">
         <v>7000</v>
       </c>
-    </row>
-    <row r="545" spans="1:10">
+      <c r="K544" s="16">
+        <v>0.45525462962962965</v>
+      </c>
+      <c r="L544" s="17">
+        <v>7.0667939999999999E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
       <c r="A545">
         <v>25</v>
       </c>
@@ -27116,8 +27303,14 @@
       <c r="J545">
         <v>7000</v>
       </c>
-    </row>
-    <row r="546" spans="1:10">
+      <c r="K545" s="16">
+        <v>0.45618055555555559</v>
+      </c>
+      <c r="L545" s="17">
+        <v>7.2613570000000002E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
       <c r="A546">
         <v>26</v>
       </c>
@@ -27145,8 +27338,14 @@
       <c r="J546">
         <v>7000</v>
       </c>
-    </row>
-    <row r="547" spans="1:10">
+      <c r="K546" s="16">
+        <v>0.45715277777777774</v>
+      </c>
+      <c r="L546">
+        <v>0.42210009999999998</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
       <c r="A547">
         <v>27</v>
       </c>
@@ -27174,8 +27373,14 @@
       <c r="J547">
         <v>7000</v>
       </c>
-    </row>
-    <row r="548" spans="1:10">
+      <c r="K547" s="16">
+        <v>0.45812499999999995</v>
+      </c>
+      <c r="L547" s="17">
+        <v>8.0455180000000001E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
       <c r="A548">
         <v>28</v>
       </c>
@@ -27203,8 +27408,14 @@
       <c r="J548">
         <v>7000</v>
       </c>
-    </row>
-    <row r="549" spans="1:10">
+      <c r="K548" s="16">
+        <v>0.4589699074074074</v>
+      </c>
+      <c r="L548" s="17">
+        <v>4.531541E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
       <c r="A549">
         <v>29</v>
       </c>
@@ -27232,8 +27443,14 @@
       <c r="J549">
         <v>7000</v>
       </c>
-    </row>
-    <row r="550" spans="1:10">
+      <c r="K549" s="16">
+        <v>0.45987268518518515</v>
+      </c>
+      <c r="L549" s="17">
+        <v>5.6695330000000002E-2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
       <c r="A550">
         <v>30</v>
       </c>
@@ -27261,8 +27478,14 @@
       <c r="J550">
         <v>7000</v>
       </c>
-    </row>
-    <row r="551" spans="1:10">
+      <c r="K550" s="16">
+        <v>0.46082175925925922</v>
+      </c>
+      <c r="L550">
+        <v>0.19766320000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12">
       <c r="A551">
         <v>31</v>
       </c>
@@ -27290,8 +27513,14 @@
       <c r="J551">
         <v>7000</v>
       </c>
-    </row>
-    <row r="552" spans="1:10">
+      <c r="K551" s="16">
+        <v>0.46182870370370371</v>
+      </c>
+      <c r="L551">
+        <v>0.1332797</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12">
       <c r="A552">
         <v>32</v>
       </c>
@@ -27319,8 +27548,14 @@
       <c r="J552">
         <v>7000</v>
       </c>
-    </row>
-    <row r="553" spans="1:10">
+      <c r="K552" s="16">
+        <v>0.46274305555555556</v>
+      </c>
+      <c r="L552">
+        <v>0.1042874</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12">
       <c r="A553">
         <v>33</v>
       </c>
@@ -27348,8 +27583,14 @@
       <c r="J553">
         <v>7000</v>
       </c>
-    </row>
-    <row r="554" spans="1:10">
+      <c r="K553" s="16">
+        <v>0.4636805555555556</v>
+      </c>
+      <c r="L553">
+        <v>0.74663659999999998</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12">
       <c r="A554">
         <v>34</v>
       </c>
@@ -27377,8 +27618,14 @@
       <c r="J554">
         <v>7000</v>
       </c>
-    </row>
-    <row r="555" spans="1:10">
+      <c r="K554" s="16">
+        <v>0.46474537037037034</v>
+      </c>
+      <c r="L554" s="17">
+        <v>6.0910760000000001E-2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12">
       <c r="A555">
         <v>35</v>
       </c>
@@ -27406,8 +27653,14 @@
       <c r="J555">
         <v>7000</v>
       </c>
-    </row>
-    <row r="556" spans="1:10">
+      <c r="K555" s="16">
+        <v>0.46569444444444441</v>
+      </c>
+      <c r="L555" s="17">
+        <v>5.4201350000000002E-2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12">
       <c r="A556">
         <v>36</v>
       </c>
@@ -27435,8 +27688,14 @@
       <c r="J556">
         <v>7000</v>
       </c>
-    </row>
-    <row r="557" spans="1:10">
+      <c r="K556" s="16">
+        <v>0.46653935185185186</v>
+      </c>
+      <c r="L556" s="17">
+        <v>5.1075240000000001E-2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12">
       <c r="A557">
         <v>37</v>
       </c>
@@ -27464,8 +27723,14 @@
       <c r="J557">
         <v>7000</v>
       </c>
-    </row>
-    <row r="558" spans="1:10">
+      <c r="K557" s="16">
+        <v>0.46732638888888883</v>
+      </c>
+      <c r="L557" s="17">
+        <v>6.8570519999999996E-2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12">
       <c r="A558">
         <v>38</v>
       </c>
@@ -27493,8 +27758,14 @@
       <c r="J558">
         <v>7000</v>
       </c>
-    </row>
-    <row r="559" spans="1:10">
+      <c r="K558" s="16">
+        <v>0.46846064814814814</v>
+      </c>
+      <c r="L558">
+        <v>0.10702250000000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12">
       <c r="A559">
         <v>39</v>
       </c>
@@ -27522,8 +27793,14 @@
       <c r="J559">
         <v>7000</v>
       </c>
-    </row>
-    <row r="560" spans="1:10">
+      <c r="K559" s="16">
+        <v>0.4696643518518519</v>
+      </c>
+      <c r="L559" s="17">
+        <v>7.0272420000000002E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12">
       <c r="A560">
         <v>40</v>
       </c>
@@ -27551,8 +27828,14 @@
       <c r="J560">
         <v>7000</v>
       </c>
-    </row>
-    <row r="561" spans="1:10">
+      <c r="K560" s="16">
+        <v>0.47072916666666664</v>
+      </c>
+      <c r="L560">
+        <v>5.2361999999999999E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12">
       <c r="A561">
         <v>41</v>
       </c>
@@ -27580,8 +27863,14 @@
       <c r="J561">
         <v>7000</v>
       </c>
-    </row>
-    <row r="562" spans="1:10">
+      <c r="K561" s="16">
+        <v>0.47167824074074072</v>
+      </c>
+      <c r="L561">
+        <v>6.4095799999999994E-2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12">
       <c r="A562">
         <v>42</v>
       </c>
@@ -27609,8 +27898,14 @@
       <c r="J562">
         <v>7000</v>
       </c>
-    </row>
-    <row r="563" spans="1:10">
+      <c r="K562" s="16">
+        <v>0.47262731481481479</v>
+      </c>
+      <c r="L562" s="17">
+        <v>6.7442260000000004E-2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12">
       <c r="A563">
         <v>43</v>
       </c>
@@ -27638,8 +27933,14 @@
       <c r="J563">
         <v>7000</v>
       </c>
-    </row>
-    <row r="564" spans="1:10">
+      <c r="K563" s="16">
+        <v>0.47349537037037037</v>
+      </c>
+      <c r="L563">
+        <v>0.21143870000000001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12">
       <c r="A564">
         <v>44</v>
       </c>
@@ -27667,8 +27968,14 @@
       <c r="J564">
         <v>7000</v>
       </c>
-    </row>
-    <row r="565" spans="1:10">
+      <c r="K564" s="16">
+        <v>0.47456018518518522</v>
+      </c>
+      <c r="L564" s="17">
+        <v>6.1750609999999997E-2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12">
       <c r="A565">
         <v>45</v>
       </c>
@@ -27696,8 +28003,14 @@
       <c r="J565">
         <v>7000</v>
       </c>
-    </row>
-    <row r="566" spans="1:10">
+      <c r="K565" s="16">
+        <v>0.47543981481481484</v>
+      </c>
+      <c r="L565" s="17">
+        <v>3.6367629999999998E-2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12">
       <c r="A566">
         <v>46</v>
       </c>
@@ -27725,8 +28038,14 @@
       <c r="J566">
         <v>7000</v>
       </c>
-    </row>
-    <row r="567" spans="1:10">
+      <c r="K566" s="16">
+        <v>0.47631944444444446</v>
+      </c>
+      <c r="L566">
+        <v>0.31400709999999998</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12">
       <c r="A567">
         <v>47</v>
       </c>
@@ -27754,8 +28073,14 @@
       <c r="J567">
         <v>7000</v>
       </c>
-    </row>
-    <row r="568" spans="1:10">
+      <c r="K567" s="16">
+        <v>0.47732638888888884</v>
+      </c>
+      <c r="L567" s="17">
+        <v>9.0268269999999998E-2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12">
       <c r="A568">
         <v>48</v>
       </c>
@@ -27783,8 +28108,14 @@
       <c r="J568">
         <v>7000</v>
       </c>
-    </row>
-    <row r="569" spans="1:10">
+      <c r="K568" s="16">
+        <v>0.47818287037037038</v>
+      </c>
+      <c r="L568" s="17">
+        <v>4.6740110000000001E-2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12">
       <c r="A569">
         <v>49</v>
       </c>
@@ -27812,8 +28143,14 @@
       <c r="J569">
         <v>7000</v>
       </c>
-    </row>
-    <row r="570" spans="1:10">
+      <c r="K569" s="16">
+        <v>0.4790625</v>
+      </c>
+      <c r="L569">
+        <v>0.77476319999999999</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12">
       <c r="A570">
         <v>50</v>
       </c>
@@ -27841,8 +28178,14 @@
       <c r="J570">
         <v>7000</v>
       </c>
-    </row>
-    <row r="571" spans="1:10">
+      <c r="K570" s="16">
+        <v>0.4800578703703704</v>
+      </c>
+      <c r="L570" s="17">
+        <v>9.9591460000000007E-2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12">
       <c r="A571">
         <v>51</v>
       </c>
@@ -27870,8 +28213,14 @@
       <c r="J571">
         <v>7000</v>
       </c>
-    </row>
-    <row r="572" spans="1:10">
+      <c r="K571" s="16">
+        <v>0.48096064814814815</v>
+      </c>
+      <c r="L571">
+        <v>0.55368740000000005</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12">
       <c r="A572">
         <v>52</v>
       </c>
@@ -27899,8 +28248,14 @@
       <c r="J572">
         <v>7000</v>
       </c>
-    </row>
-    <row r="573" spans="1:10">
+      <c r="K572" s="16">
+        <v>0.48196759259259259</v>
+      </c>
+      <c r="L572" s="17">
+        <v>7.1216459999999995E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12">
       <c r="A573">
         <v>53</v>
       </c>
@@ -27928,8 +28283,14 @@
       <c r="J573">
         <v>7000</v>
       </c>
-    </row>
-    <row r="574" spans="1:10">
+      <c r="K573" s="16">
+        <v>0.48306712962962961</v>
+      </c>
+      <c r="L573">
+        <v>0.54797359999999995</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12">
       <c r="A574">
         <v>54</v>
       </c>
@@ -27957,8 +28318,14 @@
       <c r="J574">
         <v>7000</v>
       </c>
-    </row>
-    <row r="575" spans="1:10">
+      <c r="K574" s="16">
+        <v>0.48408564814814814</v>
+      </c>
+      <c r="L574">
+        <v>0.33760709999999999</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12">
       <c r="A575">
         <v>55</v>
       </c>
@@ -27986,8 +28353,14 @@
       <c r="J575">
         <v>7000</v>
       </c>
-    </row>
-    <row r="576" spans="1:10">
+      <c r="K575" s="16">
+        <v>0.4850694444444445</v>
+      </c>
+      <c r="L575">
+        <v>5.3725500000000002E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12">
       <c r="A576">
         <v>56</v>
       </c>
@@ -28015,8 +28388,14 @@
       <c r="J576">
         <v>7000</v>
       </c>
-    </row>
-    <row r="577" spans="1:10">
+      <c r="K576" s="16">
+        <v>0.48599537037037038</v>
+      </c>
+      <c r="L576" s="17">
+        <v>4.3577190000000002E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12">
       <c r="A577">
         <v>57</v>
       </c>
@@ -28044,8 +28423,14 @@
       <c r="J577">
         <v>7000</v>
       </c>
-    </row>
-    <row r="578" spans="1:10">
+      <c r="K577" s="16">
+        <v>0.48702546296296295</v>
+      </c>
+      <c r="L577" s="17">
+        <v>6.6945110000000002E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12">
       <c r="A578">
         <v>58</v>
       </c>
@@ -28073,8 +28458,14 @@
       <c r="J578">
         <v>7000</v>
       </c>
-    </row>
-    <row r="579" spans="1:10">
+      <c r="K578" s="16">
+        <v>0.48797453703703703</v>
+      </c>
+      <c r="L578">
+        <v>0.49455329999999997</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12">
       <c r="A579">
         <v>59</v>
       </c>
@@ -28102,8 +28493,14 @@
       <c r="J579">
         <v>7000</v>
       </c>
-    </row>
-    <row r="580" spans="1:10">
+      <c r="K579" s="16">
+        <v>0.48895833333333333</v>
+      </c>
+      <c r="L579">
+        <v>0.34088220000000002</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12">
       <c r="A580">
         <v>60</v>
       </c>
@@ -28131,8 +28528,14 @@
       <c r="J580">
         <v>7000</v>
       </c>
-    </row>
-    <row r="581" spans="1:10">
+      <c r="K580" s="16">
+        <v>0.48983796296296295</v>
+      </c>
+      <c r="L580" s="17">
+        <v>6.3605049999999996E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12">
       <c r="A581">
         <v>61</v>
       </c>
@@ -28160,8 +28563,14 @@
       <c r="J581">
         <v>7000</v>
       </c>
-    </row>
-    <row r="582" spans="1:10">
+      <c r="K581" s="16">
+        <v>0.49256944444444445</v>
+      </c>
+      <c r="L581">
+        <v>0.10051300000000001</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12">
       <c r="A582">
         <v>62</v>
       </c>
@@ -28189,8 +28598,14 @@
       <c r="J582">
         <v>7000</v>
       </c>
-    </row>
-    <row r="583" spans="1:10">
+      <c r="K582" s="16">
+        <v>0.49354166666666671</v>
+      </c>
+      <c r="L582" s="17">
+        <v>5.3843740000000001E-2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12">
       <c r="A583">
         <v>63</v>
       </c>
@@ -28218,8 +28633,14 @@
       <c r="J583">
         <v>7000</v>
       </c>
-    </row>
-    <row r="584" spans="1:10">
+      <c r="K583" s="16">
+        <v>0.49454861111111109</v>
+      </c>
+      <c r="L583" s="17">
+        <v>8.3302050000000002E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12">
       <c r="A584">
         <v>64</v>
       </c>
@@ -28247,8 +28668,14 @@
       <c r="J584">
         <v>7000</v>
       </c>
-    </row>
-    <row r="585" spans="1:10">
+      <c r="K584" s="16">
+        <v>0.49546296296296299</v>
+      </c>
+      <c r="L584" s="17">
+        <v>8.2227919999999996E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12">
       <c r="A585">
         <v>65</v>
       </c>
@@ -28276,8 +28703,14 @@
       <c r="J585">
         <v>7000</v>
       </c>
-    </row>
-    <row r="586" spans="1:10">
+      <c r="K585" s="16">
+        <v>0.49637731481481479</v>
+      </c>
+      <c r="L585" s="17">
+        <v>8.6287240000000001E-2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12">
       <c r="A586">
         <v>66</v>
       </c>
@@ -28305,8 +28738,14 @@
       <c r="J586">
         <v>7000</v>
       </c>
-    </row>
-    <row r="587" spans="1:10">
+      <c r="K586" s="16">
+        <v>0.49721064814814814</v>
+      </c>
+      <c r="L586">
+        <v>0.30332700000000001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12">
       <c r="A587">
         <v>67</v>
       </c>
@@ -28334,8 +28773,14 @@
       <c r="J587">
         <v>7000</v>
       </c>
-    </row>
-    <row r="588" spans="1:10">
+      <c r="K587" s="16">
+        <v>0.49818287037037035</v>
+      </c>
+      <c r="L587" s="17">
+        <v>5.4003950000000002E-2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:12">
       <c r="A588">
         <v>68</v>
       </c>
@@ -28363,8 +28808,14 @@
       <c r="J588">
         <v>7000</v>
       </c>
-    </row>
-    <row r="589" spans="1:10">
+      <c r="K588" s="16">
+        <v>0.49906249999999996</v>
+      </c>
+      <c r="L588" s="17">
+        <v>9.8139110000000002E-2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:12">
       <c r="A589">
         <v>69</v>
       </c>
@@ -28392,8 +28843,14 @@
       <c r="J589">
         <v>7000</v>
       </c>
-    </row>
-    <row r="590" spans="1:10">
+      <c r="K589" s="26">
+        <v>1.000011574074074</v>
+      </c>
+      <c r="L589" s="17">
+        <v>6.2019850000000001E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:12">
       <c r="A590">
         <v>70</v>
       </c>
@@ -28421,8 +28878,14 @@
       <c r="J590">
         <v>7000</v>
       </c>
-    </row>
-    <row r="591" spans="1:10">
+      <c r="K590" s="26">
+        <v>1.0008796296296296</v>
+      </c>
+      <c r="L590">
+        <v>0.71610680000000004</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12">
       <c r="A591">
         <v>71</v>
       </c>
@@ -28450,8 +28913,14 @@
       <c r="J591">
         <v>7000</v>
       </c>
-    </row>
-    <row r="592" spans="1:10">
+      <c r="K591" s="26">
+        <v>1.0018981481481481</v>
+      </c>
+      <c r="L591">
+        <v>0.1017159</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12">
       <c r="A592">
         <v>72</v>
       </c>
@@ -28479,8 +28948,14 @@
       <c r="J592">
         <v>7000</v>
       </c>
-    </row>
-    <row r="593" spans="1:10">
+      <c r="K592" s="26">
+        <v>1.0028009259259261</v>
+      </c>
+      <c r="L592" s="17">
+        <v>5.7017419999999999E-2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12">
       <c r="A593">
         <v>73</v>
       </c>
@@ -28508,8 +28983,14 @@
       <c r="J593">
         <v>7000</v>
       </c>
-    </row>
-    <row r="594" spans="1:10">
+      <c r="K593" s="26">
+        <v>1.0039004629629631</v>
+      </c>
+      <c r="L593" s="17">
+        <v>9.6125680000000005E-2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:12">
       <c r="A594">
         <v>74</v>
       </c>
@@ -28537,8 +29018,14 @@
       <c r="J594">
         <v>7000</v>
       </c>
-    </row>
-    <row r="595" spans="1:10">
+      <c r="K594" s="26">
+        <v>1.0050694444444443</v>
+      </c>
+      <c r="L594" s="17">
+        <v>5.7083040000000002E-2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:12">
       <c r="A595">
         <v>75</v>
       </c>
@@ -28566,8 +29053,14 @@
       <c r="J595">
         <v>7000</v>
       </c>
-    </row>
-    <row r="596" spans="1:10">
+      <c r="K595" s="26">
+        <v>1.0059722222222223</v>
+      </c>
+      <c r="L595" s="17">
+        <v>7.4527670000000004E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12">
       <c r="A596">
         <v>76</v>
       </c>
@@ -28595,8 +29088,14 @@
       <c r="J596">
         <v>7000</v>
       </c>
-    </row>
-    <row r="597" spans="1:10">
+      <c r="K596" s="26">
+        <v>1.0068518518518519</v>
+      </c>
+      <c r="L596">
+        <v>0.1220091</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12">
       <c r="A597">
         <v>77</v>
       </c>
@@ -28621,8 +29120,14 @@
       <c r="J597">
         <v>7000</v>
       </c>
-    </row>
-    <row r="598" spans="1:10">
+      <c r="K597" s="26">
+        <v>1.0078935185185185</v>
+      </c>
+      <c r="L597">
+        <v>0.47290969999999999</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12">
       <c r="A598">
         <v>78</v>
       </c>
@@ -28650,8 +29155,14 @@
       <c r="J598">
         <v>7000</v>
       </c>
-    </row>
-    <row r="599" spans="1:10">
+      <c r="K598" s="26">
+        <v>1.0089467592592591</v>
+      </c>
+      <c r="L598" s="17">
+        <v>9.2081679999999992E-3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12">
       <c r="A599">
         <v>1</v>
       </c>
@@ -28682,8 +29193,14 @@
       <c r="J599">
         <v>6262</v>
       </c>
-    </row>
-    <row r="600" spans="1:10">
+      <c r="K599" s="16">
+        <v>0.43260416666666668</v>
+      </c>
+      <c r="L599" s="17">
+        <v>7.3560669999999995E-2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12">
       <c r="A600">
         <v>2</v>
       </c>
@@ -28711,8 +29228,14 @@
       <c r="J600">
         <v>6262</v>
       </c>
-    </row>
-    <row r="601" spans="1:10">
+      <c r="K600" s="16">
+        <v>0.43350694444444443</v>
+      </c>
+      <c r="L600">
+        <v>0.86999970000000004</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12">
       <c r="A601">
         <v>3</v>
       </c>
@@ -28740,8 +29263,14 @@
       <c r="J601">
         <v>6262</v>
       </c>
-    </row>
-    <row r="602" spans="1:10">
+      <c r="K601" s="16">
+        <v>0.43442129629629633</v>
+      </c>
+      <c r="L601">
+        <v>0.11000509999999999</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12">
       <c r="A602">
         <v>4</v>
       </c>
@@ -28769,8 +29298,14 @@
       <c r="J602">
         <v>6262</v>
       </c>
-    </row>
-    <row r="603" spans="1:10">
+      <c r="K602" s="16">
+        <v>0.43530092592592595</v>
+      </c>
+      <c r="L602">
+        <v>0.70830610000000005</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12">
       <c r="A603">
         <v>5</v>
       </c>
@@ -28798,8 +29333,14 @@
       <c r="J603">
         <v>6262</v>
       </c>
-    </row>
-    <row r="604" spans="1:10">
+      <c r="K603" s="16">
+        <v>0.43627314814814816</v>
+      </c>
+      <c r="L603">
+        <v>0.13552310000000001</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12">
       <c r="A604">
         <v>6</v>
       </c>
@@ -28827,8 +29368,14 @@
       <c r="J604">
         <v>6262</v>
       </c>
-    </row>
-    <row r="605" spans="1:10">
+      <c r="K604" s="16">
+        <v>0.43718750000000001</v>
+      </c>
+      <c r="L604">
+        <v>0.27218189999999998</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12">
       <c r="A605">
         <v>7</v>
       </c>
@@ -28856,8 +29403,14 @@
       <c r="J605">
         <v>6262</v>
       </c>
-    </row>
-    <row r="606" spans="1:10">
+      <c r="K605" s="16">
+        <v>0.43812500000000004</v>
+      </c>
+      <c r="L605">
+        <v>0.18571209999999999</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12">
       <c r="A606">
         <v>8</v>
       </c>
@@ -28885,8 +29438,14 @@
       <c r="J606">
         <v>6262</v>
       </c>
-    </row>
-    <row r="607" spans="1:10">
+      <c r="K606" s="16">
+        <v>0.43899305555555551</v>
+      </c>
+      <c r="L606" s="17">
+        <v>9.2760029999999993E-2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12">
       <c r="A607">
         <v>9</v>
       </c>
@@ -28914,8 +29473,14 @@
       <c r="J607">
         <v>6262</v>
       </c>
-    </row>
-    <row r="608" spans="1:10">
+      <c r="K607" s="16">
+        <v>0.43990740740740741</v>
+      </c>
+      <c r="L607">
+        <v>0.22163169999999999</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12">
       <c r="A608">
         <v>10</v>
       </c>
@@ -28943,8 +29508,14 @@
       <c r="J608">
         <v>6262</v>
       </c>
-    </row>
-    <row r="609" spans="1:10">
+      <c r="K608" s="16">
+        <v>0.44094907407407408</v>
+      </c>
+      <c r="L608">
+        <v>0.1349178</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12">
       <c r="A609">
         <v>11</v>
       </c>
@@ -28972,8 +29543,14 @@
       <c r="J609">
         <v>6262</v>
       </c>
-    </row>
-    <row r="610" spans="1:10">
+      <c r="K609" s="16">
+        <v>0.4418287037037037</v>
+      </c>
+      <c r="L609">
+        <v>0.84513450000000001</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12">
       <c r="A610">
         <v>12</v>
       </c>
@@ -29001,8 +29578,14 @@
       <c r="J610">
         <v>6262</v>
       </c>
-    </row>
-    <row r="611" spans="1:10">
+      <c r="K610" s="16">
+        <v>0.44297453703703704</v>
+      </c>
+      <c r="L610">
+        <v>0.74910880000000002</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12">
       <c r="A611">
         <v>13</v>
       </c>
@@ -29030,8 +29613,14 @@
       <c r="J611">
         <v>6262</v>
       </c>
-    </row>
-    <row r="612" spans="1:10">
+      <c r="K611" s="16">
+        <v>0.44405092592592593</v>
+      </c>
+      <c r="L611">
+        <v>0.1055524</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12">
       <c r="A612">
         <v>14</v>
       </c>
@@ -29059,8 +29648,14 @@
       <c r="J612">
         <v>6262</v>
       </c>
-    </row>
-    <row r="613" spans="1:10">
+      <c r="K612" s="16">
+        <v>0.44502314814814814</v>
+      </c>
+      <c r="L612">
+        <v>0.1198914</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12">
       <c r="A613">
         <v>15</v>
       </c>
@@ -29088,8 +29683,14 @@
       <c r="J613">
         <v>6262</v>
       </c>
-    </row>
-    <row r="614" spans="1:10">
+      <c r="K613" s="16">
+        <v>0.44605324074074071</v>
+      </c>
+      <c r="L613">
+        <v>0.16793240000000001</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12">
       <c r="A614">
         <v>16</v>
       </c>
@@ -29117,8 +29718,14 @@
       <c r="J614">
         <v>6262</v>
       </c>
-    </row>
-    <row r="615" spans="1:10">
+      <c r="K614" s="16">
+        <v>0.44709490740740737</v>
+      </c>
+      <c r="L614">
+        <v>0.1599401</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12">
       <c r="A615">
         <v>17</v>
       </c>
@@ -29146,8 +29753,14 @@
       <c r="J615">
         <v>6262</v>
       </c>
-    </row>
-    <row r="616" spans="1:10">
+      <c r="K615" s="16">
+        <v>0.44807870370370373</v>
+      </c>
+      <c r="L615">
+        <v>0.2146864</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12">
       <c r="A616">
         <v>18</v>
       </c>
@@ -29175,8 +29788,14 @@
       <c r="J616">
         <v>6262</v>
       </c>
-    </row>
-    <row r="617" spans="1:10">
+      <c r="K616" s="16">
+        <v>0.44898148148148148</v>
+      </c>
+      <c r="L616">
+        <v>0.80202779999999996</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12">
       <c r="A617">
         <v>19</v>
       </c>
@@ -29204,8 +29823,14 @@
       <c r="J617">
         <v>6262</v>
       </c>
-    </row>
-    <row r="618" spans="1:10">
+      <c r="K617" s="16">
+        <v>0.45009259259259254</v>
+      </c>
+      <c r="L617">
+        <v>0.14656959999999999</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12">
       <c r="A618">
         <v>20</v>
       </c>
@@ -29233,8 +29858,14 @@
       <c r="J618">
         <v>6262</v>
       </c>
-    </row>
-    <row r="619" spans="1:10">
+      <c r="K618" s="16">
+        <v>0.45118055555555553</v>
+      </c>
+      <c r="L618">
+        <v>0.80065549999999996</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12">
       <c r="A619">
         <v>21</v>
       </c>
@@ -29262,8 +29893,14 @@
       <c r="J619">
         <v>6262</v>
       </c>
-    </row>
-    <row r="620" spans="1:10">
+      <c r="K619" s="16">
+        <v>0.4522916666666667</v>
+      </c>
+      <c r="L619">
+        <v>0.19453000000000001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12">
       <c r="A620">
         <v>22</v>
       </c>
@@ -29291,8 +29928,14 @@
       <c r="J620">
         <v>6262</v>
       </c>
-    </row>
-    <row r="621" spans="1:10">
+      <c r="K620" s="16">
+        <v>0.4533449074074074</v>
+      </c>
+      <c r="L620">
+        <v>0.15093670000000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12">
       <c r="A621">
         <v>23</v>
       </c>
@@ -29320,8 +29963,14 @@
       <c r="J621">
         <v>6262</v>
       </c>
-    </row>
-    <row r="622" spans="1:10">
+      <c r="K621" s="16">
+        <v>0.45424768518518516</v>
+      </c>
+      <c r="L621">
+        <v>0.2233115</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12">
       <c r="A622">
         <v>24</v>
       </c>
@@ -29349,8 +29998,14 @@
       <c r="J622">
         <v>6262</v>
       </c>
-    </row>
-    <row r="623" spans="1:10">
+      <c r="K622" s="16">
+        <v>0.45525462962962965</v>
+      </c>
+      <c r="L622">
+        <v>0.14086660000000001</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12">
       <c r="A623">
         <v>25</v>
       </c>
@@ -29378,8 +30033,14 @@
       <c r="J623">
         <v>6262</v>
       </c>
-    </row>
-    <row r="624" spans="1:10">
+      <c r="K623" s="16">
+        <v>0.45618055555555559</v>
+      </c>
+      <c r="L623">
+        <v>0.1223689</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12">
       <c r="A624">
         <v>26</v>
       </c>
@@ -29407,8 +30068,14 @@
       <c r="J624">
         <v>6262</v>
       </c>
-    </row>
-    <row r="625" spans="1:10">
+      <c r="K624" s="16">
+        <v>0.45715277777777774</v>
+      </c>
+      <c r="L624">
+        <v>0.13794870000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12">
       <c r="A625">
         <v>27</v>
       </c>
@@ -29436,8 +30103,14 @@
       <c r="J625">
         <v>6262</v>
       </c>
-    </row>
-    <row r="626" spans="1:10">
+      <c r="K625" s="16">
+        <v>0.45812499999999995</v>
+      </c>
+      <c r="L625">
+        <v>0.11885179999999999</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12">
       <c r="A626">
         <v>28</v>
       </c>
@@ -29465,8 +30138,14 @@
       <c r="J626">
         <v>6262</v>
       </c>
-    </row>
-    <row r="627" spans="1:10">
+      <c r="K626" s="16">
+        <v>0.4589699074074074</v>
+      </c>
+      <c r="L626">
+        <v>0.101368</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12">
       <c r="A627">
         <v>29</v>
       </c>
@@ -29494,8 +30173,14 @@
       <c r="J627">
         <v>6262</v>
       </c>
-    </row>
-    <row r="628" spans="1:10">
+      <c r="K627" s="16">
+        <v>0.45987268518518515</v>
+      </c>
+      <c r="L627">
+        <v>0.1073508</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12">
       <c r="A628">
         <v>30</v>
       </c>
@@ -29523,8 +30208,14 @@
       <c r="J628">
         <v>6262</v>
       </c>
-    </row>
-    <row r="629" spans="1:10">
+      <c r="K628" s="16">
+        <v>0.46082175925925922</v>
+      </c>
+      <c r="L628">
+        <v>0.1573379</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12">
       <c r="A629">
         <v>31</v>
       </c>
@@ -29552,8 +30243,14 @@
       <c r="J629">
         <v>6262</v>
       </c>
-    </row>
-    <row r="630" spans="1:10">
+      <c r="K629" s="16">
+        <v>0.46182870370370371</v>
+      </c>
+      <c r="L629">
+        <v>0.2453197</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12">
       <c r="A630">
         <v>32</v>
       </c>
@@ -29581,8 +30278,14 @@
       <c r="J630">
         <v>6262</v>
       </c>
-    </row>
-    <row r="631" spans="1:10">
+      <c r="K630" s="16">
+        <v>0.46274305555555556</v>
+      </c>
+      <c r="L630">
+        <v>0.20685139999999999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12">
       <c r="A631">
         <v>33</v>
       </c>
@@ -29610,8 +30313,14 @@
       <c r="J631">
         <v>6262</v>
       </c>
-    </row>
-    <row r="632" spans="1:10">
+      <c r="K631" s="16">
+        <v>0.4636805555555556</v>
+      </c>
+      <c r="L631">
+        <v>0.17436699999999999</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12">
       <c r="A632">
         <v>34</v>
       </c>
@@ -29639,8 +30348,14 @@
       <c r="J632">
         <v>6262</v>
       </c>
-    </row>
-    <row r="633" spans="1:10">
+      <c r="K632" s="16">
+        <v>0.46474537037037034</v>
+      </c>
+      <c r="L632">
+        <v>0.18535070000000001</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12">
       <c r="A633">
         <v>35</v>
       </c>
@@ -29668,8 +30383,14 @@
       <c r="J633">
         <v>6262</v>
       </c>
-    </row>
-    <row r="634" spans="1:10">
+      <c r="K633" s="16">
+        <v>0.46569444444444441</v>
+      </c>
+      <c r="L633" s="17">
+        <v>8.5533940000000003E-2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12">
       <c r="A634">
         <v>36</v>
       </c>
@@ -29697,8 +30418,14 @@
       <c r="J634">
         <v>6262</v>
       </c>
-    </row>
-    <row r="635" spans="1:10">
+      <c r="K634" s="16">
+        <v>0.46653935185185186</v>
+      </c>
+      <c r="L634" s="17">
+        <v>5.4620439999999999E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12">
       <c r="A635">
         <v>37</v>
       </c>
@@ -29726,8 +30453,14 @@
       <c r="J635">
         <v>6262</v>
       </c>
-    </row>
-    <row r="636" spans="1:10">
+      <c r="K635" s="16">
+        <v>0.46732638888888883</v>
+      </c>
+      <c r="L635">
+        <v>0.88278299999999998</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12">
       <c r="A636">
         <v>38</v>
       </c>
@@ -29755,8 +30488,14 @@
       <c r="J636">
         <v>6262</v>
       </c>
-    </row>
-    <row r="637" spans="1:10">
+      <c r="K636" s="16">
+        <v>0.46846064814814814</v>
+      </c>
+      <c r="L636">
+        <v>1.0717140000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12">
       <c r="A637">
         <v>39</v>
       </c>
@@ -29784,8 +30523,14 @@
       <c r="J637">
         <v>6262</v>
       </c>
-    </row>
-    <row r="638" spans="1:10">
+      <c r="K637" s="16">
+        <v>0.4696643518518519</v>
+      </c>
+      <c r="L637">
+        <v>0.13635040000000001</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12">
       <c r="A638">
         <v>40</v>
       </c>
@@ -29813,8 +30558,14 @@
       <c r="J638">
         <v>6262</v>
       </c>
-    </row>
-    <row r="639" spans="1:10">
+      <c r="K638" s="16">
+        <v>0.47072916666666664</v>
+      </c>
+      <c r="L638" s="17">
+        <v>9.8592449999999998E-2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12">
       <c r="A639">
         <v>41</v>
       </c>
@@ -29842,8 +30593,14 @@
       <c r="J639">
         <v>6262</v>
       </c>
-    </row>
-    <row r="640" spans="1:10">
+      <c r="K639" s="16">
+        <v>0.47167824074074072</v>
+      </c>
+      <c r="L639" s="17">
+        <v>8.5215849999999996E-2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12">
       <c r="A640">
         <v>42</v>
       </c>
@@ -29871,8 +30628,14 @@
       <c r="J640">
         <v>6262</v>
       </c>
-    </row>
-    <row r="641" spans="1:10">
+      <c r="K640" s="16">
+        <v>0.47262731481481479</v>
+      </c>
+      <c r="L640">
+        <v>0.1239738</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12">
       <c r="A641">
         <v>43</v>
       </c>
@@ -29900,8 +30663,14 @@
       <c r="J641">
         <v>6262</v>
       </c>
-    </row>
-    <row r="642" spans="1:10">
+      <c r="K641" s="16">
+        <v>0.47349537037037037</v>
+      </c>
+      <c r="L641">
+        <v>1.1119870000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12">
       <c r="A642">
         <v>44</v>
       </c>
@@ -29929,8 +30698,14 @@
       <c r="J642">
         <v>6262</v>
       </c>
-    </row>
-    <row r="643" spans="1:10">
+      <c r="K642" s="16">
+        <v>0.47456018518518522</v>
+      </c>
+      <c r="L642">
+        <v>0.1253602</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12">
       <c r="A643">
         <v>45</v>
       </c>
@@ -29958,8 +30733,14 @@
       <c r="J643">
         <v>6262</v>
       </c>
-    </row>
-    <row r="644" spans="1:10">
+      <c r="K643" s="16">
+        <v>0.47543981481481484</v>
+      </c>
+      <c r="L643">
+        <v>0.1475669</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12">
       <c r="A644">
         <v>46</v>
       </c>
@@ -29987,8 +30768,14 @@
       <c r="J644">
         <v>6262</v>
       </c>
-    </row>
-    <row r="645" spans="1:10">
+      <c r="K644" s="16">
+        <v>0.47631944444444446</v>
+      </c>
+      <c r="L644">
+        <v>0.2168031</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12">
       <c r="A645">
         <v>47</v>
       </c>
@@ -30016,8 +30803,14 @@
       <c r="J645">
         <v>6262</v>
       </c>
-    </row>
-    <row r="646" spans="1:10">
+      <c r="K645" s="16">
+        <v>0.47732638888888884</v>
+      </c>
+      <c r="L645">
+        <v>0.1064219</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12">
       <c r="A646">
         <v>48</v>
       </c>
@@ -30045,8 +30838,14 @@
       <c r="J646">
         <v>6262</v>
       </c>
-    </row>
-    <row r="647" spans="1:10">
+      <c r="K646" s="16">
+        <v>0.47818287037037038</v>
+      </c>
+      <c r="L646">
+        <v>0.1043636</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12">
       <c r="A647">
         <v>49</v>
       </c>
@@ -30074,8 +30873,14 @@
       <c r="J647">
         <v>6262</v>
       </c>
-    </row>
-    <row r="648" spans="1:10">
+      <c r="K647" s="16">
+        <v>0.4790625</v>
+      </c>
+      <c r="L647">
+        <v>0.1072915</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12">
       <c r="A648">
         <v>50</v>
       </c>
@@ -30103,8 +30908,14 @@
       <c r="J648">
         <v>6262</v>
       </c>
-    </row>
-    <row r="649" spans="1:10">
+      <c r="K648" s="16">
+        <v>0.4800578703703704</v>
+      </c>
+      <c r="L648">
+        <v>0.17017280000000001</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12">
       <c r="A649">
         <v>51</v>
       </c>
@@ -30132,8 +30943,14 @@
       <c r="J649">
         <v>6262</v>
       </c>
-    </row>
-    <row r="650" spans="1:10">
+      <c r="K649" s="16">
+        <v>0.48096064814814815</v>
+      </c>
+      <c r="L649">
+        <v>0.12882579999999999</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12">
       <c r="A650">
         <v>52</v>
       </c>
@@ -30161,8 +30978,14 @@
       <c r="J650">
         <v>6262</v>
       </c>
-    </row>
-    <row r="651" spans="1:10">
+      <c r="K650" s="16">
+        <v>0.48196759259259259</v>
+      </c>
+      <c r="L650">
+        <v>0.83144430000000003</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12">
       <c r="A651">
         <v>53</v>
       </c>
@@ -30190,8 +31013,14 @@
       <c r="J651">
         <v>6262</v>
       </c>
-    </row>
-    <row r="652" spans="1:10">
+      <c r="K651" s="16">
+        <v>0.48306712962962961</v>
+      </c>
+      <c r="L651">
+        <v>0.1178385</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12">
       <c r="A652">
         <v>54</v>
       </c>
@@ -30219,8 +31048,14 @@
       <c r="J652">
         <v>6262</v>
       </c>
-    </row>
-    <row r="653" spans="1:10">
+      <c r="K652" s="16">
+        <v>0.48408564814814814</v>
+      </c>
+      <c r="L652">
+        <v>7.1739800000000006E-2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12">
       <c r="A653">
         <v>55</v>
       </c>
@@ -30248,8 +31083,14 @@
       <c r="J653">
         <v>6262</v>
       </c>
-    </row>
-    <row r="654" spans="1:10">
+      <c r="K653" s="16">
+        <v>0.4850694444444445</v>
+      </c>
+      <c r="L653">
+        <v>0.14555789999999999</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12">
       <c r="A654">
         <v>56</v>
       </c>
@@ -30277,8 +31118,14 @@
       <c r="J654">
         <v>6262</v>
       </c>
-    </row>
-    <row r="655" spans="1:10">
+      <c r="K654" s="16">
+        <v>0.48599537037037038</v>
+      </c>
+      <c r="L654">
+        <v>0.16648470000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12">
       <c r="A655">
         <v>57</v>
       </c>
@@ -30306,8 +31153,14 @@
       <c r="J655">
         <v>6262</v>
       </c>
-    </row>
-    <row r="656" spans="1:10">
+      <c r="K655" s="16">
+        <v>0.48702546296296295</v>
+      </c>
+      <c r="L655">
+        <v>0.1298918</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12">
       <c r="A656">
         <v>58</v>
       </c>
@@ -30335,8 +31188,14 @@
       <c r="J656">
         <v>6262</v>
       </c>
-    </row>
-    <row r="657" spans="1:10">
+      <c r="K656" s="16">
+        <v>0.48797453703703703</v>
+      </c>
+      <c r="L656">
+        <v>0.14756730000000001</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12">
       <c r="A657">
         <v>59</v>
       </c>
@@ -30364,8 +31223,14 @@
       <c r="J657">
         <v>6262</v>
       </c>
-    </row>
-    <row r="658" spans="1:10">
+      <c r="K657" s="16">
+        <v>0.48895833333333333</v>
+      </c>
+      <c r="L657" s="17">
+        <v>7.5222170000000005E-2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12">
       <c r="A658">
         <v>60</v>
       </c>
@@ -30393,8 +31258,14 @@
       <c r="J658">
         <v>6262</v>
       </c>
-    </row>
-    <row r="659" spans="1:10">
+      <c r="K658" s="16">
+        <v>0.48983796296296295</v>
+      </c>
+      <c r="L658">
+        <v>1.0762959999999999</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12">
       <c r="A659">
         <v>61</v>
       </c>
@@ -30422,8 +31293,14 @@
       <c r="J659">
         <v>6262</v>
       </c>
-    </row>
-    <row r="660" spans="1:10">
+      <c r="K659" s="16">
+        <v>0.49256944444444445</v>
+      </c>
+      <c r="L659" s="17">
+        <v>8.802633E-2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12">
       <c r="A660">
         <v>62</v>
       </c>
@@ -30451,8 +31328,14 @@
       <c r="J660">
         <v>6262</v>
       </c>
-    </row>
-    <row r="661" spans="1:10">
+      <c r="K660" s="16">
+        <v>0.49354166666666671</v>
+      </c>
+      <c r="L660">
+        <v>0.13615659999999999</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12">
       <c r="A661">
         <v>63</v>
       </c>
@@ -30480,8 +31363,14 @@
       <c r="J661">
         <v>6262</v>
       </c>
-    </row>
-    <row r="662" spans="1:10">
+      <c r="K661" s="16">
+        <v>0.49454861111111109</v>
+      </c>
+      <c r="L661">
+        <v>0.1350816</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12">
       <c r="A662">
         <v>64</v>
       </c>
@@ -30509,8 +31398,14 @@
       <c r="J662">
         <v>6262</v>
       </c>
-    </row>
-    <row r="663" spans="1:10">
+      <c r="K662" s="16">
+        <v>0.49546296296296299</v>
+      </c>
+      <c r="L662">
+        <v>0.2046857</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12">
       <c r="A663">
         <v>65</v>
       </c>
@@ -30538,8 +31433,14 @@
       <c r="J663">
         <v>6262</v>
       </c>
-    </row>
-    <row r="664" spans="1:10">
+      <c r="K663" s="16">
+        <v>0.49637731481481479</v>
+      </c>
+      <c r="L663">
+        <v>0.1428236</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12">
       <c r="A664">
         <v>66</v>
       </c>
@@ -30567,8 +31468,14 @@
       <c r="J664">
         <v>6262</v>
       </c>
-    </row>
-    <row r="665" spans="1:10">
+      <c r="K664" s="16">
+        <v>0.49721064814814814</v>
+      </c>
+      <c r="L664" s="17">
+        <v>8.4470669999999998E-2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12">
       <c r="A665">
         <v>67</v>
       </c>
@@ -30596,8 +31503,14 @@
       <c r="J665">
         <v>6262</v>
       </c>
-    </row>
-    <row r="666" spans="1:10">
+      <c r="K665" s="16">
+        <v>0.49818287037037035</v>
+      </c>
+      <c r="L665">
+        <v>0.16179070000000001</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12">
       <c r="A666">
         <v>68</v>
       </c>
@@ -30625,8 +31538,14 @@
       <c r="J666">
         <v>6262</v>
       </c>
-    </row>
-    <row r="667" spans="1:10">
+      <c r="K666" s="16">
+        <v>0.49906249999999996</v>
+      </c>
+      <c r="L666">
+        <v>0.13464519999999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12">
       <c r="A667">
         <v>69</v>
       </c>
@@ -30654,8 +31573,14 @@
       <c r="J667">
         <v>6262</v>
       </c>
-    </row>
-    <row r="668" spans="1:10">
+      <c r="K667" s="26">
+        <v>1.000011574074074</v>
+      </c>
+      <c r="L667">
+        <v>0.1057766</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12">
       <c r="A668">
         <v>70</v>
       </c>
@@ -30683,8 +31608,14 @@
       <c r="J668">
         <v>6262</v>
       </c>
-    </row>
-    <row r="669" spans="1:10">
+      <c r="K668" s="26">
+        <v>1.0008796296296296</v>
+      </c>
+      <c r="L668">
+        <v>0.121003</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12">
       <c r="A669">
         <v>71</v>
       </c>
@@ -30712,8 +31643,14 @@
       <c r="J669">
         <v>6262</v>
       </c>
-    </row>
-    <row r="670" spans="1:10">
+      <c r="K669" s="26">
+        <v>1.0018981481481481</v>
+      </c>
+      <c r="L669">
+        <v>0.1165123</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12">
       <c r="A670">
         <v>72</v>
       </c>
@@ -30741,8 +31678,14 @@
       <c r="J670">
         <v>6262</v>
       </c>
-    </row>
-    <row r="671" spans="1:10">
+      <c r="K670" s="26">
+        <v>1.0028009259259261</v>
+      </c>
+      <c r="L670">
+        <v>1.3791720000000001</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12">
       <c r="A671">
         <v>73</v>
       </c>
@@ -30770,8 +31713,14 @@
       <c r="J671">
         <v>6262</v>
       </c>
-    </row>
-    <row r="672" spans="1:10">
+      <c r="K671" s="26">
+        <v>1.0039004629629631</v>
+      </c>
+      <c r="L671">
+        <v>1.1629799999999999</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12">
       <c r="A672">
         <v>74</v>
       </c>
@@ -30799,8 +31748,14 @@
       <c r="J672">
         <v>6262</v>
       </c>
-    </row>
-    <row r="673" spans="1:10">
+      <c r="K672" s="26">
+        <v>1.0050694444444443</v>
+      </c>
+      <c r="L672">
+        <v>0.159132</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12">
       <c r="A673">
         <v>75</v>
       </c>
@@ -30828,8 +31783,14 @@
       <c r="J673">
         <v>6262</v>
       </c>
-    </row>
-    <row r="674" spans="1:10">
+      <c r="K673" s="26">
+        <v>1.0059722222222223</v>
+      </c>
+      <c r="L673">
+        <v>0.18988099999999999</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12">
       <c r="A674">
         <v>76</v>
       </c>
@@ -30857,8 +31818,14 @@
       <c r="J674">
         <v>6262</v>
       </c>
-    </row>
-    <row r="675" spans="1:10">
+      <c r="K674" s="26">
+        <v>1.0068518518518519</v>
+      </c>
+      <c r="L674">
+        <v>0.70664479999999996</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12">
       <c r="A675">
         <v>77</v>
       </c>
@@ -30886,8 +31853,14 @@
       <c r="J675">
         <v>6262</v>
       </c>
-    </row>
-    <row r="676" spans="1:10">
+      <c r="K675" s="26">
+        <v>1.0078935185185185</v>
+      </c>
+      <c r="L675" s="17">
+        <v>2.3946370000000002E-2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12">
       <c r="A676">
         <v>78</v>
       </c>
@@ -30915,8 +31888,14 @@
       <c r="J676">
         <v>6262</v>
       </c>
-    </row>
-    <row r="677" spans="1:10">
+      <c r="K676" s="26">
+        <v>1.0089467592592591</v>
+      </c>
+      <c r="L676" s="17">
+        <v>2.130485E-2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12">
       <c r="A677">
         <v>79</v>
       </c>
@@ -30944,40 +31923,46 @@
       <c r="J677">
         <v>6262</v>
       </c>
-    </row>
-    <row r="678" spans="1:10">
-      <c r="A678">
+      <c r="K677" s="26">
+        <v>1.0097685185185186</v>
+      </c>
+      <c r="L677" s="17">
+        <v>6.0943430000000003E-3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" s="27" customFormat="1">
+      <c r="A678" s="27">
         <v>1</v>
       </c>
-      <c r="B678" t="s">
-        <v>82</v>
-      </c>
-      <c r="C678" t="s">
+      <c r="B678" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C678" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D678">
+      <c r="D678" s="27">
         <v>9.1</v>
       </c>
-      <c r="E678" s="8">
+      <c r="E678" s="28">
         <v>0.57152777777777775</v>
       </c>
-      <c r="F678" s="1" t="s">
+      <c r="F678" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G678" s="1" t="s">
+      <c r="G678" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H678" s="1" t="s">
+      <c r="H678" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I678" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J678">
+      <c r="I678" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J678" s="27">
         <v>7000</v>
       </c>
     </row>
-    <row r="679" spans="1:10">
+    <row r="679" spans="1:12">
       <c r="A679">
         <v>2</v>
       </c>
@@ -31006,7 +31991,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="680" spans="1:10">
+    <row r="680" spans="1:12">
       <c r="A680">
         <v>3</v>
       </c>
@@ -31035,7 +32020,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="681" spans="1:10">
+    <row r="681" spans="1:12">
       <c r="A681">
         <v>4</v>
       </c>
@@ -31064,7 +32049,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="682" spans="1:10">
+    <row r="682" spans="1:12">
       <c r="A682">
         <v>5</v>
       </c>
@@ -31093,7 +32078,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="683" spans="1:10">
+    <row r="683" spans="1:12">
       <c r="A683">
         <v>6</v>
       </c>
@@ -31122,7 +32107,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="684" spans="1:10">
+    <row r="684" spans="1:12">
       <c r="A684">
         <v>7</v>
       </c>
@@ -31151,7 +32136,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="685" spans="1:10">
+    <row r="685" spans="1:12">
       <c r="A685">
         <v>8</v>
       </c>
@@ -31180,7 +32165,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="686" spans="1:10">
+    <row r="686" spans="1:12">
       <c r="A686">
         <v>9</v>
       </c>
@@ -31209,7 +32194,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="687" spans="1:10">
+    <row r="687" spans="1:12">
       <c r="A687">
         <v>10</v>
       </c>
@@ -31238,7 +32223,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="688" spans="1:10">
+    <row r="688" spans="1:12">
       <c r="A688">
         <v>11</v>
       </c>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -5649,8 +5649,8 @@
   <dimension ref="A1:S981"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J521" sqref="J521"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D524" sqref="D524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26460,7 +26460,7 @@
         <v>4</v>
       </c>
       <c r="D523">
-        <v>50974</v>
+        <v>5.9740000000000002</v>
       </c>
       <c r="F523" s="1" t="s">
         <v>41</v>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30200" yWindow="460" windowWidth="18240" windowHeight="27480" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="15180" yWindow="0" windowWidth="27960" windowHeight="27400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -1283,7 +1283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1296,8 +1296,8 @@
   </sheetPr>
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="N38" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD100"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5667,9 +5667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1135"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1064" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1073" sqref="L1073"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1135" sqref="A1135:XFD1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="0" windowWidth="27960" windowHeight="27400" tabRatio="500"/>
+    <workbookView xWindow="15180" yWindow="0" windowWidth="27960" windowHeight="27380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7973" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8759" uniqueCount="124">
   <si>
     <t>Site</t>
   </si>
@@ -484,8 +484,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -777,7 +781,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -897,6 +901,8 @@
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1016,6 +1022,8 @@
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1283,7 +1291,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1296,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView showRuler="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F56" sqref="A56:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5665,11 +5673,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1135"/>
+  <dimension ref="A1:S1266"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1135" sqref="A1135:XFD1135"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1159" sqref="N1159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -43249,6 +43257,3031 @@
         <v>85</v>
       </c>
       <c r="I1135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9">
+      <c r="A1136">
+        <v>1</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1136" s="8">
+        <v>0.72777777777777775</v>
+      </c>
+      <c r="F1136" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1136" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9">
+      <c r="A1137">
+        <v>2</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1137" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1137" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9">
+      <c r="A1138">
+        <v>3</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1138" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9">
+      <c r="A1139">
+        <v>4</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1139" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9">
+      <c r="A1140">
+        <v>5</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1140" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9">
+      <c r="A1141">
+        <v>6</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1141" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9">
+      <c r="A1142">
+        <v>7</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1142" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9">
+      <c r="A1143">
+        <v>8</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1143" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9">
+      <c r="A1144">
+        <v>9</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1144" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9">
+      <c r="A1145">
+        <v>10</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1145" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9">
+      <c r="A1146">
+        <v>11</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1146" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1146" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9">
+      <c r="A1147">
+        <v>12</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1147" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1147" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9">
+      <c r="A1148">
+        <v>13</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1148" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9">
+      <c r="A1149">
+        <v>14</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1149" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1149" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9">
+      <c r="A1150">
+        <v>15</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1150" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1150" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9">
+      <c r="A1151">
+        <v>16</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1151" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1151" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9">
+      <c r="A1152">
+        <v>17</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1152" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9">
+      <c r="A1153">
+        <v>18</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1153" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1153" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9">
+      <c r="A1154">
+        <v>19</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1154" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9">
+      <c r="A1155">
+        <v>20</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1155" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9">
+      <c r="A1156">
+        <v>21</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1156" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9">
+      <c r="A1157">
+        <v>22</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1157" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9">
+      <c r="A1158">
+        <v>23</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1158" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1158" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9">
+      <c r="A1159">
+        <v>24</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1159" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:9">
+      <c r="A1160">
+        <v>25</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1160" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1160" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9">
+      <c r="A1161">
+        <v>26</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1161" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1161" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9">
+      <c r="A1162">
+        <v>27</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1162" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1162" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9">
+      <c r="A1163">
+        <v>28</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1163" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9">
+      <c r="A1164">
+        <v>29</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1164" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1164" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9">
+      <c r="A1165">
+        <v>30</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1165" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9">
+      <c r="A1166">
+        <v>31</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1166" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1166" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9">
+      <c r="A1167">
+        <v>32</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1167" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9">
+      <c r="A1168">
+        <v>33</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1168" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9">
+      <c r="A1169">
+        <v>34</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1169" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1169" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9">
+      <c r="A1170">
+        <v>35</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1170" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1170" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9">
+      <c r="A1171">
+        <v>36</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1171" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1171" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9">
+      <c r="A1172">
+        <v>37</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1172" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9">
+      <c r="A1173">
+        <v>38</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1173" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1173" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1173" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9">
+      <c r="A1174">
+        <v>39</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1174" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1174" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1174" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9">
+      <c r="A1175">
+        <v>40</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1175" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1175" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9">
+      <c r="A1176">
+        <v>41</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1176" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1176" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1176" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9">
+      <c r="A1177">
+        <v>42</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1177" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1177" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1177" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9">
+      <c r="A1178">
+        <v>43</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1178" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1178" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9">
+      <c r="A1179">
+        <v>44</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1179" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9">
+      <c r="A1180">
+        <v>45</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1180" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1180" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9">
+      <c r="A1181">
+        <v>46</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1181" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1181" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1181" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:9">
+      <c r="A1182">
+        <v>47</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1182" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1182" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1182" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9">
+      <c r="A1183">
+        <v>48</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1183" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1183" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9">
+      <c r="A1184">
+        <v>49</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1184" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1184" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1184" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9">
+      <c r="A1185">
+        <v>50</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1185" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1185" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9">
+      <c r="A1186">
+        <v>51</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1186" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1186" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1186" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9">
+      <c r="A1187">
+        <v>52</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1187" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1187" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1187" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9">
+      <c r="A1188">
+        <v>53</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1188" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1188" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1188" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9">
+      <c r="A1189">
+        <v>54</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1189" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1189" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1189" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9">
+      <c r="A1190">
+        <v>55</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1190" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1190" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9">
+      <c r="A1191">
+        <v>56</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1191" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1191" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1191" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9">
+      <c r="A1192">
+        <v>57</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1192" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1192" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1192" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9">
+      <c r="A1193">
+        <v>58</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1193" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1193" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1193" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9">
+      <c r="A1194">
+        <v>59</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1194" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1194" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1194" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9">
+      <c r="A1195">
+        <v>60</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1195" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1195" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1195" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9">
+      <c r="A1196">
+        <v>61</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1196" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1196" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1196" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9">
+      <c r="A1197">
+        <v>62</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1197" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1197" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1197" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9">
+      <c r="A1198">
+        <v>63</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1198" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1198" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1198" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9">
+      <c r="A1199">
+        <v>64</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1199" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1199" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1199" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9">
+      <c r="A1200">
+        <v>65</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1200" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1200" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1200" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9">
+      <c r="A1201">
+        <v>66</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1201" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1201" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1201" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9">
+      <c r="A1202">
+        <v>69</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1202" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1202" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1202" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9">
+      <c r="A1203">
+        <v>70</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1203" s="8">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="F1203" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1203" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1203" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9">
+      <c r="A1204">
+        <v>1</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1204" s="8">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="F1204" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1204" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1204" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9">
+      <c r="A1205">
+        <v>2</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1205" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1205" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1205" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9">
+      <c r="A1206">
+        <v>3</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1206" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1206" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1206" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9">
+      <c r="A1207">
+        <v>4</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1207" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1207" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1207" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9">
+      <c r="A1208">
+        <v>5</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1208" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1208" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1208" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9">
+      <c r="A1209">
+        <v>6</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1209" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1209" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1209" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9">
+      <c r="A1210">
+        <v>7</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1210" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1210" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1210" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9">
+      <c r="A1211">
+        <v>8</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1211" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1211" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1211" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9">
+      <c r="A1212">
+        <v>9</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1212" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1212" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1212" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9">
+      <c r="A1213">
+        <v>10</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1213" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1213" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1213" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9">
+      <c r="A1214">
+        <v>11</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1214" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1214" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1214" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9">
+      <c r="A1215">
+        <v>12</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1215" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1215" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1215" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9">
+      <c r="A1216">
+        <v>13</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1216" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1216" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1216" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9">
+      <c r="A1217">
+        <v>14</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1217" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1217" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1217" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9">
+      <c r="A1218">
+        <v>15</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1218" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1218" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1218" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9">
+      <c r="A1219">
+        <v>16</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1219" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1219" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1219" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9">
+      <c r="A1220">
+        <v>17</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1220" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1220" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1220" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9">
+      <c r="A1221">
+        <v>18</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1221" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1221" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1221" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9">
+      <c r="A1222">
+        <v>19</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1222" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1222" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1222" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9">
+      <c r="A1223">
+        <v>20</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1223" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1223" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1223" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9">
+      <c r="A1224">
+        <v>21</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1224" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1224" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1224" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9">
+      <c r="A1225">
+        <v>22</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1225" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1225" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1225" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9">
+      <c r="A1226">
+        <v>23</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1226" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1226" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1226" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9">
+      <c r="A1227">
+        <v>24</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1227" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1227" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1227" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9">
+      <c r="A1228">
+        <v>25</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1228" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1228" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1228" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9">
+      <c r="A1229">
+        <v>26</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1229" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1229" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1229" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9">
+      <c r="A1230">
+        <v>27</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1230" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1230" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1230" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9">
+      <c r="A1231">
+        <v>28</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1231" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1231" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1231" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9">
+      <c r="A1232">
+        <v>29</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1232" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1232" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1232" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9">
+      <c r="A1233">
+        <v>30</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1233" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1233" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1233" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9">
+      <c r="A1234">
+        <v>31</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1234" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1234" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1234" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9">
+      <c r="A1235">
+        <v>32</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1235" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1235" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1235" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9">
+      <c r="A1236">
+        <v>33</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1236" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1236" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1236" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9">
+      <c r="A1237">
+        <v>34</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1237" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1237" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1237" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9">
+      <c r="A1238">
+        <v>35</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1238" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1238" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1238" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9">
+      <c r="A1239">
+        <v>36</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1239" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1239" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1239" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9">
+      <c r="A1240">
+        <v>37</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1240" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1240" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1240" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9">
+      <c r="A1241">
+        <v>38</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1241" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1241" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1241" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9">
+      <c r="A1242">
+        <v>39</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1242" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1242" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1242" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9">
+      <c r="A1243">
+        <v>40</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1243" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1243" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1243" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9">
+      <c r="A1244">
+        <v>41</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1244" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1244" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1244" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9">
+      <c r="A1245">
+        <v>42</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1245" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1245" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1245" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9">
+      <c r="A1246">
+        <v>43</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1246" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1246" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1246" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9">
+      <c r="A1247">
+        <v>44</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1247" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1247" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1247" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9">
+      <c r="A1248">
+        <v>45</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1248" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1248" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1248" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9">
+      <c r="A1249">
+        <v>46</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1249" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1249" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1249" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9">
+      <c r="A1250">
+        <v>47</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1250" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1250" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1250" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9">
+      <c r="A1251">
+        <v>48</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1251" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1251" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1251" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9">
+      <c r="A1252">
+        <v>49</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1252" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1252" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1252" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9">
+      <c r="A1253">
+        <v>50</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1253" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1253" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1253" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9">
+      <c r="A1254">
+        <v>51</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1254" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1254" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1254" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9">
+      <c r="A1255">
+        <v>52</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1255" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1255" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1255" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9">
+      <c r="A1256">
+        <v>53</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1256" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1256" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1256" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9">
+      <c r="A1257">
+        <v>54</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1257" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1257" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1257" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9">
+      <c r="A1258">
+        <v>55</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1258" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1258" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1258" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9">
+      <c r="A1259">
+        <v>56</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1259" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1259" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1259" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9">
+      <c r="A1260">
+        <v>57</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1260" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1260" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1260" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9">
+      <c r="A1261">
+        <v>58</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1261" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1261" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1261" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9">
+      <c r="A1262">
+        <v>59</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1262" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1262" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1262" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:9">
+      <c r="A1263">
+        <v>60</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1263" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1263" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1263" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9">
+      <c r="A1264">
+        <v>61</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1264" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1264" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1264" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9">
+      <c r="A1265">
+        <v>65</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1265" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1265" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1265" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9">
+      <c r="A1266">
+        <v>70</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1266" s="8">
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="F1266" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1266" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1266" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8759" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8753" uniqueCount="124">
   <si>
     <t>Site</t>
   </si>
@@ -5673,11 +5673,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1266"/>
+  <dimension ref="A1:S1265"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1159" sqref="N1159"/>
+      <pane ySplit="1" topLeftCell="A1196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1266" sqref="D1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -43270,6 +43270,9 @@
       <c r="C1136" t="s">
         <v>4</v>
       </c>
+      <c r="D1136">
+        <v>5.1970000000000001</v>
+      </c>
       <c r="E1136" s="8">
         <v>0.72777777777777775</v>
       </c>
@@ -43296,6 +43299,9 @@
       <c r="C1137" t="s">
         <v>4</v>
       </c>
+      <c r="D1137">
+        <v>4.9980000000000002</v>
+      </c>
       <c r="F1137" s="1" t="s">
         <v>58</v>
       </c>
@@ -43319,6 +43325,9 @@
       <c r="C1138" t="s">
         <v>5</v>
       </c>
+      <c r="D1138">
+        <v>8.2880000000000003</v>
+      </c>
       <c r="F1138" s="1" t="s">
         <v>58</v>
       </c>
@@ -43342,6 +43351,9 @@
       <c r="C1139" t="s">
         <v>5</v>
       </c>
+      <c r="D1139">
+        <v>8.8650000000000002</v>
+      </c>
       <c r="F1139" s="1" t="s">
         <v>58</v>
       </c>
@@ -43365,6 +43377,9 @@
       <c r="C1140" t="s">
         <v>4</v>
       </c>
+      <c r="D1140">
+        <v>9.2880000000000003</v>
+      </c>
       <c r="F1140" s="1" t="s">
         <v>58</v>
       </c>
@@ -43387,6 +43402,9 @@
       </c>
       <c r="C1141" t="s">
         <v>5</v>
+      </c>
+      <c r="D1141">
+        <v>9.4339999999999993</v>
       </c>
       <c r="F1141" s="1" t="s">
         <v>58</v>
@@ -43411,6 +43429,9 @@
       <c r="C1142" t="s">
         <v>5</v>
       </c>
+      <c r="D1142">
+        <v>9.1379999999999999</v>
+      </c>
       <c r="F1142" s="1" t="s">
         <v>58</v>
       </c>
@@ -43434,6 +43455,9 @@
       <c r="C1143" t="s">
         <v>4</v>
       </c>
+      <c r="D1143">
+        <v>8.1159999999999997</v>
+      </c>
       <c r="F1143" s="1" t="s">
         <v>58</v>
       </c>
@@ -43457,6 +43481,9 @@
       <c r="C1144" t="s">
         <v>4</v>
       </c>
+      <c r="D1144">
+        <v>5.7560000000000002</v>
+      </c>
       <c r="F1144" s="1" t="s">
         <v>58</v>
       </c>
@@ -43480,6 +43507,9 @@
       <c r="C1145" t="s">
         <v>4</v>
       </c>
+      <c r="D1145">
+        <v>12.981</v>
+      </c>
       <c r="F1145" s="1" t="s">
         <v>58</v>
       </c>
@@ -43503,6 +43533,9 @@
       <c r="C1146" t="s">
         <v>4</v>
       </c>
+      <c r="D1146">
+        <v>9.3480000000000008</v>
+      </c>
       <c r="F1146" s="1" t="s">
         <v>58</v>
       </c>
@@ -43526,6 +43559,9 @@
       <c r="C1147" t="s">
         <v>4</v>
       </c>
+      <c r="D1147">
+        <v>8.2520000000000007</v>
+      </c>
       <c r="F1147" s="1" t="s">
         <v>58</v>
       </c>
@@ -43549,6 +43585,9 @@
       <c r="C1148" t="s">
         <v>5</v>
       </c>
+      <c r="D1148">
+        <v>5.3330000000000002</v>
+      </c>
       <c r="F1148" s="1" t="s">
         <v>58</v>
       </c>
@@ -43572,6 +43611,9 @@
       <c r="C1149" t="s">
         <v>5</v>
       </c>
+      <c r="D1149">
+        <v>5.46</v>
+      </c>
       <c r="F1149" s="1" t="s">
         <v>58</v>
       </c>
@@ -43595,6 +43637,9 @@
       <c r="C1150" t="s">
         <v>4</v>
       </c>
+      <c r="D1150">
+        <v>4.42</v>
+      </c>
       <c r="F1150" s="1" t="s">
         <v>58</v>
       </c>
@@ -43618,6 +43663,9 @@
       <c r="C1151" t="s">
         <v>5</v>
       </c>
+      <c r="D1151">
+        <v>5.6740000000000004</v>
+      </c>
       <c r="F1151" s="1" t="s">
         <v>58</v>
       </c>
@@ -43641,6 +43689,9 @@
       <c r="C1152" t="s">
         <v>5</v>
       </c>
+      <c r="D1152">
+        <v>7.3810000000000002</v>
+      </c>
       <c r="F1152" s="1" t="s">
         <v>58</v>
       </c>
@@ -43664,6 +43715,9 @@
       <c r="C1153" t="s">
         <v>4</v>
       </c>
+      <c r="D1153">
+        <v>7.3120000000000003</v>
+      </c>
       <c r="F1153" s="1" t="s">
         <v>58</v>
       </c>
@@ -43687,6 +43741,9 @@
       <c r="C1154" t="s">
         <v>4</v>
       </c>
+      <c r="D1154">
+        <v>6.6779999999999999</v>
+      </c>
       <c r="F1154" s="1" t="s">
         <v>58</v>
       </c>
@@ -43710,6 +43767,9 @@
       <c r="C1155" t="s">
         <v>5</v>
       </c>
+      <c r="D1155">
+        <v>6.3780000000000001</v>
+      </c>
       <c r="F1155" s="1" t="s">
         <v>58</v>
       </c>
@@ -43733,6 +43793,9 @@
       <c r="C1156" t="s">
         <v>4</v>
       </c>
+      <c r="D1156">
+        <v>10.034000000000001</v>
+      </c>
       <c r="F1156" s="1" t="s">
         <v>58</v>
       </c>
@@ -43756,6 +43819,9 @@
       <c r="C1157" t="s">
         <v>5</v>
       </c>
+      <c r="D1157">
+        <v>3.617</v>
+      </c>
       <c r="F1157" s="1" t="s">
         <v>58</v>
       </c>
@@ -43779,6 +43845,9 @@
       <c r="C1158" t="s">
         <v>4</v>
       </c>
+      <c r="D1158">
+        <v>5.2549999999999999</v>
+      </c>
       <c r="F1158" s="1" t="s">
         <v>58</v>
       </c>
@@ -43802,6 +43871,9 @@
       <c r="C1159" t="s">
         <v>4</v>
       </c>
+      <c r="D1159">
+        <v>5.7480000000000002</v>
+      </c>
       <c r="F1159" s="1" t="s">
         <v>58</v>
       </c>
@@ -43825,6 +43897,9 @@
       <c r="C1160" t="s">
         <v>75</v>
       </c>
+      <c r="D1160">
+        <v>7.048</v>
+      </c>
       <c r="F1160" s="1" t="s">
         <v>58</v>
       </c>
@@ -43848,6 +43923,9 @@
       <c r="C1161" t="s">
         <v>5</v>
       </c>
+      <c r="D1161">
+        <v>7.492</v>
+      </c>
       <c r="F1161" s="1" t="s">
         <v>58</v>
       </c>
@@ -43894,6 +43972,9 @@
       <c r="C1163" t="s">
         <v>5</v>
       </c>
+      <c r="D1163">
+        <v>6.8529999999999998</v>
+      </c>
       <c r="F1163" s="1" t="s">
         <v>58</v>
       </c>
@@ -43917,6 +43998,9 @@
       <c r="C1164" t="s">
         <v>4</v>
       </c>
+      <c r="D1164">
+        <v>9.8640000000000008</v>
+      </c>
       <c r="F1164" s="1" t="s">
         <v>58</v>
       </c>
@@ -43940,6 +44024,9 @@
       <c r="C1165" t="s">
         <v>5</v>
       </c>
+      <c r="D1165">
+        <v>7.109</v>
+      </c>
       <c r="F1165" s="1" t="s">
         <v>58</v>
       </c>
@@ -43963,6 +44050,9 @@
       <c r="C1166" t="s">
         <v>4</v>
       </c>
+      <c r="D1166">
+        <v>8.032</v>
+      </c>
       <c r="F1166" s="1" t="s">
         <v>58</v>
       </c>
@@ -43986,6 +44076,9 @@
       <c r="C1167" t="s">
         <v>5</v>
       </c>
+      <c r="D1167">
+        <v>3.2280000000000002</v>
+      </c>
       <c r="F1167" s="1" t="s">
         <v>58</v>
       </c>
@@ -44009,6 +44102,9 @@
       <c r="C1168" t="s">
         <v>4</v>
       </c>
+      <c r="D1168">
+        <v>6.4740000000000002</v>
+      </c>
       <c r="F1168" s="1" t="s">
         <v>58</v>
       </c>
@@ -44032,6 +44128,9 @@
       <c r="C1169" t="s">
         <v>4</v>
       </c>
+      <c r="D1169">
+        <v>8.0510000000000002</v>
+      </c>
       <c r="F1169" s="1" t="s">
         <v>58</v>
       </c>
@@ -44055,6 +44154,9 @@
       <c r="C1170" t="s">
         <v>4</v>
       </c>
+      <c r="D1170">
+        <v>6.585</v>
+      </c>
       <c r="F1170" s="1" t="s">
         <v>58</v>
       </c>
@@ -44078,6 +44180,9 @@
       <c r="C1171" t="s">
         <v>5</v>
       </c>
+      <c r="D1171">
+        <v>5.4249999999999998</v>
+      </c>
       <c r="F1171" s="1" t="s">
         <v>58</v>
       </c>
@@ -44101,6 +44206,9 @@
       <c r="C1172" t="s">
         <v>4</v>
       </c>
+      <c r="D1172">
+        <v>9.81</v>
+      </c>
       <c r="F1172" s="1" t="s">
         <v>58</v>
       </c>
@@ -44124,6 +44232,9 @@
       <c r="C1173" t="s">
         <v>5</v>
       </c>
+      <c r="D1173">
+        <v>6.149</v>
+      </c>
       <c r="F1173" s="1" t="s">
         <v>58</v>
       </c>
@@ -44147,6 +44258,9 @@
       <c r="C1174" t="s">
         <v>4</v>
       </c>
+      <c r="D1174">
+        <v>4.9390000000000001</v>
+      </c>
       <c r="F1174" s="1" t="s">
         <v>58</v>
       </c>
@@ -44170,6 +44284,9 @@
       <c r="C1175" t="s">
         <v>4</v>
       </c>
+      <c r="D1175">
+        <v>5.3289999999999997</v>
+      </c>
       <c r="F1175" s="1" t="s">
         <v>58</v>
       </c>
@@ -44193,6 +44310,9 @@
       <c r="C1176" t="s">
         <v>4</v>
       </c>
+      <c r="D1176">
+        <v>3.67</v>
+      </c>
       <c r="F1176" s="1" t="s">
         <v>58</v>
       </c>
@@ -44216,6 +44336,9 @@
       <c r="C1177" t="s">
         <v>5</v>
       </c>
+      <c r="D1177">
+        <v>9.5220000000000002</v>
+      </c>
       <c r="F1177" s="1" t="s">
         <v>58</v>
       </c>
@@ -44239,6 +44362,9 @@
       <c r="C1178" t="s">
         <v>4</v>
       </c>
+      <c r="D1178">
+        <v>5.9139999999999997</v>
+      </c>
       <c r="F1178" s="1" t="s">
         <v>58</v>
       </c>
@@ -44262,6 +44388,9 @@
       <c r="C1179" t="s">
         <v>4</v>
       </c>
+      <c r="D1179">
+        <v>5.8049999999999997</v>
+      </c>
       <c r="F1179" s="1" t="s">
         <v>58</v>
       </c>
@@ -44285,6 +44414,9 @@
       <c r="C1180" t="s">
         <v>4</v>
       </c>
+      <c r="D1180">
+        <v>7.5970000000000004</v>
+      </c>
       <c r="F1180" s="1" t="s">
         <v>58</v>
       </c>
@@ -44308,6 +44440,9 @@
       <c r="C1181" t="s">
         <v>4</v>
       </c>
+      <c r="D1181">
+        <v>5.8840000000000003</v>
+      </c>
       <c r="F1181" s="1" t="s">
         <v>58</v>
       </c>
@@ -44331,6 +44466,9 @@
       <c r="C1182" t="s">
         <v>4</v>
       </c>
+      <c r="D1182">
+        <v>9.1240000000000006</v>
+      </c>
       <c r="F1182" s="1" t="s">
         <v>58</v>
       </c>
@@ -44354,6 +44492,9 @@
       <c r="C1183" t="s">
         <v>5</v>
       </c>
+      <c r="D1183">
+        <v>5.4249999999999998</v>
+      </c>
       <c r="F1183" s="1" t="s">
         <v>58</v>
       </c>
@@ -44377,6 +44518,9 @@
       <c r="C1184" t="s">
         <v>4</v>
       </c>
+      <c r="D1184">
+        <v>8.7949999999999999</v>
+      </c>
       <c r="F1184" s="1" t="s">
         <v>58</v>
       </c>
@@ -44400,6 +44544,9 @@
       <c r="C1185" t="s">
         <v>4</v>
       </c>
+      <c r="D1185">
+        <v>9.3580000000000005</v>
+      </c>
       <c r="F1185" s="1" t="s">
         <v>58</v>
       </c>
@@ -44423,6 +44570,9 @@
       <c r="C1186" t="s">
         <v>4</v>
       </c>
+      <c r="D1186">
+        <v>6.8120000000000003</v>
+      </c>
       <c r="F1186" s="1" t="s">
         <v>58</v>
       </c>
@@ -44446,6 +44596,9 @@
       <c r="C1187" t="s">
         <v>4</v>
       </c>
+      <c r="D1187">
+        <v>5.9089999999999998</v>
+      </c>
       <c r="F1187" s="1" t="s">
         <v>58</v>
       </c>
@@ -44469,6 +44622,9 @@
       <c r="C1188" t="s">
         <v>4</v>
       </c>
+      <c r="D1188">
+        <v>3.63</v>
+      </c>
       <c r="F1188" s="1" t="s">
         <v>58</v>
       </c>
@@ -44492,6 +44648,9 @@
       <c r="C1189" t="s">
         <v>4</v>
       </c>
+      <c r="D1189">
+        <v>4.1340000000000003</v>
+      </c>
       <c r="F1189" s="1" t="s">
         <v>58</v>
       </c>
@@ -44515,6 +44674,9 @@
       <c r="C1190" t="s">
         <v>4</v>
       </c>
+      <c r="D1190">
+        <v>4.5010000000000003</v>
+      </c>
       <c r="F1190" s="1" t="s">
         <v>58</v>
       </c>
@@ -44538,6 +44700,9 @@
       <c r="C1191" t="s">
         <v>5</v>
       </c>
+      <c r="D1191">
+        <v>7.2919999999999998</v>
+      </c>
       <c r="F1191" s="1" t="s">
         <v>58</v>
       </c>
@@ -44561,6 +44726,9 @@
       <c r="C1192" t="s">
         <v>4</v>
       </c>
+      <c r="D1192">
+        <v>9.8010000000000002</v>
+      </c>
       <c r="F1192" s="1" t="s">
         <v>58</v>
       </c>
@@ -44584,6 +44752,9 @@
       <c r="C1193" t="s">
         <v>4</v>
       </c>
+      <c r="D1193">
+        <v>4.7809999999999997</v>
+      </c>
       <c r="F1193" s="1" t="s">
         <v>58</v>
       </c>
@@ -44607,6 +44778,9 @@
       <c r="C1194" t="s">
         <v>4</v>
       </c>
+      <c r="D1194">
+        <v>3.7570000000000001</v>
+      </c>
       <c r="F1194" s="1" t="s">
         <v>58</v>
       </c>
@@ -44630,6 +44804,9 @@
       <c r="C1195" t="s">
         <v>5</v>
       </c>
+      <c r="D1195">
+        <v>8.65</v>
+      </c>
       <c r="F1195" s="1" t="s">
         <v>58</v>
       </c>
@@ -44653,6 +44830,9 @@
       <c r="C1196" t="s">
         <v>4</v>
       </c>
+      <c r="D1196">
+        <v>6.0129999999999999</v>
+      </c>
       <c r="F1196" s="1" t="s">
         <v>58</v>
       </c>
@@ -44676,6 +44856,9 @@
       <c r="C1197" t="s">
         <v>4</v>
       </c>
+      <c r="D1197">
+        <v>7.2220000000000004</v>
+      </c>
       <c r="F1197" s="1" t="s">
         <v>58</v>
       </c>
@@ -44699,6 +44882,9 @@
       <c r="C1198" t="s">
         <v>5</v>
       </c>
+      <c r="D1198">
+        <v>6.6280000000000001</v>
+      </c>
       <c r="F1198" s="1" t="s">
         <v>58</v>
       </c>
@@ -44722,6 +44908,9 @@
       <c r="C1199" t="s">
         <v>4</v>
       </c>
+      <c r="D1199">
+        <v>4.8789999999999996</v>
+      </c>
       <c r="F1199" s="1" t="s">
         <v>58</v>
       </c>
@@ -44737,13 +44926,16 @@
     </row>
     <row r="1200" spans="1:9">
       <c r="A1200">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1200" t="s">
         <v>74</v>
       </c>
       <c r="C1200" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1200">
+        <v>8.1590000000000007</v>
       </c>
       <c r="F1200" s="1" t="s">
         <v>58</v>
@@ -44760,7 +44952,7 @@
     </row>
     <row r="1201" spans="1:9">
       <c r="A1201">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1201" t="s">
         <v>74</v>
@@ -44768,6 +44960,9 @@
       <c r="C1201" t="s">
         <v>5</v>
       </c>
+      <c r="D1201">
+        <v>4.4059999999999997</v>
+      </c>
       <c r="F1201" s="1" t="s">
         <v>58</v>
       </c>
@@ -44783,13 +44978,16 @@
     </row>
     <row r="1202" spans="1:9">
       <c r="A1202">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1202" t="s">
         <v>74</v>
       </c>
       <c r="C1202" t="s">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="E1202" s="8">
+        <v>0.74236111111111114</v>
       </c>
       <c r="F1202" s="1" t="s">
         <v>58</v>
@@ -44806,16 +45004,19 @@
     </row>
     <row r="1203" spans="1:9">
       <c r="A1203">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B1203" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1203" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="D1203">
+        <v>6.54</v>
       </c>
       <c r="E1203" s="8">
-        <v>0.74236111111111114</v>
+        <v>0.71388888888888891</v>
       </c>
       <c r="F1203" s="1" t="s">
         <v>58</v>
@@ -44832,16 +45033,16 @@
     </row>
     <row r="1204" spans="1:9">
       <c r="A1204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1204" t="s">
         <v>73</v>
       </c>
       <c r="C1204" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1204" s="8">
-        <v>0.71388888888888891</v>
+        <v>75</v>
+      </c>
+      <c r="D1204">
+        <v>11.606</v>
       </c>
       <c r="F1204" s="1" t="s">
         <v>58</v>
@@ -44858,13 +45059,16 @@
     </row>
     <row r="1205" spans="1:9">
       <c r="A1205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1205" t="s">
         <v>73</v>
       </c>
       <c r="C1205" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="D1205">
+        <v>5.3520000000000003</v>
       </c>
       <c r="F1205" s="1" t="s">
         <v>58</v>
@@ -44881,13 +45085,16 @@
     </row>
     <row r="1206" spans="1:9">
       <c r="A1206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1206" t="s">
         <v>73</v>
       </c>
       <c r="C1206" t="s">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="D1206">
+        <v>6.7489999999999997</v>
       </c>
       <c r="F1206" s="1" t="s">
         <v>58</v>
@@ -44904,13 +45111,16 @@
     </row>
     <row r="1207" spans="1:9">
       <c r="A1207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1207" t="s">
         <v>73</v>
       </c>
       <c r="C1207" t="s">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="D1207">
+        <v>6.5149999999999997</v>
       </c>
       <c r="F1207" s="1" t="s">
         <v>58</v>
@@ -44927,7 +45137,7 @@
     </row>
     <row r="1208" spans="1:9">
       <c r="A1208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1208" t="s">
         <v>73</v>
@@ -44935,6 +45145,9 @@
       <c r="C1208" t="s">
         <v>4</v>
       </c>
+      <c r="D1208">
+        <v>7.0640000000000001</v>
+      </c>
       <c r="F1208" s="1" t="s">
         <v>58</v>
       </c>
@@ -44950,13 +45163,16 @@
     </row>
     <row r="1209" spans="1:9">
       <c r="A1209">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1209" t="s">
         <v>73</v>
       </c>
       <c r="C1209" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1209">
+        <v>8.6539999999999999</v>
       </c>
       <c r="F1209" s="1" t="s">
         <v>58</v>
@@ -44973,13 +45189,16 @@
     </row>
     <row r="1210" spans="1:9">
       <c r="A1210">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1210" t="s">
         <v>73</v>
       </c>
       <c r="C1210" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1210">
+        <v>5.5979999999999999</v>
       </c>
       <c r="F1210" s="1" t="s">
         <v>58</v>
@@ -44996,13 +45215,16 @@
     </row>
     <row r="1211" spans="1:9">
       <c r="A1211">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1211" t="s">
         <v>73</v>
       </c>
       <c r="C1211" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1211">
+        <v>5.9729999999999999</v>
       </c>
       <c r="F1211" s="1" t="s">
         <v>58</v>
@@ -45019,7 +45241,7 @@
     </row>
     <row r="1212" spans="1:9">
       <c r="A1212">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1212" t="s">
         <v>73</v>
@@ -45027,6 +45249,9 @@
       <c r="C1212" t="s">
         <v>5</v>
       </c>
+      <c r="D1212">
+        <v>10.335000000000001</v>
+      </c>
       <c r="F1212" s="1" t="s">
         <v>58</v>
       </c>
@@ -45042,13 +45267,16 @@
     </row>
     <row r="1213" spans="1:9">
       <c r="A1213">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1213" t="s">
         <v>73</v>
       </c>
       <c r="C1213" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1213">
+        <v>5.6840000000000002</v>
       </c>
       <c r="F1213" s="1" t="s">
         <v>58</v>
@@ -45065,7 +45293,7 @@
     </row>
     <row r="1214" spans="1:9">
       <c r="A1214">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1214" t="s">
         <v>73</v>
@@ -45073,6 +45301,9 @@
       <c r="C1214" t="s">
         <v>4</v>
       </c>
+      <c r="D1214">
+        <v>7.3559999999999999</v>
+      </c>
       <c r="F1214" s="1" t="s">
         <v>58</v>
       </c>
@@ -45088,7 +45319,7 @@
     </row>
     <row r="1215" spans="1:9">
       <c r="A1215">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1215" t="s">
         <v>73</v>
@@ -45096,6 +45327,9 @@
       <c r="C1215" t="s">
         <v>4</v>
       </c>
+      <c r="D1215">
+        <v>4.1050000000000004</v>
+      </c>
       <c r="F1215" s="1" t="s">
         <v>58</v>
       </c>
@@ -45111,7 +45345,7 @@
     </row>
     <row r="1216" spans="1:9">
       <c r="A1216">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1216" t="s">
         <v>73</v>
@@ -45119,6 +45353,9 @@
       <c r="C1216" t="s">
         <v>4</v>
       </c>
+      <c r="D1216">
+        <v>7.9180000000000001</v>
+      </c>
       <c r="F1216" s="1" t="s">
         <v>58</v>
       </c>
@@ -45134,13 +45371,16 @@
     </row>
     <row r="1217" spans="1:9">
       <c r="A1217">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1217" t="s">
         <v>73</v>
       </c>
       <c r="C1217" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1217">
+        <v>10.56</v>
       </c>
       <c r="F1217" s="1" t="s">
         <v>58</v>
@@ -45157,13 +45397,16 @@
     </row>
     <row r="1218" spans="1:9">
       <c r="A1218">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1218" t="s">
         <v>73</v>
       </c>
       <c r="C1218" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1218">
+        <v>5.8209999999999997</v>
       </c>
       <c r="F1218" s="1" t="s">
         <v>58</v>
@@ -45180,7 +45423,7 @@
     </row>
     <row r="1219" spans="1:9">
       <c r="A1219">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1219" t="s">
         <v>73</v>
@@ -45188,6 +45431,9 @@
       <c r="C1219" t="s">
         <v>4</v>
       </c>
+      <c r="D1219">
+        <v>8.2840000000000007</v>
+      </c>
       <c r="F1219" s="1" t="s">
         <v>58</v>
       </c>
@@ -45203,7 +45449,7 @@
     </row>
     <row r="1220" spans="1:9">
       <c r="A1220">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1220" t="s">
         <v>73</v>
@@ -45211,6 +45457,9 @@
       <c r="C1220" t="s">
         <v>4</v>
       </c>
+      <c r="D1220">
+        <v>6.2229999999999999</v>
+      </c>
       <c r="F1220" s="1" t="s">
         <v>58</v>
       </c>
@@ -45226,13 +45475,16 @@
     </row>
     <row r="1221" spans="1:9">
       <c r="A1221">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1221" t="s">
         <v>73</v>
       </c>
       <c r="C1221" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1221">
+        <v>9.5649999999999995</v>
       </c>
       <c r="F1221" s="1" t="s">
         <v>58</v>
@@ -45249,13 +45501,16 @@
     </row>
     <row r="1222" spans="1:9">
       <c r="A1222">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1222" t="s">
         <v>73</v>
       </c>
       <c r="C1222" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1222">
+        <v>6.1180000000000003</v>
       </c>
       <c r="F1222" s="1" t="s">
         <v>58</v>
@@ -45272,7 +45527,7 @@
     </row>
     <row r="1223" spans="1:9">
       <c r="A1223">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1223" t="s">
         <v>73</v>
@@ -45280,6 +45535,9 @@
       <c r="C1223" t="s">
         <v>4</v>
       </c>
+      <c r="D1223">
+        <v>7.0389999999999997</v>
+      </c>
       <c r="F1223" s="1" t="s">
         <v>58</v>
       </c>
@@ -45295,13 +45553,16 @@
     </row>
     <row r="1224" spans="1:9">
       <c r="A1224">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1224" t="s">
         <v>73</v>
       </c>
       <c r="C1224" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1224">
+        <v>4.9039999999999999</v>
       </c>
       <c r="F1224" s="1" t="s">
         <v>58</v>
@@ -45318,7 +45579,7 @@
     </row>
     <row r="1225" spans="1:9">
       <c r="A1225">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1225" t="s">
         <v>73</v>
@@ -45326,6 +45587,9 @@
       <c r="C1225" t="s">
         <v>5</v>
       </c>
+      <c r="D1225">
+        <v>8.3559999999999999</v>
+      </c>
       <c r="F1225" s="1" t="s">
         <v>58</v>
       </c>
@@ -45341,7 +45605,7 @@
     </row>
     <row r="1226" spans="1:9">
       <c r="A1226">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1226" t="s">
         <v>73</v>
@@ -45349,6 +45613,9 @@
       <c r="C1226" t="s">
         <v>5</v>
       </c>
+      <c r="D1226">
+        <v>5.7690000000000001</v>
+      </c>
       <c r="F1226" s="1" t="s">
         <v>58</v>
       </c>
@@ -45364,13 +45631,16 @@
     </row>
     <row r="1227" spans="1:9">
       <c r="A1227">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1227" t="s">
         <v>73</v>
       </c>
       <c r="C1227" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1227">
+        <v>7.4459999999999997</v>
       </c>
       <c r="F1227" s="1" t="s">
         <v>58</v>
@@ -45387,13 +45657,13 @@
     </row>
     <row r="1228" spans="1:9">
       <c r="A1228">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1228" t="s">
         <v>73</v>
       </c>
       <c r="C1228" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1228" s="1" t="s">
         <v>58</v>
@@ -45410,13 +45680,16 @@
     </row>
     <row r="1229" spans="1:9">
       <c r="A1229">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1229" t="s">
         <v>73</v>
       </c>
       <c r="C1229" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="D1229">
+        <v>6.5549999999999997</v>
       </c>
       <c r="F1229" s="1" t="s">
         <v>58</v>
@@ -45433,13 +45706,16 @@
     </row>
     <row r="1230" spans="1:9">
       <c r="A1230">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1230" t="s">
         <v>73</v>
       </c>
       <c r="C1230" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1230">
+        <v>5.2560000000000002</v>
       </c>
       <c r="F1230" s="1" t="s">
         <v>58</v>
@@ -45456,7 +45732,7 @@
     </row>
     <row r="1231" spans="1:9">
       <c r="A1231">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1231" t="s">
         <v>73</v>
@@ -45464,6 +45740,9 @@
       <c r="C1231" t="s">
         <v>4</v>
       </c>
+      <c r="D1231">
+        <v>6.6580000000000004</v>
+      </c>
       <c r="F1231" s="1" t="s">
         <v>58</v>
       </c>
@@ -45479,13 +45758,16 @@
     </row>
     <row r="1232" spans="1:9">
       <c r="A1232">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1232" t="s">
         <v>73</v>
       </c>
       <c r="C1232" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1232">
+        <v>6.3390000000000004</v>
       </c>
       <c r="F1232" s="1" t="s">
         <v>58</v>
@@ -45502,13 +45784,16 @@
     </row>
     <row r="1233" spans="1:9">
       <c r="A1233">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1233" t="s">
         <v>73</v>
       </c>
       <c r="C1233" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1233">
+        <v>7.4550000000000001</v>
       </c>
       <c r="F1233" s="1" t="s">
         <v>58</v>
@@ -45525,13 +45810,16 @@
     </row>
     <row r="1234" spans="1:9">
       <c r="A1234">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1234" t="s">
         <v>73</v>
       </c>
       <c r="C1234" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1234">
+        <v>8.6210000000000004</v>
       </c>
       <c r="F1234" s="1" t="s">
         <v>58</v>
@@ -45548,13 +45836,16 @@
     </row>
     <row r="1235" spans="1:9">
       <c r="A1235">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1235" t="s">
         <v>73</v>
       </c>
       <c r="C1235" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1235">
+        <v>8.8640000000000008</v>
       </c>
       <c r="F1235" s="1" t="s">
         <v>58</v>
@@ -45571,7 +45862,7 @@
     </row>
     <row r="1236" spans="1:9">
       <c r="A1236">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1236" t="s">
         <v>73</v>
@@ -45579,6 +45870,9 @@
       <c r="C1236" t="s">
         <v>4</v>
       </c>
+      <c r="D1236">
+        <v>10.659000000000001</v>
+      </c>
       <c r="F1236" s="1" t="s">
         <v>58</v>
       </c>
@@ -45594,7 +45888,7 @@
     </row>
     <row r="1237" spans="1:9">
       <c r="A1237">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1237" t="s">
         <v>73</v>
@@ -45602,6 +45896,9 @@
       <c r="C1237" t="s">
         <v>4</v>
       </c>
+      <c r="D1237">
+        <v>5.8579999999999997</v>
+      </c>
       <c r="F1237" s="1" t="s">
         <v>58</v>
       </c>
@@ -45617,7 +45914,7 @@
     </row>
     <row r="1238" spans="1:9">
       <c r="A1238">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1238" t="s">
         <v>73</v>
@@ -45625,6 +45922,9 @@
       <c r="C1238" t="s">
         <v>4</v>
       </c>
+      <c r="D1238">
+        <v>5.7279999999999998</v>
+      </c>
       <c r="F1238" s="1" t="s">
         <v>58</v>
       </c>
@@ -45640,13 +45940,16 @@
     </row>
     <row r="1239" spans="1:9">
       <c r="A1239">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1239" t="s">
         <v>73</v>
       </c>
       <c r="C1239" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1239">
+        <v>9.0250000000000004</v>
       </c>
       <c r="F1239" s="1" t="s">
         <v>58</v>
@@ -45663,13 +45966,16 @@
     </row>
     <row r="1240" spans="1:9">
       <c r="A1240">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1240" t="s">
         <v>73</v>
       </c>
       <c r="C1240" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1240">
+        <v>6.9989999999999997</v>
       </c>
       <c r="F1240" s="1" t="s">
         <v>58</v>
@@ -45686,7 +45992,7 @@
     </row>
     <row r="1241" spans="1:9">
       <c r="A1241">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1241" t="s">
         <v>73</v>
@@ -45694,6 +46000,9 @@
       <c r="C1241" t="s">
         <v>4</v>
       </c>
+      <c r="D1241">
+        <v>10.553000000000001</v>
+      </c>
       <c r="F1241" s="1" t="s">
         <v>58</v>
       </c>
@@ -45709,7 +46018,7 @@
     </row>
     <row r="1242" spans="1:9">
       <c r="A1242">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1242" t="s">
         <v>73</v>
@@ -45717,6 +46026,9 @@
       <c r="C1242" t="s">
         <v>4</v>
       </c>
+      <c r="D1242">
+        <v>6.5679999999999996</v>
+      </c>
       <c r="F1242" s="1" t="s">
         <v>58</v>
       </c>
@@ -45732,7 +46044,7 @@
     </row>
     <row r="1243" spans="1:9">
       <c r="A1243">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1243" t="s">
         <v>73</v>
@@ -45740,6 +46052,9 @@
       <c r="C1243" t="s">
         <v>4</v>
       </c>
+      <c r="D1243">
+        <v>3.8679999999999999</v>
+      </c>
       <c r="F1243" s="1" t="s">
         <v>58</v>
       </c>
@@ -45755,7 +46070,7 @@
     </row>
     <row r="1244" spans="1:9">
       <c r="A1244">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1244" t="s">
         <v>73</v>
@@ -45763,6 +46078,9 @@
       <c r="C1244" t="s">
         <v>4</v>
       </c>
+      <c r="D1244">
+        <v>5.0389999999999997</v>
+      </c>
       <c r="F1244" s="1" t="s">
         <v>58</v>
       </c>
@@ -45778,7 +46096,7 @@
     </row>
     <row r="1245" spans="1:9">
       <c r="A1245">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1245" t="s">
         <v>73</v>
@@ -45786,6 +46104,9 @@
       <c r="C1245" t="s">
         <v>4</v>
       </c>
+      <c r="D1245">
+        <v>8.2889999999999997</v>
+      </c>
       <c r="F1245" s="1" t="s">
         <v>58</v>
       </c>
@@ -45801,13 +46122,16 @@
     </row>
     <row r="1246" spans="1:9">
       <c r="A1246">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1246" t="s">
         <v>73</v>
       </c>
       <c r="C1246" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1246">
+        <v>6.3079999999999998</v>
       </c>
       <c r="F1246" s="1" t="s">
         <v>58</v>
@@ -45824,13 +46148,16 @@
     </row>
     <row r="1247" spans="1:9">
       <c r="A1247">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1247" t="s">
         <v>73</v>
       </c>
       <c r="C1247" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1247">
+        <v>8.3369999999999997</v>
       </c>
       <c r="F1247" s="1" t="s">
         <v>58</v>
@@ -45847,7 +46174,7 @@
     </row>
     <row r="1248" spans="1:9">
       <c r="A1248">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1248" t="s">
         <v>73</v>
@@ -45855,6 +46182,9 @@
       <c r="C1248" t="s">
         <v>4</v>
       </c>
+      <c r="D1248">
+        <v>7.8079999999999998</v>
+      </c>
       <c r="F1248" s="1" t="s">
         <v>58</v>
       </c>
@@ -45870,13 +46200,16 @@
     </row>
     <row r="1249" spans="1:9">
       <c r="A1249">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1249" t="s">
         <v>73</v>
       </c>
       <c r="C1249" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1249">
+        <v>6.03</v>
       </c>
       <c r="F1249" s="1" t="s">
         <v>58</v>
@@ -45893,7 +46226,7 @@
     </row>
     <row r="1250" spans="1:9">
       <c r="A1250">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1250" t="s">
         <v>73</v>
@@ -45901,6 +46234,9 @@
       <c r="C1250" t="s">
         <v>5</v>
       </c>
+      <c r="D1250">
+        <v>7.0129999999999999</v>
+      </c>
       <c r="F1250" s="1" t="s">
         <v>58</v>
       </c>
@@ -45916,13 +46252,16 @@
     </row>
     <row r="1251" spans="1:9">
       <c r="A1251">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1251" t="s">
         <v>73</v>
       </c>
       <c r="C1251" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1251">
+        <v>6.5709999999999997</v>
       </c>
       <c r="F1251" s="1" t="s">
         <v>58</v>
@@ -45939,13 +46278,16 @@
     </row>
     <row r="1252" spans="1:9">
       <c r="A1252">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1252" t="s">
         <v>73</v>
       </c>
       <c r="C1252" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1252">
+        <v>3.9489999999999998</v>
       </c>
       <c r="F1252" s="1" t="s">
         <v>58</v>
@@ -45962,13 +46304,16 @@
     </row>
     <row r="1253" spans="1:9">
       <c r="A1253">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1253" t="s">
         <v>73</v>
       </c>
       <c r="C1253" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1253">
+        <v>7.7649999999999997</v>
       </c>
       <c r="F1253" s="1" t="s">
         <v>58</v>
@@ -45985,13 +46330,16 @@
     </row>
     <row r="1254" spans="1:9">
       <c r="A1254">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1254" t="s">
         <v>73</v>
       </c>
       <c r="C1254" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1254">
+        <v>6.0579999999999998</v>
       </c>
       <c r="F1254" s="1" t="s">
         <v>58</v>
@@ -46008,7 +46356,7 @@
     </row>
     <row r="1255" spans="1:9">
       <c r="A1255">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1255" t="s">
         <v>73</v>
@@ -46016,6 +46364,9 @@
       <c r="C1255" t="s">
         <v>5</v>
       </c>
+      <c r="D1255">
+        <v>8.6189999999999998</v>
+      </c>
       <c r="F1255" s="1" t="s">
         <v>58</v>
       </c>
@@ -46031,13 +46382,16 @@
     </row>
     <row r="1256" spans="1:9">
       <c r="A1256">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1256" t="s">
         <v>73</v>
       </c>
       <c r="C1256" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1256">
+        <v>5.9950000000000001</v>
       </c>
       <c r="F1256" s="1" t="s">
         <v>58</v>
@@ -46054,7 +46408,7 @@
     </row>
     <row r="1257" spans="1:9">
       <c r="A1257">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1257" t="s">
         <v>73</v>
@@ -46062,6 +46416,9 @@
       <c r="C1257" t="s">
         <v>4</v>
       </c>
+      <c r="D1257">
+        <v>9.2639999999999993</v>
+      </c>
       <c r="F1257" s="1" t="s">
         <v>58</v>
       </c>
@@ -46077,7 +46434,7 @@
     </row>
     <row r="1258" spans="1:9">
       <c r="A1258">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1258" t="s">
         <v>73</v>
@@ -46085,6 +46442,9 @@
       <c r="C1258" t="s">
         <v>4</v>
       </c>
+      <c r="D1258">
+        <v>7.4509999999999996</v>
+      </c>
       <c r="F1258" s="1" t="s">
         <v>58</v>
       </c>
@@ -46100,13 +46460,16 @@
     </row>
     <row r="1259" spans="1:9">
       <c r="A1259">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1259" t="s">
         <v>73</v>
       </c>
       <c r="C1259" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1259">
+        <v>9.3190000000000008</v>
       </c>
       <c r="F1259" s="1" t="s">
         <v>58</v>
@@ -46123,13 +46486,16 @@
     </row>
     <row r="1260" spans="1:9">
       <c r="A1260">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1260" t="s">
         <v>73</v>
       </c>
       <c r="C1260" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D1260">
+        <v>6.593</v>
       </c>
       <c r="F1260" s="1" t="s">
         <v>58</v>
@@ -46146,13 +46512,13 @@
     </row>
     <row r="1261" spans="1:9">
       <c r="A1261">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1261" t="s">
         <v>73</v>
       </c>
       <c r="C1261" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1261" s="1" t="s">
         <v>58</v>
@@ -46169,13 +46535,16 @@
     </row>
     <row r="1262" spans="1:9">
       <c r="A1262">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1262" t="s">
         <v>73</v>
       </c>
       <c r="C1262" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="D1262">
+        <v>5.9950000000000001</v>
       </c>
       <c r="F1262" s="1" t="s">
         <v>58</v>
@@ -46192,7 +46561,7 @@
     </row>
     <row r="1263" spans="1:9">
       <c r="A1263">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1263" t="s">
         <v>73</v>
@@ -46200,6 +46569,9 @@
       <c r="C1263" t="s">
         <v>4</v>
       </c>
+      <c r="D1263">
+        <v>3.1179999999999999</v>
+      </c>
       <c r="F1263" s="1" t="s">
         <v>58</v>
       </c>
@@ -46215,13 +46587,16 @@
     </row>
     <row r="1264" spans="1:9">
       <c r="A1264">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B1264" t="s">
         <v>73</v>
       </c>
       <c r="C1264" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1264">
+        <v>7.5179999999999998</v>
       </c>
       <c r="F1264" s="1" t="s">
         <v>58</v>
@@ -46238,7 +46613,7 @@
     </row>
     <row r="1265" spans="1:9">
       <c r="A1265">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1265" t="s">
         <v>73</v>
@@ -46246,6 +46621,12 @@
       <c r="C1265" t="s">
         <v>5</v>
       </c>
+      <c r="D1265">
+        <v>9.0139999999999993</v>
+      </c>
+      <c r="E1265" s="8">
+        <v>0.7270833333333333</v>
+      </c>
       <c r="F1265" s="1" t="s">
         <v>58</v>
       </c>
@@ -46256,32 +46637,6 @@
         <v>86</v>
       </c>
       <c r="I1265" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:9">
-      <c r="A1266">
-        <v>70</v>
-      </c>
-      <c r="B1266" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1266" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1266" s="8">
-        <v>0.7270833333333333</v>
-      </c>
-      <c r="F1266" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1266" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1266" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1266" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="400" windowWidth="21480" windowHeight="27920" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="400" windowWidth="21700" windowHeight="26900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10242" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10251" uniqueCount="160">
   <si>
     <t>Site</t>
   </si>
@@ -504,6 +504,12 @@
   <si>
     <t>2017-10-26</t>
   </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
 </sst>
 </file>
 
@@ -869,7 +875,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -944,6 +950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="271">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1483,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1497,7 +1504,7 @@
   <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="M112" sqref="M112"/>
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5381,7 +5388,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:14">
       <c r="A97" s="14" t="s">
         <v>4</v>
       </c>
@@ -5422,7 +5429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:14">
       <c r="A98" s="14" t="s">
         <v>12</v>
       </c>
@@ -5460,7 +5467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:14">
       <c r="A99" s="14" t="s">
         <v>12</v>
       </c>
@@ -5498,7 +5505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:14">
       <c r="A100" s="14" t="s">
         <v>12</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:14">
       <c r="A101" s="14" t="s">
         <v>4</v>
       </c>
@@ -5577,7 +5584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:14">
       <c r="A102" s="14" t="s">
         <v>4</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:14">
       <c r="A103" s="14" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5663,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:14">
       <c r="A104" s="14" t="s">
         <v>12</v>
       </c>
@@ -5694,7 +5701,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="105" spans="1:14" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="A105" s="26" t="s">
         <v>12</v>
       </c>
@@ -5735,7 +5742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:14">
       <c r="A106" s="14" t="s">
         <v>4</v>
       </c>
@@ -5769,8 +5776,11 @@
       <c r="M106" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="14" t="s">
         <v>4</v>
       </c>
@@ -5804,8 +5814,11 @@
       <c r="M107" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="14" t="s">
         <v>4</v>
       </c>
@@ -5839,8 +5852,11 @@
       <c r="M108" s="15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" s="30" customFormat="1">
+      <c r="N108" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="30" customFormat="1">
       <c r="A109" s="30" t="s">
         <v>4</v>
       </c>
@@ -5876,8 +5892,11 @@
       <c r="M109" s="31" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="14" t="s">
         <v>4</v>
       </c>
@@ -5911,8 +5930,11 @@
       <c r="M110" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" s="12" customFormat="1">
+      <c r="N110" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="12" customFormat="1">
       <c r="A111" s="12" t="s">
         <v>4</v>
       </c>
@@ -5948,8 +5970,11 @@
       <c r="M111" s="13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="14" t="s">
         <v>4</v>
       </c>
@@ -5983,8 +6008,11 @@
       <c r="M112" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="14" t="s">
         <v>4</v>
       </c>
@@ -6018,43 +6046,51 @@
       <c r="M113" s="15" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="14" t="s">
+      <c r="N113" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="12" customFormat="1">
+      <c r="A114" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="15" t="s">
+      <c r="D114" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="3">
         <v>1</v>
       </c>
-      <c r="J114" s="15" t="s">
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="K114" s="15" t="s">
+      <c r="K114" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L114" s="15" t="s">
+      <c r="L114" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M114" s="15" t="s">
+      <c r="M114" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="14" t="s">
         <v>4</v>
       </c>
@@ -6089,7 +6125,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:14">
       <c r="A116" s="14" t="s">
         <v>4</v>
       </c>
@@ -6124,7 +6160,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:14">
       <c r="A117" s="14" t="s">
         <v>4</v>
       </c>
@@ -6159,7 +6195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:14">
       <c r="A118" s="14" t="s">
         <v>4</v>
       </c>
@@ -6195,7 +6231,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:14">
       <c r="A119" s="14" t="s">
         <v>4</v>
       </c>
@@ -6230,7 +6266,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:14">
       <c r="A120" s="14" t="s">
         <v>4</v>
       </c>
@@ -6265,7 +6301,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:14">
       <c r="A121" s="14" t="s">
         <v>4</v>
       </c>
@@ -6300,7 +6336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:14">
       <c r="A122" s="14" t="s">
         <v>4</v>
       </c>
@@ -6335,7 +6371,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:14">
       <c r="A123" s="14" t="s">
         <v>4</v>
       </c>
@@ -6370,7 +6406,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:14">
       <c r="A124" s="14" t="s">
         <v>4</v>
       </c>
@@ -6405,7 +6441,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:14">
       <c r="A125" s="14" t="s">
         <v>4</v>
       </c>
@@ -6440,13 +6476,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:14">
       <c r="I127" s="4">
         <f>SUM(I2:I125)</f>
         <v>3209</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:14">
       <c r="I128" s="4">
         <f>I127*0.8</f>
         <v>2567.2000000000003</v>
@@ -6469,8 +6505,8 @@
   <dimension ref="A1:S1479"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A369" sqref="A369:XFD369"/>
+      <pane ySplit="1" topLeftCell="A799" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K828" sqref="K828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -36094,6 +36130,9 @@
       <c r="I828" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J828" s="34">
+        <v>7000</v>
+      </c>
     </row>
     <row r="829" spans="1:10">
       <c r="A829">
@@ -36120,6 +36159,9 @@
       <c r="I829" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J829" s="34">
+        <v>7000</v>
+      </c>
     </row>
     <row r="830" spans="1:10">
       <c r="A830">
@@ -36146,6 +36188,9 @@
       <c r="I830" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J830" s="34">
+        <v>7000</v>
+      </c>
     </row>
     <row r="831" spans="1:10">
       <c r="A831">
@@ -36172,6 +36217,9 @@
       <c r="I831" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J831" s="34">
+        <v>7000</v>
+      </c>
     </row>
     <row r="832" spans="1:10">
       <c r="A832">
@@ -36198,8 +36246,11 @@
       <c r="I832" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="833" spans="1:9">
+      <c r="J832" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10">
       <c r="A833">
         <v>6</v>
       </c>
@@ -36224,8 +36275,11 @@
       <c r="I833" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="834" spans="1:9">
+      <c r="J833" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10">
       <c r="A834">
         <v>7</v>
       </c>
@@ -36250,8 +36304,11 @@
       <c r="I834" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="835" spans="1:9">
+      <c r="J834" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10">
       <c r="A835">
         <v>8</v>
       </c>
@@ -36276,8 +36333,11 @@
       <c r="I835" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="836" spans="1:9">
+      <c r="J835" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10">
       <c r="A836">
         <v>9</v>
       </c>
@@ -36302,8 +36362,11 @@
       <c r="I836" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="837" spans="1:9">
+      <c r="J836" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10">
       <c r="A837">
         <v>10</v>
       </c>
@@ -36328,8 +36391,11 @@
       <c r="I837" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="838" spans="1:9">
+      <c r="J837" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10">
       <c r="A838">
         <v>11</v>
       </c>
@@ -36354,8 +36420,11 @@
       <c r="I838" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="839" spans="1:9">
+      <c r="J838" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10">
       <c r="A839">
         <v>12</v>
       </c>
@@ -36380,8 +36449,11 @@
       <c r="I839" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="840" spans="1:9">
+      <c r="J839" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10">
       <c r="A840">
         <v>13</v>
       </c>
@@ -36406,8 +36478,11 @@
       <c r="I840" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="841" spans="1:9">
+      <c r="J840" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10">
       <c r="A841">
         <v>14</v>
       </c>
@@ -36432,8 +36507,11 @@
       <c r="I841" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="842" spans="1:9">
+      <c r="J841" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10">
       <c r="A842">
         <v>15</v>
       </c>
@@ -36458,8 +36536,11 @@
       <c r="I842" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="843" spans="1:9">
+      <c r="J842" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10">
       <c r="A843">
         <v>16</v>
       </c>
@@ -36484,8 +36565,11 @@
       <c r="I843" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="844" spans="1:9">
+      <c r="J843" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10">
       <c r="A844">
         <v>17</v>
       </c>
@@ -36510,8 +36594,11 @@
       <c r="I844" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="845" spans="1:9">
+      <c r="J844" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10">
       <c r="A845">
         <v>18</v>
       </c>
@@ -36536,8 +36623,11 @@
       <c r="I845" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="846" spans="1:9">
+      <c r="J845" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10">
       <c r="A846">
         <v>19</v>
       </c>
@@ -36562,8 +36652,11 @@
       <c r="I846" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="847" spans="1:9">
+      <c r="J846" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10">
       <c r="A847">
         <v>20</v>
       </c>
@@ -36588,8 +36681,11 @@
       <c r="I847" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="848" spans="1:9">
+      <c r="J847" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10">
       <c r="A848">
         <v>21</v>
       </c>
@@ -36614,8 +36710,11 @@
       <c r="I848" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="849" spans="1:9">
+      <c r="J848" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10">
       <c r="A849">
         <v>22</v>
       </c>
@@ -36640,8 +36739,11 @@
       <c r="I849" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="850" spans="1:9">
+      <c r="J849" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10">
       <c r="A850">
         <v>23</v>
       </c>
@@ -36666,8 +36768,11 @@
       <c r="I850" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="851" spans="1:9">
+      <c r="J850" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10">
       <c r="A851">
         <v>24</v>
       </c>
@@ -36692,8 +36797,11 @@
       <c r="I851" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="852" spans="1:9">
+      <c r="J851" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10">
       <c r="A852">
         <v>25</v>
       </c>
@@ -36718,8 +36826,11 @@
       <c r="I852" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="853" spans="1:9">
+      <c r="J852" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10">
       <c r="A853">
         <v>26</v>
       </c>
@@ -36744,8 +36855,11 @@
       <c r="I853" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="854" spans="1:9">
+      <c r="J853" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10">
       <c r="A854">
         <v>27</v>
       </c>
@@ -36770,8 +36884,11 @@
       <c r="I854" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="855" spans="1:9">
+      <c r="J854" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10">
       <c r="A855">
         <v>28</v>
       </c>
@@ -36796,8 +36913,11 @@
       <c r="I855" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="856" spans="1:9">
+      <c r="J855" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10">
       <c r="A856">
         <v>29</v>
       </c>
@@ -36822,8 +36942,11 @@
       <c r="I856" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="857" spans="1:9">
+      <c r="J856" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10">
       <c r="A857">
         <v>30</v>
       </c>
@@ -36848,8 +36971,11 @@
       <c r="I857" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="858" spans="1:9">
+      <c r="J857" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10">
       <c r="A858">
         <v>31</v>
       </c>
@@ -36874,8 +37000,11 @@
       <c r="I858" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="859" spans="1:9">
+      <c r="J858" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10">
       <c r="A859">
         <v>32</v>
       </c>
@@ -36900,8 +37029,11 @@
       <c r="I859" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="860" spans="1:9">
+      <c r="J859" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10">
       <c r="A860">
         <v>33</v>
       </c>
@@ -36926,8 +37058,11 @@
       <c r="I860" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="861" spans="1:9">
+      <c r="J860" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10">
       <c r="A861">
         <v>34</v>
       </c>
@@ -36952,8 +37087,11 @@
       <c r="I861" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="862" spans="1:9">
+      <c r="J861" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10">
       <c r="A862">
         <v>35</v>
       </c>
@@ -36978,8 +37116,11 @@
       <c r="I862" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="863" spans="1:9">
+      <c r="J862" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10">
       <c r="A863">
         <v>36</v>
       </c>
@@ -37004,8 +37145,11 @@
       <c r="I863" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="864" spans="1:9">
+      <c r="J863" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10">
       <c r="A864">
         <v>37</v>
       </c>
@@ -37030,8 +37174,11 @@
       <c r="I864" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="865" spans="1:9">
+      <c r="J864" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10">
       <c r="A865">
         <v>38</v>
       </c>
@@ -37056,8 +37203,11 @@
       <c r="I865" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="866" spans="1:9">
+      <c r="J865" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10">
       <c r="A866">
         <v>39</v>
       </c>
@@ -37082,8 +37232,11 @@
       <c r="I866" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="867" spans="1:9">
+      <c r="J866" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10">
       <c r="A867">
         <v>40</v>
       </c>
@@ -37108,8 +37261,11 @@
       <c r="I867" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="868" spans="1:9">
+      <c r="J867" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10">
       <c r="A868">
         <v>41</v>
       </c>
@@ -37134,8 +37290,11 @@
       <c r="I868" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="869" spans="1:9">
+      <c r="J868" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10">
       <c r="A869">
         <v>42</v>
       </c>
@@ -37160,8 +37319,11 @@
       <c r="I869" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="870" spans="1:9">
+      <c r="J869" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10">
       <c r="A870">
         <v>43</v>
       </c>
@@ -37186,8 +37348,11 @@
       <c r="I870" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="871" spans="1:9">
+      <c r="J870" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10">
       <c r="A871">
         <v>44</v>
       </c>
@@ -37212,8 +37377,11 @@
       <c r="I871" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="872" spans="1:9">
+      <c r="J871" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10">
       <c r="A872">
         <v>45</v>
       </c>
@@ -37238,8 +37406,11 @@
       <c r="I872" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="873" spans="1:9">
+      <c r="J872" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10">
       <c r="A873">
         <v>46</v>
       </c>
@@ -37264,8 +37435,11 @@
       <c r="I873" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="874" spans="1:9">
+      <c r="J873" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10">
       <c r="A874">
         <v>47</v>
       </c>
@@ -37290,8 +37464,11 @@
       <c r="I874" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="875" spans="1:9">
+      <c r="J874" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10">
       <c r="A875">
         <v>48</v>
       </c>
@@ -37316,8 +37493,11 @@
       <c r="I875" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="876" spans="1:9">
+      <c r="J875" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10">
       <c r="A876">
         <v>49</v>
       </c>
@@ -37342,8 +37522,11 @@
       <c r="I876" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="877" spans="1:9">
+      <c r="J876" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10">
       <c r="A877">
         <v>50</v>
       </c>
@@ -37368,8 +37551,11 @@
       <c r="I877" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="878" spans="1:9">
+      <c r="J877" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10">
       <c r="A878">
         <v>51</v>
       </c>
@@ -37394,8 +37580,11 @@
       <c r="I878" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="879" spans="1:9">
+      <c r="J878" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10">
       <c r="A879">
         <v>52</v>
       </c>
@@ -37420,8 +37609,11 @@
       <c r="I879" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="880" spans="1:9">
+      <c r="J879" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10">
       <c r="A880">
         <v>53</v>
       </c>
@@ -37446,8 +37638,11 @@
       <c r="I880" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="881" spans="1:9">
+      <c r="J880" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10">
       <c r="A881">
         <v>54</v>
       </c>
@@ -37472,8 +37667,11 @@
       <c r="I881" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="882" spans="1:9">
+      <c r="J881" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10">
       <c r="A882">
         <v>55</v>
       </c>
@@ -37498,8 +37696,11 @@
       <c r="I882" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="883" spans="1:9">
+      <c r="J882" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10">
       <c r="A883">
         <v>56</v>
       </c>
@@ -37524,8 +37725,11 @@
       <c r="I883" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="884" spans="1:9">
+      <c r="J883" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10">
       <c r="A884">
         <v>57</v>
       </c>
@@ -37550,8 +37754,11 @@
       <c r="I884" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="885" spans="1:9">
+      <c r="J884" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10">
       <c r="A885">
         <v>58</v>
       </c>
@@ -37576,8 +37783,11 @@
       <c r="I885" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="886" spans="1:9">
+      <c r="J885" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10">
       <c r="A886">
         <v>59</v>
       </c>
@@ -37602,8 +37812,11 @@
       <c r="I886" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="887" spans="1:9">
+      <c r="J886" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="887" spans="1:10">
       <c r="A887">
         <v>60</v>
       </c>
@@ -37628,8 +37841,11 @@
       <c r="I887" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="888" spans="1:9">
+      <c r="J887" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10">
       <c r="A888">
         <v>61</v>
       </c>
@@ -37654,8 +37870,11 @@
       <c r="I888" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="889" spans="1:9">
+      <c r="J888" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10">
       <c r="A889">
         <v>62</v>
       </c>
@@ -37680,8 +37899,11 @@
       <c r="I889" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="890" spans="1:9">
+      <c r="J889" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10">
       <c r="A890">
         <v>63</v>
       </c>
@@ -37706,8 +37928,11 @@
       <c r="I890" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="891" spans="1:9">
+      <c r="J890" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10">
       <c r="A891">
         <v>64</v>
       </c>
@@ -37732,8 +37957,11 @@
       <c r="I891" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="892" spans="1:9">
+      <c r="J891" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10">
       <c r="A892">
         <v>65</v>
       </c>
@@ -37758,8 +37986,11 @@
       <c r="I892" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="893" spans="1:9">
+      <c r="J892" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10">
       <c r="A893">
         <v>66</v>
       </c>
@@ -37784,8 +38015,11 @@
       <c r="I893" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="894" spans="1:9">
+      <c r="J893" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10">
       <c r="A894">
         <v>67</v>
       </c>
@@ -37810,8 +38044,11 @@
       <c r="I894" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="895" spans="1:9">
+      <c r="J894" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10">
       <c r="A895">
         <v>68</v>
       </c>
@@ -37836,8 +38073,11 @@
       <c r="I895" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="896" spans="1:9">
+      <c r="J895" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10">
       <c r="A896">
         <v>69</v>
       </c>
@@ -37862,8 +38102,11 @@
       <c r="I896" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="897" spans="1:9">
+      <c r="J896" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10">
       <c r="A897">
         <v>70</v>
       </c>
@@ -37888,8 +38131,11 @@
       <c r="I897" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="898" spans="1:9">
+      <c r="J897" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10">
       <c r="A898">
         <v>71</v>
       </c>
@@ -37914,8 +38160,11 @@
       <c r="I898" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="899" spans="1:9">
+      <c r="J898" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10">
       <c r="A899">
         <v>72</v>
       </c>
@@ -37940,8 +38189,11 @@
       <c r="I899" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="900" spans="1:9">
+      <c r="J899" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10">
       <c r="A900">
         <v>73</v>
       </c>
@@ -37966,8 +38218,11 @@
       <c r="I900" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="901" spans="1:9">
+      <c r="J900" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10">
       <c r="A901">
         <v>74</v>
       </c>
@@ -37992,8 +38247,11 @@
       <c r="I901" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="902" spans="1:9">
+      <c r="J901" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10">
       <c r="A902">
         <v>75</v>
       </c>
@@ -38018,8 +38276,11 @@
       <c r="I902" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="903" spans="1:9">
+      <c r="J902" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10">
       <c r="A903">
         <v>76</v>
       </c>
@@ -38041,8 +38302,11 @@
       <c r="I903" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="904" spans="1:9">
+      <c r="J903" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10">
       <c r="A904">
         <v>77</v>
       </c>
@@ -38067,8 +38331,11 @@
       <c r="I904" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="905" spans="1:9">
+      <c r="J904" s="34">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10">
       <c r="A905">
         <v>1</v>
       </c>
@@ -38096,8 +38363,11 @@
       <c r="I905" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="906" spans="1:9">
+      <c r="J905" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10">
       <c r="A906">
         <v>2</v>
       </c>
@@ -38122,8 +38392,11 @@
       <c r="I906" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="907" spans="1:9">
+      <c r="J906" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="907" spans="1:10">
       <c r="A907">
         <v>3</v>
       </c>
@@ -38148,8 +38421,11 @@
       <c r="I907" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="908" spans="1:9">
+      <c r="J907" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10">
       <c r="A908">
         <v>4</v>
       </c>
@@ -38174,8 +38450,11 @@
       <c r="I908" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="909" spans="1:9">
+      <c r="J908" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="909" spans="1:10">
       <c r="A909">
         <v>5</v>
       </c>
@@ -38200,8 +38479,11 @@
       <c r="I909" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="910" spans="1:9">
+      <c r="J909" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10">
       <c r="A910">
         <v>6</v>
       </c>
@@ -38226,8 +38508,11 @@
       <c r="I910" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="911" spans="1:9">
+      <c r="J910" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10">
       <c r="A911">
         <v>7</v>
       </c>
@@ -38252,8 +38537,11 @@
       <c r="I911" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="912" spans="1:9">
+      <c r="J911" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="912" spans="1:10">
       <c r="A912">
         <v>8</v>
       </c>
@@ -38278,8 +38566,11 @@
       <c r="I912" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="913" spans="1:9">
+      <c r="J912" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="913" spans="1:10">
       <c r="A913">
         <v>9</v>
       </c>
@@ -38304,8 +38595,11 @@
       <c r="I913" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="914" spans="1:9">
+      <c r="J913" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="914" spans="1:10">
       <c r="A914">
         <v>10</v>
       </c>
@@ -38330,8 +38624,11 @@
       <c r="I914" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="915" spans="1:9">
+      <c r="J914" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="915" spans="1:10">
       <c r="A915">
         <v>11</v>
       </c>
@@ -38356,8 +38653,11 @@
       <c r="I915" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="916" spans="1:9">
+      <c r="J915" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="916" spans="1:10">
       <c r="A916">
         <v>12</v>
       </c>
@@ -38382,8 +38682,11 @@
       <c r="I916" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="917" spans="1:9">
+      <c r="J916" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="917" spans="1:10">
       <c r="A917">
         <v>13</v>
       </c>
@@ -38408,8 +38711,11 @@
       <c r="I917" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="918" spans="1:9">
+      <c r="J917" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="918" spans="1:10">
       <c r="A918">
         <v>14</v>
       </c>
@@ -38434,8 +38740,11 @@
       <c r="I918" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="919" spans="1:9">
+      <c r="J918" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="919" spans="1:10">
       <c r="A919">
         <v>15</v>
       </c>
@@ -38460,8 +38769,11 @@
       <c r="I919" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="920" spans="1:9">
+      <c r="J919" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="920" spans="1:10">
       <c r="A920">
         <v>16</v>
       </c>
@@ -38486,8 +38798,11 @@
       <c r="I920" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="921" spans="1:9">
+      <c r="J920" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="921" spans="1:10">
       <c r="A921">
         <v>17</v>
       </c>
@@ -38512,8 +38827,11 @@
       <c r="I921" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="922" spans="1:9">
+      <c r="J921" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="922" spans="1:10">
       <c r="A922">
         <v>18</v>
       </c>
@@ -38538,8 +38856,11 @@
       <c r="I922" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="923" spans="1:9">
+      <c r="J922" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="923" spans="1:10">
       <c r="A923">
         <v>19</v>
       </c>
@@ -38564,8 +38885,11 @@
       <c r="I923" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="924" spans="1:9">
+      <c r="J923" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="924" spans="1:10">
       <c r="A924">
         <v>20</v>
       </c>
@@ -38590,8 +38914,11 @@
       <c r="I924" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="925" spans="1:9">
+      <c r="J924" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="925" spans="1:10">
       <c r="A925">
         <v>21</v>
       </c>
@@ -38616,8 +38943,11 @@
       <c r="I925" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="926" spans="1:9">
+      <c r="J925" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="926" spans="1:10">
       <c r="A926">
         <v>22</v>
       </c>
@@ -38642,8 +38972,11 @@
       <c r="I926" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="927" spans="1:9">
+      <c r="J926" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="927" spans="1:10">
       <c r="A927">
         <v>23</v>
       </c>
@@ -38668,8 +39001,11 @@
       <c r="I927" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="928" spans="1:9">
+      <c r="J927" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="928" spans="1:10">
       <c r="A928">
         <v>24</v>
       </c>
@@ -38694,8 +39030,11 @@
       <c r="I928" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="929" spans="1:9">
+      <c r="J928" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10">
       <c r="A929">
         <v>25</v>
       </c>
@@ -38720,8 +39059,11 @@
       <c r="I929" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="930" spans="1:9">
+      <c r="J929" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="930" spans="1:10">
       <c r="A930">
         <v>26</v>
       </c>
@@ -38746,8 +39088,11 @@
       <c r="I930" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="931" spans="1:9">
+      <c r="J930" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10">
       <c r="A931">
         <v>27</v>
       </c>
@@ -38772,8 +39117,11 @@
       <c r="I931" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="932" spans="1:9">
+      <c r="J931" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10">
       <c r="A932">
         <v>28</v>
       </c>
@@ -38798,8 +39146,11 @@
       <c r="I932" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="933" spans="1:9">
+      <c r="J932" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10">
       <c r="A933">
         <v>29</v>
       </c>
@@ -38824,8 +39175,11 @@
       <c r="I933" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="934" spans="1:9">
+      <c r="J933" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="934" spans="1:10">
       <c r="A934">
         <v>30</v>
       </c>
@@ -38850,8 +39204,11 @@
       <c r="I934" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="935" spans="1:9">
+      <c r="J934" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10">
       <c r="A935">
         <v>31</v>
       </c>
@@ -38876,8 +39233,11 @@
       <c r="I935" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="936" spans="1:9">
+      <c r="J935" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10">
       <c r="A936">
         <v>32</v>
       </c>
@@ -38902,8 +39262,11 @@
       <c r="I936" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="937" spans="1:9">
+      <c r="J936" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10">
       <c r="A937">
         <v>33</v>
       </c>
@@ -38928,8 +39291,11 @@
       <c r="I937" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="938" spans="1:9">
+      <c r="J937" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10">
       <c r="A938">
         <v>34</v>
       </c>
@@ -38954,8 +39320,11 @@
       <c r="I938" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="939" spans="1:9">
+      <c r="J938" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10">
       <c r="A939">
         <v>35</v>
       </c>
@@ -38980,8 +39349,11 @@
       <c r="I939" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="940" spans="1:9">
+      <c r="J939" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10">
       <c r="A940">
         <v>36</v>
       </c>
@@ -39006,8 +39378,11 @@
       <c r="I940" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="941" spans="1:9">
+      <c r="J940" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="941" spans="1:10">
       <c r="A941">
         <v>37</v>
       </c>
@@ -39032,8 +39407,11 @@
       <c r="I941" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="942" spans="1:9">
+      <c r="J941" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="942" spans="1:10">
       <c r="A942">
         <v>38</v>
       </c>
@@ -39058,8 +39436,11 @@
       <c r="I942" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="943" spans="1:9">
+      <c r="J942" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10">
       <c r="A943">
         <v>39</v>
       </c>
@@ -39084,8 +39465,11 @@
       <c r="I943" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="944" spans="1:9">
+      <c r="J943" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10">
       <c r="A944">
         <v>40</v>
       </c>
@@ -39110,8 +39494,11 @@
       <c r="I944" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="945" spans="1:9">
+      <c r="J944" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="945" spans="1:10">
       <c r="A945">
         <v>41</v>
       </c>
@@ -39136,8 +39523,11 @@
       <c r="I945" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="946" spans="1:9">
+      <c r="J945" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="946" spans="1:10">
       <c r="A946">
         <v>42</v>
       </c>
@@ -39162,8 +39552,11 @@
       <c r="I946" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="947" spans="1:9">
+      <c r="J946" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="947" spans="1:10">
       <c r="A947">
         <v>43</v>
       </c>
@@ -39188,8 +39581,11 @@
       <c r="I947" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="948" spans="1:9">
+      <c r="J947" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="948" spans="1:10">
       <c r="A948">
         <v>44</v>
       </c>
@@ -39214,8 +39610,11 @@
       <c r="I948" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="949" spans="1:9">
+      <c r="J948" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="949" spans="1:10">
       <c r="A949">
         <v>45</v>
       </c>
@@ -39240,8 +39639,11 @@
       <c r="I949" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="950" spans="1:9">
+      <c r="J949" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="950" spans="1:10">
       <c r="A950">
         <v>46</v>
       </c>
@@ -39266,8 +39668,11 @@
       <c r="I950" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="951" spans="1:9">
+      <c r="J950" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10">
       <c r="A951">
         <v>47</v>
       </c>
@@ -39292,8 +39697,11 @@
       <c r="I951" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="952" spans="1:9">
+      <c r="J951" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="952" spans="1:10">
       <c r="A952">
         <v>48</v>
       </c>
@@ -39318,8 +39726,11 @@
       <c r="I952" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="953" spans="1:9">
+      <c r="J952" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="953" spans="1:10">
       <c r="A953">
         <v>49</v>
       </c>
@@ -39344,8 +39755,11 @@
       <c r="I953" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="954" spans="1:9">
+      <c r="J953" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="954" spans="1:10">
       <c r="A954">
         <v>50</v>
       </c>
@@ -39370,8 +39784,11 @@
       <c r="I954" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="955" spans="1:9">
+      <c r="J954" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="955" spans="1:10">
       <c r="A955">
         <v>51</v>
       </c>
@@ -39396,8 +39813,11 @@
       <c r="I955" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="956" spans="1:9">
+      <c r="J955" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10">
       <c r="A956">
         <v>52</v>
       </c>
@@ -39422,8 +39842,11 @@
       <c r="I956" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="957" spans="1:9">
+      <c r="J956" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="957" spans="1:10">
       <c r="A957">
         <v>53</v>
       </c>
@@ -39448,8 +39871,11 @@
       <c r="I957" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="958" spans="1:9">
+      <c r="J957" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10">
       <c r="A958">
         <v>54</v>
       </c>
@@ -39474,8 +39900,11 @@
       <c r="I958" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="959" spans="1:9">
+      <c r="J958" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10">
       <c r="A959">
         <v>55</v>
       </c>
@@ -39500,8 +39929,11 @@
       <c r="I959" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="960" spans="1:9">
+      <c r="J959" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10">
       <c r="A960">
         <v>56</v>
       </c>
@@ -39526,8 +39958,11 @@
       <c r="I960" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="961" spans="1:9">
+      <c r="J960" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10">
       <c r="A961">
         <v>57</v>
       </c>
@@ -39552,8 +39987,11 @@
       <c r="I961" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="962" spans="1:9">
+      <c r="J961" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10">
       <c r="A962">
         <v>58</v>
       </c>
@@ -39578,8 +40016,11 @@
       <c r="I962" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="963" spans="1:9">
+      <c r="J962" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10">
       <c r="A963">
         <v>59</v>
       </c>
@@ -39604,8 +40045,11 @@
       <c r="I963" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="964" spans="1:9">
+      <c r="J963" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10">
       <c r="A964">
         <v>60</v>
       </c>
@@ -39630,8 +40074,11 @@
       <c r="I964" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="965" spans="1:9">
+      <c r="J964" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10">
       <c r="A965">
         <v>61</v>
       </c>
@@ -39656,8 +40103,11 @@
       <c r="I965" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="966" spans="1:9">
+      <c r="J965" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10">
       <c r="A966">
         <v>62</v>
       </c>
@@ -39682,8 +40132,11 @@
       <c r="I966" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="967" spans="1:9">
+      <c r="J966" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10">
       <c r="A967">
         <v>63</v>
       </c>
@@ -39708,8 +40161,11 @@
       <c r="I967" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="968" spans="1:9">
+      <c r="J967" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10">
       <c r="A968">
         <v>64</v>
       </c>
@@ -39734,8 +40190,11 @@
       <c r="I968" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="969" spans="1:9">
+      <c r="J968" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10">
       <c r="A969">
         <v>65</v>
       </c>
@@ -39760,8 +40219,11 @@
       <c r="I969" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="970" spans="1:9">
+      <c r="J969" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10">
       <c r="A970">
         <v>66</v>
       </c>
@@ -39786,8 +40248,11 @@
       <c r="I970" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="971" spans="1:9">
+      <c r="J970" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10">
       <c r="A971">
         <v>67</v>
       </c>
@@ -39812,8 +40277,11 @@
       <c r="I971" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="972" spans="1:9">
+      <c r="J971" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10">
       <c r="A972">
         <v>68</v>
       </c>
@@ -39838,8 +40306,11 @@
       <c r="I972" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="973" spans="1:9">
+      <c r="J972" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10">
       <c r="A973">
         <v>69</v>
       </c>
@@ -39864,8 +40335,11 @@
       <c r="I973" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="974" spans="1:9">
+      <c r="J973" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
       <c r="A974">
         <v>70</v>
       </c>
@@ -39890,8 +40364,11 @@
       <c r="I974" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="975" spans="1:9">
+      <c r="J974" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10">
       <c r="A975">
         <v>71</v>
       </c>
@@ -39916,8 +40393,11 @@
       <c r="I975" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="976" spans="1:9">
+      <c r="J975" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10">
       <c r="A976">
         <v>72</v>
       </c>
@@ -39942,8 +40422,11 @@
       <c r="I976" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="977" spans="1:9">
+      <c r="J976" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="977" spans="1:10">
       <c r="A977">
         <v>73</v>
       </c>
@@ -39968,8 +40451,11 @@
       <c r="I977" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="978" spans="1:9">
+      <c r="J977" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="978" spans="1:10">
       <c r="A978">
         <v>74</v>
       </c>
@@ -39994,8 +40480,11 @@
       <c r="I978" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="979" spans="1:9">
+      <c r="J978" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="979" spans="1:10">
       <c r="A979">
         <v>75</v>
       </c>
@@ -40020,8 +40509,11 @@
       <c r="I979" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="980" spans="1:9">
+      <c r="J979" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="980" spans="1:10">
       <c r="A980">
         <v>76</v>
       </c>
@@ -40043,8 +40535,11 @@
       <c r="I980" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="981" spans="1:9">
+      <c r="J980" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="981" spans="1:10">
       <c r="A981">
         <v>77</v>
       </c>
@@ -40069,8 +40564,11 @@
       <c r="I981" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="982" spans="1:9">
+      <c r="J981" s="34">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="982" spans="1:10">
       <c r="A982">
         <v>1</v>
       </c>
@@ -40099,7 +40597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:10">
       <c r="A983">
         <v>2</v>
       </c>
@@ -40125,7 +40623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="984" spans="1:9">
+    <row r="984" spans="1:10">
       <c r="A984">
         <v>3</v>
       </c>
@@ -40151,7 +40649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="985" spans="1:9">
+    <row r="985" spans="1:10">
       <c r="A985">
         <v>4</v>
       </c>
@@ -40177,7 +40675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="986" spans="1:9">
+    <row r="986" spans="1:10">
       <c r="A986">
         <v>5</v>
       </c>
@@ -40203,7 +40701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="987" spans="1:9">
+    <row r="987" spans="1:10">
       <c r="A987">
         <v>6</v>
       </c>
@@ -40229,7 +40727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="988" spans="1:9">
+    <row r="988" spans="1:10">
       <c r="A988">
         <v>7</v>
       </c>
@@ -40255,7 +40753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="989" spans="1:9">
+    <row r="989" spans="1:10">
       <c r="A989">
         <v>8</v>
       </c>
@@ -40281,7 +40779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="990" spans="1:9">
+    <row r="990" spans="1:10">
       <c r="A990">
         <v>9</v>
       </c>
@@ -40307,7 +40805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="991" spans="1:9">
+    <row r="991" spans="1:10">
       <c r="A991">
         <v>10</v>
       </c>
@@ -40333,7 +40831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="992" spans="1:9">
+    <row r="992" spans="1:10">
       <c r="A992">
         <v>11</v>
       </c>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="400" windowWidth="21700" windowHeight="26900" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="400" windowWidth="21700" windowHeight="26900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10251" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10492" uniqueCount="161">
   <si>
     <t>Site</t>
   </si>
@@ -510,6 +510,9 @@
   <si>
     <t>do</t>
   </si>
+  <si>
+    <t>AN PE</t>
+  </si>
 </sst>
 </file>
 
@@ -602,8 +605,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,7 +961,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="277">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1088,6 +1097,9 @@
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1223,6 +1235,9 @@
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1490,7 +1505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1501,10 +1516,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView showRuler="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5764,6 +5779,12 @@
       <c r="G106" s="4">
         <v>1</v>
       </c>
+      <c r="H106" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I106" s="4">
+        <v>98</v>
+      </c>
       <c r="J106" s="15" t="s">
         <v>133</v>
       </c>
@@ -5794,25 +5815,31 @@
         <v>84</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G107" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I107" s="4">
+        <v>24</v>
       </c>
       <c r="J107" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K107" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="K107" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="L107" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M107" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="M107" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="N107" s="14" t="s">
         <v>159</v>
@@ -5832,184 +5859,184 @@
         <v>84</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G108" s="4">
         <v>1</v>
       </c>
       <c r="J108" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="K108" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="L108" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M108" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="M108" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="N108" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="30" customFormat="1">
-      <c r="A109" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="30" t="s">
+    <row r="109" spans="1:14">
+      <c r="A109" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E109" s="32" t="s">
+      <c r="E109" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" s="4">
+        <v>1</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N109" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="30" customFormat="1">
+      <c r="A110" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F109" s="31" t="s">
+      <c r="F110" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G109" s="33">
+      <c r="G110" s="33">
         <v>1</v>
       </c>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="31" t="s">
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="K109" s="31" t="s">
+      <c r="K110" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="L109" s="31" t="s">
+      <c r="L110" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="M109" s="31" t="s">
+      <c r="M110" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="N109" s="30" t="s">
+      <c r="N110" s="30" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="14" t="s">
+    <row r="111" spans="1:14">
+      <c r="A111" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D111" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F111" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G110" s="4">
+      <c r="G111" s="4">
         <v>1</v>
       </c>
-      <c r="J110" s="15" t="s">
+      <c r="J111" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K110" s="15" t="s">
+      <c r="K111" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="L110" s="15" t="s">
+      <c r="L111" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="M110" s="15" t="s">
+      <c r="M111" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="N110" s="14" t="s">
+      <c r="N111" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="12" customFormat="1">
-      <c r="A111" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="12" t="s">
+    <row r="112" spans="1:14" s="12" customFormat="1">
+      <c r="A112" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D112" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="F112" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G112" s="3">
         <v>1</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="13" t="s">
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="K111" s="13" t="s">
+      <c r="K112" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="L111" s="13" t="s">
+      <c r="L112" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M111" s="13" t="s">
+      <c r="M112" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N111" s="12" t="s">
+      <c r="N112" s="12" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G112" s="4">
-        <v>1</v>
-      </c>
-      <c r="J112" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K112" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L112" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="M112" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="N112" s="14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6026,103 +6053,106 @@
         <v>84</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G113" s="4">
         <v>1</v>
       </c>
       <c r="J113" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K113" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K113" s="15" t="s">
+      <c r="L113" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M113" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="N113" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
+      <c r="J114" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="L113" s="15" t="s">
+      <c r="L114" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="M113" s="15" t="s">
+      <c r="M114" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="N113" s="14" t="s">
+      <c r="N114" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="12" customFormat="1">
-      <c r="A114" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="12" t="s">
+    <row r="115" spans="1:14" s="12" customFormat="1">
+      <c r="A115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C115" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F115" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G115" s="3">
         <v>1</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="13" t="s">
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="K114" s="13" t="s">
+      <c r="K115" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L114" s="13" t="s">
+      <c r="L115" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M114" s="13" t="s">
+      <c r="M115" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="N114" s="12" t="s">
+      <c r="N115" s="12" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1</v>
-      </c>
-      <c r="J115" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K115" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L115" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M115" s="15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6139,25 +6169,25 @@
         <v>84</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G116" s="4">
         <v>1</v>
       </c>
       <c r="J116" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K116" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K116" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="L116" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M116" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="M116" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6174,25 +6204,25 @@
         <v>84</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G117" s="4">
         <v>1</v>
       </c>
       <c r="J117" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K117" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="L117" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M117" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="M117" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6209,26 +6239,25 @@
         <v>84</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G118" s="4">
         <v>1</v>
       </c>
-      <c r="I118" s="7"/>
       <c r="J118" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K118" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="L118" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M118" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="M118" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6245,25 +6274,26 @@
         <v>84</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G119" s="4">
         <v>1</v>
       </c>
+      <c r="I119" s="7"/>
       <c r="J119" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K119" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="K119" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="L119" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M119" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="M119" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6280,25 +6310,25 @@
         <v>84</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G120" s="4">
         <v>1</v>
       </c>
       <c r="J120" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K120" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="K120" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="L120" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M120" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="M120" s="15" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6315,25 +6345,25 @@
         <v>84</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G121" s="4">
         <v>1</v>
       </c>
       <c r="J121" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="K121" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="L121" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M121" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="M121" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6350,25 +6380,25 @@
         <v>84</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G122" s="4">
         <v>1</v>
       </c>
       <c r="J122" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="K122" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="L122" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M122" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="M122" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6385,25 +6415,25 @@
         <v>84</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G123" s="4">
         <v>1</v>
       </c>
       <c r="J123" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K123" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="K123" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="L123" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M123" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="M123" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6420,25 +6450,25 @@
         <v>84</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G124" s="4">
         <v>1</v>
       </c>
       <c r="J124" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="K124" s="15" t="s">
-        <v>152</v>
-      </c>
       <c r="L124" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M124" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="M124" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6455,37 +6485,72 @@
         <v>84</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G125" s="4">
         <v>1</v>
       </c>
       <c r="J125" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K125" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="K125" s="15" t="s">
+      <c r="L125" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M125" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1</v>
+      </c>
+      <c r="J126" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K126" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L125" s="15" t="s">
+      <c r="L126" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="M125" s="15" t="s">
+      <c r="M126" s="15" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="I127" s="4">
-        <f>SUM(I2:I125)</f>
-        <v>3209</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="I128" s="4">
-        <f>I127*0.8</f>
-        <v>2567.2000000000003</v>
+        <f>SUM(I2:I126)</f>
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9">
+      <c r="I129" s="4">
+        <f>I128*0.8</f>
+        <v>2664.8</v>
       </c>
     </row>
   </sheetData>
@@ -6502,11 +6567,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1479"/>
+  <dimension ref="A1:S1517"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A799" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K828" sqref="K828"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1516" sqref="D1516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -53516,6 +53581,994 @@
         <v>93</v>
       </c>
       <c r="I1479" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:9">
+      <c r="A1480">
+        <v>1</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1480">
+        <v>2.93</v>
+      </c>
+      <c r="E1480" s="8">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="F1480" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1480" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1480" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1480" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:9">
+      <c r="A1481">
+        <v>2</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1481">
+        <v>6.0590000000000002</v>
+      </c>
+      <c r="F1481" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1481" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1481" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1481" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:9">
+      <c r="A1482">
+        <v>3</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1482">
+        <v>5.593</v>
+      </c>
+      <c r="F1482" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1482" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1482" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1482" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:9">
+      <c r="A1483">
+        <v>4</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1483">
+        <v>4.95</v>
+      </c>
+      <c r="F1483" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1483" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1483" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1483" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:9">
+      <c r="A1484">
+        <v>5</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1484">
+        <v>5.8959999999999999</v>
+      </c>
+      <c r="F1484" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1484" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1484" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1484" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:9">
+      <c r="A1485">
+        <v>6</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1485">
+        <v>6.4450000000000003</v>
+      </c>
+      <c r="F1485" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1485" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1485" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1485" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:9">
+      <c r="A1486">
+        <v>7</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1486">
+        <v>6.0190000000000001</v>
+      </c>
+      <c r="F1486" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1486" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1486" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1486" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:9">
+      <c r="A1487">
+        <v>8</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1487">
+        <v>8.68</v>
+      </c>
+      <c r="F1487" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1487" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1487" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1487" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:9">
+      <c r="A1488">
+        <v>9</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1488">
+        <v>7.3140000000000001</v>
+      </c>
+      <c r="F1488" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1488" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1488" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1488" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9">
+      <c r="A1489">
+        <v>10</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1489">
+        <v>7.74</v>
+      </c>
+      <c r="F1489" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1489" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1489" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1489" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:9">
+      <c r="A1490">
+        <v>11</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1490">
+        <v>8.782</v>
+      </c>
+      <c r="F1490" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1490" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1490" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1490" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:9">
+      <c r="A1491">
+        <v>12</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1491">
+        <v>6.7069999999999999</v>
+      </c>
+      <c r="F1491" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1491" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1491" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1491" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:9">
+      <c r="A1492">
+        <v>13</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1492">
+        <v>4.7539999999999996</v>
+      </c>
+      <c r="F1492" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1492" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1492" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1492" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:9">
+      <c r="A1493">
+        <v>14</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1493">
+        <v>8.11</v>
+      </c>
+      <c r="F1493" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1493" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1493" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1493" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:9">
+      <c r="A1494">
+        <v>15</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1494">
+        <v>7.03</v>
+      </c>
+      <c r="F1494" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1494" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1494" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1494" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:9">
+      <c r="A1495">
+        <v>16</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1495">
+        <v>7.8979999999999997</v>
+      </c>
+      <c r="F1495" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1495" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1495" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1495" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:9">
+      <c r="A1496">
+        <v>17</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1496">
+        <v>5.84</v>
+      </c>
+      <c r="F1496" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1496" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1496" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1496" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:9">
+      <c r="A1497">
+        <v>18</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1497" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1497" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1497" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1497" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:9">
+      <c r="A1498">
+        <v>19</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1498" s="8">
+        <v>0.57916666666666672</v>
+      </c>
+      <c r="F1498" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1498" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1498" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1498" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:9">
+      <c r="A1499">
+        <v>1</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1499">
+        <v>7.7919999999999998</v>
+      </c>
+      <c r="E1499" s="8">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="F1499" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1499" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1499" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1499" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:9">
+      <c r="A1500">
+        <v>2</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1500">
+        <v>7.8789999999999996</v>
+      </c>
+      <c r="F1500" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1500" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1500" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1500" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:9">
+      <c r="A1501">
+        <v>3</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1501">
+        <v>5.0970000000000004</v>
+      </c>
+      <c r="F1501" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1501" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1501" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:9">
+      <c r="A1502">
+        <v>4</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1502">
+        <v>9.3740000000000006</v>
+      </c>
+      <c r="F1502" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1502" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1502" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1502" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:9">
+      <c r="A1503">
+        <v>5</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1503">
+        <v>6.6920000000000002</v>
+      </c>
+      <c r="F1503" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1503" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1503" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1503" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:9">
+      <c r="A1504">
+        <v>6</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1504">
+        <v>8.8610000000000007</v>
+      </c>
+      <c r="F1504" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1504" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1504" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1504" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:9">
+      <c r="A1505">
+        <v>7</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1505">
+        <v>7.9039999999999999</v>
+      </c>
+      <c r="F1505" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1505" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1505" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1505" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:9">
+      <c r="A1506">
+        <v>8</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1506">
+        <v>9.5020000000000007</v>
+      </c>
+      <c r="F1506" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1506" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1506" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1506" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:9">
+      <c r="A1507">
+        <v>9</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1507">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="F1507" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1507" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1507" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1507" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:9">
+      <c r="A1508">
+        <v>10</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1508">
+        <v>7.07</v>
+      </c>
+      <c r="F1508" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1508" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1508" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1508" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:9">
+      <c r="A1509">
+        <v>11</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1509">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="F1509" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1509" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1509" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1509" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:9">
+      <c r="A1510">
+        <v>12</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1510">
+        <v>8.2949999999999999</v>
+      </c>
+      <c r="F1510" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1510" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1510" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1510" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:9">
+      <c r="A1511">
+        <v>13</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1511">
+        <v>10.631</v>
+      </c>
+      <c r="F1511" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1511" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1511" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1511" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:9">
+      <c r="A1512">
+        <v>14</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1512">
+        <v>7.5449999999999999</v>
+      </c>
+      <c r="F1512" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1512" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1512" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1512" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:9">
+      <c r="A1513">
+        <v>15</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1513">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="F1513" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1513" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1513" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1513" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:9">
+      <c r="A1514">
+        <v>16</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1514">
+        <v>5.28</v>
+      </c>
+      <c r="F1514" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1514" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1514" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1514" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9">
+      <c r="A1515">
+        <v>17</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1515">
+        <v>6.4160000000000004</v>
+      </c>
+      <c r="F1515" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1515" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1515" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1515" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:9">
+      <c r="A1516">
+        <v>18</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1516" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1516" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1516" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1516" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:9">
+      <c r="A1517">
+        <v>19</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1517" s="8">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="F1517" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1517" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1517" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1517" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -605,8 +605,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="277">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -961,7 +963,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="277">
+  <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1100,6 +1102,7 @@
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1238,6 +1241,7 @@
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1505,7 +1509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6570,8 +6574,8 @@
   <dimension ref="A1:S1517"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1516" sqref="D1516"/>
+      <pane ySplit="1" topLeftCell="A1466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1480" sqref="A1480:I1517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="31320" windowHeight="27900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1240" yWindow="0" windowWidth="31320" windowHeight="27900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10433" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10435" uniqueCount="162">
   <si>
     <t>Site</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>AN PE</t>
+  </si>
+  <si>
+    <t>AN CH</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1703,8 +1706,8 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD118"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6052,6 +6055,12 @@
       <c r="G108" s="4">
         <v>1</v>
       </c>
+      <c r="H108" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I108" s="4">
+        <v>68</v>
+      </c>
       <c r="J108" s="15" t="s">
         <v>134</v>
       </c>
@@ -6089,6 +6098,12 @@
       </c>
       <c r="G109" s="4">
         <v>1</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="4">
+        <v>55</v>
       </c>
       <c r="J109" s="15" t="s">
         <v>135</v>
@@ -6741,13 +6756,13 @@
     <row r="128" spans="1:14">
       <c r="I128" s="4">
         <f>SUM(I2:I126)</f>
-        <v>3331</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" s="4">
         <f>I128*0.8</f>
-        <v>2664.8</v>
+        <v>2763.2000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6766,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1452" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T1510" sqref="T1510"/>
     </sheetView>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="31320" windowHeight="27900" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="31320" windowHeight="27900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -1693,7 +1693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1706,8 +1706,8 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView showRuler="0" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="N117" sqref="A106:N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6781,9 +6781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1505"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1510" sqref="T1510"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1464" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1507" sqref="L1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="31320" windowHeight="27900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10435" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10435" uniqueCount="161">
   <si>
     <t>Site</t>
   </si>
@@ -412,9 +412,6 @@
     <t>dead, removed, resp not done</t>
   </si>
   <si>
-    <t>milford</t>
-  </si>
-  <si>
     <t>haw</t>
   </si>
   <si>
@@ -527,7 +524,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -594,6 +590,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -974,7 +979,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1052,6 +1057,18 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="373">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1693,7 +1710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5968,25 +5985,25 @@
         <v>1</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I106" s="4">
         <v>98</v>
       </c>
       <c r="J106" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="K106" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="L106" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M106" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="M106" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="N106" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6012,25 +6029,25 @@
         <v>2</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I107" s="4">
         <v>24</v>
       </c>
       <c r="J107" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K107" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="K107" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="L107" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M107" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="M107" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="N107" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6056,25 +6073,25 @@
         <v>1</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I108" s="4">
         <v>68</v>
       </c>
       <c r="J108" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="K108" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="L108" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M108" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M108" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="N108" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6106,19 +6123,19 @@
         <v>55</v>
       </c>
       <c r="J109" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K109" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="K109" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="L109" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M109" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="M109" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="N109" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:14" s="27" customFormat="1">
@@ -6146,19 +6163,19 @@
       <c r="H110" s="30"/>
       <c r="I110" s="30"/>
       <c r="J110" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K110" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="K110" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="L110" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M110" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="M110" s="28" t="s">
-        <v>141</v>
-      </c>
       <c r="N110" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6184,19 +6201,19 @@
         <v>1</v>
       </c>
       <c r="J111" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K111" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="L111" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M111" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="M111" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="N111" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="27" customFormat="1">
@@ -6224,19 +6241,19 @@
       <c r="H112" s="30"/>
       <c r="I112" s="30"/>
       <c r="J112" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K112" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="K112" s="28" t="s">
-        <v>139</v>
-      </c>
       <c r="L112" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M112" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="M112" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="N112" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="27" customFormat="1">
@@ -6264,19 +6281,19 @@
       <c r="H113" s="30"/>
       <c r="I113" s="30"/>
       <c r="J113" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K113" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="K113" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="L113" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M113" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="M113" s="28" t="s">
-        <v>144</v>
-      </c>
       <c r="N113" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:14" s="27" customFormat="1">
@@ -6296,7 +6313,7 @@
         <v>54</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G114" s="30">
         <v>1</v>
@@ -6304,19 +6321,19 @@
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
       <c r="J114" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K114" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="K114" s="28" t="s">
-        <v>141</v>
-      </c>
       <c r="L114" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M114" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="M114" s="28" t="s">
-        <v>145</v>
-      </c>
       <c r="N114" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:14" s="27" customFormat="1">
@@ -6336,7 +6353,7 @@
         <v>55</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G115" s="30">
         <v>1</v>
@@ -6344,19 +6361,19 @@
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
       <c r="J115" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K115" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="K115" s="28" t="s">
-        <v>142</v>
-      </c>
       <c r="L115" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M115" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="M115" s="28" t="s">
-        <v>146</v>
-      </c>
       <c r="N115" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="27" customFormat="1">
@@ -6376,7 +6393,7 @@
         <v>59</v>
       </c>
       <c r="F116" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G116" s="30">
         <v>1</v>
@@ -6384,19 +6401,19 @@
       <c r="H116" s="30"/>
       <c r="I116" s="30"/>
       <c r="J116" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K116" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="K116" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="L116" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M116" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="M116" s="28" t="s">
-        <v>147</v>
-      </c>
       <c r="N116" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6416,25 +6433,25 @@
         <v>60</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G117" s="4">
         <v>1</v>
       </c>
       <c r="J117" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K117" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="L117" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M117" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="M117" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="N117" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6454,22 +6471,22 @@
         <v>79</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G118" s="4">
         <v>1</v>
       </c>
       <c r="J118" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K118" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="L118" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M118" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="M118" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6489,23 +6506,23 @@
         <v>80</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G119" s="4">
         <v>1</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K119" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K119" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="L119" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M119" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="M119" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6525,22 +6542,22 @@
         <v>81</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G120" s="4">
         <v>1</v>
       </c>
       <c r="J120" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K120" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="K120" s="15" t="s">
-        <v>147</v>
-      </c>
       <c r="L120" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M120" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="M120" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6560,22 +6577,22 @@
         <v>82</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G121" s="4">
         <v>1</v>
       </c>
       <c r="J121" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="K121" s="15" t="s">
-        <v>148</v>
-      </c>
       <c r="L121" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M121" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="M121" s="15" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6595,22 +6612,22 @@
         <v>83</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G122" s="4">
         <v>1</v>
       </c>
       <c r="J122" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="K122" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="L122" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M122" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="M122" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6630,22 +6647,22 @@
         <v>91</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G123" s="4">
         <v>1</v>
       </c>
       <c r="J123" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K123" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="K123" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="L123" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M123" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="M123" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6665,22 +6682,22 @@
         <v>92</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G124" s="4">
         <v>1</v>
       </c>
       <c r="J124" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="K124" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="L124" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M124" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="M124" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6700,22 +6717,22 @@
         <v>93</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G125" s="4">
         <v>1</v>
       </c>
       <c r="J125" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K125" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="K125" s="15" t="s">
-        <v>152</v>
-      </c>
       <c r="L125" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M125" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="M125" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6735,22 +6752,22 @@
         <v>94</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G126" s="4">
         <v>1</v>
       </c>
       <c r="J126" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K126" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="K126" s="15" t="s">
-        <v>153</v>
-      </c>
       <c r="L126" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M126" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="M126" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6782,8 +6799,8 @@
   <dimension ref="A1:S1505"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1507" sqref="L1507"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11128,50 +11145,50 @@
       </c>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:18">
-      <c r="A93">
+    <row r="93" spans="1:18" s="37" customFormat="1">
+      <c r="A93" s="37">
         <v>50</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="38">
         <v>0.54375000000000007</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J93">
-        <v>7000</v>
-      </c>
-      <c r="K93" s="16">
+      <c r="I93" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="37">
+        <v>7000</v>
+      </c>
+      <c r="K93" s="40">
         <v>0.47138888888888886</v>
       </c>
-      <c r="L93" s="17">
+      <c r="L93" s="41">
         <v>1.06E-2</v>
       </c>
-      <c r="N93" s="8">
+      <c r="N93" s="38">
         <v>0.49722222222222223</v>
       </c>
-      <c r="O93" s="16">
+      <c r="O93" s="40">
         <v>0.47039351851851857</v>
       </c>
-      <c r="P93" s="17">
+      <c r="P93" s="41">
         <v>9.4699999999999993E-3</v>
       </c>
-      <c r="Q93" s="17"/>
+      <c r="Q93" s="41"/>
     </row>
     <row r="94" spans="1:18">
       <c r="A94">
@@ -16723,41 +16740,41 @@
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
-      <c r="A212">
+    <row r="212" spans="1:18" s="37" customFormat="1">
+      <c r="A212" s="37">
         <v>59</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E212" s="8">
+      <c r="E212" s="38">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F212" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="H212" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I212" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J212">
-        <v>6262</v>
-      </c>
-      <c r="K212" s="16">
+      <c r="I212" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J212" s="37">
+        <v>6262</v>
+      </c>
+      <c r="K212" s="40">
         <v>0.44239583333333332</v>
       </c>
-      <c r="L212" s="17">
+      <c r="L212" s="41">
         <v>1.9976730000000002E-2</v>
       </c>
-      <c r="N212" s="8">
+      <c r="N212" s="38">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -23543,47 +23560,47 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:18" s="18" customFormat="1">
-      <c r="A368" s="18">
+    <row r="368" spans="1:18" s="42" customFormat="1">
+      <c r="A368" s="42">
         <v>78</v>
       </c>
-      <c r="B368" s="18" t="s">
+      <c r="B368" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C368" s="18" t="s">
+      <c r="C368" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E368" s="19">
+      <c r="E368" s="43">
         <v>0.67499999999999993</v>
       </c>
-      <c r="F368" s="20" t="s">
+      <c r="F368" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G368" s="20" t="s">
+      <c r="G368" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H368" s="20" t="s">
+      <c r="H368" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I368" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J368" s="18">
-        <v>6262</v>
-      </c>
-      <c r="K368" s="21">
+      <c r="I368" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J368" s="42">
+        <v>6262</v>
+      </c>
+      <c r="K368" s="45">
         <v>0.45782407407407405</v>
       </c>
-      <c r="L368" s="18">
+      <c r="L368" s="42">
         <v>1.4782099999999999E-2</v>
       </c>
-      <c r="N368" s="19">
+      <c r="N368" s="43">
         <v>0.42291666666666666</v>
       </c>
-      <c r="O368" s="21">
+      <c r="O368" s="45">
         <v>0.6171875</v>
       </c>
-      <c r="P368" s="22">
+      <c r="P368" s="46">
         <v>1.18E-2</v>
       </c>
     </row>
@@ -27498,26 +27515,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="520" spans="1:12">
-      <c r="A520">
+    <row r="520" spans="1:12" s="37" customFormat="1">
+      <c r="A520" s="37">
         <v>77</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C520" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E520" s="8">
+      <c r="E520" s="38">
         <v>0.74583333333333324</v>
       </c>
-      <c r="F520" s="1" t="s">
+      <c r="F520" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G520" s="1" t="s">
+      <c r="G520" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H520" s="1" t="s">
+      <c r="H520" s="39" t="s">
         <v>37</v>
       </c>
     </row>
@@ -32984,38 +33001,38 @@
         <v>9.2099999999999994E-3</v>
       </c>
     </row>
-    <row r="677" spans="1:12">
-      <c r="A677">
+    <row r="677" spans="1:12" s="37" customFormat="1">
+      <c r="A677" s="37">
         <v>79</v>
       </c>
-      <c r="B677" t="s">
+      <c r="B677" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C677" t="s">
+      <c r="C677" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E677" s="8">
+      <c r="E677" s="38">
         <v>0.8256944444444444</v>
       </c>
-      <c r="F677" s="1" t="s">
+      <c r="F677" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G677" s="1" t="s">
+      <c r="G677" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H677" s="1" t="s">
+      <c r="H677" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="I677" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J677">
-        <v>6262</v>
-      </c>
-      <c r="K677" s="32">
+      <c r="I677" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J677" s="37">
+        <v>6262</v>
+      </c>
+      <c r="K677" s="47">
         <v>0.50976851851851845</v>
       </c>
-      <c r="L677" s="17">
+      <c r="L677" s="41">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -43344,38 +43361,38 @@
         <v>1.900808E-2</v>
       </c>
     </row>
-    <row r="973" spans="1:12">
-      <c r="A973">
+    <row r="973" spans="1:12" s="37" customFormat="1">
+      <c r="A973" s="37">
         <v>77</v>
       </c>
-      <c r="B973" t="s">
+      <c r="B973" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C973" t="s">
+      <c r="C973" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E973" s="8">
+      <c r="E973" s="38">
         <v>0.7104166666666667</v>
       </c>
-      <c r="F973" s="1" t="s">
+      <c r="F973" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G973" s="1" t="s">
+      <c r="G973" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H973" s="1" t="s">
+      <c r="H973" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I973" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J973" s="31">
-        <v>6262</v>
-      </c>
-      <c r="K973" s="16">
+      <c r="I973" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J973" s="48">
+        <v>6262</v>
+      </c>
+      <c r="K973" s="40">
         <v>0.4773148148148148</v>
       </c>
-      <c r="L973" s="17">
+      <c r="L973" s="41">
         <v>1.867386E-2</v>
       </c>
     </row>
@@ -48614,38 +48631,38 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="1124" spans="1:12">
-      <c r="A1124">
+    <row r="1124" spans="1:12" s="37" customFormat="1">
+      <c r="A1124" s="37">
         <v>77</v>
       </c>
-      <c r="B1124" t="s">
+      <c r="B1124" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C1124" t="s">
+      <c r="C1124" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D1124">
+      <c r="D1124" s="37">
         <v>10.108000000000001</v>
       </c>
-      <c r="F1124" s="1" t="s">
+      <c r="F1124" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G1124" s="1" t="s">
+      <c r="G1124" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H1124" s="1" t="s">
+      <c r="H1124" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I1124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1124" s="31">
-        <v>6262</v>
-      </c>
-      <c r="K1124" s="16">
+      <c r="I1124" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1124" s="48">
+        <v>6262</v>
+      </c>
+      <c r="K1124" s="40">
         <v>0.45943287037037034</v>
       </c>
-      <c r="L1124">
+      <c r="L1124" s="37">
         <v>0.17947189999999999</v>
       </c>
     </row>
@@ -53155,41 +53172,41 @@
         <v>1.005182</v>
       </c>
     </row>
-    <row r="1254" spans="1:12">
-      <c r="A1254">
+    <row r="1254" spans="1:12" s="37" customFormat="1">
+      <c r="A1254" s="37">
         <v>70</v>
       </c>
-      <c r="B1254" t="s">
+      <c r="B1254" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C1254" t="s">
+      <c r="C1254" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D1254">
+      <c r="D1254" s="37">
         <v>9.0139999999999993</v>
       </c>
-      <c r="E1254" s="8">
+      <c r="E1254" s="38">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F1254" s="1" t="s">
+      <c r="F1254" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G1254" s="1" t="s">
+      <c r="G1254" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H1254" s="1" t="s">
+      <c r="H1254" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="I1254" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1254" s="31">
-        <v>6262</v>
-      </c>
-      <c r="K1254" s="16">
+      <c r="I1254" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1254" s="48">
+        <v>6262</v>
+      </c>
+      <c r="K1254" s="40">
         <v>0.56640046296296298</v>
       </c>
-      <c r="L1254" s="17">
+      <c r="L1254" s="41">
         <v>1.4776360000000001E-2</v>
       </c>
     </row>
@@ -55879,41 +55896,41 @@
         <v>1.034041E-2</v>
       </c>
     </row>
-    <row r="1332" spans="1:12">
-      <c r="A1332">
+    <row r="1332" spans="1:12" s="37" customFormat="1">
+      <c r="A1332" s="37">
         <v>42</v>
       </c>
-      <c r="B1332" t="s">
+      <c r="B1332" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C1332" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1332">
+      <c r="C1332" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1332" s="37">
         <v>5.6870000000000003</v>
       </c>
-      <c r="E1332" s="8">
+      <c r="E1332" s="38">
         <v>0.69166666666666676</v>
       </c>
-      <c r="F1332" s="1" t="s">
+      <c r="F1332" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G1332" s="1" t="s">
+      <c r="G1332" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H1332" s="1" t="s">
+      <c r="H1332" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="I1332" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1332" s="31">
-        <v>7000</v>
-      </c>
-      <c r="K1332" s="16">
+      <c r="I1332" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1332" s="48">
+        <v>7000</v>
+      </c>
+      <c r="K1332" s="40">
         <v>0.5926851851851852</v>
       </c>
-      <c r="L1332" s="17">
+      <c r="L1332" s="41">
         <v>5.7227269999999997E-2</v>
       </c>
     </row>
@@ -56964,7 +56981,7 @@
         <v>92</v>
       </c>
       <c r="I1362" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1362" s="31">
         <v>7000</v>
@@ -58230,38 +58247,38 @@
         <v>2.8375250000000001E-2</v>
       </c>
     </row>
-    <row r="1399" spans="1:18">
-      <c r="A1399">
+    <row r="1399" spans="1:18" s="37" customFormat="1">
+      <c r="A1399" s="37">
         <v>34</v>
       </c>
-      <c r="B1399" t="s">
+      <c r="B1399" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C1399" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1399">
+      <c r="C1399" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1399" s="37">
         <v>4.758</v>
       </c>
-      <c r="E1399" s="8">
+      <c r="E1399" s="38">
         <v>0.47569444444444442</v>
       </c>
-      <c r="F1399" s="1" t="s">
+      <c r="F1399" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="G1399" s="1" t="s">
+      <c r="G1399" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H1399" s="1" t="s">
+      <c r="H1399" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="I1399" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1399" s="31">
-        <v>6262</v>
-      </c>
-      <c r="R1399" t="s">
+      <c r="I1399" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1399" s="48">
+        <v>6262</v>
+      </c>
+      <c r="R1399" s="37" t="s">
         <v>123</v>
       </c>
     </row>
@@ -58766,7 +58783,7 @@
         <v>74</v>
       </c>
       <c r="C1414" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="D1414">
         <v>8.4860000000000007</v>
@@ -58816,7 +58833,7 @@
         <v>93</v>
       </c>
       <c r="I1415" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J1415">
         <v>6262</v>
@@ -60610,38 +60627,38 @@
         <v>1.162111E-2</v>
       </c>
     </row>
-    <row r="1467" spans="1:12">
-      <c r="A1467">
+    <row r="1467" spans="1:12" s="37" customFormat="1">
+      <c r="A1467" s="37">
         <v>34</v>
       </c>
-      <c r="B1467" t="s">
+      <c r="B1467" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C1467" t="s">
+      <c r="C1467" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E1467" s="8">
+      <c r="E1467" s="38">
         <v>0.47152777777777777</v>
       </c>
-      <c r="F1467" s="1" t="s">
+      <c r="F1467" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="G1467" s="1" t="s">
+      <c r="G1467" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H1467" s="1" t="s">
+      <c r="H1467" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="I1467" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1467">
-        <v>7000</v>
-      </c>
-      <c r="K1467" s="16">
+      <c r="I1467" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1467" s="37">
+        <v>7000</v>
+      </c>
+      <c r="K1467" s="40">
         <v>0.45689814814814816</v>
       </c>
-      <c r="L1467" s="17">
+      <c r="L1467" s="41">
         <v>1.117754E-2</v>
       </c>
     </row>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10435" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10447" uniqueCount="171">
   <si>
     <t>Site</t>
   </si>
@@ -513,6 +513,36 @@
   <si>
     <t>AN CH</t>
   </si>
+  <si>
+    <t>eclosion_date</t>
+  </si>
+  <si>
+    <t>eclosion_days</t>
+  </si>
+  <si>
+    <t>well_id</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>wasp</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
 </sst>
 </file>
 
@@ -604,7 +634,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="373">
+  <cellStyleXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -978,8 +1008,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1069,8 +1101,9 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="373">
+  <cellStyles count="375">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1257,6 +1290,7 @@
     <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1443,6 +1477,7 @@
     <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1710,7 +1745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6796,11 +6831,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1505"/>
+  <dimension ref="A1:V1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6812,7 +6847,7 @@
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -6867,9 +6902,20 @@
       <c r="R1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="S1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6913,7 +6959,7 @@
         <v>0.1432514</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6960,7 +7006,7 @@
         <v>0.170235</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7007,7 +7053,7 @@
         <v>0.1076286</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7054,7 +7100,7 @@
         <v>1.3873899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7101,7 +7147,7 @@
         <v>0.1182286</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7148,7 +7194,7 @@
         <v>1.468912</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7195,7 +7241,7 @@
         <v>0.16016230000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7242,7 +7288,7 @@
         <v>1.4328829999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7289,7 +7335,7 @@
         <v>8.09E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7336,7 +7382,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7383,7 +7429,7 @@
         <v>1.2453730000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7433,7 +7479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7480,7 +7526,7 @@
         <v>7.4800000000000005E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7527,7 +7573,7 @@
         <v>0.1269034</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8327,7 +8373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>33</v>
       </c>
@@ -8374,7 +8420,7 @@
         <v>0.2100458</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>34</v>
       </c>
@@ -8421,7 +8467,7 @@
         <v>0.1083471</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>35</v>
       </c>
@@ -8468,7 +8514,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>36</v>
       </c>
@@ -8515,7 +8561,7 @@
         <v>0.26179160000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>37</v>
       </c>
@@ -8562,7 +8608,7 @@
         <v>0.1402832</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>38</v>
       </c>
@@ -8609,7 +8655,7 @@
         <v>1.8140689999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>39</v>
       </c>
@@ -8655,8 +8701,20 @@
       <c r="P39">
         <v>0.1573756</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="S39" s="49">
+        <v>42972</v>
+      </c>
+      <c r="T39">
+        <v>31</v>
+      </c>
+      <c r="U39" t="s">
+        <v>167</v>
+      </c>
+      <c r="V39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>40</v>
       </c>
@@ -8703,7 +8761,7 @@
         <v>9.3366500000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>41</v>
       </c>
@@ -8750,7 +8808,7 @@
         <v>1.039968</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8797,7 +8855,7 @@
         <v>1.333105</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8844,7 +8902,7 @@
         <v>0.92131940000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8892,7 +8950,7 @@
       </c>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8933,7 +8991,7 @@
         <v>1.5932200000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>46</v>
       </c>
@@ -8980,7 +9038,7 @@
         <v>0.19791529999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>47</v>
       </c>
@@ -9027,7 +9085,7 @@
         <v>0.22923370000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>48</v>
       </c>
@@ -10585,7 +10643,7 @@
         <v>0.76695579999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:22">
       <c r="A81">
         <v>33</v>
       </c>
@@ -10632,7 +10690,7 @@
         <v>0.72409270000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:22">
       <c r="A82">
         <v>34</v>
       </c>
@@ -10679,7 +10737,7 @@
         <v>0.1596853</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:22">
       <c r="A83">
         <v>35</v>
       </c>
@@ -10727,7 +10785,7 @@
       </c>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:22">
       <c r="A84">
         <v>36</v>
       </c>
@@ -10775,7 +10833,7 @@
       </c>
       <c r="Q84" s="17"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:22">
       <c r="A85">
         <v>37</v>
       </c>
@@ -10822,7 +10880,7 @@
         <v>0.28472120000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:22">
       <c r="A86">
         <v>38</v>
       </c>
@@ -10868,8 +10926,20 @@
       <c r="P86">
         <v>0.81230939999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" s="49">
+        <v>42972</v>
+      </c>
+      <c r="T86">
+        <v>31</v>
+      </c>
+      <c r="U86" t="s">
+        <v>170</v>
+      </c>
+      <c r="V86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87">
         <v>39</v>
       </c>
@@ -10916,7 +10986,7 @@
         <v>0.224742</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:22">
       <c r="A88">
         <v>40</v>
       </c>
@@ -10963,7 +11033,7 @@
         <v>0.1253869</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:22">
       <c r="A89">
         <v>41</v>
       </c>
@@ -11011,7 +11081,7 @@
       </c>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:22">
       <c r="A90">
         <v>45</v>
       </c>
@@ -11053,7 +11123,7 @@
       </c>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:22">
       <c r="A91">
         <v>47</v>
       </c>
@@ -11097,7 +11167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:22">
       <c r="A92">
         <v>48</v>
       </c>
@@ -11145,7 +11215,7 @@
       </c>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:18" s="37" customFormat="1">
+    <row r="93" spans="1:22" s="37" customFormat="1">
       <c r="A93" s="37">
         <v>50</v>
       </c>
@@ -11190,7 +11260,7 @@
       </c>
       <c r="Q93" s="41"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:22">
       <c r="A94">
         <v>1</v>
       </c>
@@ -11240,7 +11310,7 @@
         <v>3.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:22">
       <c r="A95">
         <v>2</v>
       </c>
@@ -11287,7 +11357,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:22">
       <c r="A96">
         <v>3</v>
       </c>
@@ -15098,7 +15168,7 @@
         <v>0.14033519999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:22">
       <c r="A177">
         <v>24</v>
       </c>
@@ -15145,7 +15215,7 @@
         <v>0.11753570000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:22">
       <c r="A178">
         <v>25</v>
       </c>
@@ -15192,7 +15262,7 @@
         <v>0.54109660000000004</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:22">
       <c r="A179">
         <v>26</v>
       </c>
@@ -15239,7 +15309,7 @@
         <v>0.39865810000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:22">
       <c r="A180">
         <v>27</v>
       </c>
@@ -15286,7 +15356,7 @@
         <v>0.17276520000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:22">
       <c r="A181">
         <v>28</v>
       </c>
@@ -15333,7 +15403,7 @@
         <v>0.79337570000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:22">
       <c r="A182">
         <v>29</v>
       </c>
@@ -15380,7 +15450,7 @@
         <v>1.2377830000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:22">
       <c r="A183">
         <v>30</v>
       </c>
@@ -15427,7 +15497,7 @@
         <v>0.62263950000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:22">
       <c r="A184">
         <v>31</v>
       </c>
@@ -15474,7 +15544,7 @@
         <v>0.2313992</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:22">
       <c r="A185">
         <v>32</v>
       </c>
@@ -15521,7 +15591,7 @@
         <v>0.15950030000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:22">
       <c r="A186">
         <v>33</v>
       </c>
@@ -15568,7 +15638,7 @@
         <v>0.69007909999999995</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:22">
       <c r="A187">
         <v>34</v>
       </c>
@@ -15615,7 +15685,7 @@
         <v>8.7560299999999994E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:22">
       <c r="A188">
         <v>35</v>
       </c>
@@ -15661,8 +15731,20 @@
       <c r="P188">
         <v>0.88073170000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="S188" s="49">
+        <v>43003</v>
+      </c>
+      <c r="T188">
+        <v>30</v>
+      </c>
+      <c r="U188" t="s">
+        <v>164</v>
+      </c>
+      <c r="V188" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189">
         <v>36</v>
       </c>
@@ -15709,7 +15791,7 @@
         <v>1.330835</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:22">
       <c r="A190">
         <v>37</v>
       </c>
@@ -15756,7 +15838,7 @@
         <v>0.92665640000000005</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:22">
       <c r="A191">
         <v>38</v>
       </c>
@@ -15803,7 +15885,7 @@
         <v>0.1380371</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:22">
       <c r="A192">
         <v>39</v>
       </c>
@@ -18717,7 +18799,7 @@
         <v>9.6199999999999994E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:22">
       <c r="A257">
         <v>45</v>
       </c>
@@ -18761,7 +18843,7 @@
         <v>5.28E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:22">
       <c r="A258">
         <v>46</v>
       </c>
@@ -18805,7 +18887,7 @@
         <v>9.6600000000000005E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:22">
       <c r="A259">
         <v>47</v>
       </c>
@@ -18845,7 +18927,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:18">
+    <row r="260" spans="1:22">
       <c r="A260">
         <v>48</v>
       </c>
@@ -18889,7 +18971,7 @@
         <v>0.12652169999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:22">
       <c r="A261">
         <v>49</v>
       </c>
@@ -18933,7 +19015,7 @@
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:22">
       <c r="A262">
         <v>50</v>
       </c>
@@ -18977,7 +19059,7 @@
         <v>7.7310500000000004E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:22">
       <c r="A263">
         <v>51</v>
       </c>
@@ -19021,7 +19103,7 @@
         <v>0.57230990000000004</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:22">
       <c r="A264">
         <v>52</v>
       </c>
@@ -19065,7 +19147,7 @@
         <v>8.6300000000000002E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:22">
       <c r="A265">
         <v>53</v>
       </c>
@@ -19109,7 +19191,7 @@
         <v>1.0067029999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:22">
       <c r="A266">
         <v>54</v>
       </c>
@@ -19153,7 +19235,7 @@
         <v>0.2008924</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:22">
       <c r="A267">
         <v>55</v>
       </c>
@@ -19197,7 +19279,7 @@
         <v>7.6200000000000004E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:22">
       <c r="A268">
         <v>56</v>
       </c>
@@ -19241,7 +19323,7 @@
         <v>8.3699999999999997E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:22">
       <c r="A269">
         <v>57</v>
       </c>
@@ -19285,7 +19367,7 @@
         <v>0.1177217</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:22">
       <c r="A270">
         <v>58</v>
       </c>
@@ -19329,7 +19411,7 @@
         <v>1.110716</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:22">
       <c r="A271">
         <v>59</v>
       </c>
@@ -19373,7 +19455,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:22">
       <c r="A272">
         <v>60</v>
       </c>
@@ -19415,6 +19497,18 @@
       </c>
       <c r="P272">
         <v>1.0483279999999999</v>
+      </c>
+      <c r="S272" s="49">
+        <v>43003</v>
+      </c>
+      <c r="T272">
+        <v>29</v>
+      </c>
+      <c r="U272" t="s">
+        <v>169</v>
+      </c>
+      <c r="V272" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="273" spans="1:18">

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10452" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10466" uniqueCount="181">
   <si>
     <t>Site</t>
   </si>
@@ -548,6 +548,36 @@
   </si>
   <si>
     <t xml:space="preserve">looks dead </t>
+  </si>
+  <si>
+    <t>d15 syringe dirty</t>
+  </si>
+  <si>
+    <t>d15 respirometry done but pupae already smashed, kept for overwintering</t>
+  </si>
+  <si>
+    <t>squished</t>
+  </si>
+  <si>
+    <t>d14: air in the syringe. Respirometry d11 not done?</t>
+  </si>
+  <si>
+    <t>d14: squished, removed</t>
+  </si>
+  <si>
+    <t>d14: smashed, removed</t>
+  </si>
+  <si>
+    <t>don't look healthy but keep it</t>
+  </si>
+  <si>
+    <t>d14: air in syringe, larvae smashed and removed (d11 resp was dead, see notebook)</t>
+  </si>
+  <si>
+    <t>d14 was already smashed</t>
+  </si>
+  <si>
+    <t>d14: dead, removed</t>
   </si>
 </sst>
 </file>
@@ -6830,13 +6860,13 @@
   <dimension ref="A1:S1505"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R811" sqref="R811"/>
+      <pane ySplit="1" topLeftCell="A1184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1255" sqref="N1255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -6844,6 +6874,7 @@
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39325,7 +39356,7 @@
         <v>6.5490000000000004</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>70</v>
       </c>
@@ -39357,7 +39388,7 @@
         <v>2.1761389999999999E-2</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>71</v>
       </c>
@@ -39389,7 +39420,7 @@
         <v>1.5870459999999999E-2</v>
       </c>
     </row>
-    <row r="819" spans="1:14" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:18" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A819" s="33">
         <v>75</v>
       </c>
@@ -39433,7 +39464,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>1</v>
       </c>
@@ -39470,8 +39501,14 @@
       <c r="L820" s="17">
         <v>5.5406820000000002E-2</v>
       </c>
-    </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M820" s="31">
+        <v>8.1240000000000006</v>
+      </c>
+      <c r="N820" s="8">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="821" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2</v>
       </c>
@@ -39505,8 +39542,11 @@
       <c r="L821" s="17">
         <v>9.4057130000000003E-2</v>
       </c>
-    </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M821" s="31">
+        <v>6.4059999999999997</v>
+      </c>
+    </row>
+    <row r="822" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>3</v>
       </c>
@@ -39540,8 +39580,11 @@
       <c r="L822" s="17">
         <v>5.8693019999999999E-2</v>
       </c>
-    </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M822" s="31">
+        <v>3.9460000000000002</v>
+      </c>
+    </row>
+    <row r="823" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>4</v>
       </c>
@@ -39575,8 +39618,11 @@
       <c r="L823">
         <v>0.1184031</v>
       </c>
-    </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M823" s="31">
+        <v>10.551</v>
+      </c>
+    </row>
+    <row r="824" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>5</v>
       </c>
@@ -39610,8 +39656,11 @@
       <c r="L824">
         <v>0.16390350000000001</v>
       </c>
-    </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M824" s="31">
+        <v>6.5789999999999997</v>
+      </c>
+    </row>
+    <row r="825" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>6</v>
       </c>
@@ -39645,8 +39694,11 @@
       <c r="L825" s="17">
         <v>6.4883239999999995E-2</v>
       </c>
-    </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M825" s="31">
+        <v>6.9539999999999997</v>
+      </c>
+    </row>
+    <row r="826" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>7</v>
       </c>
@@ -39680,8 +39732,11 @@
       <c r="L826">
         <v>0.1271021</v>
       </c>
-    </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M826" s="31">
+        <v>6.8479999999999999</v>
+      </c>
+    </row>
+    <row r="827" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>8</v>
       </c>
@@ -39715,8 +39770,11 @@
       <c r="L827" s="17">
         <v>6.8026160000000002E-2</v>
       </c>
-    </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M827" s="31">
+        <v>7.9029999999999996</v>
+      </c>
+    </row>
+    <row r="828" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>9</v>
       </c>
@@ -39750,8 +39808,11 @@
       <c r="L828">
         <v>0.22016910000000001</v>
       </c>
-    </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M828" s="31">
+        <v>4.923</v>
+      </c>
+    </row>
+    <row r="829" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>10</v>
       </c>
@@ -39785,8 +39846,11 @@
       <c r="L829" s="17">
         <v>7.2794609999999996E-2</v>
       </c>
-    </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M829" s="31">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="830" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>11</v>
       </c>
@@ -39820,8 +39884,14 @@
       <c r="L830" s="17">
         <v>8.5310520000000001E-2</v>
       </c>
-    </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M830" s="31">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="R830" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="831" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>12</v>
       </c>
@@ -39855,8 +39925,11 @@
       <c r="L831" s="17">
         <v>8.5740250000000004E-2</v>
       </c>
-    </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M831" s="31">
+        <v>8.1910000000000007</v>
+      </c>
+    </row>
+    <row r="832" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>13</v>
       </c>
@@ -39890,8 +39963,11 @@
       <c r="L832" s="17">
         <v>5.9315149999999997E-2</v>
       </c>
-    </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M832" s="31">
+        <v>6.819</v>
+      </c>
+    </row>
+    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>14</v>
       </c>
@@ -39925,8 +40001,11 @@
       <c r="L833">
         <v>0.1073653</v>
       </c>
-    </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M833" s="31">
+        <v>6.9770000000000003</v>
+      </c>
+    </row>
+    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>15</v>
       </c>
@@ -39960,8 +40039,11 @@
       <c r="L834">
         <v>0.1039533</v>
       </c>
-    </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M834" s="31">
+        <v>9.6120000000000001</v>
+      </c>
+    </row>
+    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>16</v>
       </c>
@@ -39995,8 +40077,11 @@
       <c r="L835">
         <v>0.18147769999999999</v>
       </c>
-    </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M835" s="31">
+        <v>9.5459999999999994</v>
+      </c>
+    </row>
+    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>17</v>
       </c>
@@ -40030,8 +40115,11 @@
       <c r="L836" s="17">
         <v>8.3224419999999993E-2</v>
       </c>
-    </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M836" s="31">
+        <v>9.3239999999999998</v>
+      </c>
+    </row>
+    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>18</v>
       </c>
@@ -40065,8 +40153,11 @@
       <c r="L837" s="17">
         <v>8.7553080000000005E-2</v>
       </c>
-    </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M837" s="31">
+        <v>5.1660000000000004</v>
+      </c>
+    </row>
+    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>19</v>
       </c>
@@ -40100,8 +40191,11 @@
       <c r="L838" s="17">
         <v>6.3362230000000005E-2</v>
       </c>
-    </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M838" s="31">
+        <v>4.6740000000000004</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>20</v>
       </c>
@@ -40135,8 +40229,11 @@
       <c r="L839" s="17">
         <v>9.0492509999999998E-2</v>
       </c>
-    </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M839" s="31">
+        <v>8.1920000000000002</v>
+      </c>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>21</v>
       </c>
@@ -40170,8 +40267,11 @@
       <c r="L840" s="17">
         <v>5.4746709999999997E-2</v>
       </c>
-    </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M840" s="31">
+        <v>3.4630000000000001</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>22</v>
       </c>
@@ -40205,8 +40305,11 @@
       <c r="L841" s="17">
         <v>4.2174129999999997E-2</v>
       </c>
-    </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M841" s="31">
+        <v>5.2889999999999997</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>23</v>
       </c>
@@ -40240,8 +40343,11 @@
       <c r="L842">
         <v>0.10918659999999999</v>
       </c>
-    </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M842" s="31">
+        <v>6.0730000000000004</v>
+      </c>
+    </row>
+    <row r="843" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>24</v>
       </c>
@@ -40275,8 +40381,11 @@
       <c r="L843" s="17">
         <v>6.8026519999999993E-2</v>
       </c>
-    </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M843" s="31">
+        <v>9.6219999999999999</v>
+      </c>
+    </row>
+    <row r="844" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>25</v>
       </c>
@@ -40310,8 +40419,11 @@
       <c r="L844" s="17">
         <v>7.2359030000000005E-2</v>
       </c>
-    </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M844" s="31">
+        <v>5.5149999999999997</v>
+      </c>
+    </row>
+    <row r="845" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>26</v>
       </c>
@@ -40345,8 +40457,11 @@
       <c r="L845">
         <v>0.28739999999999999</v>
       </c>
-    </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M845" s="31">
+        <v>3.0219999999999998</v>
+      </c>
+    </row>
+    <row r="846" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>27</v>
       </c>
@@ -40380,8 +40495,11 @@
       <c r="L846">
         <v>0.1089849</v>
       </c>
-    </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M846" s="31">
+        <v>10.808</v>
+      </c>
+    </row>
+    <row r="847" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>28</v>
       </c>
@@ -40415,8 +40533,11 @@
       <c r="L847">
         <v>0.7247808</v>
       </c>
-    </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M847" s="31">
+        <v>8.0879999999999992</v>
+      </c>
+    </row>
+    <row r="848" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>29</v>
       </c>
@@ -40450,8 +40571,11 @@
       <c r="L848">
         <v>1.1219490000000001</v>
       </c>
-    </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M848" s="31">
+        <v>2.9060000000000001</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>30</v>
       </c>
@@ -40485,8 +40609,11 @@
       <c r="L849">
         <v>0.71991530000000004</v>
       </c>
-    </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M849" s="31">
+        <v>9.5980000000000008</v>
+      </c>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>31</v>
       </c>
@@ -40520,8 +40647,11 @@
       <c r="L850">
         <v>0.41303299999999998</v>
       </c>
-    </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M850" s="31">
+        <v>5.2119999999999997</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>32</v>
       </c>
@@ -40555,8 +40685,11 @@
       <c r="L851" s="17">
         <v>5.654526E-2</v>
       </c>
-    </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M851" s="31">
+        <v>5.1660000000000004</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>33</v>
       </c>
@@ -40590,8 +40723,11 @@
       <c r="L852">
         <v>0.16143460000000001</v>
       </c>
-    </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M852" s="31">
+        <v>1.6679999999999999</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>34</v>
       </c>
@@ -40625,8 +40761,11 @@
       <c r="L853">
         <v>0.25412370000000001</v>
       </c>
-    </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M853" s="31">
+        <v>1.4179999999999999</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>35</v>
       </c>
@@ -40660,8 +40799,11 @@
       <c r="L854">
         <v>0.32646500000000001</v>
       </c>
-    </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M854" s="31">
+        <v>5.694</v>
+      </c>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>36</v>
       </c>
@@ -40695,8 +40837,11 @@
       <c r="L855">
         <v>0.1007219</v>
       </c>
-    </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M855" s="31">
+        <v>7.577</v>
+      </c>
+    </row>
+    <row r="856" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>37</v>
       </c>
@@ -40730,8 +40875,11 @@
       <c r="L856" s="17">
         <v>7.3987360000000002E-2</v>
       </c>
-    </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M856" s="31">
+        <v>8.4640000000000004</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>38</v>
       </c>
@@ -40765,8 +40913,11 @@
       <c r="L857" s="17">
         <v>5.5084790000000002E-2</v>
       </c>
-    </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M857" s="31">
+        <v>5.2610000000000001</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>39</v>
       </c>
@@ -40800,8 +40951,11 @@
       <c r="L858" s="17">
         <v>9.9201349999999994E-2</v>
       </c>
-    </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M858" s="31">
+        <v>7.0069999999999997</v>
+      </c>
+    </row>
+    <row r="859" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>40</v>
       </c>
@@ -40835,8 +40989,11 @@
       <c r="L859">
         <v>0.50554739999999998</v>
       </c>
-    </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M859" s="31">
+        <v>6.4909999999999997</v>
+      </c>
+    </row>
+    <row r="860" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>41</v>
       </c>
@@ -40870,8 +41027,11 @@
       <c r="L860" s="17">
         <v>8.4271020000000002E-2</v>
       </c>
-    </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M860" s="31">
+        <v>5.2960000000000003</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>42</v>
       </c>
@@ -40905,8 +41065,11 @@
       <c r="L861">
         <v>0.1069683</v>
       </c>
-    </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M861" s="31">
+        <v>5.3259999999999996</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>43</v>
       </c>
@@ -40940,8 +41103,11 @@
       <c r="L862">
         <v>0.136772</v>
       </c>
-    </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M862" s="31">
+        <v>8.7669999999999995</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>44</v>
       </c>
@@ -40975,8 +41141,11 @@
       <c r="L863" s="17">
         <v>5.7612190000000001E-2</v>
       </c>
-    </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M863" s="31">
+        <v>8.2530000000000001</v>
+      </c>
+    </row>
+    <row r="864" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>45</v>
       </c>
@@ -41010,8 +41179,11 @@
       <c r="L864">
         <v>0.1771578</v>
       </c>
-    </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M864" s="31">
+        <v>8.0559999999999992</v>
+      </c>
+    </row>
+    <row r="865" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>46</v>
       </c>
@@ -41045,8 +41217,11 @@
       <c r="L865" s="17">
         <v>7.2822869999999998E-2</v>
       </c>
-    </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M865" s="31">
+        <v>8.1549999999999994</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>47</v>
       </c>
@@ -41080,8 +41255,11 @@
       <c r="L866">
         <v>0.63008220000000004</v>
       </c>
-    </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M866" s="31">
+        <v>5.9969999999999999</v>
+      </c>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>48</v>
       </c>
@@ -41115,8 +41293,11 @@
       <c r="L867" s="17">
         <v>8.7646459999999995E-2</v>
       </c>
-    </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M867" s="31">
+        <v>8.7569999999999997</v>
+      </c>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>49</v>
       </c>
@@ -41150,8 +41331,11 @@
       <c r="L868">
         <v>0.39780919999999997</v>
       </c>
-    </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M868" s="31">
+        <v>4.9240000000000004</v>
+      </c>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>50</v>
       </c>
@@ -41185,8 +41369,11 @@
       <c r="L869">
         <v>0.1115295</v>
       </c>
-    </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M869" s="31">
+        <v>7.0519999999999996</v>
+      </c>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>51</v>
       </c>
@@ -41220,8 +41407,11 @@
       <c r="L870">
         <v>0.27481699999999998</v>
       </c>
-    </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M870" s="31">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="871" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>52</v>
       </c>
@@ -41255,8 +41445,11 @@
       <c r="L871">
         <v>0.14084260000000001</v>
       </c>
-    </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M871" s="31">
+        <v>8.5739999999999998</v>
+      </c>
+    </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>53</v>
       </c>
@@ -41290,8 +41483,11 @@
       <c r="L872" s="17">
         <v>6.4174819999999994E-2</v>
       </c>
-    </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M872" s="31">
+        <v>7.1890000000000001</v>
+      </c>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>54</v>
       </c>
@@ -41325,8 +41521,11 @@
       <c r="L873" s="17">
         <v>6.5220180000000003E-2</v>
       </c>
-    </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M873" s="31">
+        <v>5.3049999999999997</v>
+      </c>
+    </row>
+    <row r="874" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>55</v>
       </c>
@@ -41360,8 +41559,11 @@
       <c r="L874" s="17">
         <v>5.1239569999999998E-2</v>
       </c>
-    </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M874" s="31">
+        <v>5.7649999999999997</v>
+      </c>
+    </row>
+    <row r="875" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>56</v>
       </c>
@@ -41395,8 +41597,11 @@
       <c r="L875" s="17">
         <v>9.1334369999999998E-2</v>
       </c>
-    </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M875" s="31">
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>57</v>
       </c>
@@ -41430,8 +41635,11 @@
       <c r="L876" s="17">
         <v>6.8857929999999998E-2</v>
       </c>
-    </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M876" s="31">
+        <v>7.0979999999999999</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>58</v>
       </c>
@@ -41465,8 +41673,11 @@
       <c r="L877">
         <v>0.20234679999999999</v>
       </c>
-    </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M877" s="31">
+        <v>4.1619999999999999</v>
+      </c>
+    </row>
+    <row r="878" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>59</v>
       </c>
@@ -41500,8 +41711,11 @@
       <c r="L878" s="17">
         <v>6.6449140000000004E-2</v>
       </c>
-    </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M878" s="31">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="879" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>60</v>
       </c>
@@ -41535,8 +41749,11 @@
       <c r="L879">
         <v>8.5563899999999998E-2</v>
       </c>
-    </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M879" s="31">
+        <v>7.298</v>
+      </c>
+    </row>
+    <row r="880" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>61</v>
       </c>
@@ -41570,8 +41787,11 @@
       <c r="L880">
         <v>7.8943700000000006E-2</v>
       </c>
-    </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M880" s="31">
+        <v>5.9470000000000001</v>
+      </c>
+    </row>
+    <row r="881" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>62</v>
       </c>
@@ -41605,8 +41825,11 @@
       <c r="L881">
         <v>0.1332537</v>
       </c>
-    </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M881" s="31">
+        <v>4.149</v>
+      </c>
+    </row>
+    <row r="882" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>63</v>
       </c>
@@ -41640,8 +41863,11 @@
       <c r="L882">
         <v>0.34487499999999999</v>
       </c>
-    </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M882" s="31">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="883" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>64</v>
       </c>
@@ -41675,8 +41901,11 @@
       <c r="L883" s="17">
         <v>9.2430970000000001E-2</v>
       </c>
-    </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M883" s="31">
+        <v>9.5169999999999995</v>
+      </c>
+    </row>
+    <row r="884" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>65</v>
       </c>
@@ -41710,8 +41939,11 @@
       <c r="L884">
         <v>0.47552909999999998</v>
       </c>
-    </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M884" s="31">
+        <v>2.1960000000000002</v>
+      </c>
+    </row>
+    <row r="885" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>66</v>
       </c>
@@ -41745,8 +41977,11 @@
       <c r="L885" s="17">
         <v>5.7461089999999999E-2</v>
       </c>
-    </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M885" s="31">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="886" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>67</v>
       </c>
@@ -41780,8 +42015,11 @@
       <c r="L886">
         <v>8.9736800000000005E-2</v>
       </c>
-    </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M886" s="31">
+        <v>7.1859999999999999</v>
+      </c>
+    </row>
+    <row r="887" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>68</v>
       </c>
@@ -41815,8 +42053,11 @@
       <c r="L887" s="17">
         <v>7.4956809999999999E-2</v>
       </c>
-    </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M887" s="31">
+        <v>6.3570000000000002</v>
+      </c>
+    </row>
+    <row r="888" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>69</v>
       </c>
@@ -41850,8 +42091,11 @@
       <c r="L888" s="17">
         <v>5.7075559999999997E-2</v>
       </c>
-    </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M888" s="31">
+        <v>8.1929999999999996</v>
+      </c>
+    </row>
+    <row r="889" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>70</v>
       </c>
@@ -41885,8 +42129,11 @@
       <c r="L889">
         <v>4.3972999999999998E-2</v>
       </c>
-    </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M889" s="31">
+        <v>5.4290000000000003</v>
+      </c>
+    </row>
+    <row r="890" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>71</v>
       </c>
@@ -41920,8 +42167,11 @@
       <c r="L890">
         <v>0.1064432</v>
       </c>
-    </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M890" s="31">
+        <v>8.3140000000000001</v>
+      </c>
+    </row>
+    <row r="891" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>72</v>
       </c>
@@ -41955,8 +42205,11 @@
       <c r="L891">
         <v>0.1096119</v>
       </c>
-    </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M891" s="31">
+        <v>8.4429999999999996</v>
+      </c>
+    </row>
+    <row r="892" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>73</v>
       </c>
@@ -41990,8 +42243,11 @@
       <c r="L892" s="17">
         <v>9.076149E-2</v>
       </c>
-    </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M892" s="31">
+        <v>8.3070000000000004</v>
+      </c>
+    </row>
+    <row r="893" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>74</v>
       </c>
@@ -42025,8 +42281,11 @@
       <c r="L893" s="17">
         <v>5.3786029999999999E-2</v>
       </c>
-    </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M893" s="31">
+        <v>5.835</v>
+      </c>
+    </row>
+    <row r="894" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>75</v>
       </c>
@@ -42060,8 +42319,11 @@
       <c r="L894">
         <v>0.51731689999999997</v>
       </c>
-    </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M894" s="31">
+        <v>5.7439999999999998</v>
+      </c>
+    </row>
+    <row r="895" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>76</v>
       </c>
@@ -42093,7 +42355,7 @@
         <v>1.219309E-2</v>
       </c>
     </row>
-    <row r="896" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>77</v>
       </c>
@@ -42127,8 +42389,11 @@
       <c r="L896" s="17">
         <v>9.3276120000000007E-3</v>
       </c>
-    </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N896" s="8">
+        <v>0.55972222222222223</v>
+      </c>
+    </row>
+    <row r="897" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>1</v>
       </c>
@@ -42165,8 +42430,14 @@
       <c r="L897">
         <v>0.1976725</v>
       </c>
-    </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M897">
+        <v>9.8710000000000004</v>
+      </c>
+      <c r="N897" s="8">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="898" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>2</v>
       </c>
@@ -42200,8 +42471,11 @@
       <c r="L898">
         <v>0.1740884</v>
       </c>
-    </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M898">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="899" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>3</v>
       </c>
@@ -42235,8 +42509,11 @@
       <c r="L899">
         <v>0.7487298</v>
       </c>
-    </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M899">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="900" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>4</v>
       </c>
@@ -42270,8 +42547,11 @@
       <c r="L900">
         <v>0.20539560000000001</v>
       </c>
-    </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M900">
+        <v>8.5649999999999995</v>
+      </c>
+    </row>
+    <row r="901" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>5</v>
       </c>
@@ -42305,8 +42585,11 @@
       <c r="L901">
         <v>1.308943</v>
       </c>
-    </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M901">
+        <v>9.266</v>
+      </c>
+    </row>
+    <row r="902" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>6</v>
       </c>
@@ -42340,8 +42623,11 @@
       <c r="L902">
         <v>2.0929090000000001</v>
       </c>
-    </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M902">
+        <v>7.524</v>
+      </c>
+    </row>
+    <row r="903" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>7</v>
       </c>
@@ -42375,8 +42661,11 @@
       <c r="L903">
         <v>0.1326049</v>
       </c>
-    </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M903">
+        <v>7.5170000000000003</v>
+      </c>
+    </row>
+    <row r="904" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>8</v>
       </c>
@@ -42410,8 +42699,11 @@
       <c r="L904">
         <v>0.1092344</v>
       </c>
-    </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M904">
+        <v>5.883</v>
+      </c>
+    </row>
+    <row r="905" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>9</v>
       </c>
@@ -42445,8 +42737,11 @@
       <c r="L905">
         <v>1.6211850000000001</v>
       </c>
-    </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M905">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="906" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>10</v>
       </c>
@@ -42480,8 +42775,14 @@
       <c r="L906">
         <v>2.01776</v>
       </c>
-    </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M906">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="R906" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="907" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>11</v>
       </c>
@@ -42515,8 +42816,11 @@
       <c r="L907">
         <v>0.5401859</v>
       </c>
-    </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M907">
+        <v>3.9340000000000002</v>
+      </c>
+    </row>
+    <row r="908" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>12</v>
       </c>
@@ -42550,8 +42854,11 @@
       <c r="L908">
         <v>0.21893960000000001</v>
       </c>
-    </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M908">
+        <v>6.617</v>
+      </c>
+    </row>
+    <row r="909" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>13</v>
       </c>
@@ -42585,8 +42892,11 @@
       <c r="L909">
         <v>0.94484760000000001</v>
       </c>
-    </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M909">
+        <v>5.6589999999999998</v>
+      </c>
+    </row>
+    <row r="910" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>14</v>
       </c>
@@ -42620,8 +42930,14 @@
       <c r="L910">
         <v>0.52128890000000006</v>
       </c>
-    </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M910">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="R910" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="911" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>15</v>
       </c>
@@ -42655,8 +42971,11 @@
       <c r="L911">
         <v>0.22070490000000001</v>
       </c>
-    </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M911">
+        <v>7.5759999999999996</v>
+      </c>
+    </row>
+    <row r="912" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>16</v>
       </c>
@@ -42690,8 +43009,11 @@
       <c r="L912">
         <v>0.1854789</v>
       </c>
-    </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R912" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>17</v>
       </c>
@@ -42725,8 +43047,11 @@
       <c r="L913">
         <v>0.65027679999999999</v>
       </c>
-    </row>
-    <row r="914" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M913">
+        <v>3.601</v>
+      </c>
+    </row>
+    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>18</v>
       </c>
@@ -42760,8 +43085,11 @@
       <c r="L914">
         <v>0.1930356</v>
       </c>
-    </row>
-    <row r="915" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M914">
+        <v>5.7759999999999998</v>
+      </c>
+    </row>
+    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>19</v>
       </c>
@@ -42795,8 +43123,11 @@
       <c r="L915">
         <v>0.2057206</v>
       </c>
-    </row>
-    <row r="916" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M915">
+        <v>7.1210000000000004</v>
+      </c>
+    </row>
+    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>20</v>
       </c>
@@ -42830,8 +43161,11 @@
       <c r="L916">
         <v>0.41045549999999997</v>
       </c>
-    </row>
-    <row r="917" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M916">
+        <v>6.476</v>
+      </c>
+    </row>
+    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>21</v>
       </c>
@@ -42865,8 +43199,11 @@
       <c r="L917">
         <v>0.14065540000000001</v>
       </c>
-    </row>
-    <row r="918" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M917">
+        <v>5.7359999999999998</v>
+      </c>
+    </row>
+    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>22</v>
       </c>
@@ -42900,8 +43237,11 @@
       <c r="L918">
         <v>0.108235</v>
       </c>
-    </row>
-    <row r="919" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M918">
+        <v>6.3410000000000002</v>
+      </c>
+    </row>
+    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>23</v>
       </c>
@@ -42935,8 +43275,11 @@
       <c r="L919" s="17">
         <v>8.3288719999999997E-2</v>
       </c>
-    </row>
-    <row r="920" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R919" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>24</v>
       </c>
@@ -42970,8 +43313,11 @@
       <c r="L920">
         <v>0.7998459</v>
       </c>
-    </row>
-    <row r="921" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M920">
+        <v>6.9909999999999997</v>
+      </c>
+    </row>
+    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>25</v>
       </c>
@@ -43005,8 +43351,11 @@
       <c r="L921">
         <v>0.21683949999999999</v>
       </c>
-    </row>
-    <row r="922" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M921">
+        <v>5.835</v>
+      </c>
+    </row>
+    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>26</v>
       </c>
@@ -43040,8 +43389,11 @@
       <c r="L922">
         <v>0.81451989999999996</v>
       </c>
-    </row>
-    <row r="923" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M922">
+        <v>7.1459999999999999</v>
+      </c>
+    </row>
+    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>27</v>
       </c>
@@ -43075,8 +43427,11 @@
       <c r="L923">
         <v>0.33855279999999999</v>
       </c>
-    </row>
-    <row r="924" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M923">
+        <v>10.005000000000001</v>
+      </c>
+    </row>
+    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>28</v>
       </c>
@@ -43110,8 +43465,11 @@
       <c r="L924">
         <v>0.19925219999999999</v>
       </c>
-    </row>
-    <row r="925" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M924">
+        <v>7.2510000000000003</v>
+      </c>
+    </row>
+    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>29</v>
       </c>
@@ -43145,8 +43503,11 @@
       <c r="L925">
         <v>0.1325704</v>
       </c>
-    </row>
-    <row r="926" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M925">
+        <v>5.516</v>
+      </c>
+    </row>
+    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>30</v>
       </c>
@@ -43180,8 +43541,11 @@
       <c r="L926">
         <v>0.98094400000000004</v>
       </c>
-    </row>
-    <row r="927" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M926">
+        <v>9.5980000000000008</v>
+      </c>
+    </row>
+    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>31</v>
       </c>
@@ -43215,8 +43579,11 @@
       <c r="L927">
         <v>0.82475589999999999</v>
       </c>
-    </row>
-    <row r="928" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M927">
+        <v>4.7519999999999998</v>
+      </c>
+    </row>
+    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>32</v>
       </c>
@@ -43250,8 +43617,11 @@
       <c r="L928">
         <v>0.19522600000000001</v>
       </c>
-    </row>
-    <row r="929" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M928">
+        <v>6.7690000000000001</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>33</v>
       </c>
@@ -43285,8 +43655,11 @@
       <c r="L929">
         <v>1.3240769999999999</v>
       </c>
-    </row>
-    <row r="930" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M929">
+        <v>10.637</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>34</v>
       </c>
@@ -43320,8 +43693,11 @@
       <c r="L930">
         <v>0.11073909999999999</v>
       </c>
-    </row>
-    <row r="931" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M930">
+        <v>4.4269999999999996</v>
+      </c>
+    </row>
+    <row r="931" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>35</v>
       </c>
@@ -43355,8 +43731,11 @@
       <c r="L931">
         <v>0.1464027</v>
       </c>
-    </row>
-    <row r="932" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M931">
+        <v>5.8609999999999998</v>
+      </c>
+    </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>36</v>
       </c>
@@ -43390,8 +43769,11 @@
       <c r="L932" s="17">
         <v>7.5070949999999997E-2</v>
       </c>
-    </row>
-    <row r="933" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M932">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>37</v>
       </c>
@@ -43425,8 +43807,11 @@
       <c r="L933">
         <v>1.6937690000000001</v>
       </c>
-    </row>
-    <row r="934" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M933">
+        <v>6.1870000000000003</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>38</v>
       </c>
@@ -43460,8 +43845,11 @@
       <c r="L934">
         <v>0.75071840000000001</v>
       </c>
-    </row>
-    <row r="935" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M934">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>39</v>
       </c>
@@ -43495,8 +43883,11 @@
       <c r="L935">
         <v>0.22480410000000001</v>
       </c>
-    </row>
-    <row r="936" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M935">
+        <v>9.6590000000000007</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>40</v>
       </c>
@@ -43530,8 +43921,11 @@
       <c r="L936">
         <v>0.69557539999999995</v>
       </c>
-    </row>
-    <row r="937" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M936">
+        <v>5.1020000000000003</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>41</v>
       </c>
@@ -43565,8 +43959,11 @@
       <c r="L937">
         <v>0.86116769999999998</v>
       </c>
-    </row>
-    <row r="938" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M937">
+        <v>4.1529999999999996</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>42</v>
       </c>
@@ -43600,8 +43997,11 @@
       <c r="L938">
         <v>0.1155018</v>
       </c>
-    </row>
-    <row r="939" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M938">
+        <v>7.2430000000000003</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>43</v>
       </c>
@@ -43635,8 +44035,11 @@
       <c r="L939">
         <v>0.84735609999999995</v>
       </c>
-    </row>
-    <row r="940" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M939">
+        <v>6.3710000000000004</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>44</v>
       </c>
@@ -43670,8 +44073,11 @@
       <c r="L940" s="17">
         <v>7.3694019999999999E-2</v>
       </c>
-    </row>
-    <row r="941" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M940">
+        <v>5.4240000000000004</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>45</v>
       </c>
@@ -43705,8 +44111,11 @@
       <c r="L941">
         <v>0.11268789999999999</v>
       </c>
-    </row>
-    <row r="942" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M941">
+        <v>7.7930000000000001</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>46</v>
       </c>
@@ -43740,8 +44149,11 @@
       <c r="L942">
         <v>0.13184850000000001</v>
       </c>
-    </row>
-    <row r="943" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M942">
+        <v>7.2389999999999999</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>47</v>
       </c>
@@ -43775,8 +44187,11 @@
       <c r="L943">
         <v>1.2080599999999999</v>
       </c>
-    </row>
-    <row r="944" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M943">
+        <v>2.0819999999999999</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>48</v>
       </c>
@@ -43810,8 +44225,11 @@
       <c r="L944">
         <v>0.193329</v>
       </c>
-    </row>
-    <row r="945" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M944">
+        <v>6.9779999999999998</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>49</v>
       </c>
@@ -43845,8 +44263,11 @@
       <c r="L945">
         <v>0.8085658</v>
       </c>
-    </row>
-    <row r="946" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M945">
+        <v>6.194</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>50</v>
       </c>
@@ -43880,8 +44301,11 @@
       <c r="L946">
         <v>0.15005840000000001</v>
       </c>
-    </row>
-    <row r="947" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M946">
+        <v>7.843</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>51</v>
       </c>
@@ -43915,8 +44339,11 @@
       <c r="L947">
         <v>0.95852400000000004</v>
       </c>
-    </row>
-    <row r="948" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M947">
+        <v>8.7390000000000008</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>52</v>
       </c>
@@ -43950,8 +44377,11 @@
       <c r="L948">
         <v>0.2178445</v>
       </c>
-    </row>
-    <row r="949" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M948">
+        <v>7.8380000000000001</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>53</v>
       </c>
@@ -43985,8 +44415,11 @@
       <c r="L949">
         <v>0.15841</v>
       </c>
-    </row>
-    <row r="950" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M949">
+        <v>9.5820000000000007</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>54</v>
       </c>
@@ -44020,8 +44453,11 @@
       <c r="L950">
         <v>0.177451</v>
       </c>
-    </row>
-    <row r="951" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M950">
+        <v>6.851</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>55</v>
       </c>
@@ -44055,8 +44491,11 @@
       <c r="L951">
         <v>0.41447590000000001</v>
       </c>
-    </row>
-    <row r="952" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M951">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>56</v>
       </c>
@@ -44090,8 +44529,11 @@
       <c r="L952">
         <v>2.1991299999999998</v>
       </c>
-    </row>
-    <row r="953" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M952">
+        <v>2.0649999999999999</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>57</v>
       </c>
@@ -44125,8 +44567,11 @@
       <c r="L953" s="17">
         <v>7.4107820000000005E-2</v>
       </c>
-    </row>
-    <row r="954" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M953">
+        <v>5.2119999999999997</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>58</v>
       </c>
@@ -44160,8 +44605,11 @@
       <c r="L954" s="17">
         <v>9.3541330000000006E-2</v>
       </c>
-    </row>
-    <row r="955" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M954">
+        <v>6.548</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>59</v>
       </c>
@@ -44195,8 +44643,11 @@
       <c r="L955">
         <v>1.8606499999999999</v>
       </c>
-    </row>
-    <row r="956" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M955">
+        <v>4.2619999999999996</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>60</v>
       </c>
@@ -44230,8 +44681,11 @@
       <c r="L956">
         <v>0.12471110000000001</v>
       </c>
-    </row>
-    <row r="957" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M956">
+        <v>8.9770000000000003</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>61</v>
       </c>
@@ -44265,8 +44719,11 @@
       <c r="L957">
         <v>0.15867999999999999</v>
       </c>
-    </row>
-    <row r="958" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M957">
+        <v>8.4749999999999996</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>62</v>
       </c>
@@ -44300,8 +44757,11 @@
       <c r="L958" s="17">
         <v>8.8274749999999999E-2</v>
       </c>
-    </row>
-    <row r="959" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M958">
+        <v>7.0789999999999997</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>63</v>
       </c>
@@ -44335,8 +44795,11 @@
       <c r="L959">
         <v>0.14876239999999999</v>
       </c>
-    </row>
-    <row r="960" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M959">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>64</v>
       </c>
@@ -44370,8 +44833,11 @@
       <c r="L960">
         <v>0.1864045</v>
       </c>
-    </row>
-    <row r="961" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M960">
+        <v>6.8490000000000002</v>
+      </c>
+    </row>
+    <row r="961" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>65</v>
       </c>
@@ -44405,8 +44871,11 @@
       <c r="L961">
         <v>0.63629100000000005</v>
       </c>
-    </row>
-    <row r="962" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M961">
+        <v>4.944</v>
+      </c>
+    </row>
+    <row r="962" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>66</v>
       </c>
@@ -44440,8 +44909,11 @@
       <c r="L962">
         <v>0.7623356</v>
       </c>
-    </row>
-    <row r="963" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M962">
+        <v>6.8369999999999997</v>
+      </c>
+    </row>
+    <row r="963" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>67</v>
       </c>
@@ -44475,8 +44947,11 @@
       <c r="L963">
         <v>0.2573703</v>
       </c>
-    </row>
-    <row r="964" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M963">
+        <v>10.964</v>
+      </c>
+    </row>
+    <row r="964" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>68</v>
       </c>
@@ -44510,8 +44985,11 @@
       <c r="L964">
         <v>0.1167077</v>
       </c>
-    </row>
-    <row r="965" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M964">
+        <v>8.1769999999999996</v>
+      </c>
+    </row>
+    <row r="965" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>69</v>
       </c>
@@ -44545,8 +45023,11 @@
       <c r="L965">
         <v>0.1636563</v>
       </c>
-    </row>
-    <row r="966" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M965">
+        <v>6.819</v>
+      </c>
+    </row>
+    <row r="966" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>70</v>
       </c>
@@ -44580,8 +45061,11 @@
       <c r="L966" s="17">
         <v>6.995345E-2</v>
       </c>
-    </row>
-    <row r="967" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M966">
+        <v>6.3890000000000002</v>
+      </c>
+    </row>
+    <row r="967" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>71</v>
       </c>
@@ -44615,8 +45099,11 @@
       <c r="L967">
         <v>7.3501999999999998E-2</v>
       </c>
-    </row>
-    <row r="968" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M967">
+        <v>5.7830000000000004</v>
+      </c>
+    </row>
+    <row r="968" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>72</v>
       </c>
@@ -44650,8 +45137,11 @@
       <c r="L968">
         <v>0.27660089999999998</v>
       </c>
-    </row>
-    <row r="969" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M968">
+        <v>6.1589999999999998</v>
+      </c>
+    </row>
+    <row r="969" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>73</v>
       </c>
@@ -44685,8 +45175,11 @@
       <c r="L969">
         <v>0.16109670000000001</v>
       </c>
-    </row>
-    <row r="970" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M969">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="970" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>74</v>
       </c>
@@ -44720,8 +45213,11 @@
       <c r="L970">
         <v>0.29053299999999999</v>
       </c>
-    </row>
-    <row r="971" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M970">
+        <v>6.633</v>
+      </c>
+    </row>
+    <row r="971" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>75</v>
       </c>
@@ -44755,8 +45251,11 @@
       <c r="L971">
         <v>0.17872150000000001</v>
       </c>
-    </row>
-    <row r="972" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M971">
+        <v>8.4139999999999997</v>
+      </c>
+    </row>
+    <row r="972" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>76</v>
       </c>
@@ -44788,7 +45287,7 @@
         <v>1.900808E-2</v>
       </c>
     </row>
-    <row r="973" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A973" s="37">
         <v>77</v>
       </c>
@@ -44822,8 +45321,11 @@
       <c r="L973" s="41">
         <v>1.867386E-2</v>
       </c>
-    </row>
-    <row r="974" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N973" s="38">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="974" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1</v>
       </c>
@@ -44860,8 +45362,14 @@
       <c r="L974">
         <v>0.67865189999999997</v>
       </c>
-    </row>
-    <row r="975" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M974" s="31">
+        <v>7.8360000000000003</v>
+      </c>
+      <c r="N974" s="8">
+        <v>0.51944444444444449</v>
+      </c>
+    </row>
+    <row r="975" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>2</v>
       </c>
@@ -44895,8 +45403,11 @@
       <c r="L975" s="17">
         <v>9.2641139999999997E-2</v>
       </c>
-    </row>
-    <row r="976" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M975" s="31">
+        <v>8.3279999999999994</v>
+      </c>
+    </row>
+    <row r="976" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>3</v>
       </c>
@@ -44930,8 +45441,11 @@
       <c r="L976" s="17">
         <v>8.3725330000000001E-2</v>
       </c>
-    </row>
-    <row r="977" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M976" s="31">
+        <v>6.9539999999999997</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>4</v>
       </c>
@@ -44965,8 +45479,11 @@
       <c r="L977" s="17">
         <v>9.6152349999999998E-2</v>
       </c>
-    </row>
-    <row r="978" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M977" s="31">
+        <v>7.835</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>5</v>
       </c>
@@ -45000,8 +45517,11 @@
       <c r="L978" s="17">
         <v>5.8593220000000001E-2</v>
       </c>
-    </row>
-    <row r="979" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M978" s="31">
+        <v>9.8670000000000009</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>6</v>
       </c>
@@ -45035,8 +45555,11 @@
       <c r="L979" s="17">
         <v>6.8801459999999995E-2</v>
       </c>
-    </row>
-    <row r="980" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M979" s="31">
+        <v>6.2190000000000003</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>7</v>
       </c>
@@ -45070,8 +45593,11 @@
       <c r="L980">
         <v>0.65951020000000005</v>
       </c>
-    </row>
-    <row r="981" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M980" s="31">
+        <v>7.4779999999999998</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>8</v>
       </c>
@@ -45105,8 +45631,11 @@
       <c r="L981">
         <v>0.10168339999999999</v>
       </c>
-    </row>
-    <row r="982" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M981" s="31">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>9</v>
       </c>
@@ -45140,8 +45669,11 @@
       <c r="L982" s="17">
         <v>9.1970990000000002E-2</v>
       </c>
-    </row>
-    <row r="983" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M982" s="31">
+        <v>9.4849999999999994</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>10</v>
       </c>
@@ -45175,8 +45707,11 @@
       <c r="L983" s="17">
         <v>9.5801250000000004E-2</v>
       </c>
-    </row>
-    <row r="984" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M983" s="31">
+        <v>8.6140000000000008</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>11</v>
       </c>
@@ -45210,8 +45745,11 @@
       <c r="L984" s="17">
         <v>5.1025059999999997E-2</v>
       </c>
-    </row>
-    <row r="985" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M984" s="31">
+        <v>3.6949999999999998</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>12</v>
       </c>
@@ -45245,8 +45783,11 @@
       <c r="L985">
         <v>0.1003054</v>
       </c>
-    </row>
-    <row r="986" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M985" s="31">
+        <v>6.1890000000000001</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>13</v>
       </c>
@@ -45280,8 +45821,11 @@
       <c r="L986">
         <v>0.39405770000000001</v>
       </c>
-    </row>
-    <row r="987" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M986" s="31">
+        <v>5.0650000000000004</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>14</v>
       </c>
@@ -45315,8 +45859,11 @@
       <c r="L987">
         <v>0.1065777</v>
       </c>
-    </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M987" s="31">
+        <v>6.5049999999999999</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>15</v>
       </c>
@@ -45350,8 +45897,11 @@
       <c r="L988">
         <v>0.10680000000000001</v>
       </c>
-    </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M988" s="31">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>16</v>
       </c>
@@ -45385,8 +45935,11 @@
       <c r="L989">
         <v>5.9184500000000001E-2</v>
       </c>
-    </row>
-    <row r="990" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M989" s="31">
+        <v>4.9059999999999997</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>17</v>
       </c>
@@ -45420,8 +45973,11 @@
       <c r="L990">
         <v>0.96356640000000005</v>
       </c>
-    </row>
-    <row r="991" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M990" s="31">
+        <v>8.3689999999999998</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>18</v>
       </c>
@@ -45455,8 +46011,11 @@
       <c r="L991" s="17">
         <v>9.9096820000000002E-2</v>
       </c>
-    </row>
-    <row r="992" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M991" s="31">
+        <v>5.8360000000000003</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>19</v>
       </c>
@@ -45490,8 +46049,11 @@
       <c r="L992">
         <v>0.2091181</v>
       </c>
-    </row>
-    <row r="993" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M992" s="31">
+        <v>4.3540000000000001</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>20</v>
       </c>
@@ -45525,8 +46087,11 @@
       <c r="L993">
         <v>0.1069653</v>
       </c>
-    </row>
-    <row r="994" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M993" s="31">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>21</v>
       </c>
@@ -45560,8 +46125,11 @@
       <c r="L994" s="17">
         <v>6.1628229999999999E-2</v>
       </c>
-    </row>
-    <row r="995" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M994" s="31">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>22</v>
       </c>
@@ -45595,8 +46163,11 @@
       <c r="L995">
         <v>0.1135002</v>
       </c>
-    </row>
-    <row r="996" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M995" s="31">
+        <v>8.9930000000000003</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>23</v>
       </c>
@@ -45630,8 +46201,11 @@
       <c r="L996">
         <v>0.83376910000000004</v>
       </c>
-    </row>
-    <row r="997" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M996" s="31">
+        <v>1.8560000000000001</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>24</v>
       </c>
@@ -45665,8 +46239,11 @@
       <c r="L997">
         <v>1.099898</v>
       </c>
-    </row>
-    <row r="998" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M997" s="31">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>25</v>
       </c>
@@ -45700,8 +46277,11 @@
       <c r="L998">
         <v>0.12662499999999999</v>
       </c>
-    </row>
-    <row r="999" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M998" s="31">
+        <v>10.757</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>26</v>
       </c>
@@ -45738,8 +46318,11 @@
       <c r="L999">
         <v>0.14645259999999999</v>
       </c>
-    </row>
-    <row r="1000" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M999" s="31">
+        <v>10.949</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>28</v>
       </c>
@@ -45773,8 +46356,11 @@
       <c r="L1000" s="17">
         <v>8.6214970000000002E-2</v>
       </c>
-    </row>
-    <row r="1001" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1000" s="31">
+        <v>9.8719999999999999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>30</v>
       </c>
@@ -45808,8 +46394,11 @@
       <c r="L1001">
         <v>0.85282279999999999</v>
       </c>
-    </row>
-    <row r="1002" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1001" s="31">
+        <v>11.577999999999999</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>31</v>
       </c>
@@ -45843,8 +46432,11 @@
       <c r="L1002">
         <v>0.122293</v>
       </c>
-    </row>
-    <row r="1003" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1002" s="31">
+        <v>9.4629999999999992</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>32</v>
       </c>
@@ -45878,8 +46470,11 @@
       <c r="L1003" s="17">
         <v>6.0099319999999998E-2</v>
       </c>
-    </row>
-    <row r="1004" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1003" s="31">
+        <v>5.8490000000000002</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>33</v>
       </c>
@@ -45913,8 +46508,11 @@
       <c r="L1004" s="17">
         <v>6.1822050000000003E-2</v>
       </c>
-    </row>
-    <row r="1005" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1004" s="31">
+        <v>8.0809999999999995</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>34</v>
       </c>
@@ -45948,8 +46546,11 @@
       <c r="L1005">
         <v>0.1159946</v>
       </c>
-    </row>
-    <row r="1006" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1005" s="31">
+        <v>6.4459999999999997</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>35</v>
       </c>
@@ -45983,8 +46584,11 @@
       <c r="L1006">
         <v>0.17215240000000001</v>
       </c>
-    </row>
-    <row r="1007" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1006" s="31">
+        <v>10.082000000000001</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>36</v>
       </c>
@@ -46018,8 +46622,11 @@
       <c r="L1007">
         <v>0.4999671</v>
       </c>
-    </row>
-    <row r="1008" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1007" s="31">
+        <v>5.8120000000000003</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>37</v>
       </c>
@@ -46053,8 +46660,11 @@
       <c r="L1008">
         <v>7.6049500000000006E-2</v>
       </c>
-    </row>
-    <row r="1009" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1008" s="31">
+        <v>5.6239999999999997</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>38</v>
       </c>
@@ -46088,8 +46698,11 @@
       <c r="L1009" s="17">
         <v>7.924138E-2</v>
       </c>
-    </row>
-    <row r="1010" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1009" s="31">
+        <v>11.327</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>39</v>
       </c>
@@ -46123,8 +46736,11 @@
       <c r="L1010" s="17">
         <v>6.2810790000000005E-2</v>
       </c>
-    </row>
-    <row r="1011" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1010" s="31">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>40</v>
       </c>
@@ -46158,8 +46774,11 @@
       <c r="L1011">
         <v>0.12977710000000001</v>
       </c>
-    </row>
-    <row r="1012" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1011" s="31">
+        <v>9.2309999999999999</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>41</v>
       </c>
@@ -46193,8 +46812,11 @@
       <c r="L1012">
         <v>0.10274129999999999</v>
       </c>
-    </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1012" s="31">
+        <v>9.0540000000000003</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>42</v>
       </c>
@@ -46228,8 +46850,11 @@
       <c r="L1013">
         <v>0.12464790000000001</v>
       </c>
-    </row>
-    <row r="1014" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1013" s="31">
+        <v>8.6620000000000008</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>43</v>
       </c>
@@ -46263,8 +46888,11 @@
       <c r="L1014">
         <v>8.56957E-2</v>
       </c>
-    </row>
-    <row r="1015" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1014" s="31">
+        <v>5.8140000000000001</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>44</v>
       </c>
@@ -46298,8 +46926,11 @@
       <c r="L1015" s="17">
         <v>5.8190390000000002E-2</v>
       </c>
-    </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1015" s="31">
+        <v>5.9889999999999999</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>45</v>
       </c>
@@ -46333,8 +46964,11 @@
       <c r="L1016">
         <v>0.294902</v>
       </c>
-    </row>
-    <row r="1017" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1016" s="31">
+        <v>3.9169999999999998</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>46</v>
       </c>
@@ -46368,8 +47002,11 @@
       <c r="L1017">
         <v>0.47998089999999999</v>
       </c>
-    </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1017" s="31">
+        <v>6.3730000000000002</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>47</v>
       </c>
@@ -46403,8 +47040,11 @@
       <c r="L1018">
         <v>0.1041425</v>
       </c>
-    </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1018" s="31">
+        <v>9.1780000000000008</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>48</v>
       </c>
@@ -46438,8 +47078,11 @@
       <c r="L1019">
         <v>0.40711330000000001</v>
       </c>
-    </row>
-    <row r="1020" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1019" s="31">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>49</v>
       </c>
@@ -46473,8 +47116,11 @@
       <c r="L1020">
         <v>0.1153014</v>
       </c>
-    </row>
-    <row r="1021" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1020" s="31">
+        <v>7.9960000000000004</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>50</v>
       </c>
@@ -46508,8 +47154,11 @@
       <c r="L1021">
         <v>0.1169858</v>
       </c>
-    </row>
-    <row r="1022" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1021" s="31">
+        <v>6.4989999999999997</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>51</v>
       </c>
@@ -46543,8 +47192,11 @@
       <c r="L1022" s="17">
         <v>9.2136579999999996E-2</v>
       </c>
-    </row>
-    <row r="1023" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1022" s="31">
+        <v>9.0860000000000003</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>52</v>
       </c>
@@ -46578,8 +47230,11 @@
       <c r="L1023">
         <v>0.10053429999999999</v>
       </c>
-    </row>
-    <row r="1024" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1023" s="31">
+        <v>5.7880000000000003</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>53</v>
       </c>
@@ -46613,8 +47268,11 @@
       <c r="L1024" s="17">
         <v>6.7480230000000002E-2</v>
       </c>
-    </row>
-    <row r="1025" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1024" s="31">
+        <v>5.5129999999999999</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>54</v>
       </c>
@@ -46648,8 +47306,11 @@
       <c r="L1025">
         <v>1.1801349999999999</v>
       </c>
-    </row>
-    <row r="1026" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1025" s="31">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>55</v>
       </c>
@@ -46683,8 +47344,11 @@
       <c r="L1026" s="17">
         <v>5.2346179999999999E-2</v>
       </c>
-    </row>
-    <row r="1027" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1026" s="31">
+        <v>3.3919999999999999</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>56</v>
       </c>
@@ -46718,8 +47382,11 @@
       <c r="L1027" s="17">
         <v>9.6737649999999994E-2</v>
       </c>
-    </row>
-    <row r="1028" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1027" s="31">
+        <v>4.6820000000000004</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>57</v>
       </c>
@@ -46753,8 +47420,11 @@
       <c r="L1028" s="17">
         <v>6.0677839999999997E-2</v>
       </c>
-    </row>
-    <row r="1029" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1028" s="31">
+        <v>6.3159999999999998</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>58</v>
       </c>
@@ -46788,8 +47458,11 @@
       <c r="L1029">
         <v>0.4631884</v>
       </c>
-    </row>
-    <row r="1030" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1029" s="31">
+        <v>5.0570000000000004</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>59</v>
       </c>
@@ -46823,8 +47496,11 @@
       <c r="L1030">
         <v>1.987892</v>
       </c>
-    </row>
-    <row r="1031" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1030" s="31">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>60</v>
       </c>
@@ -46858,8 +47534,11 @@
       <c r="L1031" s="17">
         <v>9.3932950000000001E-2</v>
       </c>
-    </row>
-    <row r="1032" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1031" s="31">
+        <v>7.7960000000000003</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>61</v>
       </c>
@@ -46893,8 +47572,11 @@
       <c r="L1032">
         <v>0.1201025</v>
       </c>
-    </row>
-    <row r="1033" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1032" s="31">
+        <v>4.1210000000000004</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>62</v>
       </c>
@@ -46928,8 +47610,11 @@
       <c r="L1033" s="17">
         <v>9.9732489999999993E-2</v>
       </c>
-    </row>
-    <row r="1034" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1033" s="31">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>63</v>
       </c>
@@ -46963,8 +47648,11 @@
       <c r="L1034">
         <v>0.1715246</v>
       </c>
-    </row>
-    <row r="1035" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1034" s="31">
+        <v>9.8729999999999993</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>64</v>
       </c>
@@ -46998,8 +47686,11 @@
       <c r="L1035" s="17">
         <v>8.8436539999999994E-2</v>
       </c>
-    </row>
-    <row r="1036" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1035" s="31">
+        <v>8.952</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>65</v>
       </c>
@@ -47033,8 +47724,11 @@
       <c r="L1036">
         <v>0.48473240000000001</v>
       </c>
-    </row>
-    <row r="1037" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1036" s="31">
+        <v>2.726</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>66</v>
       </c>
@@ -47068,8 +47762,11 @@
       <c r="L1037" s="17">
         <v>9.2781870000000002E-2</v>
       </c>
-    </row>
-    <row r="1038" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1037" s="31">
+        <v>6.2009999999999996</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>67</v>
       </c>
@@ -47103,8 +47800,11 @@
       <c r="L1038" s="17">
         <v>9.5719360000000003E-2</v>
       </c>
-    </row>
-    <row r="1039" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1038" s="31">
+        <v>7.0090000000000003</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>68</v>
       </c>
@@ -47138,8 +47838,11 @@
       <c r="L1039" s="17">
         <v>7.1075920000000001E-2</v>
       </c>
-    </row>
-    <row r="1040" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1039" s="31">
+        <v>4.8179999999999996</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>69</v>
       </c>
@@ -47173,8 +47876,11 @@
       <c r="L1040">
         <v>0.10864</v>
       </c>
-    </row>
-    <row r="1041" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1040" s="31">
+        <v>9.2390000000000008</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>70</v>
       </c>
@@ -47206,7 +47912,7 @@
         <v>1.3031890000000001E-2</v>
       </c>
     </row>
-    <row r="1042" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>71</v>
       </c>
@@ -47240,8 +47946,11 @@
       <c r="L1042">
         <v>0.96180080000000001</v>
       </c>
-    </row>
-    <row r="1043" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1042">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>72</v>
       </c>
@@ -47275,8 +47984,11 @@
       <c r="L1043">
         <v>0.28755039999999998</v>
       </c>
-    </row>
-    <row r="1044" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1043">
+        <v>7.3840000000000003</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>73</v>
       </c>
@@ -47308,7 +48020,7 @@
         <v>1.260827E-2</v>
       </c>
     </row>
-    <row r="1045" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>74</v>
       </c>
@@ -47342,8 +48054,11 @@
       <c r="L1045">
         <v>0.6867489</v>
       </c>
-    </row>
-    <row r="1046" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1045">
+        <v>2.601</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>75</v>
       </c>
@@ -47377,8 +48092,11 @@
       <c r="L1046" s="17">
         <v>7.4318060000000005E-2</v>
       </c>
-    </row>
-    <row r="1047" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1046">
+        <v>7.9630000000000001</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>76</v>
       </c>
@@ -47406,8 +48124,14 @@
       <c r="J1047" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1048" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1047">
+        <v>4.3979999999999997</v>
+      </c>
+      <c r="R1047" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>77</v>
       </c>
@@ -47444,8 +48168,14 @@
       <c r="L1048" s="17">
         <v>8.2704620000000006E-2</v>
       </c>
-    </row>
-    <row r="1049" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1048">
+        <v>6.7590000000000003</v>
+      </c>
+      <c r="N1048" s="8">
+        <v>0.55277777777777781</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1</v>
       </c>
@@ -47479,8 +48209,14 @@
       <c r="L1049">
         <v>0.59661940000000002</v>
       </c>
-    </row>
-    <row r="1050" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1049">
+        <v>5.04</v>
+      </c>
+      <c r="N1049" s="8">
+        <v>0.47430555555555554</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>2</v>
       </c>
@@ -47514,8 +48250,11 @@
       <c r="L1050">
         <v>0.19845479999999999</v>
       </c>
-    </row>
-    <row r="1051" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1050">
+        <v>8.8460000000000001</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>3</v>
       </c>
@@ -47549,8 +48288,11 @@
       <c r="L1051">
         <v>0.1981357</v>
       </c>
-    </row>
-    <row r="1052" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1051">
+        <v>8.3230000000000004</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>4</v>
       </c>
@@ -47584,8 +48326,11 @@
       <c r="L1052" s="17">
         <v>7.7844590000000005E-2</v>
       </c>
-    </row>
-    <row r="1053" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1052">
+        <v>6.6970000000000001</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>5</v>
       </c>
@@ -47619,8 +48364,11 @@
       <c r="L1053">
         <v>0.15724949999999999</v>
       </c>
-    </row>
-    <row r="1054" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1053">
+        <v>10.587999999999999</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>6</v>
       </c>
@@ -47654,8 +48402,11 @@
       <c r="L1054">
         <v>0.1204828</v>
       </c>
-    </row>
-    <row r="1055" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1054">
+        <v>7.2539999999999996</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>7</v>
       </c>
@@ -47689,8 +48440,11 @@
       <c r="L1055">
         <v>0.19697619999999999</v>
       </c>
-    </row>
-    <row r="1056" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1055">
+        <v>4.4589999999999996</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>8</v>
       </c>
@@ -47724,8 +48478,11 @@
       <c r="L1056">
         <v>0.30690780000000001</v>
       </c>
-    </row>
-    <row r="1057" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1056">
+        <v>5.7229999999999999</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>9</v>
       </c>
@@ -47759,8 +48516,11 @@
       <c r="L1057">
         <v>0.14445330000000001</v>
       </c>
-    </row>
-    <row r="1058" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1057">
+        <v>6.2789999999999999</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>10</v>
       </c>
@@ -47794,8 +48554,11 @@
       <c r="L1058">
         <v>1.4965520000000001</v>
       </c>
-    </row>
-    <row r="1059" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1058">
+        <v>7.907</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>11</v>
       </c>
@@ -47829,8 +48592,11 @@
       <c r="L1059">
         <v>0.92306390000000005</v>
       </c>
-    </row>
-    <row r="1060" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1059">
+        <v>6.3490000000000002</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>12</v>
       </c>
@@ -47864,8 +48630,11 @@
       <c r="L1060">
         <v>0.11852360000000001</v>
       </c>
-    </row>
-    <row r="1061" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1060">
+        <v>5.0039999999999996</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>13</v>
       </c>
@@ -47899,8 +48668,11 @@
       <c r="L1061">
         <v>0.12828400000000001</v>
       </c>
-    </row>
-    <row r="1062" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1061">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>14</v>
       </c>
@@ -47934,8 +48706,11 @@
       <c r="L1062">
         <v>0.13413559999999999</v>
       </c>
-    </row>
-    <row r="1063" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1062">
+        <v>6.1509999999999998</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>15</v>
       </c>
@@ -47969,8 +48744,11 @@
       <c r="L1063">
         <v>0.98048939999999996</v>
       </c>
-    </row>
-    <row r="1064" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1063">
+        <v>5.444</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>16</v>
       </c>
@@ -48004,8 +48782,11 @@
       <c r="L1064">
         <v>1.3587629999999999</v>
       </c>
-    </row>
-    <row r="1065" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1064">
+        <v>8.2379999999999995</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>17</v>
       </c>
@@ -48039,8 +48820,11 @@
       <c r="L1065">
         <v>0.11338570000000001</v>
       </c>
-    </row>
-    <row r="1066" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1065">
+        <v>3.9860000000000002</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>18</v>
       </c>
@@ -48074,8 +48858,11 @@
       <c r="L1066">
         <v>1.336179</v>
       </c>
-    </row>
-    <row r="1067" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1066">
+        <v>8.9649999999999999</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>19</v>
       </c>
@@ -48109,8 +48896,11 @@
       <c r="L1067">
         <v>0.1252325</v>
       </c>
-    </row>
-    <row r="1068" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1067">
+        <v>5.476</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>20</v>
       </c>
@@ -48144,8 +48934,11 @@
       <c r="L1068">
         <v>0.1205281</v>
       </c>
-    </row>
-    <row r="1069" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1068">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>21</v>
       </c>
@@ -48179,8 +48972,11 @@
       <c r="L1069">
         <v>0.14468210000000001</v>
       </c>
-    </row>
-    <row r="1070" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1069">
+        <v>4.0049999999999999</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>22</v>
       </c>
@@ -48214,8 +49010,11 @@
       <c r="L1070">
         <v>0.1143252</v>
       </c>
-    </row>
-    <row r="1071" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1070">
+        <v>6.4320000000000004</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>23</v>
       </c>
@@ -48249,8 +49048,11 @@
       <c r="L1071">
         <v>0.1572422</v>
       </c>
-    </row>
-    <row r="1072" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1071">
+        <v>5.8689999999999998</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>24</v>
       </c>
@@ -48284,8 +49086,11 @@
       <c r="L1072" s="17">
         <v>8.7925970000000006E-2</v>
       </c>
-    </row>
-    <row r="1073" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1072">
+        <v>3.1349999999999998</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>25</v>
       </c>
@@ -48319,8 +49124,11 @@
       <c r="L1073">
         <v>0.1148916</v>
       </c>
-    </row>
-    <row r="1074" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1073">
+        <v>4.0229999999999997</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>26</v>
       </c>
@@ -48354,8 +49162,11 @@
       <c r="L1074">
         <v>0.1067075</v>
       </c>
-    </row>
-    <row r="1075" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1074">
+        <v>7.7370000000000001</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>27</v>
       </c>
@@ -48389,8 +49200,11 @@
       <c r="L1075">
         <v>0.1430514</v>
       </c>
-    </row>
-    <row r="1076" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1075">
+        <v>6.5220000000000002</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>28</v>
       </c>
@@ -48424,8 +49238,11 @@
       <c r="L1076">
         <v>1.4372450000000001</v>
       </c>
-    </row>
-    <row r="1077" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1076">
+        <v>9.7810000000000006</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>29</v>
       </c>
@@ -48459,8 +49276,11 @@
       <c r="L1077">
         <v>1.2408300000000001</v>
       </c>
-    </row>
-    <row r="1078" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1077">
+        <v>10.204000000000001</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>30</v>
       </c>
@@ -48494,8 +49314,11 @@
       <c r="L1078">
         <v>0.1279719</v>
       </c>
-    </row>
-    <row r="1079" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1078">
+        <v>8.1639999999999997</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>31</v>
       </c>
@@ -48529,8 +49352,11 @@
       <c r="L1079">
         <v>0.12729689999999999</v>
       </c>
-    </row>
-    <row r="1080" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1079">
+        <v>11.148</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>33</v>
       </c>
@@ -48564,8 +49390,11 @@
       <c r="L1080">
         <v>0.17668039999999999</v>
       </c>
-    </row>
-    <row r="1081" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1080">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>34</v>
       </c>
@@ -48599,8 +49428,11 @@
       <c r="L1081">
         <v>0.11782040000000001</v>
       </c>
-    </row>
-    <row r="1082" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1081">
+        <v>6.2939999999999996</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>35</v>
       </c>
@@ -48634,8 +49466,11 @@
       <c r="L1082">
         <v>0.115106</v>
       </c>
-    </row>
-    <row r="1083" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1082">
+        <v>6.5540000000000003</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>36</v>
       </c>
@@ -48669,8 +49504,11 @@
       <c r="L1083">
         <v>0.18928400000000001</v>
       </c>
-    </row>
-    <row r="1084" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1083">
+        <v>8.3759999999999994</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>37</v>
       </c>
@@ -48704,8 +49542,11 @@
       <c r="L1084">
         <v>0.45367069999999998</v>
       </c>
-    </row>
-    <row r="1085" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1084">
+        <v>2.3279999999999998</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1085">
         <v>38</v>
       </c>
@@ -48739,8 +49580,11 @@
       <c r="L1085">
         <v>0.1621254</v>
       </c>
-    </row>
-    <row r="1086" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1085">
+        <v>9.1829999999999998</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1086">
         <v>39</v>
       </c>
@@ -48774,8 +49618,11 @@
       <c r="L1086">
         <v>0.1153344</v>
       </c>
-    </row>
-    <row r="1087" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1086">
+        <v>6.907</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1087">
         <v>40</v>
       </c>
@@ -48809,8 +49656,11 @@
       <c r="L1087">
         <v>0.1563195</v>
       </c>
-    </row>
-    <row r="1088" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1087">
+        <v>8.7260000000000009</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1088">
         <v>41</v>
       </c>
@@ -48844,8 +49694,11 @@
       <c r="L1088">
         <v>0.44207990000000003</v>
       </c>
-    </row>
-    <row r="1089" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1088">
+        <v>4.0270000000000001</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1089">
         <v>42</v>
       </c>
@@ -48879,8 +49732,11 @@
       <c r="L1089">
         <v>0.1883108</v>
       </c>
-    </row>
-    <row r="1090" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1089">
+        <v>6.7560000000000002</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1090">
         <v>43</v>
       </c>
@@ -48914,8 +49770,11 @@
       <c r="L1090">
         <v>0.19121740000000001</v>
       </c>
-    </row>
-    <row r="1091" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1090">
+        <v>8.5269999999999992</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1091">
         <v>44</v>
       </c>
@@ -48949,8 +49808,11 @@
       <c r="L1091">
         <v>0.1023718</v>
       </c>
-    </row>
-    <row r="1092" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1091">
+        <v>7.0149999999999997</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1092">
         <v>45</v>
       </c>
@@ -48984,8 +49846,11 @@
       <c r="L1092">
         <v>1.07467</v>
       </c>
-    </row>
-    <row r="1093" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1092">
+        <v>6.5449999999999999</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1093">
         <v>46</v>
       </c>
@@ -49019,8 +49884,11 @@
       <c r="L1093">
         <v>0.156886</v>
       </c>
-    </row>
-    <row r="1094" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1093">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1094">
         <v>47</v>
       </c>
@@ -49054,8 +49922,11 @@
       <c r="L1094">
         <v>0.15922500000000001</v>
       </c>
-    </row>
-    <row r="1095" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1094">
+        <v>8.8879999999999999</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1095">
         <v>48</v>
       </c>
@@ -49089,8 +49960,11 @@
       <c r="L1095">
         <v>0.14232139999999999</v>
       </c>
-    </row>
-    <row r="1096" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1095">
+        <v>6.0129999999999999</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1096">
         <v>49</v>
       </c>
@@ -49124,8 +49998,11 @@
       <c r="L1096">
         <v>0.89539639999999998</v>
       </c>
-    </row>
-    <row r="1097" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1096">
+        <v>4.9619999999999997</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1097">
         <v>50</v>
       </c>
@@ -49159,8 +50036,11 @@
       <c r="L1097">
         <v>1.2026349999999999</v>
       </c>
-    </row>
-    <row r="1098" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1097">
+        <v>7.5339999999999998</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1098">
         <v>51</v>
       </c>
@@ -49194,8 +50074,14 @@
       <c r="L1098">
         <v>0.1013656</v>
       </c>
-    </row>
-    <row r="1099" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1098">
+        <v>8.0350000000000001</v>
+      </c>
+      <c r="N1098" s="8">
+        <v>0.50069444444444444</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1099">
         <v>52</v>
       </c>
@@ -49229,8 +50115,14 @@
       <c r="L1099">
         <v>0.2308934</v>
       </c>
-    </row>
-    <row r="1100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1099">
+        <v>7.2779999999999996</v>
+      </c>
+      <c r="N1099" s="8">
+        <v>0.50624999999999998</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1100">
         <v>53</v>
       </c>
@@ -49264,8 +50156,11 @@
       <c r="L1100">
         <v>0.12090869999999999</v>
       </c>
-    </row>
-    <row r="1101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1100">
+        <v>8.3320000000000007</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1101">
         <v>54</v>
       </c>
@@ -49299,8 +50194,11 @@
       <c r="L1101">
         <v>0.72969189999999995</v>
       </c>
-    </row>
-    <row r="1102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1101">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1102">
         <v>55</v>
       </c>
@@ -49334,8 +50232,11 @@
       <c r="L1102">
         <v>0.13900199999999999</v>
       </c>
-    </row>
-    <row r="1103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1102">
+        <v>5.9420000000000002</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1103">
         <v>56</v>
       </c>
@@ -49369,8 +50270,11 @@
       <c r="L1103">
         <v>0.19493830000000001</v>
       </c>
-    </row>
-    <row r="1104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1103">
+        <v>6.3780000000000001</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1104">
         <v>57</v>
       </c>
@@ -49404,8 +50308,11 @@
       <c r="L1104">
         <v>0.17176279999999999</v>
       </c>
-    </row>
-    <row r="1105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1104">
+        <v>4.1829999999999998</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1105">
         <v>58</v>
       </c>
@@ -49439,8 +50346,11 @@
       <c r="L1105">
         <v>0.96032200000000001</v>
       </c>
-    </row>
-    <row r="1106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1105">
+        <v>5.9219999999999997</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1106">
         <v>59</v>
       </c>
@@ -49474,8 +50384,11 @@
       <c r="L1106">
         <v>0.19114100000000001</v>
       </c>
-    </row>
-    <row r="1107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1106">
+        <v>6.7679999999999998</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1107">
         <v>60</v>
       </c>
@@ -49509,8 +50422,11 @@
       <c r="L1107">
         <v>0.74677660000000001</v>
       </c>
-    </row>
-    <row r="1108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1107">
+        <v>5.0449999999999999</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1108">
         <v>61</v>
       </c>
@@ -49542,7 +50458,7 @@
         <v>1.486502E-2</v>
       </c>
     </row>
-    <row r="1109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1109">
         <v>62</v>
       </c>
@@ -49576,8 +50492,11 @@
       <c r="L1109">
         <v>1.020578</v>
       </c>
-    </row>
-    <row r="1110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1109">
+        <v>5.3040000000000003</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1110">
         <v>63</v>
       </c>
@@ -49611,8 +50530,11 @@
       <c r="L1110">
         <v>0.1124822</v>
       </c>
-    </row>
-    <row r="1111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1110">
+        <v>6.774</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1111">
         <v>64</v>
       </c>
@@ -49644,7 +50566,7 @@
         <v>1.2823569999999999E-2</v>
       </c>
     </row>
-    <row r="1112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1112">
         <v>65</v>
       </c>
@@ -49678,8 +50600,11 @@
       <c r="L1112">
         <v>0.2089028</v>
       </c>
-    </row>
-    <row r="1113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1112">
+        <v>7.8760000000000003</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1113">
         <v>66</v>
       </c>
@@ -49713,8 +50638,11 @@
       <c r="L1113" s="17">
         <v>6.8129220000000004E-2</v>
       </c>
-    </row>
-    <row r="1114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1113">
+        <v>4.2069999999999999</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1114">
         <v>67</v>
       </c>
@@ -49748,8 +50676,11 @@
       <c r="L1114">
         <v>0.64107579999999997</v>
       </c>
-    </row>
-    <row r="1115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1114">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1115">
         <v>68</v>
       </c>
@@ -49783,8 +50714,11 @@
       <c r="L1115">
         <v>0.74361560000000004</v>
       </c>
-    </row>
-    <row r="1116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1115">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1116">
         <v>69</v>
       </c>
@@ -49818,8 +50752,11 @@
       <c r="L1116">
         <v>0.1017155</v>
       </c>
-    </row>
-    <row r="1117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1116">
+        <v>9.109</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1117">
         <v>70</v>
       </c>
@@ -49853,8 +50790,11 @@
       <c r="L1117">
         <v>0.1464355</v>
       </c>
-    </row>
-    <row r="1118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1117">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1118">
         <v>71</v>
       </c>
@@ -49888,8 +50828,11 @@
       <c r="L1118">
         <v>0.1259062</v>
       </c>
-    </row>
-    <row r="1119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1118">
+        <v>6.8339999999999996</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1119">
         <v>72</v>
       </c>
@@ -49923,8 +50866,11 @@
       <c r="L1119">
         <v>0.12275800000000001</v>
       </c>
-    </row>
-    <row r="1120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1119">
+        <v>8.2140000000000004</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1120">
         <v>73</v>
       </c>
@@ -49958,8 +50904,11 @@
       <c r="L1120">
         <v>0.17441509999999999</v>
       </c>
-    </row>
-    <row r="1121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1120">
+        <v>9.1620000000000008</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1121">
         <v>74</v>
       </c>
@@ -49993,8 +50942,11 @@
       <c r="L1121">
         <v>0.1184902</v>
       </c>
-    </row>
-    <row r="1122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1121">
+        <v>8.8360000000000003</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1122">
         <v>75</v>
       </c>
@@ -50028,8 +50980,11 @@
       <c r="L1122">
         <v>0.69414370000000003</v>
       </c>
-    </row>
-    <row r="1123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1122">
+        <v>5.0010000000000003</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1123">
         <v>76</v>
       </c>
@@ -50057,8 +51012,14 @@
       <c r="J1123" s="31">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1124" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M1123">
+        <v>7.3979999999999997</v>
+      </c>
+      <c r="R1123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1124" s="37">
         <v>77</v>
       </c>
@@ -50092,8 +51053,14 @@
       <c r="L1124" s="37">
         <v>0.17947189999999999</v>
       </c>
-    </row>
-    <row r="1125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1124" s="37">
+        <v>9.8409999999999993</v>
+      </c>
+      <c r="N1124" s="38">
+        <v>0.5180555555555556</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1125">
         <v>1</v>
       </c>
@@ -50130,8 +51097,14 @@
       <c r="L1125">
         <v>0.15240319999999999</v>
       </c>
-    </row>
-    <row r="1126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1125" s="31">
+        <v>5.13</v>
+      </c>
+      <c r="N1125" s="8">
+        <v>0.64444444444444449</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1126">
         <v>2</v>
       </c>
@@ -50165,8 +51138,11 @@
       <c r="L1126">
         <v>0.48459419999999997</v>
       </c>
-    </row>
-    <row r="1127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1126" s="31">
+        <v>4.9020000000000001</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1127">
         <v>3</v>
       </c>
@@ -50200,8 +51176,11 @@
       <c r="L1127" s="17">
         <v>4.7981450000000002E-2</v>
       </c>
-    </row>
-    <row r="1128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1127" s="31">
+        <v>7.9459999999999997</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1128">
         <v>4</v>
       </c>
@@ -50235,8 +51214,11 @@
       <c r="L1128" s="17">
         <v>8.7645490000000006E-2</v>
       </c>
-    </row>
-    <row r="1129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1128" s="31">
+        <v>8.7270000000000003</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1129">
         <v>5</v>
       </c>
@@ -50270,8 +51252,11 @@
       <c r="L1129" s="17">
         <v>7.906444E-2</v>
       </c>
-    </row>
-    <row r="1130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1129" s="31">
+        <v>9.2460000000000004</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1130">
         <v>6</v>
       </c>
@@ -50305,8 +51290,11 @@
       <c r="L1130" s="17">
         <v>4.6465310000000003E-2</v>
       </c>
-    </row>
-    <row r="1131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1130" s="31">
+        <v>9.1969999999999992</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1131">
         <v>7</v>
       </c>
@@ -50340,8 +51328,11 @@
       <c r="L1131">
         <v>0.1359503</v>
       </c>
-    </row>
-    <row r="1132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1131" s="31">
+        <v>9.0640000000000001</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1132">
         <v>8</v>
       </c>
@@ -50375,8 +51366,11 @@
       <c r="L1132">
         <v>0.67698219999999998</v>
       </c>
-    </row>
-    <row r="1133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R1132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1133">
         <v>9</v>
       </c>
@@ -50410,8 +51404,11 @@
       <c r="L1133" s="17">
         <v>6.9953370000000001E-2</v>
       </c>
-    </row>
-    <row r="1134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1133">
+        <v>5.6280000000000001</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1134">
         <v>10</v>
       </c>
@@ -50445,8 +51442,11 @@
       <c r="L1134">
         <v>0.1631437</v>
       </c>
-    </row>
-    <row r="1135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1134">
+        <v>12.762</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1135">
         <v>11</v>
       </c>
@@ -50480,8 +51480,11 @@
       <c r="L1135">
         <v>0.1322305</v>
       </c>
-    </row>
-    <row r="1136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1135">
+        <v>8.3859999999999992</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1136">
         <v>12</v>
       </c>
@@ -50515,8 +51518,11 @@
       <c r="L1136">
         <v>0.1121238</v>
       </c>
-    </row>
-    <row r="1137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1136">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1137">
         <v>13</v>
       </c>
@@ -50550,8 +51556,11 @@
       <c r="L1137">
         <v>7.9076800000000003E-2</v>
       </c>
-    </row>
-    <row r="1138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1137">
+        <v>5.1639999999999997</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1138">
         <v>14</v>
       </c>
@@ -50585,8 +51594,11 @@
       <c r="L1138" s="17">
         <v>5.5076279999999998E-2</v>
       </c>
-    </row>
-    <row r="1139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1138">
+        <v>5.3159999999999998</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1139">
         <v>15</v>
       </c>
@@ -50620,8 +51632,11 @@
       <c r="L1139">
         <v>0.50031669999999995</v>
       </c>
-    </row>
-    <row r="1140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1139">
+        <v>4.0869999999999997</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1140">
         <v>16</v>
       </c>
@@ -50655,8 +51670,11 @@
       <c r="L1140" s="17">
         <v>8.3718669999999995E-2</v>
       </c>
-    </row>
-    <row r="1141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1140">
+        <v>5.6239999999999997</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1141">
         <v>17</v>
       </c>
@@ -50690,8 +51708,11 @@
       <c r="L1141" s="17">
         <v>9.4029169999999995E-2</v>
       </c>
-    </row>
-    <row r="1142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1141">
+        <v>7.1630000000000003</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1142">
         <v>18</v>
       </c>
@@ -50725,8 +51746,11 @@
       <c r="L1142">
         <v>0.1090554</v>
       </c>
-    </row>
-    <row r="1143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1142">
+        <v>7.1219999999999999</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1143">
         <v>19</v>
       </c>
@@ -50760,8 +51784,11 @@
       <c r="L1143" s="17">
         <v>6.9208329999999998E-2</v>
       </c>
-    </row>
-    <row r="1144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1143">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1144">
         <v>20</v>
       </c>
@@ -50795,8 +51822,11 @@
       <c r="L1144">
         <v>0.55736359999999996</v>
       </c>
-    </row>
-    <row r="1145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1144">
+        <v>6.0209999999999999</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1145">
         <v>21</v>
       </c>
@@ -50830,8 +51860,11 @@
       <c r="L1145">
         <v>0.17204140000000001</v>
       </c>
-    </row>
-    <row r="1146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1145">
+        <v>9.5779999999999994</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1146">
         <v>22</v>
       </c>
@@ -50865,8 +51898,11 @@
       <c r="L1146">
         <v>0.40815129999999999</v>
       </c>
-    </row>
-    <row r="1147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1146">
+        <v>3.5030000000000001</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1147">
         <v>23</v>
       </c>
@@ -50900,8 +51936,11 @@
       <c r="L1147">
         <v>0.60069939999999999</v>
       </c>
-    </row>
-    <row r="1148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1147">
+        <v>4.9980000000000002</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1148">
         <v>24</v>
       </c>
@@ -50935,8 +51974,11 @@
       <c r="L1148">
         <v>0.13913420000000001</v>
       </c>
-    </row>
-    <row r="1149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1148">
+        <v>5.4989999999999997</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1149">
         <v>25</v>
       </c>
@@ -50970,8 +52012,11 @@
       <c r="L1149">
         <v>7.6379199999999994E-2</v>
       </c>
-    </row>
-    <row r="1150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1149">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1150">
         <v>26</v>
       </c>
@@ -51005,8 +52050,11 @@
       <c r="L1150" s="17">
         <v>8.5475309999999999E-2</v>
       </c>
-    </row>
-    <row r="1151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1150">
+        <v>7.367</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1151">
         <v>27</v>
       </c>
@@ -51038,7 +52086,7 @@
         <v>9.5328619999999996E-3</v>
       </c>
     </row>
-    <row r="1152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1152">
         <v>28</v>
       </c>
@@ -51072,8 +52120,11 @@
       <c r="L1152" s="17">
         <v>6.4224489999999995E-2</v>
       </c>
-    </row>
-    <row r="1153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1152">
+        <v>6.7969999999999997</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1153">
         <v>29</v>
       </c>
@@ -51107,8 +52158,11 @@
       <c r="L1153">
         <v>0.22333549999999999</v>
       </c>
-    </row>
-    <row r="1154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1153">
+        <v>9.8539999999999992</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1154">
         <v>30</v>
       </c>
@@ -51142,8 +52196,11 @@
       <c r="L1154" s="17">
         <v>6.447116E-2</v>
       </c>
-    </row>
-    <row r="1155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1154">
+        <v>6.7629999999999999</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1155">
         <v>31</v>
       </c>
@@ -51177,8 +52234,11 @@
       <c r="L1155" s="17">
         <v>6.5323640000000002E-2</v>
       </c>
-    </row>
-    <row r="1156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1155">
+        <v>7.9710000000000001</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1156">
         <v>32</v>
       </c>
@@ -51212,8 +52272,11 @@
       <c r="L1156" s="17">
         <v>3.5124240000000001E-2</v>
       </c>
-    </row>
-    <row r="1157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1156">
+        <v>3.1840000000000002</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1157">
         <v>33</v>
       </c>
@@ -51247,8 +52310,11 @@
       <c r="L1157">
         <v>0.1383315</v>
       </c>
-    </row>
-    <row r="1158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1157">
+        <v>6.4139999999999997</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1158">
         <v>34</v>
       </c>
@@ -51282,8 +52348,11 @@
       <c r="L1158" s="17">
         <v>6.6333879999999998E-2</v>
       </c>
-    </row>
-    <row r="1159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1158">
+        <v>7.774</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1159">
         <v>35</v>
       </c>
@@ -51317,8 +52386,11 @@
       <c r="L1159">
         <v>0.63046769999999996</v>
       </c>
-    </row>
-    <row r="1160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1159">
+        <v>6.3579999999999997</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1160">
         <v>36</v>
       </c>
@@ -51352,8 +52424,11 @@
       <c r="L1160" s="17">
         <v>6.2321849999999998E-2</v>
       </c>
-    </row>
-    <row r="1161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1160">
+        <v>5.3780000000000001</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1161">
         <v>37</v>
       </c>
@@ -51387,8 +52462,11 @@
       <c r="L1161">
         <v>0.12037109999999999</v>
       </c>
-    </row>
-    <row r="1162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1161">
+        <v>9.3490000000000002</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1162">
         <v>38</v>
       </c>
@@ -51422,8 +52500,11 @@
       <c r="L1162" s="17">
         <v>5.5887010000000001E-2</v>
       </c>
-    </row>
-    <row r="1163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1162">
+        <v>6.008</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1163">
         <v>39</v>
       </c>
@@ -51457,8 +52538,11 @@
       <c r="L1163">
         <v>0.94559760000000004</v>
       </c>
-    </row>
-    <row r="1164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R1163" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1164">
         <v>40</v>
       </c>
@@ -51492,8 +52576,11 @@
       <c r="L1164" s="17">
         <v>7.0884970000000005E-2</v>
       </c>
-    </row>
-    <row r="1165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1164">
+        <v>5.2489999999999997</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1165">
         <v>41</v>
       </c>
@@ -51527,8 +52614,14 @@
       <c r="L1165">
         <v>0.24109349999999999</v>
       </c>
-    </row>
-    <row r="1166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1165">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="R1165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1166">
         <v>42</v>
       </c>
@@ -51562,8 +52655,11 @@
       <c r="L1166" s="17">
         <v>9.422113E-2</v>
       </c>
-    </row>
-    <row r="1167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1166">
+        <v>9.1059999999999999</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1167">
         <v>43</v>
       </c>
@@ -51597,8 +52693,11 @@
       <c r="L1167">
         <v>0.53061179999999997</v>
       </c>
-    </row>
-    <row r="1168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1167">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1168">
         <v>44</v>
       </c>
@@ -51632,8 +52731,11 @@
       <c r="L1168">
         <v>0.46615309999999999</v>
       </c>
-    </row>
-    <row r="1169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1168">
+        <v>5.6740000000000004</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1169">
         <v>45</v>
       </c>
@@ -51667,8 +52769,14 @@
       <c r="L1169">
         <v>0.43847190000000003</v>
       </c>
-    </row>
-    <row r="1170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1169">
+        <v>3.008</v>
+      </c>
+      <c r="R1169" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1170">
         <v>46</v>
       </c>
@@ -51702,8 +52810,11 @@
       <c r="L1170">
         <v>0.1156539</v>
       </c>
-    </row>
-    <row r="1171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1170">
+        <v>3.6469999999999998</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1171">
         <v>47</v>
       </c>
@@ -51737,8 +52848,11 @@
       <c r="L1171">
         <v>0.1103744</v>
       </c>
-    </row>
-    <row r="1172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1171">
+        <v>9.0690000000000008</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1172">
         <v>48</v>
       </c>
@@ -51772,8 +52886,11 @@
       <c r="L1172" s="17">
         <v>5.5580369999999997E-2</v>
       </c>
-    </row>
-    <row r="1173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1172">
+        <v>5.3559999999999999</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1173">
         <v>49</v>
       </c>
@@ -51807,8 +52924,11 @@
       <c r="L1173" s="17">
         <v>6.7144969999999998E-2</v>
       </c>
-    </row>
-    <row r="1174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1173">
+        <v>8.6720000000000006</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1174">
         <v>50</v>
       </c>
@@ -51842,8 +52962,11 @@
       <c r="L1174" s="17">
         <v>8.0120520000000001E-2</v>
       </c>
-    </row>
-    <row r="1175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1174">
+        <v>9.2319999999999993</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1175">
         <v>51</v>
       </c>
@@ -51877,8 +53000,11 @@
       <c r="L1175">
         <v>0.14773520000000001</v>
       </c>
-    </row>
-    <row r="1176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1175">
+        <v>5.0570000000000004</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1176">
         <v>52</v>
       </c>
@@ -51912,8 +53038,11 @@
       <c r="L1176">
         <v>0.1076088</v>
       </c>
-    </row>
-    <row r="1177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1176">
+        <v>5.8380000000000001</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1177">
         <v>53</v>
       </c>
@@ -51947,8 +53076,11 @@
       <c r="L1177">
         <v>0.30221769999999998</v>
       </c>
-    </row>
-    <row r="1178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1177">
+        <v>3.3660000000000001</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1178">
         <v>54</v>
       </c>
@@ -51982,8 +53114,11 @@
       <c r="L1178" s="17">
         <v>6.8020590000000006E-2</v>
       </c>
-    </row>
-    <row r="1179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1178">
+        <v>4.0640000000000001</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1179">
         <v>55</v>
       </c>
@@ -52017,8 +53152,11 @@
       <c r="L1179">
         <v>0.38640659999999999</v>
       </c>
-    </row>
-    <row r="1180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1179">
+        <v>4.4039999999999999</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1180">
         <v>56</v>
       </c>
@@ -52052,8 +53190,11 @@
       <c r="L1180" s="17">
         <v>6.4252879999999998E-2</v>
       </c>
-    </row>
-    <row r="1181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1180">
+        <v>7.2210000000000001</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1181">
         <v>57</v>
       </c>
@@ -52087,8 +53228,11 @@
       <c r="L1181" s="17">
         <v>9.8793160000000005E-2</v>
       </c>
-    </row>
-    <row r="1182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1181">
+        <v>9.6440000000000001</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1182">
         <v>58</v>
       </c>
@@ -52122,8 +53266,11 @@
       <c r="L1182" s="17">
         <v>9.235053E-2</v>
       </c>
-    </row>
-    <row r="1183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1182">
+        <v>4.6619999999999999</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1183">
         <v>59</v>
       </c>
@@ -52157,8 +53304,11 @@
       <c r="L1183" s="17">
         <v>6.8581630000000005E-2</v>
       </c>
-    </row>
-    <row r="1184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1183">
+        <v>3.7349999999999999</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1184">
         <v>60</v>
       </c>
@@ -52192,8 +53342,11 @@
       <c r="L1184">
         <v>0.1192529</v>
       </c>
-    </row>
-    <row r="1185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1184">
+        <v>8.5860000000000003</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1185">
         <v>61</v>
       </c>
@@ -52227,8 +53380,11 @@
       <c r="L1185" s="17">
         <v>4.8747829999999999E-2</v>
       </c>
-    </row>
-    <row r="1186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1185">
+        <v>5.9340000000000002</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1186">
         <v>62</v>
       </c>
@@ -52262,8 +53418,11 @@
       <c r="L1186">
         <v>0.45255600000000001</v>
       </c>
-    </row>
-    <row r="1187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1186">
+        <v>2.8109999999999999</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1187">
         <v>63</v>
       </c>
@@ -52297,8 +53456,11 @@
       <c r="L1187" s="17">
         <v>6.1508189999999997E-2</v>
       </c>
-    </row>
-    <row r="1188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1187">
+        <v>6.5890000000000004</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1188">
         <v>64</v>
       </c>
@@ -52332,8 +53494,11 @@
       <c r="L1188" s="17">
         <v>5.6791139999999997E-2</v>
       </c>
-    </row>
-    <row r="1189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1188">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1189">
         <v>66</v>
       </c>
@@ -52367,8 +53532,11 @@
       <c r="L1189" s="17">
         <v>7.9826850000000005E-2</v>
       </c>
-    </row>
-    <row r="1190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1189">
+        <v>7.4850000000000003</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1190">
         <v>69</v>
       </c>
@@ -52396,8 +53564,11 @@
       <c r="J1190" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R1190" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1191">
         <v>70</v>
       </c>
@@ -52431,8 +53602,11 @@
       <c r="L1191" s="17">
         <v>9.4669160000000006E-3</v>
       </c>
-    </row>
-    <row r="1192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1191" s="8">
+        <v>0.66180555555555554</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1192">
         <v>1</v>
       </c>
@@ -52469,8 +53643,14 @@
       <c r="L1192" s="17">
         <v>3.859021E-2</v>
       </c>
-    </row>
-    <row r="1193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1192">
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="N1192" s="8">
+        <v>0.62222222222222223</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1193">
         <v>2</v>
       </c>
@@ -52504,8 +53684,11 @@
       <c r="L1193">
         <v>1.41699</v>
       </c>
-    </row>
-    <row r="1194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1193">
+        <v>11.345000000000001</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1194">
         <v>3</v>
       </c>
@@ -52539,8 +53722,11 @@
       <c r="L1194">
         <v>0.1479277</v>
       </c>
-    </row>
-    <row r="1195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1194">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1195">
         <v>4</v>
       </c>
@@ -52574,8 +53760,11 @@
       <c r="L1195">
         <v>0.10734100000000001</v>
       </c>
-    </row>
-    <row r="1196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1195">
+        <v>6.3090000000000002</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1196">
         <v>5</v>
       </c>
@@ -52609,8 +53798,11 @@
       <c r="L1196">
         <v>0.11469650000000001</v>
       </c>
-    </row>
-    <row r="1197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1196">
+        <v>6.4050000000000002</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1197">
         <v>6</v>
       </c>
@@ -52644,8 +53836,11 @@
       <c r="L1197">
         <v>0.12777279999999999</v>
       </c>
-    </row>
-    <row r="1198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1197">
+        <v>7.016</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1198">
         <v>7</v>
       </c>
@@ -52679,8 +53874,11 @@
       <c r="L1198">
         <v>7.7836500000000003E-2</v>
       </c>
-    </row>
-    <row r="1199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1198">
+        <v>8.3849999999999998</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1199">
         <v>8</v>
       </c>
@@ -52714,8 +53912,11 @@
       <c r="L1199">
         <v>6.0404899999999997E-2</v>
       </c>
-    </row>
-    <row r="1200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1199">
+        <v>5.5460000000000003</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1200">
         <v>9</v>
       </c>
@@ -52749,8 +53950,11 @@
       <c r="L1200">
         <v>0.10447620000000001</v>
       </c>
-    </row>
-    <row r="1201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1200">
+        <v>5.9139999999999997</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1201">
         <v>10</v>
       </c>
@@ -52784,8 +53988,11 @@
       <c r="L1201">
         <v>0.1291175</v>
       </c>
-    </row>
-    <row r="1202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1201">
+        <v>10.122999999999999</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1202">
         <v>11</v>
       </c>
@@ -52819,8 +54026,11 @@
       <c r="L1202" s="17">
         <v>8.269878E-2</v>
       </c>
-    </row>
-    <row r="1203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1202">
+        <v>5.6479999999999997</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1203">
         <v>12</v>
       </c>
@@ -52854,8 +54064,11 @@
       <c r="L1203">
         <v>0.97816559999999997</v>
       </c>
-    </row>
-    <row r="1204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1203">
+        <v>7.0039999999999996</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1204">
         <v>13</v>
       </c>
@@ -52889,8 +54102,11 @@
       <c r="L1204">
         <v>0.65446729999999997</v>
       </c>
-    </row>
-    <row r="1205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1204">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1205">
         <v>14</v>
       </c>
@@ -52924,8 +54140,11 @@
       <c r="L1205">
         <v>0.17532210000000001</v>
       </c>
-    </row>
-    <row r="1206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1205">
+        <v>7.8490000000000002</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1206">
         <v>15</v>
       </c>
@@ -52959,8 +54178,11 @@
       <c r="L1206">
         <v>0.16737299999999999</v>
       </c>
-    </row>
-    <row r="1207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1206">
+        <v>9.9459999999999997</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1207">
         <v>16</v>
       </c>
@@ -52994,8 +54216,11 @@
       <c r="L1207">
         <v>0.17988199999999999</v>
       </c>
-    </row>
-    <row r="1208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1207">
+        <v>5.5739999999999998</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1208">
         <v>17</v>
       </c>
@@ -53029,8 +54254,11 @@
       <c r="L1208">
         <v>0.2101239</v>
       </c>
-    </row>
-    <row r="1209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1208">
+        <v>7.9409999999999998</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1209">
         <v>18</v>
       </c>
@@ -53064,8 +54292,11 @@
       <c r="L1209">
         <v>0.1534432</v>
       </c>
-    </row>
-    <row r="1210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1209">
+        <v>6.1150000000000002</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1210">
         <v>19</v>
       </c>
@@ -53099,8 +54330,11 @@
       <c r="L1210">
         <v>0.15260860000000001</v>
       </c>
-    </row>
-    <row r="1211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1210">
+        <v>9.0579999999999998</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1211">
         <v>20</v>
       </c>
@@ -53134,8 +54368,11 @@
       <c r="L1211">
         <v>0.55912379999999995</v>
       </c>
-    </row>
-    <row r="1212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1211">
+        <v>5.1139999999999999</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1212">
         <v>21</v>
       </c>
@@ -53169,8 +54406,11 @@
       <c r="L1212">
         <v>0.96441250000000001</v>
       </c>
-    </row>
-    <row r="1213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1212">
+        <v>6.7750000000000004</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1213">
         <v>22</v>
       </c>
@@ -53204,8 +54444,11 @@
       <c r="L1213">
         <v>0.1244014</v>
       </c>
-    </row>
-    <row r="1214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R1213" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1214">
         <v>23</v>
       </c>
@@ -53239,8 +54482,11 @@
       <c r="L1214">
         <v>0.18343590000000001</v>
       </c>
-    </row>
-    <row r="1215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1214">
+        <v>8.1530000000000005</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1215">
         <v>24</v>
       </c>
@@ -53274,8 +54520,11 @@
       <c r="L1215">
         <v>0.11044660000000001</v>
       </c>
-    </row>
-    <row r="1216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1215">
+        <v>5.4690000000000003</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1216">
         <v>25</v>
       </c>
@@ -53309,8 +54558,11 @@
       <c r="L1216" s="17">
         <v>8.4644380000000005E-2</v>
       </c>
-    </row>
-    <row r="1217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1216">
+        <v>7.399</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1217">
         <v>26</v>
       </c>
@@ -53342,7 +54594,7 @@
         <v>1.559674E-2</v>
       </c>
     </row>
-    <row r="1218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1218">
         <v>27</v>
       </c>
@@ -53376,8 +54628,11 @@
       <c r="L1218">
         <v>0.17208200000000001</v>
       </c>
-    </row>
-    <row r="1219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1218">
+        <v>6.444</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1219">
         <v>28</v>
       </c>
@@ -53411,8 +54666,11 @@
       <c r="L1219">
         <v>1.2443580000000001</v>
       </c>
-    </row>
-    <row r="1220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R1219" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1220">
         <v>29</v>
       </c>
@@ -53446,8 +54704,11 @@
       <c r="L1220">
         <v>0.126859</v>
       </c>
-    </row>
-    <row r="1221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1220">
+        <v>6.4870000000000001</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1221">
         <v>30</v>
       </c>
@@ -53481,8 +54742,11 @@
       <c r="L1221">
         <v>0.1014471</v>
       </c>
-    </row>
-    <row r="1222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1221">
+        <v>6.2709999999999999</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1222">
         <v>31</v>
       </c>
@@ -53516,8 +54780,11 @@
       <c r="L1222">
         <v>0.15676180000000001</v>
       </c>
-    </row>
-    <row r="1223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1222">
+        <v>7.3849999999999998</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1223">
         <v>32</v>
       </c>
@@ -53551,8 +54818,11 @@
       <c r="L1223">
         <v>0.25813439999999999</v>
       </c>
-    </row>
-    <row r="1224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1223">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1224">
         <v>33</v>
       </c>
@@ -53586,8 +54856,11 @@
       <c r="L1224">
         <v>0.19574849999999999</v>
       </c>
-    </row>
-    <row r="1225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1224">
+        <v>8.7669999999999995</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1225">
         <v>34</v>
       </c>
@@ -53621,8 +54894,11 @@
       <c r="L1225">
         <v>0.1195305</v>
       </c>
-    </row>
-    <row r="1226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1225">
+        <v>10.521000000000001</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1226">
         <v>35</v>
       </c>
@@ -53656,8 +54932,11 @@
       <c r="L1226">
         <v>0.1769261</v>
       </c>
-    </row>
-    <row r="1227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1226">
+        <v>5.7770000000000001</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1227">
         <v>36</v>
       </c>
@@ -53691,8 +54970,11 @@
       <c r="L1227" s="17">
         <v>9.3088920000000006E-2</v>
       </c>
-    </row>
-    <row r="1228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1227">
+        <v>5.6630000000000003</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1228">
         <v>37</v>
       </c>
@@ -53726,8 +55008,11 @@
       <c r="L1228">
         <v>0.14774490000000001</v>
       </c>
-    </row>
-    <row r="1229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1228">
+        <v>8.6850000000000005</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1229">
         <v>38</v>
       </c>
@@ -53761,8 +55046,11 @@
       <c r="L1229" s="17">
         <v>9.1544529999999999E-2</v>
       </c>
-    </row>
-    <row r="1230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1229">
+        <v>6.7510000000000003</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1230">
         <v>39</v>
       </c>
@@ -53796,8 +55084,11 @@
       <c r="L1230">
         <v>0.1311378</v>
       </c>
-    </row>
-    <row r="1231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1230">
+        <v>10.413</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1231">
         <v>40</v>
       </c>
@@ -53831,8 +55122,11 @@
       <c r="L1231">
         <v>0.16259770000000001</v>
       </c>
-    </row>
-    <row r="1232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1231">
+        <v>6.4630000000000001</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1232">
         <v>41</v>
       </c>
@@ -53866,8 +55160,11 @@
       <c r="L1232">
         <v>0.1472241</v>
       </c>
-    </row>
-    <row r="1233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1232">
+        <v>3.7930000000000001</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1233">
         <v>42</v>
       </c>
@@ -53901,8 +55198,11 @@
       <c r="L1233">
         <v>0.15857969999999999</v>
       </c>
-    </row>
-    <row r="1234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1233">
+        <v>3.7749999999999999</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1234">
         <v>43</v>
       </c>
@@ -53936,8 +55236,11 @@
       <c r="L1234">
         <v>0.1249516</v>
       </c>
-    </row>
-    <row r="1235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1234">
+        <v>8.1549999999999994</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1235">
         <v>44</v>
       </c>
@@ -53971,8 +55274,11 @@
       <c r="L1235" s="17">
         <v>7.5339859999999995E-2</v>
       </c>
-    </row>
-    <row r="1236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1235">
+        <v>6.0679999999999996</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1236">
         <v>45</v>
       </c>
@@ -54006,8 +55312,11 @@
       <c r="L1236" s="17">
         <v>9.4811619999999999E-2</v>
       </c>
-    </row>
-    <row r="1237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1236">
+        <v>8.2119999999999997</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1237">
         <v>46</v>
       </c>
@@ -54041,8 +55350,11 @@
       <c r="L1237">
         <v>0.11230469999999999</v>
       </c>
-    </row>
-    <row r="1238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1237">
+        <v>7.7309999999999999</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1238">
         <v>47</v>
       </c>
@@ -54076,8 +55388,11 @@
       <c r="L1238" s="17">
         <v>7.7458089999999993E-2</v>
       </c>
-    </row>
-    <row r="1239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1238">
+        <v>5.8479999999999999</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1239">
         <v>48</v>
       </c>
@@ -54111,8 +55426,11 @@
       <c r="L1239">
         <v>0.1018143</v>
       </c>
-    </row>
-    <row r="1240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1239">
+        <v>6.7480000000000002</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1240">
         <v>49</v>
       </c>
@@ -54146,8 +55464,11 @@
       <c r="L1240">
         <v>0.1289817</v>
       </c>
-    </row>
-    <row r="1241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1240">
+        <v>6.4770000000000003</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1241">
         <v>50</v>
       </c>
@@ -54181,8 +55502,11 @@
       <c r="L1241" s="17">
         <v>8.7241490000000005E-2</v>
       </c>
-    </row>
-    <row r="1242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1241">
+        <v>3.823</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1242">
         <v>51</v>
       </c>
@@ -54216,8 +55540,11 @@
       <c r="L1242" s="17">
         <v>9.7897929999999994E-2</v>
       </c>
-    </row>
-    <row r="1243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1242">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1243">
         <v>52</v>
       </c>
@@ -54251,8 +55578,11 @@
       <c r="L1243">
         <v>0.1116929</v>
       </c>
-    </row>
-    <row r="1244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1243">
+        <v>5.7249999999999996</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1244">
         <v>53</v>
       </c>
@@ -54286,8 +55616,11 @@
       <c r="L1244">
         <v>0.18907299999999999</v>
       </c>
-    </row>
-    <row r="1245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1244">
+        <v>8.4909999999999997</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1245">
         <v>54</v>
       </c>
@@ -54321,8 +55654,11 @@
       <c r="L1245">
         <v>0.14175740000000001</v>
       </c>
-    </row>
-    <row r="1246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1245">
+        <v>5.9089999999999998</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1246">
         <v>55</v>
       </c>
@@ -54356,8 +55692,11 @@
       <c r="L1246">
         <v>1.214351</v>
       </c>
-    </row>
-    <row r="1247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1246">
+        <v>9.0289999999999999</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1247">
         <v>56</v>
       </c>
@@ -54391,8 +55730,11 @@
       <c r="L1247">
         <v>1.080379</v>
       </c>
-    </row>
-    <row r="1248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1247">
+        <v>7.226</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1248">
         <v>57</v>
       </c>
@@ -54426,8 +55768,11 @@
       <c r="L1248">
         <v>0.1722437</v>
       </c>
-    </row>
-    <row r="1249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1248">
+        <v>9.1530000000000005</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1249">
         <v>58</v>
       </c>
@@ -54461,8 +55806,11 @@
       <c r="L1249">
         <v>0.16078790000000001</v>
       </c>
-    </row>
-    <row r="1250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1249">
+        <v>6.4880000000000004</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1250">
         <v>59</v>
       </c>
@@ -54494,7 +55842,7 @@
         <v>1.384347E-2</v>
       </c>
     </row>
-    <row r="1251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1251">
         <v>60</v>
       </c>
@@ -54528,8 +55876,11 @@
       <c r="L1251">
         <v>0.97282109999999999</v>
       </c>
-    </row>
-    <row r="1252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1251">
+        <v>5.8319999999999999</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1252">
         <v>61</v>
       </c>
@@ -54563,8 +55914,11 @@
       <c r="L1252">
         <v>0.4344268</v>
       </c>
-    </row>
-    <row r="1253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1252">
+        <v>2.6890000000000001</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1253">
         <v>65</v>
       </c>
@@ -54598,8 +55952,11 @@
       <c r="L1253">
         <v>1.005182</v>
       </c>
-    </row>
-    <row r="1254" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M1253">
+        <v>7.2329999999999997</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1254" s="37">
         <v>70</v>
       </c>
@@ -54636,8 +55993,14 @@
       <c r="L1254" s="41">
         <v>1.4776360000000001E-2</v>
       </c>
-    </row>
-    <row r="1255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1254" s="37">
+        <v>8.6180000000000003</v>
+      </c>
+      <c r="N1254" s="38">
+        <v>0.64097222222222217</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1255">
         <v>1</v>
       </c>
@@ -54675,7 +56038,7 @@
         <v>1.569048</v>
       </c>
     </row>
-    <row r="1256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1256">
         <v>2</v>
       </c>
@@ -54710,7 +56073,7 @@
         <v>0.2789104</v>
       </c>
     </row>
-    <row r="1257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1257">
         <v>3</v>
       </c>
@@ -54745,7 +56108,7 @@
         <v>1.7667820000000001</v>
       </c>
     </row>
-    <row r="1258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1258">
         <v>4</v>
       </c>
@@ -54780,7 +56143,7 @@
         <v>0.1594931</v>
       </c>
     </row>
-    <row r="1259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1259">
         <v>5</v>
       </c>
@@ -54815,7 +56178,7 @@
         <v>0.13954130000000001</v>
       </c>
     </row>
-    <row r="1260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1260">
         <v>6</v>
       </c>
@@ -54850,7 +56213,7 @@
         <v>4.4453960000000001E-2</v>
       </c>
     </row>
-    <row r="1261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1261">
         <v>7</v>
       </c>
@@ -54885,7 +56248,7 @@
         <v>0.13483220000000001</v>
       </c>
     </row>
-    <row r="1262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1262">
         <v>8</v>
       </c>
@@ -54920,7 +56283,7 @@
         <v>1.1268780000000001E-2</v>
       </c>
     </row>
-    <row r="1263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1263">
         <v>9</v>
       </c>
@@ -54955,7 +56318,7 @@
         <v>1.5804599999999999E-3</v>
       </c>
     </row>
-    <row r="1264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1264">
         <v>10</v>
       </c>
@@ -63431,10 +64794,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:K13"/>
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="46620" windowHeight="25880" tabRatio="500"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="46620" windowHeight="25880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10491" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10492" uniqueCount="196">
   <si>
     <t>Site</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>KL</t>
+  </si>
+  <si>
+    <t>TG</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1835,8 +1838,8 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6448,6 +6451,12 @@
       <c r="G114" s="30">
         <v>1</v>
       </c>
+      <c r="H114" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I114" s="30">
+        <v>37</v>
+      </c>
       <c r="J114" s="28" t="s">
         <v>139</v>
       </c>
@@ -6897,20 +6906,20 @@
     </row>
     <row r="127" spans="1:14">
       <c r="I127" s="4">
-        <f>SUM(I106:I112)</f>
-        <v>416</v>
+        <f>SUM(I106:I114)</f>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="I128" s="4">
         <f>SUM(I2:I126)</f>
-        <v>3659</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" s="4">
         <f>I128*0.8</f>
-        <v>2927.2000000000003</v>
+        <v>2956.8</v>
       </c>
     </row>
   </sheetData>
@@ -39573,7 +39582,7 @@
         <v>1.5870459999999999E-2</v>
       </c>
     </row>
-    <row r="819" spans="1:19" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="819" spans="1:19" s="33" customFormat="1" ht="16" thickBot="1">
       <c r="A819" s="33">
         <v>75</v>
       </c>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="46620" windowHeight="25880" tabRatio="500"/>
+    <workbookView xWindow="12080" yWindow="0" windowWidth="12660" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1822,7 +1821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1836,7 +1835,7 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6929,9 +6928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1505"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1384" sqref="M1384"/>
+    <sheetView showRuler="0" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -39573,7 +39572,7 @@
         <v>1.5870459999999999E-2</v>
       </c>
     </row>
-    <row r="819" spans="1:19" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="819" spans="1:19" s="33" customFormat="1" ht="16" thickBot="1">
       <c r="A819" s="33">
         <v>75</v>
       </c>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="0" windowWidth="12660" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10491" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10492" uniqueCount="196">
   <si>
     <t>Site</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>KL</t>
+  </si>
+  <si>
+    <t>TG</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1835,7 +1838,7 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+      <selection activeCell="H114" sqref="H114:I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6447,6 +6450,12 @@
       <c r="G114" s="30">
         <v>1</v>
       </c>
+      <c r="H114" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I114" s="30">
+        <v>37</v>
+      </c>
       <c r="J114" s="28" t="s">
         <v>139</v>
       </c>
@@ -6903,13 +6912,13 @@
     <row r="128" spans="1:14">
       <c r="I128" s="4">
         <f>SUM(I2:I126)</f>
-        <v>3659</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" s="4">
         <f>I128*0.8</f>
-        <v>2927.2000000000003</v>
+        <v>2956.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="1320" windowWidth="29820" windowHeight="24900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13640" yWindow="1320" windowWidth="29820" windowHeight="24900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12075" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12077" uniqueCount="1726">
   <si>
     <t>Site</t>
   </si>
@@ -5210,6 +5210,9 @@
   </si>
   <si>
     <t>20b19</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -6452,8 +6455,8 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J118" sqref="J118:M118"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11109,8 +11112,12 @@
       <c r="G115" s="30">
         <v>1</v>
       </c>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
+      <c r="H115" s="30" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I115" s="30">
+        <v>8</v>
+      </c>
       <c r="J115" s="28" t="s">
         <v>140</v>
       </c>
@@ -11149,8 +11156,12 @@
       <c r="G116" s="52">
         <v>1</v>
       </c>
-      <c r="H116" s="52"/>
-      <c r="I116" s="52"/>
+      <c r="H116" s="52" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I116" s="52">
+        <v>11</v>
+      </c>
       <c r="J116" s="50" t="s">
         <v>141</v>
       </c>
@@ -11527,13 +11538,13 @@
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I128" s="4">
         <f>SUM(I2:I126)</f>
-        <v>3696</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I129" s="4">
         <f>I128*0.8</f>
-        <v>2956.8</v>
+        <v>2972</v>
       </c>
     </row>
   </sheetData>
@@ -11547,7 +11558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X266" sqref="X266"/>
     </sheetView>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="800" windowWidth="41280" windowHeight="23340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="51760" yWindow="220" windowWidth="33800" windowHeight="19240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -11758,9 +11758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1631"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J451" sqref="J451"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12939" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13292" uniqueCount="1749">
   <si>
     <t>Site</t>
   </si>
@@ -5265,6 +5265,18 @@
   </si>
   <si>
     <t>no 62?</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>dirty syringe</t>
   </si>
 </sst>
 </file>
@@ -5363,8 +5375,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="433">
+  <cellStyleXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5925,7 +5951,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="433">
+  <cellStyles count="447">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6142,6 +6168,13 @@
     <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6358,6 +6391,13 @@
     <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6625,7 +6665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6639,7 +6679,7 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10836,7 +10876,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="23" customFormat="1" ht="17" thickBot="1">
+    <row r="105" spans="1:14" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="A105" s="23" t="s">
         <v>12</v>
       </c>
@@ -11756,11 +11796,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1631"/>
+  <dimension ref="A1:AE1684"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1613" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1631" sqref="D1631"/>
+      <pane ySplit="1" topLeftCell="A1649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1684" sqref="I1684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11781,7 +11821,8 @@
     <col min="23" max="23" width="12.5" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10.83203125" style="4"/>
     <col min="26" max="26" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.83203125" style="4"/>
+    <col min="27" max="27" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -12309,6 +12350,12 @@
       <c r="AB9" s="53">
         <v>0.67222222222222217</v>
       </c>
+      <c r="AC9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD9" s="53">
+        <v>0.53125</v>
+      </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
@@ -13735,8 +13782,32 @@
       <c r="Q36">
         <v>0.26179160000000001</v>
       </c>
+      <c r="T36" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U36" s="4" t="s">
         <v>236</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W36" s="4">
+        <v>42</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="53">
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -29411,7 +29482,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:30">
       <c r="A337">
         <v>47</v>
       </c>
@@ -29461,7 +29532,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:30">
       <c r="A338">
         <v>48</v>
       </c>
@@ -29511,7 +29582,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:30">
       <c r="A339">
         <v>49</v>
       </c>
@@ -29561,7 +29632,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:30">
       <c r="A340">
         <v>50</v>
       </c>
@@ -29611,7 +29682,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:30">
       <c r="A341">
         <v>51</v>
       </c>
@@ -29657,11 +29728,39 @@
       <c r="Q341">
         <v>1.5705720000000001</v>
       </c>
+      <c r="T341" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U341" s="4" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="342" spans="1:21">
+      <c r="V341" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="W341" s="7">
+        <f>V341-H341</f>
+        <v>34</v>
+      </c>
+      <c r="X341" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="Y341" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z341" s="4">
+        <v>21</v>
+      </c>
+      <c r="AA341" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC341" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD341" s="53">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="342" spans="1:30">
       <c r="A342">
         <v>52</v>
       </c>
@@ -29711,7 +29810,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:30">
       <c r="A343">
         <v>53</v>
       </c>
@@ -29761,7 +29860,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:30">
       <c r="A344">
         <v>54</v>
       </c>
@@ -29811,7 +29910,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:30">
       <c r="A345">
         <v>55</v>
       </c>
@@ -29861,7 +29960,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:30">
       <c r="A346">
         <v>56</v>
       </c>
@@ -29911,7 +30010,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:30">
       <c r="A347">
         <v>57</v>
       </c>
@@ -29961,7 +30060,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:30">
       <c r="A348">
         <v>58</v>
       </c>
@@ -30011,7 +30110,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:30">
       <c r="A349">
         <v>59</v>
       </c>
@@ -30061,7 +30160,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:30">
       <c r="A350">
         <v>60</v>
       </c>
@@ -30111,7 +30210,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:30">
       <c r="A351">
         <v>61</v>
       </c>
@@ -30161,7 +30260,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:30">
       <c r="A352">
         <v>62</v>
       </c>
@@ -47023,7 +47122,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="753" spans="1:21">
+    <row r="753" spans="1:28">
       <c r="A753">
         <v>6</v>
       </c>
@@ -47067,7 +47166,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="754" spans="1:21">
+    <row r="754" spans="1:28">
       <c r="A754">
         <v>7</v>
       </c>
@@ -47111,7 +47210,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="755" spans="1:21">
+    <row r="755" spans="1:28">
       <c r="A755">
         <v>8</v>
       </c>
@@ -47155,7 +47254,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="756" spans="1:21">
+    <row r="756" spans="1:28">
       <c r="A756">
         <v>9</v>
       </c>
@@ -47199,7 +47298,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="757" spans="1:21">
+    <row r="757" spans="1:28">
       <c r="A757">
         <v>10</v>
       </c>
@@ -47243,7 +47342,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="758" spans="1:21">
+    <row r="758" spans="1:28">
       <c r="A758">
         <v>11</v>
       </c>
@@ -47287,7 +47386,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="759" spans="1:21">
+    <row r="759" spans="1:28">
       <c r="A759">
         <v>12</v>
       </c>
@@ -47331,7 +47430,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="760" spans="1:21">
+    <row r="760" spans="1:28">
       <c r="A760">
         <v>13</v>
       </c>
@@ -47375,7 +47474,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="761" spans="1:21">
+    <row r="761" spans="1:28">
       <c r="A761">
         <v>14</v>
       </c>
@@ -47419,7 +47518,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="762" spans="1:21">
+    <row r="762" spans="1:28">
       <c r="A762">
         <v>15</v>
       </c>
@@ -47463,7 +47562,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="763" spans="1:21">
+    <row r="763" spans="1:28">
       <c r="A763">
         <v>16</v>
       </c>
@@ -47507,7 +47606,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="764" spans="1:21">
+    <row r="764" spans="1:28">
       <c r="A764">
         <v>17</v>
       </c>
@@ -47551,7 +47650,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="765" spans="1:21">
+    <row r="765" spans="1:28">
       <c r="A765">
         <v>18</v>
       </c>
@@ -47595,7 +47694,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="766" spans="1:21">
+    <row r="766" spans="1:28">
       <c r="A766">
         <v>19</v>
       </c>
@@ -47635,11 +47734,36 @@
       <c r="N766">
         <v>7.375</v>
       </c>
+      <c r="T766" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U766" s="4" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="767" spans="1:21">
+      <c r="V766" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W766" s="7">
+        <f>V766-H766</f>
+        <v>32</v>
+      </c>
+      <c r="X766" s="4" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Y766" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z766" s="4">
+        <v>12</v>
+      </c>
+      <c r="AA766" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB766" s="53">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="767" spans="1:28">
       <c r="A767">
         <v>20</v>
       </c>
@@ -47683,7 +47807,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="768" spans="1:21">
+    <row r="768" spans="1:28">
       <c r="A768">
         <v>21</v>
       </c>
@@ -47727,7 +47851,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="769" spans="1:21">
+    <row r="769" spans="1:28">
       <c r="A769">
         <v>22</v>
       </c>
@@ -47771,7 +47895,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="770" spans="1:21">
+    <row r="770" spans="1:28">
       <c r="A770">
         <v>23</v>
       </c>
@@ -47815,7 +47939,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="771" spans="1:21">
+    <row r="771" spans="1:28">
       <c r="A771">
         <v>24</v>
       </c>
@@ -47859,7 +47983,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="772" spans="1:21">
+    <row r="772" spans="1:28">
       <c r="A772">
         <v>25</v>
       </c>
@@ -47903,7 +48027,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="773" spans="1:21">
+    <row r="773" spans="1:28">
       <c r="A773">
         <v>26</v>
       </c>
@@ -47947,7 +48071,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="774" spans="1:21">
+    <row r="774" spans="1:28">
       <c r="A774">
         <v>27</v>
       </c>
@@ -47991,7 +48115,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="775" spans="1:21">
+    <row r="775" spans="1:28">
       <c r="A775">
         <v>28</v>
       </c>
@@ -48035,7 +48159,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="776" spans="1:21">
+    <row r="776" spans="1:28">
       <c r="A776">
         <v>29</v>
       </c>
@@ -48079,7 +48203,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="777" spans="1:21">
+    <row r="777" spans="1:28">
       <c r="A777">
         <v>30</v>
       </c>
@@ -48119,11 +48243,36 @@
       <c r="N777">
         <v>9.0670000000000002</v>
       </c>
+      <c r="T777" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U777" s="4" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="778" spans="1:21">
+      <c r="V777" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W777" s="7">
+        <f>V777-H777</f>
+        <v>32</v>
+      </c>
+      <c r="X777" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="Y777" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z777" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA777" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB777" s="53">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="778" spans="1:28">
       <c r="A778">
         <v>31</v>
       </c>
@@ -48167,7 +48316,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="779" spans="1:21">
+    <row r="779" spans="1:28">
       <c r="A779">
         <v>32</v>
       </c>
@@ -48211,7 +48360,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="780" spans="1:21">
+    <row r="780" spans="1:28">
       <c r="A780">
         <v>33</v>
       </c>
@@ -48255,7 +48404,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="781" spans="1:21">
+    <row r="781" spans="1:28">
       <c r="A781">
         <v>34</v>
       </c>
@@ -48299,7 +48448,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="782" spans="1:21">
+    <row r="782" spans="1:28">
       <c r="A782">
         <v>35</v>
       </c>
@@ -48343,7 +48492,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="783" spans="1:21">
+    <row r="783" spans="1:28">
       <c r="A783">
         <v>36</v>
       </c>
@@ -48387,7 +48536,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="784" spans="1:21">
+    <row r="784" spans="1:28">
       <c r="A784">
         <v>37</v>
       </c>
@@ -49945,7 +50094,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="819" spans="1:31" s="33" customFormat="1" ht="17" thickBot="1">
+    <row r="819" spans="1:31" s="33" customFormat="1" ht="16" thickBot="1">
       <c r="A819" s="33">
         <v>75</v>
       </c>
@@ -51291,7 +51440,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="849" spans="1:21">
+    <row r="849" spans="1:28">
       <c r="A849">
         <v>30</v>
       </c>
@@ -51335,7 +51484,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="850" spans="1:21">
+    <row r="850" spans="1:28">
       <c r="A850">
         <v>31</v>
       </c>
@@ -51379,7 +51528,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="851" spans="1:21">
+    <row r="851" spans="1:28">
       <c r="A851">
         <v>32</v>
       </c>
@@ -51423,7 +51572,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="852" spans="1:21">
+    <row r="852" spans="1:28">
       <c r="A852">
         <v>33</v>
       </c>
@@ -51467,7 +51616,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="853" spans="1:21">
+    <row r="853" spans="1:28">
       <c r="A853">
         <v>34</v>
       </c>
@@ -51511,7 +51660,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="854" spans="1:21">
+    <row r="854" spans="1:28">
       <c r="A854">
         <v>35</v>
       </c>
@@ -51555,7 +51704,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="855" spans="1:21">
+    <row r="855" spans="1:28">
       <c r="A855">
         <v>36</v>
       </c>
@@ -51599,7 +51748,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="856" spans="1:21">
+    <row r="856" spans="1:28">
       <c r="A856">
         <v>37</v>
       </c>
@@ -51643,7 +51792,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="857" spans="1:21">
+    <row r="857" spans="1:28">
       <c r="A857">
         <v>38</v>
       </c>
@@ -51687,7 +51836,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="858" spans="1:21">
+    <row r="858" spans="1:28">
       <c r="A858">
         <v>39</v>
       </c>
@@ -51731,7 +51880,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="859" spans="1:21">
+    <row r="859" spans="1:28">
       <c r="A859">
         <v>40</v>
       </c>
@@ -51771,11 +51920,36 @@
       <c r="N859" s="31">
         <v>6.4909999999999997</v>
       </c>
+      <c r="T859" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U859" s="4" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="860" spans="1:21">
+      <c r="V859" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W859" s="7">
+        <f>V859-H859</f>
+        <v>31</v>
+      </c>
+      <c r="X859" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y859" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z859" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA859" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB859" s="53">
+        <v>0.10486111111111111</v>
+      </c>
+    </row>
+    <row r="860" spans="1:28">
       <c r="A860">
         <v>41</v>
       </c>
@@ -51819,7 +51993,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="861" spans="1:21">
+    <row r="861" spans="1:28">
       <c r="A861">
         <v>42</v>
       </c>
@@ -51863,7 +52037,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="862" spans="1:21">
+    <row r="862" spans="1:28">
       <c r="A862">
         <v>43</v>
       </c>
@@ -51907,7 +52081,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="863" spans="1:21">
+    <row r="863" spans="1:28">
       <c r="A863">
         <v>44</v>
       </c>
@@ -51951,7 +52125,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="864" spans="1:21">
+    <row r="864" spans="1:28">
       <c r="A864">
         <v>45</v>
       </c>
@@ -52699,7 +52873,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="881" spans="1:21">
+    <row r="881" spans="1:28">
       <c r="A881">
         <v>62</v>
       </c>
@@ -52743,7 +52917,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="882" spans="1:21">
+    <row r="882" spans="1:28">
       <c r="A882">
         <v>63</v>
       </c>
@@ -52787,7 +52961,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="883" spans="1:21">
+    <row r="883" spans="1:28">
       <c r="A883">
         <v>64</v>
       </c>
@@ -52831,7 +53005,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="884" spans="1:21">
+    <row r="884" spans="1:28">
       <c r="A884">
         <v>65</v>
       </c>
@@ -52875,7 +53049,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="885" spans="1:21">
+    <row r="885" spans="1:28">
       <c r="A885">
         <v>66</v>
       </c>
@@ -52919,7 +53093,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="886" spans="1:21">
+    <row r="886" spans="1:28">
       <c r="A886">
         <v>67</v>
       </c>
@@ -52963,7 +53137,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="887" spans="1:21">
+    <row r="887" spans="1:28">
       <c r="A887">
         <v>68</v>
       </c>
@@ -53007,7 +53181,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="888" spans="1:21">
+    <row r="888" spans="1:28">
       <c r="A888">
         <v>69</v>
       </c>
@@ -53051,7 +53225,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="889" spans="1:21">
+    <row r="889" spans="1:28">
       <c r="A889">
         <v>70</v>
       </c>
@@ -53095,7 +53269,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="890" spans="1:21">
+    <row r="890" spans="1:28">
       <c r="A890">
         <v>71</v>
       </c>
@@ -53139,7 +53313,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="891" spans="1:21">
+    <row r="891" spans="1:28">
       <c r="A891">
         <v>72</v>
       </c>
@@ -53183,7 +53357,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="892" spans="1:21">
+    <row r="892" spans="1:28">
       <c r="A892">
         <v>73</v>
       </c>
@@ -53227,7 +53401,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="893" spans="1:21">
+    <row r="893" spans="1:28">
       <c r="A893">
         <v>74</v>
       </c>
@@ -53271,7 +53445,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="894" spans="1:21">
+    <row r="894" spans="1:28">
       <c r="A894">
         <v>75</v>
       </c>
@@ -53311,11 +53485,36 @@
       <c r="N894" s="31">
         <v>5.7439999999999998</v>
       </c>
+      <c r="T894" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U894" s="4" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="895" spans="1:21">
+      <c r="V894" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W894" s="7">
+        <f>V894-H894</f>
+        <v>31</v>
+      </c>
+      <c r="X894" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y894" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z894" s="4">
+        <v>31</v>
+      </c>
+      <c r="AA894" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB894" s="53">
+        <v>0.10486111111111111</v>
+      </c>
+    </row>
+    <row r="895" spans="1:28">
       <c r="A895">
         <v>76</v>
       </c>
@@ -53353,7 +53552,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="896" spans="1:21">
+    <row r="896" spans="1:28">
       <c r="A896">
         <v>77</v>
       </c>
@@ -54817,7 +55016,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="929" spans="1:21">
+    <row r="929" spans="1:28">
       <c r="A929">
         <v>33</v>
       </c>
@@ -54861,7 +55060,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="930" spans="1:21">
+    <row r="930" spans="1:28">
       <c r="A930">
         <v>34</v>
       </c>
@@ -54905,7 +55104,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="931" spans="1:21">
+    <row r="931" spans="1:28">
       <c r="A931">
         <v>35</v>
       </c>
@@ -54949,7 +55148,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="932" spans="1:21">
+    <row r="932" spans="1:28">
       <c r="A932">
         <v>36</v>
       </c>
@@ -54993,7 +55192,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="933" spans="1:21">
+    <row r="933" spans="1:28">
       <c r="A933">
         <v>37</v>
       </c>
@@ -55037,7 +55236,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="934" spans="1:21">
+    <row r="934" spans="1:28">
       <c r="A934">
         <v>38</v>
       </c>
@@ -55081,7 +55280,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="935" spans="1:21">
+    <row r="935" spans="1:28">
       <c r="A935">
         <v>39</v>
       </c>
@@ -55125,7 +55324,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="936" spans="1:21">
+    <row r="936" spans="1:28">
       <c r="A936">
         <v>40</v>
       </c>
@@ -55169,7 +55368,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="937" spans="1:21">
+    <row r="937" spans="1:28">
       <c r="A937">
         <v>41</v>
       </c>
@@ -55213,7 +55412,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="938" spans="1:21">
+    <row r="938" spans="1:28">
       <c r="A938">
         <v>42</v>
       </c>
@@ -55257,7 +55456,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="939" spans="1:21">
+    <row r="939" spans="1:28">
       <c r="A939">
         <v>43</v>
       </c>
@@ -55297,11 +55496,36 @@
       <c r="N939">
         <v>6.3710000000000004</v>
       </c>
+      <c r="T939" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U939" s="4" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="940" spans="1:21">
+      <c r="V939" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W939" s="7">
+        <f>V939-H939</f>
+        <v>31</v>
+      </c>
+      <c r="X939" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y939" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z939" s="4">
+        <v>15</v>
+      </c>
+      <c r="AA939" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB939" s="53">
+        <v>0.10486111111111111</v>
+      </c>
+    </row>
+    <row r="940" spans="1:28">
       <c r="A940">
         <v>44</v>
       </c>
@@ -55345,7 +55569,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="941" spans="1:21">
+    <row r="941" spans="1:28">
       <c r="A941">
         <v>45</v>
       </c>
@@ -55389,7 +55613,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="942" spans="1:21">
+    <row r="942" spans="1:28">
       <c r="A942">
         <v>46</v>
       </c>
@@ -55433,7 +55657,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="943" spans="1:21">
+    <row r="943" spans="1:28">
       <c r="A943">
         <v>47</v>
       </c>
@@ -55477,7 +55701,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="944" spans="1:21">
+    <row r="944" spans="1:28">
       <c r="A944">
         <v>48</v>
       </c>
@@ -61866,7 +62090,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="1089" spans="1:21">
+    <row r="1089" spans="1:28">
       <c r="A1089">
         <v>42</v>
       </c>
@@ -61910,7 +62134,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="1090" spans="1:21">
+    <row r="1090" spans="1:28">
       <c r="A1090">
         <v>43</v>
       </c>
@@ -61954,7 +62178,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="1091" spans="1:21">
+    <row r="1091" spans="1:28">
       <c r="A1091">
         <v>44</v>
       </c>
@@ -61998,7 +62222,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="1092" spans="1:21">
+    <row r="1092" spans="1:28">
       <c r="A1092">
         <v>45</v>
       </c>
@@ -62042,7 +62266,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="1093" spans="1:21">
+    <row r="1093" spans="1:28">
       <c r="A1093">
         <v>46</v>
       </c>
@@ -62086,7 +62310,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="1094" spans="1:21">
+    <row r="1094" spans="1:28">
       <c r="A1094">
         <v>47</v>
       </c>
@@ -62130,7 +62354,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="1095" spans="1:21">
+    <row r="1095" spans="1:28">
       <c r="A1095">
         <v>48</v>
       </c>
@@ -62174,7 +62398,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="1096" spans="1:21">
+    <row r="1096" spans="1:28">
       <c r="A1096">
         <v>49</v>
       </c>
@@ -62218,7 +62442,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="1097" spans="1:21">
+    <row r="1097" spans="1:28">
       <c r="A1097">
         <v>50</v>
       </c>
@@ -62258,11 +62482,36 @@
       <c r="N1097">
         <v>7.5339999999999998</v>
       </c>
+      <c r="T1097" s="4" t="s">
+        <v>1742</v>
+      </c>
       <c r="U1097" s="4" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="1098" spans="1:21">
+      <c r="V1097" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1097" s="7">
+        <f>V1097-H1097</f>
+        <v>30</v>
+      </c>
+      <c r="X1097" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="Y1097" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z1097" s="4">
+        <v>29</v>
+      </c>
+      <c r="AA1097" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1097" s="53">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:28">
       <c r="A1098">
         <v>51</v>
       </c>
@@ -62309,7 +62558,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="1099" spans="1:21">
+    <row r="1099" spans="1:28">
       <c r="A1099">
         <v>52</v>
       </c>
@@ -62356,7 +62605,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1100" spans="1:21">
+    <row r="1100" spans="1:28">
       <c r="A1100">
         <v>53</v>
       </c>
@@ -62400,7 +62649,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="1101" spans="1:21">
+    <row r="1101" spans="1:28">
       <c r="A1101">
         <v>54</v>
       </c>
@@ -62444,7 +62693,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="1102" spans="1:21">
+    <row r="1102" spans="1:28">
       <c r="A1102">
         <v>55</v>
       </c>
@@ -62488,7 +62737,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="1103" spans="1:21">
+    <row r="1103" spans="1:28">
       <c r="A1103">
         <v>56</v>
       </c>
@@ -62532,7 +62781,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1104" spans="1:21">
+    <row r="1104" spans="1:28">
       <c r="A1104">
         <v>57</v>
       </c>
@@ -83746,6 +83995,1387 @@
         <v>35</v>
       </c>
       <c r="J1631" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:10">
+      <c r="A1632">
+        <v>1</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1632">
+        <v>8.7859999999999996</v>
+      </c>
+      <c r="E1632" s="8">
+        <v>0.61249999999999993</v>
+      </c>
+      <c r="G1632" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1632" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1632" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1632" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:19">
+      <c r="A1633">
+        <v>2</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1633">
+        <v>7.6639999999999997</v>
+      </c>
+      <c r="G1633" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1633" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1633" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1633" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:19">
+      <c r="A1634">
+        <v>3</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1634">
+        <v>10.573</v>
+      </c>
+      <c r="G1634" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1634" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1634" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1634" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:19">
+      <c r="A1635">
+        <v>4</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1635">
+        <v>8.2769999999999992</v>
+      </c>
+      <c r="G1635" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1635" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1635" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1635" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:19">
+      <c r="A1636">
+        <v>5</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1636">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="G1636" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1636" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1636" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1636" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:19">
+      <c r="A1637">
+        <v>6</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1637">
+        <v>5.1760000000000002</v>
+      </c>
+      <c r="G1637" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1637" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1637" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1637" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:19">
+      <c r="A1638">
+        <v>7</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1638">
+        <v>9.3460000000000001</v>
+      </c>
+      <c r="G1638" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1638" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1638" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1638" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:19">
+      <c r="A1639">
+        <v>8</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1639">
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="G1639" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1639" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1639" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1639" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:19">
+      <c r="A1640">
+        <v>9</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1640">
+        <v>10.725</v>
+      </c>
+      <c r="G1640" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1640" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1640" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1640" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:19">
+      <c r="A1641">
+        <v>10</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1641">
+        <v>8.8460000000000001</v>
+      </c>
+      <c r="G1641" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1641" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1641" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1641" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1641" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:19">
+      <c r="A1642">
+        <v>11</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1642">
+        <v>5.6630000000000003</v>
+      </c>
+      <c r="G1642" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1642" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1642" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1642" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:19">
+      <c r="A1643">
+        <v>12</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1643">
+        <v>8.3569999999999993</v>
+      </c>
+      <c r="G1643" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1643" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1643" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1643" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:19">
+      <c r="A1644">
+        <v>13</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1644">
+        <v>9.1029999999999998</v>
+      </c>
+      <c r="G1644" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1644" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1644" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1644" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:19">
+      <c r="A1645">
+        <v>14</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1645">
+        <v>7.367</v>
+      </c>
+      <c r="G1645" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1645" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1645" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1645" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:19">
+      <c r="A1646">
+        <v>15</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1646">
+        <v>10.986000000000001</v>
+      </c>
+      <c r="G1646" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1646" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1646" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1646" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:19">
+      <c r="A1647">
+        <v>16</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1647">
+        <v>7.9169999999999998</v>
+      </c>
+      <c r="G1647" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1647" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1647" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1647" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:19">
+      <c r="A1648">
+        <v>17</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1648">
+        <v>5.87</v>
+      </c>
+      <c r="G1648" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1648" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1648" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1648" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:10">
+      <c r="A1649">
+        <v>18</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1649">
+        <v>8.766</v>
+      </c>
+      <c r="G1649" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1649" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1649" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1649" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:10">
+      <c r="A1650">
+        <v>19</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1650">
+        <v>10.250999999999999</v>
+      </c>
+      <c r="G1650" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1650" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1650" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1650" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:10">
+      <c r="A1651">
+        <v>20</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1651">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G1651" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1651" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1651" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1651" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:10">
+      <c r="A1652">
+        <v>21</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1652">
+        <v>12.022</v>
+      </c>
+      <c r="G1652" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1652" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1652" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1652" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:10">
+      <c r="A1653">
+        <v>22</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1653">
+        <v>5.3120000000000003</v>
+      </c>
+      <c r="G1653" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1653" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1653" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1653" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:10">
+      <c r="A1654">
+        <v>23</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1654">
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="G1654" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1654" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1654" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1654" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:10">
+      <c r="A1655">
+        <v>24</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1655">
+        <v>7.4379999999999997</v>
+      </c>
+      <c r="G1655" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1655" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1655" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1655" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:10">
+      <c r="A1656">
+        <v>25</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1656" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1656" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1656" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1656" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:10">
+      <c r="A1657">
+        <v>26</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1657" s="8">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="G1657" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1657" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1657" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1657" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:10">
+      <c r="A1658">
+        <v>1</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1658">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="E1658" s="8">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="G1658" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1658" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1658" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1658" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:10">
+      <c r="A1659">
+        <v>2</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1659">
+        <v>11.734</v>
+      </c>
+      <c r="G1659" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1659" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1659" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1659" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:10">
+      <c r="A1660">
+        <v>3</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1660">
+        <v>7.2850000000000001</v>
+      </c>
+      <c r="G1660" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1660" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1660" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1660" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:10">
+      <c r="A1661">
+        <v>4</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1661">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="G1661" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1661" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1661" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1661" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:10">
+      <c r="A1662">
+        <v>5</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1662">
+        <v>12.79</v>
+      </c>
+      <c r="G1662" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1662" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1662" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1662" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:10">
+      <c r="A1663">
+        <v>6</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1663">
+        <v>7.7050000000000001</v>
+      </c>
+      <c r="G1663" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1663" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1663" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1663" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:10">
+      <c r="A1664">
+        <v>7</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1664">
+        <v>11.984</v>
+      </c>
+      <c r="G1664" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1664" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1664" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1664" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:10">
+      <c r="A1665">
+        <v>8</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1665">
+        <v>7.7649999999999997</v>
+      </c>
+      <c r="G1665" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1665" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1665" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1665" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:10">
+      <c r="A1666">
+        <v>9</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1666">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="G1666" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1666" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1666" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1666" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:10">
+      <c r="A1667">
+        <v>10</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1667">
+        <v>6.4</v>
+      </c>
+      <c r="G1667" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1667" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1667" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1667" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:10">
+      <c r="A1668">
+        <v>11</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1668">
+        <v>8.8650000000000002</v>
+      </c>
+      <c r="G1668" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1668" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1668" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1668" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:10">
+      <c r="A1669">
+        <v>12</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1669">
+        <v>10.105</v>
+      </c>
+      <c r="G1669" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1669" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1669" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1669" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:10">
+      <c r="A1670">
+        <v>13</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1670">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="G1670" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1670" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1670" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1670" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:10">
+      <c r="A1671">
+        <v>14</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1671">
+        <v>12.52</v>
+      </c>
+      <c r="G1671" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1671" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1671" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1671" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:10">
+      <c r="A1672">
+        <v>15</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1672">
+        <v>6.8410000000000002</v>
+      </c>
+      <c r="G1672" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1672" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1672" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1672" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:10">
+      <c r="A1673">
+        <v>16</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1673">
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="G1673" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1673" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1673" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1673" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:10">
+      <c r="A1674">
+        <v>17</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1674">
+        <v>8.0530000000000008</v>
+      </c>
+      <c r="G1674" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1674" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1674" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1674" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:10">
+      <c r="A1675">
+        <v>18</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1675">
+        <v>10.236000000000001</v>
+      </c>
+      <c r="G1675" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1675" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1675" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1675" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:10">
+      <c r="A1676">
+        <v>19</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1676">
+        <v>7.1470000000000002</v>
+      </c>
+      <c r="G1676" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1676" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1676" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1676" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:10">
+      <c r="A1677">
+        <v>20</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1677">
+        <v>11.042</v>
+      </c>
+      <c r="G1677" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1677" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1677" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1677" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:10">
+      <c r="A1678">
+        <v>21</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1678">
+        <v>8.6890000000000001</v>
+      </c>
+      <c r="G1678" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1678" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1678" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1678" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:10">
+      <c r="A1679">
+        <v>22</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1679">
+        <v>11.76</v>
+      </c>
+      <c r="G1679" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1679" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1679" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1679" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:10">
+      <c r="A1680">
+        <v>23</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1680">
+        <v>5.3710000000000004</v>
+      </c>
+      <c r="G1680" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1680" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1680" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1680" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:10">
+      <c r="A1681">
+        <v>24</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1681">
+        <v>7.4809999999999999</v>
+      </c>
+      <c r="G1681" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1681" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1681" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1681" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:10">
+      <c r="A1682">
+        <v>25</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1682">
+        <v>10.121</v>
+      </c>
+      <c r="G1682" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1682" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1682" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1682" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:10">
+      <c r="A1683">
+        <v>26</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1683" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1683" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1683" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1683" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:10">
+      <c r="A1684">
+        <v>27</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1684" s="8">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="G1684" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1684" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1684" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1684" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="24740" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="22220" yWindow="3800" windowWidth="24740" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -11799,8 +11799,8 @@
   <dimension ref="A1:AE1684"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1684" sqref="I1684"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -83611,7 +83611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1617" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1617">
         <v>14</v>
       </c>
@@ -83637,7 +83637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1618" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1618">
         <v>15</v>
       </c>
@@ -83663,7 +83663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1619" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1619">
         <v>16</v>
       </c>
@@ -83689,7 +83689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1620" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1620">
         <v>17</v>
       </c>
@@ -83715,7 +83715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1621" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1621">
         <v>18</v>
       </c>
@@ -83741,7 +83741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1622" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1622">
         <v>19</v>
       </c>
@@ -83767,7 +83767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1623" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1623">
         <v>20</v>
       </c>
@@ -83793,7 +83793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1624" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1624">
         <v>21</v>
       </c>
@@ -83819,7 +83819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1625" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1625">
         <v>22</v>
       </c>
@@ -83845,7 +83845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1626" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1626">
         <v>23</v>
       </c>
@@ -83871,7 +83871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1627" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1627">
         <v>24</v>
       </c>
@@ -83897,7 +83897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1628" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1628">
         <v>25</v>
       </c>
@@ -83923,7 +83923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1629" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1629">
         <v>26</v>
       </c>
@@ -83949,7 +83949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1630" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1630">
         <v>27</v>
       </c>
@@ -83972,33 +83972,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1631">
+    <row r="1631" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1631" s="37">
         <v>28</v>
       </c>
-      <c r="B1631" t="s">
+      <c r="B1631" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C1631" t="s">
+      <c r="C1631" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E1631" s="8">
+      <c r="E1631" s="38">
         <v>0.49444444444444446</v>
       </c>
-      <c r="G1631" s="1" t="s">
+      <c r="G1631" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="H1631" s="1" t="s">
+      <c r="H1631" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="I1631" s="7" t="s">
+      <c r="I1631" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J1631" s="1" t="s">
+      <c r="J1631" s="39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="T1631" s="58"/>
+      <c r="U1631" s="58"/>
+      <c r="V1631" s="59"/>
+      <c r="W1631" s="58"/>
+      <c r="X1631" s="58"/>
+      <c r="Y1631" s="58"/>
+      <c r="Z1631" s="58"/>
+      <c r="AA1631" s="58"/>
+      <c r="AB1631" s="58"/>
+      <c r="AC1631" s="59"/>
+      <c r="AD1631" s="58"/>
+    </row>
+    <row r="1632" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1632">
         <v>1</v>
       </c>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="3800" windowWidth="37140" windowHeight="22760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="53900" yWindow="260" windowWidth="34880" windowHeight="18820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14186" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14428" uniqueCount="1748">
   <si>
     <t>Site</t>
   </si>
@@ -5324,7 +5324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5346,6 +5346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5826,7 +5832,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5958,6 +5964,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="447">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6686,8 +6704,8 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView showRuler="0" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11145,47 +11163,47 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="14" t="s">
+    <row r="111" spans="1:14" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="F111" s="28" t="s">
+      <c r="F111" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="G111" s="4">
+      <c r="G111" s="68">
         <v>1</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H111" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I111" s="68">
         <v>45</v>
       </c>
-      <c r="J111" s="15" t="s">
+      <c r="J111" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="K111" s="15" t="s">
+      <c r="K111" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="L111" s="15" t="s">
+      <c r="L111" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="M111" s="15" t="s">
+      <c r="M111" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="N111" s="14" t="s">
+      <c r="N111" s="65" t="s">
         <v>157</v>
       </c>
     </row>
@@ -11774,8 +11792,8 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I127" s="4">
-        <f>SUM(I106:I112)</f>
-        <v>416</v>
+        <f>SUM(I108:I118)</f>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -11799,11 +11817,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1834"/>
+  <dimension ref="A1:AE1874"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1577" sqref="C1577"/>
+      <pane ySplit="1" topLeftCell="A1775" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1803" sqref="F1803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81406,7 +81424,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="1537" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1537">
         <v>32</v>
       </c>
@@ -81434,8 +81452,11 @@
       <c r="K1537">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1538" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S1537" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1538">
         <v>33</v>
       </c>
@@ -81464,7 +81485,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="1539" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1539">
         <v>34</v>
       </c>
@@ -81490,7 +81511,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="1540" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1540">
         <v>35</v>
       </c>
@@ -81519,7 +81540,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="1541" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1541">
         <v>1</v>
       </c>
@@ -81551,7 +81572,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1542" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1542">
         <v>2</v>
       </c>
@@ -81580,7 +81601,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1543" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1543">
         <v>3</v>
       </c>
@@ -81609,7 +81630,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1544" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1544">
         <v>4</v>
       </c>
@@ -81638,7 +81659,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1545">
         <v>5</v>
       </c>
@@ -81667,7 +81688,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1546">
         <v>6</v>
       </c>
@@ -81696,7 +81717,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1547">
         <v>7</v>
       </c>
@@ -81725,7 +81746,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1548">
         <v>8</v>
       </c>
@@ -81754,7 +81775,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1549">
         <v>9</v>
       </c>
@@ -81783,7 +81804,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1550">
         <v>10</v>
       </c>
@@ -81812,7 +81833,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1551">
         <v>11</v>
       </c>
@@ -81841,7 +81862,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1552">
         <v>12</v>
       </c>
@@ -81870,7 +81891,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1553">
         <v>13</v>
       </c>
@@ -81899,7 +81920,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1554">
         <v>14</v>
       </c>
@@ -81928,7 +81949,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1555">
         <v>15</v>
       </c>
@@ -81957,7 +81978,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1556">
         <v>16</v>
       </c>
@@ -81986,7 +82007,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1557">
         <v>17</v>
       </c>
@@ -82015,7 +82036,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1558">
         <v>18</v>
       </c>
@@ -82043,8 +82064,11 @@
       <c r="K1558">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1559" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S1558" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1559">
         <v>19</v>
       </c>
@@ -82073,7 +82097,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1560">
         <v>20</v>
       </c>
@@ -82102,7 +82126,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1561">
         <v>21</v>
       </c>
@@ -82131,7 +82155,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1562">
         <v>22</v>
       </c>
@@ -82160,7 +82184,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1563" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1563">
         <v>23</v>
       </c>
@@ -82189,7 +82213,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1564">
         <v>24</v>
       </c>
@@ -82218,7 +82242,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1565">
         <v>25</v>
       </c>
@@ -82247,7 +82271,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1566">
         <v>26</v>
       </c>
@@ -82276,7 +82300,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1567">
         <v>27</v>
       </c>
@@ -82305,7 +82329,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="1568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1568">
         <v>28</v>
       </c>
@@ -82573,6 +82597,9 @@
       <c r="J1576" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1576" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1577" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1577">
@@ -82599,6 +82626,9 @@
       <c r="J1577" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1577" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1578" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1578">
@@ -82625,6 +82655,9 @@
       <c r="J1578" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1578" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1579" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1579">
@@ -82650,6 +82683,9 @@
       </c>
       <c r="J1579" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1579" s="31">
+        <v>7000</v>
       </c>
     </row>
     <row r="1580" spans="1:30" x14ac:dyDescent="0.2">
@@ -82677,6 +82713,9 @@
       <c r="J1580" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1580" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1581" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1581">
@@ -82702,6 +82741,9 @@
       </c>
       <c r="J1581" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1581" s="31">
+        <v>7000</v>
       </c>
     </row>
     <row r="1582" spans="1:30" x14ac:dyDescent="0.2">
@@ -82729,6 +82771,9 @@
       <c r="J1582" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1582" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1583" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1583">
@@ -82755,6 +82800,9 @@
       <c r="J1583" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1583" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1584" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1584">
@@ -82781,8 +82829,11 @@
       <c r="J1584" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1584" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1585">
         <v>10</v>
       </c>
@@ -82807,8 +82858,11 @@
       <c r="J1585" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1585" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1586">
         <v>11</v>
       </c>
@@ -82833,8 +82887,11 @@
       <c r="J1586" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1586" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1587">
         <v>12</v>
       </c>
@@ -82859,8 +82916,11 @@
       <c r="J1587" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1587" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1588">
         <v>13</v>
       </c>
@@ -82885,8 +82945,11 @@
       <c r="J1588" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1588" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1589">
         <v>14</v>
       </c>
@@ -82911,8 +82974,11 @@
       <c r="J1589" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1589" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1590">
         <v>15</v>
       </c>
@@ -82937,8 +83003,11 @@
       <c r="J1590" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1590" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1591">
         <v>16</v>
       </c>
@@ -82963,8 +83032,11 @@
       <c r="J1591" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1591" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1592">
         <v>17</v>
       </c>
@@ -82989,8 +83061,11 @@
       <c r="J1592" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1592" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1593">
         <v>18</v>
       </c>
@@ -83015,8 +83090,11 @@
       <c r="J1593" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1593" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1594">
         <v>19</v>
       </c>
@@ -83041,8 +83119,11 @@
       <c r="J1594" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1594" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1595">
         <v>20</v>
       </c>
@@ -83067,8 +83148,11 @@
       <c r="J1595" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1595" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1596">
         <v>21</v>
       </c>
@@ -83093,8 +83177,11 @@
       <c r="J1596" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1596" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1597">
         <v>22</v>
       </c>
@@ -83119,8 +83206,11 @@
       <c r="J1597" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1597" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1598">
         <v>23</v>
       </c>
@@ -83145,8 +83235,11 @@
       <c r="J1598" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1598" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1599">
         <v>24</v>
       </c>
@@ -83171,8 +83264,11 @@
       <c r="J1599" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1599" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1600">
         <v>25</v>
       </c>
@@ -83197,8 +83293,11 @@
       <c r="J1600" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1600" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1601">
         <v>26</v>
       </c>
@@ -83223,8 +83322,11 @@
       <c r="J1601" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1601" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1602">
         <v>27</v>
       </c>
@@ -83246,8 +83348,11 @@
       <c r="J1602" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1602" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1603">
         <v>28</v>
       </c>
@@ -83272,8 +83377,11 @@
       <c r="J1603" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1603" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1604">
         <v>1</v>
       </c>
@@ -83301,8 +83409,11 @@
       <c r="J1604" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1604">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1605">
         <v>2</v>
       </c>
@@ -83327,8 +83438,11 @@
       <c r="J1605" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1605">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1606">
         <v>3</v>
       </c>
@@ -83353,8 +83467,11 @@
       <c r="J1606" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1606">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1607">
         <v>4</v>
       </c>
@@ -83379,8 +83496,11 @@
       <c r="J1607" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1607">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1608">
         <v>5</v>
       </c>
@@ -83405,8 +83525,11 @@
       <c r="J1608" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1608">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1609">
         <v>6</v>
       </c>
@@ -83431,8 +83554,11 @@
       <c r="J1609" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1609">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1610">
         <v>7</v>
       </c>
@@ -83457,8 +83583,11 @@
       <c r="J1610" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1610">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1611">
         <v>8</v>
       </c>
@@ -83483,8 +83612,11 @@
       <c r="J1611" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1611">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1612">
         <v>9</v>
       </c>
@@ -83509,8 +83641,11 @@
       <c r="J1612" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1612">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1613">
         <v>10</v>
       </c>
@@ -83535,8 +83670,11 @@
       <c r="J1613" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1613">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1614">
         <v>11</v>
       </c>
@@ -83561,8 +83699,11 @@
       <c r="J1614" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1614">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1615">
         <v>12</v>
       </c>
@@ -83587,8 +83728,11 @@
       <c r="J1615" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1615">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1616">
         <v>13</v>
       </c>
@@ -83612,6 +83756,9 @@
       </c>
       <c r="J1616" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1616">
+        <v>6262</v>
       </c>
     </row>
     <row r="1617" spans="1:30" x14ac:dyDescent="0.2">
@@ -83639,6 +83786,9 @@
       <c r="J1617" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1617">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1618" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1618">
@@ -83665,6 +83815,9 @@
       <c r="J1618" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1618">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1619" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1619">
@@ -83691,6 +83844,9 @@
       <c r="J1619" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1619">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1620" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1620">
@@ -83717,6 +83873,9 @@
       <c r="J1620" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1620">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1621" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1621">
@@ -83743,6 +83902,9 @@
       <c r="J1621" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1621">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1622" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1622">
@@ -83769,6 +83931,9 @@
       <c r="J1622" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1622">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1623" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1623">
@@ -83795,6 +83960,9 @@
       <c r="J1623" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1623">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1624" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1624">
@@ -83821,6 +83989,9 @@
       <c r="J1624" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1624">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1625" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1625">
@@ -83847,6 +84018,9 @@
       <c r="J1625" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1625">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1626" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1626">
@@ -83873,6 +84047,9 @@
       <c r="J1626" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1626">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1627" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1627">
@@ -83899,6 +84076,9 @@
       <c r="J1627" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1627">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1628" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1628">
@@ -83925,6 +84105,9 @@
       <c r="J1628" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1628">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1629" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1629">
@@ -83951,6 +84134,9 @@
       <c r="J1629" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1629">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1630" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1630">
@@ -83974,6 +84160,9 @@
       <c r="J1630" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1630">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1631" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1631" s="37">
@@ -83999,6 +84188,9 @@
       </c>
       <c r="J1631" s="39" t="s">
         <v>15</v>
+      </c>
+      <c r="K1631">
+        <v>6262</v>
       </c>
       <c r="T1631" s="58"/>
       <c r="U1631" s="58"/>
@@ -84040,6 +84232,9 @@
       <c r="J1632" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1632">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1633" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1633">
@@ -84066,6 +84261,9 @@
       <c r="J1633" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1633">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1634" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1634">
@@ -84092,6 +84290,9 @@
       <c r="J1634" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1634">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1635" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1635">
@@ -84117,6 +84318,9 @@
       </c>
       <c r="J1635" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1635">
+        <v>7000</v>
       </c>
     </row>
     <row r="1636" spans="1:19" x14ac:dyDescent="0.2">
@@ -84144,6 +84348,9 @@
       <c r="J1636" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1636">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1637" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1637">
@@ -84169,6 +84376,9 @@
       </c>
       <c r="J1637" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1637">
+        <v>7000</v>
       </c>
     </row>
     <row r="1638" spans="1:19" x14ac:dyDescent="0.2">
@@ -84196,6 +84406,9 @@
       <c r="J1638" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1638">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1639" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1639">
@@ -84222,6 +84435,9 @@
       <c r="J1639" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1639">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1640" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1640">
@@ -84248,6 +84464,9 @@
       <c r="J1640" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1640">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1641" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1641">
@@ -84274,6 +84493,9 @@
       <c r="J1641" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1641">
+        <v>7000</v>
+      </c>
       <c r="S1641" t="s">
         <v>1747</v>
       </c>
@@ -84303,6 +84525,9 @@
       <c r="J1642" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1642">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1643" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1643">
@@ -84329,6 +84554,9 @@
       <c r="J1643" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1643">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1644" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1644">
@@ -84355,6 +84583,9 @@
       <c r="J1644" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1644">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1645" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1645">
@@ -84381,6 +84612,9 @@
       <c r="J1645" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1645">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1646" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1646">
@@ -84407,6 +84641,9 @@
       <c r="J1646" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1646">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1647" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1647">
@@ -84433,6 +84670,9 @@
       <c r="J1647" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1647">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1648" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1648">
@@ -84459,8 +84699,11 @@
       <c r="J1648" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1648">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1649">
         <v>18</v>
       </c>
@@ -84485,8 +84728,11 @@
       <c r="J1649" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1649">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1650">
         <v>19</v>
       </c>
@@ -84511,8 +84757,11 @@
       <c r="J1650" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1650">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1651">
         <v>20</v>
       </c>
@@ -84537,8 +84786,11 @@
       <c r="J1651" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1651">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1652">
         <v>21</v>
       </c>
@@ -84563,8 +84815,11 @@
       <c r="J1652" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1652">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1653">
         <v>22</v>
       </c>
@@ -84589,8 +84844,11 @@
       <c r="J1653" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1653">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1654">
         <v>23</v>
       </c>
@@ -84615,8 +84873,11 @@
       <c r="J1654" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1654">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1655">
         <v>24</v>
       </c>
@@ -84641,8 +84902,11 @@
       <c r="J1655" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1655">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1656">
         <v>25</v>
       </c>
@@ -84664,8 +84928,11 @@
       <c r="J1656" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1656">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1657">
         <v>26</v>
       </c>
@@ -84690,8 +84957,11 @@
       <c r="J1657" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1657">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1658">
         <v>1</v>
       </c>
@@ -84719,8 +84989,11 @@
       <c r="J1658" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1658">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1659">
         <v>2</v>
       </c>
@@ -84745,8 +85018,11 @@
       <c r="J1659" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1659">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1660">
         <v>3</v>
       </c>
@@ -84771,8 +85047,11 @@
       <c r="J1660" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1660">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1661">
         <v>4</v>
       </c>
@@ -84797,8 +85076,11 @@
       <c r="J1661" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1661">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1662">
         <v>5</v>
       </c>
@@ -84823,8 +85105,11 @@
       <c r="J1662" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1662">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1663">
         <v>6</v>
       </c>
@@ -84849,8 +85134,11 @@
       <c r="J1663" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1663">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1664">
         <v>7</v>
       </c>
@@ -84875,8 +85163,11 @@
       <c r="J1664" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1664">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1665">
         <v>8</v>
       </c>
@@ -84901,8 +85192,11 @@
       <c r="J1665" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1665">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1666">
         <v>9</v>
       </c>
@@ -84927,8 +85221,11 @@
       <c r="J1666" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1666">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1667">
         <v>10</v>
       </c>
@@ -84953,8 +85250,11 @@
       <c r="J1667" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1667">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1668">
         <v>11</v>
       </c>
@@ -84979,8 +85279,11 @@
       <c r="J1668" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1668">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1669">
         <v>12</v>
       </c>
@@ -85005,8 +85308,11 @@
       <c r="J1669" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1669">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1670">
         <v>13</v>
       </c>
@@ -85031,8 +85337,11 @@
       <c r="J1670" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1670">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1671">
         <v>14</v>
       </c>
@@ -85057,8 +85366,11 @@
       <c r="J1671" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1671">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1672">
         <v>15</v>
       </c>
@@ -85083,8 +85395,11 @@
       <c r="J1672" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1672">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1673">
         <v>16</v>
       </c>
@@ -85109,8 +85424,11 @@
       <c r="J1673" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1673">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1674">
         <v>17</v>
       </c>
@@ -85135,8 +85453,11 @@
       <c r="J1674" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1674">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1675">
         <v>18</v>
       </c>
@@ -85161,8 +85482,11 @@
       <c r="J1675" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1675">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1676">
         <v>19</v>
       </c>
@@ -85187,8 +85511,11 @@
       <c r="J1676" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1676">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1677">
         <v>20</v>
       </c>
@@ -85213,8 +85540,11 @@
       <c r="J1677" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1677">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1678">
         <v>21</v>
       </c>
@@ -85239,8 +85569,11 @@
       <c r="J1678" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1678">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1679">
         <v>22</v>
       </c>
@@ -85265,8 +85598,11 @@
       <c r="J1679" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1679">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1680">
         <v>23</v>
       </c>
@@ -85290,6 +85626,9 @@
       </c>
       <c r="J1680" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1680">
+        <v>6262</v>
       </c>
     </row>
     <row r="1681" spans="1:11" x14ac:dyDescent="0.2">
@@ -85317,6 +85656,9 @@
       <c r="J1681" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1681">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1682">
@@ -85343,6 +85685,9 @@
       <c r="J1682" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1682">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1683">
@@ -85366,6 +85711,9 @@
       <c r="J1683" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1683">
+        <v>6262</v>
+      </c>
     </row>
     <row r="1684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1684">
@@ -85391,6 +85739,9 @@
       </c>
       <c r="J1684" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1684">
+        <v>6262</v>
       </c>
     </row>
     <row r="1685" spans="1:11" x14ac:dyDescent="0.2">
@@ -89748,7 +90099,927 @@
       </c>
     </row>
     <row r="1834" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J1834" s="1"/>
+      <c r="A1834">
+        <v>1</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1834" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1834" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1834" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1834" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1835">
+        <v>2</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1835" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1835" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1835" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1835" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1836">
+        <v>3</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1836" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1836" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1836" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1836" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1837">
+        <v>4</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1837" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1837" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1837" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1837" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1838">
+        <v>5</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1838" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1838" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1838" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1838" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1839">
+        <v>6</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1839" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1839" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1839" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1839" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1840">
+        <v>7</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1840" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1840" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1840" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1840" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1841">
+        <v>8</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1841" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1841" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1841" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1841" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1842">
+        <v>9</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1842" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1842" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1842" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1842" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1843">
+        <v>10</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1843" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1843" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1843" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1843" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1844">
+        <v>11</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1844" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1844" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1844" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1844" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1845">
+        <v>12</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1845" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1845" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1845" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1845" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1846">
+        <v>13</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1846" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1846" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1846" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1846" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1847">
+        <v>14</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1847" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1847" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1847" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1847" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1848">
+        <v>15</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1848" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1848" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1848" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1848" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1849">
+        <v>16</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1849" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1849" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1849" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1849" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1850">
+        <v>17</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1850" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1850" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1850" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1850" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1851">
+        <v>18</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1851" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1851" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1851" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1851" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1852">
+        <v>19</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1852" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1852" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1852" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1852" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1853">
+        <v>20</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1853" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1853" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1853" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1853" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1854">
+        <v>1</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1854" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1854" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1854" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1854" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1855">
+        <v>2</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1855" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1855" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1855" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1855" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1856">
+        <v>3</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1856" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1856" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1856" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1856" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1857">
+        <v>4</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1857" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1857" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1857" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1857" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1858">
+        <v>5</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1858" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1858" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1858" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1858" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1859">
+        <v>6</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1859" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1859" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1859" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1859" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1860">
+        <v>7</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1860" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1860" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1860" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1860" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1861">
+        <v>8</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1861" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1861" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1861" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1861" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1862">
+        <v>9</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1862" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1862" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1862" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1862" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1863">
+        <v>10</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1863" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1863" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1863" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1863" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1864">
+        <v>11</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1864" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1864" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1864" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1864" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1865">
+        <v>12</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1865" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1865" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1865" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1865" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1866">
+        <v>13</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1866" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1866" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1866" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1866" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1867">
+        <v>14</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1867" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1867" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1867" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1867" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1868">
+        <v>15</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1868" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1868" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1868" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1868" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1869">
+        <v>16</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1869" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1869" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1869" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1869" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1870">
+        <v>17</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1870" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1870" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1870" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1870" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1871">
+        <v>18</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1871" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1871" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1871" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1871" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1872">
+        <v>19</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1872" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1872" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1872" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1872" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1873">
+        <v>20</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1873" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1873" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1873" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1873" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1874" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1467"/>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="53900" yWindow="260" windowWidth="34880" windowHeight="18820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2240" yWindow="820" windowWidth="34880" windowHeight="18820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14428" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14520" uniqueCount="1760">
   <si>
     <t>Site</t>
   </si>
@@ -5279,6 +5279,42 @@
   </si>
   <si>
     <t>dirty syringe</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>escaped</t>
+  </si>
+  <si>
+    <t>Almost dead, but left in; dead</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -5383,8 +5419,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="447">
+  <cellStyleXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5977,7 +6017,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="447">
+  <cellStyles count="451">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6201,6 +6241,8 @@
     <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6424,6 +6466,8 @@
     <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11819,9 +11863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1874"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1775" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1803" sqref="F1803"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T220" sqref="T220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13142,8 +13186,32 @@
       <c r="Q23" s="17">
         <v>9.8500000000000004E-2</v>
       </c>
+      <c r="T23" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U23" s="4" t="s">
         <v>222</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="W23" s="4">
+        <v>45</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>14</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="53">
+        <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
@@ -13603,7 +13671,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -13654,7 +13722,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -13705,7 +13773,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -13752,11 +13820,35 @@
       <c r="Q35" s="17">
         <v>7.8299999999999995E-2</v>
       </c>
+      <c r="T35" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U35" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W35" s="4">
+        <v>43</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -13828,10 +13920,19 @@
         <v>1</v>
       </c>
       <c r="AB36" s="53">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD36" s="53">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -13882,7 +13983,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -13933,7 +14034,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -14005,7 +14106,7 @@
         <v>0.67222222222222217</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -14056,7 +14157,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -14107,7 +14208,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -14158,7 +14259,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -14209,7 +14310,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -14261,7 +14362,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -14306,7 +14407,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -14357,7 +14458,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -14408,7 +14509,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -16970,7 +17071,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -17024,7 +17125,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5</v>
       </c>
@@ -17075,7 +17176,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6</v>
       </c>
@@ -17152,8 +17253,17 @@
       <c r="AB99" s="53">
         <v>0.67222222222222217</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD99" s="53">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>7</v>
       </c>
@@ -17204,7 +17314,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -17255,7 +17365,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9</v>
       </c>
@@ -17309,7 +17419,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10</v>
       </c>
@@ -17360,7 +17470,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>11</v>
       </c>
@@ -17411,7 +17521,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12</v>
       </c>
@@ -17462,7 +17572,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>13</v>
       </c>
@@ -17513,7 +17623,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>14</v>
       </c>
@@ -17564,7 +17674,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>15</v>
       </c>
@@ -17615,7 +17725,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>16</v>
       </c>
@@ -17666,7 +17776,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>17</v>
       </c>
@@ -17717,7 +17827,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>18</v>
       </c>
@@ -17768,7 +17878,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>19</v>
       </c>
@@ -21262,6 +21372,27 @@
       </c>
       <c r="U179" s="4" t="s">
         <v>380</v>
+      </c>
+      <c r="V179" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W179" s="4">
+        <v>42</v>
+      </c>
+      <c r="X179" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y179" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z179" s="4">
+        <v>26</v>
+      </c>
+      <c r="AA179" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB179" s="53">
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.2">
@@ -23423,6 +23554,9 @@
       <c r="Q219">
         <v>0.96996369999999998</v>
       </c>
+      <c r="T219" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U219" s="4" t="s">
         <v>422</v>
       </c>
@@ -26294,6 +26428,15 @@
       <c r="AB272" s="53">
         <v>0.67222222222222217</v>
       </c>
+      <c r="AC272" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD272" s="53">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="AE272" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273">
@@ -29758,9 +29901,8 @@
       <c r="V341" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W341" s="7">
-        <f>V341-H341</f>
-        <v>34</v>
+      <c r="W341" s="7" t="s">
+        <v>1759</v>
       </c>
       <c r="X341" s="4" t="s">
         <v>1746</v>
@@ -29773,6 +29915,9 @@
       </c>
       <c r="AA341" s="4">
         <v>2</v>
+      </c>
+      <c r="AB341" s="53">
+        <v>0.4069444444444445</v>
       </c>
       <c r="AC341" s="7" t="s">
         <v>134</v>
@@ -39930,7 +40075,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="593" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>73</v>
       </c>
@@ -39998,7 +40143,7 @@
         <v>0.47430555555555554</v>
       </c>
     </row>
-    <row r="594" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>74</v>
       </c>
@@ -40042,7 +40187,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="595" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>75</v>
       </c>
@@ -40086,7 +40231,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="596" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>76</v>
       </c>
@@ -40130,7 +40275,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="597" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>77</v>
       </c>
@@ -40168,7 +40313,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="598" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>78</v>
       </c>
@@ -40212,7 +40357,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="599" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>1</v>
       </c>
@@ -40262,7 +40407,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="600" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>2</v>
       </c>
@@ -40306,7 +40451,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="601" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>3</v>
       </c>
@@ -40346,11 +40491,41 @@
       <c r="N601">
         <v>6.8860000000000001</v>
       </c>
+      <c r="T601" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U601" s="4" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="602" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V601" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W601" s="4">
+        <v>34</v>
+      </c>
+      <c r="X601" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="Y601" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z601" s="4">
+        <v>16</v>
+      </c>
+      <c r="AA601" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB601" s="53">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="AC601" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD601" s="53">
+        <v>0.39930555555555558</v>
+      </c>
+    </row>
+    <row r="602" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>4</v>
       </c>
@@ -40394,7 +40569,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="603" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>5</v>
       </c>
@@ -40438,7 +40613,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="604" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>6</v>
       </c>
@@ -40482,7 +40657,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="605" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>7</v>
       </c>
@@ -40526,7 +40701,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="606" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>8</v>
       </c>
@@ -40570,7 +40745,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="607" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>9</v>
       </c>
@@ -40614,7 +40789,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="608" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>10</v>
       </c>
@@ -41097,8 +41272,32 @@
       <c r="N618">
         <v>8.0150000000000006</v>
       </c>
+      <c r="T618" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U618" s="4" t="s">
         <v>836</v>
+      </c>
+      <c r="V618" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W618" s="4">
+        <v>34</v>
+      </c>
+      <c r="X618" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Y618" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z618" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA618" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB618" s="53">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="619" spans="1:28" x14ac:dyDescent="0.2">
@@ -49216,8 +49415,32 @@
       <c r="N798">
         <v>4.351</v>
       </c>
+      <c r="T798" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U798" s="4" t="s">
         <v>1016</v>
+      </c>
+      <c r="V798" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W798" s="4">
+        <v>35</v>
+      </c>
+      <c r="X798" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y798" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z798" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA798" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB798" s="53">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="799" spans="1:28" x14ac:dyDescent="0.2">
@@ -49260,8 +49483,32 @@
       <c r="N799">
         <v>7.1050000000000004</v>
       </c>
+      <c r="T799" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U799" s="4" t="s">
         <v>1017</v>
+      </c>
+      <c r="V799" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W799" s="4">
+        <v>35</v>
+      </c>
+      <c r="X799" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Y799" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z799" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA799" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB799" s="53">
+        <v>0.66736111111111107</v>
       </c>
     </row>
     <row r="800" spans="1:28" x14ac:dyDescent="0.2">
@@ -50757,7 +51004,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="833" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>14</v>
       </c>
@@ -50801,7 +51048,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="834" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>15</v>
       </c>
@@ -50845,7 +51092,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="835" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>16</v>
       </c>
@@ -50889,7 +51136,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="836" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>17</v>
       </c>
@@ -50933,7 +51180,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="837" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>18</v>
       </c>
@@ -50977,7 +51224,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="838" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>19</v>
       </c>
@@ -51021,7 +51268,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="839" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>20</v>
       </c>
@@ -51065,7 +51312,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="840" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>21</v>
       </c>
@@ -51105,11 +51352,35 @@
       <c r="N840" s="31">
         <v>3.4630000000000001</v>
       </c>
+      <c r="T840" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U840" s="4" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="841" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V840" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W840" s="4">
+        <v>36</v>
+      </c>
+      <c r="X840" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="Y840" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z840" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA840" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB840" s="53">
+        <v>0.66805555555555562</v>
+      </c>
+    </row>
+    <row r="841" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>22</v>
       </c>
@@ -51153,7 +51424,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="842" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>23</v>
       </c>
@@ -51197,7 +51468,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="843" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>24</v>
       </c>
@@ -51241,7 +51512,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="844" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>25</v>
       </c>
@@ -51285,7 +51556,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="845" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>26</v>
       </c>
@@ -51329,7 +51600,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="846" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>27</v>
       </c>
@@ -51373,7 +51644,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="847" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>28</v>
       </c>
@@ -51417,7 +51688,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="848" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>29</v>
       </c>
@@ -53532,7 +53803,7 @@
         <v>1</v>
       </c>
       <c r="AB894" s="53">
-        <v>0.10486111111111111</v>
+        <v>0.60486111111111118</v>
       </c>
     </row>
     <row r="895" spans="1:28" x14ac:dyDescent="0.2">
@@ -53617,7 +53888,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="897" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>1</v>
       </c>
@@ -53667,7 +53938,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="898" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>2</v>
       </c>
@@ -53711,7 +53982,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="899" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>3</v>
       </c>
@@ -53751,11 +54022,35 @@
       <c r="N899">
         <v>5.45</v>
       </c>
+      <c r="T899" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U899" s="4" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="900" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V899" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W899" s="4">
+        <v>33</v>
+      </c>
+      <c r="X899" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y899" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z899" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA899" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB899" s="53">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="900" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>4</v>
       </c>
@@ -53799,7 +54094,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="901" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>5</v>
       </c>
@@ -53843,7 +54138,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="902" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>6</v>
       </c>
@@ -53883,11 +54178,35 @@
       <c r="N902">
         <v>7.524</v>
       </c>
+      <c r="T902" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U902" s="4" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="903" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V902" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W902" s="4">
+        <v>35</v>
+      </c>
+      <c r="X902" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Y902" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z902" s="4">
+        <v>17</v>
+      </c>
+      <c r="AA902" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB902" s="53">
+        <v>0.4291666666666667</v>
+      </c>
+    </row>
+    <row r="903" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>7</v>
       </c>
@@ -53931,7 +54250,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="904" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>8</v>
       </c>
@@ -53975,7 +54294,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="905" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>9</v>
       </c>
@@ -54019,7 +54338,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="906" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>10</v>
       </c>
@@ -54066,7 +54385,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="907" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>11</v>
       </c>
@@ -54110,7 +54429,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="908" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>12</v>
       </c>
@@ -54154,7 +54473,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="909" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>13</v>
       </c>
@@ -54198,7 +54517,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="910" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>14</v>
       </c>
@@ -54245,7 +54564,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="911" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>15</v>
       </c>
@@ -54289,7 +54608,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="912" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>16</v>
       </c>
@@ -57093,8 +57412,41 @@
       <c r="O974" s="8">
         <v>0.51944444444444449</v>
       </c>
+      <c r="T974" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U974" s="4" t="s">
         <v>1192</v>
+      </c>
+      <c r="V974" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="W974" s="4">
+        <v>33</v>
+      </c>
+      <c r="X974" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="Y974" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z974" s="4">
+        <v>20</v>
+      </c>
+      <c r="AA974" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB974" s="53">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="AC974" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD974" s="53">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="AE974" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="975" spans="1:31" x14ac:dyDescent="0.2">
@@ -57185,7 +57537,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>4</v>
       </c>
@@ -57229,7 +57581,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>5</v>
       </c>
@@ -57273,7 +57625,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>6</v>
       </c>
@@ -57317,7 +57669,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>7</v>
       </c>
@@ -57361,7 +57713,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>8</v>
       </c>
@@ -57401,11 +57753,35 @@
       <c r="N981" s="31">
         <v>5.89</v>
       </c>
+      <c r="T981" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U981" s="4" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V981" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W981" s="4">
+        <v>33</v>
+      </c>
+      <c r="X981" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y981" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z981" s="4">
+        <v>13</v>
+      </c>
+      <c r="AA981" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB981" s="53">
+        <v>0.66805555555555562</v>
+      </c>
+    </row>
+    <row r="982" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>9</v>
       </c>
@@ -57449,7 +57825,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>10</v>
       </c>
@@ -57493,7 +57869,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>11</v>
       </c>
@@ -57537,7 +57913,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>12</v>
       </c>
@@ -57581,7 +57957,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>13</v>
       </c>
@@ -57621,11 +57997,35 @@
       <c r="N986" s="31">
         <v>5.0650000000000004</v>
       </c>
+      <c r="T986" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U986" s="4" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V986" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W986" s="4">
+        <v>33</v>
+      </c>
+      <c r="X986" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y986" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z986" s="4">
+        <v>16</v>
+      </c>
+      <c r="AA986" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB986" s="53">
+        <v>0.66875000000000007</v>
+      </c>
+    </row>
+    <row r="987" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>14</v>
       </c>
@@ -57669,7 +58069,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>15</v>
       </c>
@@ -57713,7 +58113,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>16</v>
       </c>
@@ -57757,7 +58157,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>17</v>
       </c>
@@ -57797,11 +58197,35 @@
       <c r="N990" s="31">
         <v>8.3689999999999998</v>
       </c>
+      <c r="T990" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U990" s="4" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V990" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W990" s="4">
+        <v>33</v>
+      </c>
+      <c r="X990" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y990" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z990" s="4">
+        <v>17</v>
+      </c>
+      <c r="AA990" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB990" s="53">
+        <v>0.66805555555555562</v>
+      </c>
+    </row>
+    <row r="991" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>18</v>
       </c>
@@ -57845,7 +58269,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>19</v>
       </c>
@@ -61407,7 +61831,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1073" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>25</v>
       </c>
@@ -61451,7 +61875,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="1074" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>26</v>
       </c>
@@ -61495,7 +61919,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="1075" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>27</v>
       </c>
@@ -61539,7 +61963,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="1076" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>28</v>
       </c>
@@ -61579,11 +62003,35 @@
       <c r="N1076">
         <v>9.7810000000000006</v>
       </c>
+      <c r="T1076" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1076" s="4" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="1077" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1076" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1076" s="4">
+        <v>31</v>
+      </c>
+      <c r="X1076" s="4" t="s">
+        <v>1751</v>
+      </c>
+      <c r="Y1076" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1076" s="4">
+        <v>7</v>
+      </c>
+      <c r="AA1076" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1076" s="53">
+        <v>0.66805555555555562</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>29</v>
       </c>
@@ -61623,11 +62071,35 @@
       <c r="N1077">
         <v>10.204000000000001</v>
       </c>
+      <c r="T1077" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1077" s="4" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="1078" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1077" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1077" s="4">
+        <v>32</v>
+      </c>
+      <c r="X1077" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="Y1077" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1077" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA1077" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1077" s="53">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>30</v>
       </c>
@@ -61671,7 +62143,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="1079" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>31</v>
       </c>
@@ -61715,7 +62187,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="1080" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>33</v>
       </c>
@@ -61759,7 +62231,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="1081" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>34</v>
       </c>
@@ -61803,7 +62275,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="1082" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>35</v>
       </c>
@@ -61847,7 +62319,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="1083" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>36</v>
       </c>
@@ -61891,7 +62363,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="1084" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>37</v>
       </c>
@@ -61935,7 +62407,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="1085" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1085">
         <v>38</v>
       </c>
@@ -61979,7 +62451,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="1086" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1086">
         <v>39</v>
       </c>
@@ -62023,7 +62495,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="1087" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1087">
         <v>40</v>
       </c>
@@ -62067,7 +62539,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="1088" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1088">
         <v>41</v>
       </c>
@@ -62283,8 +62755,32 @@
       <c r="N1092">
         <v>6.5449999999999999</v>
       </c>
+      <c r="T1092" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1092" s="4" t="s">
         <v>1310</v>
+      </c>
+      <c r="V1092" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1092" s="4">
+        <v>32</v>
+      </c>
+      <c r="X1092" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Y1092" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1092" s="4">
+        <v>13</v>
+      </c>
+      <c r="AA1092" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB1092" s="53">
+        <v>0.72638888888888886</v>
       </c>
     </row>
     <row r="1093" spans="1:28" x14ac:dyDescent="0.2">
@@ -62846,7 +63342,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1105">
         <v>58</v>
       </c>
@@ -62890,7 +63386,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="1106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1106">
         <v>59</v>
       </c>
@@ -62934,7 +63430,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1107">
         <v>60</v>
       </c>
@@ -62974,11 +63470,35 @@
       <c r="N1107">
         <v>5.0449999999999999</v>
       </c>
+      <c r="T1107" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1107" s="4" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="1108" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1107" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1107" s="4">
+        <v>31</v>
+      </c>
+      <c r="X1107" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y1107" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1107" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA1107" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1107" s="53">
+        <v>0.66736111111111107</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1108">
         <v>61</v>
       </c>
@@ -63016,7 +63536,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="1109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1109">
         <v>62</v>
       </c>
@@ -63060,7 +63580,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="1110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1110">
         <v>63</v>
       </c>
@@ -63104,7 +63624,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="1111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1111">
         <v>64</v>
       </c>
@@ -63142,7 +63662,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="1112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1112">
         <v>65</v>
       </c>
@@ -63186,7 +63706,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="1113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1113">
         <v>66</v>
       </c>
@@ -63230,7 +63750,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="1114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1114">
         <v>67</v>
       </c>
@@ -63274,7 +63794,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="1115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1115">
         <v>68</v>
       </c>
@@ -63318,7 +63838,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="1116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1116">
         <v>69</v>
       </c>
@@ -63362,7 +63882,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="1117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1117">
         <v>70</v>
       </c>
@@ -63406,7 +63926,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="1118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1118">
         <v>71</v>
       </c>
@@ -63450,7 +63970,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="1119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1119">
         <v>72</v>
       </c>
@@ -63494,7 +64014,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="1120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1120">
         <v>73</v>
       </c>
@@ -64960,7 +65480,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="1153" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1153">
         <v>29</v>
       </c>
@@ -65004,7 +65524,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1154" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1154">
         <v>30</v>
       </c>
@@ -65048,7 +65568,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="1155" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1155">
         <v>31</v>
       </c>
@@ -65092,7 +65612,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1156" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1156">
         <v>32</v>
       </c>
@@ -65136,7 +65656,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="1157" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1157">
         <v>33</v>
       </c>
@@ -65180,7 +65700,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="1158" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1158">
         <v>34</v>
       </c>
@@ -65224,7 +65744,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="1159" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1159">
         <v>35</v>
       </c>
@@ -65264,11 +65784,35 @@
       <c r="N1159">
         <v>6.3579999999999997</v>
       </c>
+      <c r="T1159" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1159" s="4" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="1160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1159" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1159" s="4">
+        <v>33</v>
+      </c>
+      <c r="X1159" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y1159" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1159" s="4">
+        <v>16</v>
+      </c>
+      <c r="AA1159" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB1159" s="53">
+        <v>0.4291666666666667</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1160">
         <v>36</v>
       </c>
@@ -65312,7 +65856,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="1161" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1161">
         <v>37</v>
       </c>
@@ -65356,7 +65900,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="1162" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1162">
         <v>38</v>
       </c>
@@ -65400,7 +65944,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="1163" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1163">
         <v>39</v>
       </c>
@@ -65444,7 +65988,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="1164" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1164">
         <v>40</v>
       </c>
@@ -65488,7 +66032,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="1165" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1165">
         <v>41</v>
       </c>
@@ -65535,7 +66079,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="1166" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1166">
         <v>42</v>
       </c>
@@ -65579,7 +66123,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="1167" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1167">
         <v>43</v>
       </c>
@@ -65623,7 +66167,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1168" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1168">
         <v>44</v>
       </c>
@@ -65663,8 +66207,32 @@
       <c r="N1168">
         <v>5.6740000000000004</v>
       </c>
+      <c r="T1168" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1168" s="4" t="s">
         <v>1386</v>
+      </c>
+      <c r="V1168" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1168" s="4">
+        <v>31</v>
+      </c>
+      <c r="X1168" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Y1168" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1168" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA1168" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1168" s="53">
+        <v>0.72638888888888886</v>
       </c>
     </row>
     <row r="1169" spans="1:21" x14ac:dyDescent="0.2">
@@ -67078,7 +67646,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="1201" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1201">
         <v>10</v>
       </c>
@@ -67122,7 +67690,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="1202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1202">
         <v>11</v>
       </c>
@@ -67166,7 +67734,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="1203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1203">
         <v>12</v>
       </c>
@@ -67210,7 +67778,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="1204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1204">
         <v>13</v>
       </c>
@@ -67250,11 +67818,35 @@
       <c r="N1204">
         <v>3.9159999999999999</v>
       </c>
+      <c r="T1204" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1204" s="4" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="1205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1204" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1204" s="4">
+        <v>30</v>
+      </c>
+      <c r="X1204" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y1204" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1204" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA1204" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB1204" s="53">
+        <v>0.66805555555555562</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1205">
         <v>14</v>
       </c>
@@ -67298,7 +67890,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="1206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1206">
         <v>15</v>
       </c>
@@ -67342,7 +67934,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="1207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1207">
         <v>16</v>
       </c>
@@ -67386,7 +67978,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="1208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1208">
         <v>17</v>
       </c>
@@ -67430,7 +68022,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="1209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1209">
         <v>18</v>
       </c>
@@ -67474,7 +68066,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="1210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1210">
         <v>19</v>
       </c>
@@ -67518,7 +68110,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1211">
         <v>20</v>
       </c>
@@ -67562,7 +68154,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="1212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1212">
         <v>21</v>
       </c>
@@ -67606,7 +68198,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="1213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1213">
         <v>22</v>
       </c>
@@ -67650,7 +68242,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="1214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1214">
         <v>23</v>
       </c>
@@ -67694,7 +68286,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="1215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1215">
         <v>24</v>
       </c>
@@ -67738,7 +68330,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="1216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1216">
         <v>25</v>
       </c>
@@ -71319,7 +71911,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="1297" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1297">
         <v>3</v>
       </c>
@@ -71359,11 +71951,35 @@
       <c r="N1297">
         <v>9.5660000000000007</v>
       </c>
+      <c r="T1297" s="4" t="s">
+        <v>1741</v>
+      </c>
       <c r="U1297" s="4" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="1298" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1297" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1297" s="4">
+        <v>31</v>
+      </c>
+      <c r="X1297" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y1297" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1297" s="4">
+        <v>23</v>
+      </c>
+      <c r="AA1297" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB1297" s="53">
+        <v>0.4291666666666667</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1298">
         <v>4</v>
       </c>
@@ -71407,7 +72023,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="1299" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1299">
         <v>5</v>
       </c>
@@ -71451,7 +72067,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="1300" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1300">
         <v>6</v>
       </c>
@@ -71495,7 +72111,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="1301" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1301">
         <v>7</v>
       </c>
@@ -71539,7 +72155,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="1302" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1302">
         <v>8</v>
       </c>
@@ -71583,7 +72199,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="1303" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1303">
         <v>9</v>
       </c>
@@ -71627,7 +72243,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="1304" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1304">
         <v>10</v>
       </c>
@@ -71671,7 +72287,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="1305" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1305">
         <v>11</v>
       </c>
@@ -71715,7 +72331,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="1306" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1306">
         <v>12</v>
       </c>
@@ -71759,7 +72375,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="1307" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1307">
         <v>13</v>
       </c>
@@ -71803,7 +72419,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="1308" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1308">
         <v>14</v>
       </c>
@@ -71847,7 +72463,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="1309" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1309">
         <v>15</v>
       </c>
@@ -71891,7 +72507,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1310" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1310">
         <v>16</v>
       </c>
@@ -71935,7 +72551,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="1311" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1311">
         <v>17</v>
       </c>
@@ -71979,7 +72595,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="1312" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1312">
         <v>18</v>
       </c>
@@ -90108,6 +90724,12 @@
       <c r="C1834" t="s">
         <v>5</v>
       </c>
+      <c r="D1834">
+        <v>8.5670000000000002</v>
+      </c>
+      <c r="E1834" s="8">
+        <v>0.50138888888888888</v>
+      </c>
       <c r="G1834" s="1" t="s">
         <v>138</v>
       </c>
@@ -90119,6 +90741,9 @@
       </c>
       <c r="J1834" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1834" s="31">
+        <v>7000</v>
       </c>
     </row>
     <row r="1835" spans="1:11" x14ac:dyDescent="0.2">
@@ -90131,6 +90756,9 @@
       <c r="C1835" t="s">
         <v>5</v>
       </c>
+      <c r="D1835">
+        <v>8.4610000000000003</v>
+      </c>
       <c r="G1835" s="1" t="s">
         <v>138</v>
       </c>
@@ -90142,6 +90770,9 @@
       </c>
       <c r="J1835" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1835" s="31">
+        <v>7000</v>
       </c>
     </row>
     <row r="1836" spans="1:11" x14ac:dyDescent="0.2">
@@ -90154,6 +90785,9 @@
       <c r="C1836" t="s">
         <v>5</v>
       </c>
+      <c r="D1836">
+        <v>11.715999999999999</v>
+      </c>
       <c r="G1836" s="1" t="s">
         <v>138</v>
       </c>
@@ -90166,6 +90800,9 @@
       <c r="J1836" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1836" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1837" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1837">
@@ -90177,6 +90814,9 @@
       <c r="C1837" t="s">
         <v>5</v>
       </c>
+      <c r="D1837">
+        <v>4.6959999999999997</v>
+      </c>
       <c r="G1837" s="1" t="s">
         <v>138</v>
       </c>
@@ -90188,6 +90828,9 @@
       </c>
       <c r="J1837" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1837" s="31">
+        <v>7000</v>
       </c>
     </row>
     <row r="1838" spans="1:11" x14ac:dyDescent="0.2">
@@ -90200,6 +90843,9 @@
       <c r="C1838" t="s">
         <v>5</v>
       </c>
+      <c r="D1838">
+        <v>4.8170000000000002</v>
+      </c>
       <c r="G1838" s="1" t="s">
         <v>138</v>
       </c>
@@ -90212,6 +90858,9 @@
       <c r="J1838" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="K1838" s="31">
+        <v>7000</v>
+      </c>
     </row>
     <row r="1839" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1839">
@@ -90223,6 +90872,9 @@
       <c r="C1839" t="s">
         <v>5</v>
       </c>
+      <c r="D1839">
+        <v>11.222</v>
+      </c>
       <c r="G1839" s="1" t="s">
         <v>138</v>
       </c>
@@ -90234,6 +90886,9 @@
       </c>
       <c r="J1839" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1839" s="31">
+        <v>7000</v>
       </c>
     </row>
     <row r="1840" spans="1:11" x14ac:dyDescent="0.2">
@@ -90246,6 +90901,9 @@
       <c r="C1840" t="s">
         <v>5</v>
       </c>
+      <c r="D1840">
+        <v>7.6050000000000004</v>
+      </c>
       <c r="G1840" s="1" t="s">
         <v>138</v>
       </c>
@@ -90258,8 +90916,11 @@
       <c r="J1840" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1841" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1840" s="31">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1841">
         <v>8</v>
       </c>
@@ -90269,6 +90930,9 @@
       <c r="C1841" t="s">
         <v>5</v>
       </c>
+      <c r="D1841">
+        <v>12.481999999999999</v>
+      </c>
       <c r="G1841" s="1" t="s">
         <v>138</v>
       </c>
@@ -90281,8 +90945,11 @@
       <c r="J1841" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1842" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1841" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1842">
         <v>9</v>
       </c>
@@ -90292,6 +90959,9 @@
       <c r="C1842" t="s">
         <v>5</v>
       </c>
+      <c r="D1842">
+        <v>7.0439999999999996</v>
+      </c>
       <c r="G1842" s="1" t="s">
         <v>138</v>
       </c>
@@ -90304,8 +90974,11 @@
       <c r="J1842" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1843" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1842" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1843">
         <v>10</v>
       </c>
@@ -90315,6 +90988,9 @@
       <c r="C1843" t="s">
         <v>5</v>
       </c>
+      <c r="D1843">
+        <v>5.6660000000000004</v>
+      </c>
       <c r="G1843" s="1" t="s">
         <v>138</v>
       </c>
@@ -90327,8 +91003,11 @@
       <c r="J1843" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1844" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1843" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1844">
         <v>11</v>
       </c>
@@ -90338,6 +91017,9 @@
       <c r="C1844" t="s">
         <v>5</v>
       </c>
+      <c r="D1844">
+        <v>8.8840000000000003</v>
+      </c>
       <c r="G1844" s="1" t="s">
         <v>138</v>
       </c>
@@ -90350,8 +91032,11 @@
       <c r="J1844" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1845" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1844" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1845">
         <v>12</v>
       </c>
@@ -90361,6 +91046,9 @@
       <c r="C1845" t="s">
         <v>5</v>
       </c>
+      <c r="D1845">
+        <v>4.9989999999999997</v>
+      </c>
       <c r="G1845" s="1" t="s">
         <v>138</v>
       </c>
@@ -90373,8 +91061,11 @@
       <c r="J1845" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1846" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1845" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1846">
         <v>13</v>
       </c>
@@ -90384,6 +91075,9 @@
       <c r="C1846" t="s">
         <v>5</v>
       </c>
+      <c r="D1846">
+        <v>11.090999999999999</v>
+      </c>
       <c r="G1846" s="1" t="s">
         <v>138</v>
       </c>
@@ -90396,8 +91090,11 @@
       <c r="J1846" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1847" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1846" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1847">
         <v>14</v>
       </c>
@@ -90407,6 +91104,9 @@
       <c r="C1847" t="s">
         <v>5</v>
       </c>
+      <c r="D1847">
+        <v>9.3870000000000005</v>
+      </c>
       <c r="G1847" s="1" t="s">
         <v>138</v>
       </c>
@@ -90419,8 +91119,11 @@
       <c r="J1847" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1848" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1847" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1848">
         <v>15</v>
       </c>
@@ -90430,6 +91133,9 @@
       <c r="C1848" t="s">
         <v>5</v>
       </c>
+      <c r="D1848">
+        <v>12.439</v>
+      </c>
       <c r="G1848" s="1" t="s">
         <v>138</v>
       </c>
@@ -90442,8 +91148,11 @@
       <c r="J1848" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1849" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1848" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1849">
         <v>16</v>
       </c>
@@ -90453,6 +91162,9 @@
       <c r="C1849" t="s">
         <v>5</v>
       </c>
+      <c r="D1849">
+        <v>7.6879999999999997</v>
+      </c>
       <c r="G1849" s="1" t="s">
         <v>138</v>
       </c>
@@ -90465,8 +91177,11 @@
       <c r="J1849" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1850" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1849" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1850">
         <v>17</v>
       </c>
@@ -90476,6 +91191,9 @@
       <c r="C1850" t="s">
         <v>5</v>
       </c>
+      <c r="D1850">
+        <v>11.819000000000001</v>
+      </c>
       <c r="G1850" s="1" t="s">
         <v>138</v>
       </c>
@@ -90488,8 +91206,11 @@
       <c r="J1850" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1851" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1850" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1851">
         <v>18</v>
       </c>
@@ -90499,6 +91220,9 @@
       <c r="C1851" t="s">
         <v>5</v>
       </c>
+      <c r="D1851">
+        <v>8.0020000000000007</v>
+      </c>
       <c r="G1851" s="1" t="s">
         <v>138</v>
       </c>
@@ -90511,8 +91235,11 @@
       <c r="J1851" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1852" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1851" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1852">
         <v>19</v>
       </c>
@@ -90534,8 +91261,11 @@
       <c r="J1852" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1853" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1852" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1853">
         <v>20</v>
       </c>
@@ -90545,6 +91275,9 @@
       <c r="C1853" t="s">
         <v>5</v>
       </c>
+      <c r="E1853" s="8">
+        <v>0.50555555555555554</v>
+      </c>
       <c r="G1853" s="1" t="s">
         <v>138</v>
       </c>
@@ -90557,8 +91290,11 @@
       <c r="J1853" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1854" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1853" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1854">
         <v>1</v>
       </c>
@@ -90568,6 +91304,12 @@
       <c r="C1854" t="s">
         <v>5</v>
       </c>
+      <c r="D1854">
+        <v>7.1980000000000004</v>
+      </c>
+      <c r="E1854" s="8">
+        <v>0.49722222222222223</v>
+      </c>
       <c r="G1854" s="1" t="s">
         <v>138</v>
       </c>
@@ -90580,8 +91322,11 @@
       <c r="J1854" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1855" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1854" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1855">
         <v>2</v>
       </c>
@@ -90591,6 +91336,9 @@
       <c r="C1855" t="s">
         <v>5</v>
       </c>
+      <c r="D1855">
+        <v>6.8959999999999999</v>
+      </c>
       <c r="G1855" s="1" t="s">
         <v>138</v>
       </c>
@@ -90603,8 +91351,11 @@
       <c r="J1855" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1856" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1855" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1856">
         <v>3</v>
       </c>
@@ -90614,6 +91365,9 @@
       <c r="C1856" t="s">
         <v>5</v>
       </c>
+      <c r="D1856">
+        <v>9.2780000000000005</v>
+      </c>
       <c r="G1856" s="1" t="s">
         <v>138</v>
       </c>
@@ -90626,8 +91380,11 @@
       <c r="J1856" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1857" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1856" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1857">
         <v>4</v>
       </c>
@@ -90637,6 +91394,9 @@
       <c r="C1857" t="s">
         <v>5</v>
       </c>
+      <c r="D1857">
+        <v>5.0069999999999997</v>
+      </c>
       <c r="G1857" s="1" t="s">
         <v>138</v>
       </c>
@@ -90649,8 +91409,11 @@
       <c r="J1857" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1858" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1857" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1858">
         <v>5</v>
       </c>
@@ -90660,6 +91423,9 @@
       <c r="C1858" t="s">
         <v>5</v>
       </c>
+      <c r="D1858">
+        <v>8.6809999999999992</v>
+      </c>
       <c r="G1858" s="1" t="s">
         <v>138</v>
       </c>
@@ -90672,8 +91438,11 @@
       <c r="J1858" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1859" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1858" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1859">
         <v>6</v>
       </c>
@@ -90683,6 +91452,9 @@
       <c r="C1859" t="s">
         <v>5</v>
       </c>
+      <c r="D1859">
+        <v>10.082000000000001</v>
+      </c>
       <c r="G1859" s="1" t="s">
         <v>138</v>
       </c>
@@ -90695,8 +91467,11 @@
       <c r="J1859" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1860" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1859" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1860">
         <v>7</v>
       </c>
@@ -90706,6 +91481,9 @@
       <c r="C1860" t="s">
         <v>5</v>
       </c>
+      <c r="D1860">
+        <v>10.522</v>
+      </c>
       <c r="G1860" s="1" t="s">
         <v>138</v>
       </c>
@@ -90718,8 +91496,11 @@
       <c r="J1860" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1861" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1860" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1861">
         <v>8</v>
       </c>
@@ -90729,6 +91510,9 @@
       <c r="C1861" t="s">
         <v>5</v>
       </c>
+      <c r="D1861">
+        <v>8.1110000000000007</v>
+      </c>
       <c r="G1861" s="1" t="s">
         <v>138</v>
       </c>
@@ -90741,8 +91525,11 @@
       <c r="J1861" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1862" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1861" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1862">
         <v>9</v>
       </c>
@@ -90752,6 +91539,9 @@
       <c r="C1862" t="s">
         <v>5</v>
       </c>
+      <c r="D1862">
+        <v>10.840999999999999</v>
+      </c>
       <c r="G1862" s="1" t="s">
         <v>138</v>
       </c>
@@ -90764,8 +91554,11 @@
       <c r="J1862" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1863" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1862" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1863">
         <v>10</v>
       </c>
@@ -90775,6 +91568,9 @@
       <c r="C1863" t="s">
         <v>5</v>
       </c>
+      <c r="D1863">
+        <v>9.6620000000000008</v>
+      </c>
       <c r="G1863" s="1" t="s">
         <v>138</v>
       </c>
@@ -90787,8 +91583,11 @@
       <c r="J1863" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1864" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1863" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1864">
         <v>11</v>
       </c>
@@ -90798,6 +91597,9 @@
       <c r="C1864" t="s">
         <v>5</v>
       </c>
+      <c r="D1864">
+        <v>10.042</v>
+      </c>
       <c r="G1864" s="1" t="s">
         <v>138</v>
       </c>
@@ -90810,8 +91612,11 @@
       <c r="J1864" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1865" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1864" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1865">
         <v>12</v>
       </c>
@@ -90821,6 +91626,9 @@
       <c r="C1865" t="s">
         <v>5</v>
       </c>
+      <c r="D1865">
+        <v>8.6349999999999998</v>
+      </c>
       <c r="G1865" s="1" t="s">
         <v>138</v>
       </c>
@@ -90833,8 +91641,11 @@
       <c r="J1865" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1866" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1865" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1866">
         <v>13</v>
       </c>
@@ -90844,6 +91655,9 @@
       <c r="C1866" t="s">
         <v>5</v>
       </c>
+      <c r="D1866">
+        <v>7.1769999999999996</v>
+      </c>
       <c r="G1866" s="1" t="s">
         <v>138</v>
       </c>
@@ -90856,8 +91670,11 @@
       <c r="J1866" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1867" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1866" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1867">
         <v>14</v>
       </c>
@@ -90867,6 +91684,9 @@
       <c r="C1867" t="s">
         <v>5</v>
       </c>
+      <c r="D1867">
+        <v>10.661</v>
+      </c>
       <c r="G1867" s="1" t="s">
         <v>138</v>
       </c>
@@ -90879,8 +91699,11 @@
       <c r="J1867" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1868" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1867" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1868">
         <v>15</v>
       </c>
@@ -90890,6 +91713,9 @@
       <c r="C1868" t="s">
         <v>5</v>
       </c>
+      <c r="D1868">
+        <v>10.757999999999999</v>
+      </c>
       <c r="G1868" s="1" t="s">
         <v>138</v>
       </c>
@@ -90902,8 +91728,11 @@
       <c r="J1868" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1869" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1868" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1869">
         <v>16</v>
       </c>
@@ -90913,6 +91742,9 @@
       <c r="C1869" t="s">
         <v>5</v>
       </c>
+      <c r="D1869">
+        <v>8.5150000000000006</v>
+      </c>
       <c r="G1869" s="1" t="s">
         <v>138</v>
       </c>
@@ -90925,8 +91757,11 @@
       <c r="J1869" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1870" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1869" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1870">
         <v>17</v>
       </c>
@@ -90936,6 +91771,9 @@
       <c r="C1870" t="s">
         <v>5</v>
       </c>
+      <c r="D1870">
+        <v>8.3610000000000007</v>
+      </c>
       <c r="G1870" s="1" t="s">
         <v>138</v>
       </c>
@@ -90948,8 +91786,11 @@
       <c r="J1870" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1871" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1870" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1871">
         <v>18</v>
       </c>
@@ -90971,8 +91812,11 @@
       <c r="J1871" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1872" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1871" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1872">
         <v>19</v>
       </c>
@@ -90982,6 +91826,9 @@
       <c r="C1872" t="s">
         <v>5</v>
       </c>
+      <c r="E1872" s="8">
+        <v>0.50138888888888888</v>
+      </c>
       <c r="G1872" s="1" t="s">
         <v>138</v>
       </c>
@@ -90994,31 +91841,15 @@
       <c r="J1872" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1873" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1873">
-        <v>20</v>
-      </c>
-      <c r="B1873" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1873" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1873" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1873" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1873" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1873" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1872" s="9">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="1873" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J1873" s="1"/>
+      <c r="K1873" s="9"/>
+    </row>
+    <row r="1874" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J1874" s="1"/>
     </row>
   </sheetData>

--- a/Data/2017-08-24_rhagoletis_data_sheet.xlsx
+++ b/Data/2017-08-24_rhagoletis_data_sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="820" windowWidth="34880" windowHeight="18820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="34880" windowHeight="18820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_collections" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14520" uniqueCount="1760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14522" uniqueCount="1761">
   <si>
     <t>Site</t>
   </si>
@@ -5315,6 +5315,9 @@
   </si>
   <si>
     <t>34</t>
+  </si>
+  <si>
+    <t>7 double markers</t>
   </si>
 </sst>
 </file>
@@ -6748,8 +6751,8 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K126" sqref="K126"/>
+    <sheetView showRuler="0" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11863,9 +11866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1874"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T220" sqref="T220"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1850" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1871" sqref="R1871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -81094,51 +81097,61 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1505" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1505">
+    <row r="1505" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1505" s="37">
         <v>19</v>
       </c>
-      <c r="B1505" t="s">
+      <c r="B1505" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C1505" t="s">
+      <c r="C1505" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E1505" s="8">
+      <c r="E1505" s="38">
         <v>0.63472222222222219</v>
       </c>
-      <c r="F1505">
+      <c r="F1505" s="37">
         <v>15.233333333333301</v>
       </c>
-      <c r="G1505" s="1" t="s">
+      <c r="G1505" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="H1505" s="1" t="s">
+      <c r="H1505" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I1505" s="7" t="s">
+      <c r="I1505" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="J1505" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1505">
+      <c r="J1505" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1505" s="37">
         <v>6262</v>
       </c>
-      <c r="L1505" s="16">
+      <c r="L1505" s="40">
         <v>0.40278935185185188</v>
       </c>
-      <c r="M1505" s="17">
+      <c r="M1505" s="41">
         <v>1.961541E-2</v>
       </c>
-      <c r="O1505" s="8">
+      <c r="O1505" s="38">
         <v>0.62291666666666667</v>
       </c>
-      <c r="U1505" s="4" t="s">
+      <c r="T1505" s="58"/>
+      <c r="U1505" s="58" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="1506" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1505" s="59"/>
+      <c r="W1505" s="58"/>
+      <c r="X1505" s="58"/>
+      <c r="Y1505" s="58"/>
+      <c r="Z1505" s="58"/>
+      <c r="AA1505" s="58"/>
+      <c r="AB1505" s="58"/>
+      <c r="AC1505" s="59"/>
+      <c r="AD1505" s="58"/>
+    </row>
+    <row r="1506" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1506">
         <v>1</v>
       </c>
@@ -81169,8 +81182,14 @@
       <c r="K1506">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1507" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1506" s="16">
+        <v>0.39940972222222221</v>
+      </c>
+      <c r="M1506">
+        <v>0.32770860000000002</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1507">
         <v>2</v>
       </c>
@@ -81198,8 +81217,14 @@
       <c r="K1507">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1508" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1507" s="16">
+        <v>0.40057870370370369</v>
+      </c>
+      <c r="M1507" s="17">
+        <v>9.5412990000000003E-2</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1508">
         <v>3</v>
       </c>
@@ -81227,8 +81252,14 @@
       <c r="K1508">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1509" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1508" s="16">
+        <v>0.40182870370370366</v>
+      </c>
+      <c r="M1508">
+        <v>5.0708080000000004</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1509">
         <v>4</v>
       </c>
@@ -81256,8 +81287,14 @@
       <c r="K1509">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1510" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1509" s="16">
+        <v>0.40619212962962964</v>
+      </c>
+      <c r="M1509">
+        <v>0.71989150000000002</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1510">
         <v>5</v>
       </c>
@@ -81285,8 +81322,14 @@
       <c r="K1510">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1511" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1510" s="16">
+        <v>0.4074652777777778</v>
+      </c>
+      <c r="M1510">
+        <v>0.20684759999999999</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1511">
         <v>6</v>
       </c>
@@ -81314,8 +81357,14 @@
       <c r="K1511">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1512" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1511" s="16">
+        <v>0.40849537037037037</v>
+      </c>
+      <c r="M1511">
+        <v>0.77752239999999995</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1512">
         <v>7</v>
       </c>
@@ -81343,8 +81392,14 @@
       <c r="K1512">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1513" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1512" s="16">
+        <v>0.40953703703703703</v>
+      </c>
+      <c r="M1512">
+        <v>0.21555279999999999</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1513">
         <v>8</v>
       </c>
@@ -81372,8 +81427,14 @@
       <c r="K1513">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1514" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1513" s="16">
+        <v>0.41053240740740743</v>
+      </c>
+      <c r="M1513">
+        <v>0.17911009999999999</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1514">
         <v>9</v>
       </c>
@@ -81401,8 +81462,14 @@
       <c r="K1514">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1515" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1514" s="16">
+        <v>0.41152777777777777</v>
+      </c>
+      <c r="M1514">
+        <v>0.14681330000000001</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1515">
         <v>10</v>
       </c>
@@ -81430,8 +81497,14 @@
       <c r="K1515">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1516" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1515" s="16">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="M1515">
+        <v>0.1952691</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1516">
         <v>11</v>
       </c>
@@ -81459,8 +81532,14 @@
       <c r="K1516">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1517" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1516" s="16">
+        <v>0.41356481481481483</v>
+      </c>
+      <c r="M1516">
+        <v>0.1354764</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1517">
         <v>12</v>
       </c>
@@ -81488,8 +81567,14 @@
       <c r="K1517">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1518" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1517" s="16">
+        <v>0.41471064814814818</v>
+      </c>
+      <c r="M1517">
+        <v>1.5228379999999999</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1518">
         <v>13</v>
       </c>
@@ -81517,8 +81602,14 @@
       <c r="K1518">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1519" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1518" s="16">
+        <v>0.41583333333333333</v>
+      </c>
+      <c r="M1518">
+        <v>2.0246369999999998</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1519">
         <v>14</v>
       </c>
@@ -81546,8 +81637,14 @@
       <c r="K1519">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1520" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L1519" s="16">
+        <v>0.41697916666666668</v>
+      </c>
+      <c r="M1519">
+        <v>0.1159819</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1520">
         <v>15</v>
       </c>
@@ -81575,8 +81672,14 @@
       <c r="K1520">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1521" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1520" s="16">
+        <v>0.41796296296296293</v>
+      </c>
+      <c r="M1520">
+        <v>0.14470160000000001</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1521">
         <v>16</v>
       </c>
@@ -81604,8 +81707,14 @@
       <c r="K1521">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1522" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1521" s="16">
+        <v>0.41896990740740742</v>
+      </c>
+      <c r="M1521">
+        <v>1.0413509999999999</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1522">
         <v>17</v>
       </c>
@@ -81633,8 +81742,14 @@
       <c r="K1522">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1523" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1522" s="16">
+        <v>0.42009259259259263</v>
+      </c>
+      <c r="M1522">
+        <v>0.16495799999999999</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1523">
         <v>18</v>
       </c>
@@ -81662,8 +81777,14 @@
       <c r="K1523">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1524" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1523" s="16">
+        <v>0.42100694444444442</v>
+      </c>
+      <c r="M1523">
+        <v>0.56214370000000002</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1524">
         <v>19</v>
       </c>
@@ -81691,8 +81812,14 @@
       <c r="K1524">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1525" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1524" s="16">
+        <v>0.42203703703703704</v>
+      </c>
+      <c r="M1524">
+        <v>0.2165338</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1525">
         <v>20</v>
       </c>
@@ -81720,8 +81847,14 @@
       <c r="K1525">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1526" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1525" s="16">
+        <v>0.42303240740740744</v>
+      </c>
+      <c r="M1525">
+        <v>1.795423</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1526">
         <v>21</v>
       </c>
@@ -81749,8 +81882,14 @@
       <c r="K1526">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1527" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1526" s="16">
+        <v>0.42407407407407405</v>
+      </c>
+      <c r="M1526">
+        <v>1.4383189999999999</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1527">
         <v>22</v>
       </c>
@@ -81778,8 +81917,14 @@
       <c r="K1527">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1528" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1527" s="16">
+        <v>0.42511574074074071</v>
+      </c>
+      <c r="M1527">
+        <v>0.22543589999999999</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1528">
         <v>23</v>
       </c>
@@ -81807,8 +81952,14 @@
       <c r="K1528">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1529" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1528" s="16">
+        <v>0.42607638888888894</v>
+      </c>
+      <c r="M1528">
+        <v>0.16448699999999999</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1529">
         <v>24</v>
       </c>
@@ -81836,8 +81987,14 @@
       <c r="K1529">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1530" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1529" s="16">
+        <v>0.42702546296296301</v>
+      </c>
+      <c r="M1529">
+        <v>0.21971660000000001</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1530">
         <v>25</v>
       </c>
@@ -81865,8 +82022,14 @@
       <c r="K1530">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1531" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1530" s="16">
+        <v>0.42788194444444444</v>
+      </c>
+      <c r="M1530">
+        <v>1.7012529999999999</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1531">
         <v>26</v>
       </c>
@@ -81894,8 +82057,14 @@
       <c r="K1531">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1532" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1531" s="16">
+        <v>0.42898148148148146</v>
+      </c>
+      <c r="M1531">
+        <v>1.0343389999999999</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1532">
         <v>27</v>
       </c>
@@ -81923,8 +82092,14 @@
       <c r="K1532">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1533" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1532" s="16">
+        <v>0.43004629629629632</v>
+      </c>
+      <c r="M1532">
+        <v>1.5125930000000001</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1533">
         <v>28</v>
       </c>
@@ -81952,8 +82127,14 @@
       <c r="K1533">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1534" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1533" s="16">
+        <v>0.43111111111111117</v>
+      </c>
+      <c r="M1533">
+        <v>1.529388</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1534">
         <v>29</v>
       </c>
@@ -81981,8 +82162,14 @@
       <c r="K1534">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1535" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1534" s="16">
+        <v>0.43215277777777777</v>
+      </c>
+      <c r="M1534">
+        <v>1.44075</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1535">
         <v>30</v>
       </c>
@@ -82010,8 +82197,14 @@
       <c r="K1535">
         <v>6262</v>
       </c>
-    </row>
-    <row r="1536" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1535" s="16">
+        <v>0.43322916666666672</v>
+      </c>
+      <c r="M1535">
+        <v>1.0126059999999999</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1536">
         <v>31</v>
       </c>
@@ -82038,6 +82231,12 @@
       </c>
       <c r="K1536">
         <v>6262</v>
+      </c>
+      <c r="L1536" s="16">
+        <v>0.43427083333333333</v>
+      </c>
+      <c r="M1536">
+        <v>0.207454</v>
       </c>
     </row>
     <row r="1537" spans="1:19" x14ac:dyDescent="0.2">
@@ -82068,6 +82267,12 @@
       <c r="K1537">
         <v>6262</v>
       </c>
+      <c r="L1537" s="16">
+        <v>0.43517361111111108</v>
+      </c>
+      <c r="M1537">
+        <v>0.18217749999999999</v>
+      </c>
       <c r="S1537" t="s">
         <v>168</v>
       </c>
@@ -82100,6 +82305,12 @@
       <c r="K1538">
         <v>6262</v>
       </c>
+      <c r="L1538" s="16">
+        <v>0.43606481481481479</v>
+      </c>
+      <c r="M1538">
+        <v>0.125583</v>
+      </c>
     </row>
     <row r="1539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1539">
@@ -82126,6 +82337,12 @@
       <c r="K1539">
         <v>6262</v>
       </c>
+      <c r="L1539" s="16">
+        <v>0.43701388888888887</v>
+      </c>
+      <c r="M1539" s="17">
+        <v>1.9553129999999998E-2</v>
+      </c>
     </row>
     <row r="1540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1540">
@@ -82155,6 +82372,12 @@
       <c r="K1540">
         <v>6262</v>
       </c>
+      <c r="L1540" s="16">
+        <v>0.4378009259259259</v>
+      </c>
+      <c r="M1540" s="17">
+        <v>3.3998880000000002E-2</v>
+      </c>
     </row>
     <row r="1541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1541">
@@ -82187,6 +82410,12 @@
       <c r="K1541">
         <v>7000</v>
       </c>
+      <c r="L1541" s="16">
+        <v>0.39940972222222221</v>
+      </c>
+      <c r="M1541">
+        <v>0.69214929999999997</v>
+      </c>
     </row>
     <row r="1542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1542">
@@ -82216,6 +82445,12 @@
       <c r="K1542">
         <v>7000</v>
       </c>
+      <c r="L1542" s="16">
+        <v>0.40057870370370369</v>
+      </c>
+      <c r="M1542">
+        <v>1.397079</v>
+      </c>
     </row>
     <row r="1543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1543">
@@ -82245,6 +82480,12 @@
       <c r="K1543">
         <v>7000</v>
       </c>
+      <c r="L1543" s="16">
+        <v>0.40182870370370366</v>
+      </c>
+      <c r="M1543">
+        <v>7.8375899999999998E-2</v>
+      </c>
     </row>
     <row r="1544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1544">
@@ -82274,6 +82515,12 @@
       <c r="K1544">
         <v>7000</v>
       </c>
+      <c r="L1544" s="16">
+        <v>0.40619212962962964</v>
+      </c>
+      <c r="M1544">
+        <v>0.14207829999999999</v>
+      </c>
     </row>
     <row r="1545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1545">
@@ -82303,6 +82550,12 @@
       <c r="K1545">
         <v>7000</v>
       </c>
+      <c r="L1545" s="16">
+        <v>0.4074652777777778</v>
+      </c>
+      <c r="M1545">
+        <v>0.18218029999999999</v>
+      </c>
     </row>
     <row r="1546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1546">
@@ -82331,6 +82584,12 @@
       </c>
       <c r="K1546">
         <v>7000</v>
+      </c>
+      <c r="L1546" s="16">
+        <v>0.40849537037037037</v>
+      </c>
+      <c r="M1546">
+        <v>0.10714</v>
       </c>
     </row>
     <row r="1547" spans="1:19" x14ac:dyDescent="0.2">
@@ -82361,6 +82620,12 @@
       <c r="K1547">
         <v>7000</v>
       </c>
+      <c r="L1547" s="16">
+        <v>0.40953703703703703</v>
+      </c>
+      <c r="M1547" s="17">
+        <v>6.0231460000000001E-2</v>
+      </c>
     </row>
     <row r="1548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1548">
@@ -82390,6 +82655,12 @@
       <c r="K1548">
         <v>7000</v>
       </c>
+      <c r="L1548" s="16">
+        <v>0.41053240740740743</v>
+      </c>
+      <c r="M1548">
+        <v>0.76754370000000005</v>
+      </c>
     </row>
     <row r="1549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1549">
@@ -82419,6 +82690,12 @@
       <c r="K1549">
         <v>7000</v>
       </c>
+      <c r="L1549" s="16">
+        <v>0.41152777777777777</v>
+      </c>
+      <c r="M1549">
+        <v>0.1629043</v>
+      </c>
     </row>
     <row r="1550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1550">
@@ -82448,6 +82725,12 @@
       <c r="K1550">
         <v>7000</v>
       </c>
+      <c r="L1550" s="16">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="M1550">
+        <v>0.59227989999999997</v>
+      </c>
     </row>
     <row r="1551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1551">
@@ -82477,6 +82760,12 @@
       <c r="K1551">
         <v>7000</v>
       </c>
+      <c r="L1551" s="16">
+        <v>0.41356481481481483</v>
+      </c>
+      <c r="M1551">
+        <v>0.1228143</v>
+      </c>
     </row>
     <row r="1552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1552">
@@ -82506,6 +82795,12 @@
       <c r="K1552">
         <v>7000</v>
       </c>
+      <c r="L1552" s="16">
+        <v>0.41471064814814818</v>
+      </c>
+      <c r="M1552">
+        <v>0.63226090000000001</v>
+      </c>
     </row>
     <row r="1553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1553">
@@ -82535,6 +82830,12 @@
       <c r="K1553">
         <v>7000</v>
       </c>
+      <c r="L1553" s="16">
+        <v>0.41583333333333333</v>
+      </c>
+      <c r="M1553">
+        <v>0.58935369999999998</v>
+      </c>
     </row>
     <row r="1554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1554">
@@ -82564,6 +82865,12 @@
       <c r="K1554">
         <v>7000</v>
       </c>
+      <c r="L1554" s="16">
+        <v>0.41697916666666668</v>
+      </c>
+      <c r="M1554">
+        <v>0.17064489999999999</v>
+      </c>
     </row>
     <row r="1555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1555">
@@ -82593,6 +82900,12 @@
       <c r="K1555">
         <v>7000</v>
       </c>
+      <c r="L1555" s="16">
+        <v>0.41796296296296293</v>
+      </c>
+      <c r="M1555">
+        <v>0.6255368</v>
+      </c>
     </row>
     <row r="1556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1556">
@@ -82622,6 +82935,12 @@
       <c r="K1556">
         <v>7000</v>
       </c>
+      <c r="L1556" s="16">
+        <v>0.41896990740740742</v>
+      </c>
+      <c r="M1556" s="17">
+        <v>8.5371210000000003E-2</v>
+      </c>
     </row>
     <row r="1557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1557">
@@ -82651,6 +82970,12 @@
       <c r="K1557">
         <v>7000</v>
       </c>
+      <c r="L1557" s="16">
+        <v>0.42009259259259263</v>
+      </c>
+      <c r="M1557" s="17">
+        <v>6.8898260000000003E-2</v>
+      </c>
     </row>
     <row r="1558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1558">
@@ -82680,6 +83005,12 @@
       <c r="K1558">
         <v>7000</v>
       </c>
+      <c r="L1558" s="16">
+        <v>0.42100694444444442</v>
+      </c>
+      <c r="M1558" s="17">
+        <v>9.4775129999999999E-2</v>
+      </c>
       <c r="S1558" t="s">
         <v>167</v>
       </c>
@@ -82712,6 +83043,12 @@
       <c r="K1559">
         <v>7000</v>
       </c>
+      <c r="L1559" s="16">
+        <v>0.42203703703703704</v>
+      </c>
+      <c r="M1559">
+        <v>0.71726959999999995</v>
+      </c>
     </row>
     <row r="1560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1560">
@@ -82741,6 +83078,12 @@
       <c r="K1560">
         <v>7000</v>
       </c>
+      <c r="L1560" s="16">
+        <v>0.42303240740740744</v>
+      </c>
+      <c r="M1560">
+        <v>0.18066499999999999</v>
+      </c>
     </row>
     <row r="1561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1561">
@@ -82770,6 +83113,12 @@
       <c r="K1561">
         <v>7000</v>
       </c>
+      <c r="L1561" s="16">
+        <v>0.42407407407407405</v>
+      </c>
+      <c r="M1561">
+        <v>0.13717019999999999</v>
+      </c>
     </row>
     <row r="1562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1562">
@@ -82799,6 +83148,12 @@
       <c r="K1562">
         <v>7000</v>
       </c>
+      <c r="L1562" s="16">
+        <v>0.42511574074074071</v>
+      </c>
+      <c r="M1562" s="17">
+        <v>7.3027419999999996E-2</v>
+      </c>
     </row>
     <row r="1563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1563">
@@ -82828,6 +83183,12 @@
       <c r="K1563">
         <v>7000</v>
       </c>
+      <c r="L1563" s="16">
+        <v>0.42607638888888894</v>
+      </c>
+      <c r="M1563">
+        <v>0.68857679999999999</v>
+      </c>
     </row>
     <row r="1564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1564">
@@ -82857,6 +83218,12 @@
       <c r="K1564">
         <v>7000</v>
       </c>
+      <c r="L1564" s="16">
+        <v>0.42702546296296301</v>
+      </c>
+      <c r="M1564">
+        <v>0.1004752</v>
+      </c>
     </row>
     <row r="1565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1565">
@@ -82886,6 +83253,12 @@
       <c r="K1565">
         <v>7000</v>
       </c>
+      <c r="L1565" s="16">
+        <v>0.42788194444444444</v>
+      </c>
+      <c r="M1565" s="17">
+        <v>7.9673649999999999E-2</v>
+      </c>
     </row>
     <row r="1566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1566">
@@ -82915,6 +83288,12 @@
       <c r="K1566">
         <v>7000</v>
       </c>
+      <c r="L1566" s="16">
+        <v>0.42898148148148146</v>
+      </c>
+      <c r="M1566">
+        <v>0.93517209999999995</v>
+      </c>
     </row>
     <row r="1567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1567">
@@ -82944,6 +83323,12 @@
       <c r="K1567">
         <v>7000</v>
       </c>
+      <c r="L1567" s="16">
+        <v>0.43004629629629632</v>
+      </c>
+      <c r="M1567">
+        <v>0.39422299999999999</v>
+      </c>
     </row>
     <row r="1568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1568">
@@ -82973,6 +83358,12 @@
       <c r="K1568">
         <v>7000</v>
       </c>
+      <c r="L1568" s="16">
+        <v>0.43111111111111117</v>
+      </c>
+      <c r="M1568" s="17">
+        <v>7.8049030000000005E-2</v>
+      </c>
     </row>
     <row r="1569" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1569">
@@ -83002,6 +83393,12 @@
       <c r="K1569">
         <v>7000</v>
       </c>
+      <c r="L1569" s="16">
+        <v>0.43215277777777777</v>
+      </c>
+      <c r="M1569" s="17">
+        <v>9.5815819999999996E-2</v>
+      </c>
     </row>
     <row r="1570" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1570">
@@ -83031,6 +83428,12 @@
       <c r="K1570">
         <v>7000</v>
       </c>
+      <c r="L1570" s="16">
+        <v>0.43322916666666672</v>
+      </c>
+      <c r="M1570">
+        <v>0.13464860000000001</v>
+      </c>
     </row>
     <row r="1571" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1571">
@@ -83060,6 +83463,12 @@
       <c r="K1571">
         <v>7000</v>
       </c>
+      <c r="L1571" s="16">
+        <v>0.43427083333333333</v>
+      </c>
+      <c r="M1571">
+        <v>0.118759</v>
+      </c>
     </row>
     <row r="1572" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1572">
@@ -83089,6 +83498,12 @@
       <c r="K1572">
         <v>7000</v>
       </c>
+      <c r="L1572" s="16">
+        <v>0.43517361111111108</v>
+      </c>
+      <c r="M1572">
+        <v>0.25022519999999998</v>
+      </c>
     </row>
     <row r="1573" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1573">
@@ -83118,6 +83533,12 @@
       <c r="K1573">
         <v>7000</v>
       </c>
+      <c r="L1573" s="16">
+        <v>0.43606481481481479</v>
+      </c>
+      <c r="M1573">
+        <v>0.75814689999999996</v>
+      </c>
     </row>
     <row r="1574" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1574">
@@ -83144,6 +83565,12 @@
       <c r="K1574">
         <v>7000</v>
       </c>
+      <c r="L1574" s="16">
+        <v>0.43701388888888887</v>
+      </c>
+      <c r="M1574" s="17">
+        <v>1.4854310000000001E-2</v>
+      </c>
     </row>
     <row r="1575" spans="1:30" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1575" s="37">
@@ -83172,6 +83599,12 @@
       </c>
       <c r="K1575" s="37">
         <v>7000</v>
+      </c>
+      <c r="L1575" s="16">
+        <v>0.4378009259259259</v>
+      </c>
+      <c r="M1575" s="17">
+        <v>1.273204E-2</v>
       </c>
       <c r="T1575" s="58"/>
       <c r="U1575" s="58"/>
@@ -83216,6 +83649,12 @@
       <c r="K1576" s="31">
         <v>7000</v>
       </c>
+      <c r="L1576" s="16">
+        <v>0.37498842592592596</v>
+      </c>
+      <c r="M1576">
+        <v>0.89602760000000004</v>
+      </c>
     </row>
     <row r="1577" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1577">
@@ -83245,6 +83684,12 @@
       <c r="K1577" s="31">
         <v>7000</v>
       </c>
+      <c r="L1577" s="16">
+        <v>0.37601851851851853</v>
+      </c>
+      <c r="M1577">
+        <v>0.44213629999999998</v>
+      </c>
     </row>
     <row r="1578" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1578">
@@ -83274,6 +83719,12 @@
       <c r="K1578" s="31">
         <v>7000</v>
       </c>
+      <c r="L1578" s="16">
+        <v>0.37697916666666664</v>
+      </c>
+      <c r="M1578">
+        <v>0.64167030000000003</v>
+      </c>
     </row>
     <row r="1579" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1579">
@@ -83303,6 +83754,12 @@
       <c r="K1579" s="31">
         <v>7000</v>
       </c>
+      <c r="L1579" s="16">
+        <v>0.37793981481481481</v>
+      </c>
+      <c r="M1579" s="17">
+        <v>9.3114020000000006E-2</v>
+      </c>
     </row>
     <row r="1580" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1580">
@@ -83332,6 +83789,12 @@
       <c r="K1580" s="31">
         <v>7000</v>
       </c>
+      <c r="L1580" s="16">
+        <v>0.37878472222222226</v>
+      </c>
+      <c r="M1580">
+        <v>0.1428498</v>
+      </c>
     </row>
     <row r="1581" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1581">
@@ -83360,6 +83823,12 @@
       </c>
       <c r="K1581" s="31">
         <v>7000</v>
+      </c>
+      <c r="L1581" s="16">
+        <v>0.37978009259259254</v>
+      </c>
+      <c r="M1581">
+        <v>0.99184510000000004</v>
       </c>
     </row>
     <row r="1582" spans="1:30" x14ac:dyDescent="0.2">
@@ -83390,6 +83859,12 @@
       <c r="K1582" s="31">
         <v>7000</v>
       </c>
+      <c r="L1582" s="16">
+        <v>0.38078703703703703</v>
+      </c>
+      <c r="M1582">
+        <v>0.1491353</v>
+      </c>
     </row>
     <row r="1583" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1583">
@@ -83419,6 +83894,12 @@
       <c r="K1583" s="31">
         <v>7000</v>
       </c>
+      <c r="L1583" s="16">
+        <v>0.38165509259259256</v>
+      </c>
+      <c r="M1583">
+        <v>0.1067719</v>
+      </c>
     </row>
     <row r="1584" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1584">
@@ -83448,8 +83929,14 @@
       <c r="K1584" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1585" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1584" s="16">
+        <v>0.38268518518518518</v>
+      </c>
+      <c r="M1584">
+        <v>0.7878039</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1585">
         <v>10</v>
       </c>
@@ -83477,8 +83964,14 @@
       <c r="K1585" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1586" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1585" s="16">
+        <v>0.3837268518518519</v>
+      </c>
+      <c r="M1585">
+        <v>0.55166210000000004</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1586">
         <v>11</v>
       </c>
@@ -83506,8 +83999,14 @@
       <c r="K1586" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1587" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1586" s="16">
+        <v>0.38461805555555556</v>
+      </c>
+      <c r="M1586">
+        <v>0.73367570000000004</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1587">
         <v>12</v>
       </c>
@@ -83535,8 +84034,14 @@
       <c r="K1587" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1588" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1587" s="16">
+        <v>0.38565972222222222</v>
+      </c>
+      <c r="M1587">
+        <v>1.1024689999999999</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1588">
         <v>13</v>
       </c>
@@ -83564,8 +84069,14 @@
       <c r="K1588" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1589" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1588" s="16">
+        <v>0.38662037037037034</v>
+      </c>
+      <c r="M1588">
+        <v>0.14344560000000001</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1589">
         <v>14</v>
       </c>
@@ -83593,8 +84104,14 @@
       <c r="K1589" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1590" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1589" s="16">
+        <v>0.3875231481481482</v>
+      </c>
+      <c r="M1589" s="17">
+        <v>6.8247039999999995E-2</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1590">
         <v>15</v>
       </c>
@@ -83622,8 +84139,14 @@
       <c r="K1590" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1591" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1590" s="16">
+        <v>0.38851851851851849</v>
+      </c>
+      <c r="M1590" s="17">
+        <v>7.2862659999999996E-2</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1591">
         <v>16</v>
       </c>
@@ -83651,8 +84174,14 @@
       <c r="K1591" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1592" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1591" s="16">
+        <v>0.38934027777777774</v>
+      </c>
+      <c r="M1591">
+        <v>0.13964190000000001</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1592">
         <v>17</v>
       </c>
@@ -83680,8 +84209,14 @@
       <c r="K1592" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1593" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1592" s="16">
+        <v>0.39043981481481477</v>
+      </c>
+      <c r="M1592">
+        <v>0.60977749999999997</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1593">
         <v>18</v>
       </c>
@@ -83709,8 +84244,14 @@
       <c r="K1593" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1594" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1593" s="16">
+        <v>0.39149305555555558</v>
+      </c>
+      <c r="M1593" s="17">
+        <v>7.2800610000000002E-2</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1594">
         <v>19</v>
       </c>
@@ -83738,8 +84279,14 @@
       <c r="K1594" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1595" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1594" s="16">
+        <v>0.39238425925925924</v>
+      </c>
+      <c r="M1594">
+        <v>0.1323637</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1595">
         <v>20</v>
       </c>
@@ -83767,8 +84314,14 @@
       <c r="K1595" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1596" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1595" s="16">
+        <v>0.39351851851851855</v>
+      </c>
+      <c r="M1595">
+        <v>0.63114119999999996</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1596">
         <v>21</v>
       </c>
@@ -83796,8 +84349,14 @@
       <c r="K1596" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1597" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1596" s="16">
+        <v>0.39450231481481479</v>
+      </c>
+      <c r="M1596" s="17">
+        <v>5.4622169999999998E-2</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1597">
         <v>22</v>
       </c>
@@ -83825,8 +84384,14 @@
       <c r="K1597" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1598" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1597" s="16">
+        <v>0.39534722222222224</v>
+      </c>
+      <c r="M1597" s="17">
+        <v>8.2527439999999994E-2</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1598">
         <v>23</v>
       </c>
@@ -83854,8 +84419,14 @@
       <c r="K1598" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1599" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1598" s="16">
+        <v>0.3963888888888889</v>
+      </c>
+      <c r="M1598" s="17">
+        <v>9.720144E-2</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1599">
         <v>24</v>
       </c>
@@ -83883,8 +84454,14 @@
       <c r="K1599" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1600" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1599" s="16">
+        <v>0.39754629629629629</v>
+      </c>
+      <c r="M1599">
+        <v>0.15863749999999999</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1600">
         <v>25</v>
       </c>
@@ -83912,8 +84489,14 @@
       <c r="K1600" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1601" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1600" s="16">
+        <v>0.3986574074074074</v>
+      </c>
+      <c r="M1600">
+        <v>0.1278368</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1601">
         <v>26</v>
       </c>
@@ -83941,8 +84524,14 @@
       <c r="K1601" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1602" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1601" s="16">
+        <v>0.39967592592592593</v>
+      </c>
+      <c r="M1601">
+        <v>0.1339689</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1602">
         <v>27</v>
       </c>
@@ -83967,8 +84556,14 @@
       <c r="K1602" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1603" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1602" s="16">
+        <v>0.40065972222222218</v>
+      </c>
+      <c r="M1602" s="17">
+        <v>9.6043229999999997E-3</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1603">
         <v>28</v>
       </c>
@@ -83996,8 +84591,14 @@
       <c r="K1603" s="31">
         <v>7000</v>
       </c>
-    </row>
-    <row r="1604" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1603" s="16">
+        <v>0.